--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>日期</t>
   </si>
@@ -22,10 +25,10 @@
     <t>当日行情走势</t>
   </si>
   <si>
-    <t>止损线情况</t>
+    <t>止损线状态</t>
   </si>
   <si>
-    <t>是否走向不利指标</t>
+    <t>是否向预期相反方向发展指标</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -184,17 +187,23 @@
     <t>是否出现巨大的价差
 （即最高价和最低价之间的差价拉大）</t>
   </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -227,6 +236,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -240,9 +256,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,69 +342,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,7 +350,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,16 +364,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,7 +386,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +396,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +419,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -416,13 +437,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,19 +485,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +521,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,25 +563,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,67 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,18 +605,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -613,15 +634,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,7 +647,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,24 +663,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,17 +693,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,207 +716,240 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -984,6 +1010,1629 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="交易计划及执行表"/>
+      <sheetName val="交易水平监控表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>000001</v>
+          </cell>
+          <cell r="B4">
+            <v>44517</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>003040(楚天龙)</v>
+          </cell>
+          <cell r="D4">
+            <v>22.15</v>
+          </cell>
+          <cell r="E4">
+            <v>23.55</v>
+          </cell>
+          <cell r="F4">
+            <v>24.52</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H4">
+            <v>25.7</v>
+          </cell>
+          <cell r="I4">
+            <v>5.46</v>
+          </cell>
+          <cell r="J4">
+            <v>46.33</v>
+          </cell>
+          <cell r="K4">
+            <v>3.70695970695971</v>
+          </cell>
+          <cell r="L4">
+            <v>0.445283833369307</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="N4">
+            <v>20.79</v>
+          </cell>
+          <cell r="O4">
+            <v>29.8</v>
+          </cell>
+          <cell r="P4">
+            <v>21.88</v>
+          </cell>
+          <cell r="Q4">
+            <v>26.5</v>
+          </cell>
+          <cell r="R4">
+            <v>22.1</v>
+          </cell>
+          <cell r="S4">
+            <v>26.4</v>
+          </cell>
+          <cell r="T4">
+            <v>24</v>
+          </cell>
+          <cell r="U4">
+            <v>26.2</v>
+          </cell>
+          <cell r="V4">
+            <v>24.52</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="Y4" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Z4">
+            <v>0.551262680768401</v>
+          </cell>
+          <cell r="AA4">
+            <v>0.265771812080537</v>
+          </cell>
+          <cell r="AB4">
+            <v>0.166037735849057</v>
+          </cell>
+          <cell r="AC4">
+            <v>0.0909090909090909</v>
+          </cell>
+          <cell r="AD4">
+            <v>0.0641221374045801</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AF4" t="str">
+            <v>5T</v>
+          </cell>
+          <cell r="AG4" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+          <cell r="AH4">
+            <v>28.15</v>
+          </cell>
+          <cell r="AI4">
+            <v>21.87</v>
+          </cell>
+          <cell r="AJ4">
+            <v>6.28</v>
+          </cell>
+          <cell r="AK4">
+            <v>26.2</v>
+          </cell>
+          <cell r="AL4">
+            <v>24.68</v>
+          </cell>
+          <cell r="AM4">
+            <v>32.49</v>
+          </cell>
+          <cell r="AN4">
+            <v>152</v>
+          </cell>
+          <cell r="AO4">
+            <v>100</v>
+          </cell>
+          <cell r="AP4">
+            <v>4.13815789473685</v>
+          </cell>
+          <cell r="AQ4">
+            <v>0.0580152671755725</v>
+          </cell>
+          <cell r="AR4">
+            <v>0.240076335877863</v>
+          </cell>
+          <cell r="AS4">
+            <v>150.88</v>
+          </cell>
+          <cell r="AT4" t="str">
+            <v>不宜入场</v>
+          </cell>
+          <cell r="AU4">
+            <v>44523</v>
+          </cell>
+          <cell r="AV4">
+            <v>26.2</v>
+          </cell>
+          <cell r="AW4">
+            <v>200</v>
+          </cell>
+          <cell r="AX4">
+            <v>5</v>
+          </cell>
+          <cell r="AY4">
+            <v>0.1048</v>
+          </cell>
+          <cell r="AZ4">
+            <v>5245.1048</v>
+          </cell>
+          <cell r="BA4">
+            <v>309.1048</v>
+          </cell>
+          <cell r="BB4">
+            <v>26.5</v>
+          </cell>
+          <cell r="BC4">
+            <v>25.21</v>
+          </cell>
+          <cell r="BD4">
+            <v>0.232558139534884</v>
+          </cell>
+          <cell r="BE4">
+            <v>44526</v>
+          </cell>
+          <cell r="BF4">
+            <v>24.89</v>
+          </cell>
+          <cell r="BG4">
+            <v>100</v>
+          </cell>
+          <cell r="BH4">
+            <v>5</v>
+          </cell>
+          <cell r="BI4">
+            <v>2.489</v>
+          </cell>
+          <cell r="BJ4">
+            <v>2481.511</v>
+          </cell>
+          <cell r="BK4">
+            <v>27.43</v>
+          </cell>
+          <cell r="BL4">
+            <v>24.74</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>000002</v>
+          </cell>
+          <cell r="B6">
+            <v>44517</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>600085(同仁堂)</v>
+          </cell>
+          <cell r="D6">
+            <v>31.92</v>
+          </cell>
+          <cell r="E6">
+            <v>32.63</v>
+          </cell>
+          <cell r="F6">
+            <v>33.17</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H6">
+            <v>33.73</v>
+          </cell>
+          <cell r="I6">
+            <v>22.98</v>
+          </cell>
+          <cell r="J6">
+            <v>44.42</v>
+          </cell>
+          <cell r="K6">
+            <v>0.467798085291558</v>
+          </cell>
+          <cell r="L6">
+            <v>0.240657361548852</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>30.78</v>
+          </cell>
+          <cell r="O6">
+            <v>35</v>
+          </cell>
+          <cell r="P6">
+            <v>31.27</v>
+          </cell>
+          <cell r="Q6">
+            <v>34.82</v>
+          </cell>
+          <cell r="R6">
+            <v>32.12</v>
+          </cell>
+          <cell r="S6">
+            <v>34.11</v>
+          </cell>
+          <cell r="T6">
+            <v>32.53</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="Y6" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Z6">
+            <v>0.307068887888339</v>
+          </cell>
+          <cell r="AA6">
+            <v>0.106571428571429</v>
+          </cell>
+          <cell r="AB6">
+            <v>0.077541642734061</v>
+          </cell>
+          <cell r="AC6">
+            <v>0.0463207270595133</v>
+          </cell>
+          <cell r="AD6" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AF6" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AG6" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</v>
+          </cell>
+          <cell r="AH6">
+            <v>35.48</v>
+          </cell>
+          <cell r="AI6">
+            <v>31.36</v>
+          </cell>
+          <cell r="AJ6">
+            <v>4.12</v>
+          </cell>
+          <cell r="AK6">
+            <v>34.12</v>
+          </cell>
+          <cell r="AL6">
+            <v>32.53</v>
+          </cell>
+          <cell r="AM6">
+            <v>39.33</v>
+          </cell>
+          <cell r="AN6">
+            <v>159</v>
+          </cell>
+          <cell r="AO6">
+            <v>100</v>
+          </cell>
+          <cell r="AP6">
+            <v>3.27672955974844</v>
+          </cell>
+          <cell r="AQ6">
+            <v>0.0466002344665884</v>
+          </cell>
+          <cell r="AR6">
+            <v>0.152696365767878</v>
+          </cell>
+          <cell r="AS6">
+            <v>37.41</v>
+          </cell>
+          <cell r="AT6" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AU6">
+            <v>44523</v>
+          </cell>
+          <cell r="AV6">
+            <v>33.73</v>
+          </cell>
+          <cell r="AW6">
+            <v>100</v>
+          </cell>
+          <cell r="AX6">
+            <v>5</v>
+          </cell>
+          <cell r="AY6">
+            <v>0.06746</v>
+          </cell>
+          <cell r="AZ6">
+            <v>3378.06746</v>
+          </cell>
+          <cell r="BA6">
+            <v>125.06746</v>
+          </cell>
+          <cell r="BB6">
+            <v>35.36</v>
+          </cell>
+          <cell r="BC6">
+            <v>33.1</v>
+          </cell>
+          <cell r="BD6">
+            <v>0.721238938053099</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>000003</v>
+          </cell>
+          <cell r="B7">
+            <v>44519</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>603867(新化股份)</v>
+          </cell>
+          <cell r="D7">
+            <v>28.2</v>
+          </cell>
+          <cell r="E7">
+            <v>29.15</v>
+          </cell>
+          <cell r="F7">
+            <v>31.53</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H7">
+            <v>32.57</v>
+          </cell>
+          <cell r="I7">
+            <v>20.61</v>
+          </cell>
+          <cell r="J7">
+            <v>41.5</v>
+          </cell>
+          <cell r="K7">
+            <v>0.58030082484231</v>
+          </cell>
+          <cell r="L7">
+            <v>0.215180722891566</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="N7">
+            <v>28.42</v>
+          </cell>
+          <cell r="O7">
+            <v>34.7</v>
+          </cell>
+          <cell r="P7">
+            <v>29</v>
+          </cell>
+          <cell r="Q7">
+            <v>35.27</v>
+          </cell>
+          <cell r="R7">
+            <v>30.89</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="Y7" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Z7">
+            <v>0.315180722891566</v>
+          </cell>
+          <cell r="AA7">
+            <v>0.164265129682997</v>
+          </cell>
+          <cell r="AB7">
+            <v>0.124184859654097</v>
+          </cell>
+          <cell r="AC7" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AD7" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AF7" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG7" t="str">
+            <v>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</v>
+          </cell>
+          <cell r="AH7">
+            <v>36.21</v>
+          </cell>
+          <cell r="AI7">
+            <v>27.35</v>
+          </cell>
+          <cell r="AJ7">
+            <v>8.86</v>
+          </cell>
+          <cell r="AK7">
+            <v>32.65</v>
+          </cell>
+          <cell r="AL7">
+            <v>30.89</v>
+          </cell>
+          <cell r="AM7">
+            <v>36.22</v>
+          </cell>
+          <cell r="AN7">
+            <v>176</v>
+          </cell>
+          <cell r="AO7">
+            <v>100</v>
+          </cell>
+          <cell r="AP7">
+            <v>2.02840909090909</v>
+          </cell>
+          <cell r="AQ7">
+            <v>0.0539050535987748</v>
+          </cell>
+          <cell r="AR7">
+            <v>0.109341500765697</v>
+          </cell>
+          <cell r="AS7">
+            <v>28.82</v>
+          </cell>
+          <cell r="AT7" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AU7">
+            <v>44522</v>
+          </cell>
+          <cell r="AV7">
+            <v>32.7</v>
+          </cell>
+          <cell r="AW7">
+            <v>100</v>
+          </cell>
+          <cell r="AX7">
+            <v>5</v>
+          </cell>
+          <cell r="AY7">
+            <v>0.0654</v>
+          </cell>
+          <cell r="AZ7">
+            <v>3275.0654</v>
+          </cell>
+          <cell r="BA7">
+            <v>186.0654</v>
+          </cell>
+          <cell r="BB7">
+            <v>33.9</v>
+          </cell>
+          <cell r="BC7">
+            <v>32.49</v>
+          </cell>
+          <cell r="BD7">
+            <v>0.851063829787233</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>000004</v>
+          </cell>
+          <cell r="B8">
+            <v>44525</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>002932(明德生物)</v>
+          </cell>
+          <cell r="D8">
+            <v>64.32</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>65，56</v>
+          </cell>
+          <cell r="F8">
+            <v>68.37</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H8">
+            <v>69.16</v>
+          </cell>
+          <cell r="I8">
+            <v>40.64</v>
+          </cell>
+          <cell r="J8">
+            <v>90.29</v>
+          </cell>
+          <cell r="K8">
+            <v>0.701771653543307</v>
+          </cell>
+          <cell r="L8">
+            <v>0.234023701406579</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="N8">
+            <v>60.05</v>
+          </cell>
+          <cell r="O8">
+            <v>74.75</v>
+          </cell>
+          <cell r="P8">
+            <v>65.5</v>
+          </cell>
+          <cell r="Q8">
+            <v>70.98</v>
+          </cell>
+          <cell r="R8">
+            <v>66.88</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="Y8" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Z8">
+            <v>0.33492081072101</v>
+          </cell>
+          <cell r="AA8">
+            <v>0.123745819397993</v>
+          </cell>
+          <cell r="AB8">
+            <v>0.0577627500704425</v>
+          </cell>
+          <cell r="AC8" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AF8" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG8" t="str">
+            <v>成交量先随价格收缩至几乎被榨干，然后随价格收缩有些许放量，最后又收缩至几乎榨干状态</v>
+          </cell>
+          <cell r="AH8">
+            <v>75.02</v>
+          </cell>
+          <cell r="AI8">
+            <v>62.33</v>
+          </cell>
+          <cell r="AJ8">
+            <v>12.69</v>
+          </cell>
+          <cell r="AK8">
+            <v>70.98</v>
+          </cell>
+          <cell r="AL8">
+            <v>66.88</v>
+          </cell>
+          <cell r="AM8">
+            <v>84.94</v>
+          </cell>
+          <cell r="AN8">
+            <v>410.000000000001</v>
+          </cell>
+          <cell r="AO8">
+            <v>0</v>
+          </cell>
+          <cell r="AP8">
+            <v>3.40487804878048</v>
+          </cell>
+          <cell r="AQ8">
+            <v>0.0577627500704425</v>
+          </cell>
+          <cell r="AR8">
+            <v>0.196675119752043</v>
+          </cell>
+          <cell r="AS8">
+            <v>6.49</v>
+          </cell>
+          <cell r="AT8" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AU8">
+            <v>44526</v>
+          </cell>
+          <cell r="AV8">
+            <v>72.07</v>
+          </cell>
+          <cell r="AW8">
+            <v>100</v>
+          </cell>
+          <cell r="AX8">
+            <v>5</v>
+          </cell>
+          <cell r="AY8">
+            <v>0.14414</v>
+          </cell>
+          <cell r="AZ8">
+            <v>7212.14414</v>
+          </cell>
+          <cell r="BA8">
+            <v>524.14414</v>
+          </cell>
+          <cell r="BB8">
+            <v>74.5</v>
+          </cell>
+          <cell r="BC8">
+            <v>70.4</v>
+          </cell>
+          <cell r="BD8">
+            <v>0.592682926829271</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>000005</v>
+          </cell>
+          <cell r="B9">
+            <v>44522</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>605016(百龙创园)</v>
+          </cell>
+          <cell r="D9">
+            <v>28.37</v>
+          </cell>
+          <cell r="E9">
+            <v>29.06</v>
+          </cell>
+          <cell r="F9">
+            <v>29.49</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
+            <v>29.69</v>
+          </cell>
+          <cell r="I9">
+            <v>17.54</v>
+          </cell>
+          <cell r="J9">
+            <v>48.5</v>
+          </cell>
+          <cell r="K9">
+            <v>0.692702394526796</v>
+          </cell>
+          <cell r="L9">
+            <v>0.387835051546392</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="N9">
+            <v>24.11</v>
+          </cell>
+          <cell r="O9">
+            <v>38.16</v>
+          </cell>
+          <cell r="P9">
+            <v>25.12</v>
+          </cell>
+          <cell r="Q9">
+            <v>30.9</v>
+          </cell>
+          <cell r="R9">
+            <v>29.2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="Y9" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Z9">
+            <v>0.502886597938144</v>
+          </cell>
+          <cell r="AA9">
+            <v>0.341719077568134</v>
+          </cell>
+          <cell r="AB9">
+            <v>0.0550161812297734</v>
+          </cell>
+          <cell r="AC9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AD9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AF9" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG9" t="str">
+            <v>由于价格收缩不明显，成交量收缩情况不予考虑</v>
+          </cell>
+          <cell r="AH9">
+            <v>32.43</v>
+          </cell>
+          <cell r="AI9">
+            <v>26.16</v>
+          </cell>
+          <cell r="AJ9">
+            <v>6.27</v>
+          </cell>
+          <cell r="AK9">
+            <v>30.66</v>
+          </cell>
+          <cell r="AL9">
+            <v>29.35</v>
+          </cell>
+          <cell r="AM9">
+            <v>38.71</v>
+          </cell>
+          <cell r="AN9">
+            <v>131</v>
+          </cell>
+          <cell r="AO9">
+            <v>200</v>
+          </cell>
+          <cell r="AP9">
+            <v>6.14503816793894</v>
+          </cell>
+          <cell r="AQ9">
+            <v>0.042726679712981</v>
+          </cell>
+          <cell r="AR9">
+            <v>0.262557077625571</v>
+          </cell>
+          <cell r="AS9">
+            <v>38.46</v>
+          </cell>
+          <cell r="AT9" t="str">
+            <v>不宜入场</v>
+          </cell>
+          <cell r="AU9">
+            <v>44524</v>
+          </cell>
+          <cell r="AV9">
+            <v>30.54</v>
+          </cell>
+          <cell r="AW9">
+            <v>100</v>
+          </cell>
+          <cell r="AX9">
+            <v>5</v>
+          </cell>
+          <cell r="AY9">
+            <v>0.06108</v>
+          </cell>
+          <cell r="AZ9">
+            <v>3059.06108</v>
+          </cell>
+          <cell r="BA9">
+            <v>124.06108</v>
+          </cell>
+          <cell r="BB9">
+            <v>30.72</v>
+          </cell>
+          <cell r="BC9">
+            <v>29.33</v>
+          </cell>
+          <cell r="BD9">
+            <v>0.129496402877698</v>
+          </cell>
+          <cell r="BE9">
+            <v>44525</v>
+          </cell>
+          <cell r="BF9">
+            <v>30.15</v>
+          </cell>
+          <cell r="BG9">
+            <v>100</v>
+          </cell>
+          <cell r="BH9">
+            <v>5</v>
+          </cell>
+          <cell r="BI9">
+            <v>3.075</v>
+          </cell>
+          <cell r="BJ9">
+            <v>3006.925</v>
+          </cell>
+          <cell r="BK9">
+            <v>30.69</v>
+          </cell>
+          <cell r="BL9">
+            <v>30.01</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>000010</v>
+          </cell>
+          <cell r="B10">
+            <v>44524</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>603663(三祥新材)</v>
+          </cell>
+          <cell r="D10">
+            <v>18.26</v>
+          </cell>
+          <cell r="E10">
+            <v>19.01</v>
+          </cell>
+          <cell r="F10">
+            <v>21.05</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="H10">
+            <v>23.2</v>
+          </cell>
+          <cell r="I10">
+            <v>13.04</v>
+          </cell>
+          <cell r="J10">
+            <v>26.64</v>
+          </cell>
+          <cell r="K10">
+            <v>0.779141104294479</v>
+          </cell>
+          <cell r="L10">
+            <v>0.129129129129129</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="N10">
+            <v>18.5</v>
+          </cell>
+          <cell r="O10">
+            <v>22.39</v>
+          </cell>
+          <cell r="P10">
+            <v>18.85</v>
+          </cell>
+          <cell r="Q10">
+            <v>23.56</v>
+          </cell>
+          <cell r="R10">
+            <v>20.89</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="Y10" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Z10">
+            <v>0.305555555555556</v>
+          </cell>
+          <cell r="AA10">
+            <v>0.158106297454221</v>
+          </cell>
+          <cell r="AB10">
+            <v>0.113327674023769</v>
+          </cell>
+          <cell r="AC10" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AF10" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG10" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+          <cell r="AH10">
+            <v>25.19</v>
+          </cell>
+          <cell r="AI10">
+            <v>17.73</v>
+          </cell>
+          <cell r="AJ10">
+            <v>7.46</v>
+          </cell>
+          <cell r="AK10">
+            <v>23.56</v>
+          </cell>
+          <cell r="AL10">
+            <v>22.12</v>
+          </cell>
+          <cell r="AM10">
+            <v>26.91</v>
+          </cell>
+          <cell r="AN10">
+            <v>144</v>
+          </cell>
+          <cell r="AO10">
+            <v>200</v>
+          </cell>
+          <cell r="AP10">
+            <v>2.32638888888889</v>
+          </cell>
+          <cell r="AQ10">
+            <v>0.0611205432937181</v>
+          </cell>
+          <cell r="AR10">
+            <v>0.142190152801358</v>
+          </cell>
+          <cell r="AS10">
+            <v>53.49</v>
+          </cell>
+          <cell r="AT10" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>000014</v>
+          </cell>
+          <cell r="B11">
+            <v>44524</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>600392(盛和资源)</v>
+          </cell>
+          <cell r="D11">
+            <v>20.14</v>
+          </cell>
+          <cell r="E11">
+            <v>20.65</v>
+          </cell>
+          <cell r="F11">
+            <v>20.97</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11">
+            <v>21.52</v>
+          </cell>
+          <cell r="I11">
+            <v>7.07</v>
+          </cell>
+          <cell r="J11">
+            <v>29.28</v>
+          </cell>
+          <cell r="K11">
+            <v>2.04384724186704</v>
+          </cell>
+          <cell r="L11">
+            <v>0.265027322404372</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="N11">
+            <v>18.34</v>
+          </cell>
+          <cell r="O11">
+            <v>21.65</v>
+          </cell>
+          <cell r="P11">
+            <v>18.61</v>
+          </cell>
+          <cell r="Q11">
+            <v>21.14</v>
+          </cell>
+          <cell r="R11">
+            <v>18.86</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="Y11" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Z11">
+            <v>0.373633879781421</v>
+          </cell>
+          <cell r="AA11">
+            <v>0.140415704387991</v>
+          </cell>
+          <cell r="AB11">
+            <v>0.107852412488174</v>
+          </cell>
+          <cell r="AC11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AF11" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG11" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AN11">
+            <v>0</v>
+          </cell>
+          <cell r="AO11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AP11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AT11" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>000015</v>
+          </cell>
+          <cell r="B12">
+            <v>44524</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>600399(抚顺特钢)</v>
+          </cell>
+          <cell r="D12">
+            <v>19.9</v>
+          </cell>
+          <cell r="E12">
+            <v>20.73</v>
+          </cell>
+          <cell r="F12">
+            <v>22.88</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12">
+            <v>23.53</v>
+          </cell>
+          <cell r="I12">
+            <v>7.25</v>
+          </cell>
+          <cell r="J12">
+            <v>29.3</v>
+          </cell>
+          <cell r="K12">
+            <v>2.24551724137931</v>
+          </cell>
+          <cell r="L12">
+            <v>0.196928327645051</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="N12">
+            <v>19.05</v>
+          </cell>
+          <cell r="O12">
+            <v>22.91</v>
+          </cell>
+          <cell r="P12">
+            <v>19.73</v>
+          </cell>
+          <cell r="Q12">
+            <v>25.5</v>
+          </cell>
+          <cell r="R12">
+            <v>23.12</v>
+          </cell>
+          <cell r="S12">
+            <v>26.45</v>
+          </cell>
+          <cell r="T12">
+            <v>23.48</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="Y12" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Z12">
+            <v>0.349829351535836</v>
+          </cell>
+          <cell r="AA12">
+            <v>0.138804015713662</v>
+          </cell>
+          <cell r="AB12">
+            <v>0.0933333333333333</v>
+          </cell>
+          <cell r="AC12">
+            <v>0.112287334593573</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AF12" t="str">
+            <v>3T</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AK12">
+            <v>25.15</v>
+          </cell>
+          <cell r="AL12">
+            <v>23.48</v>
+          </cell>
+          <cell r="AM12">
+            <v>27.83</v>
+          </cell>
+          <cell r="AN12">
+            <v>167</v>
+          </cell>
+          <cell r="AO12">
+            <v>100</v>
+          </cell>
+          <cell r="AP12">
+            <v>1.60479041916168</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AT12" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>000017</v>
+          </cell>
+          <cell r="B13">
+            <v>44524</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>601677(明泰铝业)</v>
+          </cell>
+          <cell r="D13">
+            <v>26.7</v>
+          </cell>
+          <cell r="E13">
+            <v>28.65</v>
+          </cell>
+          <cell r="F13">
+            <v>33.16</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13">
+            <v>36.11</v>
+          </cell>
+          <cell r="I13">
+            <v>11.38</v>
+          </cell>
+          <cell r="J13">
+            <v>41.75</v>
+          </cell>
+          <cell r="K13">
+            <v>2.17311072056239</v>
+          </cell>
+          <cell r="L13">
+            <v>0.135089820359281</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="N13">
+            <v>28.85</v>
+          </cell>
+          <cell r="O13">
+            <v>35.46</v>
+          </cell>
+          <cell r="P13">
+            <v>29.05</v>
+          </cell>
+          <cell r="Q13">
+            <v>34.35</v>
+          </cell>
+          <cell r="R13">
+            <v>31.5</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="Y13" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Z13">
+            <v>0.308982035928144</v>
+          </cell>
+          <cell r="AA13">
+            <v>0.180767061477721</v>
+          </cell>
+          <cell r="AB13">
+            <v>0.0829694323144105</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AF13" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG13" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AK13">
+            <v>37.13</v>
+          </cell>
+          <cell r="AL13">
+            <v>35.6</v>
+          </cell>
+          <cell r="AM13">
+            <v>38.61</v>
+          </cell>
+          <cell r="AN13">
+            <v>153</v>
+          </cell>
+          <cell r="AO13">
+            <v>100</v>
+          </cell>
+          <cell r="AP13">
+            <v>0.967320261437906</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AT13" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>000018</v>
+          </cell>
+          <cell r="B14">
+            <v>44524</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>002223(鱼跃医疗)</v>
+          </cell>
+          <cell r="D14">
+            <v>32.91</v>
+          </cell>
+          <cell r="E14">
+            <v>33.52</v>
+          </cell>
+          <cell r="F14">
+            <v>34.71</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14">
+            <v>36.09</v>
+          </cell>
+          <cell r="I14">
+            <v>25.12</v>
+          </cell>
+          <cell r="J14">
+            <v>41.77</v>
+          </cell>
+          <cell r="K14">
+            <v>0.436703821656051</v>
+          </cell>
+          <cell r="L14">
+            <v>0.135982762748384</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="N14">
+            <v>30.46</v>
+          </cell>
+          <cell r="O14">
+            <v>36.94</v>
+          </cell>
+          <cell r="P14">
+            <v>33.59</v>
+          </cell>
+          <cell r="Q14">
+            <v>37.1</v>
+          </cell>
+          <cell r="R14">
+            <v>34.44</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="Y14" t="str">
+            <v>16w</v>
+          </cell>
+          <cell r="Z14">
+            <v>0.270768494134546</v>
+          </cell>
+          <cell r="AA14">
+            <v>0.0906876015159717</v>
+          </cell>
+          <cell r="AB14">
+            <v>0.0716981132075473</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AF14" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG14" t="str">
+            <v>不是很明显</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AK14">
+            <v>37.09</v>
+          </cell>
+          <cell r="AL14">
+            <v>35.25</v>
+          </cell>
+          <cell r="AM14">
+            <v>38.8</v>
+          </cell>
+          <cell r="AN14">
+            <v>184</v>
+          </cell>
+          <cell r="AO14">
+            <v>100</v>
+          </cell>
+          <cell r="AP14">
+            <v>0.929347826086951</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AT14" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>000019</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>000020</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>000021</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>000022</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>000023</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>000024</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>000025</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>000026</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>000027</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>000028</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>000029</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>000030</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>000031</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>000032</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>000033</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>000034</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>000035</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>000036</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>000037</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>000038</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>000039</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>000040</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>000041</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>000042</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>000043</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>000044</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>000045</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>000046</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>000047</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>000048</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>000049</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>000050</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>000051</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>000052</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>000053</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>000054</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>000055</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>000056</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>000057</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>000058</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>000059</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>000060</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>000061</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>000062</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>000063</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>000064</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>000065</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>000066</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>000067</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>000068</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>000069</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1251,7 +2900,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="$A3:$XFD5"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1293,28 +2942,28 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="9" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
@@ -1330,58 +2979,58 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1389,28 +3038,79 @@
       <c r="A3" s="5">
         <v>44526</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="6"/>
+      <c r="B3" s="6">
+        <v>71.25</v>
+      </c>
+      <c r="C3" s="6">
+        <v>72</v>
+      </c>
+      <c r="D3" s="6">
+        <v>74.5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>70.4</v>
+      </c>
+      <c r="F3" s="6">
+        <v>6.49</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>67.53</v>
+      </c>
+      <c r="I3" s="6">
+        <f>H3/(1-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,43,FALSE))</f>
+        <v>71.6698474880383</v>
+      </c>
+      <c r="J3" s="6">
+        <f>I3+I3*VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
+        <v>79.9495424641149</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="8" t="str">
+        <f>IF(B3&gt;(D3-(D3-C3)/3),"上部",IF(B3&gt;=(E3+(D3-C3)/3),"中部","下部"))</f>
+        <v>中部</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16">
+        <f>F3/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,45,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="17">
+        <f>(B3-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE)</f>
+        <v>-0.0113778271125294</v>
+      </c>
+      <c r="T3" s="18">
+        <f>G3/(ROW()-2)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="20">
+        <v>0.0302</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="21">
+        <f>D3-E3</f>
+        <v>4.09999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="5">
@@ -1421,21 +3121,23 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
       <c r="R4" s="6"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="5">
@@ -1446,21 +3148,23 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
       <c r="R5" s="6"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="5">
@@ -1471,21 +3175,23 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
       <c r="R6" s="6"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="5">
@@ -1496,21 +3202,23 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
       <c r="R7" s="6"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="5">
@@ -1521,21 +3229,23 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
       <c r="R8" s="6"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="5">
@@ -1546,21 +3256,23 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
       <c r="R9" s="6"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="5">
@@ -1571,21 +3283,23 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
       <c r="R10" s="6"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="5">
@@ -1596,21 +3310,23 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
       <c r="R11" s="6"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="5">
@@ -1621,21 +3337,23 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
       <c r="R12" s="6"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="5">
@@ -1646,21 +3364,23 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
       <c r="R13" s="6"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="5">
@@ -1671,21 +3391,23 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
       <c r="R14" s="6"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="5">
@@ -1696,21 +3418,23 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
       <c r="R15" s="6"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="5">
@@ -1721,21 +3445,23 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
       <c r="R16" s="6"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="5">
@@ -1746,21 +3472,23 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
       <c r="R17" s="6"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="5">
@@ -1771,21 +3499,23 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
       <c r="R18" s="6"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="5">
@@ -1796,21 +3526,23 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
       <c r="R19" s="6"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="5">
@@ -1821,21 +3553,23 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
       <c r="R20" s="6"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="5">
@@ -1845,23 +3579,26 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
       <c r="R21" s="6"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="5">
         <v>44545</v>
       </c>
@@ -1869,22 +3606,26 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="22"/>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="5">
         <v>44546</v>
       </c>
@@ -1892,22 +3633,26 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="22"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="5">
         <v>44547</v>
       </c>
@@ -1915,22 +3660,26 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="22"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="5">
         <v>44548</v>
       </c>
@@ -1938,22 +3687,26 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="22"/>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="5">
         <v>44549</v>
       </c>
@@ -1961,22 +3714,26 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="22"/>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="5">
         <v>44550</v>
       </c>
@@ -1984,22 +3741,26 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="22"/>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="5">
         <v>44551</v>
       </c>
@@ -2007,22 +3768,26 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="22"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="5">
         <v>44552</v>
       </c>
@@ -2030,22 +3795,26 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="22"/>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="5">
         <v>44553</v>
       </c>
@@ -2053,22 +3822,26 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="22"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="5">
         <v>44554</v>
       </c>
@@ -2076,22 +3849,26 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="22"/>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="5">
         <v>44555</v>
       </c>
@@ -2099,22 +3876,26 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="G32" s="1"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="22"/>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="5">
         <v>44556</v>
       </c>
@@ -2122,22 +3903,26 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="G33" s="1"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="22"/>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="5">
         <v>44557</v>
       </c>
@@ -2145,22 +3930,26 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="22"/>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="5">
         <v>44558</v>
       </c>
@@ -2168,20 +3957,24 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="22"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -82,6 +82,13 @@
   </si>
   <si>
     <t>最低价是否出现下移</t>
+  </si>
+  <si>
+    <t>是否出现长长的上阴影线</t>
+  </si>
+  <si>
+    <t>是否出现巨大的价差
+（即最高价和最低价之间的差价拉大）</t>
   </si>
   <si>
     <t>基底数
@@ -179,13 +186,6 @@
   <si>
     <t>单日涨幅
 (创新高要注意)</t>
-  </si>
-  <si>
-    <t>是否出现长长的上阴影线</t>
-  </si>
-  <si>
-    <t>是否出现巨大的价差
-（即最高价和最低价之间的差价拉大）</t>
   </si>
   <si>
     <t>否</t>
@@ -924,8 +924,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -933,23 +939,17 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2896,11 +2896,11 @@
   <dimension ref="A1:W497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2921,13 +2921,13 @@
     <col min="14" max="14" width="28.7142857142857" customWidth="1"/>
     <col min="15" max="15" width="30.0625" customWidth="1"/>
     <col min="16" max="16" width="21.875" customWidth="1"/>
-    <col min="17" max="17" width="20.5267857142857" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.4464285714286" customWidth="1"/>
-    <col min="19" max="19" width="22.3125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="18.3035714285714" customWidth="1"/>
-    <col min="21" max="21" width="20.3839285714286" customWidth="1"/>
-    <col min="22" max="22" width="20.6785714285714" customWidth="1"/>
-    <col min="23" max="23" width="39.5803571428571" customWidth="1"/>
+    <col min="17" max="17" width="24.9910714285714" customWidth="1"/>
+    <col min="18" max="18" width="39.5803571428571" customWidth="1"/>
+    <col min="19" max="19" width="20.5267857142857" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.4464285714286" customWidth="1"/>
+    <col min="21" max="21" width="22.3125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.3035714285714" customWidth="1"/>
+    <col min="23" max="23" width="20.3839285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -2955,11 +2955,11 @@
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
@@ -3018,19 +3018,19 @@
       <c r="R2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3086,30 +3086,30 @@
       <c r="P3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="16">
+        <f>D3-E3</f>
+        <v>4.09999999999999</v>
+      </c>
+      <c r="S3" s="17">
         <v>0</v>
       </c>
-      <c r="R3" s="16">
+      <c r="T3" s="18">
         <f>F3/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,45,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="S3" s="17">
+      <c r="U3" s="20">
         <f>(B3-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE)</f>
         <v>-0.0113778271125294</v>
       </c>
-      <c r="T3" s="18">
+      <c r="V3" s="21">
         <f>G3/(ROW()-2)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="20">
+      <c r="W3" s="22">
         <v>0.0302</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="21">
-        <f>D3-E3</f>
-        <v>4.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -3132,9 +3132,9 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="6"/>
+      <c r="R4" s="8"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="T4" s="6"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -3159,9 +3159,9 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="6"/>
+      <c r="R5" s="8"/>
       <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="T5" s="6"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
@@ -3186,9 +3186,9 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="6"/>
+      <c r="R6" s="8"/>
       <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="T6" s="6"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
@@ -3213,9 +3213,9 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="6"/>
+      <c r="R7" s="8"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
+      <c r="T7" s="6"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
@@ -3240,9 +3240,9 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="6"/>
+      <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="T8" s="6"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
@@ -3267,9 +3267,9 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="6"/>
+      <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
+      <c r="T9" s="6"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
@@ -3294,9 +3294,9 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="6"/>
+      <c r="R10" s="8"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
+      <c r="T10" s="6"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
@@ -3321,9 +3321,9 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="6"/>
+      <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
+      <c r="T11" s="6"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
@@ -3348,9 +3348,9 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="6"/>
+      <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
+      <c r="T12" s="6"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
@@ -3375,9 +3375,9 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="6"/>
+      <c r="R13" s="8"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
+      <c r="T13" s="6"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
@@ -3402,9 +3402,9 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="6"/>
+      <c r="R14" s="8"/>
       <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
+      <c r="T14" s="6"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
@@ -3429,9 +3429,9 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="6"/>
+      <c r="R15" s="8"/>
       <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
+      <c r="T15" s="6"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
@@ -3456,9 +3456,9 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="6"/>
+      <c r="R16" s="8"/>
       <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
+      <c r="T16" s="6"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
@@ -3483,9 +3483,9 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-      <c r="R17" s="6"/>
+      <c r="R17" s="8"/>
       <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
+      <c r="T17" s="6"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
@@ -3510,9 +3510,9 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="6"/>
+      <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
+      <c r="T18" s="6"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
@@ -3537,9 +3537,9 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="6"/>
+      <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
+      <c r="T19" s="6"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
@@ -3564,9 +3564,9 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-      <c r="R20" s="6"/>
+      <c r="R20" s="8"/>
       <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
+      <c r="T20" s="6"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
@@ -3591,9 +3591,9 @@
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
-      <c r="R21" s="6"/>
+      <c r="R21" s="8"/>
       <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
+      <c r="T21" s="6"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
@@ -3618,12 +3618,12 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
+      <c r="R22" s="19"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
-      <c r="W22" s="22"/>
+      <c r="W22" s="8"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="5">
@@ -3645,12 +3645,12 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
+      <c r="R23" s="19"/>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="22"/>
+      <c r="W23" s="8"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="5">
@@ -3672,12 +3672,12 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
+      <c r="R24" s="19"/>
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
-      <c r="W24" s="22"/>
+      <c r="W24" s="8"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="5">
@@ -3699,12 +3699,12 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
+      <c r="R25" s="19"/>
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
-      <c r="W25" s="22"/>
+      <c r="W25" s="8"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="5">
@@ -3726,12 +3726,12 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
+      <c r="R26" s="19"/>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
-      <c r="W26" s="22"/>
+      <c r="W26" s="8"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="5">
@@ -3753,12 +3753,12 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="R27" s="19"/>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
-      <c r="W27" s="22"/>
+      <c r="W27" s="8"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="5">
@@ -3780,12 +3780,12 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
+      <c r="R28" s="19"/>
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="22"/>
+      <c r="W28" s="8"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="5">
@@ -3807,12 +3807,12 @@
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
+      <c r="R29" s="19"/>
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
-      <c r="W29" s="22"/>
+      <c r="W29" s="8"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="5">
@@ -3834,12 +3834,12 @@
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
+      <c r="R30" s="19"/>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
-      <c r="W30" s="22"/>
+      <c r="W30" s="8"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="5">
@@ -3861,12 +3861,12 @@
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
+      <c r="R31" s="19"/>
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
-      <c r="W31" s="22"/>
+      <c r="W31" s="8"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="5">
@@ -3888,12 +3888,12 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
+      <c r="R32" s="19"/>
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
-      <c r="W32" s="22"/>
+      <c r="W32" s="8"/>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="5">
@@ -3915,12 +3915,12 @@
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
+      <c r="R33" s="19"/>
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
-      <c r="W33" s="22"/>
+      <c r="W33" s="8"/>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="5">
@@ -3942,12 +3942,12 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
+      <c r="R34" s="19"/>
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
-      <c r="W34" s="22"/>
+      <c r="W34" s="8"/>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="5">
@@ -3969,14 +3969,14 @@
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
+      <c r="R35" s="19"/>
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
-      <c r="W35" s="22"/>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35" s="8"/>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3992,12 +3992,13 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="R36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36"/>
       <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
       <c r="V36" s="1"/>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4013,12 +4014,13 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="R37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
       <c r="V37" s="1"/>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4034,12 +4036,13 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="R38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4055,12 +4058,13 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="R39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39"/>
       <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4076,12 +4080,13 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="R40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4097,12 +4102,13 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="R41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41"/>
       <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4118,12 +4124,13 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="R42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42"/>
       <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4139,12 +4146,13 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="R43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43"/>
       <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4160,12 +4168,13 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="R44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44"/>
       <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4181,12 +4190,13 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="R45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45"/>
       <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4202,12 +4212,13 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="R46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46"/>
       <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4223,12 +4234,13 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="R47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47"/>
       <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4244,12 +4256,13 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="R48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48"/>
       <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4265,12 +4278,13 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-      <c r="R49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49"/>
       <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
       <c r="V49" s="1"/>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4286,12 +4300,13 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="R50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50"/>
       <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50" s="1"/>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4307,12 +4322,13 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="R51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51"/>
       <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
       <c r="V51" s="1"/>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4328,12 +4344,13 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-      <c r="R52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52"/>
       <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
       <c r="V52" s="1"/>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4349,12 +4366,13 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-      <c r="R53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53"/>
       <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
       <c r="V53" s="1"/>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4370,12 +4388,13 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-      <c r="R54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54"/>
       <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
       <c r="V54" s="1"/>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4391,12 +4410,13 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-      <c r="R55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55"/>
       <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4412,12 +4432,13 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="R56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56"/>
       <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4433,12 +4454,13 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="R57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57"/>
       <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
       <c r="V57" s="1"/>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="W57" s="1"/>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4454,12 +4476,13 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="R58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58"/>
       <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
       <c r="V58" s="1"/>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58" s="1"/>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4475,12 +4498,13 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="R59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59"/>
       <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
       <c r="V59" s="1"/>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="W59" s="1"/>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4496,12 +4520,13 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="R60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60"/>
       <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
       <c r="V60" s="1"/>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4517,12 +4542,13 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-      <c r="R61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61"/>
       <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
       <c r="V61" s="1"/>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61" s="1"/>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4538,12 +4564,13 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="R62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62"/>
       <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
       <c r="V62" s="1"/>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="W62" s="1"/>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4559,12 +4586,13 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
-      <c r="R63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63"/>
       <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
       <c r="V63" s="1"/>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="W63" s="1"/>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4580,12 +4608,13 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
-      <c r="R64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64"/>
       <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
       <c r="V64" s="1"/>
-    </row>
-    <row r="65" spans="1:22">
+      <c r="W64" s="1"/>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4601,12 +4630,13 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-      <c r="R65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65"/>
       <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
       <c r="V65" s="1"/>
-    </row>
-    <row r="66" spans="1:22">
+      <c r="W65" s="1"/>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4622,12 +4652,13 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-      <c r="R66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66"/>
       <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
       <c r="V66" s="1"/>
-    </row>
-    <row r="67" spans="1:22">
+      <c r="W66" s="1"/>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4643,12 +4674,13 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
-      <c r="R67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67"/>
       <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
       <c r="V67" s="1"/>
-    </row>
-    <row r="68" spans="1:22">
+      <c r="W67" s="1"/>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4664,12 +4696,13 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
-      <c r="R68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68"/>
       <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
       <c r="V68" s="1"/>
-    </row>
-    <row r="69" spans="1:22">
+      <c r="W68" s="1"/>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4685,12 +4718,13 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
-      <c r="R69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69"/>
       <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
       <c r="V69" s="1"/>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="W69" s="1"/>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4706,12 +4740,13 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
-      <c r="R70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70"/>
       <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
       <c r="V70" s="1"/>
-    </row>
-    <row r="71" spans="1:22">
+      <c r="W70" s="1"/>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4727,12 +4762,13 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
-      <c r="R71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71"/>
       <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
       <c r="V71" s="1"/>
-    </row>
-    <row r="72" spans="1:22">
+      <c r="W71" s="1"/>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4748,12 +4784,13 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
-      <c r="R72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72"/>
       <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
       <c r="V72" s="1"/>
-    </row>
-    <row r="73" spans="1:22">
+      <c r="W72" s="1"/>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4769,12 +4806,13 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
-      <c r="R73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73"/>
       <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-    </row>
-    <row r="74" spans="1:22">
+      <c r="W73" s="1"/>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4790,12 +4828,13 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
-      <c r="R74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74"/>
       <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-    </row>
-    <row r="75" spans="1:22">
+      <c r="W74" s="1"/>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4811,12 +4850,13 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
-      <c r="R75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75"/>
       <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
       <c r="V75" s="1"/>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="W75" s="1"/>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4832,12 +4872,13 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
-      <c r="R76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76"/>
       <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-    </row>
-    <row r="77" spans="1:22">
+      <c r="W76" s="1"/>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4853,12 +4894,13 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
-      <c r="R77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77"/>
       <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-    </row>
-    <row r="78" spans="1:22">
+      <c r="W77" s="1"/>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4874,12 +4916,13 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
-      <c r="R78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78"/>
       <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-    </row>
-    <row r="79" spans="1:22">
+      <c r="W78" s="1"/>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4895,12 +4938,13 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
-      <c r="R79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79"/>
       <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="W79" s="1"/>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4916,12 +4960,13 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
-      <c r="R80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80"/>
       <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-    </row>
-    <row r="81" spans="1:22">
+      <c r="W80" s="1"/>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4937,12 +4982,13 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
-      <c r="R81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81"/>
       <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
       <c r="V81" s="1"/>
-    </row>
-    <row r="82" spans="1:22">
+      <c r="W81" s="1"/>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4958,12 +5004,13 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
-      <c r="R82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82"/>
       <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
       <c r="V82" s="1"/>
-    </row>
-    <row r="83" spans="1:22">
+      <c r="W82" s="1"/>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4979,12 +5026,13 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
-      <c r="R83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83"/>
       <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
       <c r="V83" s="1"/>
-    </row>
-    <row r="84" spans="1:22">
+      <c r="W83" s="1"/>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5000,12 +5048,13 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
-      <c r="R84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84"/>
       <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
       <c r="V84" s="1"/>
-    </row>
-    <row r="85" spans="1:22">
+      <c r="W84" s="1"/>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5021,12 +5070,13 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
-      <c r="R85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85"/>
       <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
       <c r="V85" s="1"/>
-    </row>
-    <row r="86" spans="1:22">
+      <c r="W85" s="1"/>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5042,12 +5092,13 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
-      <c r="R86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86"/>
       <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
       <c r="V86" s="1"/>
-    </row>
-    <row r="87" spans="1:22">
+      <c r="W86" s="1"/>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5063,12 +5114,13 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
-      <c r="R87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87"/>
       <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
       <c r="V87" s="1"/>
-    </row>
-    <row r="88" spans="1:22">
+      <c r="W87" s="1"/>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5084,12 +5136,13 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
-      <c r="R88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88"/>
       <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
       <c r="V88" s="1"/>
-    </row>
-    <row r="89" spans="1:22">
+      <c r="W88" s="1"/>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5105,12 +5158,13 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
-      <c r="R89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89"/>
       <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
       <c r="V89" s="1"/>
-    </row>
-    <row r="90" spans="1:22">
+      <c r="W89" s="1"/>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5126,12 +5180,13 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
-      <c r="R90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90"/>
       <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
       <c r="V90" s="1"/>
-    </row>
-    <row r="91" spans="1:22">
+      <c r="W90" s="1"/>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5147,12 +5202,13 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
-      <c r="R91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91"/>
       <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
       <c r="V91" s="1"/>
-    </row>
-    <row r="92" spans="1:22">
+      <c r="W91" s="1"/>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5168,12 +5224,13 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
-      <c r="R92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92"/>
       <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
       <c r="V92" s="1"/>
-    </row>
-    <row r="93" spans="1:22">
+      <c r="W92" s="1"/>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5189,12 +5246,13 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
-      <c r="R93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93"/>
       <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
       <c r="V93" s="1"/>
-    </row>
-    <row r="94" spans="1:22">
+      <c r="W93" s="1"/>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5210,12 +5268,13 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
-      <c r="R94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94"/>
       <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
       <c r="V94" s="1"/>
-    </row>
-    <row r="95" spans="1:22">
+      <c r="W94" s="1"/>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5231,12 +5290,13 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
-      <c r="R95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95"/>
       <c r="T95" s="1"/>
-      <c r="U95" s="1"/>
       <c r="V95" s="1"/>
-    </row>
-    <row r="96" spans="1:22">
+      <c r="W95" s="1"/>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5252,12 +5312,13 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
-      <c r="R96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96"/>
       <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
       <c r="V96" s="1"/>
-    </row>
-    <row r="97" spans="1:22">
+      <c r="W96" s="1"/>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5273,12 +5334,13 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
-      <c r="R97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97"/>
       <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
       <c r="V97" s="1"/>
-    </row>
-    <row r="98" spans="1:22">
+      <c r="W97" s="1"/>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5294,12 +5356,13 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
-      <c r="R98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98"/>
       <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
       <c r="V98" s="1"/>
-    </row>
-    <row r="99" spans="1:22">
+      <c r="W98" s="1"/>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5315,12 +5378,13 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
-      <c r="R99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99"/>
       <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
       <c r="V99" s="1"/>
-    </row>
-    <row r="100" spans="1:22">
+      <c r="W99" s="1"/>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5336,12 +5400,13 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
-      <c r="R100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100"/>
       <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
       <c r="V100" s="1"/>
-    </row>
-    <row r="101" spans="1:22">
+      <c r="W100" s="1"/>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5357,12 +5422,13 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
-      <c r="R101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101"/>
       <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
       <c r="V101" s="1"/>
-    </row>
-    <row r="102" spans="1:22">
+      <c r="W101" s="1"/>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5378,12 +5444,13 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
-      <c r="R102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102"/>
       <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
       <c r="V102" s="1"/>
-    </row>
-    <row r="103" spans="1:22">
+      <c r="W102" s="1"/>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5399,12 +5466,13 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
-      <c r="R103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103"/>
       <c r="T103" s="1"/>
-      <c r="U103" s="1"/>
       <c r="V103" s="1"/>
-    </row>
-    <row r="104" spans="1:22">
+      <c r="W103" s="1"/>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5420,12 +5488,13 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
-      <c r="R104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104"/>
       <c r="T104" s="1"/>
-      <c r="U104" s="1"/>
       <c r="V104" s="1"/>
-    </row>
-    <row r="105" spans="1:22">
+      <c r="W104" s="1"/>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5441,12 +5510,13 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
-      <c r="R105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105"/>
       <c r="T105" s="1"/>
-      <c r="U105" s="1"/>
       <c r="V105" s="1"/>
-    </row>
-    <row r="106" spans="1:22">
+      <c r="W105" s="1"/>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5462,12 +5532,13 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
-      <c r="R106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106"/>
       <c r="T106" s="1"/>
-      <c r="U106" s="1"/>
       <c r="V106" s="1"/>
-    </row>
-    <row r="107" spans="1:22">
+      <c r="W106" s="1"/>
+    </row>
+    <row r="107" spans="1:23">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5483,12 +5554,13 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
-      <c r="R107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107"/>
       <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
       <c r="V107" s="1"/>
-    </row>
-    <row r="108" spans="1:22">
+      <c r="W107" s="1"/>
+    </row>
+    <row r="108" spans="1:23">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5504,12 +5576,13 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
-      <c r="R108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108"/>
       <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
       <c r="V108" s="1"/>
-    </row>
-    <row r="109" spans="1:22">
+      <c r="W108" s="1"/>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5525,12 +5598,13 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
-      <c r="R109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109"/>
       <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
       <c r="V109" s="1"/>
-    </row>
-    <row r="110" spans="1:22">
+      <c r="W109" s="1"/>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5546,12 +5620,13 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
-      <c r="R110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110"/>
       <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
       <c r="V110" s="1"/>
-    </row>
-    <row r="111" spans="1:22">
+      <c r="W110" s="1"/>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5567,12 +5642,13 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
-      <c r="R111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111"/>
       <c r="T111" s="1"/>
-      <c r="U111" s="1"/>
       <c r="V111" s="1"/>
-    </row>
-    <row r="112" spans="1:22">
+      <c r="W111" s="1"/>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5588,12 +5664,13 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
-      <c r="R112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112"/>
       <c r="T112" s="1"/>
-      <c r="U112" s="1"/>
       <c r="V112" s="1"/>
-    </row>
-    <row r="113" spans="1:22">
+      <c r="W112" s="1"/>
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5609,12 +5686,13 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
-      <c r="R113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113"/>
       <c r="T113" s="1"/>
-      <c r="U113" s="1"/>
       <c r="V113" s="1"/>
-    </row>
-    <row r="114" spans="1:22">
+      <c r="W113" s="1"/>
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5630,12 +5708,13 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
-      <c r="R114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114"/>
       <c r="T114" s="1"/>
-      <c r="U114" s="1"/>
       <c r="V114" s="1"/>
-    </row>
-    <row r="115" spans="1:22">
+      <c r="W114" s="1"/>
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5651,12 +5730,13 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
-      <c r="R115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115"/>
       <c r="T115" s="1"/>
-      <c r="U115" s="1"/>
       <c r="V115" s="1"/>
-    </row>
-    <row r="116" spans="1:22">
+      <c r="W115" s="1"/>
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5672,12 +5752,13 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
-      <c r="R116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116"/>
       <c r="T116" s="1"/>
-      <c r="U116" s="1"/>
       <c r="V116" s="1"/>
-    </row>
-    <row r="117" spans="1:22">
+      <c r="W116" s="1"/>
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5693,12 +5774,13 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
-      <c r="R117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117"/>
       <c r="T117" s="1"/>
-      <c r="U117" s="1"/>
       <c r="V117" s="1"/>
-    </row>
-    <row r="118" spans="1:22">
+      <c r="W117" s="1"/>
+    </row>
+    <row r="118" spans="1:23">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5714,12 +5796,13 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
-      <c r="R118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118"/>
       <c r="T118" s="1"/>
-      <c r="U118" s="1"/>
       <c r="V118" s="1"/>
-    </row>
-    <row r="119" spans="1:22">
+      <c r="W118" s="1"/>
+    </row>
+    <row r="119" spans="1:23">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5735,12 +5818,13 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
-      <c r="R119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119"/>
       <c r="T119" s="1"/>
-      <c r="U119" s="1"/>
       <c r="V119" s="1"/>
-    </row>
-    <row r="120" spans="1:22">
+      <c r="W119" s="1"/>
+    </row>
+    <row r="120" spans="1:23">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5756,12 +5840,13 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
-      <c r="R120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120"/>
       <c r="T120" s="1"/>
-      <c r="U120" s="1"/>
       <c r="V120" s="1"/>
-    </row>
-    <row r="121" spans="1:22">
+      <c r="W120" s="1"/>
+    </row>
+    <row r="121" spans="1:23">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5777,12 +5862,13 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
-      <c r="R121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121"/>
       <c r="T121" s="1"/>
-      <c r="U121" s="1"/>
       <c r="V121" s="1"/>
-    </row>
-    <row r="122" spans="1:22">
+      <c r="W121" s="1"/>
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5798,12 +5884,13 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
-      <c r="R122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122"/>
       <c r="T122" s="1"/>
-      <c r="U122" s="1"/>
       <c r="V122" s="1"/>
-    </row>
-    <row r="123" spans="1:22">
+      <c r="W122" s="1"/>
+    </row>
+    <row r="123" spans="1:23">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5819,12 +5906,13 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
-      <c r="R123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123"/>
       <c r="T123" s="1"/>
-      <c r="U123" s="1"/>
       <c r="V123" s="1"/>
-    </row>
-    <row r="124" spans="1:22">
+      <c r="W123" s="1"/>
+    </row>
+    <row r="124" spans="1:23">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5840,12 +5928,13 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
-      <c r="R124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124"/>
       <c r="T124" s="1"/>
-      <c r="U124" s="1"/>
       <c r="V124" s="1"/>
-    </row>
-    <row r="125" spans="1:22">
+      <c r="W124" s="1"/>
+    </row>
+    <row r="125" spans="1:23">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5861,12 +5950,13 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
-      <c r="R125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125"/>
       <c r="T125" s="1"/>
-      <c r="U125" s="1"/>
       <c r="V125" s="1"/>
-    </row>
-    <row r="126" spans="1:22">
+      <c r="W125" s="1"/>
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5882,12 +5972,13 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
-      <c r="R126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126"/>
       <c r="T126" s="1"/>
-      <c r="U126" s="1"/>
       <c r="V126" s="1"/>
-    </row>
-    <row r="127" spans="1:22">
+      <c r="W126" s="1"/>
+    </row>
+    <row r="127" spans="1:23">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5903,12 +5994,13 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
-      <c r="R127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127"/>
       <c r="T127" s="1"/>
-      <c r="U127" s="1"/>
       <c r="V127" s="1"/>
-    </row>
-    <row r="128" spans="1:22">
+      <c r="W127" s="1"/>
+    </row>
+    <row r="128" spans="1:23">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5924,12 +6016,13 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
-      <c r="R128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128"/>
       <c r="T128" s="1"/>
-      <c r="U128" s="1"/>
       <c r="V128" s="1"/>
-    </row>
-    <row r="129" spans="1:22">
+      <c r="W128" s="1"/>
+    </row>
+    <row r="129" spans="1:23">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5945,12 +6038,13 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
-      <c r="R129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129"/>
       <c r="T129" s="1"/>
-      <c r="U129" s="1"/>
       <c r="V129" s="1"/>
-    </row>
-    <row r="130" spans="1:22">
+      <c r="W129" s="1"/>
+    </row>
+    <row r="130" spans="1:23">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5966,12 +6060,13 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
-      <c r="R130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130"/>
       <c r="T130" s="1"/>
-      <c r="U130" s="1"/>
       <c r="V130" s="1"/>
-    </row>
-    <row r="131" spans="1:22">
+      <c r="W130" s="1"/>
+    </row>
+    <row r="131" spans="1:23">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5987,12 +6082,13 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
-      <c r="R131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131"/>
       <c r="T131" s="1"/>
-      <c r="U131" s="1"/>
       <c r="V131" s="1"/>
-    </row>
-    <row r="132" spans="1:22">
+      <c r="W131" s="1"/>
+    </row>
+    <row r="132" spans="1:23">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6008,12 +6104,13 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
-      <c r="R132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132"/>
       <c r="T132" s="1"/>
-      <c r="U132" s="1"/>
       <c r="V132" s="1"/>
-    </row>
-    <row r="133" spans="1:22">
+      <c r="W132" s="1"/>
+    </row>
+    <row r="133" spans="1:23">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6029,12 +6126,13 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
-      <c r="R133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133"/>
       <c r="T133" s="1"/>
-      <c r="U133" s="1"/>
       <c r="V133" s="1"/>
-    </row>
-    <row r="134" spans="1:22">
+      <c r="W133" s="1"/>
+    </row>
+    <row r="134" spans="1:23">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6050,12 +6148,13 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
-      <c r="R134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134"/>
       <c r="T134" s="1"/>
-      <c r="U134" s="1"/>
       <c r="V134" s="1"/>
-    </row>
-    <row r="135" spans="1:22">
+      <c r="W134" s="1"/>
+    </row>
+    <row r="135" spans="1:23">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6071,12 +6170,13 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
-      <c r="R135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135"/>
       <c r="T135" s="1"/>
-      <c r="U135" s="1"/>
       <c r="V135" s="1"/>
-    </row>
-    <row r="136" spans="1:22">
+      <c r="W135" s="1"/>
+    </row>
+    <row r="136" spans="1:23">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6092,12 +6192,13 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
-      <c r="R136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136"/>
       <c r="T136" s="1"/>
-      <c r="U136" s="1"/>
       <c r="V136" s="1"/>
-    </row>
-    <row r="137" spans="1:22">
+      <c r="W136" s="1"/>
+    </row>
+    <row r="137" spans="1:23">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6113,12 +6214,13 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
-      <c r="R137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137"/>
       <c r="T137" s="1"/>
-      <c r="U137" s="1"/>
       <c r="V137" s="1"/>
-    </row>
-    <row r="138" spans="1:22">
+      <c r="W137" s="1"/>
+    </row>
+    <row r="138" spans="1:23">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6134,12 +6236,13 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
-      <c r="R138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138"/>
       <c r="T138" s="1"/>
-      <c r="U138" s="1"/>
       <c r="V138" s="1"/>
-    </row>
-    <row r="139" spans="1:22">
+      <c r="W138" s="1"/>
+    </row>
+    <row r="139" spans="1:23">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6155,12 +6258,13 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
-      <c r="R139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139"/>
       <c r="T139" s="1"/>
-      <c r="U139" s="1"/>
       <c r="V139" s="1"/>
-    </row>
-    <row r="140" spans="1:22">
+      <c r="W139" s="1"/>
+    </row>
+    <row r="140" spans="1:23">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6176,12 +6280,13 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
-      <c r="R140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140"/>
       <c r="T140" s="1"/>
-      <c r="U140" s="1"/>
       <c r="V140" s="1"/>
-    </row>
-    <row r="141" spans="1:22">
+      <c r="W140" s="1"/>
+    </row>
+    <row r="141" spans="1:23">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6197,12 +6302,13 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
-      <c r="R141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141"/>
       <c r="T141" s="1"/>
-      <c r="U141" s="1"/>
       <c r="V141" s="1"/>
-    </row>
-    <row r="142" spans="1:22">
+      <c r="W141" s="1"/>
+    </row>
+    <row r="142" spans="1:23">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6218,12 +6324,13 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
-      <c r="R142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142"/>
       <c r="T142" s="1"/>
-      <c r="U142" s="1"/>
       <c r="V142" s="1"/>
-    </row>
-    <row r="143" spans="1:22">
+      <c r="W142" s="1"/>
+    </row>
+    <row r="143" spans="1:23">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6239,12 +6346,13 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
-      <c r="R143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143"/>
       <c r="T143" s="1"/>
-      <c r="U143" s="1"/>
       <c r="V143" s="1"/>
-    </row>
-    <row r="144" spans="1:22">
+      <c r="W143" s="1"/>
+    </row>
+    <row r="144" spans="1:23">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6260,12 +6368,13 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
-      <c r="R144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144"/>
       <c r="T144" s="1"/>
-      <c r="U144" s="1"/>
       <c r="V144" s="1"/>
-    </row>
-    <row r="145" spans="1:22">
+      <c r="W144" s="1"/>
+    </row>
+    <row r="145" spans="1:23">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6281,12 +6390,13 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
-      <c r="R145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145"/>
       <c r="T145" s="1"/>
-      <c r="U145" s="1"/>
       <c r="V145" s="1"/>
-    </row>
-    <row r="146" spans="1:22">
+      <c r="W145" s="1"/>
+    </row>
+    <row r="146" spans="1:23">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6302,12 +6412,13 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
-      <c r="R146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146"/>
       <c r="T146" s="1"/>
-      <c r="U146" s="1"/>
       <c r="V146" s="1"/>
-    </row>
-    <row r="147" spans="1:22">
+      <c r="W146" s="1"/>
+    </row>
+    <row r="147" spans="1:23">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6323,12 +6434,13 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
-      <c r="R147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147"/>
       <c r="T147" s="1"/>
-      <c r="U147" s="1"/>
       <c r="V147" s="1"/>
-    </row>
-    <row r="148" spans="1:22">
+      <c r="W147" s="1"/>
+    </row>
+    <row r="148" spans="1:23">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6344,12 +6456,13 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
-      <c r="R148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148"/>
       <c r="T148" s="1"/>
-      <c r="U148" s="1"/>
       <c r="V148" s="1"/>
-    </row>
-    <row r="149" spans="1:22">
+      <c r="W148" s="1"/>
+    </row>
+    <row r="149" spans="1:23">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6365,12 +6478,13 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
-      <c r="R149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149"/>
       <c r="T149" s="1"/>
-      <c r="U149" s="1"/>
       <c r="V149" s="1"/>
-    </row>
-    <row r="150" spans="1:22">
+      <c r="W149" s="1"/>
+    </row>
+    <row r="150" spans="1:23">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6386,12 +6500,13 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
-      <c r="R150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150"/>
       <c r="T150" s="1"/>
-      <c r="U150" s="1"/>
       <c r="V150" s="1"/>
-    </row>
-    <row r="151" spans="1:22">
+      <c r="W150" s="1"/>
+    </row>
+    <row r="151" spans="1:23">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6407,12 +6522,13 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
-      <c r="R151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151"/>
       <c r="T151" s="1"/>
-      <c r="U151" s="1"/>
       <c r="V151" s="1"/>
-    </row>
-    <row r="152" spans="1:22">
+      <c r="W151" s="1"/>
+    </row>
+    <row r="152" spans="1:23">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6428,12 +6544,13 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
-      <c r="R152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152"/>
       <c r="T152" s="1"/>
-      <c r="U152" s="1"/>
       <c r="V152" s="1"/>
-    </row>
-    <row r="153" spans="1:22">
+      <c r="W152" s="1"/>
+    </row>
+    <row r="153" spans="1:23">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6449,12 +6566,13 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
-      <c r="R153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153"/>
       <c r="T153" s="1"/>
-      <c r="U153" s="1"/>
       <c r="V153" s="1"/>
-    </row>
-    <row r="154" spans="1:22">
+      <c r="W153" s="1"/>
+    </row>
+    <row r="154" spans="1:23">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6470,12 +6588,13 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
-      <c r="R154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154"/>
       <c r="T154" s="1"/>
-      <c r="U154" s="1"/>
       <c r="V154" s="1"/>
-    </row>
-    <row r="155" spans="1:22">
+      <c r="W154" s="1"/>
+    </row>
+    <row r="155" spans="1:23">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6491,12 +6610,13 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
-      <c r="R155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155"/>
       <c r="T155" s="1"/>
-      <c r="U155" s="1"/>
       <c r="V155" s="1"/>
-    </row>
-    <row r="156" spans="1:22">
+      <c r="W155" s="1"/>
+    </row>
+    <row r="156" spans="1:23">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6512,12 +6632,13 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
-      <c r="R156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156"/>
       <c r="T156" s="1"/>
-      <c r="U156" s="1"/>
       <c r="V156" s="1"/>
-    </row>
-    <row r="157" spans="1:22">
+      <c r="W156" s="1"/>
+    </row>
+    <row r="157" spans="1:23">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6533,12 +6654,13 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
-      <c r="R157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157"/>
       <c r="T157" s="1"/>
-      <c r="U157" s="1"/>
       <c r="V157" s="1"/>
-    </row>
-    <row r="158" spans="1:22">
+      <c r="W157" s="1"/>
+    </row>
+    <row r="158" spans="1:23">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6554,12 +6676,13 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
-      <c r="R158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158"/>
       <c r="T158" s="1"/>
-      <c r="U158" s="1"/>
       <c r="V158" s="1"/>
-    </row>
-    <row r="159" spans="1:22">
+      <c r="W158" s="1"/>
+    </row>
+    <row r="159" spans="1:23">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6575,12 +6698,13 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
-      <c r="R159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159"/>
       <c r="T159" s="1"/>
-      <c r="U159" s="1"/>
       <c r="V159" s="1"/>
-    </row>
-    <row r="160" spans="1:22">
+      <c r="W159" s="1"/>
+    </row>
+    <row r="160" spans="1:23">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6596,12 +6720,13 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
-      <c r="R160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160"/>
       <c r="T160" s="1"/>
-      <c r="U160" s="1"/>
       <c r="V160" s="1"/>
-    </row>
-    <row r="161" spans="1:22">
+      <c r="W160" s="1"/>
+    </row>
+    <row r="161" spans="1:23">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6617,12 +6742,13 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
-      <c r="R161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161"/>
       <c r="T161" s="1"/>
-      <c r="U161" s="1"/>
       <c r="V161" s="1"/>
-    </row>
-    <row r="162" spans="1:22">
+      <c r="W161" s="1"/>
+    </row>
+    <row r="162" spans="1:23">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6638,12 +6764,13 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
-      <c r="R162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162"/>
       <c r="T162" s="1"/>
-      <c r="U162" s="1"/>
       <c r="V162" s="1"/>
-    </row>
-    <row r="163" spans="1:22">
+      <c r="W162" s="1"/>
+    </row>
+    <row r="163" spans="1:23">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6659,12 +6786,13 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
-      <c r="R163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163"/>
       <c r="T163" s="1"/>
-      <c r="U163" s="1"/>
       <c r="V163" s="1"/>
-    </row>
-    <row r="164" spans="1:22">
+      <c r="W163" s="1"/>
+    </row>
+    <row r="164" spans="1:23">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6680,12 +6808,13 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
-      <c r="R164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164"/>
       <c r="T164" s="1"/>
-      <c r="U164" s="1"/>
       <c r="V164" s="1"/>
-    </row>
-    <row r="165" spans="1:22">
+      <c r="W164" s="1"/>
+    </row>
+    <row r="165" spans="1:23">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6701,12 +6830,13 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
-      <c r="R165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165"/>
       <c r="T165" s="1"/>
-      <c r="U165" s="1"/>
       <c r="V165" s="1"/>
-    </row>
-    <row r="166" spans="1:22">
+      <c r="W165" s="1"/>
+    </row>
+    <row r="166" spans="1:23">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6722,12 +6852,13 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
-      <c r="R166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166"/>
       <c r="T166" s="1"/>
-      <c r="U166" s="1"/>
       <c r="V166" s="1"/>
-    </row>
-    <row r="167" spans="1:22">
+      <c r="W166" s="1"/>
+    </row>
+    <row r="167" spans="1:23">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6743,12 +6874,13 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
-      <c r="R167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167"/>
       <c r="T167" s="1"/>
-      <c r="U167" s="1"/>
       <c r="V167" s="1"/>
-    </row>
-    <row r="168" spans="1:22">
+      <c r="W167" s="1"/>
+    </row>
+    <row r="168" spans="1:23">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6764,12 +6896,13 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
-      <c r="R168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168"/>
       <c r="T168" s="1"/>
-      <c r="U168" s="1"/>
       <c r="V168" s="1"/>
-    </row>
-    <row r="169" spans="1:22">
+      <c r="W168" s="1"/>
+    </row>
+    <row r="169" spans="1:23">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6785,12 +6918,13 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
-      <c r="R169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169"/>
       <c r="T169" s="1"/>
-      <c r="U169" s="1"/>
       <c r="V169" s="1"/>
-    </row>
-    <row r="170" spans="1:22">
+      <c r="W169" s="1"/>
+    </row>
+    <row r="170" spans="1:23">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6806,12 +6940,13 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
-      <c r="R170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170"/>
       <c r="T170" s="1"/>
-      <c r="U170" s="1"/>
       <c r="V170" s="1"/>
-    </row>
-    <row r="171" spans="1:22">
+      <c r="W170" s="1"/>
+    </row>
+    <row r="171" spans="1:23">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6827,12 +6962,13 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
-      <c r="R171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171"/>
       <c r="T171" s="1"/>
-      <c r="U171" s="1"/>
       <c r="V171" s="1"/>
-    </row>
-    <row r="172" spans="1:22">
+      <c r="W171" s="1"/>
+    </row>
+    <row r="172" spans="1:23">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6848,12 +6984,13 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
-      <c r="R172" s="1"/>
+      <c r="Q172" s="1"/>
+      <c r="R172"/>
       <c r="T172" s="1"/>
-      <c r="U172" s="1"/>
       <c r="V172" s="1"/>
-    </row>
-    <row r="173" spans="1:22">
+      <c r="W172" s="1"/>
+    </row>
+    <row r="173" spans="1:23">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6869,12 +7006,13 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
-      <c r="R173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173"/>
       <c r="T173" s="1"/>
-      <c r="U173" s="1"/>
       <c r="V173" s="1"/>
-    </row>
-    <row r="174" spans="1:22">
+      <c r="W173" s="1"/>
+    </row>
+    <row r="174" spans="1:23">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6890,12 +7028,13 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
-      <c r="R174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174"/>
       <c r="T174" s="1"/>
-      <c r="U174" s="1"/>
       <c r="V174" s="1"/>
-    </row>
-    <row r="175" spans="1:22">
+      <c r="W174" s="1"/>
+    </row>
+    <row r="175" spans="1:23">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6911,12 +7050,13 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
-      <c r="R175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175"/>
       <c r="T175" s="1"/>
-      <c r="U175" s="1"/>
       <c r="V175" s="1"/>
-    </row>
-    <row r="176" spans="1:22">
+      <c r="W175" s="1"/>
+    </row>
+    <row r="176" spans="1:23">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6932,12 +7072,13 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
-      <c r="R176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176"/>
       <c r="T176" s="1"/>
-      <c r="U176" s="1"/>
       <c r="V176" s="1"/>
-    </row>
-    <row r="177" spans="1:22">
+      <c r="W176" s="1"/>
+    </row>
+    <row r="177" spans="1:23">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6953,12 +7094,13 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
-      <c r="R177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177"/>
       <c r="T177" s="1"/>
-      <c r="U177" s="1"/>
       <c r="V177" s="1"/>
-    </row>
-    <row r="178" spans="1:22">
+      <c r="W177" s="1"/>
+    </row>
+    <row r="178" spans="1:23">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6974,12 +7116,13 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
-      <c r="R178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178"/>
       <c r="T178" s="1"/>
-      <c r="U178" s="1"/>
       <c r="V178" s="1"/>
-    </row>
-    <row r="179" spans="1:22">
+      <c r="W178" s="1"/>
+    </row>
+    <row r="179" spans="1:23">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6995,12 +7138,13 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
-      <c r="R179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179"/>
       <c r="T179" s="1"/>
-      <c r="U179" s="1"/>
       <c r="V179" s="1"/>
-    </row>
-    <row r="180" spans="1:22">
+      <c r="W179" s="1"/>
+    </row>
+    <row r="180" spans="1:23">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7016,12 +7160,13 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
-      <c r="R180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180"/>
       <c r="T180" s="1"/>
-      <c r="U180" s="1"/>
       <c r="V180" s="1"/>
-    </row>
-    <row r="181" spans="1:22">
+      <c r="W180" s="1"/>
+    </row>
+    <row r="181" spans="1:23">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7037,12 +7182,13 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
-      <c r="R181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181"/>
       <c r="T181" s="1"/>
-      <c r="U181" s="1"/>
       <c r="V181" s="1"/>
-    </row>
-    <row r="182" spans="1:22">
+      <c r="W181" s="1"/>
+    </row>
+    <row r="182" spans="1:23">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7058,12 +7204,13 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
-      <c r="R182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182"/>
       <c r="T182" s="1"/>
-      <c r="U182" s="1"/>
       <c r="V182" s="1"/>
-    </row>
-    <row r="183" spans="1:22">
+      <c r="W182" s="1"/>
+    </row>
+    <row r="183" spans="1:23">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7079,12 +7226,13 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
-      <c r="R183" s="1"/>
+      <c r="Q183" s="1"/>
+      <c r="R183"/>
       <c r="T183" s="1"/>
-      <c r="U183" s="1"/>
       <c r="V183" s="1"/>
-    </row>
-    <row r="184" spans="1:22">
+      <c r="W183" s="1"/>
+    </row>
+    <row r="184" spans="1:23">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7100,12 +7248,13 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
-      <c r="R184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184"/>
       <c r="T184" s="1"/>
-      <c r="U184" s="1"/>
       <c r="V184" s="1"/>
-    </row>
-    <row r="185" spans="1:22">
+      <c r="W184" s="1"/>
+    </row>
+    <row r="185" spans="1:23">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7121,12 +7270,13 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
-      <c r="R185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185"/>
       <c r="T185" s="1"/>
-      <c r="U185" s="1"/>
       <c r="V185" s="1"/>
-    </row>
-    <row r="186" spans="1:22">
+      <c r="W185" s="1"/>
+    </row>
+    <row r="186" spans="1:23">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7142,12 +7292,13 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
-      <c r="R186" s="1"/>
+      <c r="Q186" s="1"/>
+      <c r="R186"/>
       <c r="T186" s="1"/>
-      <c r="U186" s="1"/>
       <c r="V186" s="1"/>
-    </row>
-    <row r="187" spans="1:22">
+      <c r="W186" s="1"/>
+    </row>
+    <row r="187" spans="1:23">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7163,12 +7314,13 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
-      <c r="R187" s="1"/>
+      <c r="Q187" s="1"/>
+      <c r="R187"/>
       <c r="T187" s="1"/>
-      <c r="U187" s="1"/>
       <c r="V187" s="1"/>
-    </row>
-    <row r="188" spans="1:22">
+      <c r="W187" s="1"/>
+    </row>
+    <row r="188" spans="1:23">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7184,12 +7336,13 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
-      <c r="R188" s="1"/>
+      <c r="Q188" s="1"/>
+      <c r="R188"/>
       <c r="T188" s="1"/>
-      <c r="U188" s="1"/>
       <c r="V188" s="1"/>
-    </row>
-    <row r="189" spans="1:22">
+      <c r="W188" s="1"/>
+    </row>
+    <row r="189" spans="1:23">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7205,12 +7358,13 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
-      <c r="R189" s="1"/>
+      <c r="Q189" s="1"/>
+      <c r="R189"/>
       <c r="T189" s="1"/>
-      <c r="U189" s="1"/>
       <c r="V189" s="1"/>
-    </row>
-    <row r="190" spans="1:22">
+      <c r="W189" s="1"/>
+    </row>
+    <row r="190" spans="1:23">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7226,12 +7380,13 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
-      <c r="R190" s="1"/>
+      <c r="Q190" s="1"/>
+      <c r="R190"/>
       <c r="T190" s="1"/>
-      <c r="U190" s="1"/>
       <c r="V190" s="1"/>
-    </row>
-    <row r="191" spans="1:22">
+      <c r="W190" s="1"/>
+    </row>
+    <row r="191" spans="1:23">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7247,12 +7402,13 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
-      <c r="R191" s="1"/>
+      <c r="Q191" s="1"/>
+      <c r="R191"/>
       <c r="T191" s="1"/>
-      <c r="U191" s="1"/>
       <c r="V191" s="1"/>
-    </row>
-    <row r="192" spans="1:22">
+      <c r="W191" s="1"/>
+    </row>
+    <row r="192" spans="1:23">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7268,12 +7424,13 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
-      <c r="R192" s="1"/>
+      <c r="Q192" s="1"/>
+      <c r="R192"/>
       <c r="T192" s="1"/>
-      <c r="U192" s="1"/>
       <c r="V192" s="1"/>
-    </row>
-    <row r="193" spans="1:22">
+      <c r="W192" s="1"/>
+    </row>
+    <row r="193" spans="1:23">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7289,12 +7446,13 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
-      <c r="R193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193"/>
       <c r="T193" s="1"/>
-      <c r="U193" s="1"/>
       <c r="V193" s="1"/>
-    </row>
-    <row r="194" spans="1:22">
+      <c r="W193" s="1"/>
+    </row>
+    <row r="194" spans="1:23">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7310,12 +7468,13 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
-      <c r="R194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194"/>
       <c r="T194" s="1"/>
-      <c r="U194" s="1"/>
       <c r="V194" s="1"/>
-    </row>
-    <row r="195" spans="1:22">
+      <c r="W194" s="1"/>
+    </row>
+    <row r="195" spans="1:23">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7331,12 +7490,13 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
-      <c r="R195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195"/>
       <c r="T195" s="1"/>
-      <c r="U195" s="1"/>
       <c r="V195" s="1"/>
-    </row>
-    <row r="196" spans="1:22">
+      <c r="W195" s="1"/>
+    </row>
+    <row r="196" spans="1:23">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7352,12 +7512,13 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
-      <c r="R196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196"/>
       <c r="T196" s="1"/>
-      <c r="U196" s="1"/>
       <c r="V196" s="1"/>
-    </row>
-    <row r="197" spans="1:22">
+      <c r="W196" s="1"/>
+    </row>
+    <row r="197" spans="1:23">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7373,12 +7534,13 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
-      <c r="R197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197"/>
       <c r="T197" s="1"/>
-      <c r="U197" s="1"/>
       <c r="V197" s="1"/>
-    </row>
-    <row r="198" spans="1:22">
+      <c r="W197" s="1"/>
+    </row>
+    <row r="198" spans="1:23">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7394,12 +7556,13 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
-      <c r="R198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198"/>
       <c r="T198" s="1"/>
-      <c r="U198" s="1"/>
       <c r="V198" s="1"/>
-    </row>
-    <row r="199" spans="1:22">
+      <c r="W198" s="1"/>
+    </row>
+    <row r="199" spans="1:23">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7415,12 +7578,13 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
-      <c r="R199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199"/>
       <c r="T199" s="1"/>
-      <c r="U199" s="1"/>
       <c r="V199" s="1"/>
-    </row>
-    <row r="200" spans="1:22">
+      <c r="W199" s="1"/>
+    </row>
+    <row r="200" spans="1:23">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7436,12 +7600,13 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
-      <c r="R200" s="1"/>
+      <c r="Q200" s="1"/>
+      <c r="R200"/>
       <c r="T200" s="1"/>
-      <c r="U200" s="1"/>
       <c r="V200" s="1"/>
-    </row>
-    <row r="201" spans="1:22">
+      <c r="W200" s="1"/>
+    </row>
+    <row r="201" spans="1:23">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7457,12 +7622,13 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
-      <c r="R201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201"/>
       <c r="T201" s="1"/>
-      <c r="U201" s="1"/>
       <c r="V201" s="1"/>
-    </row>
-    <row r="202" spans="1:22">
+      <c r="W201" s="1"/>
+    </row>
+    <row r="202" spans="1:23">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7478,12 +7644,13 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
-      <c r="R202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202"/>
       <c r="T202" s="1"/>
-      <c r="U202" s="1"/>
       <c r="V202" s="1"/>
-    </row>
-    <row r="203" spans="1:22">
+      <c r="W202" s="1"/>
+    </row>
+    <row r="203" spans="1:23">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7499,12 +7666,13 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
-      <c r="R203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203"/>
       <c r="T203" s="1"/>
-      <c r="U203" s="1"/>
       <c r="V203" s="1"/>
-    </row>
-    <row r="204" spans="1:22">
+      <c r="W203" s="1"/>
+    </row>
+    <row r="204" spans="1:23">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7520,12 +7688,13 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
-      <c r="R204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204"/>
       <c r="T204" s="1"/>
-      <c r="U204" s="1"/>
       <c r="V204" s="1"/>
-    </row>
-    <row r="205" spans="1:22">
+      <c r="W204" s="1"/>
+    </row>
+    <row r="205" spans="1:23">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7541,12 +7710,13 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
-      <c r="R205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205"/>
       <c r="T205" s="1"/>
-      <c r="U205" s="1"/>
       <c r="V205" s="1"/>
-    </row>
-    <row r="206" spans="1:22">
+      <c r="W205" s="1"/>
+    </row>
+    <row r="206" spans="1:23">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7562,12 +7732,13 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
-      <c r="R206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206"/>
       <c r="T206" s="1"/>
-      <c r="U206" s="1"/>
       <c r="V206" s="1"/>
-    </row>
-    <row r="207" spans="1:22">
+      <c r="W206" s="1"/>
+    </row>
+    <row r="207" spans="1:23">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7583,12 +7754,13 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
-      <c r="R207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207"/>
       <c r="T207" s="1"/>
-      <c r="U207" s="1"/>
       <c r="V207" s="1"/>
-    </row>
-    <row r="208" spans="1:22">
+      <c r="W207" s="1"/>
+    </row>
+    <row r="208" spans="1:23">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7604,12 +7776,13 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
-      <c r="R208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208"/>
       <c r="T208" s="1"/>
-      <c r="U208" s="1"/>
       <c r="V208" s="1"/>
-    </row>
-    <row r="209" spans="1:22">
+      <c r="W208" s="1"/>
+    </row>
+    <row r="209" spans="1:23">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7625,12 +7798,13 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
-      <c r="R209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209"/>
       <c r="T209" s="1"/>
-      <c r="U209" s="1"/>
       <c r="V209" s="1"/>
-    </row>
-    <row r="210" spans="1:22">
+      <c r="W209" s="1"/>
+    </row>
+    <row r="210" spans="1:23">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7646,12 +7820,13 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
-      <c r="R210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210"/>
       <c r="T210" s="1"/>
-      <c r="U210" s="1"/>
       <c r="V210" s="1"/>
-    </row>
-    <row r="211" spans="1:22">
+      <c r="W210" s="1"/>
+    </row>
+    <row r="211" spans="1:23">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7667,12 +7842,13 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
-      <c r="R211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211"/>
       <c r="T211" s="1"/>
-      <c r="U211" s="1"/>
       <c r="V211" s="1"/>
-    </row>
-    <row r="212" spans="1:22">
+      <c r="W211" s="1"/>
+    </row>
+    <row r="212" spans="1:23">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7688,12 +7864,13 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
-      <c r="R212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212"/>
       <c r="T212" s="1"/>
-      <c r="U212" s="1"/>
       <c r="V212" s="1"/>
-    </row>
-    <row r="213" spans="1:22">
+      <c r="W212" s="1"/>
+    </row>
+    <row r="213" spans="1:23">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7709,12 +7886,13 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
-      <c r="R213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213"/>
       <c r="T213" s="1"/>
-      <c r="U213" s="1"/>
       <c r="V213" s="1"/>
-    </row>
-    <row r="214" spans="1:22">
+      <c r="W213" s="1"/>
+    </row>
+    <row r="214" spans="1:23">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7730,12 +7908,13 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
-      <c r="R214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214"/>
       <c r="T214" s="1"/>
-      <c r="U214" s="1"/>
       <c r="V214" s="1"/>
-    </row>
-    <row r="215" spans="1:22">
+      <c r="W214" s="1"/>
+    </row>
+    <row r="215" spans="1:23">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7751,12 +7930,13 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
-      <c r="R215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215"/>
       <c r="T215" s="1"/>
-      <c r="U215" s="1"/>
       <c r="V215" s="1"/>
-    </row>
-    <row r="216" spans="1:22">
+      <c r="W215" s="1"/>
+    </row>
+    <row r="216" spans="1:23">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7772,12 +7952,13 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
-      <c r="R216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216"/>
       <c r="T216" s="1"/>
-      <c r="U216" s="1"/>
       <c r="V216" s="1"/>
-    </row>
-    <row r="217" spans="1:22">
+      <c r="W216" s="1"/>
+    </row>
+    <row r="217" spans="1:23">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7793,12 +7974,13 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
-      <c r="R217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217"/>
       <c r="T217" s="1"/>
-      <c r="U217" s="1"/>
       <c r="V217" s="1"/>
-    </row>
-    <row r="218" spans="1:22">
+      <c r="W217" s="1"/>
+    </row>
+    <row r="218" spans="1:23">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7814,12 +7996,13 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
-      <c r="R218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218"/>
       <c r="T218" s="1"/>
-      <c r="U218" s="1"/>
       <c r="V218" s="1"/>
-    </row>
-    <row r="219" spans="1:22">
+      <c r="W218" s="1"/>
+    </row>
+    <row r="219" spans="1:23">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7835,12 +8018,13 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
-      <c r="R219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219"/>
       <c r="T219" s="1"/>
-      <c r="U219" s="1"/>
       <c r="V219" s="1"/>
-    </row>
-    <row r="220" spans="1:22">
+      <c r="W219" s="1"/>
+    </row>
+    <row r="220" spans="1:23">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7856,12 +8040,13 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
-      <c r="R220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220"/>
       <c r="T220" s="1"/>
-      <c r="U220" s="1"/>
       <c r="V220" s="1"/>
-    </row>
-    <row r="221" spans="1:22">
+      <c r="W220" s="1"/>
+    </row>
+    <row r="221" spans="1:23">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7877,12 +8062,13 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
-      <c r="R221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221"/>
       <c r="T221" s="1"/>
-      <c r="U221" s="1"/>
       <c r="V221" s="1"/>
-    </row>
-    <row r="222" spans="1:22">
+      <c r="W221" s="1"/>
+    </row>
+    <row r="222" spans="1:23">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7898,12 +8084,13 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
-      <c r="R222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222"/>
       <c r="T222" s="1"/>
-      <c r="U222" s="1"/>
       <c r="V222" s="1"/>
-    </row>
-    <row r="223" spans="1:22">
+      <c r="W222" s="1"/>
+    </row>
+    <row r="223" spans="1:23">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7919,12 +8106,13 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
-      <c r="R223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223"/>
       <c r="T223" s="1"/>
-      <c r="U223" s="1"/>
       <c r="V223" s="1"/>
-    </row>
-    <row r="224" spans="1:22">
+      <c r="W223" s="1"/>
+    </row>
+    <row r="224" spans="1:23">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7940,12 +8128,13 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
-      <c r="R224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224"/>
       <c r="T224" s="1"/>
-      <c r="U224" s="1"/>
       <c r="V224" s="1"/>
-    </row>
-    <row r="225" spans="1:22">
+      <c r="W224" s="1"/>
+    </row>
+    <row r="225" spans="1:23">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7961,12 +8150,13 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
-      <c r="R225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225"/>
       <c r="T225" s="1"/>
-      <c r="U225" s="1"/>
       <c r="V225" s="1"/>
-    </row>
-    <row r="226" spans="1:22">
+      <c r="W225" s="1"/>
+    </row>
+    <row r="226" spans="1:23">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7982,12 +8172,13 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
-      <c r="R226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226"/>
       <c r="T226" s="1"/>
-      <c r="U226" s="1"/>
       <c r="V226" s="1"/>
-    </row>
-    <row r="227" spans="1:22">
+      <c r="W226" s="1"/>
+    </row>
+    <row r="227" spans="1:23">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8003,12 +8194,13 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
-      <c r="R227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227"/>
       <c r="T227" s="1"/>
-      <c r="U227" s="1"/>
       <c r="V227" s="1"/>
-    </row>
-    <row r="228" spans="1:22">
+      <c r="W227" s="1"/>
+    </row>
+    <row r="228" spans="1:23">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8024,12 +8216,13 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
-      <c r="R228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228"/>
       <c r="T228" s="1"/>
-      <c r="U228" s="1"/>
       <c r="V228" s="1"/>
-    </row>
-    <row r="229" spans="1:22">
+      <c r="W228" s="1"/>
+    </row>
+    <row r="229" spans="1:23">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8045,12 +8238,13 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
-      <c r="R229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229"/>
       <c r="T229" s="1"/>
-      <c r="U229" s="1"/>
       <c r="V229" s="1"/>
-    </row>
-    <row r="230" spans="1:22">
+      <c r="W229" s="1"/>
+    </row>
+    <row r="230" spans="1:23">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8066,12 +8260,13 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
-      <c r="R230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230"/>
       <c r="T230" s="1"/>
-      <c r="U230" s="1"/>
       <c r="V230" s="1"/>
-    </row>
-    <row r="231" spans="1:22">
+      <c r="W230" s="1"/>
+    </row>
+    <row r="231" spans="1:23">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8087,12 +8282,13 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
-      <c r="R231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231"/>
       <c r="T231" s="1"/>
-      <c r="U231" s="1"/>
       <c r="V231" s="1"/>
-    </row>
-    <row r="232" spans="1:22">
+      <c r="W231" s="1"/>
+    </row>
+    <row r="232" spans="1:23">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8108,12 +8304,13 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
-      <c r="R232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232"/>
       <c r="T232" s="1"/>
-      <c r="U232" s="1"/>
       <c r="V232" s="1"/>
-    </row>
-    <row r="233" spans="1:22">
+      <c r="W232" s="1"/>
+    </row>
+    <row r="233" spans="1:23">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8129,12 +8326,13 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
-      <c r="R233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233"/>
       <c r="T233" s="1"/>
-      <c r="U233" s="1"/>
       <c r="V233" s="1"/>
-    </row>
-    <row r="234" spans="1:22">
+      <c r="W233" s="1"/>
+    </row>
+    <row r="234" spans="1:23">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8150,12 +8348,13 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
-      <c r="R234" s="1"/>
+      <c r="Q234" s="1"/>
+      <c r="R234"/>
       <c r="T234" s="1"/>
-      <c r="U234" s="1"/>
       <c r="V234" s="1"/>
-    </row>
-    <row r="235" spans="1:22">
+      <c r="W234" s="1"/>
+    </row>
+    <row r="235" spans="1:23">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8171,12 +8370,13 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
-      <c r="R235" s="1"/>
+      <c r="Q235" s="1"/>
+      <c r="R235"/>
       <c r="T235" s="1"/>
-      <c r="U235" s="1"/>
       <c r="V235" s="1"/>
-    </row>
-    <row r="236" spans="1:22">
+      <c r="W235" s="1"/>
+    </row>
+    <row r="236" spans="1:23">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8192,12 +8392,13 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
-      <c r="R236" s="1"/>
+      <c r="Q236" s="1"/>
+      <c r="R236"/>
       <c r="T236" s="1"/>
-      <c r="U236" s="1"/>
       <c r="V236" s="1"/>
-    </row>
-    <row r="237" spans="1:22">
+      <c r="W236" s="1"/>
+    </row>
+    <row r="237" spans="1:23">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8213,12 +8414,13 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
-      <c r="R237" s="1"/>
+      <c r="Q237" s="1"/>
+      <c r="R237"/>
       <c r="T237" s="1"/>
-      <c r="U237" s="1"/>
       <c r="V237" s="1"/>
-    </row>
-    <row r="238" spans="1:22">
+      <c r="W237" s="1"/>
+    </row>
+    <row r="238" spans="1:23">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8234,12 +8436,13 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
-      <c r="R238" s="1"/>
+      <c r="Q238" s="1"/>
+      <c r="R238"/>
       <c r="T238" s="1"/>
-      <c r="U238" s="1"/>
       <c r="V238" s="1"/>
-    </row>
-    <row r="239" spans="1:22">
+      <c r="W238" s="1"/>
+    </row>
+    <row r="239" spans="1:23">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8255,12 +8458,13 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
-      <c r="R239" s="1"/>
+      <c r="Q239" s="1"/>
+      <c r="R239"/>
       <c r="T239" s="1"/>
-      <c r="U239" s="1"/>
       <c r="V239" s="1"/>
-    </row>
-    <row r="240" spans="1:22">
+      <c r="W239" s="1"/>
+    </row>
+    <row r="240" spans="1:23">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8276,12 +8480,13 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
-      <c r="R240" s="1"/>
+      <c r="Q240" s="1"/>
+      <c r="R240"/>
       <c r="T240" s="1"/>
-      <c r="U240" s="1"/>
       <c r="V240" s="1"/>
-    </row>
-    <row r="241" spans="1:22">
+      <c r="W240" s="1"/>
+    </row>
+    <row r="241" spans="1:23">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8297,12 +8502,13 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
-      <c r="R241" s="1"/>
+      <c r="Q241" s="1"/>
+      <c r="R241"/>
       <c r="T241" s="1"/>
-      <c r="U241" s="1"/>
       <c r="V241" s="1"/>
-    </row>
-    <row r="242" spans="1:22">
+      <c r="W241" s="1"/>
+    </row>
+    <row r="242" spans="1:23">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8318,12 +8524,13 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
-      <c r="R242" s="1"/>
+      <c r="Q242" s="1"/>
+      <c r="R242"/>
       <c r="T242" s="1"/>
-      <c r="U242" s="1"/>
       <c r="V242" s="1"/>
-    </row>
-    <row r="243" spans="1:22">
+      <c r="W242" s="1"/>
+    </row>
+    <row r="243" spans="1:23">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8339,12 +8546,13 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
-      <c r="R243" s="1"/>
+      <c r="Q243" s="1"/>
+      <c r="R243"/>
       <c r="T243" s="1"/>
-      <c r="U243" s="1"/>
       <c r="V243" s="1"/>
-    </row>
-    <row r="244" spans="1:22">
+      <c r="W243" s="1"/>
+    </row>
+    <row r="244" spans="1:23">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8360,12 +8568,13 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
-      <c r="R244" s="1"/>
+      <c r="Q244" s="1"/>
+      <c r="R244"/>
       <c r="T244" s="1"/>
-      <c r="U244" s="1"/>
       <c r="V244" s="1"/>
-    </row>
-    <row r="245" spans="1:22">
+      <c r="W244" s="1"/>
+    </row>
+    <row r="245" spans="1:23">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8381,12 +8590,13 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
-      <c r="R245" s="1"/>
+      <c r="Q245" s="1"/>
+      <c r="R245"/>
       <c r="T245" s="1"/>
-      <c r="U245" s="1"/>
       <c r="V245" s="1"/>
-    </row>
-    <row r="246" spans="1:22">
+      <c r="W245" s="1"/>
+    </row>
+    <row r="246" spans="1:23">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8402,12 +8612,13 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
-      <c r="R246" s="1"/>
+      <c r="Q246" s="1"/>
+      <c r="R246"/>
       <c r="T246" s="1"/>
-      <c r="U246" s="1"/>
       <c r="V246" s="1"/>
-    </row>
-    <row r="247" spans="1:22">
+      <c r="W246" s="1"/>
+    </row>
+    <row r="247" spans="1:23">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8423,12 +8634,13 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
-      <c r="R247" s="1"/>
+      <c r="Q247" s="1"/>
+      <c r="R247"/>
       <c r="T247" s="1"/>
-      <c r="U247" s="1"/>
       <c r="V247" s="1"/>
-    </row>
-    <row r="248" spans="1:22">
+      <c r="W247" s="1"/>
+    </row>
+    <row r="248" spans="1:23">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8444,12 +8656,13 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
-      <c r="R248" s="1"/>
+      <c r="Q248" s="1"/>
+      <c r="R248"/>
       <c r="T248" s="1"/>
-      <c r="U248" s="1"/>
       <c r="V248" s="1"/>
-    </row>
-    <row r="249" spans="1:22">
+      <c r="W248" s="1"/>
+    </row>
+    <row r="249" spans="1:23">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8465,12 +8678,13 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
-      <c r="R249" s="1"/>
+      <c r="Q249" s="1"/>
+      <c r="R249"/>
       <c r="T249" s="1"/>
-      <c r="U249" s="1"/>
       <c r="V249" s="1"/>
-    </row>
-    <row r="250" spans="1:22">
+      <c r="W249" s="1"/>
+    </row>
+    <row r="250" spans="1:23">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8486,12 +8700,13 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
-      <c r="R250" s="1"/>
+      <c r="Q250" s="1"/>
+      <c r="R250"/>
       <c r="T250" s="1"/>
-      <c r="U250" s="1"/>
       <c r="V250" s="1"/>
-    </row>
-    <row r="251" spans="1:22">
+      <c r="W250" s="1"/>
+    </row>
+    <row r="251" spans="1:23">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8507,12 +8722,13 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
-      <c r="R251" s="1"/>
+      <c r="Q251" s="1"/>
+      <c r="R251"/>
       <c r="T251" s="1"/>
-      <c r="U251" s="1"/>
       <c r="V251" s="1"/>
-    </row>
-    <row r="252" spans="1:22">
+      <c r="W251" s="1"/>
+    </row>
+    <row r="252" spans="1:23">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8528,12 +8744,13 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
-      <c r="R252" s="1"/>
+      <c r="Q252" s="1"/>
+      <c r="R252"/>
       <c r="T252" s="1"/>
-      <c r="U252" s="1"/>
       <c r="V252" s="1"/>
-    </row>
-    <row r="253" spans="1:22">
+      <c r="W252" s="1"/>
+    </row>
+    <row r="253" spans="1:23">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8549,12 +8766,13 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
-      <c r="R253" s="1"/>
+      <c r="Q253" s="1"/>
+      <c r="R253"/>
       <c r="T253" s="1"/>
-      <c r="U253" s="1"/>
       <c r="V253" s="1"/>
-    </row>
-    <row r="254" spans="1:22">
+      <c r="W253" s="1"/>
+    </row>
+    <row r="254" spans="1:23">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8570,12 +8788,13 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
-      <c r="R254" s="1"/>
+      <c r="Q254" s="1"/>
+      <c r="R254"/>
       <c r="T254" s="1"/>
-      <c r="U254" s="1"/>
       <c r="V254" s="1"/>
-    </row>
-    <row r="255" spans="1:22">
+      <c r="W254" s="1"/>
+    </row>
+    <row r="255" spans="1:23">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8591,12 +8810,13 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
-      <c r="R255" s="1"/>
+      <c r="Q255" s="1"/>
+      <c r="R255"/>
       <c r="T255" s="1"/>
-      <c r="U255" s="1"/>
       <c r="V255" s="1"/>
-    </row>
-    <row r="256" spans="1:22">
+      <c r="W255" s="1"/>
+    </row>
+    <row r="256" spans="1:23">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8612,12 +8832,13 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
-      <c r="R256" s="1"/>
+      <c r="Q256" s="1"/>
+      <c r="R256"/>
       <c r="T256" s="1"/>
-      <c r="U256" s="1"/>
       <c r="V256" s="1"/>
-    </row>
-    <row r="257" spans="1:22">
+      <c r="W256" s="1"/>
+    </row>
+    <row r="257" spans="1:23">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8633,12 +8854,13 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
-      <c r="R257" s="1"/>
+      <c r="Q257" s="1"/>
+      <c r="R257"/>
       <c r="T257" s="1"/>
-      <c r="U257" s="1"/>
       <c r="V257" s="1"/>
-    </row>
-    <row r="258" spans="1:22">
+      <c r="W257" s="1"/>
+    </row>
+    <row r="258" spans="1:23">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8654,12 +8876,13 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
-      <c r="R258" s="1"/>
+      <c r="Q258" s="1"/>
+      <c r="R258"/>
       <c r="T258" s="1"/>
-      <c r="U258" s="1"/>
       <c r="V258" s="1"/>
-    </row>
-    <row r="259" spans="1:22">
+      <c r="W258" s="1"/>
+    </row>
+    <row r="259" spans="1:23">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8675,12 +8898,13 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
-      <c r="R259" s="1"/>
+      <c r="Q259" s="1"/>
+      <c r="R259"/>
       <c r="T259" s="1"/>
-      <c r="U259" s="1"/>
       <c r="V259" s="1"/>
-    </row>
-    <row r="260" spans="1:22">
+      <c r="W259" s="1"/>
+    </row>
+    <row r="260" spans="1:23">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8696,12 +8920,13 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
-      <c r="R260" s="1"/>
+      <c r="Q260" s="1"/>
+      <c r="R260"/>
       <c r="T260" s="1"/>
-      <c r="U260" s="1"/>
       <c r="V260" s="1"/>
-    </row>
-    <row r="261" spans="1:22">
+      <c r="W260" s="1"/>
+    </row>
+    <row r="261" spans="1:23">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8717,12 +8942,13 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
-      <c r="R261" s="1"/>
+      <c r="Q261" s="1"/>
+      <c r="R261"/>
       <c r="T261" s="1"/>
-      <c r="U261" s="1"/>
       <c r="V261" s="1"/>
-    </row>
-    <row r="262" spans="1:22">
+      <c r="W261" s="1"/>
+    </row>
+    <row r="262" spans="1:23">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8738,12 +8964,13 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
-      <c r="R262" s="1"/>
+      <c r="Q262" s="1"/>
+      <c r="R262"/>
       <c r="T262" s="1"/>
-      <c r="U262" s="1"/>
       <c r="V262" s="1"/>
-    </row>
-    <row r="263" spans="1:22">
+      <c r="W262" s="1"/>
+    </row>
+    <row r="263" spans="1:23">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8759,12 +8986,13 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
-      <c r="R263" s="1"/>
+      <c r="Q263" s="1"/>
+      <c r="R263"/>
       <c r="T263" s="1"/>
-      <c r="U263" s="1"/>
       <c r="V263" s="1"/>
-    </row>
-    <row r="264" spans="1:22">
+      <c r="W263" s="1"/>
+    </row>
+    <row r="264" spans="1:23">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -8780,12 +9008,13 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
-      <c r="R264" s="1"/>
+      <c r="Q264" s="1"/>
+      <c r="R264"/>
       <c r="T264" s="1"/>
-      <c r="U264" s="1"/>
       <c r="V264" s="1"/>
-    </row>
-    <row r="265" spans="1:22">
+      <c r="W264" s="1"/>
+    </row>
+    <row r="265" spans="1:23">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -8801,12 +9030,13 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
-      <c r="R265" s="1"/>
+      <c r="Q265" s="1"/>
+      <c r="R265"/>
       <c r="T265" s="1"/>
-      <c r="U265" s="1"/>
       <c r="V265" s="1"/>
-    </row>
-    <row r="266" spans="1:22">
+      <c r="W265" s="1"/>
+    </row>
+    <row r="266" spans="1:23">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -8822,12 +9052,13 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
-      <c r="R266" s="1"/>
+      <c r="Q266" s="1"/>
+      <c r="R266"/>
       <c r="T266" s="1"/>
-      <c r="U266" s="1"/>
       <c r="V266" s="1"/>
-    </row>
-    <row r="267" spans="1:22">
+      <c r="W266" s="1"/>
+    </row>
+    <row r="267" spans="1:23">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -8843,12 +9074,13 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
-      <c r="R267" s="1"/>
+      <c r="Q267" s="1"/>
+      <c r="R267"/>
       <c r="T267" s="1"/>
-      <c r="U267" s="1"/>
       <c r="V267" s="1"/>
-    </row>
-    <row r="268" spans="1:22">
+      <c r="W267" s="1"/>
+    </row>
+    <row r="268" spans="1:23">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -8864,12 +9096,13 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
-      <c r="R268" s="1"/>
+      <c r="Q268" s="1"/>
+      <c r="R268"/>
       <c r="T268" s="1"/>
-      <c r="U268" s="1"/>
       <c r="V268" s="1"/>
-    </row>
-    <row r="269" spans="1:22">
+      <c r="W268" s="1"/>
+    </row>
+    <row r="269" spans="1:23">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -8885,12 +9118,13 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
-      <c r="R269" s="1"/>
+      <c r="Q269" s="1"/>
+      <c r="R269"/>
       <c r="T269" s="1"/>
-      <c r="U269" s="1"/>
       <c r="V269" s="1"/>
-    </row>
-    <row r="270" spans="1:22">
+      <c r="W269" s="1"/>
+    </row>
+    <row r="270" spans="1:23">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -8906,12 +9140,13 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
-      <c r="R270" s="1"/>
+      <c r="Q270" s="1"/>
+      <c r="R270"/>
       <c r="T270" s="1"/>
-      <c r="U270" s="1"/>
       <c r="V270" s="1"/>
-    </row>
-    <row r="271" spans="1:22">
+      <c r="W270" s="1"/>
+    </row>
+    <row r="271" spans="1:23">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -8927,12 +9162,13 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
       <c r="P271" s="1"/>
-      <c r="R271" s="1"/>
+      <c r="Q271" s="1"/>
+      <c r="R271"/>
       <c r="T271" s="1"/>
-      <c r="U271" s="1"/>
       <c r="V271" s="1"/>
-    </row>
-    <row r="272" spans="1:22">
+      <c r="W271" s="1"/>
+    </row>
+    <row r="272" spans="1:23">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -8948,12 +9184,13 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
       <c r="P272" s="1"/>
-      <c r="R272" s="1"/>
+      <c r="Q272" s="1"/>
+      <c r="R272"/>
       <c r="T272" s="1"/>
-      <c r="U272" s="1"/>
       <c r="V272" s="1"/>
-    </row>
-    <row r="273" spans="1:22">
+      <c r="W272" s="1"/>
+    </row>
+    <row r="273" spans="1:23">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -8969,12 +9206,13 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
-      <c r="R273" s="1"/>
+      <c r="Q273" s="1"/>
+      <c r="R273"/>
       <c r="T273" s="1"/>
-      <c r="U273" s="1"/>
       <c r="V273" s="1"/>
-    </row>
-    <row r="274" spans="1:22">
+      <c r="W273" s="1"/>
+    </row>
+    <row r="274" spans="1:23">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -8990,12 +9228,13 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
       <c r="P274" s="1"/>
-      <c r="R274" s="1"/>
+      <c r="Q274" s="1"/>
+      <c r="R274"/>
       <c r="T274" s="1"/>
-      <c r="U274" s="1"/>
       <c r="V274" s="1"/>
-    </row>
-    <row r="275" spans="1:22">
+      <c r="W274" s="1"/>
+    </row>
+    <row r="275" spans="1:23">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -9011,12 +9250,13 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
       <c r="P275" s="1"/>
-      <c r="R275" s="1"/>
+      <c r="Q275" s="1"/>
+      <c r="R275"/>
       <c r="T275" s="1"/>
-      <c r="U275" s="1"/>
       <c r="V275" s="1"/>
-    </row>
-    <row r="276" spans="1:22">
+      <c r="W275" s="1"/>
+    </row>
+    <row r="276" spans="1:23">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -9032,12 +9272,13 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
       <c r="P276" s="1"/>
-      <c r="R276" s="1"/>
+      <c r="Q276" s="1"/>
+      <c r="R276"/>
       <c r="T276" s="1"/>
-      <c r="U276" s="1"/>
       <c r="V276" s="1"/>
-    </row>
-    <row r="277" spans="1:22">
+      <c r="W276" s="1"/>
+    </row>
+    <row r="277" spans="1:23">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -9053,12 +9294,13 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
-      <c r="R277" s="1"/>
+      <c r="Q277" s="1"/>
+      <c r="R277"/>
       <c r="T277" s="1"/>
-      <c r="U277" s="1"/>
       <c r="V277" s="1"/>
-    </row>
-    <row r="278" spans="1:22">
+      <c r="W277" s="1"/>
+    </row>
+    <row r="278" spans="1:23">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -9074,12 +9316,13 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
       <c r="P278" s="1"/>
-      <c r="R278" s="1"/>
+      <c r="Q278" s="1"/>
+      <c r="R278"/>
       <c r="T278" s="1"/>
-      <c r="U278" s="1"/>
       <c r="V278" s="1"/>
-    </row>
-    <row r="279" spans="1:22">
+      <c r="W278" s="1"/>
+    </row>
+    <row r="279" spans="1:23">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -9095,12 +9338,13 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
-      <c r="R279" s="1"/>
+      <c r="Q279" s="1"/>
+      <c r="R279"/>
       <c r="T279" s="1"/>
-      <c r="U279" s="1"/>
       <c r="V279" s="1"/>
-    </row>
-    <row r="280" spans="1:22">
+      <c r="W279" s="1"/>
+    </row>
+    <row r="280" spans="1:23">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -9116,12 +9360,13 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
-      <c r="R280" s="1"/>
+      <c r="Q280" s="1"/>
+      <c r="R280"/>
       <c r="T280" s="1"/>
-      <c r="U280" s="1"/>
       <c r="V280" s="1"/>
-    </row>
-    <row r="281" spans="1:22">
+      <c r="W280" s="1"/>
+    </row>
+    <row r="281" spans="1:23">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -9137,12 +9382,13 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>
-      <c r="R281" s="1"/>
+      <c r="Q281" s="1"/>
+      <c r="R281"/>
       <c r="T281" s="1"/>
-      <c r="U281" s="1"/>
       <c r="V281" s="1"/>
-    </row>
-    <row r="282" spans="1:22">
+      <c r="W281" s="1"/>
+    </row>
+    <row r="282" spans="1:23">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -9158,12 +9404,13 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
-      <c r="R282" s="1"/>
+      <c r="Q282" s="1"/>
+      <c r="R282"/>
       <c r="T282" s="1"/>
-      <c r="U282" s="1"/>
       <c r="V282" s="1"/>
-    </row>
-    <row r="283" spans="1:22">
+      <c r="W282" s="1"/>
+    </row>
+    <row r="283" spans="1:23">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -9179,12 +9426,13 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
       <c r="P283" s="1"/>
-      <c r="R283" s="1"/>
+      <c r="Q283" s="1"/>
+      <c r="R283"/>
       <c r="T283" s="1"/>
-      <c r="U283" s="1"/>
       <c r="V283" s="1"/>
-    </row>
-    <row r="284" spans="1:22">
+      <c r="W283" s="1"/>
+    </row>
+    <row r="284" spans="1:23">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -9200,12 +9448,13 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
       <c r="P284" s="1"/>
-      <c r="R284" s="1"/>
+      <c r="Q284" s="1"/>
+      <c r="R284"/>
       <c r="T284" s="1"/>
-      <c r="U284" s="1"/>
       <c r="V284" s="1"/>
-    </row>
-    <row r="285" spans="1:22">
+      <c r="W284" s="1"/>
+    </row>
+    <row r="285" spans="1:23">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -9221,12 +9470,13 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
       <c r="P285" s="1"/>
-      <c r="R285" s="1"/>
+      <c r="Q285" s="1"/>
+      <c r="R285"/>
       <c r="T285" s="1"/>
-      <c r="U285" s="1"/>
       <c r="V285" s="1"/>
-    </row>
-    <row r="286" spans="1:22">
+      <c r="W285" s="1"/>
+    </row>
+    <row r="286" spans="1:23">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9242,12 +9492,13 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
       <c r="P286" s="1"/>
-      <c r="R286" s="1"/>
+      <c r="Q286" s="1"/>
+      <c r="R286"/>
       <c r="T286" s="1"/>
-      <c r="U286" s="1"/>
       <c r="V286" s="1"/>
-    </row>
-    <row r="287" spans="1:22">
+      <c r="W286" s="1"/>
+    </row>
+    <row r="287" spans="1:23">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9263,12 +9514,13 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
-      <c r="R287" s="1"/>
+      <c r="Q287" s="1"/>
+      <c r="R287"/>
       <c r="T287" s="1"/>
-      <c r="U287" s="1"/>
       <c r="V287" s="1"/>
-    </row>
-    <row r="288" spans="1:22">
+      <c r="W287" s="1"/>
+    </row>
+    <row r="288" spans="1:23">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9284,12 +9536,13 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
-      <c r="R288" s="1"/>
+      <c r="Q288" s="1"/>
+      <c r="R288"/>
       <c r="T288" s="1"/>
-      <c r="U288" s="1"/>
       <c r="V288" s="1"/>
-    </row>
-    <row r="289" spans="1:22">
+      <c r="W288" s="1"/>
+    </row>
+    <row r="289" spans="1:23">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9305,12 +9558,13 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
-      <c r="R289" s="1"/>
+      <c r="Q289" s="1"/>
+      <c r="R289"/>
       <c r="T289" s="1"/>
-      <c r="U289" s="1"/>
       <c r="V289" s="1"/>
-    </row>
-    <row r="290" spans="1:22">
+      <c r="W289" s="1"/>
+    </row>
+    <row r="290" spans="1:23">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9326,12 +9580,13 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
-      <c r="R290" s="1"/>
+      <c r="Q290" s="1"/>
+      <c r="R290"/>
       <c r="T290" s="1"/>
-      <c r="U290" s="1"/>
       <c r="V290" s="1"/>
-    </row>
-    <row r="291" spans="1:22">
+      <c r="W290" s="1"/>
+    </row>
+    <row r="291" spans="1:23">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9347,12 +9602,13 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
-      <c r="R291" s="1"/>
+      <c r="Q291" s="1"/>
+      <c r="R291"/>
       <c r="T291" s="1"/>
-      <c r="U291" s="1"/>
       <c r="V291" s="1"/>
-    </row>
-    <row r="292" spans="1:22">
+      <c r="W291" s="1"/>
+    </row>
+    <row r="292" spans="1:23">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9368,12 +9624,13 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
-      <c r="R292" s="1"/>
+      <c r="Q292" s="1"/>
+      <c r="R292"/>
       <c r="T292" s="1"/>
-      <c r="U292" s="1"/>
       <c r="V292" s="1"/>
-    </row>
-    <row r="293" spans="1:22">
+      <c r="W292" s="1"/>
+    </row>
+    <row r="293" spans="1:23">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9389,12 +9646,13 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
       <c r="P293" s="1"/>
-      <c r="R293" s="1"/>
+      <c r="Q293" s="1"/>
+      <c r="R293"/>
       <c r="T293" s="1"/>
-      <c r="U293" s="1"/>
       <c r="V293" s="1"/>
-    </row>
-    <row r="294" spans="1:22">
+      <c r="W293" s="1"/>
+    </row>
+    <row r="294" spans="1:23">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9410,12 +9668,13 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
       <c r="P294" s="1"/>
-      <c r="R294" s="1"/>
+      <c r="Q294" s="1"/>
+      <c r="R294"/>
       <c r="T294" s="1"/>
-      <c r="U294" s="1"/>
       <c r="V294" s="1"/>
-    </row>
-    <row r="295" spans="1:22">
+      <c r="W294" s="1"/>
+    </row>
+    <row r="295" spans="1:23">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9431,12 +9690,13 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
       <c r="P295" s="1"/>
-      <c r="R295" s="1"/>
+      <c r="Q295" s="1"/>
+      <c r="R295"/>
       <c r="T295" s="1"/>
-      <c r="U295" s="1"/>
       <c r="V295" s="1"/>
-    </row>
-    <row r="296" spans="1:22">
+      <c r="W295" s="1"/>
+    </row>
+    <row r="296" spans="1:23">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9452,12 +9712,13 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
-      <c r="R296" s="1"/>
+      <c r="Q296" s="1"/>
+      <c r="R296"/>
       <c r="T296" s="1"/>
-      <c r="U296" s="1"/>
       <c r="V296" s="1"/>
-    </row>
-    <row r="297" spans="1:22">
+      <c r="W296" s="1"/>
+    </row>
+    <row r="297" spans="1:23">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9473,12 +9734,13 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
-      <c r="R297" s="1"/>
+      <c r="Q297" s="1"/>
+      <c r="R297"/>
       <c r="T297" s="1"/>
-      <c r="U297" s="1"/>
       <c r="V297" s="1"/>
-    </row>
-    <row r="298" spans="1:22">
+      <c r="W297" s="1"/>
+    </row>
+    <row r="298" spans="1:23">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9494,12 +9756,13 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
       <c r="P298" s="1"/>
-      <c r="R298" s="1"/>
+      <c r="Q298" s="1"/>
+      <c r="R298"/>
       <c r="T298" s="1"/>
-      <c r="U298" s="1"/>
       <c r="V298" s="1"/>
-    </row>
-    <row r="299" spans="1:22">
+      <c r="W298" s="1"/>
+    </row>
+    <row r="299" spans="1:23">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9515,12 +9778,13 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
-      <c r="R299" s="1"/>
+      <c r="Q299" s="1"/>
+      <c r="R299"/>
       <c r="T299" s="1"/>
-      <c r="U299" s="1"/>
       <c r="V299" s="1"/>
-    </row>
-    <row r="300" spans="1:22">
+      <c r="W299" s="1"/>
+    </row>
+    <row r="300" spans="1:23">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9536,12 +9800,13 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
-      <c r="R300" s="1"/>
+      <c r="Q300" s="1"/>
+      <c r="R300"/>
       <c r="T300" s="1"/>
-      <c r="U300" s="1"/>
       <c r="V300" s="1"/>
-    </row>
-    <row r="301" spans="1:22">
+      <c r="W300" s="1"/>
+    </row>
+    <row r="301" spans="1:23">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9557,12 +9822,13 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
       <c r="P301" s="1"/>
-      <c r="R301" s="1"/>
+      <c r="Q301" s="1"/>
+      <c r="R301"/>
       <c r="T301" s="1"/>
-      <c r="U301" s="1"/>
       <c r="V301" s="1"/>
-    </row>
-    <row r="302" spans="1:22">
+      <c r="W301" s="1"/>
+    </row>
+    <row r="302" spans="1:23">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9578,12 +9844,13 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
-      <c r="R302" s="1"/>
+      <c r="Q302" s="1"/>
+      <c r="R302"/>
       <c r="T302" s="1"/>
-      <c r="U302" s="1"/>
       <c r="V302" s="1"/>
-    </row>
-    <row r="303" spans="1:22">
+      <c r="W302" s="1"/>
+    </row>
+    <row r="303" spans="1:23">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -9599,12 +9866,13 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
-      <c r="R303" s="1"/>
+      <c r="Q303" s="1"/>
+      <c r="R303"/>
       <c r="T303" s="1"/>
-      <c r="U303" s="1"/>
       <c r="V303" s="1"/>
-    </row>
-    <row r="304" spans="1:22">
+      <c r="W303" s="1"/>
+    </row>
+    <row r="304" spans="1:23">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -9620,12 +9888,13 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
-      <c r="R304" s="1"/>
+      <c r="Q304" s="1"/>
+      <c r="R304"/>
       <c r="T304" s="1"/>
-      <c r="U304" s="1"/>
       <c r="V304" s="1"/>
-    </row>
-    <row r="305" spans="1:22">
+      <c r="W304" s="1"/>
+    </row>
+    <row r="305" spans="1:23">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -9641,12 +9910,13 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
-      <c r="R305" s="1"/>
+      <c r="Q305" s="1"/>
+      <c r="R305"/>
       <c r="T305" s="1"/>
-      <c r="U305" s="1"/>
       <c r="V305" s="1"/>
-    </row>
-    <row r="306" spans="1:22">
+      <c r="W305" s="1"/>
+    </row>
+    <row r="306" spans="1:23">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9662,12 +9932,13 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
-      <c r="R306" s="1"/>
+      <c r="Q306" s="1"/>
+      <c r="R306"/>
       <c r="T306" s="1"/>
-      <c r="U306" s="1"/>
       <c r="V306" s="1"/>
-    </row>
-    <row r="307" spans="1:22">
+      <c r="W306" s="1"/>
+    </row>
+    <row r="307" spans="1:23">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -9683,12 +9954,13 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
-      <c r="R307" s="1"/>
+      <c r="Q307" s="1"/>
+      <c r="R307"/>
       <c r="T307" s="1"/>
-      <c r="U307" s="1"/>
       <c r="V307" s="1"/>
-    </row>
-    <row r="308" spans="1:22">
+      <c r="W307" s="1"/>
+    </row>
+    <row r="308" spans="1:23">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -9704,12 +9976,13 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
-      <c r="R308" s="1"/>
+      <c r="Q308" s="1"/>
+      <c r="R308"/>
       <c r="T308" s="1"/>
-      <c r="U308" s="1"/>
       <c r="V308" s="1"/>
-    </row>
-    <row r="309" spans="1:22">
+      <c r="W308" s="1"/>
+    </row>
+    <row r="309" spans="1:23">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -9725,12 +9998,13 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
-      <c r="R309" s="1"/>
+      <c r="Q309" s="1"/>
+      <c r="R309"/>
       <c r="T309" s="1"/>
-      <c r="U309" s="1"/>
       <c r="V309" s="1"/>
-    </row>
-    <row r="310" spans="1:22">
+      <c r="W309" s="1"/>
+    </row>
+    <row r="310" spans="1:23">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -9746,12 +10020,13 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
       <c r="P310" s="1"/>
-      <c r="R310" s="1"/>
+      <c r="Q310" s="1"/>
+      <c r="R310"/>
       <c r="T310" s="1"/>
-      <c r="U310" s="1"/>
       <c r="V310" s="1"/>
-    </row>
-    <row r="311" spans="1:22">
+      <c r="W310" s="1"/>
+    </row>
+    <row r="311" spans="1:23">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -9767,12 +10042,13 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
       <c r="P311" s="1"/>
-      <c r="R311" s="1"/>
+      <c r="Q311" s="1"/>
+      <c r="R311"/>
       <c r="T311" s="1"/>
-      <c r="U311" s="1"/>
       <c r="V311" s="1"/>
-    </row>
-    <row r="312" spans="1:22">
+      <c r="W311" s="1"/>
+    </row>
+    <row r="312" spans="1:23">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -9788,12 +10064,13 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
       <c r="P312" s="1"/>
-      <c r="R312" s="1"/>
+      <c r="Q312" s="1"/>
+      <c r="R312"/>
       <c r="T312" s="1"/>
-      <c r="U312" s="1"/>
       <c r="V312" s="1"/>
-    </row>
-    <row r="313" spans="1:22">
+      <c r="W312" s="1"/>
+    </row>
+    <row r="313" spans="1:23">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -9809,12 +10086,13 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
       <c r="P313" s="1"/>
-      <c r="R313" s="1"/>
+      <c r="Q313" s="1"/>
+      <c r="R313"/>
       <c r="T313" s="1"/>
-      <c r="U313" s="1"/>
       <c r="V313" s="1"/>
-    </row>
-    <row r="314" spans="1:22">
+      <c r="W313" s="1"/>
+    </row>
+    <row r="314" spans="1:23">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -9830,12 +10108,13 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
       <c r="P314" s="1"/>
-      <c r="R314" s="1"/>
+      <c r="Q314" s="1"/>
+      <c r="R314"/>
       <c r="T314" s="1"/>
-      <c r="U314" s="1"/>
       <c r="V314" s="1"/>
-    </row>
-    <row r="315" spans="1:22">
+      <c r="W314" s="1"/>
+    </row>
+    <row r="315" spans="1:23">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -9851,12 +10130,13 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
-      <c r="R315" s="1"/>
+      <c r="Q315" s="1"/>
+      <c r="R315"/>
       <c r="T315" s="1"/>
-      <c r="U315" s="1"/>
       <c r="V315" s="1"/>
-    </row>
-    <row r="316" spans="1:22">
+      <c r="W315" s="1"/>
+    </row>
+    <row r="316" spans="1:23">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -9872,12 +10152,13 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
-      <c r="R316" s="1"/>
+      <c r="Q316" s="1"/>
+      <c r="R316"/>
       <c r="T316" s="1"/>
-      <c r="U316" s="1"/>
       <c r="V316" s="1"/>
-    </row>
-    <row r="317" spans="1:22">
+      <c r="W316" s="1"/>
+    </row>
+    <row r="317" spans="1:23">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -9893,12 +10174,13 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
-      <c r="R317" s="1"/>
+      <c r="Q317" s="1"/>
+      <c r="R317"/>
       <c r="T317" s="1"/>
-      <c r="U317" s="1"/>
       <c r="V317" s="1"/>
-    </row>
-    <row r="318" spans="1:22">
+      <c r="W317" s="1"/>
+    </row>
+    <row r="318" spans="1:23">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -9914,12 +10196,13 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
-      <c r="R318" s="1"/>
+      <c r="Q318" s="1"/>
+      <c r="R318"/>
       <c r="T318" s="1"/>
-      <c r="U318" s="1"/>
       <c r="V318" s="1"/>
-    </row>
-    <row r="319" spans="1:22">
+      <c r="W318" s="1"/>
+    </row>
+    <row r="319" spans="1:23">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -9935,12 +10218,13 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
-      <c r="R319" s="1"/>
+      <c r="Q319" s="1"/>
+      <c r="R319"/>
       <c r="T319" s="1"/>
-      <c r="U319" s="1"/>
       <c r="V319" s="1"/>
-    </row>
-    <row r="320" spans="1:22">
+      <c r="W319" s="1"/>
+    </row>
+    <row r="320" spans="1:23">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -9956,12 +10240,13 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
-      <c r="R320" s="1"/>
+      <c r="Q320" s="1"/>
+      <c r="R320"/>
       <c r="T320" s="1"/>
-      <c r="U320" s="1"/>
       <c r="V320" s="1"/>
-    </row>
-    <row r="321" spans="1:22">
+      <c r="W320" s="1"/>
+    </row>
+    <row r="321" spans="1:23">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9977,12 +10262,13 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
-      <c r="R321" s="1"/>
+      <c r="Q321" s="1"/>
+      <c r="R321"/>
       <c r="T321" s="1"/>
-      <c r="U321" s="1"/>
       <c r="V321" s="1"/>
-    </row>
-    <row r="322" spans="1:22">
+      <c r="W321" s="1"/>
+    </row>
+    <row r="322" spans="1:23">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9998,12 +10284,13 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
-      <c r="R322" s="1"/>
+      <c r="Q322" s="1"/>
+      <c r="R322"/>
       <c r="T322" s="1"/>
-      <c r="U322" s="1"/>
       <c r="V322" s="1"/>
-    </row>
-    <row r="323" spans="1:22">
+      <c r="W322" s="1"/>
+    </row>
+    <row r="323" spans="1:23">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -10019,12 +10306,13 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
       <c r="P323" s="1"/>
-      <c r="R323" s="1"/>
+      <c r="Q323" s="1"/>
+      <c r="R323"/>
       <c r="T323" s="1"/>
-      <c r="U323" s="1"/>
       <c r="V323" s="1"/>
-    </row>
-    <row r="324" spans="1:22">
+      <c r="W323" s="1"/>
+    </row>
+    <row r="324" spans="1:23">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10040,12 +10328,13 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
       <c r="P324" s="1"/>
-      <c r="R324" s="1"/>
+      <c r="Q324" s="1"/>
+      <c r="R324"/>
       <c r="T324" s="1"/>
-      <c r="U324" s="1"/>
       <c r="V324" s="1"/>
-    </row>
-    <row r="325" spans="1:22">
+      <c r="W324" s="1"/>
+    </row>
+    <row r="325" spans="1:23">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10061,12 +10350,13 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
-      <c r="R325" s="1"/>
+      <c r="Q325" s="1"/>
+      <c r="R325"/>
       <c r="T325" s="1"/>
-      <c r="U325" s="1"/>
       <c r="V325" s="1"/>
-    </row>
-    <row r="326" spans="1:22">
+      <c r="W325" s="1"/>
+    </row>
+    <row r="326" spans="1:23">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -10082,12 +10372,13 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
       <c r="P326" s="1"/>
-      <c r="R326" s="1"/>
+      <c r="Q326" s="1"/>
+      <c r="R326"/>
       <c r="T326" s="1"/>
-      <c r="U326" s="1"/>
       <c r="V326" s="1"/>
-    </row>
-    <row r="327" spans="1:22">
+      <c r="W326" s="1"/>
+    </row>
+    <row r="327" spans="1:23">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10103,12 +10394,13 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
       <c r="P327" s="1"/>
-      <c r="R327" s="1"/>
+      <c r="Q327" s="1"/>
+      <c r="R327"/>
       <c r="T327" s="1"/>
-      <c r="U327" s="1"/>
       <c r="V327" s="1"/>
-    </row>
-    <row r="328" spans="1:22">
+      <c r="W327" s="1"/>
+    </row>
+    <row r="328" spans="1:23">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10124,12 +10416,13 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
       <c r="P328" s="1"/>
-      <c r="R328" s="1"/>
+      <c r="Q328" s="1"/>
+      <c r="R328"/>
       <c r="T328" s="1"/>
-      <c r="U328" s="1"/>
       <c r="V328" s="1"/>
-    </row>
-    <row r="329" spans="1:22">
+      <c r="W328" s="1"/>
+    </row>
+    <row r="329" spans="1:23">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10145,12 +10438,13 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
       <c r="P329" s="1"/>
-      <c r="R329" s="1"/>
+      <c r="Q329" s="1"/>
+      <c r="R329"/>
       <c r="T329" s="1"/>
-      <c r="U329" s="1"/>
       <c r="V329" s="1"/>
-    </row>
-    <row r="330" spans="1:22">
+      <c r="W329" s="1"/>
+    </row>
+    <row r="330" spans="1:23">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10166,12 +10460,13 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
       <c r="P330" s="1"/>
-      <c r="R330" s="1"/>
+      <c r="Q330" s="1"/>
+      <c r="R330"/>
       <c r="T330" s="1"/>
-      <c r="U330" s="1"/>
       <c r="V330" s="1"/>
-    </row>
-    <row r="331" spans="1:22">
+      <c r="W330" s="1"/>
+    </row>
+    <row r="331" spans="1:23">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10187,12 +10482,13 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
       <c r="P331" s="1"/>
-      <c r="R331" s="1"/>
+      <c r="Q331" s="1"/>
+      <c r="R331"/>
       <c r="T331" s="1"/>
-      <c r="U331" s="1"/>
       <c r="V331" s="1"/>
-    </row>
-    <row r="332" spans="1:22">
+      <c r="W331" s="1"/>
+    </row>
+    <row r="332" spans="1:23">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10208,12 +10504,13 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
-      <c r="R332" s="1"/>
+      <c r="Q332" s="1"/>
+      <c r="R332"/>
       <c r="T332" s="1"/>
-      <c r="U332" s="1"/>
       <c r="V332" s="1"/>
-    </row>
-    <row r="333" spans="1:22">
+      <c r="W332" s="1"/>
+    </row>
+    <row r="333" spans="1:23">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10229,12 +10526,13 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
       <c r="P333" s="1"/>
-      <c r="R333" s="1"/>
+      <c r="Q333" s="1"/>
+      <c r="R333"/>
       <c r="T333" s="1"/>
-      <c r="U333" s="1"/>
       <c r="V333" s="1"/>
-    </row>
-    <row r="334" spans="1:22">
+      <c r="W333" s="1"/>
+    </row>
+    <row r="334" spans="1:23">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10250,12 +10548,13 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
       <c r="P334" s="1"/>
-      <c r="R334" s="1"/>
+      <c r="Q334" s="1"/>
+      <c r="R334"/>
       <c r="T334" s="1"/>
-      <c r="U334" s="1"/>
       <c r="V334" s="1"/>
-    </row>
-    <row r="335" spans="1:22">
+      <c r="W334" s="1"/>
+    </row>
+    <row r="335" spans="1:23">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10271,12 +10570,13 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
       <c r="P335" s="1"/>
-      <c r="R335" s="1"/>
+      <c r="Q335" s="1"/>
+      <c r="R335"/>
       <c r="T335" s="1"/>
-      <c r="U335" s="1"/>
       <c r="V335" s="1"/>
-    </row>
-    <row r="336" spans="1:22">
+      <c r="W335" s="1"/>
+    </row>
+    <row r="336" spans="1:23">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10292,12 +10592,13 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
       <c r="P336" s="1"/>
-      <c r="R336" s="1"/>
+      <c r="Q336" s="1"/>
+      <c r="R336"/>
       <c r="T336" s="1"/>
-      <c r="U336" s="1"/>
       <c r="V336" s="1"/>
-    </row>
-    <row r="337" spans="1:22">
+      <c r="W336" s="1"/>
+    </row>
+    <row r="337" spans="1:23">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10313,12 +10614,13 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
       <c r="P337" s="1"/>
-      <c r="R337" s="1"/>
+      <c r="Q337" s="1"/>
+      <c r="R337"/>
       <c r="T337" s="1"/>
-      <c r="U337" s="1"/>
       <c r="V337" s="1"/>
-    </row>
-    <row r="338" spans="1:22">
+      <c r="W337" s="1"/>
+    </row>
+    <row r="338" spans="1:23">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10334,12 +10636,13 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
       <c r="P338" s="1"/>
-      <c r="R338" s="1"/>
+      <c r="Q338" s="1"/>
+      <c r="R338"/>
       <c r="T338" s="1"/>
-      <c r="U338" s="1"/>
       <c r="V338" s="1"/>
-    </row>
-    <row r="339" spans="1:22">
+      <c r="W338" s="1"/>
+    </row>
+    <row r="339" spans="1:23">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10355,12 +10658,13 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
       <c r="P339" s="1"/>
-      <c r="R339" s="1"/>
+      <c r="Q339" s="1"/>
+      <c r="R339"/>
       <c r="T339" s="1"/>
-      <c r="U339" s="1"/>
       <c r="V339" s="1"/>
-    </row>
-    <row r="340" spans="1:22">
+      <c r="W339" s="1"/>
+    </row>
+    <row r="340" spans="1:23">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10376,12 +10680,13 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
       <c r="P340" s="1"/>
-      <c r="R340" s="1"/>
+      <c r="Q340" s="1"/>
+      <c r="R340"/>
       <c r="T340" s="1"/>
-      <c r="U340" s="1"/>
       <c r="V340" s="1"/>
-    </row>
-    <row r="341" spans="1:22">
+      <c r="W340" s="1"/>
+    </row>
+    <row r="341" spans="1:23">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10397,12 +10702,13 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
       <c r="P341" s="1"/>
-      <c r="R341" s="1"/>
+      <c r="Q341" s="1"/>
+      <c r="R341"/>
       <c r="T341" s="1"/>
-      <c r="U341" s="1"/>
       <c r="V341" s="1"/>
-    </row>
-    <row r="342" spans="1:22">
+      <c r="W341" s="1"/>
+    </row>
+    <row r="342" spans="1:23">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10418,12 +10724,13 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
-      <c r="R342" s="1"/>
+      <c r="Q342" s="1"/>
+      <c r="R342"/>
       <c r="T342" s="1"/>
-      <c r="U342" s="1"/>
       <c r="V342" s="1"/>
-    </row>
-    <row r="343" spans="1:22">
+      <c r="W342" s="1"/>
+    </row>
+    <row r="343" spans="1:23">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10439,12 +10746,13 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
-      <c r="R343" s="1"/>
+      <c r="Q343" s="1"/>
+      <c r="R343"/>
       <c r="T343" s="1"/>
-      <c r="U343" s="1"/>
       <c r="V343" s="1"/>
-    </row>
-    <row r="344" spans="1:22">
+      <c r="W343" s="1"/>
+    </row>
+    <row r="344" spans="1:23">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10460,12 +10768,13 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
       <c r="P344" s="1"/>
-      <c r="R344" s="1"/>
+      <c r="Q344" s="1"/>
+      <c r="R344"/>
       <c r="T344" s="1"/>
-      <c r="U344" s="1"/>
       <c r="V344" s="1"/>
-    </row>
-    <row r="345" spans="1:22">
+      <c r="W344" s="1"/>
+    </row>
+    <row r="345" spans="1:23">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10481,12 +10790,13 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
       <c r="P345" s="1"/>
-      <c r="R345" s="1"/>
+      <c r="Q345" s="1"/>
+      <c r="R345"/>
       <c r="T345" s="1"/>
-      <c r="U345" s="1"/>
       <c r="V345" s="1"/>
-    </row>
-    <row r="346" spans="1:22">
+      <c r="W345" s="1"/>
+    </row>
+    <row r="346" spans="1:23">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10502,12 +10812,13 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
-      <c r="R346" s="1"/>
+      <c r="Q346" s="1"/>
+      <c r="R346"/>
       <c r="T346" s="1"/>
-      <c r="U346" s="1"/>
       <c r="V346" s="1"/>
-    </row>
-    <row r="347" spans="1:22">
+      <c r="W346" s="1"/>
+    </row>
+    <row r="347" spans="1:23">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10523,12 +10834,13 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
-      <c r="R347" s="1"/>
+      <c r="Q347" s="1"/>
+      <c r="R347"/>
       <c r="T347" s="1"/>
-      <c r="U347" s="1"/>
       <c r="V347" s="1"/>
-    </row>
-    <row r="348" spans="1:22">
+      <c r="W347" s="1"/>
+    </row>
+    <row r="348" spans="1:23">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10544,12 +10856,13 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
-      <c r="R348" s="1"/>
+      <c r="Q348" s="1"/>
+      <c r="R348"/>
       <c r="T348" s="1"/>
-      <c r="U348" s="1"/>
       <c r="V348" s="1"/>
-    </row>
-    <row r="349" spans="1:22">
+      <c r="W348" s="1"/>
+    </row>
+    <row r="349" spans="1:23">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10565,12 +10878,13 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
-      <c r="R349" s="1"/>
+      <c r="Q349" s="1"/>
+      <c r="R349"/>
       <c r="T349" s="1"/>
-      <c r="U349" s="1"/>
       <c r="V349" s="1"/>
-    </row>
-    <row r="350" spans="1:22">
+      <c r="W349" s="1"/>
+    </row>
+    <row r="350" spans="1:23">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10586,12 +10900,13 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
-      <c r="R350" s="1"/>
+      <c r="Q350" s="1"/>
+      <c r="R350"/>
       <c r="T350" s="1"/>
-      <c r="U350" s="1"/>
       <c r="V350" s="1"/>
-    </row>
-    <row r="351" spans="1:22">
+      <c r="W350" s="1"/>
+    </row>
+    <row r="351" spans="1:23">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10607,12 +10922,13 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
       <c r="P351" s="1"/>
-      <c r="R351" s="1"/>
+      <c r="Q351" s="1"/>
+      <c r="R351"/>
       <c r="T351" s="1"/>
-      <c r="U351" s="1"/>
       <c r="V351" s="1"/>
-    </row>
-    <row r="352" spans="1:22">
+      <c r="W351" s="1"/>
+    </row>
+    <row r="352" spans="1:23">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -10628,12 +10944,13 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
-      <c r="R352" s="1"/>
+      <c r="Q352" s="1"/>
+      <c r="R352"/>
       <c r="T352" s="1"/>
-      <c r="U352" s="1"/>
       <c r="V352" s="1"/>
-    </row>
-    <row r="353" spans="1:22">
+      <c r="W352" s="1"/>
+    </row>
+    <row r="353" spans="1:23">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -10649,12 +10966,13 @@
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
       <c r="P353" s="1"/>
-      <c r="R353" s="1"/>
+      <c r="Q353" s="1"/>
+      <c r="R353"/>
       <c r="T353" s="1"/>
-      <c r="U353" s="1"/>
       <c r="V353" s="1"/>
-    </row>
-    <row r="354" spans="1:22">
+      <c r="W353" s="1"/>
+    </row>
+    <row r="354" spans="1:23">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -10670,12 +10988,13 @@
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
       <c r="P354" s="1"/>
-      <c r="R354" s="1"/>
+      <c r="Q354" s="1"/>
+      <c r="R354"/>
       <c r="T354" s="1"/>
-      <c r="U354" s="1"/>
       <c r="V354" s="1"/>
-    </row>
-    <row r="355" spans="1:22">
+      <c r="W354" s="1"/>
+    </row>
+    <row r="355" spans="1:23">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -10691,12 +11010,13 @@
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
-      <c r="R355" s="1"/>
+      <c r="Q355" s="1"/>
+      <c r="R355"/>
       <c r="T355" s="1"/>
-      <c r="U355" s="1"/>
       <c r="V355" s="1"/>
-    </row>
-    <row r="356" spans="1:22">
+      <c r="W355" s="1"/>
+    </row>
+    <row r="356" spans="1:23">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -10712,12 +11032,13 @@
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
       <c r="P356" s="1"/>
-      <c r="R356" s="1"/>
+      <c r="Q356" s="1"/>
+      <c r="R356"/>
       <c r="T356" s="1"/>
-      <c r="U356" s="1"/>
       <c r="V356" s="1"/>
-    </row>
-    <row r="357" spans="1:22">
+      <c r="W356" s="1"/>
+    </row>
+    <row r="357" spans="1:23">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -10733,12 +11054,13 @@
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
       <c r="P357" s="1"/>
-      <c r="R357" s="1"/>
+      <c r="Q357" s="1"/>
+      <c r="R357"/>
       <c r="T357" s="1"/>
-      <c r="U357" s="1"/>
       <c r="V357" s="1"/>
-    </row>
-    <row r="358" spans="1:22">
+      <c r="W357" s="1"/>
+    </row>
+    <row r="358" spans="1:23">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -10754,12 +11076,13 @@
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
       <c r="P358" s="1"/>
-      <c r="R358" s="1"/>
+      <c r="Q358" s="1"/>
+      <c r="R358"/>
       <c r="T358" s="1"/>
-      <c r="U358" s="1"/>
       <c r="V358" s="1"/>
-    </row>
-    <row r="359" spans="1:22">
+      <c r="W358" s="1"/>
+    </row>
+    <row r="359" spans="1:23">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -10775,12 +11098,13 @@
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
       <c r="P359" s="1"/>
-      <c r="R359" s="1"/>
+      <c r="Q359" s="1"/>
+      <c r="R359"/>
       <c r="T359" s="1"/>
-      <c r="U359" s="1"/>
       <c r="V359" s="1"/>
-    </row>
-    <row r="360" spans="1:22">
+      <c r="W359" s="1"/>
+    </row>
+    <row r="360" spans="1:23">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -10796,12 +11120,13 @@
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
       <c r="P360" s="1"/>
-      <c r="R360" s="1"/>
+      <c r="Q360" s="1"/>
+      <c r="R360"/>
       <c r="T360" s="1"/>
-      <c r="U360" s="1"/>
       <c r="V360" s="1"/>
-    </row>
-    <row r="361" spans="1:22">
+      <c r="W360" s="1"/>
+    </row>
+    <row r="361" spans="1:23">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -10817,12 +11142,13 @@
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
       <c r="P361" s="1"/>
-      <c r="R361" s="1"/>
+      <c r="Q361" s="1"/>
+      <c r="R361"/>
       <c r="T361" s="1"/>
-      <c r="U361" s="1"/>
       <c r="V361" s="1"/>
-    </row>
-    <row r="362" spans="1:22">
+      <c r="W361" s="1"/>
+    </row>
+    <row r="362" spans="1:23">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -10838,12 +11164,13 @@
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
       <c r="P362" s="1"/>
-      <c r="R362" s="1"/>
+      <c r="Q362" s="1"/>
+      <c r="R362"/>
       <c r="T362" s="1"/>
-      <c r="U362" s="1"/>
       <c r="V362" s="1"/>
-    </row>
-    <row r="363" spans="1:22">
+      <c r="W362" s="1"/>
+    </row>
+    <row r="363" spans="1:23">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -10859,12 +11186,13 @@
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
       <c r="P363" s="1"/>
-      <c r="R363" s="1"/>
+      <c r="Q363" s="1"/>
+      <c r="R363"/>
       <c r="T363" s="1"/>
-      <c r="U363" s="1"/>
       <c r="V363" s="1"/>
-    </row>
-    <row r="364" spans="1:22">
+      <c r="W363" s="1"/>
+    </row>
+    <row r="364" spans="1:23">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -10880,12 +11208,13 @@
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
       <c r="P364" s="1"/>
-      <c r="R364" s="1"/>
+      <c r="Q364" s="1"/>
+      <c r="R364"/>
       <c r="T364" s="1"/>
-      <c r="U364" s="1"/>
       <c r="V364" s="1"/>
-    </row>
-    <row r="365" spans="1:22">
+      <c r="W364" s="1"/>
+    </row>
+    <row r="365" spans="1:23">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -10901,12 +11230,13 @@
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
       <c r="P365" s="1"/>
-      <c r="R365" s="1"/>
+      <c r="Q365" s="1"/>
+      <c r="R365"/>
       <c r="T365" s="1"/>
-      <c r="U365" s="1"/>
       <c r="V365" s="1"/>
-    </row>
-    <row r="366" spans="1:22">
+      <c r="W365" s="1"/>
+    </row>
+    <row r="366" spans="1:23">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -10922,12 +11252,13 @@
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
       <c r="P366" s="1"/>
-      <c r="R366" s="1"/>
+      <c r="Q366" s="1"/>
+      <c r="R366"/>
       <c r="T366" s="1"/>
-      <c r="U366" s="1"/>
       <c r="V366" s="1"/>
-    </row>
-    <row r="367" spans="1:22">
+      <c r="W366" s="1"/>
+    </row>
+    <row r="367" spans="1:23">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -10943,12 +11274,13 @@
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
       <c r="P367" s="1"/>
-      <c r="R367" s="1"/>
+      <c r="Q367" s="1"/>
+      <c r="R367"/>
       <c r="T367" s="1"/>
-      <c r="U367" s="1"/>
       <c r="V367" s="1"/>
-    </row>
-    <row r="368" spans="1:22">
+      <c r="W367" s="1"/>
+    </row>
+    <row r="368" spans="1:23">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -10964,12 +11296,13 @@
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
       <c r="P368" s="1"/>
-      <c r="R368" s="1"/>
+      <c r="Q368" s="1"/>
+      <c r="R368"/>
       <c r="T368" s="1"/>
-      <c r="U368" s="1"/>
       <c r="V368" s="1"/>
-    </row>
-    <row r="369" spans="1:22">
+      <c r="W368" s="1"/>
+    </row>
+    <row r="369" spans="1:23">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -10985,12 +11318,13 @@
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
       <c r="P369" s="1"/>
-      <c r="R369" s="1"/>
+      <c r="Q369" s="1"/>
+      <c r="R369"/>
       <c r="T369" s="1"/>
-      <c r="U369" s="1"/>
       <c r="V369" s="1"/>
-    </row>
-    <row r="370" spans="1:22">
+      <c r="W369" s="1"/>
+    </row>
+    <row r="370" spans="1:23">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -11006,12 +11340,13 @@
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
       <c r="P370" s="1"/>
-      <c r="R370" s="1"/>
+      <c r="Q370" s="1"/>
+      <c r="R370"/>
       <c r="T370" s="1"/>
-      <c r="U370" s="1"/>
       <c r="V370" s="1"/>
-    </row>
-    <row r="371" spans="1:22">
+      <c r="W370" s="1"/>
+    </row>
+    <row r="371" spans="1:23">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -11027,12 +11362,13 @@
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
       <c r="P371" s="1"/>
-      <c r="R371" s="1"/>
+      <c r="Q371" s="1"/>
+      <c r="R371"/>
       <c r="T371" s="1"/>
-      <c r="U371" s="1"/>
       <c r="V371" s="1"/>
-    </row>
-    <row r="372" spans="1:22">
+      <c r="W371" s="1"/>
+    </row>
+    <row r="372" spans="1:23">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -11048,12 +11384,13 @@
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
       <c r="P372" s="1"/>
-      <c r="R372" s="1"/>
+      <c r="Q372" s="1"/>
+      <c r="R372"/>
       <c r="T372" s="1"/>
-      <c r="U372" s="1"/>
       <c r="V372" s="1"/>
-    </row>
-    <row r="373" spans="1:22">
+      <c r="W372" s="1"/>
+    </row>
+    <row r="373" spans="1:23">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -11069,12 +11406,13 @@
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
       <c r="P373" s="1"/>
-      <c r="R373" s="1"/>
+      <c r="Q373" s="1"/>
+      <c r="R373"/>
       <c r="T373" s="1"/>
-      <c r="U373" s="1"/>
       <c r="V373" s="1"/>
-    </row>
-    <row r="374" spans="1:22">
+      <c r="W373" s="1"/>
+    </row>
+    <row r="374" spans="1:23">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -11090,12 +11428,13 @@
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
       <c r="P374" s="1"/>
-      <c r="R374" s="1"/>
+      <c r="Q374" s="1"/>
+      <c r="R374"/>
       <c r="T374" s="1"/>
-      <c r="U374" s="1"/>
       <c r="V374" s="1"/>
-    </row>
-    <row r="375" spans="1:22">
+      <c r="W374" s="1"/>
+    </row>
+    <row r="375" spans="1:23">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -11111,12 +11450,13 @@
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
       <c r="P375" s="1"/>
-      <c r="R375" s="1"/>
+      <c r="Q375" s="1"/>
+      <c r="R375"/>
       <c r="T375" s="1"/>
-      <c r="U375" s="1"/>
       <c r="V375" s="1"/>
-    </row>
-    <row r="376" spans="1:22">
+      <c r="W375" s="1"/>
+    </row>
+    <row r="376" spans="1:23">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -11132,12 +11472,13 @@
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
       <c r="P376" s="1"/>
-      <c r="R376" s="1"/>
+      <c r="Q376" s="1"/>
+      <c r="R376"/>
       <c r="T376" s="1"/>
-      <c r="U376" s="1"/>
       <c r="V376" s="1"/>
-    </row>
-    <row r="377" spans="1:22">
+      <c r="W376" s="1"/>
+    </row>
+    <row r="377" spans="1:23">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11153,12 +11494,13 @@
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
       <c r="P377" s="1"/>
-      <c r="R377" s="1"/>
+      <c r="Q377" s="1"/>
+      <c r="R377"/>
       <c r="T377" s="1"/>
-      <c r="U377" s="1"/>
       <c r="V377" s="1"/>
-    </row>
-    <row r="378" spans="1:22">
+      <c r="W377" s="1"/>
+    </row>
+    <row r="378" spans="1:23">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11174,12 +11516,13 @@
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
       <c r="P378" s="1"/>
-      <c r="R378" s="1"/>
+      <c r="Q378" s="1"/>
+      <c r="R378"/>
       <c r="T378" s="1"/>
-      <c r="U378" s="1"/>
       <c r="V378" s="1"/>
-    </row>
-    <row r="379" spans="1:22">
+      <c r="W378" s="1"/>
+    </row>
+    <row r="379" spans="1:23">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11195,12 +11538,13 @@
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
       <c r="P379" s="1"/>
-      <c r="R379" s="1"/>
+      <c r="Q379" s="1"/>
+      <c r="R379"/>
       <c r="T379" s="1"/>
-      <c r="U379" s="1"/>
       <c r="V379" s="1"/>
-    </row>
-    <row r="380" spans="1:22">
+      <c r="W379" s="1"/>
+    </row>
+    <row r="380" spans="1:23">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11216,12 +11560,13 @@
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
       <c r="P380" s="1"/>
-      <c r="R380" s="1"/>
+      <c r="Q380" s="1"/>
+      <c r="R380"/>
       <c r="T380" s="1"/>
-      <c r="U380" s="1"/>
       <c r="V380" s="1"/>
-    </row>
-    <row r="381" spans="1:22">
+      <c r="W380" s="1"/>
+    </row>
+    <row r="381" spans="1:23">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -11237,12 +11582,13 @@
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
       <c r="P381" s="1"/>
-      <c r="R381" s="1"/>
+      <c r="Q381" s="1"/>
+      <c r="R381"/>
       <c r="T381" s="1"/>
-      <c r="U381" s="1"/>
       <c r="V381" s="1"/>
-    </row>
-    <row r="382" spans="1:22">
+      <c r="W381" s="1"/>
+    </row>
+    <row r="382" spans="1:23">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -11258,12 +11604,13 @@
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
       <c r="P382" s="1"/>
-      <c r="R382" s="1"/>
+      <c r="Q382" s="1"/>
+      <c r="R382"/>
       <c r="T382" s="1"/>
-      <c r="U382" s="1"/>
       <c r="V382" s="1"/>
-    </row>
-    <row r="383" spans="1:22">
+      <c r="W382" s="1"/>
+    </row>
+    <row r="383" spans="1:23">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -11279,12 +11626,13 @@
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
       <c r="P383" s="1"/>
-      <c r="R383" s="1"/>
+      <c r="Q383" s="1"/>
+      <c r="R383"/>
       <c r="T383" s="1"/>
-      <c r="U383" s="1"/>
       <c r="V383" s="1"/>
-    </row>
-    <row r="384" spans="1:22">
+      <c r="W383" s="1"/>
+    </row>
+    <row r="384" spans="1:23">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -11300,12 +11648,13 @@
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
       <c r="P384" s="1"/>
-      <c r="R384" s="1"/>
+      <c r="Q384" s="1"/>
+      <c r="R384"/>
       <c r="T384" s="1"/>
-      <c r="U384" s="1"/>
       <c r="V384" s="1"/>
-    </row>
-    <row r="385" spans="1:22">
+      <c r="W384" s="1"/>
+    </row>
+    <row r="385" spans="1:23">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -11321,12 +11670,13 @@
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
       <c r="P385" s="1"/>
-      <c r="R385" s="1"/>
+      <c r="Q385" s="1"/>
+      <c r="R385"/>
       <c r="T385" s="1"/>
-      <c r="U385" s="1"/>
       <c r="V385" s="1"/>
-    </row>
-    <row r="386" spans="1:22">
+      <c r="W385" s="1"/>
+    </row>
+    <row r="386" spans="1:23">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -11342,12 +11692,13 @@
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
       <c r="P386" s="1"/>
-      <c r="R386" s="1"/>
+      <c r="Q386" s="1"/>
+      <c r="R386"/>
       <c r="T386" s="1"/>
-      <c r="U386" s="1"/>
       <c r="V386" s="1"/>
-    </row>
-    <row r="387" spans="1:22">
+      <c r="W386" s="1"/>
+    </row>
+    <row r="387" spans="1:23">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -11363,12 +11714,13 @@
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
       <c r="P387" s="1"/>
-      <c r="R387" s="1"/>
+      <c r="Q387" s="1"/>
+      <c r="R387"/>
       <c r="T387" s="1"/>
-      <c r="U387" s="1"/>
       <c r="V387" s="1"/>
-    </row>
-    <row r="388" spans="1:22">
+      <c r="W387" s="1"/>
+    </row>
+    <row r="388" spans="1:23">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -11384,12 +11736,13 @@
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
       <c r="P388" s="1"/>
-      <c r="R388" s="1"/>
+      <c r="Q388" s="1"/>
+      <c r="R388"/>
       <c r="T388" s="1"/>
-      <c r="U388" s="1"/>
       <c r="V388" s="1"/>
-    </row>
-    <row r="389" spans="1:22">
+      <c r="W388" s="1"/>
+    </row>
+    <row r="389" spans="1:23">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -11405,12 +11758,13 @@
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
       <c r="P389" s="1"/>
-      <c r="R389" s="1"/>
+      <c r="Q389" s="1"/>
+      <c r="R389"/>
       <c r="T389" s="1"/>
-      <c r="U389" s="1"/>
       <c r="V389" s="1"/>
-    </row>
-    <row r="390" spans="1:22">
+      <c r="W389" s="1"/>
+    </row>
+    <row r="390" spans="1:23">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11426,12 +11780,13 @@
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
       <c r="P390" s="1"/>
-      <c r="R390" s="1"/>
+      <c r="Q390" s="1"/>
+      <c r="R390"/>
       <c r="T390" s="1"/>
-      <c r="U390" s="1"/>
       <c r="V390" s="1"/>
-    </row>
-    <row r="391" spans="1:22">
+      <c r="W390" s="1"/>
+    </row>
+    <row r="391" spans="1:23">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -11447,12 +11802,13 @@
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
       <c r="P391" s="1"/>
-      <c r="R391" s="1"/>
+      <c r="Q391" s="1"/>
+      <c r="R391"/>
       <c r="T391" s="1"/>
-      <c r="U391" s="1"/>
       <c r="V391" s="1"/>
-    </row>
-    <row r="392" spans="1:22">
+      <c r="W391" s="1"/>
+    </row>
+    <row r="392" spans="1:23">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -11468,12 +11824,13 @@
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
       <c r="P392" s="1"/>
-      <c r="R392" s="1"/>
+      <c r="Q392" s="1"/>
+      <c r="R392"/>
       <c r="T392" s="1"/>
-      <c r="U392" s="1"/>
       <c r="V392" s="1"/>
-    </row>
-    <row r="393" spans="1:22">
+      <c r="W392" s="1"/>
+    </row>
+    <row r="393" spans="1:23">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -11489,12 +11846,13 @@
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
       <c r="P393" s="1"/>
-      <c r="R393" s="1"/>
+      <c r="Q393" s="1"/>
+      <c r="R393"/>
       <c r="T393" s="1"/>
-      <c r="U393" s="1"/>
       <c r="V393" s="1"/>
-    </row>
-    <row r="394" spans="1:22">
+      <c r="W393" s="1"/>
+    </row>
+    <row r="394" spans="1:23">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -11510,12 +11868,13 @@
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
       <c r="P394" s="1"/>
-      <c r="R394" s="1"/>
+      <c r="Q394" s="1"/>
+      <c r="R394"/>
       <c r="T394" s="1"/>
-      <c r="U394" s="1"/>
       <c r="V394" s="1"/>
-    </row>
-    <row r="395" spans="1:22">
+      <c r="W394" s="1"/>
+    </row>
+    <row r="395" spans="1:23">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -11531,12 +11890,13 @@
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
       <c r="P395" s="1"/>
-      <c r="R395" s="1"/>
+      <c r="Q395" s="1"/>
+      <c r="R395"/>
       <c r="T395" s="1"/>
-      <c r="U395" s="1"/>
       <c r="V395" s="1"/>
-    </row>
-    <row r="396" spans="1:22">
+      <c r="W395" s="1"/>
+    </row>
+    <row r="396" spans="1:23">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -11552,12 +11912,13 @@
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
       <c r="P396" s="1"/>
-      <c r="R396" s="1"/>
+      <c r="Q396" s="1"/>
+      <c r="R396"/>
       <c r="T396" s="1"/>
-      <c r="U396" s="1"/>
       <c r="V396" s="1"/>
-    </row>
-    <row r="397" spans="1:22">
+      <c r="W396" s="1"/>
+    </row>
+    <row r="397" spans="1:23">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -11573,12 +11934,13 @@
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
       <c r="P397" s="1"/>
-      <c r="R397" s="1"/>
+      <c r="Q397" s="1"/>
+      <c r="R397"/>
       <c r="T397" s="1"/>
-      <c r="U397" s="1"/>
       <c r="V397" s="1"/>
-    </row>
-    <row r="398" spans="1:22">
+      <c r="W397" s="1"/>
+    </row>
+    <row r="398" spans="1:23">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -11594,12 +11956,13 @@
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
       <c r="P398" s="1"/>
-      <c r="R398" s="1"/>
+      <c r="Q398" s="1"/>
+      <c r="R398"/>
       <c r="T398" s="1"/>
-      <c r="U398" s="1"/>
       <c r="V398" s="1"/>
-    </row>
-    <row r="399" spans="1:22">
+      <c r="W398" s="1"/>
+    </row>
+    <row r="399" spans="1:23">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -11615,12 +11978,13 @@
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
       <c r="P399" s="1"/>
-      <c r="R399" s="1"/>
+      <c r="Q399" s="1"/>
+      <c r="R399"/>
       <c r="T399" s="1"/>
-      <c r="U399" s="1"/>
       <c r="V399" s="1"/>
-    </row>
-    <row r="400" spans="1:22">
+      <c r="W399" s="1"/>
+    </row>
+    <row r="400" spans="1:23">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -11636,12 +12000,13 @@
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
       <c r="P400" s="1"/>
-      <c r="R400" s="1"/>
+      <c r="Q400" s="1"/>
+      <c r="R400"/>
       <c r="T400" s="1"/>
-      <c r="U400" s="1"/>
       <c r="V400" s="1"/>
-    </row>
-    <row r="401" spans="1:22">
+      <c r="W400" s="1"/>
+    </row>
+    <row r="401" spans="1:23">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -11657,12 +12022,13 @@
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
       <c r="P401" s="1"/>
-      <c r="R401" s="1"/>
+      <c r="Q401" s="1"/>
+      <c r="R401"/>
       <c r="T401" s="1"/>
-      <c r="U401" s="1"/>
       <c r="V401" s="1"/>
-    </row>
-    <row r="402" spans="1:22">
+      <c r="W401" s="1"/>
+    </row>
+    <row r="402" spans="1:23">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -11678,12 +12044,13 @@
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
       <c r="P402" s="1"/>
-      <c r="R402" s="1"/>
+      <c r="Q402" s="1"/>
+      <c r="R402"/>
       <c r="T402" s="1"/>
-      <c r="U402" s="1"/>
       <c r="V402" s="1"/>
-    </row>
-    <row r="403" spans="1:22">
+      <c r="W402" s="1"/>
+    </row>
+    <row r="403" spans="1:23">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -11699,12 +12066,13 @@
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
       <c r="P403" s="1"/>
-      <c r="R403" s="1"/>
+      <c r="Q403" s="1"/>
+      <c r="R403"/>
       <c r="T403" s="1"/>
-      <c r="U403" s="1"/>
       <c r="V403" s="1"/>
-    </row>
-    <row r="404" spans="1:22">
+      <c r="W403" s="1"/>
+    </row>
+    <row r="404" spans="1:23">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -11720,12 +12088,13 @@
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
       <c r="P404" s="1"/>
-      <c r="R404" s="1"/>
+      <c r="Q404" s="1"/>
+      <c r="R404"/>
       <c r="T404" s="1"/>
-      <c r="U404" s="1"/>
       <c r="V404" s="1"/>
-    </row>
-    <row r="405" spans="1:22">
+      <c r="W404" s="1"/>
+    </row>
+    <row r="405" spans="1:23">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -11741,12 +12110,13 @@
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
       <c r="P405" s="1"/>
-      <c r="R405" s="1"/>
+      <c r="Q405" s="1"/>
+      <c r="R405"/>
       <c r="T405" s="1"/>
-      <c r="U405" s="1"/>
       <c r="V405" s="1"/>
-    </row>
-    <row r="406" spans="1:22">
+      <c r="W405" s="1"/>
+    </row>
+    <row r="406" spans="1:23">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -11762,12 +12132,13 @@
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
       <c r="P406" s="1"/>
-      <c r="R406" s="1"/>
+      <c r="Q406" s="1"/>
+      <c r="R406"/>
       <c r="T406" s="1"/>
-      <c r="U406" s="1"/>
       <c r="V406" s="1"/>
-    </row>
-    <row r="407" spans="1:22">
+      <c r="W406" s="1"/>
+    </row>
+    <row r="407" spans="1:23">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -11783,12 +12154,13 @@
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
       <c r="P407" s="1"/>
-      <c r="R407" s="1"/>
+      <c r="Q407" s="1"/>
+      <c r="R407"/>
       <c r="T407" s="1"/>
-      <c r="U407" s="1"/>
       <c r="V407" s="1"/>
-    </row>
-    <row r="408" spans="1:22">
+      <c r="W407" s="1"/>
+    </row>
+    <row r="408" spans="1:23">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -11804,12 +12176,13 @@
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
       <c r="P408" s="1"/>
-      <c r="R408" s="1"/>
+      <c r="Q408" s="1"/>
+      <c r="R408"/>
       <c r="T408" s="1"/>
-      <c r="U408" s="1"/>
       <c r="V408" s="1"/>
-    </row>
-    <row r="409" spans="1:22">
+      <c r="W408" s="1"/>
+    </row>
+    <row r="409" spans="1:23">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -11825,12 +12198,13 @@
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
       <c r="P409" s="1"/>
-      <c r="R409" s="1"/>
+      <c r="Q409" s="1"/>
+      <c r="R409"/>
       <c r="T409" s="1"/>
-      <c r="U409" s="1"/>
       <c r="V409" s="1"/>
-    </row>
-    <row r="410" spans="1:22">
+      <c r="W409" s="1"/>
+    </row>
+    <row r="410" spans="1:23">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -11846,12 +12220,13 @@
       <c r="N410" s="1"/>
       <c r="O410" s="1"/>
       <c r="P410" s="1"/>
-      <c r="R410" s="1"/>
+      <c r="Q410" s="1"/>
+      <c r="R410"/>
       <c r="T410" s="1"/>
-      <c r="U410" s="1"/>
       <c r="V410" s="1"/>
-    </row>
-    <row r="411" spans="1:22">
+      <c r="W410" s="1"/>
+    </row>
+    <row r="411" spans="1:23">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -11867,12 +12242,13 @@
       <c r="N411" s="1"/>
       <c r="O411" s="1"/>
       <c r="P411" s="1"/>
-      <c r="R411" s="1"/>
+      <c r="Q411" s="1"/>
+      <c r="R411"/>
       <c r="T411" s="1"/>
-      <c r="U411" s="1"/>
       <c r="V411" s="1"/>
-    </row>
-    <row r="412" spans="1:22">
+      <c r="W411" s="1"/>
+    </row>
+    <row r="412" spans="1:23">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -11888,12 +12264,13 @@
       <c r="N412" s="1"/>
       <c r="O412" s="1"/>
       <c r="P412" s="1"/>
-      <c r="R412" s="1"/>
+      <c r="Q412" s="1"/>
+      <c r="R412"/>
       <c r="T412" s="1"/>
-      <c r="U412" s="1"/>
       <c r="V412" s="1"/>
-    </row>
-    <row r="413" spans="1:22">
+      <c r="W412" s="1"/>
+    </row>
+    <row r="413" spans="1:23">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -11909,12 +12286,13 @@
       <c r="N413" s="1"/>
       <c r="O413" s="1"/>
       <c r="P413" s="1"/>
-      <c r="R413" s="1"/>
+      <c r="Q413" s="1"/>
+      <c r="R413"/>
       <c r="T413" s="1"/>
-      <c r="U413" s="1"/>
       <c r="V413" s="1"/>
-    </row>
-    <row r="414" spans="1:22">
+      <c r="W413" s="1"/>
+    </row>
+    <row r="414" spans="1:23">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -11930,12 +12308,13 @@
       <c r="N414" s="1"/>
       <c r="O414" s="1"/>
       <c r="P414" s="1"/>
-      <c r="R414" s="1"/>
+      <c r="Q414" s="1"/>
+      <c r="R414"/>
       <c r="T414" s="1"/>
-      <c r="U414" s="1"/>
       <c r="V414" s="1"/>
-    </row>
-    <row r="415" spans="1:22">
+      <c r="W414" s="1"/>
+    </row>
+    <row r="415" spans="1:23">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -11951,12 +12330,13 @@
       <c r="N415" s="1"/>
       <c r="O415" s="1"/>
       <c r="P415" s="1"/>
-      <c r="R415" s="1"/>
+      <c r="Q415" s="1"/>
+      <c r="R415"/>
       <c r="T415" s="1"/>
-      <c r="U415" s="1"/>
       <c r="V415" s="1"/>
-    </row>
-    <row r="416" spans="1:22">
+      <c r="W415" s="1"/>
+    </row>
+    <row r="416" spans="1:23">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -11972,12 +12352,13 @@
       <c r="N416" s="1"/>
       <c r="O416" s="1"/>
       <c r="P416" s="1"/>
-      <c r="R416" s="1"/>
+      <c r="Q416" s="1"/>
+      <c r="R416"/>
       <c r="T416" s="1"/>
-      <c r="U416" s="1"/>
       <c r="V416" s="1"/>
-    </row>
-    <row r="417" spans="1:22">
+      <c r="W416" s="1"/>
+    </row>
+    <row r="417" spans="1:23">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -11993,12 +12374,13 @@
       <c r="N417" s="1"/>
       <c r="O417" s="1"/>
       <c r="P417" s="1"/>
-      <c r="R417" s="1"/>
+      <c r="Q417" s="1"/>
+      <c r="R417"/>
       <c r="T417" s="1"/>
-      <c r="U417" s="1"/>
       <c r="V417" s="1"/>
-    </row>
-    <row r="418" spans="1:22">
+      <c r="W417" s="1"/>
+    </row>
+    <row r="418" spans="1:23">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -12014,12 +12396,13 @@
       <c r="N418" s="1"/>
       <c r="O418" s="1"/>
       <c r="P418" s="1"/>
-      <c r="R418" s="1"/>
+      <c r="Q418" s="1"/>
+      <c r="R418"/>
       <c r="T418" s="1"/>
-      <c r="U418" s="1"/>
       <c r="V418" s="1"/>
-    </row>
-    <row r="419" spans="1:22">
+      <c r="W418" s="1"/>
+    </row>
+    <row r="419" spans="1:23">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -12035,12 +12418,13 @@
       <c r="N419" s="1"/>
       <c r="O419" s="1"/>
       <c r="P419" s="1"/>
-      <c r="R419" s="1"/>
+      <c r="Q419" s="1"/>
+      <c r="R419"/>
       <c r="T419" s="1"/>
-      <c r="U419" s="1"/>
       <c r="V419" s="1"/>
-    </row>
-    <row r="420" spans="1:22">
+      <c r="W419" s="1"/>
+    </row>
+    <row r="420" spans="1:23">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -12056,12 +12440,13 @@
       <c r="N420" s="1"/>
       <c r="O420" s="1"/>
       <c r="P420" s="1"/>
-      <c r="R420" s="1"/>
+      <c r="Q420" s="1"/>
+      <c r="R420"/>
       <c r="T420" s="1"/>
-      <c r="U420" s="1"/>
       <c r="V420" s="1"/>
-    </row>
-    <row r="421" spans="1:22">
+      <c r="W420" s="1"/>
+    </row>
+    <row r="421" spans="1:23">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -12077,12 +12462,13 @@
       <c r="N421" s="1"/>
       <c r="O421" s="1"/>
       <c r="P421" s="1"/>
-      <c r="R421" s="1"/>
+      <c r="Q421" s="1"/>
+      <c r="R421"/>
       <c r="T421" s="1"/>
-      <c r="U421" s="1"/>
       <c r="V421" s="1"/>
-    </row>
-    <row r="422" spans="1:22">
+      <c r="W421" s="1"/>
+    </row>
+    <row r="422" spans="1:23">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -12098,12 +12484,13 @@
       <c r="N422" s="1"/>
       <c r="O422" s="1"/>
       <c r="P422" s="1"/>
-      <c r="R422" s="1"/>
+      <c r="Q422" s="1"/>
+      <c r="R422"/>
       <c r="T422" s="1"/>
-      <c r="U422" s="1"/>
       <c r="V422" s="1"/>
-    </row>
-    <row r="423" spans="1:22">
+      <c r="W422" s="1"/>
+    </row>
+    <row r="423" spans="1:23">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -12119,12 +12506,13 @@
       <c r="N423" s="1"/>
       <c r="O423" s="1"/>
       <c r="P423" s="1"/>
-      <c r="R423" s="1"/>
+      <c r="Q423" s="1"/>
+      <c r="R423"/>
       <c r="T423" s="1"/>
-      <c r="U423" s="1"/>
       <c r="V423" s="1"/>
-    </row>
-    <row r="424" spans="1:22">
+      <c r="W423" s="1"/>
+    </row>
+    <row r="424" spans="1:23">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -12140,12 +12528,13 @@
       <c r="N424" s="1"/>
       <c r="O424" s="1"/>
       <c r="P424" s="1"/>
-      <c r="R424" s="1"/>
+      <c r="Q424" s="1"/>
+      <c r="R424"/>
       <c r="T424" s="1"/>
-      <c r="U424" s="1"/>
       <c r="V424" s="1"/>
-    </row>
-    <row r="425" spans="1:22">
+      <c r="W424" s="1"/>
+    </row>
+    <row r="425" spans="1:23">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -12161,12 +12550,13 @@
       <c r="N425" s="1"/>
       <c r="O425" s="1"/>
       <c r="P425" s="1"/>
-      <c r="R425" s="1"/>
+      <c r="Q425" s="1"/>
+      <c r="R425"/>
       <c r="T425" s="1"/>
-      <c r="U425" s="1"/>
       <c r="V425" s="1"/>
-    </row>
-    <row r="426" spans="1:22">
+      <c r="W425" s="1"/>
+    </row>
+    <row r="426" spans="1:23">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -12182,12 +12572,13 @@
       <c r="N426" s="1"/>
       <c r="O426" s="1"/>
       <c r="P426" s="1"/>
-      <c r="R426" s="1"/>
+      <c r="Q426" s="1"/>
+      <c r="R426"/>
       <c r="T426" s="1"/>
-      <c r="U426" s="1"/>
       <c r="V426" s="1"/>
-    </row>
-    <row r="427" spans="1:22">
+      <c r="W426" s="1"/>
+    </row>
+    <row r="427" spans="1:23">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -12203,12 +12594,13 @@
       <c r="N427" s="1"/>
       <c r="O427" s="1"/>
       <c r="P427" s="1"/>
-      <c r="R427" s="1"/>
+      <c r="Q427" s="1"/>
+      <c r="R427"/>
       <c r="T427" s="1"/>
-      <c r="U427" s="1"/>
       <c r="V427" s="1"/>
-    </row>
-    <row r="428" spans="1:22">
+      <c r="W427" s="1"/>
+    </row>
+    <row r="428" spans="1:23">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -12224,12 +12616,13 @@
       <c r="N428" s="1"/>
       <c r="O428" s="1"/>
       <c r="P428" s="1"/>
-      <c r="R428" s="1"/>
+      <c r="Q428" s="1"/>
+      <c r="R428"/>
       <c r="T428" s="1"/>
-      <c r="U428" s="1"/>
       <c r="V428" s="1"/>
-    </row>
-    <row r="429" spans="1:22">
+      <c r="W428" s="1"/>
+    </row>
+    <row r="429" spans="1:23">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -12245,12 +12638,13 @@
       <c r="N429" s="1"/>
       <c r="O429" s="1"/>
       <c r="P429" s="1"/>
-      <c r="R429" s="1"/>
+      <c r="Q429" s="1"/>
+      <c r="R429"/>
       <c r="T429" s="1"/>
-      <c r="U429" s="1"/>
       <c r="V429" s="1"/>
-    </row>
-    <row r="430" spans="1:22">
+      <c r="W429" s="1"/>
+    </row>
+    <row r="430" spans="1:23">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -12266,12 +12660,13 @@
       <c r="N430" s="1"/>
       <c r="O430" s="1"/>
       <c r="P430" s="1"/>
-      <c r="R430" s="1"/>
+      <c r="Q430" s="1"/>
+      <c r="R430"/>
       <c r="T430" s="1"/>
-      <c r="U430" s="1"/>
       <c r="V430" s="1"/>
-    </row>
-    <row r="431" spans="1:22">
+      <c r="W430" s="1"/>
+    </row>
+    <row r="431" spans="1:23">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -12287,12 +12682,13 @@
       <c r="N431" s="1"/>
       <c r="O431" s="1"/>
       <c r="P431" s="1"/>
-      <c r="R431" s="1"/>
+      <c r="Q431" s="1"/>
+      <c r="R431"/>
       <c r="T431" s="1"/>
-      <c r="U431" s="1"/>
       <c r="V431" s="1"/>
-    </row>
-    <row r="432" spans="1:22">
+      <c r="W431" s="1"/>
+    </row>
+    <row r="432" spans="1:23">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -12308,12 +12704,13 @@
       <c r="N432" s="1"/>
       <c r="O432" s="1"/>
       <c r="P432" s="1"/>
-      <c r="R432" s="1"/>
+      <c r="Q432" s="1"/>
+      <c r="R432"/>
       <c r="T432" s="1"/>
-      <c r="U432" s="1"/>
       <c r="V432" s="1"/>
-    </row>
-    <row r="433" spans="1:22">
+      <c r="W432" s="1"/>
+    </row>
+    <row r="433" spans="1:23">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -12329,12 +12726,13 @@
       <c r="N433" s="1"/>
       <c r="O433" s="1"/>
       <c r="P433" s="1"/>
-      <c r="R433" s="1"/>
+      <c r="Q433" s="1"/>
+      <c r="R433"/>
       <c r="T433" s="1"/>
-      <c r="U433" s="1"/>
       <c r="V433" s="1"/>
-    </row>
-    <row r="434" spans="1:22">
+      <c r="W433" s="1"/>
+    </row>
+    <row r="434" spans="1:23">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -12350,12 +12748,13 @@
       <c r="N434" s="1"/>
       <c r="O434" s="1"/>
       <c r="P434" s="1"/>
-      <c r="R434" s="1"/>
+      <c r="Q434" s="1"/>
+      <c r="R434"/>
       <c r="T434" s="1"/>
-      <c r="U434" s="1"/>
       <c r="V434" s="1"/>
-    </row>
-    <row r="435" spans="1:22">
+      <c r="W434" s="1"/>
+    </row>
+    <row r="435" spans="1:23">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -12371,12 +12770,13 @@
       <c r="N435" s="1"/>
       <c r="O435" s="1"/>
       <c r="P435" s="1"/>
-      <c r="R435" s="1"/>
+      <c r="Q435" s="1"/>
+      <c r="R435"/>
       <c r="T435" s="1"/>
-      <c r="U435" s="1"/>
       <c r="V435" s="1"/>
-    </row>
-    <row r="436" spans="1:22">
+      <c r="W435" s="1"/>
+    </row>
+    <row r="436" spans="1:23">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -12392,12 +12792,13 @@
       <c r="N436" s="1"/>
       <c r="O436" s="1"/>
       <c r="P436" s="1"/>
-      <c r="R436" s="1"/>
+      <c r="Q436" s="1"/>
+      <c r="R436"/>
       <c r="T436" s="1"/>
-      <c r="U436" s="1"/>
       <c r="V436" s="1"/>
-    </row>
-    <row r="437" spans="1:22">
+      <c r="W436" s="1"/>
+    </row>
+    <row r="437" spans="1:23">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -12413,12 +12814,13 @@
       <c r="N437" s="1"/>
       <c r="O437" s="1"/>
       <c r="P437" s="1"/>
-      <c r="R437" s="1"/>
+      <c r="Q437" s="1"/>
+      <c r="R437"/>
       <c r="T437" s="1"/>
-      <c r="U437" s="1"/>
       <c r="V437" s="1"/>
-    </row>
-    <row r="438" spans="1:22">
+      <c r="W437" s="1"/>
+    </row>
+    <row r="438" spans="1:23">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -12434,12 +12836,13 @@
       <c r="N438" s="1"/>
       <c r="O438" s="1"/>
       <c r="P438" s="1"/>
-      <c r="R438" s="1"/>
+      <c r="Q438" s="1"/>
+      <c r="R438"/>
       <c r="T438" s="1"/>
-      <c r="U438" s="1"/>
       <c r="V438" s="1"/>
-    </row>
-    <row r="439" spans="1:22">
+      <c r="W438" s="1"/>
+    </row>
+    <row r="439" spans="1:23">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -12455,12 +12858,13 @@
       <c r="N439" s="1"/>
       <c r="O439" s="1"/>
       <c r="P439" s="1"/>
-      <c r="R439" s="1"/>
+      <c r="Q439" s="1"/>
+      <c r="R439"/>
       <c r="T439" s="1"/>
-      <c r="U439" s="1"/>
       <c r="V439" s="1"/>
-    </row>
-    <row r="440" spans="1:22">
+      <c r="W439" s="1"/>
+    </row>
+    <row r="440" spans="1:23">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -12476,12 +12880,13 @@
       <c r="N440" s="1"/>
       <c r="O440" s="1"/>
       <c r="P440" s="1"/>
-      <c r="R440" s="1"/>
+      <c r="Q440" s="1"/>
+      <c r="R440"/>
       <c r="T440" s="1"/>
-      <c r="U440" s="1"/>
       <c r="V440" s="1"/>
-    </row>
-    <row r="441" spans="1:22">
+      <c r="W440" s="1"/>
+    </row>
+    <row r="441" spans="1:23">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -12497,12 +12902,13 @@
       <c r="N441" s="1"/>
       <c r="O441" s="1"/>
       <c r="P441" s="1"/>
-      <c r="R441" s="1"/>
+      <c r="Q441" s="1"/>
+      <c r="R441"/>
       <c r="T441" s="1"/>
-      <c r="U441" s="1"/>
       <c r="V441" s="1"/>
-    </row>
-    <row r="442" spans="1:22">
+      <c r="W441" s="1"/>
+    </row>
+    <row r="442" spans="1:23">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -12518,12 +12924,13 @@
       <c r="N442" s="1"/>
       <c r="O442" s="1"/>
       <c r="P442" s="1"/>
-      <c r="R442" s="1"/>
+      <c r="Q442" s="1"/>
+      <c r="R442"/>
       <c r="T442" s="1"/>
-      <c r="U442" s="1"/>
       <c r="V442" s="1"/>
-    </row>
-    <row r="443" spans="1:22">
+      <c r="W442" s="1"/>
+    </row>
+    <row r="443" spans="1:23">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -12539,12 +12946,13 @@
       <c r="N443" s="1"/>
       <c r="O443" s="1"/>
       <c r="P443" s="1"/>
-      <c r="R443" s="1"/>
+      <c r="Q443" s="1"/>
+      <c r="R443"/>
       <c r="T443" s="1"/>
-      <c r="U443" s="1"/>
       <c r="V443" s="1"/>
-    </row>
-    <row r="444" spans="1:22">
+      <c r="W443" s="1"/>
+    </row>
+    <row r="444" spans="1:23">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -12560,12 +12968,13 @@
       <c r="N444" s="1"/>
       <c r="O444" s="1"/>
       <c r="P444" s="1"/>
-      <c r="R444" s="1"/>
+      <c r="Q444" s="1"/>
+      <c r="R444"/>
       <c r="T444" s="1"/>
-      <c r="U444" s="1"/>
       <c r="V444" s="1"/>
-    </row>
-    <row r="445" spans="1:22">
+      <c r="W444" s="1"/>
+    </row>
+    <row r="445" spans="1:23">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -12581,12 +12990,13 @@
       <c r="N445" s="1"/>
       <c r="O445" s="1"/>
       <c r="P445" s="1"/>
-      <c r="R445" s="1"/>
+      <c r="Q445" s="1"/>
+      <c r="R445"/>
       <c r="T445" s="1"/>
-      <c r="U445" s="1"/>
       <c r="V445" s="1"/>
-    </row>
-    <row r="446" spans="1:22">
+      <c r="W445" s="1"/>
+    </row>
+    <row r="446" spans="1:23">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -12602,12 +13012,13 @@
       <c r="N446" s="1"/>
       <c r="O446" s="1"/>
       <c r="P446" s="1"/>
-      <c r="R446" s="1"/>
+      <c r="Q446" s="1"/>
+      <c r="R446"/>
       <c r="T446" s="1"/>
-      <c r="U446" s="1"/>
       <c r="V446" s="1"/>
-    </row>
-    <row r="447" spans="1:22">
+      <c r="W446" s="1"/>
+    </row>
+    <row r="447" spans="1:23">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -12623,12 +13034,13 @@
       <c r="N447" s="1"/>
       <c r="O447" s="1"/>
       <c r="P447" s="1"/>
-      <c r="R447" s="1"/>
+      <c r="Q447" s="1"/>
+      <c r="R447"/>
       <c r="T447" s="1"/>
-      <c r="U447" s="1"/>
       <c r="V447" s="1"/>
-    </row>
-    <row r="448" spans="1:22">
+      <c r="W447" s="1"/>
+    </row>
+    <row r="448" spans="1:23">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -12644,12 +13056,13 @@
       <c r="N448" s="1"/>
       <c r="O448" s="1"/>
       <c r="P448" s="1"/>
-      <c r="R448" s="1"/>
+      <c r="Q448" s="1"/>
+      <c r="R448"/>
       <c r="T448" s="1"/>
-      <c r="U448" s="1"/>
       <c r="V448" s="1"/>
-    </row>
-    <row r="449" spans="1:22">
+      <c r="W448" s="1"/>
+    </row>
+    <row r="449" spans="1:23">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -12665,12 +13078,13 @@
       <c r="N449" s="1"/>
       <c r="O449" s="1"/>
       <c r="P449" s="1"/>
-      <c r="R449" s="1"/>
+      <c r="Q449" s="1"/>
+      <c r="R449"/>
       <c r="T449" s="1"/>
-      <c r="U449" s="1"/>
       <c r="V449" s="1"/>
-    </row>
-    <row r="450" spans="1:22">
+      <c r="W449" s="1"/>
+    </row>
+    <row r="450" spans="1:23">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -12686,12 +13100,13 @@
       <c r="N450" s="1"/>
       <c r="O450" s="1"/>
       <c r="P450" s="1"/>
-      <c r="R450" s="1"/>
+      <c r="Q450" s="1"/>
+      <c r="R450"/>
       <c r="T450" s="1"/>
-      <c r="U450" s="1"/>
       <c r="V450" s="1"/>
-    </row>
-    <row r="451" spans="1:22">
+      <c r="W450" s="1"/>
+    </row>
+    <row r="451" spans="1:23">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -12707,12 +13122,13 @@
       <c r="N451" s="1"/>
       <c r="O451" s="1"/>
       <c r="P451" s="1"/>
-      <c r="R451" s="1"/>
+      <c r="Q451" s="1"/>
+      <c r="R451"/>
       <c r="T451" s="1"/>
-      <c r="U451" s="1"/>
       <c r="V451" s="1"/>
-    </row>
-    <row r="452" spans="1:22">
+      <c r="W451" s="1"/>
+    </row>
+    <row r="452" spans="1:23">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -12728,12 +13144,13 @@
       <c r="N452" s="1"/>
       <c r="O452" s="1"/>
       <c r="P452" s="1"/>
-      <c r="R452" s="1"/>
+      <c r="Q452" s="1"/>
+      <c r="R452"/>
       <c r="T452" s="1"/>
-      <c r="U452" s="1"/>
       <c r="V452" s="1"/>
-    </row>
-    <row r="453" spans="1:22">
+      <c r="W452" s="1"/>
+    </row>
+    <row r="453" spans="1:23">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -12749,12 +13166,13 @@
       <c r="N453" s="1"/>
       <c r="O453" s="1"/>
       <c r="P453" s="1"/>
-      <c r="R453" s="1"/>
+      <c r="Q453" s="1"/>
+      <c r="R453"/>
       <c r="T453" s="1"/>
-      <c r="U453" s="1"/>
       <c r="V453" s="1"/>
-    </row>
-    <row r="454" spans="1:22">
+      <c r="W453" s="1"/>
+    </row>
+    <row r="454" spans="1:23">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -12770,12 +13188,13 @@
       <c r="N454" s="1"/>
       <c r="O454" s="1"/>
       <c r="P454" s="1"/>
-      <c r="R454" s="1"/>
+      <c r="Q454" s="1"/>
+      <c r="R454"/>
       <c r="T454" s="1"/>
-      <c r="U454" s="1"/>
       <c r="V454" s="1"/>
-    </row>
-    <row r="455" spans="1:22">
+      <c r="W454" s="1"/>
+    </row>
+    <row r="455" spans="1:23">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -12791,12 +13210,13 @@
       <c r="N455" s="1"/>
       <c r="O455" s="1"/>
       <c r="P455" s="1"/>
-      <c r="R455" s="1"/>
+      <c r="Q455" s="1"/>
+      <c r="R455"/>
       <c r="T455" s="1"/>
-      <c r="U455" s="1"/>
       <c r="V455" s="1"/>
-    </row>
-    <row r="456" spans="1:22">
+      <c r="W455" s="1"/>
+    </row>
+    <row r="456" spans="1:23">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -12812,12 +13232,13 @@
       <c r="N456" s="1"/>
       <c r="O456" s="1"/>
       <c r="P456" s="1"/>
-      <c r="R456" s="1"/>
+      <c r="Q456" s="1"/>
+      <c r="R456"/>
       <c r="T456" s="1"/>
-      <c r="U456" s="1"/>
       <c r="V456" s="1"/>
-    </row>
-    <row r="457" spans="1:22">
+      <c r="W456" s="1"/>
+    </row>
+    <row r="457" spans="1:23">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -12833,12 +13254,13 @@
       <c r="N457" s="1"/>
       <c r="O457" s="1"/>
       <c r="P457" s="1"/>
-      <c r="R457" s="1"/>
+      <c r="Q457" s="1"/>
+      <c r="R457"/>
       <c r="T457" s="1"/>
-      <c r="U457" s="1"/>
       <c r="V457" s="1"/>
-    </row>
-    <row r="458" spans="1:22">
+      <c r="W457" s="1"/>
+    </row>
+    <row r="458" spans="1:23">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -12854,12 +13276,13 @@
       <c r="N458" s="1"/>
       <c r="O458" s="1"/>
       <c r="P458" s="1"/>
-      <c r="R458" s="1"/>
+      <c r="Q458" s="1"/>
+      <c r="R458"/>
       <c r="T458" s="1"/>
-      <c r="U458" s="1"/>
       <c r="V458" s="1"/>
-    </row>
-    <row r="459" spans="1:22">
+      <c r="W458" s="1"/>
+    </row>
+    <row r="459" spans="1:23">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -12875,12 +13298,13 @@
       <c r="N459" s="1"/>
       <c r="O459" s="1"/>
       <c r="P459" s="1"/>
-      <c r="R459" s="1"/>
+      <c r="Q459" s="1"/>
+      <c r="R459"/>
       <c r="T459" s="1"/>
-      <c r="U459" s="1"/>
       <c r="V459" s="1"/>
-    </row>
-    <row r="460" spans="1:22">
+      <c r="W459" s="1"/>
+    </row>
+    <row r="460" spans="1:23">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -12896,12 +13320,13 @@
       <c r="N460" s="1"/>
       <c r="O460" s="1"/>
       <c r="P460" s="1"/>
-      <c r="R460" s="1"/>
+      <c r="Q460" s="1"/>
+      <c r="R460"/>
       <c r="T460" s="1"/>
-      <c r="U460" s="1"/>
       <c r="V460" s="1"/>
-    </row>
-    <row r="461" spans="1:22">
+      <c r="W460" s="1"/>
+    </row>
+    <row r="461" spans="1:23">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -12917,12 +13342,13 @@
       <c r="N461" s="1"/>
       <c r="O461" s="1"/>
       <c r="P461" s="1"/>
-      <c r="R461" s="1"/>
+      <c r="Q461" s="1"/>
+      <c r="R461"/>
       <c r="T461" s="1"/>
-      <c r="U461" s="1"/>
       <c r="V461" s="1"/>
-    </row>
-    <row r="462" spans="1:22">
+      <c r="W461" s="1"/>
+    </row>
+    <row r="462" spans="1:23">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -12938,12 +13364,13 @@
       <c r="N462" s="1"/>
       <c r="O462" s="1"/>
       <c r="P462" s="1"/>
-      <c r="R462" s="1"/>
+      <c r="Q462" s="1"/>
+      <c r="R462"/>
       <c r="T462" s="1"/>
-      <c r="U462" s="1"/>
       <c r="V462" s="1"/>
-    </row>
-    <row r="463" spans="1:22">
+      <c r="W462" s="1"/>
+    </row>
+    <row r="463" spans="1:23">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -12959,12 +13386,13 @@
       <c r="N463" s="1"/>
       <c r="O463" s="1"/>
       <c r="P463" s="1"/>
-      <c r="R463" s="1"/>
+      <c r="Q463" s="1"/>
+      <c r="R463"/>
       <c r="T463" s="1"/>
-      <c r="U463" s="1"/>
       <c r="V463" s="1"/>
-    </row>
-    <row r="464" spans="1:22">
+      <c r="W463" s="1"/>
+    </row>
+    <row r="464" spans="1:23">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -12980,12 +13408,13 @@
       <c r="N464" s="1"/>
       <c r="O464" s="1"/>
       <c r="P464" s="1"/>
-      <c r="R464" s="1"/>
+      <c r="Q464" s="1"/>
+      <c r="R464"/>
       <c r="T464" s="1"/>
-      <c r="U464" s="1"/>
       <c r="V464" s="1"/>
-    </row>
-    <row r="465" spans="1:22">
+      <c r="W464" s="1"/>
+    </row>
+    <row r="465" spans="1:23">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -13001,12 +13430,13 @@
       <c r="N465" s="1"/>
       <c r="O465" s="1"/>
       <c r="P465" s="1"/>
-      <c r="R465" s="1"/>
+      <c r="Q465" s="1"/>
+      <c r="R465"/>
       <c r="T465" s="1"/>
-      <c r="U465" s="1"/>
       <c r="V465" s="1"/>
-    </row>
-    <row r="466" spans="1:22">
+      <c r="W465" s="1"/>
+    </row>
+    <row r="466" spans="1:23">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -13022,12 +13452,13 @@
       <c r="N466" s="1"/>
       <c r="O466" s="1"/>
       <c r="P466" s="1"/>
-      <c r="R466" s="1"/>
+      <c r="Q466" s="1"/>
+      <c r="R466"/>
       <c r="T466" s="1"/>
-      <c r="U466" s="1"/>
       <c r="V466" s="1"/>
-    </row>
-    <row r="467" spans="1:22">
+      <c r="W466" s="1"/>
+    </row>
+    <row r="467" spans="1:23">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -13043,12 +13474,13 @@
       <c r="N467" s="1"/>
       <c r="O467" s="1"/>
       <c r="P467" s="1"/>
-      <c r="R467" s="1"/>
+      <c r="Q467" s="1"/>
+      <c r="R467"/>
       <c r="T467" s="1"/>
-      <c r="U467" s="1"/>
       <c r="V467" s="1"/>
-    </row>
-    <row r="468" spans="1:22">
+      <c r="W467" s="1"/>
+    </row>
+    <row r="468" spans="1:23">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -13064,12 +13496,13 @@
       <c r="N468" s="1"/>
       <c r="O468" s="1"/>
       <c r="P468" s="1"/>
-      <c r="R468" s="1"/>
+      <c r="Q468" s="1"/>
+      <c r="R468"/>
       <c r="T468" s="1"/>
-      <c r="U468" s="1"/>
       <c r="V468" s="1"/>
-    </row>
-    <row r="469" spans="1:22">
+      <c r="W468" s="1"/>
+    </row>
+    <row r="469" spans="1:23">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -13085,12 +13518,13 @@
       <c r="N469" s="1"/>
       <c r="O469" s="1"/>
       <c r="P469" s="1"/>
-      <c r="R469" s="1"/>
+      <c r="Q469" s="1"/>
+      <c r="R469"/>
       <c r="T469" s="1"/>
-      <c r="U469" s="1"/>
       <c r="V469" s="1"/>
-    </row>
-    <row r="470" spans="1:22">
+      <c r="W469" s="1"/>
+    </row>
+    <row r="470" spans="1:23">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -13106,12 +13540,13 @@
       <c r="N470" s="1"/>
       <c r="O470" s="1"/>
       <c r="P470" s="1"/>
-      <c r="R470" s="1"/>
+      <c r="Q470" s="1"/>
+      <c r="R470"/>
       <c r="T470" s="1"/>
-      <c r="U470" s="1"/>
       <c r="V470" s="1"/>
-    </row>
-    <row r="471" spans="1:22">
+      <c r="W470" s="1"/>
+    </row>
+    <row r="471" spans="1:23">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -13127,12 +13562,13 @@
       <c r="N471" s="1"/>
       <c r="O471" s="1"/>
       <c r="P471" s="1"/>
-      <c r="R471" s="1"/>
+      <c r="Q471" s="1"/>
+      <c r="R471"/>
       <c r="T471" s="1"/>
-      <c r="U471" s="1"/>
       <c r="V471" s="1"/>
-    </row>
-    <row r="472" spans="1:22">
+      <c r="W471" s="1"/>
+    </row>
+    <row r="472" spans="1:23">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -13148,12 +13584,13 @@
       <c r="N472" s="1"/>
       <c r="O472" s="1"/>
       <c r="P472" s="1"/>
-      <c r="R472" s="1"/>
+      <c r="Q472" s="1"/>
+      <c r="R472"/>
       <c r="T472" s="1"/>
-      <c r="U472" s="1"/>
       <c r="V472" s="1"/>
-    </row>
-    <row r="473" spans="1:22">
+      <c r="W472" s="1"/>
+    </row>
+    <row r="473" spans="1:23">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -13169,12 +13606,13 @@
       <c r="N473" s="1"/>
       <c r="O473" s="1"/>
       <c r="P473" s="1"/>
-      <c r="R473" s="1"/>
+      <c r="Q473" s="1"/>
+      <c r="R473"/>
       <c r="T473" s="1"/>
-      <c r="U473" s="1"/>
       <c r="V473" s="1"/>
-    </row>
-    <row r="474" spans="1:22">
+      <c r="W473" s="1"/>
+    </row>
+    <row r="474" spans="1:23">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -13190,12 +13628,13 @@
       <c r="N474" s="1"/>
       <c r="O474" s="1"/>
       <c r="P474" s="1"/>
-      <c r="R474" s="1"/>
+      <c r="Q474" s="1"/>
+      <c r="R474"/>
       <c r="T474" s="1"/>
-      <c r="U474" s="1"/>
       <c r="V474" s="1"/>
-    </row>
-    <row r="475" spans="1:22">
+      <c r="W474" s="1"/>
+    </row>
+    <row r="475" spans="1:23">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -13211,12 +13650,13 @@
       <c r="N475" s="1"/>
       <c r="O475" s="1"/>
       <c r="P475" s="1"/>
-      <c r="R475" s="1"/>
+      <c r="Q475" s="1"/>
+      <c r="R475"/>
       <c r="T475" s="1"/>
-      <c r="U475" s="1"/>
       <c r="V475" s="1"/>
-    </row>
-    <row r="476" spans="1:22">
+      <c r="W475" s="1"/>
+    </row>
+    <row r="476" spans="1:23">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -13232,12 +13672,13 @@
       <c r="N476" s="1"/>
       <c r="O476" s="1"/>
       <c r="P476" s="1"/>
-      <c r="R476" s="1"/>
+      <c r="Q476" s="1"/>
+      <c r="R476"/>
       <c r="T476" s="1"/>
-      <c r="U476" s="1"/>
       <c r="V476" s="1"/>
-    </row>
-    <row r="477" spans="1:22">
+      <c r="W476" s="1"/>
+    </row>
+    <row r="477" spans="1:23">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -13253,12 +13694,13 @@
       <c r="N477" s="1"/>
       <c r="O477" s="1"/>
       <c r="P477" s="1"/>
-      <c r="R477" s="1"/>
+      <c r="Q477" s="1"/>
+      <c r="R477"/>
       <c r="T477" s="1"/>
-      <c r="U477" s="1"/>
       <c r="V477" s="1"/>
-    </row>
-    <row r="478" spans="1:22">
+      <c r="W477" s="1"/>
+    </row>
+    <row r="478" spans="1:23">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -13274,12 +13716,13 @@
       <c r="N478" s="1"/>
       <c r="O478" s="1"/>
       <c r="P478" s="1"/>
-      <c r="R478" s="1"/>
+      <c r="Q478" s="1"/>
+      <c r="R478"/>
       <c r="T478" s="1"/>
-      <c r="U478" s="1"/>
       <c r="V478" s="1"/>
-    </row>
-    <row r="479" spans="1:22">
+      <c r="W478" s="1"/>
+    </row>
+    <row r="479" spans="1:23">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -13295,12 +13738,13 @@
       <c r="N479" s="1"/>
       <c r="O479" s="1"/>
       <c r="P479" s="1"/>
-      <c r="R479" s="1"/>
+      <c r="Q479" s="1"/>
+      <c r="R479"/>
       <c r="T479" s="1"/>
-      <c r="U479" s="1"/>
       <c r="V479" s="1"/>
-    </row>
-    <row r="480" spans="1:22">
+      <c r="W479" s="1"/>
+    </row>
+    <row r="480" spans="1:23">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -13316,12 +13760,13 @@
       <c r="N480" s="1"/>
       <c r="O480" s="1"/>
       <c r="P480" s="1"/>
-      <c r="R480" s="1"/>
+      <c r="Q480" s="1"/>
+      <c r="R480"/>
       <c r="T480" s="1"/>
-      <c r="U480" s="1"/>
       <c r="V480" s="1"/>
-    </row>
-    <row r="481" spans="1:22">
+      <c r="W480" s="1"/>
+    </row>
+    <row r="481" spans="1:23">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -13337,12 +13782,13 @@
       <c r="N481" s="1"/>
       <c r="O481" s="1"/>
       <c r="P481" s="1"/>
-      <c r="R481" s="1"/>
+      <c r="Q481" s="1"/>
+      <c r="R481"/>
       <c r="T481" s="1"/>
-      <c r="U481" s="1"/>
       <c r="V481" s="1"/>
-    </row>
-    <row r="482" spans="1:22">
+      <c r="W481" s="1"/>
+    </row>
+    <row r="482" spans="1:23">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -13358,12 +13804,13 @@
       <c r="N482" s="1"/>
       <c r="O482" s="1"/>
       <c r="P482" s="1"/>
-      <c r="R482" s="1"/>
+      <c r="Q482" s="1"/>
+      <c r="R482"/>
       <c r="T482" s="1"/>
-      <c r="U482" s="1"/>
       <c r="V482" s="1"/>
-    </row>
-    <row r="483" spans="1:22">
+      <c r="W482" s="1"/>
+    </row>
+    <row r="483" spans="1:23">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -13379,12 +13826,13 @@
       <c r="N483" s="1"/>
       <c r="O483" s="1"/>
       <c r="P483" s="1"/>
-      <c r="R483" s="1"/>
+      <c r="Q483" s="1"/>
+      <c r="R483"/>
       <c r="T483" s="1"/>
-      <c r="U483" s="1"/>
       <c r="V483" s="1"/>
-    </row>
-    <row r="484" spans="1:22">
+      <c r="W483" s="1"/>
+    </row>
+    <row r="484" spans="1:23">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -13400,12 +13848,13 @@
       <c r="N484" s="1"/>
       <c r="O484" s="1"/>
       <c r="P484" s="1"/>
-      <c r="R484" s="1"/>
+      <c r="Q484" s="1"/>
+      <c r="R484"/>
       <c r="T484" s="1"/>
-      <c r="U484" s="1"/>
       <c r="V484" s="1"/>
-    </row>
-    <row r="485" spans="1:22">
+      <c r="W484" s="1"/>
+    </row>
+    <row r="485" spans="1:23">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -13421,12 +13870,13 @@
       <c r="N485" s="1"/>
       <c r="O485" s="1"/>
       <c r="P485" s="1"/>
-      <c r="R485" s="1"/>
+      <c r="Q485" s="1"/>
+      <c r="R485"/>
       <c r="T485" s="1"/>
-      <c r="U485" s="1"/>
       <c r="V485" s="1"/>
-    </row>
-    <row r="486" spans="1:22">
+      <c r="W485" s="1"/>
+    </row>
+    <row r="486" spans="1:23">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -13442,12 +13892,13 @@
       <c r="N486" s="1"/>
       <c r="O486" s="1"/>
       <c r="P486" s="1"/>
-      <c r="R486" s="1"/>
+      <c r="Q486" s="1"/>
+      <c r="R486"/>
       <c r="T486" s="1"/>
-      <c r="U486" s="1"/>
       <c r="V486" s="1"/>
-    </row>
-    <row r="487" spans="1:22">
+      <c r="W486" s="1"/>
+    </row>
+    <row r="487" spans="1:23">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -13463,12 +13914,13 @@
       <c r="N487" s="1"/>
       <c r="O487" s="1"/>
       <c r="P487" s="1"/>
-      <c r="R487" s="1"/>
+      <c r="Q487" s="1"/>
+      <c r="R487"/>
       <c r="T487" s="1"/>
-      <c r="U487" s="1"/>
       <c r="V487" s="1"/>
-    </row>
-    <row r="488" spans="1:22">
+      <c r="W487" s="1"/>
+    </row>
+    <row r="488" spans="1:23">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -13484,12 +13936,13 @@
       <c r="N488" s="1"/>
       <c r="O488" s="1"/>
       <c r="P488" s="1"/>
-      <c r="R488" s="1"/>
+      <c r="Q488" s="1"/>
+      <c r="R488"/>
       <c r="T488" s="1"/>
-      <c r="U488" s="1"/>
       <c r="V488" s="1"/>
-    </row>
-    <row r="489" spans="1:22">
+      <c r="W488" s="1"/>
+    </row>
+    <row r="489" spans="1:23">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -13505,12 +13958,13 @@
       <c r="N489" s="1"/>
       <c r="O489" s="1"/>
       <c r="P489" s="1"/>
-      <c r="R489" s="1"/>
+      <c r="Q489" s="1"/>
+      <c r="R489"/>
       <c r="T489" s="1"/>
-      <c r="U489" s="1"/>
       <c r="V489" s="1"/>
-    </row>
-    <row r="490" spans="1:22">
+      <c r="W489" s="1"/>
+    </row>
+    <row r="490" spans="1:23">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -13526,12 +13980,13 @@
       <c r="N490" s="1"/>
       <c r="O490" s="1"/>
       <c r="P490" s="1"/>
-      <c r="R490" s="1"/>
+      <c r="Q490" s="1"/>
+      <c r="R490"/>
       <c r="T490" s="1"/>
-      <c r="U490" s="1"/>
       <c r="V490" s="1"/>
-    </row>
-    <row r="491" spans="1:22">
+      <c r="W490" s="1"/>
+    </row>
+    <row r="491" spans="1:23">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -13547,12 +14002,13 @@
       <c r="N491" s="1"/>
       <c r="O491" s="1"/>
       <c r="P491" s="1"/>
-      <c r="R491" s="1"/>
+      <c r="Q491" s="1"/>
+      <c r="R491"/>
       <c r="T491" s="1"/>
-      <c r="U491" s="1"/>
       <c r="V491" s="1"/>
-    </row>
-    <row r="492" spans="1:22">
+      <c r="W491" s="1"/>
+    </row>
+    <row r="492" spans="1:23">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -13568,12 +14024,13 @@
       <c r="N492" s="1"/>
       <c r="O492" s="1"/>
       <c r="P492" s="1"/>
-      <c r="R492" s="1"/>
+      <c r="Q492" s="1"/>
+      <c r="R492"/>
       <c r="T492" s="1"/>
-      <c r="U492" s="1"/>
       <c r="V492" s="1"/>
-    </row>
-    <row r="493" spans="1:22">
+      <c r="W492" s="1"/>
+    </row>
+    <row r="493" spans="1:23">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -13589,12 +14046,13 @@
       <c r="N493" s="1"/>
       <c r="O493" s="1"/>
       <c r="P493" s="1"/>
-      <c r="R493" s="1"/>
+      <c r="Q493" s="1"/>
+      <c r="R493"/>
       <c r="T493" s="1"/>
-      <c r="U493" s="1"/>
       <c r="V493" s="1"/>
-    </row>
-    <row r="494" spans="1:22">
+      <c r="W493" s="1"/>
+    </row>
+    <row r="494" spans="1:23">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -13610,12 +14068,13 @@
       <c r="N494" s="1"/>
       <c r="O494" s="1"/>
       <c r="P494" s="1"/>
-      <c r="R494" s="1"/>
+      <c r="Q494" s="1"/>
+      <c r="R494"/>
       <c r="T494" s="1"/>
-      <c r="U494" s="1"/>
       <c r="V494" s="1"/>
-    </row>
-    <row r="495" spans="1:22">
+      <c r="W494" s="1"/>
+    </row>
+    <row r="495" spans="1:23">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -13631,12 +14090,13 @@
       <c r="N495" s="1"/>
       <c r="O495" s="1"/>
       <c r="P495" s="1"/>
-      <c r="R495" s="1"/>
+      <c r="Q495" s="1"/>
+      <c r="R495"/>
       <c r="T495" s="1"/>
-      <c r="U495" s="1"/>
       <c r="V495" s="1"/>
-    </row>
-    <row r="496" spans="1:22">
+      <c r="W495" s="1"/>
+    </row>
+    <row r="496" spans="1:23">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -13652,12 +14112,13 @@
       <c r="N496" s="1"/>
       <c r="O496" s="1"/>
       <c r="P496" s="1"/>
-      <c r="R496" s="1"/>
+      <c r="Q496" s="1"/>
+      <c r="R496"/>
       <c r="T496" s="1"/>
-      <c r="U496" s="1"/>
       <c r="V496" s="1"/>
-    </row>
-    <row r="497" spans="1:22">
+      <c r="W496" s="1"/>
+    </row>
+    <row r="497" spans="1:23">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -13673,17 +14134,18 @@
       <c r="N497" s="1"/>
       <c r="O497" s="1"/>
       <c r="P497" s="1"/>
-      <c r="R497" s="1"/>
+      <c r="Q497" s="1"/>
+      <c r="R497"/>
       <c r="T497" s="1"/>
-      <c r="U497" s="1"/>
       <c r="V497" s="1"/>
+      <c r="W497" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="S1:W1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -28,7 +28,7 @@
     <t>止损线状态</t>
   </si>
   <si>
-    <t>是否向预期相反方向发展指标</t>
+    <t>是否向预期相反方向发展指标(出现4个考虑卖出)</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -2896,11 +2896,11 @@
   <dimension ref="A1:W497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>日期</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>止损线状态</t>
-  </si>
-  <si>
-    <t>是否向预期相反方向发展指标(出现4个考虑卖出)</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -59,6 +56,10 @@
   </si>
   <si>
     <t>预期移动止损线股价</t>
+  </si>
+  <si>
+    <t>单日涨幅
+(创新高要注意)</t>
   </si>
   <si>
     <t>当日收盘价是否小于20日均线
@@ -184,10 +185,6 @@
     </r>
   </si>
   <si>
-    <t>单日涨幅
-(创新高要注意)</t>
-  </si>
-  <si>
     <t>否</t>
   </si>
   <si>
@@ -199,11 +196,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -249,6 +246,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -264,32 +292,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,10 +309,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,9 +340,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,6 +350,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,33 +369,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,7 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,13 +452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,43 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,19 +494,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,13 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,25 +578,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,6 +636,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,6 +688,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -689,15 +710,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,162 +728,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,7 +878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,16 +906,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -936,19 +939,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2896,11 +2896,11 @@
   <dimension ref="A1:W497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2915,19 +2915,19 @@
     <col min="8" max="8" width="13.5357142857143" customWidth="1"/>
     <col min="9" max="9" width="13.3839285714286" customWidth="1"/>
     <col min="10" max="10" width="20.3839285714286" customWidth="1"/>
-    <col min="11" max="11" width="30.0625" customWidth="1"/>
-    <col min="12" max="12" width="40.4732142857143" customWidth="1"/>
-    <col min="13" max="13" width="25.4464285714286" customWidth="1"/>
-    <col min="14" max="14" width="28.7142857142857" customWidth="1"/>
-    <col min="15" max="15" width="30.0625" customWidth="1"/>
-    <col min="16" max="16" width="21.875" customWidth="1"/>
-    <col min="17" max="17" width="24.9910714285714" customWidth="1"/>
-    <col min="18" max="18" width="39.5803571428571" customWidth="1"/>
-    <col min="19" max="19" width="20.5267857142857" style="1" customWidth="1"/>
-    <col min="20" max="20" width="18.4464285714286" customWidth="1"/>
-    <col min="21" max="21" width="22.3125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.3035714285714" customWidth="1"/>
-    <col min="23" max="23" width="20.3839285714286" customWidth="1"/>
+    <col min="11" max="11" width="20.3839285714286" customWidth="1"/>
+    <col min="12" max="12" width="30.0625" customWidth="1"/>
+    <col min="13" max="13" width="40.4732142857143" customWidth="1"/>
+    <col min="14" max="14" width="25.4464285714286" customWidth="1"/>
+    <col min="15" max="15" width="28.7142857142857" customWidth="1"/>
+    <col min="16" max="16" width="30.0625" customWidth="1"/>
+    <col min="17" max="17" width="21.875" customWidth="1"/>
+    <col min="18" max="18" width="24.9910714285714" customWidth="1"/>
+    <col min="19" max="19" width="39.5803571428571" customWidth="1"/>
+    <col min="20" max="20" width="20.5267857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="18.4464285714286" customWidth="1"/>
+    <col min="22" max="22" width="22.3125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.3035714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -2947,91 +2947,89 @@
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="S2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="V2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="W2" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3067,49 +3065,49 @@
         <f>I3+I3*VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
         <v>79.9495424641149</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>27</v>
+      <c r="K3" s="14">
+        <v>0.0302</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>28</v>
+      <c r="L3" s="8" t="s">
+        <v>26</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
-      <c r="O3" s="8" t="str">
+      <c r="O3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="8" t="str">
         <f>IF(B3&gt;(D3-(D3-C3)/3),"上部",IF(B3&gt;=(E3+(D3-C3)/3),"中部","下部"))</f>
         <v>中部</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="16">
+      <c r="S3" s="18">
         <f>D3-E3</f>
         <v>4.09999999999999</v>
       </c>
-      <c r="S3" s="17">
+      <c r="T3" s="19">
         <v>0</v>
       </c>
-      <c r="T3" s="18">
+      <c r="U3" s="21">
         <f>F3/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,45,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="U3" s="20">
+      <c r="V3" s="22">
         <f>(B3-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE)</f>
         <v>-0.0113778271125294</v>
       </c>
-      <c r="V3" s="21">
+      <c r="W3" s="23">
         <f>G3/(ROW()-2)</f>
         <v>0</v>
-      </c>
-      <c r="W3" s="22">
-        <v>0.0302</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -3134,8 +3132,8 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="6"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
@@ -3161,8 +3159,8 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="6"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
@@ -3188,8 +3186,8 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="6"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
     </row>
@@ -3215,8 +3213,8 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="6"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
     </row>
@@ -3242,8 +3240,8 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
     </row>
@@ -3269,8 +3267,8 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="6"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
     </row>
@@ -3296,8 +3294,8 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="6"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
     </row>
@@ -3323,8 +3321,8 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="6"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
     </row>
@@ -3350,8 +3348,8 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="6"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
     </row>
@@ -3377,8 +3375,8 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="6"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
     </row>
@@ -3404,8 +3402,8 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="6"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
     </row>
@@ -3431,8 +3429,8 @@
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="6"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
     </row>
@@ -3458,8 +3456,8 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="6"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
     </row>
@@ -3485,8 +3483,8 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="6"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
     </row>
@@ -3512,8 +3510,8 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="6"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
     </row>
@@ -3539,8 +3537,8 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="6"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
     </row>
@@ -3566,8 +3564,8 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="6"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
     </row>
@@ -3593,8 +3591,8 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="6"/>
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
     </row>
@@ -3618,8 +3616,8 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="20"/>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
@@ -3645,8 +3643,8 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="20"/>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
@@ -3672,8 +3670,8 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="20"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
@@ -3699,8 +3697,8 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="20"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
@@ -3726,8 +3724,8 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="20"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
@@ -3753,8 +3751,8 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="20"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
@@ -3780,8 +3778,8 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="20"/>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
@@ -3807,8 +3805,8 @@
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="20"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
@@ -3834,8 +3832,8 @@
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="20"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
@@ -3861,8 +3859,8 @@
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="20"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -3888,8 +3886,8 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="20"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -3915,8 +3913,8 @@
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="20"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
@@ -3942,8 +3940,8 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="20"/>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
@@ -3969,8 +3967,8 @@
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="20"/>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
@@ -3993,9 +3991,8 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36"/>
-      <c r="T36" s="1"/>
-      <c r="V36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="U36" s="1"/>
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23">
@@ -4015,9 +4012,8 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37"/>
-      <c r="T37" s="1"/>
-      <c r="V37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="U37" s="1"/>
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:23">
@@ -4037,9 +4033,8 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-      <c r="R38"/>
-      <c r="T38" s="1"/>
-      <c r="V38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="U38" s="1"/>
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="1:23">
@@ -4059,9 +4054,8 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39"/>
-      <c r="T39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="U39" s="1"/>
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23">
@@ -4081,9 +4075,8 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40"/>
-      <c r="T40" s="1"/>
-      <c r="V40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="U40" s="1"/>
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23">
@@ -4103,9 +4096,8 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="R41"/>
-      <c r="T41" s="1"/>
-      <c r="V41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="U41" s="1"/>
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23">
@@ -4125,9 +4117,8 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42"/>
-      <c r="T42" s="1"/>
-      <c r="V42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="U42" s="1"/>
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23">
@@ -4147,9 +4138,8 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="R43"/>
-      <c r="T43" s="1"/>
-      <c r="V43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="U43" s="1"/>
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23">
@@ -4169,9 +4159,8 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-      <c r="R44"/>
-      <c r="T44" s="1"/>
-      <c r="V44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="U44" s="1"/>
       <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23">
@@ -4191,9 +4180,8 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-      <c r="R45"/>
-      <c r="T45" s="1"/>
-      <c r="V45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="U45" s="1"/>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23">
@@ -4213,9 +4201,8 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-      <c r="R46"/>
-      <c r="T46" s="1"/>
-      <c r="V46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="U46" s="1"/>
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23">
@@ -4235,9 +4222,8 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-      <c r="R47"/>
-      <c r="T47" s="1"/>
-      <c r="V47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="U47" s="1"/>
       <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23">
@@ -4257,9 +4243,8 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48"/>
-      <c r="T48" s="1"/>
-      <c r="V48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="U48" s="1"/>
       <c r="W48" s="1"/>
     </row>
     <row r="49" spans="1:23">
@@ -4279,9 +4264,8 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-      <c r="R49"/>
-      <c r="T49" s="1"/>
-      <c r="V49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="U49" s="1"/>
       <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:23">
@@ -4301,9 +4285,8 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-      <c r="R50"/>
-      <c r="T50" s="1"/>
-      <c r="V50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="U50" s="1"/>
       <c r="W50" s="1"/>
     </row>
     <row r="51" spans="1:23">
@@ -4323,9 +4306,8 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-      <c r="R51"/>
-      <c r="T51" s="1"/>
-      <c r="V51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="U51" s="1"/>
       <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23">
@@ -4345,9 +4327,8 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52"/>
-      <c r="T52" s="1"/>
-      <c r="V52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="U52" s="1"/>
       <c r="W52" s="1"/>
     </row>
     <row r="53" spans="1:23">
@@ -4367,9 +4348,8 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="R53"/>
-      <c r="T53" s="1"/>
-      <c r="V53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="U53" s="1"/>
       <c r="W53" s="1"/>
     </row>
     <row r="54" spans="1:23">
@@ -4389,9 +4369,8 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-      <c r="R54"/>
-      <c r="T54" s="1"/>
-      <c r="V54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="U54" s="1"/>
       <c r="W54" s="1"/>
     </row>
     <row r="55" spans="1:23">
@@ -4411,9 +4390,8 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="R55"/>
-      <c r="T55" s="1"/>
-      <c r="V55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="U55" s="1"/>
       <c r="W55" s="1"/>
     </row>
     <row r="56" spans="1:23">
@@ -4433,9 +4411,8 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="R56"/>
-      <c r="T56" s="1"/>
-      <c r="V56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="U56" s="1"/>
       <c r="W56" s="1"/>
     </row>
     <row r="57" spans="1:23">
@@ -4455,9 +4432,8 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-      <c r="R57"/>
-      <c r="T57" s="1"/>
-      <c r="V57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="U57" s="1"/>
       <c r="W57" s="1"/>
     </row>
     <row r="58" spans="1:23">
@@ -4477,9 +4453,8 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-      <c r="R58"/>
-      <c r="T58" s="1"/>
-      <c r="V58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="U58" s="1"/>
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="1:23">
@@ -4499,9 +4474,8 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-      <c r="R59"/>
-      <c r="T59" s="1"/>
-      <c r="V59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="U59" s="1"/>
       <c r="W59" s="1"/>
     </row>
     <row r="60" spans="1:23">
@@ -4521,9 +4495,8 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-      <c r="R60"/>
-      <c r="T60" s="1"/>
-      <c r="V60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="U60" s="1"/>
       <c r="W60" s="1"/>
     </row>
     <row r="61" spans="1:23">
@@ -4543,9 +4516,8 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-      <c r="R61"/>
-      <c r="T61" s="1"/>
-      <c r="V61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="U61" s="1"/>
       <c r="W61" s="1"/>
     </row>
     <row r="62" spans="1:23">
@@ -4565,9 +4537,8 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-      <c r="R62"/>
-      <c r="T62" s="1"/>
-      <c r="V62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="U62" s="1"/>
       <c r="W62" s="1"/>
     </row>
     <row r="63" spans="1:23">
@@ -4587,9 +4558,8 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-      <c r="R63"/>
-      <c r="T63" s="1"/>
-      <c r="V63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="U63" s="1"/>
       <c r="W63" s="1"/>
     </row>
     <row r="64" spans="1:23">
@@ -4609,9 +4579,8 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-      <c r="R64"/>
-      <c r="T64" s="1"/>
-      <c r="V64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="U64" s="1"/>
       <c r="W64" s="1"/>
     </row>
     <row r="65" spans="1:23">
@@ -4631,9 +4600,8 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
-      <c r="R65"/>
-      <c r="T65" s="1"/>
-      <c r="V65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="U65" s="1"/>
       <c r="W65" s="1"/>
     </row>
     <row r="66" spans="1:23">
@@ -4653,9 +4621,8 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
-      <c r="R66"/>
-      <c r="T66" s="1"/>
-      <c r="V66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="U66" s="1"/>
       <c r="W66" s="1"/>
     </row>
     <row r="67" spans="1:23">
@@ -4675,9 +4642,8 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-      <c r="R67"/>
-      <c r="T67" s="1"/>
-      <c r="V67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="U67" s="1"/>
       <c r="W67" s="1"/>
     </row>
     <row r="68" spans="1:23">
@@ -4697,9 +4663,8 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
-      <c r="R68"/>
-      <c r="T68" s="1"/>
-      <c r="V68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="U68" s="1"/>
       <c r="W68" s="1"/>
     </row>
     <row r="69" spans="1:23">
@@ -4719,9 +4684,8 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
-      <c r="R69"/>
-      <c r="T69" s="1"/>
-      <c r="V69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="U69" s="1"/>
       <c r="W69" s="1"/>
     </row>
     <row r="70" spans="1:23">
@@ -4741,9 +4705,8 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
-      <c r="R70"/>
-      <c r="T70" s="1"/>
-      <c r="V70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="U70" s="1"/>
       <c r="W70" s="1"/>
     </row>
     <row r="71" spans="1:23">
@@ -4763,9 +4726,8 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-      <c r="R71"/>
-      <c r="T71" s="1"/>
-      <c r="V71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="U71" s="1"/>
       <c r="W71" s="1"/>
     </row>
     <row r="72" spans="1:23">
@@ -4785,9 +4747,8 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
-      <c r="R72"/>
-      <c r="T72" s="1"/>
-      <c r="V72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="U72" s="1"/>
       <c r="W72" s="1"/>
     </row>
     <row r="73" spans="1:23">
@@ -4807,9 +4768,8 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
-      <c r="R73"/>
-      <c r="T73" s="1"/>
-      <c r="V73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="U73" s="1"/>
       <c r="W73" s="1"/>
     </row>
     <row r="74" spans="1:23">
@@ -4829,9 +4789,8 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
-      <c r="R74"/>
-      <c r="T74" s="1"/>
-      <c r="V74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="U74" s="1"/>
       <c r="W74" s="1"/>
     </row>
     <row r="75" spans="1:23">
@@ -4851,9 +4810,8 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
-      <c r="R75"/>
-      <c r="T75" s="1"/>
-      <c r="V75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="U75" s="1"/>
       <c r="W75" s="1"/>
     </row>
     <row r="76" spans="1:23">
@@ -4873,9 +4831,8 @@
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
-      <c r="R76"/>
-      <c r="T76" s="1"/>
-      <c r="V76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="U76" s="1"/>
       <c r="W76" s="1"/>
     </row>
     <row r="77" spans="1:23">
@@ -4895,9 +4852,8 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
-      <c r="R77"/>
-      <c r="T77" s="1"/>
-      <c r="V77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="U77" s="1"/>
       <c r="W77" s="1"/>
     </row>
     <row r="78" spans="1:23">
@@ -4917,9 +4873,8 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
-      <c r="R78"/>
-      <c r="T78" s="1"/>
-      <c r="V78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="U78" s="1"/>
       <c r="W78" s="1"/>
     </row>
     <row r="79" spans="1:23">
@@ -4939,9 +4894,8 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
-      <c r="R79"/>
-      <c r="T79" s="1"/>
-      <c r="V79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="U79" s="1"/>
       <c r="W79" s="1"/>
     </row>
     <row r="80" spans="1:23">
@@ -4961,9 +4915,8 @@
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
-      <c r="R80"/>
-      <c r="T80" s="1"/>
-      <c r="V80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="U80" s="1"/>
       <c r="W80" s="1"/>
     </row>
     <row r="81" spans="1:23">
@@ -4983,9 +4936,8 @@
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
-      <c r="R81"/>
-      <c r="T81" s="1"/>
-      <c r="V81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="U81" s="1"/>
       <c r="W81" s="1"/>
     </row>
     <row r="82" spans="1:23">
@@ -5005,9 +4957,8 @@
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
-      <c r="R82"/>
-      <c r="T82" s="1"/>
-      <c r="V82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="U82" s="1"/>
       <c r="W82" s="1"/>
     </row>
     <row r="83" spans="1:23">
@@ -5027,9 +4978,8 @@
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
-      <c r="R83"/>
-      <c r="T83" s="1"/>
-      <c r="V83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="U83" s="1"/>
       <c r="W83" s="1"/>
     </row>
     <row r="84" spans="1:23">
@@ -5049,9 +4999,8 @@
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
-      <c r="R84"/>
-      <c r="T84" s="1"/>
-      <c r="V84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="U84" s="1"/>
       <c r="W84" s="1"/>
     </row>
     <row r="85" spans="1:23">
@@ -5071,9 +5020,8 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-      <c r="R85"/>
-      <c r="T85" s="1"/>
-      <c r="V85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="U85" s="1"/>
       <c r="W85" s="1"/>
     </row>
     <row r="86" spans="1:23">
@@ -5093,9 +5041,8 @@
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
-      <c r="R86"/>
-      <c r="T86" s="1"/>
-      <c r="V86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="U86" s="1"/>
       <c r="W86" s="1"/>
     </row>
     <row r="87" spans="1:23">
@@ -5115,9 +5062,8 @@
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
-      <c r="R87"/>
-      <c r="T87" s="1"/>
-      <c r="V87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="U87" s="1"/>
       <c r="W87" s="1"/>
     </row>
     <row r="88" spans="1:23">
@@ -5137,9 +5083,8 @@
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
-      <c r="R88"/>
-      <c r="T88" s="1"/>
-      <c r="V88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="U88" s="1"/>
       <c r="W88" s="1"/>
     </row>
     <row r="89" spans="1:23">
@@ -5159,9 +5104,8 @@
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
-      <c r="R89"/>
-      <c r="T89" s="1"/>
-      <c r="V89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="U89" s="1"/>
       <c r="W89" s="1"/>
     </row>
     <row r="90" spans="1:23">
@@ -5181,9 +5125,8 @@
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
-      <c r="R90"/>
-      <c r="T90" s="1"/>
-      <c r="V90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="U90" s="1"/>
       <c r="W90" s="1"/>
     </row>
     <row r="91" spans="1:23">
@@ -5203,9 +5146,8 @@
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
-      <c r="R91"/>
-      <c r="T91" s="1"/>
-      <c r="V91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="U91" s="1"/>
       <c r="W91" s="1"/>
     </row>
     <row r="92" spans="1:23">
@@ -5225,9 +5167,8 @@
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
-      <c r="R92"/>
-      <c r="T92" s="1"/>
-      <c r="V92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="U92" s="1"/>
       <c r="W92" s="1"/>
     </row>
     <row r="93" spans="1:23">
@@ -5247,9 +5188,8 @@
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
-      <c r="R93"/>
-      <c r="T93" s="1"/>
-      <c r="V93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="U93" s="1"/>
       <c r="W93" s="1"/>
     </row>
     <row r="94" spans="1:23">
@@ -5269,9 +5209,8 @@
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
-      <c r="R94"/>
-      <c r="T94" s="1"/>
-      <c r="V94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="U94" s="1"/>
       <c r="W94" s="1"/>
     </row>
     <row r="95" spans="1:23">
@@ -5291,9 +5230,8 @@
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
-      <c r="R95"/>
-      <c r="T95" s="1"/>
-      <c r="V95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="U95" s="1"/>
       <c r="W95" s="1"/>
     </row>
     <row r="96" spans="1:23">
@@ -5313,9 +5251,8 @@
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
-      <c r="R96"/>
-      <c r="T96" s="1"/>
-      <c r="V96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="U96" s="1"/>
       <c r="W96" s="1"/>
     </row>
     <row r="97" spans="1:23">
@@ -5335,9 +5272,8 @@
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
-      <c r="R97"/>
-      <c r="T97" s="1"/>
-      <c r="V97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="U97" s="1"/>
       <c r="W97" s="1"/>
     </row>
     <row r="98" spans="1:23">
@@ -5357,9 +5293,8 @@
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
-      <c r="R98"/>
-      <c r="T98" s="1"/>
-      <c r="V98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="U98" s="1"/>
       <c r="W98" s="1"/>
     </row>
     <row r="99" spans="1:23">
@@ -5379,9 +5314,8 @@
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
-      <c r="R99"/>
-      <c r="T99" s="1"/>
-      <c r="V99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="U99" s="1"/>
       <c r="W99" s="1"/>
     </row>
     <row r="100" spans="1:23">
@@ -5401,9 +5335,8 @@
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
-      <c r="R100"/>
-      <c r="T100" s="1"/>
-      <c r="V100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="U100" s="1"/>
       <c r="W100" s="1"/>
     </row>
     <row r="101" spans="1:23">
@@ -5423,9 +5356,8 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
-      <c r="R101"/>
-      <c r="T101" s="1"/>
-      <c r="V101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="U101" s="1"/>
       <c r="W101" s="1"/>
     </row>
     <row r="102" spans="1:23">
@@ -5445,9 +5377,8 @@
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
-      <c r="R102"/>
-      <c r="T102" s="1"/>
-      <c r="V102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="U102" s="1"/>
       <c r="W102" s="1"/>
     </row>
     <row r="103" spans="1:23">
@@ -5467,9 +5398,8 @@
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
-      <c r="R103"/>
-      <c r="T103" s="1"/>
-      <c r="V103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="U103" s="1"/>
       <c r="W103" s="1"/>
     </row>
     <row r="104" spans="1:23">
@@ -5489,9 +5419,8 @@
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
-      <c r="R104"/>
-      <c r="T104" s="1"/>
-      <c r="V104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="U104" s="1"/>
       <c r="W104" s="1"/>
     </row>
     <row r="105" spans="1:23">
@@ -5511,9 +5440,8 @@
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
-      <c r="R105"/>
-      <c r="T105" s="1"/>
-      <c r="V105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="U105" s="1"/>
       <c r="W105" s="1"/>
     </row>
     <row r="106" spans="1:23">
@@ -5533,9 +5461,8 @@
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
-      <c r="R106"/>
-      <c r="T106" s="1"/>
-      <c r="V106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="U106" s="1"/>
       <c r="W106" s="1"/>
     </row>
     <row r="107" spans="1:23">
@@ -5555,9 +5482,8 @@
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
-      <c r="R107"/>
-      <c r="T107" s="1"/>
-      <c r="V107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="U107" s="1"/>
       <c r="W107" s="1"/>
     </row>
     <row r="108" spans="1:23">
@@ -5577,9 +5503,8 @@
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
-      <c r="R108"/>
-      <c r="T108" s="1"/>
-      <c r="V108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="U108" s="1"/>
       <c r="W108" s="1"/>
     </row>
     <row r="109" spans="1:23">
@@ -5599,9 +5524,8 @@
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
-      <c r="R109"/>
-      <c r="T109" s="1"/>
-      <c r="V109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="U109" s="1"/>
       <c r="W109" s="1"/>
     </row>
     <row r="110" spans="1:23">
@@ -5621,9 +5545,8 @@
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
-      <c r="R110"/>
-      <c r="T110" s="1"/>
-      <c r="V110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="U110" s="1"/>
       <c r="W110" s="1"/>
     </row>
     <row r="111" spans="1:23">
@@ -5643,9 +5566,8 @@
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
-      <c r="R111"/>
-      <c r="T111" s="1"/>
-      <c r="V111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="U111" s="1"/>
       <c r="W111" s="1"/>
     </row>
     <row r="112" spans="1:23">
@@ -5665,9 +5587,8 @@
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
-      <c r="R112"/>
-      <c r="T112" s="1"/>
-      <c r="V112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="U112" s="1"/>
       <c r="W112" s="1"/>
     </row>
     <row r="113" spans="1:23">
@@ -5687,9 +5608,8 @@
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
-      <c r="R113"/>
-      <c r="T113" s="1"/>
-      <c r="V113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="U113" s="1"/>
       <c r="W113" s="1"/>
     </row>
     <row r="114" spans="1:23">
@@ -5709,9 +5629,8 @@
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
-      <c r="R114"/>
-      <c r="T114" s="1"/>
-      <c r="V114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="U114" s="1"/>
       <c r="W114" s="1"/>
     </row>
     <row r="115" spans="1:23">
@@ -5731,9 +5650,8 @@
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
-      <c r="R115"/>
-      <c r="T115" s="1"/>
-      <c r="V115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="U115" s="1"/>
       <c r="W115" s="1"/>
     </row>
     <row r="116" spans="1:23">
@@ -5753,9 +5671,8 @@
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
-      <c r="R116"/>
-      <c r="T116" s="1"/>
-      <c r="V116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="U116" s="1"/>
       <c r="W116" s="1"/>
     </row>
     <row r="117" spans="1:23">
@@ -5775,9 +5692,8 @@
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
-      <c r="R117"/>
-      <c r="T117" s="1"/>
-      <c r="V117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="U117" s="1"/>
       <c r="W117" s="1"/>
     </row>
     <row r="118" spans="1:23">
@@ -5797,9 +5713,8 @@
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
-      <c r="R118"/>
-      <c r="T118" s="1"/>
-      <c r="V118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="U118" s="1"/>
       <c r="W118" s="1"/>
     </row>
     <row r="119" spans="1:23">
@@ -5819,9 +5734,8 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
-      <c r="R119"/>
-      <c r="T119" s="1"/>
-      <c r="V119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="U119" s="1"/>
       <c r="W119" s="1"/>
     </row>
     <row r="120" spans="1:23">
@@ -5841,9 +5755,8 @@
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
-      <c r="R120"/>
-      <c r="T120" s="1"/>
-      <c r="V120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="U120" s="1"/>
       <c r="W120" s="1"/>
     </row>
     <row r="121" spans="1:23">
@@ -5863,9 +5776,8 @@
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
-      <c r="R121"/>
-      <c r="T121" s="1"/>
-      <c r="V121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="U121" s="1"/>
       <c r="W121" s="1"/>
     </row>
     <row r="122" spans="1:23">
@@ -5885,9 +5797,8 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-      <c r="R122"/>
-      <c r="T122" s="1"/>
-      <c r="V122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="U122" s="1"/>
       <c r="W122" s="1"/>
     </row>
     <row r="123" spans="1:23">
@@ -5907,9 +5818,8 @@
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
-      <c r="R123"/>
-      <c r="T123" s="1"/>
-      <c r="V123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="U123" s="1"/>
       <c r="W123" s="1"/>
     </row>
     <row r="124" spans="1:23">
@@ -5929,9 +5839,8 @@
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
-      <c r="R124"/>
-      <c r="T124" s="1"/>
-      <c r="V124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="U124" s="1"/>
       <c r="W124" s="1"/>
     </row>
     <row r="125" spans="1:23">
@@ -5951,9 +5860,8 @@
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
-      <c r="R125"/>
-      <c r="T125" s="1"/>
-      <c r="V125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="U125" s="1"/>
       <c r="W125" s="1"/>
     </row>
     <row r="126" spans="1:23">
@@ -5973,9 +5881,8 @@
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
-      <c r="R126"/>
-      <c r="T126" s="1"/>
-      <c r="V126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="U126" s="1"/>
       <c r="W126" s="1"/>
     </row>
     <row r="127" spans="1:23">
@@ -5995,9 +5902,8 @@
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
-      <c r="R127"/>
-      <c r="T127" s="1"/>
-      <c r="V127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="U127" s="1"/>
       <c r="W127" s="1"/>
     </row>
     <row r="128" spans="1:23">
@@ -6017,9 +5923,8 @@
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
-      <c r="R128"/>
-      <c r="T128" s="1"/>
-      <c r="V128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="U128" s="1"/>
       <c r="W128" s="1"/>
     </row>
     <row r="129" spans="1:23">
@@ -6039,9 +5944,8 @@
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
-      <c r="R129"/>
-      <c r="T129" s="1"/>
-      <c r="V129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="U129" s="1"/>
       <c r="W129" s="1"/>
     </row>
     <row r="130" spans="1:23">
@@ -6061,9 +5965,8 @@
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
-      <c r="R130"/>
-      <c r="T130" s="1"/>
-      <c r="V130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="U130" s="1"/>
       <c r="W130" s="1"/>
     </row>
     <row r="131" spans="1:23">
@@ -6083,9 +5986,8 @@
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
-      <c r="R131"/>
-      <c r="T131" s="1"/>
-      <c r="V131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="U131" s="1"/>
       <c r="W131" s="1"/>
     </row>
     <row r="132" spans="1:23">
@@ -6105,9 +6007,8 @@
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
-      <c r="R132"/>
-      <c r="T132" s="1"/>
-      <c r="V132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="U132" s="1"/>
       <c r="W132" s="1"/>
     </row>
     <row r="133" spans="1:23">
@@ -6127,9 +6028,8 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
-      <c r="R133"/>
-      <c r="T133" s="1"/>
-      <c r="V133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="U133" s="1"/>
       <c r="W133" s="1"/>
     </row>
     <row r="134" spans="1:23">
@@ -6149,9 +6049,8 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-      <c r="R134"/>
-      <c r="T134" s="1"/>
-      <c r="V134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="U134" s="1"/>
       <c r="W134" s="1"/>
     </row>
     <row r="135" spans="1:23">
@@ -6171,9 +6070,8 @@
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
-      <c r="R135"/>
-      <c r="T135" s="1"/>
-      <c r="V135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="U135" s="1"/>
       <c r="W135" s="1"/>
     </row>
     <row r="136" spans="1:23">
@@ -6193,9 +6091,8 @@
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
-      <c r="R136"/>
-      <c r="T136" s="1"/>
-      <c r="V136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="U136" s="1"/>
       <c r="W136" s="1"/>
     </row>
     <row r="137" spans="1:23">
@@ -6215,9 +6112,8 @@
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
-      <c r="R137"/>
-      <c r="T137" s="1"/>
-      <c r="V137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="U137" s="1"/>
       <c r="W137" s="1"/>
     </row>
     <row r="138" spans="1:23">
@@ -6237,9 +6133,8 @@
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
-      <c r="R138"/>
-      <c r="T138" s="1"/>
-      <c r="V138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="U138" s="1"/>
       <c r="W138" s="1"/>
     </row>
     <row r="139" spans="1:23">
@@ -6259,9 +6154,8 @@
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
-      <c r="R139"/>
-      <c r="T139" s="1"/>
-      <c r="V139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="U139" s="1"/>
       <c r="W139" s="1"/>
     </row>
     <row r="140" spans="1:23">
@@ -6281,9 +6175,8 @@
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
-      <c r="R140"/>
-      <c r="T140" s="1"/>
-      <c r="V140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="U140" s="1"/>
       <c r="W140" s="1"/>
     </row>
     <row r="141" spans="1:23">
@@ -6303,9 +6196,8 @@
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
-      <c r="R141"/>
-      <c r="T141" s="1"/>
-      <c r="V141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="U141" s="1"/>
       <c r="W141" s="1"/>
     </row>
     <row r="142" spans="1:23">
@@ -6325,9 +6217,8 @@
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
-      <c r="R142"/>
-      <c r="T142" s="1"/>
-      <c r="V142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="U142" s="1"/>
       <c r="W142" s="1"/>
     </row>
     <row r="143" spans="1:23">
@@ -6347,9 +6238,8 @@
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
-      <c r="R143"/>
-      <c r="T143" s="1"/>
-      <c r="V143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="U143" s="1"/>
       <c r="W143" s="1"/>
     </row>
     <row r="144" spans="1:23">
@@ -6369,9 +6259,8 @@
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
-      <c r="R144"/>
-      <c r="T144" s="1"/>
-      <c r="V144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="U144" s="1"/>
       <c r="W144" s="1"/>
     </row>
     <row r="145" spans="1:23">
@@ -6391,9 +6280,8 @@
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
-      <c r="R145"/>
-      <c r="T145" s="1"/>
-      <c r="V145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="U145" s="1"/>
       <c r="W145" s="1"/>
     </row>
     <row r="146" spans="1:23">
@@ -6413,9 +6301,8 @@
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
-      <c r="R146"/>
-      <c r="T146" s="1"/>
-      <c r="V146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="U146" s="1"/>
       <c r="W146" s="1"/>
     </row>
     <row r="147" spans="1:23">
@@ -6435,9 +6322,8 @@
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
-      <c r="R147"/>
-      <c r="T147" s="1"/>
-      <c r="V147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="U147" s="1"/>
       <c r="W147" s="1"/>
     </row>
     <row r="148" spans="1:23">
@@ -6457,9 +6343,8 @@
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
-      <c r="R148"/>
-      <c r="T148" s="1"/>
-      <c r="V148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="U148" s="1"/>
       <c r="W148" s="1"/>
     </row>
     <row r="149" spans="1:23">
@@ -6479,9 +6364,8 @@
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
-      <c r="R149"/>
-      <c r="T149" s="1"/>
-      <c r="V149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="U149" s="1"/>
       <c r="W149" s="1"/>
     </row>
     <row r="150" spans="1:23">
@@ -6501,9 +6385,8 @@
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
-      <c r="R150"/>
-      <c r="T150" s="1"/>
-      <c r="V150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="U150" s="1"/>
       <c r="W150" s="1"/>
     </row>
     <row r="151" spans="1:23">
@@ -6523,9 +6406,8 @@
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
-      <c r="R151"/>
-      <c r="T151" s="1"/>
-      <c r="V151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="U151" s="1"/>
       <c r="W151" s="1"/>
     </row>
     <row r="152" spans="1:23">
@@ -6545,9 +6427,8 @@
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
-      <c r="R152"/>
-      <c r="T152" s="1"/>
-      <c r="V152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="U152" s="1"/>
       <c r="W152" s="1"/>
     </row>
     <row r="153" spans="1:23">
@@ -6567,9 +6448,8 @@
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
-      <c r="R153"/>
-      <c r="T153" s="1"/>
-      <c r="V153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="U153" s="1"/>
       <c r="W153" s="1"/>
     </row>
     <row r="154" spans="1:23">
@@ -6589,9 +6469,8 @@
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
-      <c r="R154"/>
-      <c r="T154" s="1"/>
-      <c r="V154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="U154" s="1"/>
       <c r="W154" s="1"/>
     </row>
     <row r="155" spans="1:23">
@@ -6611,9 +6490,8 @@
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
-      <c r="R155"/>
-      <c r="T155" s="1"/>
-      <c r="V155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="U155" s="1"/>
       <c r="W155" s="1"/>
     </row>
     <row r="156" spans="1:23">
@@ -6633,9 +6511,8 @@
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
-      <c r="R156"/>
-      <c r="T156" s="1"/>
-      <c r="V156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="U156" s="1"/>
       <c r="W156" s="1"/>
     </row>
     <row r="157" spans="1:23">
@@ -6655,9 +6532,8 @@
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
-      <c r="R157"/>
-      <c r="T157" s="1"/>
-      <c r="V157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="U157" s="1"/>
       <c r="W157" s="1"/>
     </row>
     <row r="158" spans="1:23">
@@ -6677,9 +6553,8 @@
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
-      <c r="R158"/>
-      <c r="T158" s="1"/>
-      <c r="V158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="U158" s="1"/>
       <c r="W158" s="1"/>
     </row>
     <row r="159" spans="1:23">
@@ -6699,9 +6574,8 @@
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
-      <c r="R159"/>
-      <c r="T159" s="1"/>
-      <c r="V159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="U159" s="1"/>
       <c r="W159" s="1"/>
     </row>
     <row r="160" spans="1:23">
@@ -6721,9 +6595,8 @@
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
-      <c r="R160"/>
-      <c r="T160" s="1"/>
-      <c r="V160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="U160" s="1"/>
       <c r="W160" s="1"/>
     </row>
     <row r="161" spans="1:23">
@@ -6743,9 +6616,8 @@
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
-      <c r="R161"/>
-      <c r="T161" s="1"/>
-      <c r="V161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="U161" s="1"/>
       <c r="W161" s="1"/>
     </row>
     <row r="162" spans="1:23">
@@ -6765,9 +6637,8 @@
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
-      <c r="R162"/>
-      <c r="T162" s="1"/>
-      <c r="V162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="U162" s="1"/>
       <c r="W162" s="1"/>
     </row>
     <row r="163" spans="1:23">
@@ -6787,9 +6658,8 @@
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
-      <c r="R163"/>
-      <c r="T163" s="1"/>
-      <c r="V163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="U163" s="1"/>
       <c r="W163" s="1"/>
     </row>
     <row r="164" spans="1:23">
@@ -6809,9 +6679,8 @@
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
-      <c r="R164"/>
-      <c r="T164" s="1"/>
-      <c r="V164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="U164" s="1"/>
       <c r="W164" s="1"/>
     </row>
     <row r="165" spans="1:23">
@@ -6831,9 +6700,8 @@
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
-      <c r="R165"/>
-      <c r="T165" s="1"/>
-      <c r="V165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="U165" s="1"/>
       <c r="W165" s="1"/>
     </row>
     <row r="166" spans="1:23">
@@ -6853,9 +6721,8 @@
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
-      <c r="R166"/>
-      <c r="T166" s="1"/>
-      <c r="V166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="U166" s="1"/>
       <c r="W166" s="1"/>
     </row>
     <row r="167" spans="1:23">
@@ -6875,9 +6742,8 @@
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
-      <c r="R167"/>
-      <c r="T167" s="1"/>
-      <c r="V167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="U167" s="1"/>
       <c r="W167" s="1"/>
     </row>
     <row r="168" spans="1:23">
@@ -6897,9 +6763,8 @@
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
-      <c r="R168"/>
-      <c r="T168" s="1"/>
-      <c r="V168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="U168" s="1"/>
       <c r="W168" s="1"/>
     </row>
     <row r="169" spans="1:23">
@@ -6919,9 +6784,8 @@
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
-      <c r="R169"/>
-      <c r="T169" s="1"/>
-      <c r="V169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="U169" s="1"/>
       <c r="W169" s="1"/>
     </row>
     <row r="170" spans="1:23">
@@ -6941,9 +6805,8 @@
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
-      <c r="R170"/>
-      <c r="T170" s="1"/>
-      <c r="V170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="U170" s="1"/>
       <c r="W170" s="1"/>
     </row>
     <row r="171" spans="1:23">
@@ -6963,9 +6826,8 @@
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-      <c r="R171"/>
-      <c r="T171" s="1"/>
-      <c r="V171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="U171" s="1"/>
       <c r="W171" s="1"/>
     </row>
     <row r="172" spans="1:23">
@@ -6985,9 +6847,8 @@
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
-      <c r="R172"/>
-      <c r="T172" s="1"/>
-      <c r="V172" s="1"/>
+      <c r="R172" s="1"/>
+      <c r="U172" s="1"/>
       <c r="W172" s="1"/>
     </row>
     <row r="173" spans="1:23">
@@ -7007,9 +6868,8 @@
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
-      <c r="R173"/>
-      <c r="T173" s="1"/>
-      <c r="V173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="U173" s="1"/>
       <c r="W173" s="1"/>
     </row>
     <row r="174" spans="1:23">
@@ -7029,9 +6889,8 @@
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
-      <c r="R174"/>
-      <c r="T174" s="1"/>
-      <c r="V174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="U174" s="1"/>
       <c r="W174" s="1"/>
     </row>
     <row r="175" spans="1:23">
@@ -7051,9 +6910,8 @@
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
-      <c r="R175"/>
-      <c r="T175" s="1"/>
-      <c r="V175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="U175" s="1"/>
       <c r="W175" s="1"/>
     </row>
     <row r="176" spans="1:23">
@@ -7073,9 +6931,8 @@
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
-      <c r="R176"/>
-      <c r="T176" s="1"/>
-      <c r="V176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="U176" s="1"/>
       <c r="W176" s="1"/>
     </row>
     <row r="177" spans="1:23">
@@ -7095,9 +6952,8 @@
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
-      <c r="R177"/>
-      <c r="T177" s="1"/>
-      <c r="V177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="U177" s="1"/>
       <c r="W177" s="1"/>
     </row>
     <row r="178" spans="1:23">
@@ -7117,9 +6973,8 @@
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
-      <c r="R178"/>
-      <c r="T178" s="1"/>
-      <c r="V178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="U178" s="1"/>
       <c r="W178" s="1"/>
     </row>
     <row r="179" spans="1:23">
@@ -7139,9 +6994,8 @@
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
-      <c r="R179"/>
-      <c r="T179" s="1"/>
-      <c r="V179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="U179" s="1"/>
       <c r="W179" s="1"/>
     </row>
     <row r="180" spans="1:23">
@@ -7161,9 +7015,8 @@
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
-      <c r="R180"/>
-      <c r="T180" s="1"/>
-      <c r="V180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="U180" s="1"/>
       <c r="W180" s="1"/>
     </row>
     <row r="181" spans="1:23">
@@ -7183,9 +7036,8 @@
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
-      <c r="R181"/>
-      <c r="T181" s="1"/>
-      <c r="V181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="U181" s="1"/>
       <c r="W181" s="1"/>
     </row>
     <row r="182" spans="1:23">
@@ -7205,9 +7057,8 @@
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
-      <c r="R182"/>
-      <c r="T182" s="1"/>
-      <c r="V182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="U182" s="1"/>
       <c r="W182" s="1"/>
     </row>
     <row r="183" spans="1:23">
@@ -7227,9 +7078,8 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
-      <c r="R183"/>
-      <c r="T183" s="1"/>
-      <c r="V183" s="1"/>
+      <c r="R183" s="1"/>
+      <c r="U183" s="1"/>
       <c r="W183" s="1"/>
     </row>
     <row r="184" spans="1:23">
@@ -7249,9 +7099,8 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
-      <c r="R184"/>
-      <c r="T184" s="1"/>
-      <c r="V184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="U184" s="1"/>
       <c r="W184" s="1"/>
     </row>
     <row r="185" spans="1:23">
@@ -7271,9 +7120,8 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
-      <c r="R185"/>
-      <c r="T185" s="1"/>
-      <c r="V185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="U185" s="1"/>
       <c r="W185" s="1"/>
     </row>
     <row r="186" spans="1:23">
@@ -7293,9 +7141,8 @@
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
-      <c r="R186"/>
-      <c r="T186" s="1"/>
-      <c r="V186" s="1"/>
+      <c r="R186" s="1"/>
+      <c r="U186" s="1"/>
       <c r="W186" s="1"/>
     </row>
     <row r="187" spans="1:23">
@@ -7315,9 +7162,8 @@
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
-      <c r="R187"/>
-      <c r="T187" s="1"/>
-      <c r="V187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="U187" s="1"/>
       <c r="W187" s="1"/>
     </row>
     <row r="188" spans="1:23">
@@ -7337,9 +7183,8 @@
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
-      <c r="R188"/>
-      <c r="T188" s="1"/>
-      <c r="V188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="U188" s="1"/>
       <c r="W188" s="1"/>
     </row>
     <row r="189" spans="1:23">
@@ -7359,9 +7204,8 @@
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
-      <c r="R189"/>
-      <c r="T189" s="1"/>
-      <c r="V189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="U189" s="1"/>
       <c r="W189" s="1"/>
     </row>
     <row r="190" spans="1:23">
@@ -7381,9 +7225,8 @@
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
-      <c r="R190"/>
-      <c r="T190" s="1"/>
-      <c r="V190" s="1"/>
+      <c r="R190" s="1"/>
+      <c r="U190" s="1"/>
       <c r="W190" s="1"/>
     </row>
     <row r="191" spans="1:23">
@@ -7403,9 +7246,8 @@
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
-      <c r="R191"/>
-      <c r="T191" s="1"/>
-      <c r="V191" s="1"/>
+      <c r="R191" s="1"/>
+      <c r="U191" s="1"/>
       <c r="W191" s="1"/>
     </row>
     <row r="192" spans="1:23">
@@ -7425,9 +7267,8 @@
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
-      <c r="R192"/>
-      <c r="T192" s="1"/>
-      <c r="V192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="U192" s="1"/>
       <c r="W192" s="1"/>
     </row>
     <row r="193" spans="1:23">
@@ -7447,9 +7288,8 @@
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
-      <c r="R193"/>
-      <c r="T193" s="1"/>
-      <c r="V193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="U193" s="1"/>
       <c r="W193" s="1"/>
     </row>
     <row r="194" spans="1:23">
@@ -7469,9 +7309,8 @@
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
-      <c r="R194"/>
-      <c r="T194" s="1"/>
-      <c r="V194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="U194" s="1"/>
       <c r="W194" s="1"/>
     </row>
     <row r="195" spans="1:23">
@@ -7491,9 +7330,8 @@
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
-      <c r="R195"/>
-      <c r="T195" s="1"/>
-      <c r="V195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="U195" s="1"/>
       <c r="W195" s="1"/>
     </row>
     <row r="196" spans="1:23">
@@ -7513,9 +7351,8 @@
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
-      <c r="R196"/>
-      <c r="T196" s="1"/>
-      <c r="V196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="U196" s="1"/>
       <c r="W196" s="1"/>
     </row>
     <row r="197" spans="1:23">
@@ -7535,9 +7372,8 @@
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
-      <c r="R197"/>
-      <c r="T197" s="1"/>
-      <c r="V197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="U197" s="1"/>
       <c r="W197" s="1"/>
     </row>
     <row r="198" spans="1:23">
@@ -7557,9 +7393,8 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
-      <c r="R198"/>
-      <c r="T198" s="1"/>
-      <c r="V198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="U198" s="1"/>
       <c r="W198" s="1"/>
     </row>
     <row r="199" spans="1:23">
@@ -7579,9 +7414,8 @@
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
-      <c r="R199"/>
-      <c r="T199" s="1"/>
-      <c r="V199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="U199" s="1"/>
       <c r="W199" s="1"/>
     </row>
     <row r="200" spans="1:23">
@@ -7601,9 +7435,8 @@
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
-      <c r="R200"/>
-      <c r="T200" s="1"/>
-      <c r="V200" s="1"/>
+      <c r="R200" s="1"/>
+      <c r="U200" s="1"/>
       <c r="W200" s="1"/>
     </row>
     <row r="201" spans="1:23">
@@ -7623,9 +7456,8 @@
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
-      <c r="R201"/>
-      <c r="T201" s="1"/>
-      <c r="V201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="U201" s="1"/>
       <c r="W201" s="1"/>
     </row>
     <row r="202" spans="1:23">
@@ -7645,9 +7477,8 @@
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
-      <c r="R202"/>
-      <c r="T202" s="1"/>
-      <c r="V202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="U202" s="1"/>
       <c r="W202" s="1"/>
     </row>
     <row r="203" spans="1:23">
@@ -7667,9 +7498,8 @@
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
-      <c r="R203"/>
-      <c r="T203" s="1"/>
-      <c r="V203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="U203" s="1"/>
       <c r="W203" s="1"/>
     </row>
     <row r="204" spans="1:23">
@@ -7689,9 +7519,8 @@
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
-      <c r="R204"/>
-      <c r="T204" s="1"/>
-      <c r="V204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="U204" s="1"/>
       <c r="W204" s="1"/>
     </row>
     <row r="205" spans="1:23">
@@ -7711,9 +7540,8 @@
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
-      <c r="R205"/>
-      <c r="T205" s="1"/>
-      <c r="V205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="U205" s="1"/>
       <c r="W205" s="1"/>
     </row>
     <row r="206" spans="1:23">
@@ -7733,9 +7561,8 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
-      <c r="R206"/>
-      <c r="T206" s="1"/>
-      <c r="V206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="U206" s="1"/>
       <c r="W206" s="1"/>
     </row>
     <row r="207" spans="1:23">
@@ -7755,9 +7582,8 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
-      <c r="R207"/>
-      <c r="T207" s="1"/>
-      <c r="V207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="U207" s="1"/>
       <c r="W207" s="1"/>
     </row>
     <row r="208" spans="1:23">
@@ -7777,9 +7603,8 @@
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
-      <c r="R208"/>
-      <c r="T208" s="1"/>
-      <c r="V208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="U208" s="1"/>
       <c r="W208" s="1"/>
     </row>
     <row r="209" spans="1:23">
@@ -7799,9 +7624,8 @@
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
-      <c r="R209"/>
-      <c r="T209" s="1"/>
-      <c r="V209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="U209" s="1"/>
       <c r="W209" s="1"/>
     </row>
     <row r="210" spans="1:23">
@@ -7821,9 +7645,8 @@
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
-      <c r="R210"/>
-      <c r="T210" s="1"/>
-      <c r="V210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="U210" s="1"/>
       <c r="W210" s="1"/>
     </row>
     <row r="211" spans="1:23">
@@ -7843,9 +7666,8 @@
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
-      <c r="R211"/>
-      <c r="T211" s="1"/>
-      <c r="V211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="U211" s="1"/>
       <c r="W211" s="1"/>
     </row>
     <row r="212" spans="1:23">
@@ -7865,9 +7687,8 @@
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
-      <c r="R212"/>
-      <c r="T212" s="1"/>
-      <c r="V212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="U212" s="1"/>
       <c r="W212" s="1"/>
     </row>
     <row r="213" spans="1:23">
@@ -7887,9 +7708,8 @@
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
-      <c r="R213"/>
-      <c r="T213" s="1"/>
-      <c r="V213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="U213" s="1"/>
       <c r="W213" s="1"/>
     </row>
     <row r="214" spans="1:23">
@@ -7909,9 +7729,8 @@
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
-      <c r="R214"/>
-      <c r="T214" s="1"/>
-      <c r="V214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="U214" s="1"/>
       <c r="W214" s="1"/>
     </row>
     <row r="215" spans="1:23">
@@ -7931,9 +7750,8 @@
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
-      <c r="R215"/>
-      <c r="T215" s="1"/>
-      <c r="V215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="U215" s="1"/>
       <c r="W215" s="1"/>
     </row>
     <row r="216" spans="1:23">
@@ -7953,9 +7771,8 @@
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
-      <c r="R216"/>
-      <c r="T216" s="1"/>
-      <c r="V216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="U216" s="1"/>
       <c r="W216" s="1"/>
     </row>
     <row r="217" spans="1:23">
@@ -7975,9 +7792,8 @@
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
-      <c r="R217"/>
-      <c r="T217" s="1"/>
-      <c r="V217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="U217" s="1"/>
       <c r="W217" s="1"/>
     </row>
     <row r="218" spans="1:23">
@@ -7997,9 +7813,8 @@
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
-      <c r="R218"/>
-      <c r="T218" s="1"/>
-      <c r="V218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="U218" s="1"/>
       <c r="W218" s="1"/>
     </row>
     <row r="219" spans="1:23">
@@ -8019,9 +7834,8 @@
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
-      <c r="R219"/>
-      <c r="T219" s="1"/>
-      <c r="V219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="U219" s="1"/>
       <c r="W219" s="1"/>
     </row>
     <row r="220" spans="1:23">
@@ -8041,9 +7855,8 @@
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
-      <c r="R220"/>
-      <c r="T220" s="1"/>
-      <c r="V220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="U220" s="1"/>
       <c r="W220" s="1"/>
     </row>
     <row r="221" spans="1:23">
@@ -8063,9 +7876,8 @@
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
-      <c r="R221"/>
-      <c r="T221" s="1"/>
-      <c r="V221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="U221" s="1"/>
       <c r="W221" s="1"/>
     </row>
     <row r="222" spans="1:23">
@@ -8085,9 +7897,8 @@
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
-      <c r="R222"/>
-      <c r="T222" s="1"/>
-      <c r="V222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="U222" s="1"/>
       <c r="W222" s="1"/>
     </row>
     <row r="223" spans="1:23">
@@ -8107,9 +7918,8 @@
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
-      <c r="R223"/>
-      <c r="T223" s="1"/>
-      <c r="V223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="U223" s="1"/>
       <c r="W223" s="1"/>
     </row>
     <row r="224" spans="1:23">
@@ -8129,9 +7939,8 @@
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
-      <c r="R224"/>
-      <c r="T224" s="1"/>
-      <c r="V224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="U224" s="1"/>
       <c r="W224" s="1"/>
     </row>
     <row r="225" spans="1:23">
@@ -8151,9 +7960,8 @@
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
-      <c r="R225"/>
-      <c r="T225" s="1"/>
-      <c r="V225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="U225" s="1"/>
       <c r="W225" s="1"/>
     </row>
     <row r="226" spans="1:23">
@@ -8173,9 +7981,8 @@
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
-      <c r="R226"/>
-      <c r="T226" s="1"/>
-      <c r="V226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="U226" s="1"/>
       <c r="W226" s="1"/>
     </row>
     <row r="227" spans="1:23">
@@ -8195,9 +8002,8 @@
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
-      <c r="R227"/>
-      <c r="T227" s="1"/>
-      <c r="V227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="U227" s="1"/>
       <c r="W227" s="1"/>
     </row>
     <row r="228" spans="1:23">
@@ -8217,9 +8023,8 @@
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
-      <c r="R228"/>
-      <c r="T228" s="1"/>
-      <c r="V228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="U228" s="1"/>
       <c r="W228" s="1"/>
     </row>
     <row r="229" spans="1:23">
@@ -8239,9 +8044,8 @@
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
-      <c r="R229"/>
-      <c r="T229" s="1"/>
-      <c r="V229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="U229" s="1"/>
       <c r="W229" s="1"/>
     </row>
     <row r="230" spans="1:23">
@@ -8261,9 +8065,8 @@
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
-      <c r="R230"/>
-      <c r="T230" s="1"/>
-      <c r="V230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="U230" s="1"/>
       <c r="W230" s="1"/>
     </row>
     <row r="231" spans="1:23">
@@ -8283,9 +8086,8 @@
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
-      <c r="R231"/>
-      <c r="T231" s="1"/>
-      <c r="V231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="U231" s="1"/>
       <c r="W231" s="1"/>
     </row>
     <row r="232" spans="1:23">
@@ -8305,9 +8107,8 @@
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
-      <c r="R232"/>
-      <c r="T232" s="1"/>
-      <c r="V232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="U232" s="1"/>
       <c r="W232" s="1"/>
     </row>
     <row r="233" spans="1:23">
@@ -8327,9 +8128,8 @@
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
-      <c r="R233"/>
-      <c r="T233" s="1"/>
-      <c r="V233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="U233" s="1"/>
       <c r="W233" s="1"/>
     </row>
     <row r="234" spans="1:23">
@@ -8349,9 +8149,8 @@
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
-      <c r="R234"/>
-      <c r="T234" s="1"/>
-      <c r="V234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="U234" s="1"/>
       <c r="W234" s="1"/>
     </row>
     <row r="235" spans="1:23">
@@ -8371,9 +8170,8 @@
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
-      <c r="R235"/>
-      <c r="T235" s="1"/>
-      <c r="V235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="U235" s="1"/>
       <c r="W235" s="1"/>
     </row>
     <row r="236" spans="1:23">
@@ -8393,9 +8191,8 @@
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
-      <c r="R236"/>
-      <c r="T236" s="1"/>
-      <c r="V236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="U236" s="1"/>
       <c r="W236" s="1"/>
     </row>
     <row r="237" spans="1:23">
@@ -8415,9 +8212,8 @@
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
-      <c r="R237"/>
-      <c r="T237" s="1"/>
-      <c r="V237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="U237" s="1"/>
       <c r="W237" s="1"/>
     </row>
     <row r="238" spans="1:23">
@@ -8437,9 +8233,8 @@
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
-      <c r="R238"/>
-      <c r="T238" s="1"/>
-      <c r="V238" s="1"/>
+      <c r="R238" s="1"/>
+      <c r="U238" s="1"/>
       <c r="W238" s="1"/>
     </row>
     <row r="239" spans="1:23">
@@ -8459,9 +8254,8 @@
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
-      <c r="R239"/>
-      <c r="T239" s="1"/>
-      <c r="V239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="U239" s="1"/>
       <c r="W239" s="1"/>
     </row>
     <row r="240" spans="1:23">
@@ -8481,9 +8275,8 @@
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
-      <c r="R240"/>
-      <c r="T240" s="1"/>
-      <c r="V240" s="1"/>
+      <c r="R240" s="1"/>
+      <c r="U240" s="1"/>
       <c r="W240" s="1"/>
     </row>
     <row r="241" spans="1:23">
@@ -8503,9 +8296,8 @@
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
-      <c r="R241"/>
-      <c r="T241" s="1"/>
-      <c r="V241" s="1"/>
+      <c r="R241" s="1"/>
+      <c r="U241" s="1"/>
       <c r="W241" s="1"/>
     </row>
     <row r="242" spans="1:23">
@@ -8525,9 +8317,8 @@
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
-      <c r="R242"/>
-      <c r="T242" s="1"/>
-      <c r="V242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="U242" s="1"/>
       <c r="W242" s="1"/>
     </row>
     <row r="243" spans="1:23">
@@ -8547,9 +8338,8 @@
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
-      <c r="R243"/>
-      <c r="T243" s="1"/>
-      <c r="V243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="U243" s="1"/>
       <c r="W243" s="1"/>
     </row>
     <row r="244" spans="1:23">
@@ -8569,9 +8359,8 @@
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
-      <c r="R244"/>
-      <c r="T244" s="1"/>
-      <c r="V244" s="1"/>
+      <c r="R244" s="1"/>
+      <c r="U244" s="1"/>
       <c r="W244" s="1"/>
     </row>
     <row r="245" spans="1:23">
@@ -8591,9 +8380,8 @@
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
-      <c r="R245"/>
-      <c r="T245" s="1"/>
-      <c r="V245" s="1"/>
+      <c r="R245" s="1"/>
+      <c r="U245" s="1"/>
       <c r="W245" s="1"/>
     </row>
     <row r="246" spans="1:23">
@@ -8613,9 +8401,8 @@
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
-      <c r="R246"/>
-      <c r="T246" s="1"/>
-      <c r="V246" s="1"/>
+      <c r="R246" s="1"/>
+      <c r="U246" s="1"/>
       <c r="W246" s="1"/>
     </row>
     <row r="247" spans="1:23">
@@ -8635,9 +8422,8 @@
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
-      <c r="R247"/>
-      <c r="T247" s="1"/>
-      <c r="V247" s="1"/>
+      <c r="R247" s="1"/>
+      <c r="U247" s="1"/>
       <c r="W247" s="1"/>
     </row>
     <row r="248" spans="1:23">
@@ -8657,9 +8443,8 @@
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
-      <c r="R248"/>
-      <c r="T248" s="1"/>
-      <c r="V248" s="1"/>
+      <c r="R248" s="1"/>
+      <c r="U248" s="1"/>
       <c r="W248" s="1"/>
     </row>
     <row r="249" spans="1:23">
@@ -8679,9 +8464,8 @@
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
-      <c r="R249"/>
-      <c r="T249" s="1"/>
-      <c r="V249" s="1"/>
+      <c r="R249" s="1"/>
+      <c r="U249" s="1"/>
       <c r="W249" s="1"/>
     </row>
     <row r="250" spans="1:23">
@@ -8701,9 +8485,8 @@
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
-      <c r="R250"/>
-      <c r="T250" s="1"/>
-      <c r="V250" s="1"/>
+      <c r="R250" s="1"/>
+      <c r="U250" s="1"/>
       <c r="W250" s="1"/>
     </row>
     <row r="251" spans="1:23">
@@ -8723,9 +8506,8 @@
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
-      <c r="R251"/>
-      <c r="T251" s="1"/>
-      <c r="V251" s="1"/>
+      <c r="R251" s="1"/>
+      <c r="U251" s="1"/>
       <c r="W251" s="1"/>
     </row>
     <row r="252" spans="1:23">
@@ -8745,9 +8527,8 @@
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
-      <c r="R252"/>
-      <c r="T252" s="1"/>
-      <c r="V252" s="1"/>
+      <c r="R252" s="1"/>
+      <c r="U252" s="1"/>
       <c r="W252" s="1"/>
     </row>
     <row r="253" spans="1:23">
@@ -8767,9 +8548,8 @@
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
-      <c r="R253"/>
-      <c r="T253" s="1"/>
-      <c r="V253" s="1"/>
+      <c r="R253" s="1"/>
+      <c r="U253" s="1"/>
       <c r="W253" s="1"/>
     </row>
     <row r="254" spans="1:23">
@@ -8789,9 +8569,8 @@
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
-      <c r="R254"/>
-      <c r="T254" s="1"/>
-      <c r="V254" s="1"/>
+      <c r="R254" s="1"/>
+      <c r="U254" s="1"/>
       <c r="W254" s="1"/>
     </row>
     <row r="255" spans="1:23">
@@ -8811,9 +8590,8 @@
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
-      <c r="R255"/>
-      <c r="T255" s="1"/>
-      <c r="V255" s="1"/>
+      <c r="R255" s="1"/>
+      <c r="U255" s="1"/>
       <c r="W255" s="1"/>
     </row>
     <row r="256" spans="1:23">
@@ -8833,9 +8611,8 @@
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
-      <c r="R256"/>
-      <c r="T256" s="1"/>
-      <c r="V256" s="1"/>
+      <c r="R256" s="1"/>
+      <c r="U256" s="1"/>
       <c r="W256" s="1"/>
     </row>
     <row r="257" spans="1:23">
@@ -8855,9 +8632,8 @@
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
-      <c r="R257"/>
-      <c r="T257" s="1"/>
-      <c r="V257" s="1"/>
+      <c r="R257" s="1"/>
+      <c r="U257" s="1"/>
       <c r="W257" s="1"/>
     </row>
     <row r="258" spans="1:23">
@@ -8877,9 +8653,8 @@
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
-      <c r="R258"/>
-      <c r="T258" s="1"/>
-      <c r="V258" s="1"/>
+      <c r="R258" s="1"/>
+      <c r="U258" s="1"/>
       <c r="W258" s="1"/>
     </row>
     <row r="259" spans="1:23">
@@ -8899,9 +8674,8 @@
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
-      <c r="R259"/>
-      <c r="T259" s="1"/>
-      <c r="V259" s="1"/>
+      <c r="R259" s="1"/>
+      <c r="U259" s="1"/>
       <c r="W259" s="1"/>
     </row>
     <row r="260" spans="1:23">
@@ -8921,9 +8695,8 @@
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
-      <c r="R260"/>
-      <c r="T260" s="1"/>
-      <c r="V260" s="1"/>
+      <c r="R260" s="1"/>
+      <c r="U260" s="1"/>
       <c r="W260" s="1"/>
     </row>
     <row r="261" spans="1:23">
@@ -8943,9 +8716,8 @@
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
-      <c r="R261"/>
-      <c r="T261" s="1"/>
-      <c r="V261" s="1"/>
+      <c r="R261" s="1"/>
+      <c r="U261" s="1"/>
       <c r="W261" s="1"/>
     </row>
     <row r="262" spans="1:23">
@@ -8965,9 +8737,8 @@
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
-      <c r="R262"/>
-      <c r="T262" s="1"/>
-      <c r="V262" s="1"/>
+      <c r="R262" s="1"/>
+      <c r="U262" s="1"/>
       <c r="W262" s="1"/>
     </row>
     <row r="263" spans="1:23">
@@ -8987,9 +8758,8 @@
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
-      <c r="R263"/>
-      <c r="T263" s="1"/>
-      <c r="V263" s="1"/>
+      <c r="R263" s="1"/>
+      <c r="U263" s="1"/>
       <c r="W263" s="1"/>
     </row>
     <row r="264" spans="1:23">
@@ -9009,9 +8779,8 @@
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
-      <c r="R264"/>
-      <c r="T264" s="1"/>
-      <c r="V264" s="1"/>
+      <c r="R264" s="1"/>
+      <c r="U264" s="1"/>
       <c r="W264" s="1"/>
     </row>
     <row r="265" spans="1:23">
@@ -9031,9 +8800,8 @@
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
-      <c r="R265"/>
-      <c r="T265" s="1"/>
-      <c r="V265" s="1"/>
+      <c r="R265" s="1"/>
+      <c r="U265" s="1"/>
       <c r="W265" s="1"/>
     </row>
     <row r="266" spans="1:23">
@@ -9053,9 +8821,8 @@
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
-      <c r="R266"/>
-      <c r="T266" s="1"/>
-      <c r="V266" s="1"/>
+      <c r="R266" s="1"/>
+      <c r="U266" s="1"/>
       <c r="W266" s="1"/>
     </row>
     <row r="267" spans="1:23">
@@ -9075,9 +8842,8 @@
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
-      <c r="R267"/>
-      <c r="T267" s="1"/>
-      <c r="V267" s="1"/>
+      <c r="R267" s="1"/>
+      <c r="U267" s="1"/>
       <c r="W267" s="1"/>
     </row>
     <row r="268" spans="1:23">
@@ -9097,9 +8863,8 @@
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
-      <c r="R268"/>
-      <c r="T268" s="1"/>
-      <c r="V268" s="1"/>
+      <c r="R268" s="1"/>
+      <c r="U268" s="1"/>
       <c r="W268" s="1"/>
     </row>
     <row r="269" spans="1:23">
@@ -9119,9 +8884,8 @@
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
-      <c r="R269"/>
-      <c r="T269" s="1"/>
-      <c r="V269" s="1"/>
+      <c r="R269" s="1"/>
+      <c r="U269" s="1"/>
       <c r="W269" s="1"/>
     </row>
     <row r="270" spans="1:23">
@@ -9141,9 +8905,8 @@
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
-      <c r="R270"/>
-      <c r="T270" s="1"/>
-      <c r="V270" s="1"/>
+      <c r="R270" s="1"/>
+      <c r="U270" s="1"/>
       <c r="W270" s="1"/>
     </row>
     <row r="271" spans="1:23">
@@ -9163,9 +8926,8 @@
       <c r="O271" s="1"/>
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
-      <c r="R271"/>
-      <c r="T271" s="1"/>
-      <c r="V271" s="1"/>
+      <c r="R271" s="1"/>
+      <c r="U271" s="1"/>
       <c r="W271" s="1"/>
     </row>
     <row r="272" spans="1:23">
@@ -9185,9 +8947,8 @@
       <c r="O272" s="1"/>
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
-      <c r="R272"/>
-      <c r="T272" s="1"/>
-      <c r="V272" s="1"/>
+      <c r="R272" s="1"/>
+      <c r="U272" s="1"/>
       <c r="W272" s="1"/>
     </row>
     <row r="273" spans="1:23">
@@ -9207,9 +8968,8 @@
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
-      <c r="R273"/>
-      <c r="T273" s="1"/>
-      <c r="V273" s="1"/>
+      <c r="R273" s="1"/>
+      <c r="U273" s="1"/>
       <c r="W273" s="1"/>
     </row>
     <row r="274" spans="1:23">
@@ -9229,9 +8989,8 @@
       <c r="O274" s="1"/>
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
-      <c r="R274"/>
-      <c r="T274" s="1"/>
-      <c r="V274" s="1"/>
+      <c r="R274" s="1"/>
+      <c r="U274" s="1"/>
       <c r="W274" s="1"/>
     </row>
     <row r="275" spans="1:23">
@@ -9251,9 +9010,8 @@
       <c r="O275" s="1"/>
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
-      <c r="R275"/>
-      <c r="T275" s="1"/>
-      <c r="V275" s="1"/>
+      <c r="R275" s="1"/>
+      <c r="U275" s="1"/>
       <c r="W275" s="1"/>
     </row>
     <row r="276" spans="1:23">
@@ -9273,9 +9031,8 @@
       <c r="O276" s="1"/>
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
-      <c r="R276"/>
-      <c r="T276" s="1"/>
-      <c r="V276" s="1"/>
+      <c r="R276" s="1"/>
+      <c r="U276" s="1"/>
       <c r="W276" s="1"/>
     </row>
     <row r="277" spans="1:23">
@@ -9295,9 +9052,8 @@
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
-      <c r="R277"/>
-      <c r="T277" s="1"/>
-      <c r="V277" s="1"/>
+      <c r="R277" s="1"/>
+      <c r="U277" s="1"/>
       <c r="W277" s="1"/>
     </row>
     <row r="278" spans="1:23">
@@ -9317,9 +9073,8 @@
       <c r="O278" s="1"/>
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
-      <c r="R278"/>
-      <c r="T278" s="1"/>
-      <c r="V278" s="1"/>
+      <c r="R278" s="1"/>
+      <c r="U278" s="1"/>
       <c r="W278" s="1"/>
     </row>
     <row r="279" spans="1:23">
@@ -9339,9 +9094,8 @@
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
-      <c r="R279"/>
-      <c r="T279" s="1"/>
-      <c r="V279" s="1"/>
+      <c r="R279" s="1"/>
+      <c r="U279" s="1"/>
       <c r="W279" s="1"/>
     </row>
     <row r="280" spans="1:23">
@@ -9361,9 +9115,8 @@
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
-      <c r="R280"/>
-      <c r="T280" s="1"/>
-      <c r="V280" s="1"/>
+      <c r="R280" s="1"/>
+      <c r="U280" s="1"/>
       <c r="W280" s="1"/>
     </row>
     <row r="281" spans="1:23">
@@ -9383,9 +9136,8 @@
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
-      <c r="R281"/>
-      <c r="T281" s="1"/>
-      <c r="V281" s="1"/>
+      <c r="R281" s="1"/>
+      <c r="U281" s="1"/>
       <c r="W281" s="1"/>
     </row>
     <row r="282" spans="1:23">
@@ -9405,9 +9157,8 @@
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
-      <c r="R282"/>
-      <c r="T282" s="1"/>
-      <c r="V282" s="1"/>
+      <c r="R282" s="1"/>
+      <c r="U282" s="1"/>
       <c r="W282" s="1"/>
     </row>
     <row r="283" spans="1:23">
@@ -9427,9 +9178,8 @@
       <c r="O283" s="1"/>
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
-      <c r="R283"/>
-      <c r="T283" s="1"/>
-      <c r="V283" s="1"/>
+      <c r="R283" s="1"/>
+      <c r="U283" s="1"/>
       <c r="W283" s="1"/>
     </row>
     <row r="284" spans="1:23">
@@ -9449,9 +9199,8 @@
       <c r="O284" s="1"/>
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
-      <c r="R284"/>
-      <c r="T284" s="1"/>
-      <c r="V284" s="1"/>
+      <c r="R284" s="1"/>
+      <c r="U284" s="1"/>
       <c r="W284" s="1"/>
     </row>
     <row r="285" spans="1:23">
@@ -9471,9 +9220,8 @@
       <c r="O285" s="1"/>
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
-      <c r="R285"/>
-      <c r="T285" s="1"/>
-      <c r="V285" s="1"/>
+      <c r="R285" s="1"/>
+      <c r="U285" s="1"/>
       <c r="W285" s="1"/>
     </row>
     <row r="286" spans="1:23">
@@ -9493,9 +9241,8 @@
       <c r="O286" s="1"/>
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
-      <c r="R286"/>
-      <c r="T286" s="1"/>
-      <c r="V286" s="1"/>
+      <c r="R286" s="1"/>
+      <c r="U286" s="1"/>
       <c r="W286" s="1"/>
     </row>
     <row r="287" spans="1:23">
@@ -9515,9 +9262,8 @@
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
-      <c r="R287"/>
-      <c r="T287" s="1"/>
-      <c r="V287" s="1"/>
+      <c r="R287" s="1"/>
+      <c r="U287" s="1"/>
       <c r="W287" s="1"/>
     </row>
     <row r="288" spans="1:23">
@@ -9537,9 +9283,8 @@
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
-      <c r="R288"/>
-      <c r="T288" s="1"/>
-      <c r="V288" s="1"/>
+      <c r="R288" s="1"/>
+      <c r="U288" s="1"/>
       <c r="W288" s="1"/>
     </row>
     <row r="289" spans="1:23">
@@ -9559,9 +9304,8 @@
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
-      <c r="R289"/>
-      <c r="T289" s="1"/>
-      <c r="V289" s="1"/>
+      <c r="R289" s="1"/>
+      <c r="U289" s="1"/>
       <c r="W289" s="1"/>
     </row>
     <row r="290" spans="1:23">
@@ -9581,9 +9325,8 @@
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
-      <c r="R290"/>
-      <c r="T290" s="1"/>
-      <c r="V290" s="1"/>
+      <c r="R290" s="1"/>
+      <c r="U290" s="1"/>
       <c r="W290" s="1"/>
     </row>
     <row r="291" spans="1:23">
@@ -9603,9 +9346,8 @@
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
-      <c r="R291"/>
-      <c r="T291" s="1"/>
-      <c r="V291" s="1"/>
+      <c r="R291" s="1"/>
+      <c r="U291" s="1"/>
       <c r="W291" s="1"/>
     </row>
     <row r="292" spans="1:23">
@@ -9625,9 +9367,8 @@
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
-      <c r="R292"/>
-      <c r="T292" s="1"/>
-      <c r="V292" s="1"/>
+      <c r="R292" s="1"/>
+      <c r="U292" s="1"/>
       <c r="W292" s="1"/>
     </row>
     <row r="293" spans="1:23">
@@ -9647,9 +9388,8 @@
       <c r="O293" s="1"/>
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
-      <c r="R293"/>
-      <c r="T293" s="1"/>
-      <c r="V293" s="1"/>
+      <c r="R293" s="1"/>
+      <c r="U293" s="1"/>
       <c r="W293" s="1"/>
     </row>
     <row r="294" spans="1:23">
@@ -9669,9 +9409,8 @@
       <c r="O294" s="1"/>
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
-      <c r="R294"/>
-      <c r="T294" s="1"/>
-      <c r="V294" s="1"/>
+      <c r="R294" s="1"/>
+      <c r="U294" s="1"/>
       <c r="W294" s="1"/>
     </row>
     <row r="295" spans="1:23">
@@ -9691,9 +9430,8 @@
       <c r="O295" s="1"/>
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
-      <c r="R295"/>
-      <c r="T295" s="1"/>
-      <c r="V295" s="1"/>
+      <c r="R295" s="1"/>
+      <c r="U295" s="1"/>
       <c r="W295" s="1"/>
     </row>
     <row r="296" spans="1:23">
@@ -9713,9 +9451,8 @@
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
-      <c r="R296"/>
-      <c r="T296" s="1"/>
-      <c r="V296" s="1"/>
+      <c r="R296" s="1"/>
+      <c r="U296" s="1"/>
       <c r="W296" s="1"/>
     </row>
     <row r="297" spans="1:23">
@@ -9735,9 +9472,8 @@
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
-      <c r="R297"/>
-      <c r="T297" s="1"/>
-      <c r="V297" s="1"/>
+      <c r="R297" s="1"/>
+      <c r="U297" s="1"/>
       <c r="W297" s="1"/>
     </row>
     <row r="298" spans="1:23">
@@ -9757,9 +9493,8 @@
       <c r="O298" s="1"/>
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
-      <c r="R298"/>
-      <c r="T298" s="1"/>
-      <c r="V298" s="1"/>
+      <c r="R298" s="1"/>
+      <c r="U298" s="1"/>
       <c r="W298" s="1"/>
     </row>
     <row r="299" spans="1:23">
@@ -9779,9 +9514,8 @@
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
-      <c r="R299"/>
-      <c r="T299" s="1"/>
-      <c r="V299" s="1"/>
+      <c r="R299" s="1"/>
+      <c r="U299" s="1"/>
       <c r="W299" s="1"/>
     </row>
     <row r="300" spans="1:23">
@@ -9801,9 +9535,8 @@
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
-      <c r="R300"/>
-      <c r="T300" s="1"/>
-      <c r="V300" s="1"/>
+      <c r="R300" s="1"/>
+      <c r="U300" s="1"/>
       <c r="W300" s="1"/>
     </row>
     <row r="301" spans="1:23">
@@ -9823,9 +9556,8 @@
       <c r="O301" s="1"/>
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
-      <c r="R301"/>
-      <c r="T301" s="1"/>
-      <c r="V301" s="1"/>
+      <c r="R301" s="1"/>
+      <c r="U301" s="1"/>
       <c r="W301" s="1"/>
     </row>
     <row r="302" spans="1:23">
@@ -9845,9 +9577,8 @@
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
-      <c r="R302"/>
-      <c r="T302" s="1"/>
-      <c r="V302" s="1"/>
+      <c r="R302" s="1"/>
+      <c r="U302" s="1"/>
       <c r="W302" s="1"/>
     </row>
     <row r="303" spans="1:23">
@@ -9867,9 +9598,8 @@
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
-      <c r="R303"/>
-      <c r="T303" s="1"/>
-      <c r="V303" s="1"/>
+      <c r="R303" s="1"/>
+      <c r="U303" s="1"/>
       <c r="W303" s="1"/>
     </row>
     <row r="304" spans="1:23">
@@ -9889,9 +9619,8 @@
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
-      <c r="R304"/>
-      <c r="T304" s="1"/>
-      <c r="V304" s="1"/>
+      <c r="R304" s="1"/>
+      <c r="U304" s="1"/>
       <c r="W304" s="1"/>
     </row>
     <row r="305" spans="1:23">
@@ -9911,9 +9640,8 @@
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
-      <c r="R305"/>
-      <c r="T305" s="1"/>
-      <c r="V305" s="1"/>
+      <c r="R305" s="1"/>
+      <c r="U305" s="1"/>
       <c r="W305" s="1"/>
     </row>
     <row r="306" spans="1:23">
@@ -9933,9 +9661,8 @@
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
       <c r="Q306" s="1"/>
-      <c r="R306"/>
-      <c r="T306" s="1"/>
-      <c r="V306" s="1"/>
+      <c r="R306" s="1"/>
+      <c r="U306" s="1"/>
       <c r="W306" s="1"/>
     </row>
     <row r="307" spans="1:23">
@@ -9955,9 +9682,8 @@
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
-      <c r="R307"/>
-      <c r="T307" s="1"/>
-      <c r="V307" s="1"/>
+      <c r="R307" s="1"/>
+      <c r="U307" s="1"/>
       <c r="W307" s="1"/>
     </row>
     <row r="308" spans="1:23">
@@ -9977,9 +9703,8 @@
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
-      <c r="R308"/>
-      <c r="T308" s="1"/>
-      <c r="V308" s="1"/>
+      <c r="R308" s="1"/>
+      <c r="U308" s="1"/>
       <c r="W308" s="1"/>
     </row>
     <row r="309" spans="1:23">
@@ -9999,9 +9724,8 @@
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
-      <c r="R309"/>
-      <c r="T309" s="1"/>
-      <c r="V309" s="1"/>
+      <c r="R309" s="1"/>
+      <c r="U309" s="1"/>
       <c r="W309" s="1"/>
     </row>
     <row r="310" spans="1:23">
@@ -10021,9 +9745,8 @@
       <c r="O310" s="1"/>
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
-      <c r="R310"/>
-      <c r="T310" s="1"/>
-      <c r="V310" s="1"/>
+      <c r="R310" s="1"/>
+      <c r="U310" s="1"/>
       <c r="W310" s="1"/>
     </row>
     <row r="311" spans="1:23">
@@ -10043,9 +9766,8 @@
       <c r="O311" s="1"/>
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
-      <c r="R311"/>
-      <c r="T311" s="1"/>
-      <c r="V311" s="1"/>
+      <c r="R311" s="1"/>
+      <c r="U311" s="1"/>
       <c r="W311" s="1"/>
     </row>
     <row r="312" spans="1:23">
@@ -10065,9 +9787,8 @@
       <c r="O312" s="1"/>
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
-      <c r="R312"/>
-      <c r="T312" s="1"/>
-      <c r="V312" s="1"/>
+      <c r="R312" s="1"/>
+      <c r="U312" s="1"/>
       <c r="W312" s="1"/>
     </row>
     <row r="313" spans="1:23">
@@ -10087,9 +9808,8 @@
       <c r="O313" s="1"/>
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
-      <c r="R313"/>
-      <c r="T313" s="1"/>
-      <c r="V313" s="1"/>
+      <c r="R313" s="1"/>
+      <c r="U313" s="1"/>
       <c r="W313" s="1"/>
     </row>
     <row r="314" spans="1:23">
@@ -10109,9 +9829,8 @@
       <c r="O314" s="1"/>
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
-      <c r="R314"/>
-      <c r="T314" s="1"/>
-      <c r="V314" s="1"/>
+      <c r="R314" s="1"/>
+      <c r="U314" s="1"/>
       <c r="W314" s="1"/>
     </row>
     <row r="315" spans="1:23">
@@ -10131,9 +9850,8 @@
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
-      <c r="R315"/>
-      <c r="T315" s="1"/>
-      <c r="V315" s="1"/>
+      <c r="R315" s="1"/>
+      <c r="U315" s="1"/>
       <c r="W315" s="1"/>
     </row>
     <row r="316" spans="1:23">
@@ -10153,9 +9871,8 @@
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
-      <c r="R316"/>
-      <c r="T316" s="1"/>
-      <c r="V316" s="1"/>
+      <c r="R316" s="1"/>
+      <c r="U316" s="1"/>
       <c r="W316" s="1"/>
     </row>
     <row r="317" spans="1:23">
@@ -10175,9 +9892,8 @@
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
-      <c r="R317"/>
-      <c r="T317" s="1"/>
-      <c r="V317" s="1"/>
+      <c r="R317" s="1"/>
+      <c r="U317" s="1"/>
       <c r="W317" s="1"/>
     </row>
     <row r="318" spans="1:23">
@@ -10197,9 +9913,8 @@
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
-      <c r="R318"/>
-      <c r="T318" s="1"/>
-      <c r="V318" s="1"/>
+      <c r="R318" s="1"/>
+      <c r="U318" s="1"/>
       <c r="W318" s="1"/>
     </row>
     <row r="319" spans="1:23">
@@ -10219,9 +9934,8 @@
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
-      <c r="R319"/>
-      <c r="T319" s="1"/>
-      <c r="V319" s="1"/>
+      <c r="R319" s="1"/>
+      <c r="U319" s="1"/>
       <c r="W319" s="1"/>
     </row>
     <row r="320" spans="1:23">
@@ -10241,9 +9955,8 @@
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
-      <c r="R320"/>
-      <c r="T320" s="1"/>
-      <c r="V320" s="1"/>
+      <c r="R320" s="1"/>
+      <c r="U320" s="1"/>
       <c r="W320" s="1"/>
     </row>
     <row r="321" spans="1:23">
@@ -10263,9 +9976,8 @@
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
-      <c r="R321"/>
-      <c r="T321" s="1"/>
-      <c r="V321" s="1"/>
+      <c r="R321" s="1"/>
+      <c r="U321" s="1"/>
       <c r="W321" s="1"/>
     </row>
     <row r="322" spans="1:23">
@@ -10285,9 +9997,8 @@
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
       <c r="Q322" s="1"/>
-      <c r="R322"/>
-      <c r="T322" s="1"/>
-      <c r="V322" s="1"/>
+      <c r="R322" s="1"/>
+      <c r="U322" s="1"/>
       <c r="W322" s="1"/>
     </row>
     <row r="323" spans="1:23">
@@ -10307,9 +10018,8 @@
       <c r="O323" s="1"/>
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
-      <c r="R323"/>
-      <c r="T323" s="1"/>
-      <c r="V323" s="1"/>
+      <c r="R323" s="1"/>
+      <c r="U323" s="1"/>
       <c r="W323" s="1"/>
     </row>
     <row r="324" spans="1:23">
@@ -10329,9 +10039,8 @@
       <c r="O324" s="1"/>
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
-      <c r="R324"/>
-      <c r="T324" s="1"/>
-      <c r="V324" s="1"/>
+      <c r="R324" s="1"/>
+      <c r="U324" s="1"/>
       <c r="W324" s="1"/>
     </row>
     <row r="325" spans="1:23">
@@ -10351,9 +10060,8 @@
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
-      <c r="R325"/>
-      <c r="T325" s="1"/>
-      <c r="V325" s="1"/>
+      <c r="R325" s="1"/>
+      <c r="U325" s="1"/>
       <c r="W325" s="1"/>
     </row>
     <row r="326" spans="1:23">
@@ -10373,9 +10081,8 @@
       <c r="O326" s="1"/>
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
-      <c r="R326"/>
-      <c r="T326" s="1"/>
-      <c r="V326" s="1"/>
+      <c r="R326" s="1"/>
+      <c r="U326" s="1"/>
       <c r="W326" s="1"/>
     </row>
     <row r="327" spans="1:23">
@@ -10395,9 +10102,8 @@
       <c r="O327" s="1"/>
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
-      <c r="R327"/>
-      <c r="T327" s="1"/>
-      <c r="V327" s="1"/>
+      <c r="R327" s="1"/>
+      <c r="U327" s="1"/>
       <c r="W327" s="1"/>
     </row>
     <row r="328" spans="1:23">
@@ -10417,9 +10123,8 @@
       <c r="O328" s="1"/>
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
-      <c r="R328"/>
-      <c r="T328" s="1"/>
-      <c r="V328" s="1"/>
+      <c r="R328" s="1"/>
+      <c r="U328" s="1"/>
       <c r="W328" s="1"/>
     </row>
     <row r="329" spans="1:23">
@@ -10439,9 +10144,8 @@
       <c r="O329" s="1"/>
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
-      <c r="R329"/>
-      <c r="T329" s="1"/>
-      <c r="V329" s="1"/>
+      <c r="R329" s="1"/>
+      <c r="U329" s="1"/>
       <c r="W329" s="1"/>
     </row>
     <row r="330" spans="1:23">
@@ -10461,9 +10165,8 @@
       <c r="O330" s="1"/>
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
-      <c r="R330"/>
-      <c r="T330" s="1"/>
-      <c r="V330" s="1"/>
+      <c r="R330" s="1"/>
+      <c r="U330" s="1"/>
       <c r="W330" s="1"/>
     </row>
     <row r="331" spans="1:23">
@@ -10483,9 +10186,8 @@
       <c r="O331" s="1"/>
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
-      <c r="R331"/>
-      <c r="T331" s="1"/>
-      <c r="V331" s="1"/>
+      <c r="R331" s="1"/>
+      <c r="U331" s="1"/>
       <c r="W331" s="1"/>
     </row>
     <row r="332" spans="1:23">
@@ -10505,9 +10207,8 @@
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
-      <c r="R332"/>
-      <c r="T332" s="1"/>
-      <c r="V332" s="1"/>
+      <c r="R332" s="1"/>
+      <c r="U332" s="1"/>
       <c r="W332" s="1"/>
     </row>
     <row r="333" spans="1:23">
@@ -10527,9 +10228,8 @@
       <c r="O333" s="1"/>
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
-      <c r="R333"/>
-      <c r="T333" s="1"/>
-      <c r="V333" s="1"/>
+      <c r="R333" s="1"/>
+      <c r="U333" s="1"/>
       <c r="W333" s="1"/>
     </row>
     <row r="334" spans="1:23">
@@ -10549,9 +10249,8 @@
       <c r="O334" s="1"/>
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
-      <c r="R334"/>
-      <c r="T334" s="1"/>
-      <c r="V334" s="1"/>
+      <c r="R334" s="1"/>
+      <c r="U334" s="1"/>
       <c r="W334" s="1"/>
     </row>
     <row r="335" spans="1:23">
@@ -10571,9 +10270,8 @@
       <c r="O335" s="1"/>
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
-      <c r="R335"/>
-      <c r="T335" s="1"/>
-      <c r="V335" s="1"/>
+      <c r="R335" s="1"/>
+      <c r="U335" s="1"/>
       <c r="W335" s="1"/>
     </row>
     <row r="336" spans="1:23">
@@ -10593,9 +10291,8 @@
       <c r="O336" s="1"/>
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
-      <c r="R336"/>
-      <c r="T336" s="1"/>
-      <c r="V336" s="1"/>
+      <c r="R336" s="1"/>
+      <c r="U336" s="1"/>
       <c r="W336" s="1"/>
     </row>
     <row r="337" spans="1:23">
@@ -10615,9 +10312,8 @@
       <c r="O337" s="1"/>
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
-      <c r="R337"/>
-      <c r="T337" s="1"/>
-      <c r="V337" s="1"/>
+      <c r="R337" s="1"/>
+      <c r="U337" s="1"/>
       <c r="W337" s="1"/>
     </row>
     <row r="338" spans="1:23">
@@ -10637,9 +10333,8 @@
       <c r="O338" s="1"/>
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
-      <c r="R338"/>
-      <c r="T338" s="1"/>
-      <c r="V338" s="1"/>
+      <c r="R338" s="1"/>
+      <c r="U338" s="1"/>
       <c r="W338" s="1"/>
     </row>
     <row r="339" spans="1:23">
@@ -10659,9 +10354,8 @@
       <c r="O339" s="1"/>
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
-      <c r="R339"/>
-      <c r="T339" s="1"/>
-      <c r="V339" s="1"/>
+      <c r="R339" s="1"/>
+      <c r="U339" s="1"/>
       <c r="W339" s="1"/>
     </row>
     <row r="340" spans="1:23">
@@ -10681,9 +10375,8 @@
       <c r="O340" s="1"/>
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
-      <c r="R340"/>
-      <c r="T340" s="1"/>
-      <c r="V340" s="1"/>
+      <c r="R340" s="1"/>
+      <c r="U340" s="1"/>
       <c r="W340" s="1"/>
     </row>
     <row r="341" spans="1:23">
@@ -10703,9 +10396,8 @@
       <c r="O341" s="1"/>
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
-      <c r="R341"/>
-      <c r="T341" s="1"/>
-      <c r="V341" s="1"/>
+      <c r="R341" s="1"/>
+      <c r="U341" s="1"/>
       <c r="W341" s="1"/>
     </row>
     <row r="342" spans="1:23">
@@ -10725,9 +10417,8 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
-      <c r="R342"/>
-      <c r="T342" s="1"/>
-      <c r="V342" s="1"/>
+      <c r="R342" s="1"/>
+      <c r="U342" s="1"/>
       <c r="W342" s="1"/>
     </row>
     <row r="343" spans="1:23">
@@ -10747,9 +10438,8 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
-      <c r="R343"/>
-      <c r="T343" s="1"/>
-      <c r="V343" s="1"/>
+      <c r="R343" s="1"/>
+      <c r="U343" s="1"/>
       <c r="W343" s="1"/>
     </row>
     <row r="344" spans="1:23">
@@ -10769,9 +10459,8 @@
       <c r="O344" s="1"/>
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
-      <c r="R344"/>
-      <c r="T344" s="1"/>
-      <c r="V344" s="1"/>
+      <c r="R344" s="1"/>
+      <c r="U344" s="1"/>
       <c r="W344" s="1"/>
     </row>
     <row r="345" spans="1:23">
@@ -10791,9 +10480,8 @@
       <c r="O345" s="1"/>
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
-      <c r="R345"/>
-      <c r="T345" s="1"/>
-      <c r="V345" s="1"/>
+      <c r="R345" s="1"/>
+      <c r="U345" s="1"/>
       <c r="W345" s="1"/>
     </row>
     <row r="346" spans="1:23">
@@ -10813,9 +10501,8 @@
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
-      <c r="R346"/>
-      <c r="T346" s="1"/>
-      <c r="V346" s="1"/>
+      <c r="R346" s="1"/>
+      <c r="U346" s="1"/>
       <c r="W346" s="1"/>
     </row>
     <row r="347" spans="1:23">
@@ -10835,9 +10522,8 @@
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
-      <c r="R347"/>
-      <c r="T347" s="1"/>
-      <c r="V347" s="1"/>
+      <c r="R347" s="1"/>
+      <c r="U347" s="1"/>
       <c r="W347" s="1"/>
     </row>
     <row r="348" spans="1:23">
@@ -10857,9 +10543,8 @@
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
-      <c r="R348"/>
-      <c r="T348" s="1"/>
-      <c r="V348" s="1"/>
+      <c r="R348" s="1"/>
+      <c r="U348" s="1"/>
       <c r="W348" s="1"/>
     </row>
     <row r="349" spans="1:23">
@@ -10879,9 +10564,8 @@
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
-      <c r="R349"/>
-      <c r="T349" s="1"/>
-      <c r="V349" s="1"/>
+      <c r="R349" s="1"/>
+      <c r="U349" s="1"/>
       <c r="W349" s="1"/>
     </row>
     <row r="350" spans="1:23">
@@ -10901,9 +10585,8 @@
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
-      <c r="R350"/>
-      <c r="T350" s="1"/>
-      <c r="V350" s="1"/>
+      <c r="R350" s="1"/>
+      <c r="U350" s="1"/>
       <c r="W350" s="1"/>
     </row>
     <row r="351" spans="1:23">
@@ -10923,9 +10606,8 @@
       <c r="O351" s="1"/>
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
-      <c r="R351"/>
-      <c r="T351" s="1"/>
-      <c r="V351" s="1"/>
+      <c r="R351" s="1"/>
+      <c r="U351" s="1"/>
       <c r="W351" s="1"/>
     </row>
     <row r="352" spans="1:23">
@@ -10945,9 +10627,8 @@
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
-      <c r="R352"/>
-      <c r="T352" s="1"/>
-      <c r="V352" s="1"/>
+      <c r="R352" s="1"/>
+      <c r="U352" s="1"/>
       <c r="W352" s="1"/>
     </row>
     <row r="353" spans="1:23">
@@ -10967,9 +10648,8 @@
       <c r="O353" s="1"/>
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
-      <c r="R353"/>
-      <c r="T353" s="1"/>
-      <c r="V353" s="1"/>
+      <c r="R353" s="1"/>
+      <c r="U353" s="1"/>
       <c r="W353" s="1"/>
     </row>
     <row r="354" spans="1:23">
@@ -10989,9 +10669,8 @@
       <c r="O354" s="1"/>
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
-      <c r="R354"/>
-      <c r="T354" s="1"/>
-      <c r="V354" s="1"/>
+      <c r="R354" s="1"/>
+      <c r="U354" s="1"/>
       <c r="W354" s="1"/>
     </row>
     <row r="355" spans="1:23">
@@ -11011,9 +10690,8 @@
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
-      <c r="R355"/>
-      <c r="T355" s="1"/>
-      <c r="V355" s="1"/>
+      <c r="R355" s="1"/>
+      <c r="U355" s="1"/>
       <c r="W355" s="1"/>
     </row>
     <row r="356" spans="1:23">
@@ -11033,9 +10711,8 @@
       <c r="O356" s="1"/>
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
-      <c r="R356"/>
-      <c r="T356" s="1"/>
-      <c r="V356" s="1"/>
+      <c r="R356" s="1"/>
+      <c r="U356" s="1"/>
       <c r="W356" s="1"/>
     </row>
     <row r="357" spans="1:23">
@@ -11055,9 +10732,8 @@
       <c r="O357" s="1"/>
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
-      <c r="R357"/>
-      <c r="T357" s="1"/>
-      <c r="V357" s="1"/>
+      <c r="R357" s="1"/>
+      <c r="U357" s="1"/>
       <c r="W357" s="1"/>
     </row>
     <row r="358" spans="1:23">
@@ -11077,9 +10753,8 @@
       <c r="O358" s="1"/>
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
-      <c r="R358"/>
-      <c r="T358" s="1"/>
-      <c r="V358" s="1"/>
+      <c r="R358" s="1"/>
+      <c r="U358" s="1"/>
       <c r="W358" s="1"/>
     </row>
     <row r="359" spans="1:23">
@@ -11099,9 +10774,8 @@
       <c r="O359" s="1"/>
       <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
-      <c r="R359"/>
-      <c r="T359" s="1"/>
-      <c r="V359" s="1"/>
+      <c r="R359" s="1"/>
+      <c r="U359" s="1"/>
       <c r="W359" s="1"/>
     </row>
     <row r="360" spans="1:23">
@@ -11121,9 +10795,8 @@
       <c r="O360" s="1"/>
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
-      <c r="R360"/>
-      <c r="T360" s="1"/>
-      <c r="V360" s="1"/>
+      <c r="R360" s="1"/>
+      <c r="U360" s="1"/>
       <c r="W360" s="1"/>
     </row>
     <row r="361" spans="1:23">
@@ -11143,9 +10816,8 @@
       <c r="O361" s="1"/>
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
-      <c r="R361"/>
-      <c r="T361" s="1"/>
-      <c r="V361" s="1"/>
+      <c r="R361" s="1"/>
+      <c r="U361" s="1"/>
       <c r="W361" s="1"/>
     </row>
     <row r="362" spans="1:23">
@@ -11165,9 +10837,8 @@
       <c r="O362" s="1"/>
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
-      <c r="R362"/>
-      <c r="T362" s="1"/>
-      <c r="V362" s="1"/>
+      <c r="R362" s="1"/>
+      <c r="U362" s="1"/>
       <c r="W362" s="1"/>
     </row>
     <row r="363" spans="1:23">
@@ -11187,9 +10858,8 @@
       <c r="O363" s="1"/>
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
-      <c r="R363"/>
-      <c r="T363" s="1"/>
-      <c r="V363" s="1"/>
+      <c r="R363" s="1"/>
+      <c r="U363" s="1"/>
       <c r="W363" s="1"/>
     </row>
     <row r="364" spans="1:23">
@@ -11209,9 +10879,8 @@
       <c r="O364" s="1"/>
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
-      <c r="R364"/>
-      <c r="T364" s="1"/>
-      <c r="V364" s="1"/>
+      <c r="R364" s="1"/>
+      <c r="U364" s="1"/>
       <c r="W364" s="1"/>
     </row>
     <row r="365" spans="1:23">
@@ -11231,9 +10900,8 @@
       <c r="O365" s="1"/>
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
-      <c r="R365"/>
-      <c r="T365" s="1"/>
-      <c r="V365" s="1"/>
+      <c r="R365" s="1"/>
+      <c r="U365" s="1"/>
       <c r="W365" s="1"/>
     </row>
     <row r="366" spans="1:23">
@@ -11253,9 +10921,8 @@
       <c r="O366" s="1"/>
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
-      <c r="R366"/>
-      <c r="T366" s="1"/>
-      <c r="V366" s="1"/>
+      <c r="R366" s="1"/>
+      <c r="U366" s="1"/>
       <c r="W366" s="1"/>
     </row>
     <row r="367" spans="1:23">
@@ -11275,9 +10942,8 @@
       <c r="O367" s="1"/>
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
-      <c r="R367"/>
-      <c r="T367" s="1"/>
-      <c r="V367" s="1"/>
+      <c r="R367" s="1"/>
+      <c r="U367" s="1"/>
       <c r="W367" s="1"/>
     </row>
     <row r="368" spans="1:23">
@@ -11297,9 +10963,8 @@
       <c r="O368" s="1"/>
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
-      <c r="R368"/>
-      <c r="T368" s="1"/>
-      <c r="V368" s="1"/>
+      <c r="R368" s="1"/>
+      <c r="U368" s="1"/>
       <c r="W368" s="1"/>
     </row>
     <row r="369" spans="1:23">
@@ -11319,9 +10984,8 @@
       <c r="O369" s="1"/>
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
-      <c r="R369"/>
-      <c r="T369" s="1"/>
-      <c r="V369" s="1"/>
+      <c r="R369" s="1"/>
+      <c r="U369" s="1"/>
       <c r="W369" s="1"/>
     </row>
     <row r="370" spans="1:23">
@@ -11341,9 +11005,8 @@
       <c r="O370" s="1"/>
       <c r="P370" s="1"/>
       <c r="Q370" s="1"/>
-      <c r="R370"/>
-      <c r="T370" s="1"/>
-      <c r="V370" s="1"/>
+      <c r="R370" s="1"/>
+      <c r="U370" s="1"/>
       <c r="W370" s="1"/>
     </row>
     <row r="371" spans="1:23">
@@ -11363,9 +11026,8 @@
       <c r="O371" s="1"/>
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
-      <c r="R371"/>
-      <c r="T371" s="1"/>
-      <c r="V371" s="1"/>
+      <c r="R371" s="1"/>
+      <c r="U371" s="1"/>
       <c r="W371" s="1"/>
     </row>
     <row r="372" spans="1:23">
@@ -11385,9 +11047,8 @@
       <c r="O372" s="1"/>
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
-      <c r="R372"/>
-      <c r="T372" s="1"/>
-      <c r="V372" s="1"/>
+      <c r="R372" s="1"/>
+      <c r="U372" s="1"/>
       <c r="W372" s="1"/>
     </row>
     <row r="373" spans="1:23">
@@ -11407,9 +11068,8 @@
       <c r="O373" s="1"/>
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
-      <c r="R373"/>
-      <c r="T373" s="1"/>
-      <c r="V373" s="1"/>
+      <c r="R373" s="1"/>
+      <c r="U373" s="1"/>
       <c r="W373" s="1"/>
     </row>
     <row r="374" spans="1:23">
@@ -11429,9 +11089,8 @@
       <c r="O374" s="1"/>
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
-      <c r="R374"/>
-      <c r="T374" s="1"/>
-      <c r="V374" s="1"/>
+      <c r="R374" s="1"/>
+      <c r="U374" s="1"/>
       <c r="W374" s="1"/>
     </row>
     <row r="375" spans="1:23">
@@ -11451,9 +11110,8 @@
       <c r="O375" s="1"/>
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
-      <c r="R375"/>
-      <c r="T375" s="1"/>
-      <c r="V375" s="1"/>
+      <c r="R375" s="1"/>
+      <c r="U375" s="1"/>
       <c r="W375" s="1"/>
     </row>
     <row r="376" spans="1:23">
@@ -11473,9 +11131,8 @@
       <c r="O376" s="1"/>
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
-      <c r="R376"/>
-      <c r="T376" s="1"/>
-      <c r="V376" s="1"/>
+      <c r="R376" s="1"/>
+      <c r="U376" s="1"/>
       <c r="W376" s="1"/>
     </row>
     <row r="377" spans="1:23">
@@ -11495,9 +11152,8 @@
       <c r="O377" s="1"/>
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
-      <c r="R377"/>
-      <c r="T377" s="1"/>
-      <c r="V377" s="1"/>
+      <c r="R377" s="1"/>
+      <c r="U377" s="1"/>
       <c r="W377" s="1"/>
     </row>
     <row r="378" spans="1:23">
@@ -11517,9 +11173,8 @@
       <c r="O378" s="1"/>
       <c r="P378" s="1"/>
       <c r="Q378" s="1"/>
-      <c r="R378"/>
-      <c r="T378" s="1"/>
-      <c r="V378" s="1"/>
+      <c r="R378" s="1"/>
+      <c r="U378" s="1"/>
       <c r="W378" s="1"/>
     </row>
     <row r="379" spans="1:23">
@@ -11539,9 +11194,8 @@
       <c r="O379" s="1"/>
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
-      <c r="R379"/>
-      <c r="T379" s="1"/>
-      <c r="V379" s="1"/>
+      <c r="R379" s="1"/>
+      <c r="U379" s="1"/>
       <c r="W379" s="1"/>
     </row>
     <row r="380" spans="1:23">
@@ -11561,9 +11215,8 @@
       <c r="O380" s="1"/>
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
-      <c r="R380"/>
-      <c r="T380" s="1"/>
-      <c r="V380" s="1"/>
+      <c r="R380" s="1"/>
+      <c r="U380" s="1"/>
       <c r="W380" s="1"/>
     </row>
     <row r="381" spans="1:23">
@@ -11583,9 +11236,8 @@
       <c r="O381" s="1"/>
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
-      <c r="R381"/>
-      <c r="T381" s="1"/>
-      <c r="V381" s="1"/>
+      <c r="R381" s="1"/>
+      <c r="U381" s="1"/>
       <c r="W381" s="1"/>
     </row>
     <row r="382" spans="1:23">
@@ -11605,9 +11257,8 @@
       <c r="O382" s="1"/>
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
-      <c r="R382"/>
-      <c r="T382" s="1"/>
-      <c r="V382" s="1"/>
+      <c r="R382" s="1"/>
+      <c r="U382" s="1"/>
       <c r="W382" s="1"/>
     </row>
     <row r="383" spans="1:23">
@@ -11627,9 +11278,8 @@
       <c r="O383" s="1"/>
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
-      <c r="R383"/>
-      <c r="T383" s="1"/>
-      <c r="V383" s="1"/>
+      <c r="R383" s="1"/>
+      <c r="U383" s="1"/>
       <c r="W383" s="1"/>
     </row>
     <row r="384" spans="1:23">
@@ -11649,9 +11299,8 @@
       <c r="O384" s="1"/>
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
-      <c r="R384"/>
-      <c r="T384" s="1"/>
-      <c r="V384" s="1"/>
+      <c r="R384" s="1"/>
+      <c r="U384" s="1"/>
       <c r="W384" s="1"/>
     </row>
     <row r="385" spans="1:23">
@@ -11671,9 +11320,8 @@
       <c r="O385" s="1"/>
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
-      <c r="R385"/>
-      <c r="T385" s="1"/>
-      <c r="V385" s="1"/>
+      <c r="R385" s="1"/>
+      <c r="U385" s="1"/>
       <c r="W385" s="1"/>
     </row>
     <row r="386" spans="1:23">
@@ -11693,9 +11341,8 @@
       <c r="O386" s="1"/>
       <c r="P386" s="1"/>
       <c r="Q386" s="1"/>
-      <c r="R386"/>
-      <c r="T386" s="1"/>
-      <c r="V386" s="1"/>
+      <c r="R386" s="1"/>
+      <c r="U386" s="1"/>
       <c r="W386" s="1"/>
     </row>
     <row r="387" spans="1:23">
@@ -11715,9 +11362,8 @@
       <c r="O387" s="1"/>
       <c r="P387" s="1"/>
       <c r="Q387" s="1"/>
-      <c r="R387"/>
-      <c r="T387" s="1"/>
-      <c r="V387" s="1"/>
+      <c r="R387" s="1"/>
+      <c r="U387" s="1"/>
       <c r="W387" s="1"/>
     </row>
     <row r="388" spans="1:23">
@@ -11737,9 +11383,8 @@
       <c r="O388" s="1"/>
       <c r="P388" s="1"/>
       <c r="Q388" s="1"/>
-      <c r="R388"/>
-      <c r="T388" s="1"/>
-      <c r="V388" s="1"/>
+      <c r="R388" s="1"/>
+      <c r="U388" s="1"/>
       <c r="W388" s="1"/>
     </row>
     <row r="389" spans="1:23">
@@ -11759,9 +11404,8 @@
       <c r="O389" s="1"/>
       <c r="P389" s="1"/>
       <c r="Q389" s="1"/>
-      <c r="R389"/>
-      <c r="T389" s="1"/>
-      <c r="V389" s="1"/>
+      <c r="R389" s="1"/>
+      <c r="U389" s="1"/>
       <c r="W389" s="1"/>
     </row>
     <row r="390" spans="1:23">
@@ -11781,9 +11425,8 @@
       <c r="O390" s="1"/>
       <c r="P390" s="1"/>
       <c r="Q390" s="1"/>
-      <c r="R390"/>
-      <c r="T390" s="1"/>
-      <c r="V390" s="1"/>
+      <c r="R390" s="1"/>
+      <c r="U390" s="1"/>
       <c r="W390" s="1"/>
     </row>
     <row r="391" spans="1:23">
@@ -11803,9 +11446,8 @@
       <c r="O391" s="1"/>
       <c r="P391" s="1"/>
       <c r="Q391" s="1"/>
-      <c r="R391"/>
-      <c r="T391" s="1"/>
-      <c r="V391" s="1"/>
+      <c r="R391" s="1"/>
+      <c r="U391" s="1"/>
       <c r="W391" s="1"/>
     </row>
     <row r="392" spans="1:23">
@@ -11825,9 +11467,8 @@
       <c r="O392" s="1"/>
       <c r="P392" s="1"/>
       <c r="Q392" s="1"/>
-      <c r="R392"/>
-      <c r="T392" s="1"/>
-      <c r="V392" s="1"/>
+      <c r="R392" s="1"/>
+      <c r="U392" s="1"/>
       <c r="W392" s="1"/>
     </row>
     <row r="393" spans="1:23">
@@ -11847,9 +11488,8 @@
       <c r="O393" s="1"/>
       <c r="P393" s="1"/>
       <c r="Q393" s="1"/>
-      <c r="R393"/>
-      <c r="T393" s="1"/>
-      <c r="V393" s="1"/>
+      <c r="R393" s="1"/>
+      <c r="U393" s="1"/>
       <c r="W393" s="1"/>
     </row>
     <row r="394" spans="1:23">
@@ -11869,9 +11509,8 @@
       <c r="O394" s="1"/>
       <c r="P394" s="1"/>
       <c r="Q394" s="1"/>
-      <c r="R394"/>
-      <c r="T394" s="1"/>
-      <c r="V394" s="1"/>
+      <c r="R394" s="1"/>
+      <c r="U394" s="1"/>
       <c r="W394" s="1"/>
     </row>
     <row r="395" spans="1:23">
@@ -11891,9 +11530,8 @@
       <c r="O395" s="1"/>
       <c r="P395" s="1"/>
       <c r="Q395" s="1"/>
-      <c r="R395"/>
-      <c r="T395" s="1"/>
-      <c r="V395" s="1"/>
+      <c r="R395" s="1"/>
+      <c r="U395" s="1"/>
       <c r="W395" s="1"/>
     </row>
     <row r="396" spans="1:23">
@@ -11913,9 +11551,8 @@
       <c r="O396" s="1"/>
       <c r="P396" s="1"/>
       <c r="Q396" s="1"/>
-      <c r="R396"/>
-      <c r="T396" s="1"/>
-      <c r="V396" s="1"/>
+      <c r="R396" s="1"/>
+      <c r="U396" s="1"/>
       <c r="W396" s="1"/>
     </row>
     <row r="397" spans="1:23">
@@ -11935,9 +11572,8 @@
       <c r="O397" s="1"/>
       <c r="P397" s="1"/>
       <c r="Q397" s="1"/>
-      <c r="R397"/>
-      <c r="T397" s="1"/>
-      <c r="V397" s="1"/>
+      <c r="R397" s="1"/>
+      <c r="U397" s="1"/>
       <c r="W397" s="1"/>
     </row>
     <row r="398" spans="1:23">
@@ -11957,9 +11593,8 @@
       <c r="O398" s="1"/>
       <c r="P398" s="1"/>
       <c r="Q398" s="1"/>
-      <c r="R398"/>
-      <c r="T398" s="1"/>
-      <c r="V398" s="1"/>
+      <c r="R398" s="1"/>
+      <c r="U398" s="1"/>
       <c r="W398" s="1"/>
     </row>
     <row r="399" spans="1:23">
@@ -11979,9 +11614,8 @@
       <c r="O399" s="1"/>
       <c r="P399" s="1"/>
       <c r="Q399" s="1"/>
-      <c r="R399"/>
-      <c r="T399" s="1"/>
-      <c r="V399" s="1"/>
+      <c r="R399" s="1"/>
+      <c r="U399" s="1"/>
       <c r="W399" s="1"/>
     </row>
     <row r="400" spans="1:23">
@@ -12001,9 +11635,8 @@
       <c r="O400" s="1"/>
       <c r="P400" s="1"/>
       <c r="Q400" s="1"/>
-      <c r="R400"/>
-      <c r="T400" s="1"/>
-      <c r="V400" s="1"/>
+      <c r="R400" s="1"/>
+      <c r="U400" s="1"/>
       <c r="W400" s="1"/>
     </row>
     <row r="401" spans="1:23">
@@ -12023,9 +11656,8 @@
       <c r="O401" s="1"/>
       <c r="P401" s="1"/>
       <c r="Q401" s="1"/>
-      <c r="R401"/>
-      <c r="T401" s="1"/>
-      <c r="V401" s="1"/>
+      <c r="R401" s="1"/>
+      <c r="U401" s="1"/>
       <c r="W401" s="1"/>
     </row>
     <row r="402" spans="1:23">
@@ -12045,9 +11677,8 @@
       <c r="O402" s="1"/>
       <c r="P402" s="1"/>
       <c r="Q402" s="1"/>
-      <c r="R402"/>
-      <c r="T402" s="1"/>
-      <c r="V402" s="1"/>
+      <c r="R402" s="1"/>
+      <c r="U402" s="1"/>
       <c r="W402" s="1"/>
     </row>
     <row r="403" spans="1:23">
@@ -12067,9 +11698,8 @@
       <c r="O403" s="1"/>
       <c r="P403" s="1"/>
       <c r="Q403" s="1"/>
-      <c r="R403"/>
-      <c r="T403" s="1"/>
-      <c r="V403" s="1"/>
+      <c r="R403" s="1"/>
+      <c r="U403" s="1"/>
       <c r="W403" s="1"/>
     </row>
     <row r="404" spans="1:23">
@@ -12089,9 +11719,8 @@
       <c r="O404" s="1"/>
       <c r="P404" s="1"/>
       <c r="Q404" s="1"/>
-      <c r="R404"/>
-      <c r="T404" s="1"/>
-      <c r="V404" s="1"/>
+      <c r="R404" s="1"/>
+      <c r="U404" s="1"/>
       <c r="W404" s="1"/>
     </row>
     <row r="405" spans="1:23">
@@ -12111,9 +11740,8 @@
       <c r="O405" s="1"/>
       <c r="P405" s="1"/>
       <c r="Q405" s="1"/>
-      <c r="R405"/>
-      <c r="T405" s="1"/>
-      <c r="V405" s="1"/>
+      <c r="R405" s="1"/>
+      <c r="U405" s="1"/>
       <c r="W405" s="1"/>
     </row>
     <row r="406" spans="1:23">
@@ -12133,9 +11761,8 @@
       <c r="O406" s="1"/>
       <c r="P406" s="1"/>
       <c r="Q406" s="1"/>
-      <c r="R406"/>
-      <c r="T406" s="1"/>
-      <c r="V406" s="1"/>
+      <c r="R406" s="1"/>
+      <c r="U406" s="1"/>
       <c r="W406" s="1"/>
     </row>
     <row r="407" spans="1:23">
@@ -12155,9 +11782,8 @@
       <c r="O407" s="1"/>
       <c r="P407" s="1"/>
       <c r="Q407" s="1"/>
-      <c r="R407"/>
-      <c r="T407" s="1"/>
-      <c r="V407" s="1"/>
+      <c r="R407" s="1"/>
+      <c r="U407" s="1"/>
       <c r="W407" s="1"/>
     </row>
     <row r="408" spans="1:23">
@@ -12177,9 +11803,8 @@
       <c r="O408" s="1"/>
       <c r="P408" s="1"/>
       <c r="Q408" s="1"/>
-      <c r="R408"/>
-      <c r="T408" s="1"/>
-      <c r="V408" s="1"/>
+      <c r="R408" s="1"/>
+      <c r="U408" s="1"/>
       <c r="W408" s="1"/>
     </row>
     <row r="409" spans="1:23">
@@ -12199,9 +11824,8 @@
       <c r="O409" s="1"/>
       <c r="P409" s="1"/>
       <c r="Q409" s="1"/>
-      <c r="R409"/>
-      <c r="T409" s="1"/>
-      <c r="V409" s="1"/>
+      <c r="R409" s="1"/>
+      <c r="U409" s="1"/>
       <c r="W409" s="1"/>
     </row>
     <row r="410" spans="1:23">
@@ -12221,9 +11845,8 @@
       <c r="O410" s="1"/>
       <c r="P410" s="1"/>
       <c r="Q410" s="1"/>
-      <c r="R410"/>
-      <c r="T410" s="1"/>
-      <c r="V410" s="1"/>
+      <c r="R410" s="1"/>
+      <c r="U410" s="1"/>
       <c r="W410" s="1"/>
     </row>
     <row r="411" spans="1:23">
@@ -12243,9 +11866,8 @@
       <c r="O411" s="1"/>
       <c r="P411" s="1"/>
       <c r="Q411" s="1"/>
-      <c r="R411"/>
-      <c r="T411" s="1"/>
-      <c r="V411" s="1"/>
+      <c r="R411" s="1"/>
+      <c r="U411" s="1"/>
       <c r="W411" s="1"/>
     </row>
     <row r="412" spans="1:23">
@@ -12265,9 +11887,8 @@
       <c r="O412" s="1"/>
       <c r="P412" s="1"/>
       <c r="Q412" s="1"/>
-      <c r="R412"/>
-      <c r="T412" s="1"/>
-      <c r="V412" s="1"/>
+      <c r="R412" s="1"/>
+      <c r="U412" s="1"/>
       <c r="W412" s="1"/>
     </row>
     <row r="413" spans="1:23">
@@ -12287,9 +11908,8 @@
       <c r="O413" s="1"/>
       <c r="P413" s="1"/>
       <c r="Q413" s="1"/>
-      <c r="R413"/>
-      <c r="T413" s="1"/>
-      <c r="V413" s="1"/>
+      <c r="R413" s="1"/>
+      <c r="U413" s="1"/>
       <c r="W413" s="1"/>
     </row>
     <row r="414" spans="1:23">
@@ -12309,9 +11929,8 @@
       <c r="O414" s="1"/>
       <c r="P414" s="1"/>
       <c r="Q414" s="1"/>
-      <c r="R414"/>
-      <c r="T414" s="1"/>
-      <c r="V414" s="1"/>
+      <c r="R414" s="1"/>
+      <c r="U414" s="1"/>
       <c r="W414" s="1"/>
     </row>
     <row r="415" spans="1:23">
@@ -12331,9 +11950,8 @@
       <c r="O415" s="1"/>
       <c r="P415" s="1"/>
       <c r="Q415" s="1"/>
-      <c r="R415"/>
-      <c r="T415" s="1"/>
-      <c r="V415" s="1"/>
+      <c r="R415" s="1"/>
+      <c r="U415" s="1"/>
       <c r="W415" s="1"/>
     </row>
     <row r="416" spans="1:23">
@@ -12353,9 +11971,8 @@
       <c r="O416" s="1"/>
       <c r="P416" s="1"/>
       <c r="Q416" s="1"/>
-      <c r="R416"/>
-      <c r="T416" s="1"/>
-      <c r="V416" s="1"/>
+      <c r="R416" s="1"/>
+      <c r="U416" s="1"/>
       <c r="W416" s="1"/>
     </row>
     <row r="417" spans="1:23">
@@ -12375,9 +11992,8 @@
       <c r="O417" s="1"/>
       <c r="P417" s="1"/>
       <c r="Q417" s="1"/>
-      <c r="R417"/>
-      <c r="T417" s="1"/>
-      <c r="V417" s="1"/>
+      <c r="R417" s="1"/>
+      <c r="U417" s="1"/>
       <c r="W417" s="1"/>
     </row>
     <row r="418" spans="1:23">
@@ -12397,9 +12013,8 @@
       <c r="O418" s="1"/>
       <c r="P418" s="1"/>
       <c r="Q418" s="1"/>
-      <c r="R418"/>
-      <c r="T418" s="1"/>
-      <c r="V418" s="1"/>
+      <c r="R418" s="1"/>
+      <c r="U418" s="1"/>
       <c r="W418" s="1"/>
     </row>
     <row r="419" spans="1:23">
@@ -12419,9 +12034,8 @@
       <c r="O419" s="1"/>
       <c r="P419" s="1"/>
       <c r="Q419" s="1"/>
-      <c r="R419"/>
-      <c r="T419" s="1"/>
-      <c r="V419" s="1"/>
+      <c r="R419" s="1"/>
+      <c r="U419" s="1"/>
       <c r="W419" s="1"/>
     </row>
     <row r="420" spans="1:23">
@@ -12441,9 +12055,8 @@
       <c r="O420" s="1"/>
       <c r="P420" s="1"/>
       <c r="Q420" s="1"/>
-      <c r="R420"/>
-      <c r="T420" s="1"/>
-      <c r="V420" s="1"/>
+      <c r="R420" s="1"/>
+      <c r="U420" s="1"/>
       <c r="W420" s="1"/>
     </row>
     <row r="421" spans="1:23">
@@ -12463,9 +12076,8 @@
       <c r="O421" s="1"/>
       <c r="P421" s="1"/>
       <c r="Q421" s="1"/>
-      <c r="R421"/>
-      <c r="T421" s="1"/>
-      <c r="V421" s="1"/>
+      <c r="R421" s="1"/>
+      <c r="U421" s="1"/>
       <c r="W421" s="1"/>
     </row>
     <row r="422" spans="1:23">
@@ -12485,9 +12097,8 @@
       <c r="O422" s="1"/>
       <c r="P422" s="1"/>
       <c r="Q422" s="1"/>
-      <c r="R422"/>
-      <c r="T422" s="1"/>
-      <c r="V422" s="1"/>
+      <c r="R422" s="1"/>
+      <c r="U422" s="1"/>
       <c r="W422" s="1"/>
     </row>
     <row r="423" spans="1:23">
@@ -12507,9 +12118,8 @@
       <c r="O423" s="1"/>
       <c r="P423" s="1"/>
       <c r="Q423" s="1"/>
-      <c r="R423"/>
-      <c r="T423" s="1"/>
-      <c r="V423" s="1"/>
+      <c r="R423" s="1"/>
+      <c r="U423" s="1"/>
       <c r="W423" s="1"/>
     </row>
     <row r="424" spans="1:23">
@@ -12529,9 +12139,8 @@
       <c r="O424" s="1"/>
       <c r="P424" s="1"/>
       <c r="Q424" s="1"/>
-      <c r="R424"/>
-      <c r="T424" s="1"/>
-      <c r="V424" s="1"/>
+      <c r="R424" s="1"/>
+      <c r="U424" s="1"/>
       <c r="W424" s="1"/>
     </row>
     <row r="425" spans="1:23">
@@ -12551,9 +12160,8 @@
       <c r="O425" s="1"/>
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
-      <c r="R425"/>
-      <c r="T425" s="1"/>
-      <c r="V425" s="1"/>
+      <c r="R425" s="1"/>
+      <c r="U425" s="1"/>
       <c r="W425" s="1"/>
     </row>
     <row r="426" spans="1:23">
@@ -12573,9 +12181,8 @@
       <c r="O426" s="1"/>
       <c r="P426" s="1"/>
       <c r="Q426" s="1"/>
-      <c r="R426"/>
-      <c r="T426" s="1"/>
-      <c r="V426" s="1"/>
+      <c r="R426" s="1"/>
+      <c r="U426" s="1"/>
       <c r="W426" s="1"/>
     </row>
     <row r="427" spans="1:23">
@@ -12595,9 +12202,8 @@
       <c r="O427" s="1"/>
       <c r="P427" s="1"/>
       <c r="Q427" s="1"/>
-      <c r="R427"/>
-      <c r="T427" s="1"/>
-      <c r="V427" s="1"/>
+      <c r="R427" s="1"/>
+      <c r="U427" s="1"/>
       <c r="W427" s="1"/>
     </row>
     <row r="428" spans="1:23">
@@ -12617,9 +12223,8 @@
       <c r="O428" s="1"/>
       <c r="P428" s="1"/>
       <c r="Q428" s="1"/>
-      <c r="R428"/>
-      <c r="T428" s="1"/>
-      <c r="V428" s="1"/>
+      <c r="R428" s="1"/>
+      <c r="U428" s="1"/>
       <c r="W428" s="1"/>
     </row>
     <row r="429" spans="1:23">
@@ -12639,9 +12244,8 @@
       <c r="O429" s="1"/>
       <c r="P429" s="1"/>
       <c r="Q429" s="1"/>
-      <c r="R429"/>
-      <c r="T429" s="1"/>
-      <c r="V429" s="1"/>
+      <c r="R429" s="1"/>
+      <c r="U429" s="1"/>
       <c r="W429" s="1"/>
     </row>
     <row r="430" spans="1:23">
@@ -12661,9 +12265,8 @@
       <c r="O430" s="1"/>
       <c r="P430" s="1"/>
       <c r="Q430" s="1"/>
-      <c r="R430"/>
-      <c r="T430" s="1"/>
-      <c r="V430" s="1"/>
+      <c r="R430" s="1"/>
+      <c r="U430" s="1"/>
       <c r="W430" s="1"/>
     </row>
     <row r="431" spans="1:23">
@@ -12683,9 +12286,8 @@
       <c r="O431" s="1"/>
       <c r="P431" s="1"/>
       <c r="Q431" s="1"/>
-      <c r="R431"/>
-      <c r="T431" s="1"/>
-      <c r="V431" s="1"/>
+      <c r="R431" s="1"/>
+      <c r="U431" s="1"/>
       <c r="W431" s="1"/>
     </row>
     <row r="432" spans="1:23">
@@ -12705,9 +12307,8 @@
       <c r="O432" s="1"/>
       <c r="P432" s="1"/>
       <c r="Q432" s="1"/>
-      <c r="R432"/>
-      <c r="T432" s="1"/>
-      <c r="V432" s="1"/>
+      <c r="R432" s="1"/>
+      <c r="U432" s="1"/>
       <c r="W432" s="1"/>
     </row>
     <row r="433" spans="1:23">
@@ -12727,9 +12328,8 @@
       <c r="O433" s="1"/>
       <c r="P433" s="1"/>
       <c r="Q433" s="1"/>
-      <c r="R433"/>
-      <c r="T433" s="1"/>
-      <c r="V433" s="1"/>
+      <c r="R433" s="1"/>
+      <c r="U433" s="1"/>
       <c r="W433" s="1"/>
     </row>
     <row r="434" spans="1:23">
@@ -12749,9 +12349,8 @@
       <c r="O434" s="1"/>
       <c r="P434" s="1"/>
       <c r="Q434" s="1"/>
-      <c r="R434"/>
-      <c r="T434" s="1"/>
-      <c r="V434" s="1"/>
+      <c r="R434" s="1"/>
+      <c r="U434" s="1"/>
       <c r="W434" s="1"/>
     </row>
     <row r="435" spans="1:23">
@@ -12771,9 +12370,8 @@
       <c r="O435" s="1"/>
       <c r="P435" s="1"/>
       <c r="Q435" s="1"/>
-      <c r="R435"/>
-      <c r="T435" s="1"/>
-      <c r="V435" s="1"/>
+      <c r="R435" s="1"/>
+      <c r="U435" s="1"/>
       <c r="W435" s="1"/>
     </row>
     <row r="436" spans="1:23">
@@ -12793,9 +12391,8 @@
       <c r="O436" s="1"/>
       <c r="P436" s="1"/>
       <c r="Q436" s="1"/>
-      <c r="R436"/>
-      <c r="T436" s="1"/>
-      <c r="V436" s="1"/>
+      <c r="R436" s="1"/>
+      <c r="U436" s="1"/>
       <c r="W436" s="1"/>
     </row>
     <row r="437" spans="1:23">
@@ -12815,9 +12412,8 @@
       <c r="O437" s="1"/>
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
-      <c r="R437"/>
-      <c r="T437" s="1"/>
-      <c r="V437" s="1"/>
+      <c r="R437" s="1"/>
+      <c r="U437" s="1"/>
       <c r="W437" s="1"/>
     </row>
     <row r="438" spans="1:23">
@@ -12837,9 +12433,8 @@
       <c r="O438" s="1"/>
       <c r="P438" s="1"/>
       <c r="Q438" s="1"/>
-      <c r="R438"/>
-      <c r="T438" s="1"/>
-      <c r="V438" s="1"/>
+      <c r="R438" s="1"/>
+      <c r="U438" s="1"/>
       <c r="W438" s="1"/>
     </row>
     <row r="439" spans="1:23">
@@ -12859,9 +12454,8 @@
       <c r="O439" s="1"/>
       <c r="P439" s="1"/>
       <c r="Q439" s="1"/>
-      <c r="R439"/>
-      <c r="T439" s="1"/>
-      <c r="V439" s="1"/>
+      <c r="R439" s="1"/>
+      <c r="U439" s="1"/>
       <c r="W439" s="1"/>
     </row>
     <row r="440" spans="1:23">
@@ -12881,9 +12475,8 @@
       <c r="O440" s="1"/>
       <c r="P440" s="1"/>
       <c r="Q440" s="1"/>
-      <c r="R440"/>
-      <c r="T440" s="1"/>
-      <c r="V440" s="1"/>
+      <c r="R440" s="1"/>
+      <c r="U440" s="1"/>
       <c r="W440" s="1"/>
     </row>
     <row r="441" spans="1:23">
@@ -12903,9 +12496,8 @@
       <c r="O441" s="1"/>
       <c r="P441" s="1"/>
       <c r="Q441" s="1"/>
-      <c r="R441"/>
-      <c r="T441" s="1"/>
-      <c r="V441" s="1"/>
+      <c r="R441" s="1"/>
+      <c r="U441" s="1"/>
       <c r="W441" s="1"/>
     </row>
     <row r="442" spans="1:23">
@@ -12925,9 +12517,8 @@
       <c r="O442" s="1"/>
       <c r="P442" s="1"/>
       <c r="Q442" s="1"/>
-      <c r="R442"/>
-      <c r="T442" s="1"/>
-      <c r="V442" s="1"/>
+      <c r="R442" s="1"/>
+      <c r="U442" s="1"/>
       <c r="W442" s="1"/>
     </row>
     <row r="443" spans="1:23">
@@ -12947,9 +12538,8 @@
       <c r="O443" s="1"/>
       <c r="P443" s="1"/>
       <c r="Q443" s="1"/>
-      <c r="R443"/>
-      <c r="T443" s="1"/>
-      <c r="V443" s="1"/>
+      <c r="R443" s="1"/>
+      <c r="U443" s="1"/>
       <c r="W443" s="1"/>
     </row>
     <row r="444" spans="1:23">
@@ -12969,9 +12559,8 @@
       <c r="O444" s="1"/>
       <c r="P444" s="1"/>
       <c r="Q444" s="1"/>
-      <c r="R444"/>
-      <c r="T444" s="1"/>
-      <c r="V444" s="1"/>
+      <c r="R444" s="1"/>
+      <c r="U444" s="1"/>
       <c r="W444" s="1"/>
     </row>
     <row r="445" spans="1:23">
@@ -12991,9 +12580,8 @@
       <c r="O445" s="1"/>
       <c r="P445" s="1"/>
       <c r="Q445" s="1"/>
-      <c r="R445"/>
-      <c r="T445" s="1"/>
-      <c r="V445" s="1"/>
+      <c r="R445" s="1"/>
+      <c r="U445" s="1"/>
       <c r="W445" s="1"/>
     </row>
     <row r="446" spans="1:23">
@@ -13013,9 +12601,8 @@
       <c r="O446" s="1"/>
       <c r="P446" s="1"/>
       <c r="Q446" s="1"/>
-      <c r="R446"/>
-      <c r="T446" s="1"/>
-      <c r="V446" s="1"/>
+      <c r="R446" s="1"/>
+      <c r="U446" s="1"/>
       <c r="W446" s="1"/>
     </row>
     <row r="447" spans="1:23">
@@ -13035,9 +12622,8 @@
       <c r="O447" s="1"/>
       <c r="P447" s="1"/>
       <c r="Q447" s="1"/>
-      <c r="R447"/>
-      <c r="T447" s="1"/>
-      <c r="V447" s="1"/>
+      <c r="R447" s="1"/>
+      <c r="U447" s="1"/>
       <c r="W447" s="1"/>
     </row>
     <row r="448" spans="1:23">
@@ -13057,9 +12643,8 @@
       <c r="O448" s="1"/>
       <c r="P448" s="1"/>
       <c r="Q448" s="1"/>
-      <c r="R448"/>
-      <c r="T448" s="1"/>
-      <c r="V448" s="1"/>
+      <c r="R448" s="1"/>
+      <c r="U448" s="1"/>
       <c r="W448" s="1"/>
     </row>
     <row r="449" spans="1:23">
@@ -13079,9 +12664,8 @@
       <c r="O449" s="1"/>
       <c r="P449" s="1"/>
       <c r="Q449" s="1"/>
-      <c r="R449"/>
-      <c r="T449" s="1"/>
-      <c r="V449" s="1"/>
+      <c r="R449" s="1"/>
+      <c r="U449" s="1"/>
       <c r="W449" s="1"/>
     </row>
     <row r="450" spans="1:23">
@@ -13101,9 +12685,8 @@
       <c r="O450" s="1"/>
       <c r="P450" s="1"/>
       <c r="Q450" s="1"/>
-      <c r="R450"/>
-      <c r="T450" s="1"/>
-      <c r="V450" s="1"/>
+      <c r="R450" s="1"/>
+      <c r="U450" s="1"/>
       <c r="W450" s="1"/>
     </row>
     <row r="451" spans="1:23">
@@ -13123,9 +12706,8 @@
       <c r="O451" s="1"/>
       <c r="P451" s="1"/>
       <c r="Q451" s="1"/>
-      <c r="R451"/>
-      <c r="T451" s="1"/>
-      <c r="V451" s="1"/>
+      <c r="R451" s="1"/>
+      <c r="U451" s="1"/>
       <c r="W451" s="1"/>
     </row>
     <row r="452" spans="1:23">
@@ -13145,9 +12727,8 @@
       <c r="O452" s="1"/>
       <c r="P452" s="1"/>
       <c r="Q452" s="1"/>
-      <c r="R452"/>
-      <c r="T452" s="1"/>
-      <c r="V452" s="1"/>
+      <c r="R452" s="1"/>
+      <c r="U452" s="1"/>
       <c r="W452" s="1"/>
     </row>
     <row r="453" spans="1:23">
@@ -13167,9 +12748,8 @@
       <c r="O453" s="1"/>
       <c r="P453" s="1"/>
       <c r="Q453" s="1"/>
-      <c r="R453"/>
-      <c r="T453" s="1"/>
-      <c r="V453" s="1"/>
+      <c r="R453" s="1"/>
+      <c r="U453" s="1"/>
       <c r="W453" s="1"/>
     </row>
     <row r="454" spans="1:23">
@@ -13189,9 +12769,8 @@
       <c r="O454" s="1"/>
       <c r="P454" s="1"/>
       <c r="Q454" s="1"/>
-      <c r="R454"/>
-      <c r="T454" s="1"/>
-      <c r="V454" s="1"/>
+      <c r="R454" s="1"/>
+      <c r="U454" s="1"/>
       <c r="W454" s="1"/>
     </row>
     <row r="455" spans="1:23">
@@ -13211,9 +12790,8 @@
       <c r="O455" s="1"/>
       <c r="P455" s="1"/>
       <c r="Q455" s="1"/>
-      <c r="R455"/>
-      <c r="T455" s="1"/>
-      <c r="V455" s="1"/>
+      <c r="R455" s="1"/>
+      <c r="U455" s="1"/>
       <c r="W455" s="1"/>
     </row>
     <row r="456" spans="1:23">
@@ -13233,9 +12811,8 @@
       <c r="O456" s="1"/>
       <c r="P456" s="1"/>
       <c r="Q456" s="1"/>
-      <c r="R456"/>
-      <c r="T456" s="1"/>
-      <c r="V456" s="1"/>
+      <c r="R456" s="1"/>
+      <c r="U456" s="1"/>
       <c r="W456" s="1"/>
     </row>
     <row r="457" spans="1:23">
@@ -13255,9 +12832,8 @@
       <c r="O457" s="1"/>
       <c r="P457" s="1"/>
       <c r="Q457" s="1"/>
-      <c r="R457"/>
-      <c r="T457" s="1"/>
-      <c r="V457" s="1"/>
+      <c r="R457" s="1"/>
+      <c r="U457" s="1"/>
       <c r="W457" s="1"/>
     </row>
     <row r="458" spans="1:23">
@@ -13277,9 +12853,8 @@
       <c r="O458" s="1"/>
       <c r="P458" s="1"/>
       <c r="Q458" s="1"/>
-      <c r="R458"/>
-      <c r="T458" s="1"/>
-      <c r="V458" s="1"/>
+      <c r="R458" s="1"/>
+      <c r="U458" s="1"/>
       <c r="W458" s="1"/>
     </row>
     <row r="459" spans="1:23">
@@ -13299,9 +12874,8 @@
       <c r="O459" s="1"/>
       <c r="P459" s="1"/>
       <c r="Q459" s="1"/>
-      <c r="R459"/>
-      <c r="T459" s="1"/>
-      <c r="V459" s="1"/>
+      <c r="R459" s="1"/>
+      <c r="U459" s="1"/>
       <c r="W459" s="1"/>
     </row>
     <row r="460" spans="1:23">
@@ -13321,9 +12895,8 @@
       <c r="O460" s="1"/>
       <c r="P460" s="1"/>
       <c r="Q460" s="1"/>
-      <c r="R460"/>
-      <c r="T460" s="1"/>
-      <c r="V460" s="1"/>
+      <c r="R460" s="1"/>
+      <c r="U460" s="1"/>
       <c r="W460" s="1"/>
     </row>
     <row r="461" spans="1:23">
@@ -13343,9 +12916,8 @@
       <c r="O461" s="1"/>
       <c r="P461" s="1"/>
       <c r="Q461" s="1"/>
-      <c r="R461"/>
-      <c r="T461" s="1"/>
-      <c r="V461" s="1"/>
+      <c r="R461" s="1"/>
+      <c r="U461" s="1"/>
       <c r="W461" s="1"/>
     </row>
     <row r="462" spans="1:23">
@@ -13365,9 +12937,8 @@
       <c r="O462" s="1"/>
       <c r="P462" s="1"/>
       <c r="Q462" s="1"/>
-      <c r="R462"/>
-      <c r="T462" s="1"/>
-      <c r="V462" s="1"/>
+      <c r="R462" s="1"/>
+      <c r="U462" s="1"/>
       <c r="W462" s="1"/>
     </row>
     <row r="463" spans="1:23">
@@ -13387,9 +12958,8 @@
       <c r="O463" s="1"/>
       <c r="P463" s="1"/>
       <c r="Q463" s="1"/>
-      <c r="R463"/>
-      <c r="T463" s="1"/>
-      <c r="V463" s="1"/>
+      <c r="R463" s="1"/>
+      <c r="U463" s="1"/>
       <c r="W463" s="1"/>
     </row>
     <row r="464" spans="1:23">
@@ -13409,9 +12979,8 @@
       <c r="O464" s="1"/>
       <c r="P464" s="1"/>
       <c r="Q464" s="1"/>
-      <c r="R464"/>
-      <c r="T464" s="1"/>
-      <c r="V464" s="1"/>
+      <c r="R464" s="1"/>
+      <c r="U464" s="1"/>
       <c r="W464" s="1"/>
     </row>
     <row r="465" spans="1:23">
@@ -13431,9 +13000,8 @@
       <c r="O465" s="1"/>
       <c r="P465" s="1"/>
       <c r="Q465" s="1"/>
-      <c r="R465"/>
-      <c r="T465" s="1"/>
-      <c r="V465" s="1"/>
+      <c r="R465" s="1"/>
+      <c r="U465" s="1"/>
       <c r="W465" s="1"/>
     </row>
     <row r="466" spans="1:23">
@@ -13453,9 +13021,8 @@
       <c r="O466" s="1"/>
       <c r="P466" s="1"/>
       <c r="Q466" s="1"/>
-      <c r="R466"/>
-      <c r="T466" s="1"/>
-      <c r="V466" s="1"/>
+      <c r="R466" s="1"/>
+      <c r="U466" s="1"/>
       <c r="W466" s="1"/>
     </row>
     <row r="467" spans="1:23">
@@ -13475,9 +13042,8 @@
       <c r="O467" s="1"/>
       <c r="P467" s="1"/>
       <c r="Q467" s="1"/>
-      <c r="R467"/>
-      <c r="T467" s="1"/>
-      <c r="V467" s="1"/>
+      <c r="R467" s="1"/>
+      <c r="U467" s="1"/>
       <c r="W467" s="1"/>
     </row>
     <row r="468" spans="1:23">
@@ -13497,9 +13063,8 @@
       <c r="O468" s="1"/>
       <c r="P468" s="1"/>
       <c r="Q468" s="1"/>
-      <c r="R468"/>
-      <c r="T468" s="1"/>
-      <c r="V468" s="1"/>
+      <c r="R468" s="1"/>
+      <c r="U468" s="1"/>
       <c r="W468" s="1"/>
     </row>
     <row r="469" spans="1:23">
@@ -13519,9 +13084,8 @@
       <c r="O469" s="1"/>
       <c r="P469" s="1"/>
       <c r="Q469" s="1"/>
-      <c r="R469"/>
-      <c r="T469" s="1"/>
-      <c r="V469" s="1"/>
+      <c r="R469" s="1"/>
+      <c r="U469" s="1"/>
       <c r="W469" s="1"/>
     </row>
     <row r="470" spans="1:23">
@@ -13541,9 +13105,8 @@
       <c r="O470" s="1"/>
       <c r="P470" s="1"/>
       <c r="Q470" s="1"/>
-      <c r="R470"/>
-      <c r="T470" s="1"/>
-      <c r="V470" s="1"/>
+      <c r="R470" s="1"/>
+      <c r="U470" s="1"/>
       <c r="W470" s="1"/>
     </row>
     <row r="471" spans="1:23">
@@ -13563,9 +13126,8 @@
       <c r="O471" s="1"/>
       <c r="P471" s="1"/>
       <c r="Q471" s="1"/>
-      <c r="R471"/>
-      <c r="T471" s="1"/>
-      <c r="V471" s="1"/>
+      <c r="R471" s="1"/>
+      <c r="U471" s="1"/>
       <c r="W471" s="1"/>
     </row>
     <row r="472" spans="1:23">
@@ -13585,9 +13147,8 @@
       <c r="O472" s="1"/>
       <c r="P472" s="1"/>
       <c r="Q472" s="1"/>
-      <c r="R472"/>
-      <c r="T472" s="1"/>
-      <c r="V472" s="1"/>
+      <c r="R472" s="1"/>
+      <c r="U472" s="1"/>
       <c r="W472" s="1"/>
     </row>
     <row r="473" spans="1:23">
@@ -13607,9 +13168,8 @@
       <c r="O473" s="1"/>
       <c r="P473" s="1"/>
       <c r="Q473" s="1"/>
-      <c r="R473"/>
-      <c r="T473" s="1"/>
-      <c r="V473" s="1"/>
+      <c r="R473" s="1"/>
+      <c r="U473" s="1"/>
       <c r="W473" s="1"/>
     </row>
     <row r="474" spans="1:23">
@@ -13629,9 +13189,8 @@
       <c r="O474" s="1"/>
       <c r="P474" s="1"/>
       <c r="Q474" s="1"/>
-      <c r="R474"/>
-      <c r="T474" s="1"/>
-      <c r="V474" s="1"/>
+      <c r="R474" s="1"/>
+      <c r="U474" s="1"/>
       <c r="W474" s="1"/>
     </row>
     <row r="475" spans="1:23">
@@ -13651,9 +13210,8 @@
       <c r="O475" s="1"/>
       <c r="P475" s="1"/>
       <c r="Q475" s="1"/>
-      <c r="R475"/>
-      <c r="T475" s="1"/>
-      <c r="V475" s="1"/>
+      <c r="R475" s="1"/>
+      <c r="U475" s="1"/>
       <c r="W475" s="1"/>
     </row>
     <row r="476" spans="1:23">
@@ -13673,9 +13231,8 @@
       <c r="O476" s="1"/>
       <c r="P476" s="1"/>
       <c r="Q476" s="1"/>
-      <c r="R476"/>
-      <c r="T476" s="1"/>
-      <c r="V476" s="1"/>
+      <c r="R476" s="1"/>
+      <c r="U476" s="1"/>
       <c r="W476" s="1"/>
     </row>
     <row r="477" spans="1:23">
@@ -13695,9 +13252,8 @@
       <c r="O477" s="1"/>
       <c r="P477" s="1"/>
       <c r="Q477" s="1"/>
-      <c r="R477"/>
-      <c r="T477" s="1"/>
-      <c r="V477" s="1"/>
+      <c r="R477" s="1"/>
+      <c r="U477" s="1"/>
       <c r="W477" s="1"/>
     </row>
     <row r="478" spans="1:23">
@@ -13717,9 +13273,8 @@
       <c r="O478" s="1"/>
       <c r="P478" s="1"/>
       <c r="Q478" s="1"/>
-      <c r="R478"/>
-      <c r="T478" s="1"/>
-      <c r="V478" s="1"/>
+      <c r="R478" s="1"/>
+      <c r="U478" s="1"/>
       <c r="W478" s="1"/>
     </row>
     <row r="479" spans="1:23">
@@ -13739,9 +13294,8 @@
       <c r="O479" s="1"/>
       <c r="P479" s="1"/>
       <c r="Q479" s="1"/>
-      <c r="R479"/>
-      <c r="T479" s="1"/>
-      <c r="V479" s="1"/>
+      <c r="R479" s="1"/>
+      <c r="U479" s="1"/>
       <c r="W479" s="1"/>
     </row>
     <row r="480" spans="1:23">
@@ -13761,9 +13315,8 @@
       <c r="O480" s="1"/>
       <c r="P480" s="1"/>
       <c r="Q480" s="1"/>
-      <c r="R480"/>
-      <c r="T480" s="1"/>
-      <c r="V480" s="1"/>
+      <c r="R480" s="1"/>
+      <c r="U480" s="1"/>
       <c r="W480" s="1"/>
     </row>
     <row r="481" spans="1:23">
@@ -13783,9 +13336,8 @@
       <c r="O481" s="1"/>
       <c r="P481" s="1"/>
       <c r="Q481" s="1"/>
-      <c r="R481"/>
-      <c r="T481" s="1"/>
-      <c r="V481" s="1"/>
+      <c r="R481" s="1"/>
+      <c r="U481" s="1"/>
       <c r="W481" s="1"/>
     </row>
     <row r="482" spans="1:23">
@@ -13805,9 +13357,8 @@
       <c r="O482" s="1"/>
       <c r="P482" s="1"/>
       <c r="Q482" s="1"/>
-      <c r="R482"/>
-      <c r="T482" s="1"/>
-      <c r="V482" s="1"/>
+      <c r="R482" s="1"/>
+      <c r="U482" s="1"/>
       <c r="W482" s="1"/>
     </row>
     <row r="483" spans="1:23">
@@ -13827,9 +13378,8 @@
       <c r="O483" s="1"/>
       <c r="P483" s="1"/>
       <c r="Q483" s="1"/>
-      <c r="R483"/>
-      <c r="T483" s="1"/>
-      <c r="V483" s="1"/>
+      <c r="R483" s="1"/>
+      <c r="U483" s="1"/>
       <c r="W483" s="1"/>
     </row>
     <row r="484" spans="1:23">
@@ -13849,9 +13399,8 @@
       <c r="O484" s="1"/>
       <c r="P484" s="1"/>
       <c r="Q484" s="1"/>
-      <c r="R484"/>
-      <c r="T484" s="1"/>
-      <c r="V484" s="1"/>
+      <c r="R484" s="1"/>
+      <c r="U484" s="1"/>
       <c r="W484" s="1"/>
     </row>
     <row r="485" spans="1:23">
@@ -13871,9 +13420,8 @@
       <c r="O485" s="1"/>
       <c r="P485" s="1"/>
       <c r="Q485" s="1"/>
-      <c r="R485"/>
-      <c r="T485" s="1"/>
-      <c r="V485" s="1"/>
+      <c r="R485" s="1"/>
+      <c r="U485" s="1"/>
       <c r="W485" s="1"/>
     </row>
     <row r="486" spans="1:23">
@@ -13893,9 +13441,8 @@
       <c r="O486" s="1"/>
       <c r="P486" s="1"/>
       <c r="Q486" s="1"/>
-      <c r="R486"/>
-      <c r="T486" s="1"/>
-      <c r="V486" s="1"/>
+      <c r="R486" s="1"/>
+      <c r="U486" s="1"/>
       <c r="W486" s="1"/>
     </row>
     <row r="487" spans="1:23">
@@ -13915,9 +13462,8 @@
       <c r="O487" s="1"/>
       <c r="P487" s="1"/>
       <c r="Q487" s="1"/>
-      <c r="R487"/>
-      <c r="T487" s="1"/>
-      <c r="V487" s="1"/>
+      <c r="R487" s="1"/>
+      <c r="U487" s="1"/>
       <c r="W487" s="1"/>
     </row>
     <row r="488" spans="1:23">
@@ -13937,9 +13483,8 @@
       <c r="O488" s="1"/>
       <c r="P488" s="1"/>
       <c r="Q488" s="1"/>
-      <c r="R488"/>
-      <c r="T488" s="1"/>
-      <c r="V488" s="1"/>
+      <c r="R488" s="1"/>
+      <c r="U488" s="1"/>
       <c r="W488" s="1"/>
     </row>
     <row r="489" spans="1:23">
@@ -13959,9 +13504,8 @@
       <c r="O489" s="1"/>
       <c r="P489" s="1"/>
       <c r="Q489" s="1"/>
-      <c r="R489"/>
-      <c r="T489" s="1"/>
-      <c r="V489" s="1"/>
+      <c r="R489" s="1"/>
+      <c r="U489" s="1"/>
       <c r="W489" s="1"/>
     </row>
     <row r="490" spans="1:23">
@@ -13981,9 +13525,8 @@
       <c r="O490" s="1"/>
       <c r="P490" s="1"/>
       <c r="Q490" s="1"/>
-      <c r="R490"/>
-      <c r="T490" s="1"/>
-      <c r="V490" s="1"/>
+      <c r="R490" s="1"/>
+      <c r="U490" s="1"/>
       <c r="W490" s="1"/>
     </row>
     <row r="491" spans="1:23">
@@ -14003,9 +13546,8 @@
       <c r="O491" s="1"/>
       <c r="P491" s="1"/>
       <c r="Q491" s="1"/>
-      <c r="R491"/>
-      <c r="T491" s="1"/>
-      <c r="V491" s="1"/>
+      <c r="R491" s="1"/>
+      <c r="U491" s="1"/>
       <c r="W491" s="1"/>
     </row>
     <row r="492" spans="1:23">
@@ -14025,9 +13567,8 @@
       <c r="O492" s="1"/>
       <c r="P492" s="1"/>
       <c r="Q492" s="1"/>
-      <c r="R492"/>
-      <c r="T492" s="1"/>
-      <c r="V492" s="1"/>
+      <c r="R492" s="1"/>
+      <c r="U492" s="1"/>
       <c r="W492" s="1"/>
     </row>
     <row r="493" spans="1:23">
@@ -14047,9 +13588,8 @@
       <c r="O493" s="1"/>
       <c r="P493" s="1"/>
       <c r="Q493" s="1"/>
-      <c r="R493"/>
-      <c r="T493" s="1"/>
-      <c r="V493" s="1"/>
+      <c r="R493" s="1"/>
+      <c r="U493" s="1"/>
       <c r="W493" s="1"/>
     </row>
     <row r="494" spans="1:23">
@@ -14069,9 +13609,8 @@
       <c r="O494" s="1"/>
       <c r="P494" s="1"/>
       <c r="Q494" s="1"/>
-      <c r="R494"/>
-      <c r="T494" s="1"/>
-      <c r="V494" s="1"/>
+      <c r="R494" s="1"/>
+      <c r="U494" s="1"/>
       <c r="W494" s="1"/>
     </row>
     <row r="495" spans="1:23">
@@ -14091,9 +13630,8 @@
       <c r="O495" s="1"/>
       <c r="P495" s="1"/>
       <c r="Q495" s="1"/>
-      <c r="R495"/>
-      <c r="T495" s="1"/>
-      <c r="V495" s="1"/>
+      <c r="R495" s="1"/>
+      <c r="U495" s="1"/>
       <c r="W495" s="1"/>
     </row>
     <row r="496" spans="1:23">
@@ -14113,9 +13651,8 @@
       <c r="O496" s="1"/>
       <c r="P496" s="1"/>
       <c r="Q496" s="1"/>
-      <c r="R496"/>
-      <c r="T496" s="1"/>
-      <c r="V496" s="1"/>
+      <c r="R496" s="1"/>
+      <c r="U496" s="1"/>
       <c r="W496" s="1"/>
     </row>
     <row r="497" spans="1:23">
@@ -14135,17 +13672,16 @@
       <c r="O497" s="1"/>
       <c r="P497" s="1"/>
       <c r="Q497" s="1"/>
-      <c r="R497"/>
-      <c r="T497" s="1"/>
-      <c r="V497" s="1"/>
+      <c r="R497" s="1"/>
+      <c r="U497" s="1"/>
       <c r="W497" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:W1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>日期</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>止损线状态</t>
+  </si>
+  <si>
+    <t>是否向预期反向发展的指标</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -2896,11 +2899,11 @@
   <dimension ref="A1:W497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2947,7 +2950,9 @@
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="9"/>
+      <c r="K1" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
@@ -2957,7 +2962,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U1" s="15"/>
       <c r="V1" s="15"/>
@@ -2966,70 +2971,70 @@
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3069,26 +3074,26 @@
         <v>0.0302</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="O3" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" s="8" t="str">
         <f>IF(B3&gt;(D3-(D3-C3)/3),"上部",IF(B3&gt;=(E3+(D3-C3)/3),"中部","下部"))</f>
         <v>中部</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S3" s="18">
         <f>D3-E3</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>日期</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>止损线状态</t>
-  </si>
-  <si>
-    <t>是否向预期反向发展的指标</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -52,6 +49,36 @@
     <t>上涨天数</t>
   </si>
   <si>
+    <t>单日跌幅/涨幅
+(止损时，该值创新低是要引起注意；止盈时，该值创新高是要引起注意)</t>
+  </si>
+  <si>
+    <t>买入后总跌幅/涨幅
+(下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">上涨/下跌天数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(上涨大于65%考虑止盈；下跌大于65%考虑止损)</t>
+    </r>
+  </si>
+  <si>
     <t>当前止损线</t>
   </si>
   <si>
@@ -59,10 +86,6 @@
   </si>
   <si>
     <t>预期移动止损线股价</t>
-  </si>
-  <si>
-    <t>单日涨幅
-(创新高要注意)</t>
   </si>
   <si>
     <t>当日收盘价是否小于20日均线
@@ -103,89 +126,7 @@
 (超过2倍要考虑卖出)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目前涨幅</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>25%</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>要考虑卖出</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上涨天数是否大于65</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%</t>
-    </r>
+    <t>3.02%</t>
   </si>
   <si>
     <t>否</t>
@@ -193,19 +134,23 @@
   <si>
     <t>是</t>
   </si>
+  <si>
+    <t>0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,11 +159,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
@@ -228,15 +181,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +190,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,44 +210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -305,15 +220,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,17 +249,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,15 +280,38 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,10 +325,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -407,6 +359,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,7 +383,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,25 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,49 +527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,91 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,11 +586,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,24 +645,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,183 +683,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,65 +846,74 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2896,14 +2857,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:W497"/>
+  <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1:S1"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2915,22 +2876,21 @@
     <col min="5" max="5" width="9.96428571428571" customWidth="1"/>
     <col min="6" max="6" width="10.4107142857143" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.96428571428571" customWidth="1"/>
-    <col min="8" max="8" width="13.5357142857143" customWidth="1"/>
-    <col min="9" max="9" width="13.3839285714286" customWidth="1"/>
-    <col min="10" max="10" width="20.3839285714286" customWidth="1"/>
-    <col min="11" max="11" width="20.3839285714286" customWidth="1"/>
-    <col min="12" max="12" width="30.0625" customWidth="1"/>
-    <col min="13" max="13" width="40.4732142857143" customWidth="1"/>
-    <col min="14" max="14" width="25.4464285714286" customWidth="1"/>
-    <col min="15" max="15" width="28.7142857142857" customWidth="1"/>
-    <col min="16" max="16" width="30.0625" customWidth="1"/>
-    <col min="17" max="17" width="21.875" customWidth="1"/>
-    <col min="18" max="18" width="24.9910714285714" customWidth="1"/>
-    <col min="19" max="19" width="39.5803571428571" customWidth="1"/>
-    <col min="20" max="20" width="20.5267857142857" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.4464285714286" customWidth="1"/>
-    <col min="22" max="22" width="22.3125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.3035714285714" customWidth="1"/>
+    <col min="8" max="9" width="20.3839285714286" customWidth="1"/>
+    <col min="10" max="10" width="22.1696428571429" customWidth="1"/>
+    <col min="11" max="11" width="13.5357142857143" customWidth="1"/>
+    <col min="12" max="12" width="13.3839285714286" customWidth="1"/>
+    <col min="13" max="13" width="20.3839285714286" customWidth="1"/>
+    <col min="14" max="14" width="30.0625" customWidth="1"/>
+    <col min="15" max="15" width="40.4732142857143" customWidth="1"/>
+    <col min="16" max="16" width="25.4464285714286" customWidth="1"/>
+    <col min="17" max="17" width="28.7142857142857" customWidth="1"/>
+    <col min="18" max="18" width="30.0625" customWidth="1"/>
+    <col min="19" max="19" width="21.875" customWidth="1"/>
+    <col min="20" max="20" width="20.6785714285714" customWidth="1"/>
+    <col min="21" max="21" width="39.5803571428571" customWidth="1"/>
+    <col min="22" max="22" width="20.5267857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.4464285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -2945,101 +2905,99 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
+      <c r="W1" s="22"/>
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="S2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="T2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="U2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="V2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+    </row>
+    <row r="3" ht="18" spans="1:23">
       <c r="A3" s="5">
-        <v>44526</v>
+        <v>44523</v>
       </c>
       <c r="B3" s="6">
         <v>71.25</v>
@@ -3056,991 +3014,1009 @@
       <c r="F3" s="6">
         <v>6.49</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="10">
         <v>0</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="16">
+        <f>(B3-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE)</f>
+        <v>-0.0113778271125294</v>
+      </c>
+      <c r="J3" s="17">
+        <f>G3/(ROW()-2)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
         <v>67.53</v>
       </c>
-      <c r="I3" s="6">
-        <f>H3/(1-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,43,FALSE))</f>
+      <c r="L3" s="6">
+        <f>K3/(1-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,43,FALSE))</f>
         <v>71.6698474880383</v>
       </c>
-      <c r="J3" s="6">
-        <f>I3+I3*VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
+      <c r="M3" s="6">
+        <f>L3+L3*VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
         <v>79.9495424641149</v>
       </c>
-      <c r="K3" s="14">
-        <v>0.0302</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="N3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="O3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="P3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="Q3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="8" t="str">
-        <f>IF(B3&gt;(D3-(D3-C3)/3),"上部",IF(B3&gt;=(E3+(D3-C3)/3),"中部","下部"))</f>
-        <v>中部</v>
+      <c r="R3" s="10" t="str">
+        <f>IF(D3&gt;(F3-(F3-E3)/3),"上部",IF(D3&gt;=(G3+(F3-E3)/3),"中部","下部"))</f>
+        <v>上部</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="S3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="T3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="18">
+      <c r="U3" s="6">
         <f>D3-E3</f>
         <v>4.09999999999999</v>
       </c>
-      <c r="T3" s="19">
-        <v>0</v>
+      <c r="V3" s="11" t="s">
+        <v>29</v>
       </c>
-      <c r="U3" s="21">
+      <c r="W3" s="24">
         <f>F3/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,45,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="V3" s="22">
-        <f>(B3-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE)</f>
-        <v>-0.0113778271125294</v>
-      </c>
-      <c r="W3" s="23">
-        <f>G3/(ROW()-2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="5">
-        <v>44527</v>
+      <c r="A4" s="7">
+        <v>44524</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="24"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="5">
-        <v>44528</v>
+      <c r="A5" s="7">
+        <v>44525</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="24"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="5">
-        <v>44529</v>
+      <c r="A6" s="7">
+        <v>44526</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="24"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="5">
-        <v>44530</v>
+      <c r="A7" s="7">
+        <v>44527</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="5">
-        <v>44531</v>
+      <c r="A8" s="7">
+        <v>44528</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="5">
-        <v>44532</v>
+      <c r="A9" s="7">
+        <v>44529</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="6"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="5">
-        <v>44533</v>
+      <c r="A10" s="7">
+        <v>44530</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="6"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="5">
-        <v>44534</v>
+      <c r="A11" s="7">
+        <v>44531</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="6"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="5">
-        <v>44535</v>
+      <c r="A12" s="7">
+        <v>44532</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="6"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="5">
-        <v>44536</v>
+      <c r="A13" s="7">
+        <v>44533</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="6"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="5">
-        <v>44537</v>
+      <c r="A14" s="7">
+        <v>44534</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="6"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="5">
-        <v>44538</v>
+      <c r="A15" s="7">
+        <v>44535</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="6"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="5">
-        <v>44539</v>
+      <c r="A16" s="7">
+        <v>44536</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="6"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="5">
-        <v>44540</v>
+      <c r="A17" s="7">
+        <v>44537</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="6"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="5">
-        <v>44541</v>
+      <c r="A18" s="7">
+        <v>44538</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="6"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="5">
-        <v>44542</v>
+      <c r="A19" s="7">
+        <v>44539</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="6"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="5">
-        <v>44543</v>
+      <c r="A20" s="7">
+        <v>44540</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="6"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="5">
-        <v>44544</v>
+      <c r="A21" s="7">
+        <v>44541</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="6"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="5">
-        <v>44545</v>
+      <c r="A22" s="7">
+        <v>44542</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="6"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="5">
-        <v>44546</v>
+      <c r="A23" s="7">
+        <v>44543</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="5">
-        <v>44547</v>
+      <c r="A24" s="7">
+        <v>44544</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="6"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="5">
-        <v>44548</v>
+      <c r="A25" s="7">
+        <v>44545</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="5">
-        <v>44549</v>
+      <c r="A26" s="7">
+        <v>44546</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="5">
-        <v>44550</v>
+      <c r="A27" s="7">
+        <v>44547</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="5">
-        <v>44551</v>
+      <c r="A28" s="7">
+        <v>44548</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="5">
-        <v>44552</v>
+      <c r="A29" s="7">
+        <v>44549</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="5">
-        <v>44553</v>
+      <c r="A30" s="7">
+        <v>44550</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="5">
-        <v>44554</v>
+      <c r="A31" s="7">
+        <v>44551</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="5">
-        <v>44555</v>
+      <c r="A32" s="7">
+        <v>44552</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="5">
-        <v>44556</v>
+      <c r="A33" s="7">
+        <v>44553</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="5">
-        <v>44557</v>
+      <c r="A34" s="7">
+        <v>44554</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
     </row>
     <row r="35" spans="1:23">
-      <c r="A35" s="5">
-        <v>44558</v>
+      <c r="A35" s="7">
+        <v>44555</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
     </row>
     <row r="36" spans="1:23">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="W36" s="1"/>
+      <c r="A36" s="7">
+        <v>44556</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
     </row>
     <row r="37" spans="1:23">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="W37" s="1"/>
+      <c r="A37" s="7">
+        <v>44557</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
     </row>
     <row r="38" spans="1:23">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="W38" s="1"/>
+      <c r="A38" s="7">
+        <v>44558</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="1"/>
@@ -4060,7 +4036,8 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="U39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23">
@@ -4081,7 +4058,8 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-      <c r="U40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23">
@@ -4102,7 +4080,8 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-      <c r="U41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23">
@@ -4123,7 +4102,8 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="U42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23">
@@ -4144,7 +4124,8 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-      <c r="U43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23">
@@ -4165,7 +4146,8 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-      <c r="U44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
       <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23">
@@ -4186,7 +4168,8 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-      <c r="U45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23">
@@ -4207,7 +4190,8 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="U46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23">
@@ -4228,7 +4212,8 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="U47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
       <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23">
@@ -4249,7 +4234,8 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
-      <c r="U48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
       <c r="W48" s="1"/>
     </row>
     <row r="49" spans="1:23">
@@ -4270,7 +4256,8 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
-      <c r="U49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
       <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:23">
@@ -4291,7 +4278,8 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
-      <c r="U50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
       <c r="W50" s="1"/>
     </row>
     <row r="51" spans="1:23">
@@ -4312,7 +4300,8 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
-      <c r="U51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
       <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23">
@@ -4333,7 +4322,8 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
-      <c r="U52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
       <c r="W52" s="1"/>
     </row>
     <row r="53" spans="1:23">
@@ -4354,7 +4344,8 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
-      <c r="U53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
       <c r="W53" s="1"/>
     </row>
     <row r="54" spans="1:23">
@@ -4375,7 +4366,8 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="U54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
       <c r="W54" s="1"/>
     </row>
     <row r="55" spans="1:23">
@@ -4396,7 +4388,8 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
-      <c r="U55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
       <c r="W55" s="1"/>
     </row>
     <row r="56" spans="1:23">
@@ -4417,7 +4410,8 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
-      <c r="U56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
       <c r="W56" s="1"/>
     </row>
     <row r="57" spans="1:23">
@@ -4438,7 +4432,8 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
-      <c r="U57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
       <c r="W57" s="1"/>
     </row>
     <row r="58" spans="1:23">
@@ -4459,7 +4454,8 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
-      <c r="U58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="1:23">
@@ -4480,7 +4476,8 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
-      <c r="U59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
       <c r="W59" s="1"/>
     </row>
     <row r="60" spans="1:23">
@@ -4501,7 +4498,8 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-      <c r="U60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
       <c r="W60" s="1"/>
     </row>
     <row r="61" spans="1:23">
@@ -4522,7 +4520,8 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
-      <c r="U61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
       <c r="W61" s="1"/>
     </row>
     <row r="62" spans="1:23">
@@ -4543,7 +4542,8 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-      <c r="U62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
       <c r="W62" s="1"/>
     </row>
     <row r="63" spans="1:23">
@@ -4564,7 +4564,8 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
-      <c r="U63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
       <c r="W63" s="1"/>
     </row>
     <row r="64" spans="1:23">
@@ -4585,7 +4586,8 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
-      <c r="U64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
       <c r="W64" s="1"/>
     </row>
     <row r="65" spans="1:23">
@@ -4606,7 +4608,8 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
-      <c r="U65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
       <c r="W65" s="1"/>
     </row>
     <row r="66" spans="1:23">
@@ -4627,7 +4630,8 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-      <c r="U66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
       <c r="W66" s="1"/>
     </row>
     <row r="67" spans="1:23">
@@ -4648,7 +4652,8 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
-      <c r="U67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
       <c r="W67" s="1"/>
     </row>
     <row r="68" spans="1:23">
@@ -4669,7 +4674,8 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-      <c r="U68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
       <c r="W68" s="1"/>
     </row>
     <row r="69" spans="1:23">
@@ -4690,7 +4696,8 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
-      <c r="U69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
       <c r="W69" s="1"/>
     </row>
     <row r="70" spans="1:23">
@@ -4711,7 +4718,8 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
-      <c r="U70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
       <c r="W70" s="1"/>
     </row>
     <row r="71" spans="1:23">
@@ -4732,7 +4740,8 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
-      <c r="U71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
       <c r="W71" s="1"/>
     </row>
     <row r="72" spans="1:23">
@@ -4753,7 +4762,8 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
-      <c r="U72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
       <c r="W72" s="1"/>
     </row>
     <row r="73" spans="1:23">
@@ -4774,7 +4784,8 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
-      <c r="U73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
       <c r="W73" s="1"/>
     </row>
     <row r="74" spans="1:23">
@@ -4795,7 +4806,8 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
-      <c r="U74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
       <c r="W74" s="1"/>
     </row>
     <row r="75" spans="1:23">
@@ -4816,7 +4828,8 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
-      <c r="U75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
       <c r="W75" s="1"/>
     </row>
     <row r="76" spans="1:23">
@@ -4837,7 +4850,8 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
-      <c r="U76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
       <c r="W76" s="1"/>
     </row>
     <row r="77" spans="1:23">
@@ -4858,7 +4872,8 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
-      <c r="U77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
       <c r="W77" s="1"/>
     </row>
     <row r="78" spans="1:23">
@@ -4879,7 +4894,8 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
-      <c r="U78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
       <c r="W78" s="1"/>
     </row>
     <row r="79" spans="1:23">
@@ -4900,7 +4916,8 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
-      <c r="U79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
       <c r="W79" s="1"/>
     </row>
     <row r="80" spans="1:23">
@@ -4921,7 +4938,8 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
-      <c r="U80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
       <c r="W80" s="1"/>
     </row>
     <row r="81" spans="1:23">
@@ -4942,7 +4960,8 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
-      <c r="U81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
       <c r="W81" s="1"/>
     </row>
     <row r="82" spans="1:23">
@@ -4963,7 +4982,8 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
-      <c r="U82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
       <c r="W82" s="1"/>
     </row>
     <row r="83" spans="1:23">
@@ -4984,7 +5004,8 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
-      <c r="U83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
       <c r="W83" s="1"/>
     </row>
     <row r="84" spans="1:23">
@@ -5005,7 +5026,8 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
-      <c r="U84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
       <c r="W84" s="1"/>
     </row>
     <row r="85" spans="1:23">
@@ -5026,7 +5048,8 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
-      <c r="U85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
       <c r="W85" s="1"/>
     </row>
     <row r="86" spans="1:23">
@@ -5047,7 +5070,8 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
-      <c r="U86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
       <c r="W86" s="1"/>
     </row>
     <row r="87" spans="1:23">
@@ -5068,7 +5092,8 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
-      <c r="U87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
       <c r="W87" s="1"/>
     </row>
     <row r="88" spans="1:23">
@@ -5089,7 +5114,8 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
-      <c r="U88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
       <c r="W88" s="1"/>
     </row>
     <row r="89" spans="1:23">
@@ -5110,7 +5136,8 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
-      <c r="U89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
       <c r="W89" s="1"/>
     </row>
     <row r="90" spans="1:23">
@@ -5131,7 +5158,8 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
-      <c r="U90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
       <c r="W90" s="1"/>
     </row>
     <row r="91" spans="1:23">
@@ -5152,7 +5180,8 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
-      <c r="U91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
       <c r="W91" s="1"/>
     </row>
     <row r="92" spans="1:23">
@@ -5173,7 +5202,8 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
-      <c r="U92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
       <c r="W92" s="1"/>
     </row>
     <row r="93" spans="1:23">
@@ -5194,7 +5224,8 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
-      <c r="U93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
       <c r="W93" s="1"/>
     </row>
     <row r="94" spans="1:23">
@@ -5215,7 +5246,8 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
-      <c r="U94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
       <c r="W94" s="1"/>
     </row>
     <row r="95" spans="1:23">
@@ -5236,7 +5268,8 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
-      <c r="U95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
       <c r="W95" s="1"/>
     </row>
     <row r="96" spans="1:23">
@@ -5257,7 +5290,8 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
-      <c r="U96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
       <c r="W96" s="1"/>
     </row>
     <row r="97" spans="1:23">
@@ -5278,7 +5312,8 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
-      <c r="U97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
       <c r="W97" s="1"/>
     </row>
     <row r="98" spans="1:23">
@@ -5299,7 +5334,8 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
-      <c r="U98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
       <c r="W98" s="1"/>
     </row>
     <row r="99" spans="1:23">
@@ -5320,7 +5356,8 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
-      <c r="U99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
       <c r="W99" s="1"/>
     </row>
     <row r="100" spans="1:23">
@@ -5341,7 +5378,8 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
-      <c r="U100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
       <c r="W100" s="1"/>
     </row>
     <row r="101" spans="1:23">
@@ -5362,7 +5400,8 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
-      <c r="U101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
       <c r="W101" s="1"/>
     </row>
     <row r="102" spans="1:23">
@@ -5383,7 +5422,8 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
-      <c r="U102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
       <c r="W102" s="1"/>
     </row>
     <row r="103" spans="1:23">
@@ -5404,7 +5444,8 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
-      <c r="U103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
       <c r="W103" s="1"/>
     </row>
     <row r="104" spans="1:23">
@@ -5425,7 +5466,8 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
-      <c r="U104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
       <c r="W104" s="1"/>
     </row>
     <row r="105" spans="1:23">
@@ -5446,7 +5488,8 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
-      <c r="U105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
       <c r="W105" s="1"/>
     </row>
     <row r="106" spans="1:23">
@@ -5467,7 +5510,8 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
-      <c r="U106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
       <c r="W106" s="1"/>
     </row>
     <row r="107" spans="1:23">
@@ -5488,7 +5532,8 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
-      <c r="U107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
       <c r="W107" s="1"/>
     </row>
     <row r="108" spans="1:23">
@@ -5509,7 +5554,8 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
-      <c r="U108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
       <c r="W108" s="1"/>
     </row>
     <row r="109" spans="1:23">
@@ -5530,7 +5576,8 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
-      <c r="U109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
       <c r="W109" s="1"/>
     </row>
     <row r="110" spans="1:23">
@@ -5551,7 +5598,8 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
-      <c r="U110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
       <c r="W110" s="1"/>
     </row>
     <row r="111" spans="1:23">
@@ -5572,7 +5620,8 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
-      <c r="U111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
       <c r="W111" s="1"/>
     </row>
     <row r="112" spans="1:23">
@@ -5593,7 +5642,8 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
-      <c r="U112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
       <c r="W112" s="1"/>
     </row>
     <row r="113" spans="1:23">
@@ -5614,7 +5664,8 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
-      <c r="U113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
       <c r="W113" s="1"/>
     </row>
     <row r="114" spans="1:23">
@@ -5635,7 +5686,8 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
-      <c r="U114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
       <c r="W114" s="1"/>
     </row>
     <row r="115" spans="1:23">
@@ -5656,7 +5708,8 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
-      <c r="U115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
       <c r="W115" s="1"/>
     </row>
     <row r="116" spans="1:23">
@@ -5677,7 +5730,8 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
-      <c r="U116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
       <c r="W116" s="1"/>
     </row>
     <row r="117" spans="1:23">
@@ -5698,7 +5752,8 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
-      <c r="U117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
       <c r="W117" s="1"/>
     </row>
     <row r="118" spans="1:23">
@@ -5719,7 +5774,8 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
-      <c r="U118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
       <c r="W118" s="1"/>
     </row>
     <row r="119" spans="1:23">
@@ -5740,7 +5796,8 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
-      <c r="U119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
       <c r="W119" s="1"/>
     </row>
     <row r="120" spans="1:23">
@@ -5761,7 +5818,8 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
-      <c r="U120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
       <c r="W120" s="1"/>
     </row>
     <row r="121" spans="1:23">
@@ -5782,7 +5840,8 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
-      <c r="U121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
       <c r="W121" s="1"/>
     </row>
     <row r="122" spans="1:23">
@@ -5803,7 +5862,8 @@
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
-      <c r="U122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
       <c r="W122" s="1"/>
     </row>
     <row r="123" spans="1:23">
@@ -5824,7 +5884,8 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
-      <c r="U123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
       <c r="W123" s="1"/>
     </row>
     <row r="124" spans="1:23">
@@ -5845,7 +5906,8 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
-      <c r="U124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
       <c r="W124" s="1"/>
     </row>
     <row r="125" spans="1:23">
@@ -5866,7 +5928,8 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
-      <c r="U125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
       <c r="W125" s="1"/>
     </row>
     <row r="126" spans="1:23">
@@ -5887,7 +5950,8 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
-      <c r="U126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
       <c r="W126" s="1"/>
     </row>
     <row r="127" spans="1:23">
@@ -5908,7 +5972,8 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
-      <c r="U127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
       <c r="W127" s="1"/>
     </row>
     <row r="128" spans="1:23">
@@ -5929,7 +5994,8 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
-      <c r="U128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
       <c r="W128" s="1"/>
     </row>
     <row r="129" spans="1:23">
@@ -5950,7 +6016,8 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
-      <c r="U129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
       <c r="W129" s="1"/>
     </row>
     <row r="130" spans="1:23">
@@ -5971,7 +6038,8 @@
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
-      <c r="U130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
       <c r="W130" s="1"/>
     </row>
     <row r="131" spans="1:23">
@@ -5992,7 +6060,8 @@
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
-      <c r="U131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
       <c r="W131" s="1"/>
     </row>
     <row r="132" spans="1:23">
@@ -6013,7 +6082,8 @@
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
-      <c r="U132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
       <c r="W132" s="1"/>
     </row>
     <row r="133" spans="1:23">
@@ -6034,7 +6104,8 @@
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
-      <c r="U133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
       <c r="W133" s="1"/>
     </row>
     <row r="134" spans="1:23">
@@ -6055,7 +6126,8 @@
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
-      <c r="U134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
       <c r="W134" s="1"/>
     </row>
     <row r="135" spans="1:23">
@@ -6076,7 +6148,8 @@
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
-      <c r="U135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
       <c r="W135" s="1"/>
     </row>
     <row r="136" spans="1:23">
@@ -6097,7 +6170,8 @@
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
-      <c r="U136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="1"/>
       <c r="W136" s="1"/>
     </row>
     <row r="137" spans="1:23">
@@ -6118,7 +6192,8 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
-      <c r="U137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
       <c r="W137" s="1"/>
     </row>
     <row r="138" spans="1:23">
@@ -6139,7 +6214,8 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
-      <c r="U138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
       <c r="W138" s="1"/>
     </row>
     <row r="139" spans="1:23">
@@ -6160,7 +6236,8 @@
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
-      <c r="U139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="1"/>
       <c r="W139" s="1"/>
     </row>
     <row r="140" spans="1:23">
@@ -6181,7 +6258,8 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
-      <c r="U140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="1"/>
       <c r="W140" s="1"/>
     </row>
     <row r="141" spans="1:23">
@@ -6202,7 +6280,8 @@
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
-      <c r="U141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="T141" s="1"/>
       <c r="W141" s="1"/>
     </row>
     <row r="142" spans="1:23">
@@ -6223,7 +6302,8 @@
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
-      <c r="U142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142" s="1"/>
       <c r="W142" s="1"/>
     </row>
     <row r="143" spans="1:23">
@@ -6244,7 +6324,8 @@
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
-      <c r="U143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
       <c r="W143" s="1"/>
     </row>
     <row r="144" spans="1:23">
@@ -6265,7 +6346,8 @@
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
-      <c r="U144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
       <c r="W144" s="1"/>
     </row>
     <row r="145" spans="1:23">
@@ -6286,7 +6368,8 @@
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
-      <c r="U145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
       <c r="W145" s="1"/>
     </row>
     <row r="146" spans="1:23">
@@ -6307,7 +6390,8 @@
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
-      <c r="U146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
       <c r="W146" s="1"/>
     </row>
     <row r="147" spans="1:23">
@@ -6328,7 +6412,8 @@
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
-      <c r="U147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
       <c r="W147" s="1"/>
     </row>
     <row r="148" spans="1:23">
@@ -6349,7 +6434,8 @@
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
-      <c r="U148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
       <c r="W148" s="1"/>
     </row>
     <row r="149" spans="1:23">
@@ -6370,7 +6456,8 @@
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
-      <c r="U149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
       <c r="W149" s="1"/>
     </row>
     <row r="150" spans="1:23">
@@ -6391,7 +6478,8 @@
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
-      <c r="U150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
       <c r="W150" s="1"/>
     </row>
     <row r="151" spans="1:23">
@@ -6412,7 +6500,8 @@
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
-      <c r="U151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
       <c r="W151" s="1"/>
     </row>
     <row r="152" spans="1:23">
@@ -6433,7 +6522,8 @@
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
-      <c r="U152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
       <c r="W152" s="1"/>
     </row>
     <row r="153" spans="1:23">
@@ -6454,7 +6544,8 @@
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
-      <c r="U153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
       <c r="W153" s="1"/>
     </row>
     <row r="154" spans="1:23">
@@ -6475,7 +6566,8 @@
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
-      <c r="U154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
       <c r="W154" s="1"/>
     </row>
     <row r="155" spans="1:23">
@@ -6496,7 +6588,8 @@
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
-      <c r="U155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
       <c r="W155" s="1"/>
     </row>
     <row r="156" spans="1:23">
@@ -6517,7 +6610,8 @@
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
-      <c r="U156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
       <c r="W156" s="1"/>
     </row>
     <row r="157" spans="1:23">
@@ -6538,7 +6632,8 @@
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
-      <c r="U157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
       <c r="W157" s="1"/>
     </row>
     <row r="158" spans="1:23">
@@ -6559,7 +6654,8 @@
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
-      <c r="U158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158" s="1"/>
       <c r="W158" s="1"/>
     </row>
     <row r="159" spans="1:23">
@@ -6580,7 +6676,8 @@
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
-      <c r="U159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159" s="1"/>
       <c r="W159" s="1"/>
     </row>
     <row r="160" spans="1:23">
@@ -6601,7 +6698,8 @@
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
-      <c r="U160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
       <c r="W160" s="1"/>
     </row>
     <row r="161" spans="1:23">
@@ -6622,7 +6720,8 @@
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
-      <c r="U161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
       <c r="W161" s="1"/>
     </row>
     <row r="162" spans="1:23">
@@ -6643,7 +6742,8 @@
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
-      <c r="U162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
       <c r="W162" s="1"/>
     </row>
     <row r="163" spans="1:23">
@@ -6664,7 +6764,8 @@
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
-      <c r="U163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
       <c r="W163" s="1"/>
     </row>
     <row r="164" spans="1:23">
@@ -6685,7 +6786,8 @@
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
-      <c r="U164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
       <c r="W164" s="1"/>
     </row>
     <row r="165" spans="1:23">
@@ -6706,7 +6808,8 @@
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
-      <c r="U165" s="1"/>
+      <c r="S165" s="1"/>
+      <c r="T165" s="1"/>
       <c r="W165" s="1"/>
     </row>
     <row r="166" spans="1:23">
@@ -6727,7 +6830,8 @@
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
-      <c r="U166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166" s="1"/>
       <c r="W166" s="1"/>
     </row>
     <row r="167" spans="1:23">
@@ -6748,7 +6852,8 @@
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
-      <c r="U167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167" s="1"/>
       <c r="W167" s="1"/>
     </row>
     <row r="168" spans="1:23">
@@ -6769,7 +6874,8 @@
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
-      <c r="U168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="T168" s="1"/>
       <c r="W168" s="1"/>
     </row>
     <row r="169" spans="1:23">
@@ -6790,7 +6896,8 @@
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
-      <c r="U169" s="1"/>
+      <c r="S169" s="1"/>
+      <c r="T169" s="1"/>
       <c r="W169" s="1"/>
     </row>
     <row r="170" spans="1:23">
@@ -6811,7 +6918,8 @@
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
-      <c r="U170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
       <c r="W170" s="1"/>
     </row>
     <row r="171" spans="1:23">
@@ -6832,7 +6940,8 @@
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
-      <c r="U171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="T171" s="1"/>
       <c r="W171" s="1"/>
     </row>
     <row r="172" spans="1:23">
@@ -6853,7 +6962,8 @@
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
-      <c r="U172" s="1"/>
+      <c r="S172" s="1"/>
+      <c r="T172" s="1"/>
       <c r="W172" s="1"/>
     </row>
     <row r="173" spans="1:23">
@@ -6874,7 +6984,8 @@
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
-      <c r="U173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1"/>
       <c r="W173" s="1"/>
     </row>
     <row r="174" spans="1:23">
@@ -6895,7 +7006,8 @@
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
-      <c r="U174" s="1"/>
+      <c r="S174" s="1"/>
+      <c r="T174" s="1"/>
       <c r="W174" s="1"/>
     </row>
     <row r="175" spans="1:23">
@@ -6916,7 +7028,8 @@
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
-      <c r="U175" s="1"/>
+      <c r="S175" s="1"/>
+      <c r="T175" s="1"/>
       <c r="W175" s="1"/>
     </row>
     <row r="176" spans="1:23">
@@ -6937,7 +7050,8 @@
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
-      <c r="U176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
       <c r="W176" s="1"/>
     </row>
     <row r="177" spans="1:23">
@@ -6958,7 +7072,8 @@
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
-      <c r="U177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
       <c r="W177" s="1"/>
     </row>
     <row r="178" spans="1:23">
@@ -6979,7 +7094,8 @@
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
-      <c r="U178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="T178" s="1"/>
       <c r="W178" s="1"/>
     </row>
     <row r="179" spans="1:23">
@@ -7000,7 +7116,8 @@
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
-      <c r="U179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1"/>
       <c r="W179" s="1"/>
     </row>
     <row r="180" spans="1:23">
@@ -7021,7 +7138,8 @@
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
-      <c r="U180" s="1"/>
+      <c r="S180" s="1"/>
+      <c r="T180" s="1"/>
       <c r="W180" s="1"/>
     </row>
     <row r="181" spans="1:23">
@@ -7042,7 +7160,8 @@
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
-      <c r="U181" s="1"/>
+      <c r="S181" s="1"/>
+      <c r="T181" s="1"/>
       <c r="W181" s="1"/>
     </row>
     <row r="182" spans="1:23">
@@ -7063,7 +7182,8 @@
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
-      <c r="U182" s="1"/>
+      <c r="S182" s="1"/>
+      <c r="T182" s="1"/>
       <c r="W182" s="1"/>
     </row>
     <row r="183" spans="1:23">
@@ -7084,7 +7204,8 @@
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
-      <c r="U183" s="1"/>
+      <c r="S183" s="1"/>
+      <c r="T183" s="1"/>
       <c r="W183" s="1"/>
     </row>
     <row r="184" spans="1:23">
@@ -7105,7 +7226,8 @@
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
-      <c r="U184" s="1"/>
+      <c r="S184" s="1"/>
+      <c r="T184" s="1"/>
       <c r="W184" s="1"/>
     </row>
     <row r="185" spans="1:23">
@@ -7126,7 +7248,8 @@
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
-      <c r="U185" s="1"/>
+      <c r="S185" s="1"/>
+      <c r="T185" s="1"/>
       <c r="W185" s="1"/>
     </row>
     <row r="186" spans="1:23">
@@ -7147,7 +7270,8 @@
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
-      <c r="U186" s="1"/>
+      <c r="S186" s="1"/>
+      <c r="T186" s="1"/>
       <c r="W186" s="1"/>
     </row>
     <row r="187" spans="1:23">
@@ -7168,7 +7292,8 @@
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
-      <c r="U187" s="1"/>
+      <c r="S187" s="1"/>
+      <c r="T187" s="1"/>
       <c r="W187" s="1"/>
     </row>
     <row r="188" spans="1:23">
@@ -7189,7 +7314,8 @@
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
-      <c r="U188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
       <c r="W188" s="1"/>
     </row>
     <row r="189" spans="1:23">
@@ -7210,7 +7336,8 @@
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
-      <c r="U189" s="1"/>
+      <c r="S189" s="1"/>
+      <c r="T189" s="1"/>
       <c r="W189" s="1"/>
     </row>
     <row r="190" spans="1:23">
@@ -7231,7 +7358,8 @@
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
-      <c r="U190" s="1"/>
+      <c r="S190" s="1"/>
+      <c r="T190" s="1"/>
       <c r="W190" s="1"/>
     </row>
     <row r="191" spans="1:23">
@@ -7252,7 +7380,8 @@
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
-      <c r="U191" s="1"/>
+      <c r="S191" s="1"/>
+      <c r="T191" s="1"/>
       <c r="W191" s="1"/>
     </row>
     <row r="192" spans="1:23">
@@ -7273,7 +7402,8 @@
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
-      <c r="U192" s="1"/>
+      <c r="S192" s="1"/>
+      <c r="T192" s="1"/>
       <c r="W192" s="1"/>
     </row>
     <row r="193" spans="1:23">
@@ -7294,7 +7424,8 @@
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
-      <c r="U193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
       <c r="W193" s="1"/>
     </row>
     <row r="194" spans="1:23">
@@ -7315,7 +7446,8 @@
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
-      <c r="U194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
       <c r="W194" s="1"/>
     </row>
     <row r="195" spans="1:23">
@@ -7336,7 +7468,8 @@
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
-      <c r="U195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="T195" s="1"/>
       <c r="W195" s="1"/>
     </row>
     <row r="196" spans="1:23">
@@ -7357,7 +7490,8 @@
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
-      <c r="U196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
       <c r="W196" s="1"/>
     </row>
     <row r="197" spans="1:23">
@@ -7378,7 +7512,8 @@
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
-      <c r="U197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
       <c r="W197" s="1"/>
     </row>
     <row r="198" spans="1:23">
@@ -7399,7 +7534,8 @@
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
-      <c r="U198" s="1"/>
+      <c r="S198" s="1"/>
+      <c r="T198" s="1"/>
       <c r="W198" s="1"/>
     </row>
     <row r="199" spans="1:23">
@@ -7420,7 +7556,8 @@
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
-      <c r="U199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="T199" s="1"/>
       <c r="W199" s="1"/>
     </row>
     <row r="200" spans="1:23">
@@ -7441,7 +7578,8 @@
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
-      <c r="U200" s="1"/>
+      <c r="S200" s="1"/>
+      <c r="T200" s="1"/>
       <c r="W200" s="1"/>
     </row>
     <row r="201" spans="1:23">
@@ -7462,7 +7600,8 @@
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
-      <c r="U201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
       <c r="W201" s="1"/>
     </row>
     <row r="202" spans="1:23">
@@ -7483,7 +7622,8 @@
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
-      <c r="U202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
       <c r="W202" s="1"/>
     </row>
     <row r="203" spans="1:23">
@@ -7504,7 +7644,8 @@
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
-      <c r="U203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
       <c r="W203" s="1"/>
     </row>
     <row r="204" spans="1:23">
@@ -7525,7 +7666,8 @@
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
-      <c r="U204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
       <c r="W204" s="1"/>
     </row>
     <row r="205" spans="1:23">
@@ -7546,7 +7688,8 @@
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
-      <c r="U205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
       <c r="W205" s="1"/>
     </row>
     <row r="206" spans="1:23">
@@ -7567,7 +7710,8 @@
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
-      <c r="U206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
       <c r="W206" s="1"/>
     </row>
     <row r="207" spans="1:23">
@@ -7588,7 +7732,8 @@
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
-      <c r="U207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
       <c r="W207" s="1"/>
     </row>
     <row r="208" spans="1:23">
@@ -7609,7 +7754,8 @@
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
-      <c r="U208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="T208" s="1"/>
       <c r="W208" s="1"/>
     </row>
     <row r="209" spans="1:23">
@@ -7630,7 +7776,8 @@
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
-      <c r="U209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
       <c r="W209" s="1"/>
     </row>
     <row r="210" spans="1:23">
@@ -7651,7 +7798,8 @@
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
-      <c r="U210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
       <c r="W210" s="1"/>
     </row>
     <row r="211" spans="1:23">
@@ -7672,7 +7820,8 @@
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
-      <c r="U211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
       <c r="W211" s="1"/>
     </row>
     <row r="212" spans="1:23">
@@ -7693,7 +7842,8 @@
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
-      <c r="U212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
       <c r="W212" s="1"/>
     </row>
     <row r="213" spans="1:23">
@@ -7714,7 +7864,8 @@
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
-      <c r="U213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
       <c r="W213" s="1"/>
     </row>
     <row r="214" spans="1:23">
@@ -7735,7 +7886,8 @@
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
-      <c r="U214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
       <c r="W214" s="1"/>
     </row>
     <row r="215" spans="1:23">
@@ -7756,7 +7908,8 @@
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
-      <c r="U215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
       <c r="W215" s="1"/>
     </row>
     <row r="216" spans="1:23">
@@ -7777,7 +7930,8 @@
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
-      <c r="U216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
       <c r="W216" s="1"/>
     </row>
     <row r="217" spans="1:23">
@@ -7798,7 +7952,8 @@
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
-      <c r="U217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
       <c r="W217" s="1"/>
     </row>
     <row r="218" spans="1:23">
@@ -7819,7 +7974,8 @@
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
       <c r="R218" s="1"/>
-      <c r="U218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
       <c r="W218" s="1"/>
     </row>
     <row r="219" spans="1:23">
@@ -7840,7 +7996,8 @@
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
-      <c r="U219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
       <c r="W219" s="1"/>
     </row>
     <row r="220" spans="1:23">
@@ -7861,7 +8018,8 @@
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
-      <c r="U220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
       <c r="W220" s="1"/>
     </row>
     <row r="221" spans="1:23">
@@ -7882,7 +8040,8 @@
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
-      <c r="U221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
       <c r="W221" s="1"/>
     </row>
     <row r="222" spans="1:23">
@@ -7903,7 +8062,8 @@
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
-      <c r="U222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
       <c r="W222" s="1"/>
     </row>
     <row r="223" spans="1:23">
@@ -7924,7 +8084,8 @@
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
-      <c r="U223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
       <c r="W223" s="1"/>
     </row>
     <row r="224" spans="1:23">
@@ -7945,7 +8106,8 @@
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
-      <c r="U224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
       <c r="W224" s="1"/>
     </row>
     <row r="225" spans="1:23">
@@ -7966,7 +8128,8 @@
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
       <c r="R225" s="1"/>
-      <c r="U225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
       <c r="W225" s="1"/>
     </row>
     <row r="226" spans="1:23">
@@ -7987,7 +8150,8 @@
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
       <c r="R226" s="1"/>
-      <c r="U226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
       <c r="W226" s="1"/>
     </row>
     <row r="227" spans="1:23">
@@ -8008,7 +8172,8 @@
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
-      <c r="U227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
       <c r="W227" s="1"/>
     </row>
     <row r="228" spans="1:23">
@@ -8029,7 +8194,8 @@
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
-      <c r="U228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="T228" s="1"/>
       <c r="W228" s="1"/>
     </row>
     <row r="229" spans="1:23">
@@ -8050,7 +8216,8 @@
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
       <c r="R229" s="1"/>
-      <c r="U229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
       <c r="W229" s="1"/>
     </row>
     <row r="230" spans="1:23">
@@ -8071,7 +8238,8 @@
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
       <c r="R230" s="1"/>
-      <c r="U230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
       <c r="W230" s="1"/>
     </row>
     <row r="231" spans="1:23">
@@ -8092,7 +8260,8 @@
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
-      <c r="U231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
       <c r="W231" s="1"/>
     </row>
     <row r="232" spans="1:23">
@@ -8113,7 +8282,8 @@
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
-      <c r="U232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
       <c r="W232" s="1"/>
     </row>
     <row r="233" spans="1:23">
@@ -8134,7 +8304,8 @@
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
       <c r="R233" s="1"/>
-      <c r="U233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
       <c r="W233" s="1"/>
     </row>
     <row r="234" spans="1:23">
@@ -8155,7 +8326,8 @@
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
       <c r="R234" s="1"/>
-      <c r="U234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
       <c r="W234" s="1"/>
     </row>
     <row r="235" spans="1:23">
@@ -8176,7 +8348,8 @@
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
-      <c r="U235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
       <c r="W235" s="1"/>
     </row>
     <row r="236" spans="1:23">
@@ -8197,7 +8370,8 @@
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
-      <c r="U236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="T236" s="1"/>
       <c r="W236" s="1"/>
     </row>
     <row r="237" spans="1:23">
@@ -8218,7 +8392,8 @@
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
-      <c r="U237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
       <c r="W237" s="1"/>
     </row>
     <row r="238" spans="1:23">
@@ -8239,7 +8414,8 @@
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
       <c r="R238" s="1"/>
-      <c r="U238" s="1"/>
+      <c r="S238" s="1"/>
+      <c r="T238" s="1"/>
       <c r="W238" s="1"/>
     </row>
     <row r="239" spans="1:23">
@@ -8260,7 +8436,8 @@
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
-      <c r="U239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="1"/>
       <c r="W239" s="1"/>
     </row>
     <row r="240" spans="1:23">
@@ -8281,7 +8458,8 @@
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
-      <c r="U240" s="1"/>
+      <c r="S240" s="1"/>
+      <c r="T240" s="1"/>
       <c r="W240" s="1"/>
     </row>
     <row r="241" spans="1:23">
@@ -8302,7 +8480,8 @@
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
       <c r="R241" s="1"/>
-      <c r="U241" s="1"/>
+      <c r="S241" s="1"/>
+      <c r="T241" s="1"/>
       <c r="W241" s="1"/>
     </row>
     <row r="242" spans="1:23">
@@ -8323,7 +8502,8 @@
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
       <c r="R242" s="1"/>
-      <c r="U242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="1"/>
       <c r="W242" s="1"/>
     </row>
     <row r="243" spans="1:23">
@@ -8344,7 +8524,8 @@
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
       <c r="R243" s="1"/>
-      <c r="U243" s="1"/>
+      <c r="S243" s="1"/>
+      <c r="T243" s="1"/>
       <c r="W243" s="1"/>
     </row>
     <row r="244" spans="1:23">
@@ -8365,7 +8546,8 @@
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
-      <c r="U244" s="1"/>
+      <c r="S244" s="1"/>
+      <c r="T244" s="1"/>
       <c r="W244" s="1"/>
     </row>
     <row r="245" spans="1:23">
@@ -8386,7 +8568,8 @@
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
       <c r="R245" s="1"/>
-      <c r="U245" s="1"/>
+      <c r="S245" s="1"/>
+      <c r="T245" s="1"/>
       <c r="W245" s="1"/>
     </row>
     <row r="246" spans="1:23">
@@ -8407,7 +8590,8 @@
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
       <c r="R246" s="1"/>
-      <c r="U246" s="1"/>
+      <c r="S246" s="1"/>
+      <c r="T246" s="1"/>
       <c r="W246" s="1"/>
     </row>
     <row r="247" spans="1:23">
@@ -8428,7 +8612,8 @@
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
-      <c r="U247" s="1"/>
+      <c r="S247" s="1"/>
+      <c r="T247" s="1"/>
       <c r="W247" s="1"/>
     </row>
     <row r="248" spans="1:23">
@@ -8449,7 +8634,8 @@
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
-      <c r="U248" s="1"/>
+      <c r="S248" s="1"/>
+      <c r="T248" s="1"/>
       <c r="W248" s="1"/>
     </row>
     <row r="249" spans="1:23">
@@ -8470,7 +8656,8 @@
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
       <c r="R249" s="1"/>
-      <c r="U249" s="1"/>
+      <c r="S249" s="1"/>
+      <c r="T249" s="1"/>
       <c r="W249" s="1"/>
     </row>
     <row r="250" spans="1:23">
@@ -8491,7 +8678,8 @@
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
       <c r="R250" s="1"/>
-      <c r="U250" s="1"/>
+      <c r="S250" s="1"/>
+      <c r="T250" s="1"/>
       <c r="W250" s="1"/>
     </row>
     <row r="251" spans="1:23">
@@ -8512,7 +8700,8 @@
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
       <c r="R251" s="1"/>
-      <c r="U251" s="1"/>
+      <c r="S251" s="1"/>
+      <c r="T251" s="1"/>
       <c r="W251" s="1"/>
     </row>
     <row r="252" spans="1:23">
@@ -8533,7 +8722,8 @@
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
       <c r="R252" s="1"/>
-      <c r="U252" s="1"/>
+      <c r="S252" s="1"/>
+      <c r="T252" s="1"/>
       <c r="W252" s="1"/>
     </row>
     <row r="253" spans="1:23">
@@ -8554,7 +8744,8 @@
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
       <c r="R253" s="1"/>
-      <c r="U253" s="1"/>
+      <c r="S253" s="1"/>
+      <c r="T253" s="1"/>
       <c r="W253" s="1"/>
     </row>
     <row r="254" spans="1:23">
@@ -8575,7 +8766,8 @@
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
       <c r="R254" s="1"/>
-      <c r="U254" s="1"/>
+      <c r="S254" s="1"/>
+      <c r="T254" s="1"/>
       <c r="W254" s="1"/>
     </row>
     <row r="255" spans="1:23">
@@ -8596,7 +8788,8 @@
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
       <c r="R255" s="1"/>
-      <c r="U255" s="1"/>
+      <c r="S255" s="1"/>
+      <c r="T255" s="1"/>
       <c r="W255" s="1"/>
     </row>
     <row r="256" spans="1:23">
@@ -8617,7 +8810,8 @@
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
       <c r="R256" s="1"/>
-      <c r="U256" s="1"/>
+      <c r="S256" s="1"/>
+      <c r="T256" s="1"/>
       <c r="W256" s="1"/>
     </row>
     <row r="257" spans="1:23">
@@ -8638,7 +8832,8 @@
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
       <c r="R257" s="1"/>
-      <c r="U257" s="1"/>
+      <c r="S257" s="1"/>
+      <c r="T257" s="1"/>
       <c r="W257" s="1"/>
     </row>
     <row r="258" spans="1:23">
@@ -8659,7 +8854,8 @@
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
       <c r="R258" s="1"/>
-      <c r="U258" s="1"/>
+      <c r="S258" s="1"/>
+      <c r="T258" s="1"/>
       <c r="W258" s="1"/>
     </row>
     <row r="259" spans="1:23">
@@ -8680,7 +8876,8 @@
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
       <c r="R259" s="1"/>
-      <c r="U259" s="1"/>
+      <c r="S259" s="1"/>
+      <c r="T259" s="1"/>
       <c r="W259" s="1"/>
     </row>
     <row r="260" spans="1:23">
@@ -8701,7 +8898,8 @@
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
       <c r="R260" s="1"/>
-      <c r="U260" s="1"/>
+      <c r="S260" s="1"/>
+      <c r="T260" s="1"/>
       <c r="W260" s="1"/>
     </row>
     <row r="261" spans="1:23">
@@ -8722,7 +8920,8 @@
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
       <c r="R261" s="1"/>
-      <c r="U261" s="1"/>
+      <c r="S261" s="1"/>
+      <c r="T261" s="1"/>
       <c r="W261" s="1"/>
     </row>
     <row r="262" spans="1:23">
@@ -8743,7 +8942,8 @@
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
       <c r="R262" s="1"/>
-      <c r="U262" s="1"/>
+      <c r="S262" s="1"/>
+      <c r="T262" s="1"/>
       <c r="W262" s="1"/>
     </row>
     <row r="263" spans="1:23">
@@ -8764,7 +8964,8 @@
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
-      <c r="U263" s="1"/>
+      <c r="S263" s="1"/>
+      <c r="T263" s="1"/>
       <c r="W263" s="1"/>
     </row>
     <row r="264" spans="1:23">
@@ -8785,7 +8986,8 @@
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
-      <c r="U264" s="1"/>
+      <c r="S264" s="1"/>
+      <c r="T264" s="1"/>
       <c r="W264" s="1"/>
     </row>
     <row r="265" spans="1:23">
@@ -8806,7 +9008,8 @@
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
       <c r="R265" s="1"/>
-      <c r="U265" s="1"/>
+      <c r="S265" s="1"/>
+      <c r="T265" s="1"/>
       <c r="W265" s="1"/>
     </row>
     <row r="266" spans="1:23">
@@ -8827,7 +9030,8 @@
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
       <c r="R266" s="1"/>
-      <c r="U266" s="1"/>
+      <c r="S266" s="1"/>
+      <c r="T266" s="1"/>
       <c r="W266" s="1"/>
     </row>
     <row r="267" spans="1:23">
@@ -8848,7 +9052,8 @@
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
       <c r="R267" s="1"/>
-      <c r="U267" s="1"/>
+      <c r="S267" s="1"/>
+      <c r="T267" s="1"/>
       <c r="W267" s="1"/>
     </row>
     <row r="268" spans="1:23">
@@ -8869,7 +9074,8 @@
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
       <c r="R268" s="1"/>
-      <c r="U268" s="1"/>
+      <c r="S268" s="1"/>
+      <c r="T268" s="1"/>
       <c r="W268" s="1"/>
     </row>
     <row r="269" spans="1:23">
@@ -8890,7 +9096,8 @@
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
       <c r="R269" s="1"/>
-      <c r="U269" s="1"/>
+      <c r="S269" s="1"/>
+      <c r="T269" s="1"/>
       <c r="W269" s="1"/>
     </row>
     <row r="270" spans="1:23">
@@ -8911,7 +9118,8 @@
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
       <c r="R270" s="1"/>
-      <c r="U270" s="1"/>
+      <c r="S270" s="1"/>
+      <c r="T270" s="1"/>
       <c r="W270" s="1"/>
     </row>
     <row r="271" spans="1:23">
@@ -8932,7 +9140,8 @@
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
       <c r="R271" s="1"/>
-      <c r="U271" s="1"/>
+      <c r="S271" s="1"/>
+      <c r="T271" s="1"/>
       <c r="W271" s="1"/>
     </row>
     <row r="272" spans="1:23">
@@ -8953,7 +9162,8 @@
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
       <c r="R272" s="1"/>
-      <c r="U272" s="1"/>
+      <c r="S272" s="1"/>
+      <c r="T272" s="1"/>
       <c r="W272" s="1"/>
     </row>
     <row r="273" spans="1:23">
@@ -8974,7 +9184,8 @@
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
       <c r="R273" s="1"/>
-      <c r="U273" s="1"/>
+      <c r="S273" s="1"/>
+      <c r="T273" s="1"/>
       <c r="W273" s="1"/>
     </row>
     <row r="274" spans="1:23">
@@ -8995,7 +9206,8 @@
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
       <c r="R274" s="1"/>
-      <c r="U274" s="1"/>
+      <c r="S274" s="1"/>
+      <c r="T274" s="1"/>
       <c r="W274" s="1"/>
     </row>
     <row r="275" spans="1:23">
@@ -9016,7 +9228,8 @@
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
       <c r="R275" s="1"/>
-      <c r="U275" s="1"/>
+      <c r="S275" s="1"/>
+      <c r="T275" s="1"/>
       <c r="W275" s="1"/>
     </row>
     <row r="276" spans="1:23">
@@ -9037,7 +9250,8 @@
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
       <c r="R276" s="1"/>
-      <c r="U276" s="1"/>
+      <c r="S276" s="1"/>
+      <c r="T276" s="1"/>
       <c r="W276" s="1"/>
     </row>
     <row r="277" spans="1:23">
@@ -9058,7 +9272,8 @@
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
       <c r="R277" s="1"/>
-      <c r="U277" s="1"/>
+      <c r="S277" s="1"/>
+      <c r="T277" s="1"/>
       <c r="W277" s="1"/>
     </row>
     <row r="278" spans="1:23">
@@ -9079,7 +9294,8 @@
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
       <c r="R278" s="1"/>
-      <c r="U278" s="1"/>
+      <c r="S278" s="1"/>
+      <c r="T278" s="1"/>
       <c r="W278" s="1"/>
     </row>
     <row r="279" spans="1:23">
@@ -9100,7 +9316,8 @@
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
       <c r="R279" s="1"/>
-      <c r="U279" s="1"/>
+      <c r="S279" s="1"/>
+      <c r="T279" s="1"/>
       <c r="W279" s="1"/>
     </row>
     <row r="280" spans="1:23">
@@ -9121,7 +9338,8 @@
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
       <c r="R280" s="1"/>
-      <c r="U280" s="1"/>
+      <c r="S280" s="1"/>
+      <c r="T280" s="1"/>
       <c r="W280" s="1"/>
     </row>
     <row r="281" spans="1:23">
@@ -9142,7 +9360,8 @@
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
       <c r="R281" s="1"/>
-      <c r="U281" s="1"/>
+      <c r="S281" s="1"/>
+      <c r="T281" s="1"/>
       <c r="W281" s="1"/>
     </row>
     <row r="282" spans="1:23">
@@ -9163,7 +9382,8 @@
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
       <c r="R282" s="1"/>
-      <c r="U282" s="1"/>
+      <c r="S282" s="1"/>
+      <c r="T282" s="1"/>
       <c r="W282" s="1"/>
     </row>
     <row r="283" spans="1:23">
@@ -9184,7 +9404,8 @@
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
       <c r="R283" s="1"/>
-      <c r="U283" s="1"/>
+      <c r="S283" s="1"/>
+      <c r="T283" s="1"/>
       <c r="W283" s="1"/>
     </row>
     <row r="284" spans="1:23">
@@ -9205,7 +9426,8 @@
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
       <c r="R284" s="1"/>
-      <c r="U284" s="1"/>
+      <c r="S284" s="1"/>
+      <c r="T284" s="1"/>
       <c r="W284" s="1"/>
     </row>
     <row r="285" spans="1:23">
@@ -9226,7 +9448,8 @@
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
       <c r="R285" s="1"/>
-      <c r="U285" s="1"/>
+      <c r="S285" s="1"/>
+      <c r="T285" s="1"/>
       <c r="W285" s="1"/>
     </row>
     <row r="286" spans="1:23">
@@ -9247,7 +9470,8 @@
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
       <c r="R286" s="1"/>
-      <c r="U286" s="1"/>
+      <c r="S286" s="1"/>
+      <c r="T286" s="1"/>
       <c r="W286" s="1"/>
     </row>
     <row r="287" spans="1:23">
@@ -9268,7 +9492,8 @@
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
       <c r="R287" s="1"/>
-      <c r="U287" s="1"/>
+      <c r="S287" s="1"/>
+      <c r="T287" s="1"/>
       <c r="W287" s="1"/>
     </row>
     <row r="288" spans="1:23">
@@ -9289,7 +9514,8 @@
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
       <c r="R288" s="1"/>
-      <c r="U288" s="1"/>
+      <c r="S288" s="1"/>
+      <c r="T288" s="1"/>
       <c r="W288" s="1"/>
     </row>
     <row r="289" spans="1:23">
@@ -9310,7 +9536,8 @@
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
-      <c r="U289" s="1"/>
+      <c r="S289" s="1"/>
+      <c r="T289" s="1"/>
       <c r="W289" s="1"/>
     </row>
     <row r="290" spans="1:23">
@@ -9331,7 +9558,8 @@
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
       <c r="R290" s="1"/>
-      <c r="U290" s="1"/>
+      <c r="S290" s="1"/>
+      <c r="T290" s="1"/>
       <c r="W290" s="1"/>
     </row>
     <row r="291" spans="1:23">
@@ -9352,7 +9580,8 @@
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
       <c r="R291" s="1"/>
-      <c r="U291" s="1"/>
+      <c r="S291" s="1"/>
+      <c r="T291" s="1"/>
       <c r="W291" s="1"/>
     </row>
     <row r="292" spans="1:23">
@@ -9373,7 +9602,8 @@
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
-      <c r="U292" s="1"/>
+      <c r="S292" s="1"/>
+      <c r="T292" s="1"/>
       <c r="W292" s="1"/>
     </row>
     <row r="293" spans="1:23">
@@ -9394,7 +9624,8 @@
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
-      <c r="U293" s="1"/>
+      <c r="S293" s="1"/>
+      <c r="T293" s="1"/>
       <c r="W293" s="1"/>
     </row>
     <row r="294" spans="1:23">
@@ -9415,7 +9646,8 @@
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
-      <c r="U294" s="1"/>
+      <c r="S294" s="1"/>
+      <c r="T294" s="1"/>
       <c r="W294" s="1"/>
     </row>
     <row r="295" spans="1:23">
@@ -9436,7 +9668,8 @@
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
-      <c r="U295" s="1"/>
+      <c r="S295" s="1"/>
+      <c r="T295" s="1"/>
       <c r="W295" s="1"/>
     </row>
     <row r="296" spans="1:23">
@@ -9457,7 +9690,8 @@
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
       <c r="R296" s="1"/>
-      <c r="U296" s="1"/>
+      <c r="S296" s="1"/>
+      <c r="T296" s="1"/>
       <c r="W296" s="1"/>
     </row>
     <row r="297" spans="1:23">
@@ -9478,7 +9712,8 @@
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
       <c r="R297" s="1"/>
-      <c r="U297" s="1"/>
+      <c r="S297" s="1"/>
+      <c r="T297" s="1"/>
       <c r="W297" s="1"/>
     </row>
     <row r="298" spans="1:23">
@@ -9499,7 +9734,8 @@
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
       <c r="R298" s="1"/>
-      <c r="U298" s="1"/>
+      <c r="S298" s="1"/>
+      <c r="T298" s="1"/>
       <c r="W298" s="1"/>
     </row>
     <row r="299" spans="1:23">
@@ -9520,7 +9756,8 @@
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
       <c r="R299" s="1"/>
-      <c r="U299" s="1"/>
+      <c r="S299" s="1"/>
+      <c r="T299" s="1"/>
       <c r="W299" s="1"/>
     </row>
     <row r="300" spans="1:23">
@@ -9541,7 +9778,8 @@
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
       <c r="R300" s="1"/>
-      <c r="U300" s="1"/>
+      <c r="S300" s="1"/>
+      <c r="T300" s="1"/>
       <c r="W300" s="1"/>
     </row>
     <row r="301" spans="1:23">
@@ -9562,7 +9800,8 @@
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
-      <c r="U301" s="1"/>
+      <c r="S301" s="1"/>
+      <c r="T301" s="1"/>
       <c r="W301" s="1"/>
     </row>
     <row r="302" spans="1:23">
@@ -9583,7 +9822,8 @@
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
       <c r="R302" s="1"/>
-      <c r="U302" s="1"/>
+      <c r="S302" s="1"/>
+      <c r="T302" s="1"/>
       <c r="W302" s="1"/>
     </row>
     <row r="303" spans="1:23">
@@ -9604,7 +9844,8 @@
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
       <c r="R303" s="1"/>
-      <c r="U303" s="1"/>
+      <c r="S303" s="1"/>
+      <c r="T303" s="1"/>
       <c r="W303" s="1"/>
     </row>
     <row r="304" spans="1:23">
@@ -9625,7 +9866,8 @@
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
       <c r="R304" s="1"/>
-      <c r="U304" s="1"/>
+      <c r="S304" s="1"/>
+      <c r="T304" s="1"/>
       <c r="W304" s="1"/>
     </row>
     <row r="305" spans="1:23">
@@ -9646,7 +9888,8 @@
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
       <c r="R305" s="1"/>
-      <c r="U305" s="1"/>
+      <c r="S305" s="1"/>
+      <c r="T305" s="1"/>
       <c r="W305" s="1"/>
     </row>
     <row r="306" spans="1:23">
@@ -9667,7 +9910,8 @@
       <c r="P306" s="1"/>
       <c r="Q306" s="1"/>
       <c r="R306" s="1"/>
-      <c r="U306" s="1"/>
+      <c r="S306" s="1"/>
+      <c r="T306" s="1"/>
       <c r="W306" s="1"/>
     </row>
     <row r="307" spans="1:23">
@@ -9688,7 +9932,8 @@
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
       <c r="R307" s="1"/>
-      <c r="U307" s="1"/>
+      <c r="S307" s="1"/>
+      <c r="T307" s="1"/>
       <c r="W307" s="1"/>
     </row>
     <row r="308" spans="1:23">
@@ -9709,7 +9954,8 @@
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
       <c r="R308" s="1"/>
-      <c r="U308" s="1"/>
+      <c r="S308" s="1"/>
+      <c r="T308" s="1"/>
       <c r="W308" s="1"/>
     </row>
     <row r="309" spans="1:23">
@@ -9730,7 +9976,8 @@
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
       <c r="R309" s="1"/>
-      <c r="U309" s="1"/>
+      <c r="S309" s="1"/>
+      <c r="T309" s="1"/>
       <c r="W309" s="1"/>
     </row>
     <row r="310" spans="1:23">
@@ -9751,7 +9998,8 @@
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
       <c r="R310" s="1"/>
-      <c r="U310" s="1"/>
+      <c r="S310" s="1"/>
+      <c r="T310" s="1"/>
       <c r="W310" s="1"/>
     </row>
     <row r="311" spans="1:23">
@@ -9772,7 +10020,8 @@
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
       <c r="R311" s="1"/>
-      <c r="U311" s="1"/>
+      <c r="S311" s="1"/>
+      <c r="T311" s="1"/>
       <c r="W311" s="1"/>
     </row>
     <row r="312" spans="1:23">
@@ -9793,7 +10042,8 @@
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
       <c r="R312" s="1"/>
-      <c r="U312" s="1"/>
+      <c r="S312" s="1"/>
+      <c r="T312" s="1"/>
       <c r="W312" s="1"/>
     </row>
     <row r="313" spans="1:23">
@@ -9814,7 +10064,8 @@
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
       <c r="R313" s="1"/>
-      <c r="U313" s="1"/>
+      <c r="S313" s="1"/>
+      <c r="T313" s="1"/>
       <c r="W313" s="1"/>
     </row>
     <row r="314" spans="1:23">
@@ -9835,7 +10086,8 @@
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
       <c r="R314" s="1"/>
-      <c r="U314" s="1"/>
+      <c r="S314" s="1"/>
+      <c r="T314" s="1"/>
       <c r="W314" s="1"/>
     </row>
     <row r="315" spans="1:23">
@@ -9856,7 +10108,8 @@
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
       <c r="R315" s="1"/>
-      <c r="U315" s="1"/>
+      <c r="S315" s="1"/>
+      <c r="T315" s="1"/>
       <c r="W315" s="1"/>
     </row>
     <row r="316" spans="1:23">
@@ -9877,7 +10130,8 @@
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
       <c r="R316" s="1"/>
-      <c r="U316" s="1"/>
+      <c r="S316" s="1"/>
+      <c r="T316" s="1"/>
       <c r="W316" s="1"/>
     </row>
     <row r="317" spans="1:23">
@@ -9898,7 +10152,8 @@
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
       <c r="R317" s="1"/>
-      <c r="U317" s="1"/>
+      <c r="S317" s="1"/>
+      <c r="T317" s="1"/>
       <c r="W317" s="1"/>
     </row>
     <row r="318" spans="1:23">
@@ -9919,7 +10174,8 @@
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
       <c r="R318" s="1"/>
-      <c r="U318" s="1"/>
+      <c r="S318" s="1"/>
+      <c r="T318" s="1"/>
       <c r="W318" s="1"/>
     </row>
     <row r="319" spans="1:23">
@@ -9940,7 +10196,8 @@
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
       <c r="R319" s="1"/>
-      <c r="U319" s="1"/>
+      <c r="S319" s="1"/>
+      <c r="T319" s="1"/>
       <c r="W319" s="1"/>
     </row>
     <row r="320" spans="1:23">
@@ -9961,7 +10218,8 @@
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
       <c r="R320" s="1"/>
-      <c r="U320" s="1"/>
+      <c r="S320" s="1"/>
+      <c r="T320" s="1"/>
       <c r="W320" s="1"/>
     </row>
     <row r="321" spans="1:23">
@@ -9982,7 +10240,8 @@
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
       <c r="R321" s="1"/>
-      <c r="U321" s="1"/>
+      <c r="S321" s="1"/>
+      <c r="T321" s="1"/>
       <c r="W321" s="1"/>
     </row>
     <row r="322" spans="1:23">
@@ -10003,7 +10262,8 @@
       <c r="P322" s="1"/>
       <c r="Q322" s="1"/>
       <c r="R322" s="1"/>
-      <c r="U322" s="1"/>
+      <c r="S322" s="1"/>
+      <c r="T322" s="1"/>
       <c r="W322" s="1"/>
     </row>
     <row r="323" spans="1:23">
@@ -10024,7 +10284,8 @@
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
       <c r="R323" s="1"/>
-      <c r="U323" s="1"/>
+      <c r="S323" s="1"/>
+      <c r="T323" s="1"/>
       <c r="W323" s="1"/>
     </row>
     <row r="324" spans="1:23">
@@ -10045,7 +10306,8 @@
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
-      <c r="U324" s="1"/>
+      <c r="S324" s="1"/>
+      <c r="T324" s="1"/>
       <c r="W324" s="1"/>
     </row>
     <row r="325" spans="1:23">
@@ -10066,7 +10328,8 @@
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
-      <c r="U325" s="1"/>
+      <c r="S325" s="1"/>
+      <c r="T325" s="1"/>
       <c r="W325" s="1"/>
     </row>
     <row r="326" spans="1:23">
@@ -10087,7 +10350,8 @@
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
       <c r="R326" s="1"/>
-      <c r="U326" s="1"/>
+      <c r="S326" s="1"/>
+      <c r="T326" s="1"/>
       <c r="W326" s="1"/>
     </row>
     <row r="327" spans="1:23">
@@ -10108,7 +10372,8 @@
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
       <c r="R327" s="1"/>
-      <c r="U327" s="1"/>
+      <c r="S327" s="1"/>
+      <c r="T327" s="1"/>
       <c r="W327" s="1"/>
     </row>
     <row r="328" spans="1:23">
@@ -10129,7 +10394,8 @@
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
       <c r="R328" s="1"/>
-      <c r="U328" s="1"/>
+      <c r="S328" s="1"/>
+      <c r="T328" s="1"/>
       <c r="W328" s="1"/>
     </row>
     <row r="329" spans="1:23">
@@ -10150,7 +10416,8 @@
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
       <c r="R329" s="1"/>
-      <c r="U329" s="1"/>
+      <c r="S329" s="1"/>
+      <c r="T329" s="1"/>
       <c r="W329" s="1"/>
     </row>
     <row r="330" spans="1:23">
@@ -10171,7 +10438,8 @@
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
       <c r="R330" s="1"/>
-      <c r="U330" s="1"/>
+      <c r="S330" s="1"/>
+      <c r="T330" s="1"/>
       <c r="W330" s="1"/>
     </row>
     <row r="331" spans="1:23">
@@ -10192,7 +10460,8 @@
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
       <c r="R331" s="1"/>
-      <c r="U331" s="1"/>
+      <c r="S331" s="1"/>
+      <c r="T331" s="1"/>
       <c r="W331" s="1"/>
     </row>
     <row r="332" spans="1:23">
@@ -10213,7 +10482,8 @@
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
-      <c r="U332" s="1"/>
+      <c r="S332" s="1"/>
+      <c r="T332" s="1"/>
       <c r="W332" s="1"/>
     </row>
     <row r="333" spans="1:23">
@@ -10234,7 +10504,8 @@
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
       <c r="R333" s="1"/>
-      <c r="U333" s="1"/>
+      <c r="S333" s="1"/>
+      <c r="T333" s="1"/>
       <c r="W333" s="1"/>
     </row>
     <row r="334" spans="1:23">
@@ -10255,7 +10526,8 @@
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
       <c r="R334" s="1"/>
-      <c r="U334" s="1"/>
+      <c r="S334" s="1"/>
+      <c r="T334" s="1"/>
       <c r="W334" s="1"/>
     </row>
     <row r="335" spans="1:23">
@@ -10276,7 +10548,8 @@
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
       <c r="R335" s="1"/>
-      <c r="U335" s="1"/>
+      <c r="S335" s="1"/>
+      <c r="T335" s="1"/>
       <c r="W335" s="1"/>
     </row>
     <row r="336" spans="1:23">
@@ -10297,7 +10570,8 @@
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
       <c r="R336" s="1"/>
-      <c r="U336" s="1"/>
+      <c r="S336" s="1"/>
+      <c r="T336" s="1"/>
       <c r="W336" s="1"/>
     </row>
     <row r="337" spans="1:23">
@@ -10318,7 +10592,8 @@
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
       <c r="R337" s="1"/>
-      <c r="U337" s="1"/>
+      <c r="S337" s="1"/>
+      <c r="T337" s="1"/>
       <c r="W337" s="1"/>
     </row>
     <row r="338" spans="1:23">
@@ -10339,7 +10614,8 @@
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
       <c r="R338" s="1"/>
-      <c r="U338" s="1"/>
+      <c r="S338" s="1"/>
+      <c r="T338" s="1"/>
       <c r="W338" s="1"/>
     </row>
     <row r="339" spans="1:23">
@@ -10360,7 +10636,8 @@
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
       <c r="R339" s="1"/>
-      <c r="U339" s="1"/>
+      <c r="S339" s="1"/>
+      <c r="T339" s="1"/>
       <c r="W339" s="1"/>
     </row>
     <row r="340" spans="1:23">
@@ -10381,7 +10658,8 @@
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
       <c r="R340" s="1"/>
-      <c r="U340" s="1"/>
+      <c r="S340" s="1"/>
+      <c r="T340" s="1"/>
       <c r="W340" s="1"/>
     </row>
     <row r="341" spans="1:23">
@@ -10402,7 +10680,8 @@
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
       <c r="R341" s="1"/>
-      <c r="U341" s="1"/>
+      <c r="S341" s="1"/>
+      <c r="T341" s="1"/>
       <c r="W341" s="1"/>
     </row>
     <row r="342" spans="1:23">
@@ -10423,7 +10702,8 @@
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
-      <c r="U342" s="1"/>
+      <c r="S342" s="1"/>
+      <c r="T342" s="1"/>
       <c r="W342" s="1"/>
     </row>
     <row r="343" spans="1:23">
@@ -10444,7 +10724,8 @@
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
-      <c r="U343" s="1"/>
+      <c r="S343" s="1"/>
+      <c r="T343" s="1"/>
       <c r="W343" s="1"/>
     </row>
     <row r="344" spans="1:23">
@@ -10465,7 +10746,8 @@
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
-      <c r="U344" s="1"/>
+      <c r="S344" s="1"/>
+      <c r="T344" s="1"/>
       <c r="W344" s="1"/>
     </row>
     <row r="345" spans="1:23">
@@ -10486,7 +10768,8 @@
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
-      <c r="U345" s="1"/>
+      <c r="S345" s="1"/>
+      <c r="T345" s="1"/>
       <c r="W345" s="1"/>
     </row>
     <row r="346" spans="1:23">
@@ -10507,7 +10790,8 @@
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
       <c r="R346" s="1"/>
-      <c r="U346" s="1"/>
+      <c r="S346" s="1"/>
+      <c r="T346" s="1"/>
       <c r="W346" s="1"/>
     </row>
     <row r="347" spans="1:23">
@@ -10528,7 +10812,8 @@
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
-      <c r="U347" s="1"/>
+      <c r="S347" s="1"/>
+      <c r="T347" s="1"/>
       <c r="W347" s="1"/>
     </row>
     <row r="348" spans="1:23">
@@ -10549,7 +10834,8 @@
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
-      <c r="U348" s="1"/>
+      <c r="S348" s="1"/>
+      <c r="T348" s="1"/>
       <c r="W348" s="1"/>
     </row>
     <row r="349" spans="1:23">
@@ -10570,7 +10856,8 @@
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
-      <c r="U349" s="1"/>
+      <c r="S349" s="1"/>
+      <c r="T349" s="1"/>
       <c r="W349" s="1"/>
     </row>
     <row r="350" spans="1:23">
@@ -10591,7 +10878,8 @@
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
-      <c r="U350" s="1"/>
+      <c r="S350" s="1"/>
+      <c r="T350" s="1"/>
       <c r="W350" s="1"/>
     </row>
     <row r="351" spans="1:23">
@@ -10612,7 +10900,8 @@
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
       <c r="R351" s="1"/>
-      <c r="U351" s="1"/>
+      <c r="S351" s="1"/>
+      <c r="T351" s="1"/>
       <c r="W351" s="1"/>
     </row>
     <row r="352" spans="1:23">
@@ -10633,7 +10922,8 @@
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
-      <c r="U352" s="1"/>
+      <c r="S352" s="1"/>
+      <c r="T352" s="1"/>
       <c r="W352" s="1"/>
     </row>
     <row r="353" spans="1:23">
@@ -10654,7 +10944,8 @@
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
-      <c r="U353" s="1"/>
+      <c r="S353" s="1"/>
+      <c r="T353" s="1"/>
       <c r="W353" s="1"/>
     </row>
     <row r="354" spans="1:23">
@@ -10675,7 +10966,8 @@
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
-      <c r="U354" s="1"/>
+      <c r="S354" s="1"/>
+      <c r="T354" s="1"/>
       <c r="W354" s="1"/>
     </row>
     <row r="355" spans="1:23">
@@ -10696,7 +10988,8 @@
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
-      <c r="U355" s="1"/>
+      <c r="S355" s="1"/>
+      <c r="T355" s="1"/>
       <c r="W355" s="1"/>
     </row>
     <row r="356" spans="1:23">
@@ -10717,7 +11010,8 @@
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
-      <c r="U356" s="1"/>
+      <c r="S356" s="1"/>
+      <c r="T356" s="1"/>
       <c r="W356" s="1"/>
     </row>
     <row r="357" spans="1:23">
@@ -10738,7 +11032,8 @@
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
-      <c r="U357" s="1"/>
+      <c r="S357" s="1"/>
+      <c r="T357" s="1"/>
       <c r="W357" s="1"/>
     </row>
     <row r="358" spans="1:23">
@@ -10759,7 +11054,8 @@
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
-      <c r="U358" s="1"/>
+      <c r="S358" s="1"/>
+      <c r="T358" s="1"/>
       <c r="W358" s="1"/>
     </row>
     <row r="359" spans="1:23">
@@ -10780,7 +11076,8 @@
       <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
-      <c r="U359" s="1"/>
+      <c r="S359" s="1"/>
+      <c r="T359" s="1"/>
       <c r="W359" s="1"/>
     </row>
     <row r="360" spans="1:23">
@@ -10801,7 +11098,8 @@
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
-      <c r="U360" s="1"/>
+      <c r="S360" s="1"/>
+      <c r="T360" s="1"/>
       <c r="W360" s="1"/>
     </row>
     <row r="361" spans="1:23">
@@ -10822,7 +11120,8 @@
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
-      <c r="U361" s="1"/>
+      <c r="S361" s="1"/>
+      <c r="T361" s="1"/>
       <c r="W361" s="1"/>
     </row>
     <row r="362" spans="1:23">
@@ -10843,7 +11142,8 @@
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
-      <c r="U362" s="1"/>
+      <c r="S362" s="1"/>
+      <c r="T362" s="1"/>
       <c r="W362" s="1"/>
     </row>
     <row r="363" spans="1:23">
@@ -10864,7 +11164,8 @@
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
-      <c r="U363" s="1"/>
+      <c r="S363" s="1"/>
+      <c r="T363" s="1"/>
       <c r="W363" s="1"/>
     </row>
     <row r="364" spans="1:23">
@@ -10885,7 +11186,8 @@
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
-      <c r="U364" s="1"/>
+      <c r="S364" s="1"/>
+      <c r="T364" s="1"/>
       <c r="W364" s="1"/>
     </row>
     <row r="365" spans="1:23">
@@ -10906,7 +11208,8 @@
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
-      <c r="U365" s="1"/>
+      <c r="S365" s="1"/>
+      <c r="T365" s="1"/>
       <c r="W365" s="1"/>
     </row>
     <row r="366" spans="1:23">
@@ -10927,7 +11230,8 @@
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
-      <c r="U366" s="1"/>
+      <c r="S366" s="1"/>
+      <c r="T366" s="1"/>
       <c r="W366" s="1"/>
     </row>
     <row r="367" spans="1:23">
@@ -10948,7 +11252,8 @@
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
-      <c r="U367" s="1"/>
+      <c r="S367" s="1"/>
+      <c r="T367" s="1"/>
       <c r="W367" s="1"/>
     </row>
     <row r="368" spans="1:23">
@@ -10969,7 +11274,8 @@
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
       <c r="R368" s="1"/>
-      <c r="U368" s="1"/>
+      <c r="S368" s="1"/>
+      <c r="T368" s="1"/>
       <c r="W368" s="1"/>
     </row>
     <row r="369" spans="1:23">
@@ -10990,7 +11296,8 @@
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
       <c r="R369" s="1"/>
-      <c r="U369" s="1"/>
+      <c r="S369" s="1"/>
+      <c r="T369" s="1"/>
       <c r="W369" s="1"/>
     </row>
     <row r="370" spans="1:23">
@@ -11011,7 +11318,8 @@
       <c r="P370" s="1"/>
       <c r="Q370" s="1"/>
       <c r="R370" s="1"/>
-      <c r="U370" s="1"/>
+      <c r="S370" s="1"/>
+      <c r="T370" s="1"/>
       <c r="W370" s="1"/>
     </row>
     <row r="371" spans="1:23">
@@ -11032,7 +11340,8 @@
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
-      <c r="U371" s="1"/>
+      <c r="S371" s="1"/>
+      <c r="T371" s="1"/>
       <c r="W371" s="1"/>
     </row>
     <row r="372" spans="1:23">
@@ -11053,7 +11362,8 @@
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
-      <c r="U372" s="1"/>
+      <c r="S372" s="1"/>
+      <c r="T372" s="1"/>
       <c r="W372" s="1"/>
     </row>
     <row r="373" spans="1:23">
@@ -11074,7 +11384,8 @@
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
-      <c r="U373" s="1"/>
+      <c r="S373" s="1"/>
+      <c r="T373" s="1"/>
       <c r="W373" s="1"/>
     </row>
     <row r="374" spans="1:23">
@@ -11095,7 +11406,8 @@
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
-      <c r="U374" s="1"/>
+      <c r="S374" s="1"/>
+      <c r="T374" s="1"/>
       <c r="W374" s="1"/>
     </row>
     <row r="375" spans="1:23">
@@ -11116,7 +11428,8 @@
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
       <c r="R375" s="1"/>
-      <c r="U375" s="1"/>
+      <c r="S375" s="1"/>
+      <c r="T375" s="1"/>
       <c r="W375" s="1"/>
     </row>
     <row r="376" spans="1:23">
@@ -11137,7 +11450,8 @@
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
-      <c r="U376" s="1"/>
+      <c r="S376" s="1"/>
+      <c r="T376" s="1"/>
       <c r="W376" s="1"/>
     </row>
     <row r="377" spans="1:23">
@@ -11158,7 +11472,8 @@
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
       <c r="R377" s="1"/>
-      <c r="U377" s="1"/>
+      <c r="S377" s="1"/>
+      <c r="T377" s="1"/>
       <c r="W377" s="1"/>
     </row>
     <row r="378" spans="1:23">
@@ -11179,7 +11494,8 @@
       <c r="P378" s="1"/>
       <c r="Q378" s="1"/>
       <c r="R378" s="1"/>
-      <c r="U378" s="1"/>
+      <c r="S378" s="1"/>
+      <c r="T378" s="1"/>
       <c r="W378" s="1"/>
     </row>
     <row r="379" spans="1:23">
@@ -11200,7 +11516,8 @@
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
       <c r="R379" s="1"/>
-      <c r="U379" s="1"/>
+      <c r="S379" s="1"/>
+      <c r="T379" s="1"/>
       <c r="W379" s="1"/>
     </row>
     <row r="380" spans="1:23">
@@ -11221,7 +11538,8 @@
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
-      <c r="U380" s="1"/>
+      <c r="S380" s="1"/>
+      <c r="T380" s="1"/>
       <c r="W380" s="1"/>
     </row>
     <row r="381" spans="1:23">
@@ -11242,7 +11560,8 @@
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
-      <c r="U381" s="1"/>
+      <c r="S381" s="1"/>
+      <c r="T381" s="1"/>
       <c r="W381" s="1"/>
     </row>
     <row r="382" spans="1:23">
@@ -11263,7 +11582,8 @@
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
-      <c r="U382" s="1"/>
+      <c r="S382" s="1"/>
+      <c r="T382" s="1"/>
       <c r="W382" s="1"/>
     </row>
     <row r="383" spans="1:23">
@@ -11284,7 +11604,8 @@
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
       <c r="R383" s="1"/>
-      <c r="U383" s="1"/>
+      <c r="S383" s="1"/>
+      <c r="T383" s="1"/>
       <c r="W383" s="1"/>
     </row>
     <row r="384" spans="1:23">
@@ -11305,7 +11626,8 @@
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
-      <c r="U384" s="1"/>
+      <c r="S384" s="1"/>
+      <c r="T384" s="1"/>
       <c r="W384" s="1"/>
     </row>
     <row r="385" spans="1:23">
@@ -11326,7 +11648,8 @@
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
       <c r="R385" s="1"/>
-      <c r="U385" s="1"/>
+      <c r="S385" s="1"/>
+      <c r="T385" s="1"/>
       <c r="W385" s="1"/>
     </row>
     <row r="386" spans="1:23">
@@ -11347,7 +11670,8 @@
       <c r="P386" s="1"/>
       <c r="Q386" s="1"/>
       <c r="R386" s="1"/>
-      <c r="U386" s="1"/>
+      <c r="S386" s="1"/>
+      <c r="T386" s="1"/>
       <c r="W386" s="1"/>
     </row>
     <row r="387" spans="1:23">
@@ -11368,7 +11692,8 @@
       <c r="P387" s="1"/>
       <c r="Q387" s="1"/>
       <c r="R387" s="1"/>
-      <c r="U387" s="1"/>
+      <c r="S387" s="1"/>
+      <c r="T387" s="1"/>
       <c r="W387" s="1"/>
     </row>
     <row r="388" spans="1:23">
@@ -11389,7 +11714,8 @@
       <c r="P388" s="1"/>
       <c r="Q388" s="1"/>
       <c r="R388" s="1"/>
-      <c r="U388" s="1"/>
+      <c r="S388" s="1"/>
+      <c r="T388" s="1"/>
       <c r="W388" s="1"/>
     </row>
     <row r="389" spans="1:23">
@@ -11410,7 +11736,8 @@
       <c r="P389" s="1"/>
       <c r="Q389" s="1"/>
       <c r="R389" s="1"/>
-      <c r="U389" s="1"/>
+      <c r="S389" s="1"/>
+      <c r="T389" s="1"/>
       <c r="W389" s="1"/>
     </row>
     <row r="390" spans="1:23">
@@ -11431,7 +11758,8 @@
       <c r="P390" s="1"/>
       <c r="Q390" s="1"/>
       <c r="R390" s="1"/>
-      <c r="U390" s="1"/>
+      <c r="S390" s="1"/>
+      <c r="T390" s="1"/>
       <c r="W390" s="1"/>
     </row>
     <row r="391" spans="1:23">
@@ -11452,7 +11780,8 @@
       <c r="P391" s="1"/>
       <c r="Q391" s="1"/>
       <c r="R391" s="1"/>
-      <c r="U391" s="1"/>
+      <c r="S391" s="1"/>
+      <c r="T391" s="1"/>
       <c r="W391" s="1"/>
     </row>
     <row r="392" spans="1:23">
@@ -11473,7 +11802,8 @@
       <c r="P392" s="1"/>
       <c r="Q392" s="1"/>
       <c r="R392" s="1"/>
-      <c r="U392" s="1"/>
+      <c r="S392" s="1"/>
+      <c r="T392" s="1"/>
       <c r="W392" s="1"/>
     </row>
     <row r="393" spans="1:23">
@@ -11494,7 +11824,8 @@
       <c r="P393" s="1"/>
       <c r="Q393" s="1"/>
       <c r="R393" s="1"/>
-      <c r="U393" s="1"/>
+      <c r="S393" s="1"/>
+      <c r="T393" s="1"/>
       <c r="W393" s="1"/>
     </row>
     <row r="394" spans="1:23">
@@ -11515,7 +11846,8 @@
       <c r="P394" s="1"/>
       <c r="Q394" s="1"/>
       <c r="R394" s="1"/>
-      <c r="U394" s="1"/>
+      <c r="S394" s="1"/>
+      <c r="T394" s="1"/>
       <c r="W394" s="1"/>
     </row>
     <row r="395" spans="1:23">
@@ -11536,7 +11868,8 @@
       <c r="P395" s="1"/>
       <c r="Q395" s="1"/>
       <c r="R395" s="1"/>
-      <c r="U395" s="1"/>
+      <c r="S395" s="1"/>
+      <c r="T395" s="1"/>
       <c r="W395" s="1"/>
     </row>
     <row r="396" spans="1:23">
@@ -11557,7 +11890,8 @@
       <c r="P396" s="1"/>
       <c r="Q396" s="1"/>
       <c r="R396" s="1"/>
-      <c r="U396" s="1"/>
+      <c r="S396" s="1"/>
+      <c r="T396" s="1"/>
       <c r="W396" s="1"/>
     </row>
     <row r="397" spans="1:23">
@@ -11578,7 +11912,8 @@
       <c r="P397" s="1"/>
       <c r="Q397" s="1"/>
       <c r="R397" s="1"/>
-      <c r="U397" s="1"/>
+      <c r="S397" s="1"/>
+      <c r="T397" s="1"/>
       <c r="W397" s="1"/>
     </row>
     <row r="398" spans="1:23">
@@ -11599,7 +11934,8 @@
       <c r="P398" s="1"/>
       <c r="Q398" s="1"/>
       <c r="R398" s="1"/>
-      <c r="U398" s="1"/>
+      <c r="S398" s="1"/>
+      <c r="T398" s="1"/>
       <c r="W398" s="1"/>
     </row>
     <row r="399" spans="1:23">
@@ -11620,7 +11956,8 @@
       <c r="P399" s="1"/>
       <c r="Q399" s="1"/>
       <c r="R399" s="1"/>
-      <c r="U399" s="1"/>
+      <c r="S399" s="1"/>
+      <c r="T399" s="1"/>
       <c r="W399" s="1"/>
     </row>
     <row r="400" spans="1:23">
@@ -11641,7 +11978,8 @@
       <c r="P400" s="1"/>
       <c r="Q400" s="1"/>
       <c r="R400" s="1"/>
-      <c r="U400" s="1"/>
+      <c r="S400" s="1"/>
+      <c r="T400" s="1"/>
       <c r="W400" s="1"/>
     </row>
     <row r="401" spans="1:23">
@@ -11662,7 +12000,8 @@
       <c r="P401" s="1"/>
       <c r="Q401" s="1"/>
       <c r="R401" s="1"/>
-      <c r="U401" s="1"/>
+      <c r="S401" s="1"/>
+      <c r="T401" s="1"/>
       <c r="W401" s="1"/>
     </row>
     <row r="402" spans="1:23">
@@ -11683,7 +12022,8 @@
       <c r="P402" s="1"/>
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
-      <c r="U402" s="1"/>
+      <c r="S402" s="1"/>
+      <c r="T402" s="1"/>
       <c r="W402" s="1"/>
     </row>
     <row r="403" spans="1:23">
@@ -11704,7 +12044,8 @@
       <c r="P403" s="1"/>
       <c r="Q403" s="1"/>
       <c r="R403" s="1"/>
-      <c r="U403" s="1"/>
+      <c r="S403" s="1"/>
+      <c r="T403" s="1"/>
       <c r="W403" s="1"/>
     </row>
     <row r="404" spans="1:23">
@@ -11725,7 +12066,8 @@
       <c r="P404" s="1"/>
       <c r="Q404" s="1"/>
       <c r="R404" s="1"/>
-      <c r="U404" s="1"/>
+      <c r="S404" s="1"/>
+      <c r="T404" s="1"/>
       <c r="W404" s="1"/>
     </row>
     <row r="405" spans="1:23">
@@ -11746,7 +12088,8 @@
       <c r="P405" s="1"/>
       <c r="Q405" s="1"/>
       <c r="R405" s="1"/>
-      <c r="U405" s="1"/>
+      <c r="S405" s="1"/>
+      <c r="T405" s="1"/>
       <c r="W405" s="1"/>
     </row>
     <row r="406" spans="1:23">
@@ -11767,7 +12110,8 @@
       <c r="P406" s="1"/>
       <c r="Q406" s="1"/>
       <c r="R406" s="1"/>
-      <c r="U406" s="1"/>
+      <c r="S406" s="1"/>
+      <c r="T406" s="1"/>
       <c r="W406" s="1"/>
     </row>
     <row r="407" spans="1:23">
@@ -11788,7 +12132,8 @@
       <c r="P407" s="1"/>
       <c r="Q407" s="1"/>
       <c r="R407" s="1"/>
-      <c r="U407" s="1"/>
+      <c r="S407" s="1"/>
+      <c r="T407" s="1"/>
       <c r="W407" s="1"/>
     </row>
     <row r="408" spans="1:23">
@@ -11809,7 +12154,8 @@
       <c r="P408" s="1"/>
       <c r="Q408" s="1"/>
       <c r="R408" s="1"/>
-      <c r="U408" s="1"/>
+      <c r="S408" s="1"/>
+      <c r="T408" s="1"/>
       <c r="W408" s="1"/>
     </row>
     <row r="409" spans="1:23">
@@ -11830,7 +12176,8 @@
       <c r="P409" s="1"/>
       <c r="Q409" s="1"/>
       <c r="R409" s="1"/>
-      <c r="U409" s="1"/>
+      <c r="S409" s="1"/>
+      <c r="T409" s="1"/>
       <c r="W409" s="1"/>
     </row>
     <row r="410" spans="1:23">
@@ -11851,7 +12198,8 @@
       <c r="P410" s="1"/>
       <c r="Q410" s="1"/>
       <c r="R410" s="1"/>
-      <c r="U410" s="1"/>
+      <c r="S410" s="1"/>
+      <c r="T410" s="1"/>
       <c r="W410" s="1"/>
     </row>
     <row r="411" spans="1:23">
@@ -11872,7 +12220,8 @@
       <c r="P411" s="1"/>
       <c r="Q411" s="1"/>
       <c r="R411" s="1"/>
-      <c r="U411" s="1"/>
+      <c r="S411" s="1"/>
+      <c r="T411" s="1"/>
       <c r="W411" s="1"/>
     </row>
     <row r="412" spans="1:23">
@@ -11893,7 +12242,8 @@
       <c r="P412" s="1"/>
       <c r="Q412" s="1"/>
       <c r="R412" s="1"/>
-      <c r="U412" s="1"/>
+      <c r="S412" s="1"/>
+      <c r="T412" s="1"/>
       <c r="W412" s="1"/>
     </row>
     <row r="413" spans="1:23">
@@ -11914,7 +12264,8 @@
       <c r="P413" s="1"/>
       <c r="Q413" s="1"/>
       <c r="R413" s="1"/>
-      <c r="U413" s="1"/>
+      <c r="S413" s="1"/>
+      <c r="T413" s="1"/>
       <c r="W413" s="1"/>
     </row>
     <row r="414" spans="1:23">
@@ -11935,7 +12286,8 @@
       <c r="P414" s="1"/>
       <c r="Q414" s="1"/>
       <c r="R414" s="1"/>
-      <c r="U414" s="1"/>
+      <c r="S414" s="1"/>
+      <c r="T414" s="1"/>
       <c r="W414" s="1"/>
     </row>
     <row r="415" spans="1:23">
@@ -11956,7 +12308,8 @@
       <c r="P415" s="1"/>
       <c r="Q415" s="1"/>
       <c r="R415" s="1"/>
-      <c r="U415" s="1"/>
+      <c r="S415" s="1"/>
+      <c r="T415" s="1"/>
       <c r="W415" s="1"/>
     </row>
     <row r="416" spans="1:23">
@@ -11977,7 +12330,8 @@
       <c r="P416" s="1"/>
       <c r="Q416" s="1"/>
       <c r="R416" s="1"/>
-      <c r="U416" s="1"/>
+      <c r="S416" s="1"/>
+      <c r="T416" s="1"/>
       <c r="W416" s="1"/>
     </row>
     <row r="417" spans="1:23">
@@ -11998,7 +12352,8 @@
       <c r="P417" s="1"/>
       <c r="Q417" s="1"/>
       <c r="R417" s="1"/>
-      <c r="U417" s="1"/>
+      <c r="S417" s="1"/>
+      <c r="T417" s="1"/>
       <c r="W417" s="1"/>
     </row>
     <row r="418" spans="1:23">
@@ -12019,7 +12374,8 @@
       <c r="P418" s="1"/>
       <c r="Q418" s="1"/>
       <c r="R418" s="1"/>
-      <c r="U418" s="1"/>
+      <c r="S418" s="1"/>
+      <c r="T418" s="1"/>
       <c r="W418" s="1"/>
     </row>
     <row r="419" spans="1:23">
@@ -12040,7 +12396,8 @@
       <c r="P419" s="1"/>
       <c r="Q419" s="1"/>
       <c r="R419" s="1"/>
-      <c r="U419" s="1"/>
+      <c r="S419" s="1"/>
+      <c r="T419" s="1"/>
       <c r="W419" s="1"/>
     </row>
     <row r="420" spans="1:23">
@@ -12061,7 +12418,8 @@
       <c r="P420" s="1"/>
       <c r="Q420" s="1"/>
       <c r="R420" s="1"/>
-      <c r="U420" s="1"/>
+      <c r="S420" s="1"/>
+      <c r="T420" s="1"/>
       <c r="W420" s="1"/>
     </row>
     <row r="421" spans="1:23">
@@ -12082,7 +12440,8 @@
       <c r="P421" s="1"/>
       <c r="Q421" s="1"/>
       <c r="R421" s="1"/>
-      <c r="U421" s="1"/>
+      <c r="S421" s="1"/>
+      <c r="T421" s="1"/>
       <c r="W421" s="1"/>
     </row>
     <row r="422" spans="1:23">
@@ -12103,7 +12462,8 @@
       <c r="P422" s="1"/>
       <c r="Q422" s="1"/>
       <c r="R422" s="1"/>
-      <c r="U422" s="1"/>
+      <c r="S422" s="1"/>
+      <c r="T422" s="1"/>
       <c r="W422" s="1"/>
     </row>
     <row r="423" spans="1:23">
@@ -12124,7 +12484,8 @@
       <c r="P423" s="1"/>
       <c r="Q423" s="1"/>
       <c r="R423" s="1"/>
-      <c r="U423" s="1"/>
+      <c r="S423" s="1"/>
+      <c r="T423" s="1"/>
       <c r="W423" s="1"/>
     </row>
     <row r="424" spans="1:23">
@@ -12145,7 +12506,8 @@
       <c r="P424" s="1"/>
       <c r="Q424" s="1"/>
       <c r="R424" s="1"/>
-      <c r="U424" s="1"/>
+      <c r="S424" s="1"/>
+      <c r="T424" s="1"/>
       <c r="W424" s="1"/>
     </row>
     <row r="425" spans="1:23">
@@ -12166,7 +12528,8 @@
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
       <c r="R425" s="1"/>
-      <c r="U425" s="1"/>
+      <c r="S425" s="1"/>
+      <c r="T425" s="1"/>
       <c r="W425" s="1"/>
     </row>
     <row r="426" spans="1:23">
@@ -12187,7 +12550,8 @@
       <c r="P426" s="1"/>
       <c r="Q426" s="1"/>
       <c r="R426" s="1"/>
-      <c r="U426" s="1"/>
+      <c r="S426" s="1"/>
+      <c r="T426" s="1"/>
       <c r="W426" s="1"/>
     </row>
     <row r="427" spans="1:23">
@@ -12208,7 +12572,8 @@
       <c r="P427" s="1"/>
       <c r="Q427" s="1"/>
       <c r="R427" s="1"/>
-      <c r="U427" s="1"/>
+      <c r="S427" s="1"/>
+      <c r="T427" s="1"/>
       <c r="W427" s="1"/>
     </row>
     <row r="428" spans="1:23">
@@ -12229,7 +12594,8 @@
       <c r="P428" s="1"/>
       <c r="Q428" s="1"/>
       <c r="R428" s="1"/>
-      <c r="U428" s="1"/>
+      <c r="S428" s="1"/>
+      <c r="T428" s="1"/>
       <c r="W428" s="1"/>
     </row>
     <row r="429" spans="1:23">
@@ -12250,7 +12616,8 @@
       <c r="P429" s="1"/>
       <c r="Q429" s="1"/>
       <c r="R429" s="1"/>
-      <c r="U429" s="1"/>
+      <c r="S429" s="1"/>
+      <c r="T429" s="1"/>
       <c r="W429" s="1"/>
     </row>
     <row r="430" spans="1:23">
@@ -12271,7 +12638,8 @@
       <c r="P430" s="1"/>
       <c r="Q430" s="1"/>
       <c r="R430" s="1"/>
-      <c r="U430" s="1"/>
+      <c r="S430" s="1"/>
+      <c r="T430" s="1"/>
       <c r="W430" s="1"/>
     </row>
     <row r="431" spans="1:23">
@@ -12292,7 +12660,8 @@
       <c r="P431" s="1"/>
       <c r="Q431" s="1"/>
       <c r="R431" s="1"/>
-      <c r="U431" s="1"/>
+      <c r="S431" s="1"/>
+      <c r="T431" s="1"/>
       <c r="W431" s="1"/>
     </row>
     <row r="432" spans="1:23">
@@ -12313,7 +12682,8 @@
       <c r="P432" s="1"/>
       <c r="Q432" s="1"/>
       <c r="R432" s="1"/>
-      <c r="U432" s="1"/>
+      <c r="S432" s="1"/>
+      <c r="T432" s="1"/>
       <c r="W432" s="1"/>
     </row>
     <row r="433" spans="1:23">
@@ -12334,7 +12704,8 @@
       <c r="P433" s="1"/>
       <c r="Q433" s="1"/>
       <c r="R433" s="1"/>
-      <c r="U433" s="1"/>
+      <c r="S433" s="1"/>
+      <c r="T433" s="1"/>
       <c r="W433" s="1"/>
     </row>
     <row r="434" spans="1:23">
@@ -12355,7 +12726,8 @@
       <c r="P434" s="1"/>
       <c r="Q434" s="1"/>
       <c r="R434" s="1"/>
-      <c r="U434" s="1"/>
+      <c r="S434" s="1"/>
+      <c r="T434" s="1"/>
       <c r="W434" s="1"/>
     </row>
     <row r="435" spans="1:23">
@@ -12376,7 +12748,8 @@
       <c r="P435" s="1"/>
       <c r="Q435" s="1"/>
       <c r="R435" s="1"/>
-      <c r="U435" s="1"/>
+      <c r="S435" s="1"/>
+      <c r="T435" s="1"/>
       <c r="W435" s="1"/>
     </row>
     <row r="436" spans="1:23">
@@ -12397,7 +12770,8 @@
       <c r="P436" s="1"/>
       <c r="Q436" s="1"/>
       <c r="R436" s="1"/>
-      <c r="U436" s="1"/>
+      <c r="S436" s="1"/>
+      <c r="T436" s="1"/>
       <c r="W436" s="1"/>
     </row>
     <row r="437" spans="1:23">
@@ -12418,7 +12792,8 @@
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
       <c r="R437" s="1"/>
-      <c r="U437" s="1"/>
+      <c r="S437" s="1"/>
+      <c r="T437" s="1"/>
       <c r="W437" s="1"/>
     </row>
     <row r="438" spans="1:23">
@@ -12439,7 +12814,8 @@
       <c r="P438" s="1"/>
       <c r="Q438" s="1"/>
       <c r="R438" s="1"/>
-      <c r="U438" s="1"/>
+      <c r="S438" s="1"/>
+      <c r="T438" s="1"/>
       <c r="W438" s="1"/>
     </row>
     <row r="439" spans="1:23">
@@ -12460,7 +12836,8 @@
       <c r="P439" s="1"/>
       <c r="Q439" s="1"/>
       <c r="R439" s="1"/>
-      <c r="U439" s="1"/>
+      <c r="S439" s="1"/>
+      <c r="T439" s="1"/>
       <c r="W439" s="1"/>
     </row>
     <row r="440" spans="1:23">
@@ -12481,7 +12858,8 @@
       <c r="P440" s="1"/>
       <c r="Q440" s="1"/>
       <c r="R440" s="1"/>
-      <c r="U440" s="1"/>
+      <c r="S440" s="1"/>
+      <c r="T440" s="1"/>
       <c r="W440" s="1"/>
     </row>
     <row r="441" spans="1:23">
@@ -12502,7 +12880,8 @@
       <c r="P441" s="1"/>
       <c r="Q441" s="1"/>
       <c r="R441" s="1"/>
-      <c r="U441" s="1"/>
+      <c r="S441" s="1"/>
+      <c r="T441" s="1"/>
       <c r="W441" s="1"/>
     </row>
     <row r="442" spans="1:23">
@@ -12523,7 +12902,8 @@
       <c r="P442" s="1"/>
       <c r="Q442" s="1"/>
       <c r="R442" s="1"/>
-      <c r="U442" s="1"/>
+      <c r="S442" s="1"/>
+      <c r="T442" s="1"/>
       <c r="W442" s="1"/>
     </row>
     <row r="443" spans="1:23">
@@ -12544,7 +12924,8 @@
       <c r="P443" s="1"/>
       <c r="Q443" s="1"/>
       <c r="R443" s="1"/>
-      <c r="U443" s="1"/>
+      <c r="S443" s="1"/>
+      <c r="T443" s="1"/>
       <c r="W443" s="1"/>
     </row>
     <row r="444" spans="1:23">
@@ -12565,7 +12946,8 @@
       <c r="P444" s="1"/>
       <c r="Q444" s="1"/>
       <c r="R444" s="1"/>
-      <c r="U444" s="1"/>
+      <c r="S444" s="1"/>
+      <c r="T444" s="1"/>
       <c r="W444" s="1"/>
     </row>
     <row r="445" spans="1:23">
@@ -12586,7 +12968,8 @@
       <c r="P445" s="1"/>
       <c r="Q445" s="1"/>
       <c r="R445" s="1"/>
-      <c r="U445" s="1"/>
+      <c r="S445" s="1"/>
+      <c r="T445" s="1"/>
       <c r="W445" s="1"/>
     </row>
     <row r="446" spans="1:23">
@@ -12607,7 +12990,8 @@
       <c r="P446" s="1"/>
       <c r="Q446" s="1"/>
       <c r="R446" s="1"/>
-      <c r="U446" s="1"/>
+      <c r="S446" s="1"/>
+      <c r="T446" s="1"/>
       <c r="W446" s="1"/>
     </row>
     <row r="447" spans="1:23">
@@ -12628,7 +13012,8 @@
       <c r="P447" s="1"/>
       <c r="Q447" s="1"/>
       <c r="R447" s="1"/>
-      <c r="U447" s="1"/>
+      <c r="S447" s="1"/>
+      <c r="T447" s="1"/>
       <c r="W447" s="1"/>
     </row>
     <row r="448" spans="1:23">
@@ -12649,7 +13034,8 @@
       <c r="P448" s="1"/>
       <c r="Q448" s="1"/>
       <c r="R448" s="1"/>
-      <c r="U448" s="1"/>
+      <c r="S448" s="1"/>
+      <c r="T448" s="1"/>
       <c r="W448" s="1"/>
     </row>
     <row r="449" spans="1:23">
@@ -12670,7 +13056,8 @@
       <c r="P449" s="1"/>
       <c r="Q449" s="1"/>
       <c r="R449" s="1"/>
-      <c r="U449" s="1"/>
+      <c r="S449" s="1"/>
+      <c r="T449" s="1"/>
       <c r="W449" s="1"/>
     </row>
     <row r="450" spans="1:23">
@@ -12691,7 +13078,8 @@
       <c r="P450" s="1"/>
       <c r="Q450" s="1"/>
       <c r="R450" s="1"/>
-      <c r="U450" s="1"/>
+      <c r="S450" s="1"/>
+      <c r="T450" s="1"/>
       <c r="W450" s="1"/>
     </row>
     <row r="451" spans="1:23">
@@ -12712,7 +13100,8 @@
       <c r="P451" s="1"/>
       <c r="Q451" s="1"/>
       <c r="R451" s="1"/>
-      <c r="U451" s="1"/>
+      <c r="S451" s="1"/>
+      <c r="T451" s="1"/>
       <c r="W451" s="1"/>
     </row>
     <row r="452" spans="1:23">
@@ -12733,7 +13122,8 @@
       <c r="P452" s="1"/>
       <c r="Q452" s="1"/>
       <c r="R452" s="1"/>
-      <c r="U452" s="1"/>
+      <c r="S452" s="1"/>
+      <c r="T452" s="1"/>
       <c r="W452" s="1"/>
     </row>
     <row r="453" spans="1:23">
@@ -12754,7 +13144,8 @@
       <c r="P453" s="1"/>
       <c r="Q453" s="1"/>
       <c r="R453" s="1"/>
-      <c r="U453" s="1"/>
+      <c r="S453" s="1"/>
+      <c r="T453" s="1"/>
       <c r="W453" s="1"/>
     </row>
     <row r="454" spans="1:23">
@@ -12775,7 +13166,8 @@
       <c r="P454" s="1"/>
       <c r="Q454" s="1"/>
       <c r="R454" s="1"/>
-      <c r="U454" s="1"/>
+      <c r="S454" s="1"/>
+      <c r="T454" s="1"/>
       <c r="W454" s="1"/>
     </row>
     <row r="455" spans="1:23">
@@ -12796,7 +13188,8 @@
       <c r="P455" s="1"/>
       <c r="Q455" s="1"/>
       <c r="R455" s="1"/>
-      <c r="U455" s="1"/>
+      <c r="S455" s="1"/>
+      <c r="T455" s="1"/>
       <c r="W455" s="1"/>
     </row>
     <row r="456" spans="1:23">
@@ -12817,7 +13210,8 @@
       <c r="P456" s="1"/>
       <c r="Q456" s="1"/>
       <c r="R456" s="1"/>
-      <c r="U456" s="1"/>
+      <c r="S456" s="1"/>
+      <c r="T456" s="1"/>
       <c r="W456" s="1"/>
     </row>
     <row r="457" spans="1:23">
@@ -12838,7 +13232,8 @@
       <c r="P457" s="1"/>
       <c r="Q457" s="1"/>
       <c r="R457" s="1"/>
-      <c r="U457" s="1"/>
+      <c r="S457" s="1"/>
+      <c r="T457" s="1"/>
       <c r="W457" s="1"/>
     </row>
     <row r="458" spans="1:23">
@@ -12859,7 +13254,8 @@
       <c r="P458" s="1"/>
       <c r="Q458" s="1"/>
       <c r="R458" s="1"/>
-      <c r="U458" s="1"/>
+      <c r="S458" s="1"/>
+      <c r="T458" s="1"/>
       <c r="W458" s="1"/>
     </row>
     <row r="459" spans="1:23">
@@ -12880,7 +13276,8 @@
       <c r="P459" s="1"/>
       <c r="Q459" s="1"/>
       <c r="R459" s="1"/>
-      <c r="U459" s="1"/>
+      <c r="S459" s="1"/>
+      <c r="T459" s="1"/>
       <c r="W459" s="1"/>
     </row>
     <row r="460" spans="1:23">
@@ -12901,7 +13298,8 @@
       <c r="P460" s="1"/>
       <c r="Q460" s="1"/>
       <c r="R460" s="1"/>
-      <c r="U460" s="1"/>
+      <c r="S460" s="1"/>
+      <c r="T460" s="1"/>
       <c r="W460" s="1"/>
     </row>
     <row r="461" spans="1:23">
@@ -12922,7 +13320,8 @@
       <c r="P461" s="1"/>
       <c r="Q461" s="1"/>
       <c r="R461" s="1"/>
-      <c r="U461" s="1"/>
+      <c r="S461" s="1"/>
+      <c r="T461" s="1"/>
       <c r="W461" s="1"/>
     </row>
     <row r="462" spans="1:23">
@@ -12943,7 +13342,8 @@
       <c r="P462" s="1"/>
       <c r="Q462" s="1"/>
       <c r="R462" s="1"/>
-      <c r="U462" s="1"/>
+      <c r="S462" s="1"/>
+      <c r="T462" s="1"/>
       <c r="W462" s="1"/>
     </row>
     <row r="463" spans="1:23">
@@ -12964,7 +13364,8 @@
       <c r="P463" s="1"/>
       <c r="Q463" s="1"/>
       <c r="R463" s="1"/>
-      <c r="U463" s="1"/>
+      <c r="S463" s="1"/>
+      <c r="T463" s="1"/>
       <c r="W463" s="1"/>
     </row>
     <row r="464" spans="1:23">
@@ -12985,7 +13386,8 @@
       <c r="P464" s="1"/>
       <c r="Q464" s="1"/>
       <c r="R464" s="1"/>
-      <c r="U464" s="1"/>
+      <c r="S464" s="1"/>
+      <c r="T464" s="1"/>
       <c r="W464" s="1"/>
     </row>
     <row r="465" spans="1:23">
@@ -13006,7 +13408,8 @@
       <c r="P465" s="1"/>
       <c r="Q465" s="1"/>
       <c r="R465" s="1"/>
-      <c r="U465" s="1"/>
+      <c r="S465" s="1"/>
+      <c r="T465" s="1"/>
       <c r="W465" s="1"/>
     </row>
     <row r="466" spans="1:23">
@@ -13027,7 +13430,8 @@
       <c r="P466" s="1"/>
       <c r="Q466" s="1"/>
       <c r="R466" s="1"/>
-      <c r="U466" s="1"/>
+      <c r="S466" s="1"/>
+      <c r="T466" s="1"/>
       <c r="W466" s="1"/>
     </row>
     <row r="467" spans="1:23">
@@ -13048,7 +13452,8 @@
       <c r="P467" s="1"/>
       <c r="Q467" s="1"/>
       <c r="R467" s="1"/>
-      <c r="U467" s="1"/>
+      <c r="S467" s="1"/>
+      <c r="T467" s="1"/>
       <c r="W467" s="1"/>
     </row>
     <row r="468" spans="1:23">
@@ -13069,7 +13474,8 @@
       <c r="P468" s="1"/>
       <c r="Q468" s="1"/>
       <c r="R468" s="1"/>
-      <c r="U468" s="1"/>
+      <c r="S468" s="1"/>
+      <c r="T468" s="1"/>
       <c r="W468" s="1"/>
     </row>
     <row r="469" spans="1:23">
@@ -13090,7 +13496,8 @@
       <c r="P469" s="1"/>
       <c r="Q469" s="1"/>
       <c r="R469" s="1"/>
-      <c r="U469" s="1"/>
+      <c r="S469" s="1"/>
+      <c r="T469" s="1"/>
       <c r="W469" s="1"/>
     </row>
     <row r="470" spans="1:23">
@@ -13111,7 +13518,8 @@
       <c r="P470" s="1"/>
       <c r="Q470" s="1"/>
       <c r="R470" s="1"/>
-      <c r="U470" s="1"/>
+      <c r="S470" s="1"/>
+      <c r="T470" s="1"/>
       <c r="W470" s="1"/>
     </row>
     <row r="471" spans="1:23">
@@ -13132,7 +13540,8 @@
       <c r="P471" s="1"/>
       <c r="Q471" s="1"/>
       <c r="R471" s="1"/>
-      <c r="U471" s="1"/>
+      <c r="S471" s="1"/>
+      <c r="T471" s="1"/>
       <c r="W471" s="1"/>
     </row>
     <row r="472" spans="1:23">
@@ -13153,7 +13562,8 @@
       <c r="P472" s="1"/>
       <c r="Q472" s="1"/>
       <c r="R472" s="1"/>
-      <c r="U472" s="1"/>
+      <c r="S472" s="1"/>
+      <c r="T472" s="1"/>
       <c r="W472" s="1"/>
     </row>
     <row r="473" spans="1:23">
@@ -13174,7 +13584,8 @@
       <c r="P473" s="1"/>
       <c r="Q473" s="1"/>
       <c r="R473" s="1"/>
-      <c r="U473" s="1"/>
+      <c r="S473" s="1"/>
+      <c r="T473" s="1"/>
       <c r="W473" s="1"/>
     </row>
     <row r="474" spans="1:23">
@@ -13195,7 +13606,8 @@
       <c r="P474" s="1"/>
       <c r="Q474" s="1"/>
       <c r="R474" s="1"/>
-      <c r="U474" s="1"/>
+      <c r="S474" s="1"/>
+      <c r="T474" s="1"/>
       <c r="W474" s="1"/>
     </row>
     <row r="475" spans="1:23">
@@ -13216,7 +13628,8 @@
       <c r="P475" s="1"/>
       <c r="Q475" s="1"/>
       <c r="R475" s="1"/>
-      <c r="U475" s="1"/>
+      <c r="S475" s="1"/>
+      <c r="T475" s="1"/>
       <c r="W475" s="1"/>
     </row>
     <row r="476" spans="1:23">
@@ -13237,7 +13650,8 @@
       <c r="P476" s="1"/>
       <c r="Q476" s="1"/>
       <c r="R476" s="1"/>
-      <c r="U476" s="1"/>
+      <c r="S476" s="1"/>
+      <c r="T476" s="1"/>
       <c r="W476" s="1"/>
     </row>
     <row r="477" spans="1:23">
@@ -13258,7 +13672,8 @@
       <c r="P477" s="1"/>
       <c r="Q477" s="1"/>
       <c r="R477" s="1"/>
-      <c r="U477" s="1"/>
+      <c r="S477" s="1"/>
+      <c r="T477" s="1"/>
       <c r="W477" s="1"/>
     </row>
     <row r="478" spans="1:23">
@@ -13279,7 +13694,8 @@
       <c r="P478" s="1"/>
       <c r="Q478" s="1"/>
       <c r="R478" s="1"/>
-      <c r="U478" s="1"/>
+      <c r="S478" s="1"/>
+      <c r="T478" s="1"/>
       <c r="W478" s="1"/>
     </row>
     <row r="479" spans="1:23">
@@ -13300,7 +13716,8 @@
       <c r="P479" s="1"/>
       <c r="Q479" s="1"/>
       <c r="R479" s="1"/>
-      <c r="U479" s="1"/>
+      <c r="S479" s="1"/>
+      <c r="T479" s="1"/>
       <c r="W479" s="1"/>
     </row>
     <row r="480" spans="1:23">
@@ -13321,7 +13738,8 @@
       <c r="P480" s="1"/>
       <c r="Q480" s="1"/>
       <c r="R480" s="1"/>
-      <c r="U480" s="1"/>
+      <c r="S480" s="1"/>
+      <c r="T480" s="1"/>
       <c r="W480" s="1"/>
     </row>
     <row r="481" spans="1:23">
@@ -13342,7 +13760,8 @@
       <c r="P481" s="1"/>
       <c r="Q481" s="1"/>
       <c r="R481" s="1"/>
-      <c r="U481" s="1"/>
+      <c r="S481" s="1"/>
+      <c r="T481" s="1"/>
       <c r="W481" s="1"/>
     </row>
     <row r="482" spans="1:23">
@@ -13363,7 +13782,8 @@
       <c r="P482" s="1"/>
       <c r="Q482" s="1"/>
       <c r="R482" s="1"/>
-      <c r="U482" s="1"/>
+      <c r="S482" s="1"/>
+      <c r="T482" s="1"/>
       <c r="W482" s="1"/>
     </row>
     <row r="483" spans="1:23">
@@ -13384,7 +13804,8 @@
       <c r="P483" s="1"/>
       <c r="Q483" s="1"/>
       <c r="R483" s="1"/>
-      <c r="U483" s="1"/>
+      <c r="S483" s="1"/>
+      <c r="T483" s="1"/>
       <c r="W483" s="1"/>
     </row>
     <row r="484" spans="1:23">
@@ -13405,7 +13826,8 @@
       <c r="P484" s="1"/>
       <c r="Q484" s="1"/>
       <c r="R484" s="1"/>
-      <c r="U484" s="1"/>
+      <c r="S484" s="1"/>
+      <c r="T484" s="1"/>
       <c r="W484" s="1"/>
     </row>
     <row r="485" spans="1:23">
@@ -13426,7 +13848,8 @@
       <c r="P485" s="1"/>
       <c r="Q485" s="1"/>
       <c r="R485" s="1"/>
-      <c r="U485" s="1"/>
+      <c r="S485" s="1"/>
+      <c r="T485" s="1"/>
       <c r="W485" s="1"/>
     </row>
     <row r="486" spans="1:23">
@@ -13447,7 +13870,8 @@
       <c r="P486" s="1"/>
       <c r="Q486" s="1"/>
       <c r="R486" s="1"/>
-      <c r="U486" s="1"/>
+      <c r="S486" s="1"/>
+      <c r="T486" s="1"/>
       <c r="W486" s="1"/>
     </row>
     <row r="487" spans="1:23">
@@ -13468,7 +13892,8 @@
       <c r="P487" s="1"/>
       <c r="Q487" s="1"/>
       <c r="R487" s="1"/>
-      <c r="U487" s="1"/>
+      <c r="S487" s="1"/>
+      <c r="T487" s="1"/>
       <c r="W487" s="1"/>
     </row>
     <row r="488" spans="1:23">
@@ -13489,7 +13914,8 @@
       <c r="P488" s="1"/>
       <c r="Q488" s="1"/>
       <c r="R488" s="1"/>
-      <c r="U488" s="1"/>
+      <c r="S488" s="1"/>
+      <c r="T488" s="1"/>
       <c r="W488" s="1"/>
     </row>
     <row r="489" spans="1:23">
@@ -13510,7 +13936,8 @@
       <c r="P489" s="1"/>
       <c r="Q489" s="1"/>
       <c r="R489" s="1"/>
-      <c r="U489" s="1"/>
+      <c r="S489" s="1"/>
+      <c r="T489" s="1"/>
       <c r="W489" s="1"/>
     </row>
     <row r="490" spans="1:23">
@@ -13531,7 +13958,8 @@
       <c r="P490" s="1"/>
       <c r="Q490" s="1"/>
       <c r="R490" s="1"/>
-      <c r="U490" s="1"/>
+      <c r="S490" s="1"/>
+      <c r="T490" s="1"/>
       <c r="W490" s="1"/>
     </row>
     <row r="491" spans="1:23">
@@ -13552,7 +13980,8 @@
       <c r="P491" s="1"/>
       <c r="Q491" s="1"/>
       <c r="R491" s="1"/>
-      <c r="U491" s="1"/>
+      <c r="S491" s="1"/>
+      <c r="T491" s="1"/>
       <c r="W491" s="1"/>
     </row>
     <row r="492" spans="1:23">
@@ -13573,7 +14002,8 @@
       <c r="P492" s="1"/>
       <c r="Q492" s="1"/>
       <c r="R492" s="1"/>
-      <c r="U492" s="1"/>
+      <c r="S492" s="1"/>
+      <c r="T492" s="1"/>
       <c r="W492" s="1"/>
     </row>
     <row r="493" spans="1:23">
@@ -13594,7 +14024,8 @@
       <c r="P493" s="1"/>
       <c r="Q493" s="1"/>
       <c r="R493" s="1"/>
-      <c r="U493" s="1"/>
+      <c r="S493" s="1"/>
+      <c r="T493" s="1"/>
       <c r="W493" s="1"/>
     </row>
     <row r="494" spans="1:23">
@@ -13615,7 +14046,8 @@
       <c r="P494" s="1"/>
       <c r="Q494" s="1"/>
       <c r="R494" s="1"/>
-      <c r="U494" s="1"/>
+      <c r="S494" s="1"/>
+      <c r="T494" s="1"/>
       <c r="W494" s="1"/>
     </row>
     <row r="495" spans="1:23">
@@ -13636,7 +14068,8 @@
       <c r="P495" s="1"/>
       <c r="Q495" s="1"/>
       <c r="R495" s="1"/>
-      <c r="U495" s="1"/>
+      <c r="S495" s="1"/>
+      <c r="T495" s="1"/>
       <c r="W495" s="1"/>
     </row>
     <row r="496" spans="1:23">
@@ -13657,7 +14090,8 @@
       <c r="P496" s="1"/>
       <c r="Q496" s="1"/>
       <c r="R496" s="1"/>
-      <c r="U496" s="1"/>
+      <c r="S496" s="1"/>
+      <c r="T496" s="1"/>
       <c r="W496" s="1"/>
     </row>
     <row r="497" spans="1:23">
@@ -13678,15 +14112,82 @@
       <c r="P497" s="1"/>
       <c r="Q497" s="1"/>
       <c r="R497" s="1"/>
-      <c r="U497" s="1"/>
+      <c r="S497" s="1"/>
+      <c r="T497" s="1"/>
       <c r="W497" s="1"/>
+    </row>
+    <row r="498" spans="1:23">
+      <c r="A498" s="1"/>
+      <c r="B498" s="1"/>
+      <c r="C498" s="1"/>
+      <c r="D498" s="1"/>
+      <c r="E498" s="1"/>
+      <c r="G498" s="1"/>
+      <c r="H498" s="1"/>
+      <c r="I498" s="1"/>
+      <c r="J498" s="1"/>
+      <c r="K498" s="1"/>
+      <c r="L498" s="1"/>
+      <c r="M498" s="1"/>
+      <c r="N498" s="1"/>
+      <c r="O498" s="1"/>
+      <c r="P498" s="1"/>
+      <c r="Q498" s="1"/>
+      <c r="R498" s="1"/>
+      <c r="S498" s="1"/>
+      <c r="T498" s="1"/>
+      <c r="W498" s="1"/>
+    </row>
+    <row r="499" spans="1:23">
+      <c r="A499" s="1"/>
+      <c r="B499" s="1"/>
+      <c r="C499" s="1"/>
+      <c r="D499" s="1"/>
+      <c r="E499" s="1"/>
+      <c r="G499" s="1"/>
+      <c r="H499" s="1"/>
+      <c r="I499" s="1"/>
+      <c r="J499" s="1"/>
+      <c r="K499" s="1"/>
+      <c r="L499" s="1"/>
+      <c r="M499" s="1"/>
+      <c r="N499" s="1"/>
+      <c r="O499" s="1"/>
+      <c r="P499" s="1"/>
+      <c r="Q499" s="1"/>
+      <c r="R499" s="1"/>
+      <c r="S499" s="1"/>
+      <c r="T499" s="1"/>
+      <c r="W499" s="1"/>
+    </row>
+    <row r="500" spans="1:23">
+      <c r="A500" s="1"/>
+      <c r="B500" s="1"/>
+      <c r="C500" s="1"/>
+      <c r="D500" s="1"/>
+      <c r="E500" s="1"/>
+      <c r="G500" s="1"/>
+      <c r="H500" s="1"/>
+      <c r="I500" s="1"/>
+      <c r="J500" s="1"/>
+      <c r="K500" s="1"/>
+      <c r="L500" s="1"/>
+      <c r="M500" s="1"/>
+      <c r="N500" s="1"/>
+      <c r="O500" s="1"/>
+      <c r="P500" s="1"/>
+      <c r="Q500" s="1"/>
+      <c r="R500" s="1"/>
+      <c r="S500" s="1"/>
+      <c r="T500" s="1"/>
+      <c r="W500" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -143,12 +143,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -182,13 +182,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -202,17 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,8 +211,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,25 +243,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,7 +265,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,25 +287,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,10 +302,26 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,7 +338,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,13 +359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,13 +389,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,31 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,127 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,6 +593,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -597,24 +627,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,8 +649,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,17 +666,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,124 +694,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,26 +820,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,10 +855,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -882,31 +888,37 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2860,11 +2872,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2921,10 +2933,10 @@
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
       <c r="U1" s="18"/>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="22"/>
+      <c r="W1" s="23"/>
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
@@ -2988,10 +3000,10 @@
       <c r="U2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="W2" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3051,9 +3063,9 @@
       <c r="Q3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="10" t="str">
-        <f>IF(D3&gt;(F3-(F3-E3)/3),"上部",IF(D3&gt;=(G3+(F3-E3)/3),"中部","下部"))</f>
-        <v>上部</v>
+      <c r="R3" s="22" t="str">
+        <f>IF(B3&gt;=(D3-(D3-E3)/3),"上部",IF(B3&gt;=(E3+(D3-E3)/3),"中部","下部"))</f>
+        <v>下部</v>
       </c>
       <c r="S3" s="10" t="s">
         <v>27</v>
@@ -3065,10 +3077,10 @@
         <f>D3-E3</f>
         <v>4.09999999999999</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="24">
+      <c r="W3" s="26">
         <f>F3/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,45,FALSE)</f>
         <v>1</v>
       </c>
@@ -3097,8 +3109,8 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="24"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="26"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="7">
@@ -3124,8 +3136,8 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="24"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="26"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="7">
@@ -3151,8 +3163,8 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="24"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="26"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="7">
@@ -3663,7 +3675,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="26"/>
+      <c r="U25" s="28"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
     </row>
@@ -3690,7 +3702,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="26"/>
+      <c r="U26" s="28"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
     </row>
@@ -3717,7 +3729,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="26"/>
+      <c r="U27" s="28"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
     </row>
@@ -3744,7 +3756,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="26"/>
+      <c r="U28" s="28"/>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
     </row>
@@ -3771,7 +3783,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="26"/>
+      <c r="U29" s="28"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
     </row>
@@ -3798,7 +3810,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="26"/>
+      <c r="U30" s="28"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
@@ -3825,7 +3837,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="26"/>
+      <c r="U31" s="28"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
     </row>
@@ -3852,7 +3864,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="26"/>
+      <c r="U32" s="28"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
@@ -3879,7 +3891,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="26"/>
+      <c r="U33" s="28"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
     </row>
@@ -3906,7 +3918,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="26"/>
+      <c r="U34" s="28"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
@@ -3933,7 +3945,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="26"/>
+      <c r="U35" s="28"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
     </row>
@@ -3960,7 +3972,7 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="26"/>
+      <c r="U36" s="28"/>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
     </row>
@@ -3987,7 +3999,7 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="26"/>
+      <c r="U37" s="28"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
     </row>
@@ -4014,7 +4026,7 @@
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="26"/>
+      <c r="U38" s="28"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -2872,11 +2872,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -143,12 +143,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -182,6 +182,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -189,7 +196,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,52 +244,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,22 +266,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +287,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -301,25 +310,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,7 +338,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,13 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,7 +395,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,13 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,31 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,31 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,19 +491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,13 +521,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,25 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +586,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -602,6 +605,56 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -630,216 +683,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,10 +849,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -909,16 +903,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2872,11 +2863,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2933,10 +2924,10 @@
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
       <c r="U1" s="18"/>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="23"/>
+      <c r="W1" s="22"/>
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
@@ -3000,10 +2991,10 @@
       <c r="U2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="23" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3048,8 +3039,8 @@
         <v>71.6698474880383</v>
       </c>
       <c r="M3" s="6">
-        <f>L3+L3*VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
-        <v>79.9495424641149</v>
+        <f>L3+L3*VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)</f>
+        <v>75.8096949760766</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>27</v>
@@ -3063,7 +3054,7 @@
       <c r="Q3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="22" t="str">
+      <c r="R3" s="20" t="str">
         <f>IF(B3&gt;=(D3-(D3-E3)/3),"上部",IF(B3&gt;=(E3+(D3-E3)/3),"中部","下部"))</f>
         <v>下部</v>
       </c>
@@ -3077,10 +3068,10 @@
         <f>D3-E3</f>
         <v>4.09999999999999</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="V3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="26">
+      <c r="W3" s="25">
         <f>F3/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10001,45,FALSE)</f>
         <v>1</v>
       </c>
@@ -3109,8 +3100,8 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="25"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="7">
@@ -3136,8 +3127,8 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="25"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="7">
@@ -3163,8 +3154,8 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="25"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="7">
@@ -3675,7 +3666,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="28"/>
+      <c r="U25" s="27"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
     </row>
@@ -3702,7 +3693,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="28"/>
+      <c r="U26" s="27"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
     </row>
@@ -3729,7 +3720,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="28"/>
+      <c r="U27" s="27"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
     </row>
@@ -3756,7 +3747,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="28"/>
+      <c r="U28" s="27"/>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
     </row>
@@ -3783,7 +3774,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="28"/>
+      <c r="U29" s="27"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
     </row>
@@ -3810,7 +3801,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="28"/>
+      <c r="U30" s="27"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
@@ -3837,7 +3828,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="28"/>
+      <c r="U31" s="27"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
     </row>
@@ -3864,7 +3855,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="28"/>
+      <c r="U32" s="27"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
@@ -3891,7 +3882,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="28"/>
+      <c r="U33" s="27"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
     </row>
@@ -3918,7 +3909,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="28"/>
+      <c r="U34" s="27"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
@@ -3945,7 +3936,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="28"/>
+      <c r="U35" s="27"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
     </row>
@@ -3972,7 +3963,7 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="28"/>
+      <c r="U36" s="27"/>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
     </row>
@@ -3999,7 +3990,7 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="28"/>
+      <c r="U37" s="27"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
     </row>
@@ -4026,7 +4017,7 @@
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="28"/>
+      <c r="U38" s="27"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -3028,11 +3028,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD1" sqref="AD1:AD4"/>
+      <selection pane="bottomRight" activeCell="AB3" sqref="AB3:AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>日期</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>3.02%</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
 </sst>
 </file>
@@ -993,9 +999,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1028,6 +1031,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3028,11 +3034,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB3" sqref="AB3:AB4"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3082,14 +3088,14 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
       <c r="S1" s="19" t="s">
         <v>3</v>
       </c>
@@ -3122,12 +3128,12 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
       <c r="S2" s="21"/>
       <c r="T2" s="22" t="s">
         <v>6</v>
@@ -3165,37 +3171,37 @@
       <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="17" t="s">
         <v>24</v>
       </c>
       <c r="S3" s="23" t="s">
@@ -3239,17 +3245,17 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
       <c r="S4" s="23"/>
       <c r="T4" s="24"/>
       <c r="U4" s="24"/>
@@ -3269,7 +3275,7 @@
     </row>
     <row r="5" ht="18" spans="1:30">
       <c r="A5" s="5">
-        <v>44523</v>
+        <v>44526</v>
       </c>
       <c r="B5" s="6">
         <v>71.25</v>
@@ -3288,26 +3294,37 @@
       <c r="H5" s="6">
         <v>6.49</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <f>(D5-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE)</f>
         <v>0.033717219370057</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <f>I5/(ROW()-2)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="18" t="str">
+        <f>IF(B5&gt;=(D5-(D5-E5)/3),"上部",IF(B5&gt;=(E5+(D5-E5)/3),"中部","下部"))</f>
+        <v>下部</v>
+      </c>
       <c r="S5" s="25"/>
       <c r="T5" s="26"/>
       <c r="U5" s="31"/>
@@ -3322,8 +3339,8 @@
       <c r="AD5" s="36"/>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="7">
-        <v>44524</v>
+      <c r="A6" s="5">
+        <v>44527</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3332,16 +3349,16 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="6"/>
       <c r="T6" s="27"/>
       <c r="U6" s="32"/>
@@ -3356,8 +3373,8 @@
       <c r="AD6" s="36"/>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="7">
-        <v>44525</v>
+      <c r="A7" s="5">
+        <v>44528</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3366,16 +3383,16 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="6"/>
       <c r="T7" s="27"/>
       <c r="U7" s="32"/>
@@ -3390,8 +3407,8 @@
       <c r="AD7" s="36"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="7">
-        <v>44526</v>
+      <c r="A8" s="5">
+        <v>44529</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3400,16 +3417,16 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
       <c r="S8" s="6"/>
       <c r="T8" s="27"/>
       <c r="U8" s="32"/>
@@ -3424,8 +3441,8 @@
       <c r="AD8" s="36"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="7">
-        <v>44527</v>
+      <c r="A9" s="5">
+        <v>44530</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3434,18 +3451,18 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
       <c r="U9" s="6"/>
       <c r="V9" s="28"/>
       <c r="W9" s="28"/>
@@ -3458,8 +3475,8 @@
       <c r="AD9" s="36"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="7">
-        <v>44528</v>
+      <c r="A10" s="5">
+        <v>44531</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3468,18 +3485,18 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
       <c r="U10" s="6"/>
       <c r="V10" s="28"/>
       <c r="W10" s="28"/>
@@ -3492,8 +3509,8 @@
       <c r="AD10" s="36"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="7">
-        <v>44529</v>
+      <c r="A11" s="5">
+        <v>44532</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3502,18 +3519,18 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
       <c r="U11" s="6"/>
       <c r="V11" s="28"/>
       <c r="W11" s="28"/>
@@ -3526,8 +3543,8 @@
       <c r="AD11" s="36"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="7">
-        <v>44530</v>
+      <c r="A12" s="5">
+        <v>44533</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3536,18 +3553,18 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
       <c r="U12" s="6"/>
       <c r="V12" s="28"/>
       <c r="W12" s="28"/>
@@ -3560,8 +3577,8 @@
       <c r="AD12" s="36"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="7">
-        <v>44531</v>
+      <c r="A13" s="5">
+        <v>44534</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3570,18 +3587,18 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
       <c r="U13" s="6"/>
       <c r="V13" s="28"/>
       <c r="W13" s="28"/>
@@ -3594,8 +3611,8 @@
       <c r="AD13" s="36"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="7">
-        <v>44532</v>
+      <c r="A14" s="5">
+        <v>44535</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3604,18 +3621,18 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
       <c r="U14" s="6"/>
       <c r="V14" s="28"/>
       <c r="W14" s="28"/>
@@ -3628,8 +3645,8 @@
       <c r="AD14" s="36"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="7">
-        <v>44533</v>
+      <c r="A15" s="5">
+        <v>44536</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3638,18 +3655,18 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
       <c r="U15" s="6"/>
       <c r="V15" s="28"/>
       <c r="W15" s="28"/>
@@ -3662,8 +3679,8 @@
       <c r="AD15" s="36"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="7">
-        <v>44534</v>
+      <c r="A16" s="5">
+        <v>44537</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -3672,18 +3689,18 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
       <c r="U16" s="6"/>
       <c r="V16" s="28"/>
       <c r="W16" s="28"/>
@@ -3696,8 +3713,8 @@
       <c r="AD16" s="36"/>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="7">
-        <v>44535</v>
+      <c r="A17" s="5">
+        <v>44538</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3706,18 +3723,18 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
       <c r="U17" s="6"/>
       <c r="V17" s="28"/>
       <c r="W17" s="28"/>
@@ -3730,8 +3747,8 @@
       <c r="AD17" s="36"/>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="7">
-        <v>44536</v>
+      <c r="A18" s="5">
+        <v>44539</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3740,18 +3757,18 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
       <c r="U18" s="6"/>
       <c r="V18" s="28"/>
       <c r="W18" s="28"/>
@@ -3764,8 +3781,8 @@
       <c r="AD18" s="36"/>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="7">
-        <v>44537</v>
+      <c r="A19" s="5">
+        <v>44540</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3774,18 +3791,18 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
       <c r="U19" s="6"/>
       <c r="V19" s="28"/>
       <c r="W19" s="28"/>
@@ -3798,8 +3815,8 @@
       <c r="AD19" s="36"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="7">
-        <v>44538</v>
+      <c r="A20" s="5">
+        <v>44541</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3808,18 +3825,18 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
       <c r="U20" s="6"/>
       <c r="V20" s="28"/>
       <c r="W20" s="28"/>
@@ -3832,8 +3849,8 @@
       <c r="AD20" s="36"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="7">
-        <v>44539</v>
+      <c r="A21" s="5">
+        <v>44542</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3842,18 +3859,18 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
       <c r="U21" s="6"/>
       <c r="V21" s="28"/>
       <c r="W21" s="28"/>
@@ -3866,8 +3883,8 @@
       <c r="AD21" s="36"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="7">
-        <v>44540</v>
+      <c r="A22" s="5">
+        <v>44543</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -3876,18 +3893,18 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
       <c r="U22" s="6"/>
       <c r="V22" s="28"/>
       <c r="W22" s="28"/>
@@ -3900,8 +3917,8 @@
       <c r="AD22" s="36"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="7">
-        <v>44541</v>
+      <c r="A23" s="5">
+        <v>44544</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -3910,18 +3927,18 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
       <c r="U23" s="6"/>
       <c r="V23" s="28"/>
       <c r="W23" s="28"/>
@@ -3934,8 +3951,8 @@
       <c r="AD23" s="36"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="7">
-        <v>44542</v>
+      <c r="A24" s="5">
+        <v>44545</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -3944,18 +3961,18 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
       <c r="U24" s="6"/>
       <c r="V24" s="28"/>
       <c r="W24" s="28"/>
@@ -3968,8 +3985,8 @@
       <c r="AD24" s="36"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="7">
-        <v>44543</v>
+      <c r="A25" s="5">
+        <v>44546</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3978,18 +3995,18 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
       <c r="U25" s="6"/>
       <c r="V25" s="28"/>
       <c r="W25" s="28"/>
@@ -4002,8 +4019,8 @@
       <c r="AD25" s="36"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="7">
-        <v>44544</v>
+      <c r="A26" s="5">
+        <v>44547</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -4011,19 +4028,19 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
       <c r="U26" s="6"/>
       <c r="V26" s="28"/>
       <c r="W26" s="28"/>
@@ -4036,8 +4053,8 @@
       <c r="AD26" s="36"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="7">
-        <v>44545</v>
+      <c r="A27" s="5">
+        <v>44548</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4045,20 +4062,20 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
       <c r="S27" s="28"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
       <c r="V27" s="28"/>
       <c r="W27" s="28"/>
       <c r="X27" s="28"/>
@@ -4070,8 +4087,8 @@
       <c r="AD27" s="36"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="7">
-        <v>44546</v>
+      <c r="A28" s="5">
+        <v>44549</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -4079,20 +4096,20 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
       <c r="S28" s="28"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
       <c r="V28" s="28"/>
       <c r="W28" s="28"/>
       <c r="X28" s="28"/>
@@ -4104,8 +4121,8 @@
       <c r="AD28" s="36"/>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="7">
-        <v>44547</v>
+      <c r="A29" s="5">
+        <v>44550</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4113,20 +4130,20 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
       <c r="S29" s="28"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
       <c r="V29" s="28"/>
       <c r="W29" s="28"/>
       <c r="X29" s="28"/>
@@ -4138,8 +4155,8 @@
       <c r="AD29" s="36"/>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="7">
-        <v>44548</v>
+      <c r="A30" s="5">
+        <v>44551</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -4147,20 +4164,20 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
       <c r="S30" s="28"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
       <c r="V30" s="28"/>
       <c r="W30" s="28"/>
       <c r="X30" s="28"/>
@@ -4172,8 +4189,8 @@
       <c r="AD30" s="36"/>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="7">
-        <v>44549</v>
+      <c r="A31" s="5">
+        <v>44552</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -4181,20 +4198,20 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
       <c r="S31" s="28"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
       <c r="V31" s="28"/>
       <c r="W31" s="28"/>
       <c r="X31" s="28"/>
@@ -4206,8 +4223,8 @@
       <c r="AD31" s="36"/>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="7">
-        <v>44550</v>
+      <c r="A32" s="5">
+        <v>44553</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -4215,20 +4232,20 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
       <c r="S32" s="28"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
       <c r="V32" s="28"/>
       <c r="W32" s="28"/>
       <c r="X32" s="28"/>
@@ -4240,8 +4257,8 @@
       <c r="AD32" s="36"/>
     </row>
     <row r="33" spans="1:30">
-      <c r="A33" s="7">
-        <v>44551</v>
+      <c r="A33" s="5">
+        <v>44554</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4249,20 +4266,20 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
       <c r="S33" s="28"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
       <c r="V33" s="28"/>
       <c r="W33" s="28"/>
       <c r="X33" s="28"/>
@@ -4274,8 +4291,8 @@
       <c r="AD33" s="36"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="7">
-        <v>44552</v>
+      <c r="A34" s="5">
+        <v>44555</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -4283,20 +4300,20 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
       <c r="S34" s="28"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
       <c r="V34" s="28"/>
       <c r="W34" s="28"/>
       <c r="X34" s="28"/>
@@ -4308,8 +4325,8 @@
       <c r="AD34" s="36"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="7">
-        <v>44553</v>
+      <c r="A35" s="5">
+        <v>44556</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4317,20 +4334,20 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
       <c r="S35" s="28"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
       <c r="V35" s="28"/>
       <c r="W35" s="28"/>
       <c r="X35" s="28"/>
@@ -4342,8 +4359,8 @@
       <c r="AD35" s="36"/>
     </row>
     <row r="36" spans="1:30">
-      <c r="A36" s="7">
-        <v>44554</v>
+      <c r="A36" s="5">
+        <v>44557</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4351,20 +4368,20 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
       <c r="S36" s="28"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
       <c r="V36" s="28"/>
       <c r="W36" s="28"/>
       <c r="X36" s="28"/>
@@ -4376,8 +4393,8 @@
       <c r="AD36" s="36"/>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="7">
-        <v>44555</v>
+      <c r="A37" s="5">
+        <v>44558</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -4385,20 +4402,20 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
       <c r="S37" s="28"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
       <c r="V37" s="28"/>
       <c r="W37" s="28"/>
       <c r="X37" s="28"/>
@@ -4410,8 +4427,8 @@
       <c r="AD37" s="36"/>
     </row>
     <row r="38" spans="1:30">
-      <c r="A38" s="7">
-        <v>44556</v>
+      <c r="A38" s="5">
+        <v>44559</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -4419,20 +4436,20 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
       <c r="S38" s="28"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
       <c r="V38" s="28"/>
       <c r="W38" s="28"/>
       <c r="X38" s="28"/>
@@ -4444,8 +4461,8 @@
       <c r="AD38" s="36"/>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="7">
-        <v>44557</v>
+      <c r="A39" s="5">
+        <v>44560</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -4453,20 +4470,20 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
       <c r="S39" s="28"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
       <c r="V39" s="28"/>
       <c r="W39" s="28"/>
       <c r="X39" s="28"/>
@@ -4478,8 +4495,8 @@
       <c r="AD39" s="36"/>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="7">
-        <v>44558</v>
+      <c r="A40" s="5">
+        <v>44561</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -4487,20 +4504,20 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
       <c r="S40" s="28"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
       <c r="V40" s="28"/>
       <c r="W40" s="28"/>
       <c r="X40" s="28"/>
@@ -4512,29 +4529,29 @@
       <c r="AD40" s="36"/>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="7">
-        <v>44559</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
+      <c r="A41" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
       <c r="S41" s="28"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
       <c r="V41" s="28"/>
       <c r="W41" s="28"/>
       <c r="X41" s="28"/>
@@ -4546,29 +4563,29 @@
       <c r="AD41" s="36"/>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="7">
-        <v>44560</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
+      <c r="A42" s="5">
+        <v>44563</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
       <c r="S42" s="28"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
       <c r="V42" s="28"/>
       <c r="W42" s="28"/>
       <c r="X42" s="28"/>
@@ -4580,29 +4597,29 @@
       <c r="AD42" s="36"/>
     </row>
     <row r="43" spans="1:30">
-      <c r="A43" s="7">
-        <v>44561</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
+      <c r="A43" s="5">
+        <v>44564</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
       <c r="S43" s="28"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
       <c r="V43" s="28"/>
       <c r="W43" s="28"/>
       <c r="X43" s="28"/>
@@ -4614,29 +4631,29 @@
       <c r="AD43" s="36"/>
     </row>
     <row r="44" spans="1:30">
-      <c r="A44" s="7">
-        <v>44562</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
+      <c r="A44" s="5">
+        <v>44565</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
       <c r="S44" s="28"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
       <c r="V44" s="28"/>
       <c r="W44" s="28"/>
       <c r="X44" s="28"/>
@@ -4648,29 +4665,29 @@
       <c r="AD44" s="36"/>
     </row>
     <row r="45" spans="1:30">
-      <c r="A45" s="7">
-        <v>44563</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
+      <c r="A45" s="5">
+        <v>44566</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
       <c r="S45" s="28"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
       <c r="V45" s="28"/>
       <c r="W45" s="28"/>
       <c r="X45" s="28"/>
@@ -4682,29 +4699,29 @@
       <c r="AD45" s="36"/>
     </row>
     <row r="46" spans="1:30">
-      <c r="A46" s="7">
-        <v>44564</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
+      <c r="A46" s="5">
+        <v>44567</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
       <c r="S46" s="28"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
       <c r="V46" s="28"/>
       <c r="W46" s="28"/>
       <c r="X46" s="28"/>
@@ -4716,29 +4733,29 @@
       <c r="AD46" s="36"/>
     </row>
     <row r="47" spans="1:30">
-      <c r="A47" s="7">
-        <v>44565</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
+      <c r="A47" s="5">
+        <v>44568</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
       <c r="S47" s="28"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
       <c r="V47" s="28"/>
       <c r="W47" s="28"/>
       <c r="X47" s="28"/>
@@ -4750,29 +4767,29 @@
       <c r="AD47" s="36"/>
     </row>
     <row r="48" spans="1:30">
-      <c r="A48" s="7">
-        <v>44566</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
+      <c r="A48" s="5">
+        <v>44569</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
       <c r="S48" s="28"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
       <c r="V48" s="28"/>
       <c r="W48" s="28"/>
       <c r="X48" s="28"/>
@@ -4784,29 +4801,29 @@
       <c r="AD48" s="36"/>
     </row>
     <row r="49" spans="1:30">
-      <c r="A49" s="7">
-        <v>44567</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
+      <c r="A49" s="5">
+        <v>44570</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
       <c r="S49" s="28"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
       <c r="V49" s="28"/>
       <c r="W49" s="28"/>
       <c r="X49" s="28"/>
@@ -4818,29 +4835,29 @@
       <c r="AD49" s="36"/>
     </row>
     <row r="50" spans="1:30">
-      <c r="A50" s="7">
-        <v>44568</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
+      <c r="A50" s="5">
+        <v>44571</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
       <c r="S50" s="28"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
       <c r="V50" s="28"/>
       <c r="W50" s="28"/>
       <c r="X50" s="28"/>
@@ -4852,29 +4869,29 @@
       <c r="AD50" s="36"/>
     </row>
     <row r="51" spans="1:30">
-      <c r="A51" s="7">
-        <v>44569</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
+      <c r="A51" s="5">
+        <v>44572</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
       <c r="S51" s="28"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
       <c r="V51" s="28"/>
       <c r="W51" s="28"/>
       <c r="X51" s="28"/>
@@ -4886,29 +4903,29 @@
       <c r="AD51" s="36"/>
     </row>
     <row r="52" spans="1:30">
-      <c r="A52" s="7">
-        <v>44570</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
+      <c r="A52" s="5">
+        <v>44573</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
       <c r="S52" s="28"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
       <c r="V52" s="28"/>
       <c r="W52" s="28"/>
       <c r="X52" s="28"/>
@@ -4920,29 +4937,29 @@
       <c r="AD52" s="36"/>
     </row>
     <row r="53" spans="1:30">
-      <c r="A53" s="7">
-        <v>44571</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
+      <c r="A53" s="5">
+        <v>44574</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
       <c r="S53" s="28"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
       <c r="V53" s="28"/>
       <c r="W53" s="28"/>
       <c r="X53" s="28"/>
@@ -4954,29 +4971,29 @@
       <c r="AD53" s="36"/>
     </row>
     <row r="54" spans="1:30">
-      <c r="A54" s="7">
-        <v>44572</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
+      <c r="A54" s="5">
+        <v>44575</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
       <c r="S54" s="28"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
       <c r="V54" s="28"/>
       <c r="W54" s="28"/>
       <c r="X54" s="28"/>
@@ -4988,29 +5005,29 @@
       <c r="AD54" s="36"/>
     </row>
     <row r="55" spans="1:30">
-      <c r="A55" s="7">
-        <v>44573</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
+      <c r="A55" s="5">
+        <v>44576</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
       <c r="S55" s="28"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
       <c r="V55" s="28"/>
       <c r="W55" s="28"/>
       <c r="X55" s="28"/>
@@ -5022,29 +5039,29 @@
       <c r="AD55" s="36"/>
     </row>
     <row r="56" spans="1:30">
-      <c r="A56" s="7">
-        <v>44574</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
+      <c r="A56" s="5">
+        <v>44577</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
       <c r="S56" s="28"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
       <c r="V56" s="28"/>
       <c r="W56" s="28"/>
       <c r="X56" s="28"/>
@@ -5056,29 +5073,29 @@
       <c r="AD56" s="36"/>
     </row>
     <row r="57" spans="1:30">
-      <c r="A57" s="7">
-        <v>44575</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
+      <c r="A57" s="5">
+        <v>44578</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
       <c r="S57" s="28"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
       <c r="V57" s="28"/>
       <c r="W57" s="28"/>
       <c r="X57" s="28"/>
@@ -5090,29 +5107,29 @@
       <c r="AD57" s="36"/>
     </row>
     <row r="58" spans="1:30">
-      <c r="A58" s="7">
-        <v>44576</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
+      <c r="A58" s="5">
+        <v>44579</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
       <c r="S58" s="28"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
       <c r="V58" s="28"/>
       <c r="W58" s="28"/>
       <c r="X58" s="28"/>
@@ -5124,29 +5141,29 @@
       <c r="AD58" s="36"/>
     </row>
     <row r="59" spans="1:30">
-      <c r="A59" s="7">
-        <v>44577</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
+      <c r="A59" s="5">
+        <v>44580</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
       <c r="S59" s="28"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
       <c r="V59" s="28"/>
       <c r="W59" s="28"/>
       <c r="X59" s="28"/>
@@ -5158,29 +5175,29 @@
       <c r="AD59" s="36"/>
     </row>
     <row r="60" spans="1:30">
-      <c r="A60" s="7">
-        <v>44578</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
+      <c r="A60" s="5">
+        <v>44581</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
       <c r="S60" s="28"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
       <c r="V60" s="28"/>
       <c r="W60" s="28"/>
       <c r="X60" s="28"/>
@@ -5192,29 +5209,29 @@
       <c r="AD60" s="36"/>
     </row>
     <row r="61" spans="1:30">
-      <c r="A61" s="7">
-        <v>44579</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
+      <c r="A61" s="5">
+        <v>44582</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
       <c r="S61" s="28"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
       <c r="V61" s="28"/>
       <c r="W61" s="28"/>
       <c r="X61" s="28"/>
@@ -5226,29 +5243,29 @@
       <c r="AD61" s="36"/>
     </row>
     <row r="62" spans="1:30">
-      <c r="A62" s="7">
-        <v>44580</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
+      <c r="A62" s="5">
+        <v>44583</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
       <c r="S62" s="28"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
       <c r="V62" s="28"/>
       <c r="W62" s="28"/>
       <c r="X62" s="28"/>
@@ -5260,29 +5277,29 @@
       <c r="AD62" s="36"/>
     </row>
     <row r="63" spans="1:30">
-      <c r="A63" s="7">
-        <v>44581</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
+      <c r="A63" s="5">
+        <v>44584</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
       <c r="S63" s="28"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
       <c r="V63" s="28"/>
       <c r="W63" s="28"/>
       <c r="X63" s="28"/>
@@ -5294,29 +5311,29 @@
       <c r="AD63" s="36"/>
     </row>
     <row r="64" spans="1:30">
-      <c r="A64" s="7">
-        <v>44582</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
+      <c r="A64" s="5">
+        <v>44585</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
       <c r="S64" s="28"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
       <c r="V64" s="28"/>
       <c r="W64" s="28"/>
       <c r="X64" s="28"/>
@@ -5328,29 +5345,29 @@
       <c r="AD64" s="36"/>
     </row>
     <row r="65" spans="1:30">
-      <c r="A65" s="7">
-        <v>44583</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
+      <c r="A65" s="5">
+        <v>44586</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
       <c r="S65" s="28"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
       <c r="V65" s="28"/>
       <c r="W65" s="28"/>
       <c r="X65" s="28"/>
@@ -5362,29 +5379,29 @@
       <c r="AD65" s="36"/>
     </row>
     <row r="66" spans="1:30">
-      <c r="A66" s="7">
-        <v>44584</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
+      <c r="A66" s="5">
+        <v>44587</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
       <c r="S66" s="28"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
       <c r="V66" s="28"/>
       <c r="W66" s="28"/>
       <c r="X66" s="28"/>
@@ -5396,29 +5413,29 @@
       <c r="AD66" s="36"/>
     </row>
     <row r="67" spans="1:30">
-      <c r="A67" s="7">
-        <v>44585</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
+      <c r="A67" s="5">
+        <v>44588</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
       <c r="S67" s="28"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
       <c r="V67" s="28"/>
       <c r="W67" s="28"/>
       <c r="X67" s="28"/>
@@ -5430,29 +5447,29 @@
       <c r="AD67" s="36"/>
     </row>
     <row r="68" spans="1:30">
-      <c r="A68" s="7">
-        <v>44586</v>
-      </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
+      <c r="A68" s="5">
+        <v>44589</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
       <c r="S68" s="28"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
       <c r="V68" s="28"/>
       <c r="W68" s="28"/>
       <c r="X68" s="28"/>
@@ -5464,29 +5481,29 @@
       <c r="AD68" s="36"/>
     </row>
     <row r="69" spans="1:30">
-      <c r="A69" s="7">
-        <v>44587</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
+      <c r="A69" s="5">
+        <v>44590</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
       <c r="S69" s="28"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
       <c r="V69" s="28"/>
       <c r="W69" s="28"/>
       <c r="X69" s="28"/>
@@ -5498,29 +5515,29 @@
       <c r="AD69" s="36"/>
     </row>
     <row r="70" spans="1:30">
-      <c r="A70" s="7">
-        <v>44588</v>
-      </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
+      <c r="A70" s="5">
+        <v>44591</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
       <c r="S70" s="28"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
       <c r="V70" s="28"/>
       <c r="W70" s="28"/>
       <c r="X70" s="28"/>
@@ -5532,29 +5549,29 @@
       <c r="AD70" s="36"/>
     </row>
     <row r="71" spans="1:30">
-      <c r="A71" s="7">
-        <v>44589</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
+      <c r="A71" s="5">
+        <v>44592</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
       <c r="S71" s="28"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
       <c r="V71" s="28"/>
       <c r="W71" s="28"/>
       <c r="X71" s="28"/>
@@ -5566,29 +5583,29 @@
       <c r="AD71" s="36"/>
     </row>
     <row r="72" spans="1:30">
-      <c r="A72" s="7">
-        <v>44590</v>
-      </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
+      <c r="A72" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
       <c r="S72" s="28"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
       <c r="V72" s="28"/>
       <c r="W72" s="28"/>
       <c r="X72" s="28"/>
@@ -5600,29 +5617,29 @@
       <c r="AD72" s="36"/>
     </row>
     <row r="73" spans="1:30">
-      <c r="A73" s="7">
-        <v>44591</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
+      <c r="A73" s="5">
+        <v>44594</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
       <c r="S73" s="28"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
       <c r="V73" s="28"/>
       <c r="W73" s="28"/>
       <c r="X73" s="28"/>
@@ -5634,29 +5651,29 @@
       <c r="AD73" s="36"/>
     </row>
     <row r="74" spans="1:30">
-      <c r="A74" s="7">
-        <v>44592</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
+      <c r="A74" s="5">
+        <v>44595</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
       <c r="S74" s="28"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
       <c r="V74" s="28"/>
       <c r="W74" s="28"/>
       <c r="X74" s="28"/>
@@ -5668,29 +5685,29 @@
       <c r="AD74" s="36"/>
     </row>
     <row r="75" spans="1:30">
-      <c r="A75" s="7">
-        <v>44593</v>
-      </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
+      <c r="A75" s="5">
+        <v>44596</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
       <c r="S75" s="28"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
       <c r="V75" s="28"/>
       <c r="W75" s="28"/>
       <c r="X75" s="28"/>
@@ -5702,29 +5719,29 @@
       <c r="AD75" s="36"/>
     </row>
     <row r="76" spans="1:30">
-      <c r="A76" s="7">
-        <v>44594</v>
-      </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
+      <c r="A76" s="5">
+        <v>44597</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
       <c r="S76" s="28"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
       <c r="V76" s="28"/>
       <c r="W76" s="28"/>
       <c r="X76" s="28"/>
@@ -5736,29 +5753,29 @@
       <c r="AD76" s="36"/>
     </row>
     <row r="77" spans="1:30">
-      <c r="A77" s="7">
-        <v>44595</v>
-      </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
+      <c r="A77" s="5">
+        <v>44598</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
       <c r="S77" s="28"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
       <c r="V77" s="28"/>
       <c r="W77" s="28"/>
       <c r="X77" s="28"/>
@@ -5770,29 +5787,29 @@
       <c r="AD77" s="36"/>
     </row>
     <row r="78" spans="1:30">
-      <c r="A78" s="7">
-        <v>44596</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
+      <c r="A78" s="5">
+        <v>44599</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
       <c r="S78" s="28"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
       <c r="V78" s="28"/>
       <c r="W78" s="28"/>
       <c r="X78" s="28"/>
@@ -5804,29 +5821,29 @@
       <c r="AD78" s="36"/>
     </row>
     <row r="79" spans="1:30">
-      <c r="A79" s="7">
-        <v>44597</v>
-      </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
+      <c r="A79" s="5">
+        <v>44600</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
       <c r="S79" s="28"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
       <c r="V79" s="28"/>
       <c r="W79" s="28"/>
       <c r="X79" s="28"/>
@@ -5838,29 +5855,29 @@
       <c r="AD79" s="36"/>
     </row>
     <row r="80" spans="1:30">
-      <c r="A80" s="7">
-        <v>44598</v>
-      </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
+      <c r="A80" s="5">
+        <v>44601</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
       <c r="S80" s="28"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="8"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
       <c r="V80" s="28"/>
       <c r="W80" s="28"/>
       <c r="X80" s="28"/>
@@ -5872,29 +5889,29 @@
       <c r="AD80" s="36"/>
     </row>
     <row r="81" spans="1:30">
-      <c r="A81" s="7">
-        <v>44599</v>
-      </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
+      <c r="A81" s="5">
+        <v>44602</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
       <c r="S81" s="28"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="8"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
       <c r="V81" s="28"/>
       <c r="W81" s="28"/>
       <c r="X81" s="28"/>
@@ -5906,29 +5923,29 @@
       <c r="AD81" s="36"/>
     </row>
     <row r="82" spans="1:30">
-      <c r="A82" s="7">
-        <v>44600</v>
-      </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
+      <c r="A82" s="5">
+        <v>44603</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
       <c r="S82" s="28"/>
-      <c r="T82" s="8"/>
-      <c r="U82" s="8"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
       <c r="V82" s="28"/>
       <c r="W82" s="28"/>
       <c r="X82" s="28"/>
@@ -5940,29 +5957,29 @@
       <c r="AD82" s="36"/>
     </row>
     <row r="83" spans="1:30">
-      <c r="A83" s="7">
-        <v>44601</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
+      <c r="A83" s="5">
+        <v>44604</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
       <c r="S83" s="28"/>
-      <c r="T83" s="8"/>
-      <c r="U83" s="8"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
       <c r="V83" s="28"/>
       <c r="W83" s="28"/>
       <c r="X83" s="28"/>
@@ -5974,29 +5991,29 @@
       <c r="AD83" s="36"/>
     </row>
     <row r="84" spans="1:30">
-      <c r="A84" s="7">
-        <v>44602</v>
-      </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
+      <c r="A84" s="5">
+        <v>44605</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
       <c r="S84" s="28"/>
-      <c r="T84" s="8"/>
-      <c r="U84" s="8"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
       <c r="V84" s="28"/>
       <c r="W84" s="28"/>
       <c r="X84" s="28"/>
@@ -6008,29 +6025,29 @@
       <c r="AD84" s="36"/>
     </row>
     <row r="85" spans="1:30">
-      <c r="A85" s="7">
-        <v>44603</v>
-      </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
+      <c r="A85" s="5">
+        <v>44606</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
       <c r="S85" s="28"/>
-      <c r="T85" s="8"/>
-      <c r="U85" s="8"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
       <c r="V85" s="28"/>
       <c r="W85" s="28"/>
       <c r="X85" s="28"/>
@@ -6042,29 +6059,29 @@
       <c r="AD85" s="36"/>
     </row>
     <row r="86" spans="1:30">
-      <c r="A86" s="7">
-        <v>44604</v>
-      </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8"/>
+      <c r="A86" s="5">
+        <v>44607</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
       <c r="S86" s="28"/>
-      <c r="T86" s="8"/>
-      <c r="U86" s="8"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
       <c r="V86" s="28"/>
       <c r="W86" s="28"/>
       <c r="X86" s="28"/>
@@ -6076,29 +6093,29 @@
       <c r="AD86" s="36"/>
     </row>
     <row r="87" spans="1:30">
-      <c r="A87" s="7">
-        <v>44605</v>
-      </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8"/>
+      <c r="A87" s="5">
+        <v>44608</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
       <c r="S87" s="28"/>
-      <c r="T87" s="8"/>
-      <c r="U87" s="8"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
       <c r="V87" s="28"/>
       <c r="W87" s="28"/>
       <c r="X87" s="28"/>
@@ -6110,29 +6127,29 @@
       <c r="AD87" s="36"/>
     </row>
     <row r="88" spans="1:30">
-      <c r="A88" s="7">
-        <v>44606</v>
-      </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="8"/>
+      <c r="A88" s="5">
+        <v>44609</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
       <c r="S88" s="28"/>
-      <c r="T88" s="8"/>
-      <c r="U88" s="8"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
       <c r="V88" s="28"/>
       <c r="W88" s="28"/>
       <c r="X88" s="28"/>
@@ -6144,29 +6161,29 @@
       <c r="AD88" s="36"/>
     </row>
     <row r="89" spans="1:30">
-      <c r="A89" s="7">
-        <v>44607</v>
-      </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
+      <c r="A89" s="5">
+        <v>44610</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
       <c r="S89" s="28"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
       <c r="V89" s="28"/>
       <c r="W89" s="28"/>
       <c r="X89" s="28"/>
@@ -6178,29 +6195,29 @@
       <c r="AD89" s="36"/>
     </row>
     <row r="90" spans="1:30">
-      <c r="A90" s="7">
-        <v>44608</v>
-      </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
+      <c r="A90" s="5">
+        <v>44611</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
       <c r="S90" s="28"/>
-      <c r="T90" s="8"/>
-      <c r="U90" s="8"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
       <c r="V90" s="28"/>
       <c r="W90" s="28"/>
       <c r="X90" s="28"/>
@@ -6212,29 +6229,29 @@
       <c r="AD90" s="36"/>
     </row>
     <row r="91" spans="1:30">
-      <c r="A91" s="7">
-        <v>44609</v>
-      </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
+      <c r="A91" s="5">
+        <v>44612</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
       <c r="S91" s="28"/>
-      <c r="T91" s="8"/>
-      <c r="U91" s="8"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
       <c r="V91" s="28"/>
       <c r="W91" s="28"/>
       <c r="X91" s="28"/>
@@ -6246,29 +6263,29 @@
       <c r="AD91" s="36"/>
     </row>
     <row r="92" spans="1:30">
-      <c r="A92" s="7">
-        <v>44610</v>
-      </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
+      <c r="A92" s="5">
+        <v>44613</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
       <c r="S92" s="28"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="8"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
       <c r="V92" s="28"/>
       <c r="W92" s="28"/>
       <c r="X92" s="28"/>
@@ -6280,29 +6297,29 @@
       <c r="AD92" s="36"/>
     </row>
     <row r="93" spans="1:30">
-      <c r="A93" s="7">
-        <v>44611</v>
-      </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
-      <c r="Q93" s="8"/>
-      <c r="R93" s="8"/>
+      <c r="A93" s="5">
+        <v>44614</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
       <c r="S93" s="28"/>
-      <c r="T93" s="8"/>
-      <c r="U93" s="8"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
       <c r="V93" s="28"/>
       <c r="W93" s="28"/>
       <c r="X93" s="28"/>
@@ -6314,29 +6331,29 @@
       <c r="AD93" s="36"/>
     </row>
     <row r="94" spans="1:30">
-      <c r="A94" s="7">
-        <v>44612</v>
-      </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
-      <c r="R94" s="8"/>
+      <c r="A94" s="5">
+        <v>44615</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
       <c r="S94" s="28"/>
-      <c r="T94" s="8"/>
-      <c r="U94" s="8"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
       <c r="V94" s="28"/>
       <c r="W94" s="28"/>
       <c r="X94" s="28"/>
@@ -6348,29 +6365,29 @@
       <c r="AD94" s="36"/>
     </row>
     <row r="95" spans="1:30">
-      <c r="A95" s="7">
-        <v>44613</v>
-      </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
+      <c r="A95" s="5">
+        <v>44616</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
       <c r="S95" s="28"/>
-      <c r="T95" s="8"/>
-      <c r="U95" s="8"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
       <c r="V95" s="28"/>
       <c r="W95" s="28"/>
       <c r="X95" s="28"/>
@@ -6382,29 +6399,29 @@
       <c r="AD95" s="36"/>
     </row>
     <row r="96" spans="1:30">
-      <c r="A96" s="7">
-        <v>44614</v>
-      </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-      <c r="Q96" s="8"/>
-      <c r="R96" s="8"/>
+      <c r="A96" s="5">
+        <v>44617</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
       <c r="S96" s="28"/>
-      <c r="T96" s="8"/>
-      <c r="U96" s="8"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
       <c r="V96" s="28"/>
       <c r="W96" s="28"/>
       <c r="X96" s="28"/>
@@ -6416,29 +6433,29 @@
       <c r="AD96" s="36"/>
     </row>
     <row r="97" spans="1:30">
-      <c r="A97" s="7">
-        <v>44615</v>
-      </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
+      <c r="A97" s="5">
+        <v>44618</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
       <c r="S97" s="28"/>
-      <c r="T97" s="8"/>
-      <c r="U97" s="8"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
       <c r="V97" s="28"/>
       <c r="W97" s="28"/>
       <c r="X97" s="28"/>
@@ -6450,29 +6467,29 @@
       <c r="AD97" s="36"/>
     </row>
     <row r="98" spans="1:30">
-      <c r="A98" s="7">
-        <v>44616</v>
-      </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-      <c r="Q98" s="8"/>
-      <c r="R98" s="8"/>
+      <c r="A98" s="5">
+        <v>44619</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
       <c r="S98" s="28"/>
-      <c r="T98" s="8"/>
-      <c r="U98" s="8"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
       <c r="V98" s="28"/>
       <c r="W98" s="28"/>
       <c r="X98" s="28"/>
@@ -6484,29 +6501,29 @@
       <c r="AD98" s="36"/>
     </row>
     <row r="99" spans="1:30">
-      <c r="A99" s="7">
-        <v>44617</v>
-      </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
-      <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="8"/>
+      <c r="A99" s="5">
+        <v>44620</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
       <c r="S99" s="28"/>
-      <c r="T99" s="8"/>
-      <c r="U99" s="8"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
       <c r="V99" s="28"/>
       <c r="W99" s="28"/>
       <c r="X99" s="28"/>
@@ -6518,29 +6535,29 @@
       <c r="AD99" s="36"/>
     </row>
     <row r="100" spans="1:30">
-      <c r="A100" s="7">
-        <v>44618</v>
-      </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8"/>
-      <c r="O100" s="8"/>
-      <c r="P100" s="8"/>
-      <c r="Q100" s="8"/>
-      <c r="R100" s="8"/>
+      <c r="A100" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
       <c r="S100" s="28"/>
-      <c r="T100" s="8"/>
-      <c r="U100" s="8"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
       <c r="V100" s="28"/>
       <c r="W100" s="28"/>
       <c r="X100" s="28"/>
@@ -6552,29 +6569,29 @@
       <c r="AD100" s="36"/>
     </row>
     <row r="101" spans="1:30">
-      <c r="A101" s="7">
-        <v>44619</v>
-      </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="8"/>
+      <c r="A101" s="5">
+        <v>44622</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
       <c r="S101" s="28"/>
-      <c r="T101" s="8"/>
-      <c r="U101" s="8"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
       <c r="V101" s="28"/>
       <c r="W101" s="28"/>
       <c r="X101" s="28"/>
@@ -6586,29 +6603,29 @@
       <c r="AD101" s="36"/>
     </row>
     <row r="102" spans="1:30">
-      <c r="A102" s="7">
-        <v>44620</v>
-      </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="8"/>
+      <c r="A102" s="5">
+        <v>44623</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
       <c r="S102" s="28"/>
-      <c r="T102" s="8"/>
-      <c r="U102" s="8"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
       <c r="V102" s="28"/>
       <c r="W102" s="28"/>
       <c r="X102" s="28"/>
@@ -6620,29 +6637,29 @@
       <c r="AD102" s="36"/>
     </row>
     <row r="103" spans="1:30">
-      <c r="A103" s="7">
-        <v>44621</v>
-      </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
+      <c r="A103" s="5">
+        <v>44624</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
       <c r="S103" s="28"/>
-      <c r="T103" s="8"/>
-      <c r="U103" s="8"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
       <c r="V103" s="28"/>
       <c r="W103" s="28"/>
       <c r="X103" s="28"/>
@@ -6654,29 +6671,29 @@
       <c r="AD103" s="36"/>
     </row>
     <row r="104" spans="1:30">
-      <c r="A104" s="7">
-        <v>44622</v>
-      </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-      <c r="Q104" s="8"/>
-      <c r="R104" s="8"/>
+      <c r="A104" s="5">
+        <v>44625</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
       <c r="S104" s="28"/>
-      <c r="T104" s="8"/>
-      <c r="U104" s="8"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="7"/>
       <c r="V104" s="28"/>
       <c r="W104" s="28"/>
       <c r="X104" s="28"/>
@@ -6688,29 +6705,29 @@
       <c r="AD104" s="36"/>
     </row>
     <row r="105" spans="1:30">
-      <c r="A105" s="7">
-        <v>44623</v>
-      </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-      <c r="P105" s="8"/>
-      <c r="Q105" s="8"/>
-      <c r="R105" s="8"/>
+      <c r="A105" s="5">
+        <v>44626</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7"/>
       <c r="S105" s="28"/>
-      <c r="T105" s="8"/>
-      <c r="U105" s="8"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
       <c r="V105" s="28"/>
       <c r="W105" s="28"/>
       <c r="X105" s="28"/>
@@ -6722,29 +6739,29 @@
       <c r="AD105" s="36"/>
     </row>
     <row r="106" spans="1:30">
-      <c r="A106" s="7">
-        <v>44624</v>
-      </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-      <c r="P106" s="8"/>
-      <c r="Q106" s="8"/>
-      <c r="R106" s="8"/>
+      <c r="A106" s="5">
+        <v>44627</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="7"/>
       <c r="S106" s="28"/>
-      <c r="T106" s="8"/>
-      <c r="U106" s="8"/>
+      <c r="T106" s="7"/>
+      <c r="U106" s="7"/>
       <c r="V106" s="28"/>
       <c r="W106" s="28"/>
       <c r="X106" s="28"/>
@@ -6756,29 +6773,29 @@
       <c r="AD106" s="36"/>
     </row>
     <row r="107" spans="1:30">
-      <c r="A107" s="7">
-        <v>44625</v>
-      </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="8"/>
-      <c r="P107" s="8"/>
-      <c r="Q107" s="8"/>
-      <c r="R107" s="8"/>
+      <c r="A107" s="5">
+        <v>44628</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
       <c r="S107" s="28"/>
-      <c r="T107" s="8"/>
-      <c r="U107" s="8"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
       <c r="V107" s="28"/>
       <c r="W107" s="28"/>
       <c r="X107" s="28"/>
@@ -6790,29 +6807,29 @@
       <c r="AD107" s="36"/>
     </row>
     <row r="108" spans="1:30">
-      <c r="A108" s="7">
-        <v>44626</v>
-      </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8"/>
-      <c r="O108" s="8"/>
-      <c r="P108" s="8"/>
-      <c r="Q108" s="8"/>
-      <c r="R108" s="8"/>
+      <c r="A108" s="5">
+        <v>44629</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7"/>
       <c r="S108" s="28"/>
-      <c r="T108" s="8"/>
-      <c r="U108" s="8"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="7"/>
       <c r="V108" s="28"/>
       <c r="W108" s="28"/>
       <c r="X108" s="28"/>
@@ -6824,29 +6841,29 @@
       <c r="AD108" s="36"/>
     </row>
     <row r="109" spans="1:30">
-      <c r="A109" s="7">
-        <v>44627</v>
-      </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8"/>
-      <c r="O109" s="8"/>
-      <c r="P109" s="8"/>
-      <c r="Q109" s="8"/>
-      <c r="R109" s="8"/>
+      <c r="A109" s="5">
+        <v>44630</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
       <c r="S109" s="28"/>
-      <c r="T109" s="8"/>
-      <c r="U109" s="8"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
       <c r="V109" s="28"/>
       <c r="W109" s="28"/>
       <c r="X109" s="28"/>
@@ -6858,29 +6875,29 @@
       <c r="AD109" s="36"/>
     </row>
     <row r="110" spans="1:30">
-      <c r="A110" s="7">
-        <v>44628</v>
-      </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
-      <c r="P110" s="8"/>
-      <c r="Q110" s="8"/>
-      <c r="R110" s="8"/>
+      <c r="A110" s="5">
+        <v>44631</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7"/>
+      <c r="R110" s="7"/>
       <c r="S110" s="28"/>
-      <c r="T110" s="8"/>
-      <c r="U110" s="8"/>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
       <c r="V110" s="28"/>
       <c r="W110" s="28"/>
       <c r="X110" s="28"/>
@@ -6892,29 +6909,29 @@
       <c r="AD110" s="36"/>
     </row>
     <row r="111" spans="1:30">
-      <c r="A111" s="7">
-        <v>44629</v>
-      </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-      <c r="Q111" s="8"/>
-      <c r="R111" s="8"/>
+      <c r="A111" s="5">
+        <v>44632</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7"/>
       <c r="S111" s="28"/>
-      <c r="T111" s="8"/>
-      <c r="U111" s="8"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
       <c r="V111" s="28"/>
       <c r="W111" s="28"/>
       <c r="X111" s="28"/>
@@ -6926,29 +6943,29 @@
       <c r="AD111" s="36"/>
     </row>
     <row r="112" spans="1:30">
-      <c r="A112" s="7">
-        <v>44630</v>
-      </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8"/>
-      <c r="O112" s="8"/>
-      <c r="P112" s="8"/>
-      <c r="Q112" s="8"/>
-      <c r="R112" s="8"/>
+      <c r="A112" s="5">
+        <v>44633</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="7"/>
+      <c r="R112" s="7"/>
       <c r="S112" s="28"/>
-      <c r="T112" s="8"/>
-      <c r="U112" s="8"/>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
       <c r="V112" s="28"/>
       <c r="W112" s="28"/>
       <c r="X112" s="28"/>
@@ -6960,29 +6977,29 @@
       <c r="AD112" s="36"/>
     </row>
     <row r="113" spans="1:30">
-      <c r="A113" s="7">
-        <v>44631</v>
-      </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8"/>
-      <c r="O113" s="8"/>
-      <c r="P113" s="8"/>
-      <c r="Q113" s="8"/>
-      <c r="R113" s="8"/>
+      <c r="A113" s="5">
+        <v>44634</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7"/>
       <c r="S113" s="28"/>
-      <c r="T113" s="8"/>
-      <c r="U113" s="8"/>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
       <c r="V113" s="28"/>
       <c r="W113" s="28"/>
       <c r="X113" s="28"/>
@@ -6994,29 +7011,29 @@
       <c r="AD113" s="36"/>
     </row>
     <row r="114" spans="1:30">
-      <c r="A114" s="7">
-        <v>44632</v>
-      </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
-      <c r="O114" s="8"/>
-      <c r="P114" s="8"/>
-      <c r="Q114" s="8"/>
-      <c r="R114" s="8"/>
+      <c r="A114" s="5">
+        <v>44635</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="7"/>
+      <c r="R114" s="7"/>
       <c r="S114" s="28"/>
-      <c r="T114" s="8"/>
-      <c r="U114" s="8"/>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
       <c r="V114" s="28"/>
       <c r="W114" s="28"/>
       <c r="X114" s="28"/>
@@ -7028,29 +7045,29 @@
       <c r="AD114" s="36"/>
     </row>
     <row r="115" spans="1:30">
-      <c r="A115" s="7">
-        <v>44633</v>
-      </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
-      <c r="O115" s="8"/>
-      <c r="P115" s="8"/>
-      <c r="Q115" s="8"/>
-      <c r="R115" s="8"/>
+      <c r="A115" s="5">
+        <v>44636</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="7"/>
       <c r="S115" s="28"/>
-      <c r="T115" s="8"/>
-      <c r="U115" s="8"/>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
       <c r="V115" s="28"/>
       <c r="W115" s="28"/>
       <c r="X115" s="28"/>
@@ -7062,29 +7079,29 @@
       <c r="AD115" s="36"/>
     </row>
     <row r="116" spans="1:30">
-      <c r="A116" s="7">
-        <v>44634</v>
-      </c>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
-      <c r="N116" s="8"/>
-      <c r="O116" s="8"/>
-      <c r="P116" s="8"/>
-      <c r="Q116" s="8"/>
-      <c r="R116" s="8"/>
+      <c r="A116" s="5">
+        <v>44637</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
+      <c r="R116" s="7"/>
       <c r="S116" s="28"/>
-      <c r="T116" s="8"/>
-      <c r="U116" s="8"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
       <c r="V116" s="28"/>
       <c r="W116" s="28"/>
       <c r="X116" s="28"/>
@@ -7096,29 +7113,29 @@
       <c r="AD116" s="36"/>
     </row>
     <row r="117" spans="1:30">
-      <c r="A117" s="7">
-        <v>44635</v>
-      </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
-      <c r="N117" s="8"/>
-      <c r="O117" s="8"/>
-      <c r="P117" s="8"/>
-      <c r="Q117" s="8"/>
-      <c r="R117" s="8"/>
+      <c r="A117" s="5">
+        <v>44638</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
       <c r="S117" s="28"/>
-      <c r="T117" s="8"/>
-      <c r="U117" s="8"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
       <c r="V117" s="28"/>
       <c r="W117" s="28"/>
       <c r="X117" s="28"/>
@@ -7130,29 +7147,29 @@
       <c r="AD117" s="36"/>
     </row>
     <row r="118" spans="1:30">
-      <c r="A118" s="7">
-        <v>44636</v>
-      </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="8"/>
-      <c r="N118" s="8"/>
-      <c r="O118" s="8"/>
-      <c r="P118" s="8"/>
-      <c r="Q118" s="8"/>
-      <c r="R118" s="8"/>
+      <c r="A118" s="5">
+        <v>44639</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7"/>
       <c r="S118" s="28"/>
-      <c r="T118" s="8"/>
-      <c r="U118" s="8"/>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
       <c r="V118" s="28"/>
       <c r="W118" s="28"/>
       <c r="X118" s="28"/>
@@ -7164,29 +7181,29 @@
       <c r="AD118" s="36"/>
     </row>
     <row r="119" spans="1:30">
-      <c r="A119" s="7">
-        <v>44637</v>
-      </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
-      <c r="M119" s="8"/>
-      <c r="N119" s="8"/>
-      <c r="O119" s="8"/>
-      <c r="P119" s="8"/>
-      <c r="Q119" s="8"/>
-      <c r="R119" s="8"/>
+      <c r="A119" s="5">
+        <v>44640</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7"/>
       <c r="S119" s="28"/>
-      <c r="T119" s="8"/>
-      <c r="U119" s="8"/>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
       <c r="V119" s="28"/>
       <c r="W119" s="28"/>
       <c r="X119" s="28"/>
@@ -7198,29 +7215,29 @@
       <c r="AD119" s="36"/>
     </row>
     <row r="120" spans="1:30">
-      <c r="A120" s="7">
-        <v>44638</v>
-      </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="8"/>
-      <c r="O120" s="8"/>
-      <c r="P120" s="8"/>
-      <c r="Q120" s="8"/>
-      <c r="R120" s="8"/>
+      <c r="A120" s="5">
+        <v>44641</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="7"/>
+      <c r="R120" s="7"/>
       <c r="S120" s="28"/>
-      <c r="T120" s="8"/>
-      <c r="U120" s="8"/>
+      <c r="T120" s="7"/>
+      <c r="U120" s="7"/>
       <c r="V120" s="28"/>
       <c r="W120" s="28"/>
       <c r="X120" s="28"/>
@@ -7232,29 +7249,29 @@
       <c r="AD120" s="36"/>
     </row>
     <row r="121" spans="1:30">
-      <c r="A121" s="7">
-        <v>44639</v>
-      </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
-      <c r="O121" s="8"/>
-      <c r="P121" s="8"/>
-      <c r="Q121" s="8"/>
-      <c r="R121" s="8"/>
+      <c r="A121" s="5">
+        <v>44642</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7"/>
       <c r="S121" s="28"/>
-      <c r="T121" s="8"/>
-      <c r="U121" s="8"/>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7"/>
       <c r="V121" s="28"/>
       <c r="W121" s="28"/>
       <c r="X121" s="28"/>
@@ -7266,29 +7283,29 @@
       <c r="AD121" s="36"/>
     </row>
     <row r="122" spans="1:30">
-      <c r="A122" s="7">
-        <v>44640</v>
-      </c>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="8"/>
-      <c r="O122" s="8"/>
-      <c r="P122" s="8"/>
-      <c r="Q122" s="8"/>
-      <c r="R122" s="8"/>
+      <c r="A122" s="5">
+        <v>44643</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="7"/>
+      <c r="R122" s="7"/>
       <c r="S122" s="28"/>
-      <c r="T122" s="8"/>
-      <c r="U122" s="8"/>
+      <c r="T122" s="7"/>
+      <c r="U122" s="7"/>
       <c r="V122" s="28"/>
       <c r="W122" s="28"/>
       <c r="X122" s="28"/>
@@ -7300,29 +7317,29 @@
       <c r="AD122" s="36"/>
     </row>
     <row r="123" spans="1:30">
-      <c r="A123" s="7">
-        <v>44641</v>
-      </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="8"/>
-      <c r="O123" s="8"/>
-      <c r="P123" s="8"/>
-      <c r="Q123" s="8"/>
-      <c r="R123" s="8"/>
+      <c r="A123" s="5">
+        <v>44644</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="7"/>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="7"/>
+      <c r="R123" s="7"/>
       <c r="S123" s="28"/>
-      <c r="T123" s="8"/>
-      <c r="U123" s="8"/>
+      <c r="T123" s="7"/>
+      <c r="U123" s="7"/>
       <c r="V123" s="28"/>
       <c r="W123" s="28"/>
       <c r="X123" s="28"/>
@@ -7334,29 +7351,29 @@
       <c r="AD123" s="36"/>
     </row>
     <row r="124" spans="1:30">
-      <c r="A124" s="7">
-        <v>44642</v>
-      </c>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="8"/>
-      <c r="O124" s="8"/>
-      <c r="P124" s="8"/>
-      <c r="Q124" s="8"/>
-      <c r="R124" s="8"/>
+      <c r="A124" s="5">
+        <v>44645</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="7"/>
+      <c r="P124" s="7"/>
+      <c r="Q124" s="7"/>
+      <c r="R124" s="7"/>
       <c r="S124" s="28"/>
-      <c r="T124" s="8"/>
-      <c r="U124" s="8"/>
+      <c r="T124" s="7"/>
+      <c r="U124" s="7"/>
       <c r="V124" s="28"/>
       <c r="W124" s="28"/>
       <c r="X124" s="28"/>
@@ -7368,29 +7385,29 @@
       <c r="AD124" s="36"/>
     </row>
     <row r="125" spans="1:30">
-      <c r="A125" s="7">
-        <v>44643</v>
-      </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="8"/>
-      <c r="O125" s="8"/>
-      <c r="P125" s="8"/>
-      <c r="Q125" s="8"/>
-      <c r="R125" s="8"/>
+      <c r="A125" s="5">
+        <v>44646</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="7"/>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7"/>
+      <c r="R125" s="7"/>
       <c r="S125" s="28"/>
-      <c r="T125" s="8"/>
-      <c r="U125" s="8"/>
+      <c r="T125" s="7"/>
+      <c r="U125" s="7"/>
       <c r="V125" s="28"/>
       <c r="W125" s="28"/>
       <c r="X125" s="28"/>
@@ -7402,29 +7419,29 @@
       <c r="AD125" s="36"/>
     </row>
     <row r="126" spans="1:30">
-      <c r="A126" s="7">
-        <v>44644</v>
-      </c>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="8"/>
-      <c r="O126" s="8"/>
-      <c r="P126" s="8"/>
-      <c r="Q126" s="8"/>
-      <c r="R126" s="8"/>
+      <c r="A126" s="5">
+        <v>44647</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="7"/>
+      <c r="P126" s="7"/>
+      <c r="Q126" s="7"/>
+      <c r="R126" s="7"/>
       <c r="S126" s="28"/>
-      <c r="T126" s="8"/>
-      <c r="U126" s="8"/>
+      <c r="T126" s="7"/>
+      <c r="U126" s="7"/>
       <c r="V126" s="28"/>
       <c r="W126" s="28"/>
       <c r="X126" s="28"/>
@@ -7436,29 +7453,29 @@
       <c r="AD126" s="36"/>
     </row>
     <row r="127" spans="1:30">
-      <c r="A127" s="7">
-        <v>44645</v>
-      </c>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
-      <c r="K127" s="8"/>
-      <c r="L127" s="8"/>
-      <c r="M127" s="8"/>
-      <c r="N127" s="8"/>
-      <c r="O127" s="8"/>
-      <c r="P127" s="8"/>
-      <c r="Q127" s="8"/>
-      <c r="R127" s="8"/>
+      <c r="A127" s="5">
+        <v>44648</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
+      <c r="O127" s="7"/>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="7"/>
+      <c r="R127" s="7"/>
       <c r="S127" s="28"/>
-      <c r="T127" s="8"/>
-      <c r="U127" s="8"/>
+      <c r="T127" s="7"/>
+      <c r="U127" s="7"/>
       <c r="V127" s="28"/>
       <c r="W127" s="28"/>
       <c r="X127" s="28"/>
@@ -7470,29 +7487,29 @@
       <c r="AD127" s="36"/>
     </row>
     <row r="128" spans="1:30">
-      <c r="A128" s="7">
-        <v>44646</v>
-      </c>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
-      <c r="M128" s="8"/>
-      <c r="N128" s="8"/>
-      <c r="O128" s="8"/>
-      <c r="P128" s="8"/>
-      <c r="Q128" s="8"/>
-      <c r="R128" s="8"/>
+      <c r="A128" s="5">
+        <v>44649</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
+      <c r="P128" s="7"/>
+      <c r="Q128" s="7"/>
+      <c r="R128" s="7"/>
       <c r="S128" s="28"/>
-      <c r="T128" s="8"/>
-      <c r="U128" s="8"/>
+      <c r="T128" s="7"/>
+      <c r="U128" s="7"/>
       <c r="V128" s="28"/>
       <c r="W128" s="28"/>
       <c r="X128" s="28"/>
@@ -7504,29 +7521,29 @@
       <c r="AD128" s="36"/>
     </row>
     <row r="129" spans="1:30">
-      <c r="A129" s="7">
-        <v>44647</v>
-      </c>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="8"/>
-      <c r="J129" s="8"/>
-      <c r="K129" s="8"/>
-      <c r="L129" s="8"/>
-      <c r="M129" s="8"/>
-      <c r="N129" s="8"/>
-      <c r="O129" s="8"/>
-      <c r="P129" s="8"/>
-      <c r="Q129" s="8"/>
-      <c r="R129" s="8"/>
+      <c r="A129" s="5">
+        <v>44650</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
+      <c r="O129" s="7"/>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="7"/>
+      <c r="R129" s="7"/>
       <c r="S129" s="28"/>
-      <c r="T129" s="8"/>
-      <c r="U129" s="8"/>
+      <c r="T129" s="7"/>
+      <c r="U129" s="7"/>
       <c r="V129" s="28"/>
       <c r="W129" s="28"/>
       <c r="X129" s="28"/>
@@ -7538,29 +7555,29 @@
       <c r="AD129" s="36"/>
     </row>
     <row r="130" spans="1:30">
-      <c r="A130" s="7">
-        <v>44648</v>
-      </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="8"/>
-      <c r="K130" s="8"/>
-      <c r="L130" s="8"/>
-      <c r="M130" s="8"/>
-      <c r="N130" s="8"/>
-      <c r="O130" s="8"/>
-      <c r="P130" s="8"/>
-      <c r="Q130" s="8"/>
-      <c r="R130" s="8"/>
+      <c r="A130" s="5">
+        <v>44651</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7"/>
+      <c r="O130" s="7"/>
+      <c r="P130" s="7"/>
+      <c r="Q130" s="7"/>
+      <c r="R130" s="7"/>
       <c r="S130" s="28"/>
-      <c r="T130" s="8"/>
-      <c r="U130" s="8"/>
+      <c r="T130" s="7"/>
+      <c r="U130" s="7"/>
       <c r="V130" s="28"/>
       <c r="W130" s="28"/>
       <c r="X130" s="28"/>
@@ -7572,29 +7589,29 @@
       <c r="AD130" s="36"/>
     </row>
     <row r="131" spans="1:30">
-      <c r="A131" s="7">
-        <v>44649</v>
-      </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="8"/>
-      <c r="L131" s="8"/>
-      <c r="M131" s="8"/>
-      <c r="N131" s="8"/>
-      <c r="O131" s="8"/>
-      <c r="P131" s="8"/>
-      <c r="Q131" s="8"/>
-      <c r="R131" s="8"/>
+      <c r="A131" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="7"/>
+      <c r="O131" s="7"/>
+      <c r="P131" s="7"/>
+      <c r="Q131" s="7"/>
+      <c r="R131" s="7"/>
       <c r="S131" s="28"/>
-      <c r="T131" s="8"/>
-      <c r="U131" s="8"/>
+      <c r="T131" s="7"/>
+      <c r="U131" s="7"/>
       <c r="V131" s="28"/>
       <c r="W131" s="28"/>
       <c r="X131" s="28"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -3038,7 +3038,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:A131"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3342,13 +3342,27 @@
       <c r="A6" s="5">
         <v>44527</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="B6" s="6">
+        <v>75.44</v>
+      </c>
+      <c r="C6" s="6">
+        <v>74.7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>77.98</v>
+      </c>
+      <c r="E6" s="6">
+        <v>74.5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>69.57</v>
+      </c>
+      <c r="G6" s="6">
+        <v>68.75</v>
+      </c>
+      <c r="H6" s="6">
+        <v>6.68</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -25,7 +25,7 @@
     <t>当日行情走势</t>
   </si>
   <si>
-    <t>入场一到两周止损卖出指标</t>
+    <t>入场一到两周止损卖出指标(短期策略)</t>
   </si>
   <si>
     <t>盈亏平衡点到强势卖出阶段的策略(中期策略)</t>
@@ -3034,11 +3034,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3295,7 +3295,7 @@
         <v>6.49</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>37</v>
@@ -3306,9 +3306,11 @@
       </c>
       <c r="L5" s="14">
         <f>I5/(ROW()-2)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="7"/>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="N5" s="7" t="s">
         <v>38</v>
       </c>
@@ -3322,7 +3324,7 @@
         <v>38</v>
       </c>
       <c r="R5" s="18" t="str">
-        <f>IF(B5&gt;=(D5-(D5-E5)/3),"上部",IF(B5&gt;=(E5+(D5-E5)/3),"中部","下部"))</f>
+        <f>IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
       <c r="S5" s="25"/>
@@ -3336,7 +3338,9 @@
       <c r="AA5" s="28"/>
       <c r="AB5" s="28"/>
       <c r="AC5" s="28"/>
-      <c r="AD5" s="36"/>
+      <c r="AD5" s="36">
+        <v>67.53</v>
+      </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="5">
@@ -3363,16 +3367,40 @@
       <c r="H6" s="6">
         <v>6.68</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="15">
+        <f>(B6-B5)/B5</f>
+        <v>0.0588070175438596</v>
+      </c>
+      <c r="K6" s="13">
+        <f>(D6-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
+        <v>0.0820036076037188</v>
+      </c>
+      <c r="L6" s="14">
+        <f>I6/(ROW()-2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="18" t="str">
+        <f>IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
+        <v>下部</v>
+      </c>
       <c r="S6" s="6"/>
       <c r="T6" s="27"/>
       <c r="U6" s="32"/>
@@ -3384,7 +3412,9 @@
       <c r="AA6" s="28"/>
       <c r="AB6" s="28"/>
       <c r="AC6" s="28"/>
-      <c r="AD6" s="36"/>
+      <c r="AD6" s="36">
+        <v>67.53</v>
+      </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="5">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -3038,7 +3038,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD6" sqref="AD6"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3289,8 +3289,12 @@
       <c r="E5" s="6">
         <v>70.4</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="6">
+        <v>68.96</v>
+      </c>
+      <c r="G5" s="6">
+        <v>68.48</v>
+      </c>
       <c r="H5" s="6">
         <v>6.49</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -3034,11 +3034,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -3034,11 +3034,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3309,8 +3309,8 @@
         <v>0.033717219370057</v>
       </c>
       <c r="L5" s="14">
-        <f>I5/(ROW()-2)</f>
-        <v>0.333333333333333</v>
+        <f>I5/(ROW()-4)</f>
+        <v>1</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>38</v>
@@ -3383,8 +3383,8 @@
         <v>0.0820036076037188</v>
       </c>
       <c r="L6" s="14">
-        <f>I6/(ROW()-2)</f>
-        <v>0.5</v>
+        <f>I6/(ROW()-4)</f>
+        <v>1</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>38</v>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -459,13 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,7 +1017,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1026,13 +1026,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,7 +1056,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1071,10 +1071,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3034,11 +3034,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -3038,7 +3038,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -224,14 +224,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,8 +269,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,30 +313,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -323,7 +331,37 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,52 +377,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,7 +393,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,9 +406,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -501,7 +514,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,25 +568,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,13 +592,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,43 +664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,67 +676,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,6 +746,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -744,6 +766,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,37 +800,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,17 +830,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,152 +845,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,10 +1006,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1053,7 +1066,7 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1071,10 +1084,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,9 +1098,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3034,7 +3044,7 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3342,7 +3352,7 @@
       <c r="AA5" s="28"/>
       <c r="AB5" s="28"/>
       <c r="AC5" s="28"/>
-      <c r="AD5" s="36">
+      <c r="AD5" s="28">
         <v>67.53</v>
       </c>
     </row>
@@ -3416,7 +3426,7 @@
       <c r="AA6" s="28"/>
       <c r="AB6" s="28"/>
       <c r="AC6" s="28"/>
-      <c r="AD6" s="36">
+      <c r="AD6" s="28">
         <v>67.53</v>
       </c>
     </row>
@@ -3452,7 +3462,7 @@
       <c r="AA7" s="28"/>
       <c r="AB7" s="28"/>
       <c r="AC7" s="28"/>
-      <c r="AD7" s="36"/>
+      <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="5">
@@ -3486,7 +3496,7 @@
       <c r="AA8" s="28"/>
       <c r="AB8" s="28"/>
       <c r="AC8" s="28"/>
-      <c r="AD8" s="36"/>
+      <c r="AD8" s="28"/>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="5">
@@ -3520,7 +3530,7 @@
       <c r="AA9" s="28"/>
       <c r="AB9" s="28"/>
       <c r="AC9" s="28"/>
-      <c r="AD9" s="36"/>
+      <c r="AD9" s="28"/>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="5">
@@ -3554,7 +3564,7 @@
       <c r="AA10" s="28"/>
       <c r="AB10" s="28"/>
       <c r="AC10" s="28"/>
-      <c r="AD10" s="36"/>
+      <c r="AD10" s="28"/>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="5">
@@ -3588,7 +3598,7 @@
       <c r="AA11" s="28"/>
       <c r="AB11" s="28"/>
       <c r="AC11" s="28"/>
-      <c r="AD11" s="36"/>
+      <c r="AD11" s="28"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="5">
@@ -3622,7 +3632,7 @@
       <c r="AA12" s="28"/>
       <c r="AB12" s="28"/>
       <c r="AC12" s="28"/>
-      <c r="AD12" s="36"/>
+      <c r="AD12" s="28"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="5">
@@ -3656,7 +3666,7 @@
       <c r="AA13" s="28"/>
       <c r="AB13" s="28"/>
       <c r="AC13" s="28"/>
-      <c r="AD13" s="36"/>
+      <c r="AD13" s="28"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="5">
@@ -3690,7 +3700,7 @@
       <c r="AA14" s="28"/>
       <c r="AB14" s="28"/>
       <c r="AC14" s="28"/>
-      <c r="AD14" s="36"/>
+      <c r="AD14" s="28"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="5">
@@ -3724,7 +3734,7 @@
       <c r="AA15" s="28"/>
       <c r="AB15" s="28"/>
       <c r="AC15" s="28"/>
-      <c r="AD15" s="36"/>
+      <c r="AD15" s="28"/>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="5">
@@ -3758,7 +3768,7 @@
       <c r="AA16" s="28"/>
       <c r="AB16" s="28"/>
       <c r="AC16" s="28"/>
-      <c r="AD16" s="36"/>
+      <c r="AD16" s="28"/>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="5">
@@ -3792,7 +3802,7 @@
       <c r="AA17" s="28"/>
       <c r="AB17" s="28"/>
       <c r="AC17" s="28"/>
-      <c r="AD17" s="36"/>
+      <c r="AD17" s="28"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="5">
@@ -3826,7 +3836,7 @@
       <c r="AA18" s="28"/>
       <c r="AB18" s="28"/>
       <c r="AC18" s="28"/>
-      <c r="AD18" s="36"/>
+      <c r="AD18" s="28"/>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="5">
@@ -3860,7 +3870,7 @@
       <c r="AA19" s="28"/>
       <c r="AB19" s="28"/>
       <c r="AC19" s="28"/>
-      <c r="AD19" s="36"/>
+      <c r="AD19" s="28"/>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="5">
@@ -3894,7 +3904,7 @@
       <c r="AA20" s="28"/>
       <c r="AB20" s="28"/>
       <c r="AC20" s="28"/>
-      <c r="AD20" s="36"/>
+      <c r="AD20" s="28"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="5">
@@ -3928,7 +3938,7 @@
       <c r="AA21" s="28"/>
       <c r="AB21" s="28"/>
       <c r="AC21" s="28"/>
-      <c r="AD21" s="36"/>
+      <c r="AD21" s="28"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="5">
@@ -3962,7 +3972,7 @@
       <c r="AA22" s="28"/>
       <c r="AB22" s="28"/>
       <c r="AC22" s="28"/>
-      <c r="AD22" s="36"/>
+      <c r="AD22" s="28"/>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="5">
@@ -3996,7 +4006,7 @@
       <c r="AA23" s="28"/>
       <c r="AB23" s="28"/>
       <c r="AC23" s="28"/>
-      <c r="AD23" s="36"/>
+      <c r="AD23" s="28"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="5">
@@ -4030,7 +4040,7 @@
       <c r="AA24" s="28"/>
       <c r="AB24" s="28"/>
       <c r="AC24" s="28"/>
-      <c r="AD24" s="36"/>
+      <c r="AD24" s="28"/>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="5">
@@ -4064,7 +4074,7 @@
       <c r="AA25" s="28"/>
       <c r="AB25" s="28"/>
       <c r="AC25" s="28"/>
-      <c r="AD25" s="36"/>
+      <c r="AD25" s="28"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="5">
@@ -4098,7 +4108,7 @@
       <c r="AA26" s="28"/>
       <c r="AB26" s="28"/>
       <c r="AC26" s="28"/>
-      <c r="AD26" s="36"/>
+      <c r="AD26" s="28"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="5">
@@ -4132,7 +4142,7 @@
       <c r="AA27" s="28"/>
       <c r="AB27" s="28"/>
       <c r="AC27" s="28"/>
-      <c r="AD27" s="36"/>
+      <c r="AD27" s="28"/>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="5">
@@ -4166,7 +4176,7 @@
       <c r="AA28" s="28"/>
       <c r="AB28" s="28"/>
       <c r="AC28" s="28"/>
-      <c r="AD28" s="36"/>
+      <c r="AD28" s="28"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="5">
@@ -4200,7 +4210,7 @@
       <c r="AA29" s="28"/>
       <c r="AB29" s="28"/>
       <c r="AC29" s="28"/>
-      <c r="AD29" s="36"/>
+      <c r="AD29" s="28"/>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="5">
@@ -4234,7 +4244,7 @@
       <c r="AA30" s="28"/>
       <c r="AB30" s="28"/>
       <c r="AC30" s="28"/>
-      <c r="AD30" s="36"/>
+      <c r="AD30" s="28"/>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="5">
@@ -4268,7 +4278,7 @@
       <c r="AA31" s="28"/>
       <c r="AB31" s="28"/>
       <c r="AC31" s="28"/>
-      <c r="AD31" s="36"/>
+      <c r="AD31" s="28"/>
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="5">
@@ -4302,7 +4312,7 @@
       <c r="AA32" s="28"/>
       <c r="AB32" s="28"/>
       <c r="AC32" s="28"/>
-      <c r="AD32" s="36"/>
+      <c r="AD32" s="28"/>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="5">
@@ -4336,7 +4346,7 @@
       <c r="AA33" s="28"/>
       <c r="AB33" s="28"/>
       <c r="AC33" s="28"/>
-      <c r="AD33" s="36"/>
+      <c r="AD33" s="28"/>
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="5">
@@ -4370,7 +4380,7 @@
       <c r="AA34" s="28"/>
       <c r="AB34" s="28"/>
       <c r="AC34" s="28"/>
-      <c r="AD34" s="36"/>
+      <c r="AD34" s="28"/>
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="5">
@@ -4404,7 +4414,7 @@
       <c r="AA35" s="28"/>
       <c r="AB35" s="28"/>
       <c r="AC35" s="28"/>
-      <c r="AD35" s="36"/>
+      <c r="AD35" s="28"/>
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="5">
@@ -4438,7 +4448,7 @@
       <c r="AA36" s="28"/>
       <c r="AB36" s="28"/>
       <c r="AC36" s="28"/>
-      <c r="AD36" s="36"/>
+      <c r="AD36" s="28"/>
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="5">
@@ -4472,7 +4482,7 @@
       <c r="AA37" s="28"/>
       <c r="AB37" s="28"/>
       <c r="AC37" s="28"/>
-      <c r="AD37" s="36"/>
+      <c r="AD37" s="28"/>
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="5">
@@ -4506,7 +4516,7 @@
       <c r="AA38" s="28"/>
       <c r="AB38" s="28"/>
       <c r="AC38" s="28"/>
-      <c r="AD38" s="36"/>
+      <c r="AD38" s="28"/>
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="5">
@@ -4540,7 +4550,7 @@
       <c r="AA39" s="28"/>
       <c r="AB39" s="28"/>
       <c r="AC39" s="28"/>
-      <c r="AD39" s="36"/>
+      <c r="AD39" s="28"/>
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="5">
@@ -4574,7 +4584,7 @@
       <c r="AA40" s="28"/>
       <c r="AB40" s="28"/>
       <c r="AC40" s="28"/>
-      <c r="AD40" s="36"/>
+      <c r="AD40" s="28"/>
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="5">
@@ -4608,7 +4618,7 @@
       <c r="AA41" s="28"/>
       <c r="AB41" s="28"/>
       <c r="AC41" s="28"/>
-      <c r="AD41" s="36"/>
+      <c r="AD41" s="28"/>
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="5">
@@ -4642,7 +4652,7 @@
       <c r="AA42" s="28"/>
       <c r="AB42" s="28"/>
       <c r="AC42" s="28"/>
-      <c r="AD42" s="36"/>
+      <c r="AD42" s="28"/>
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="5">
@@ -4676,7 +4686,7 @@
       <c r="AA43" s="28"/>
       <c r="AB43" s="28"/>
       <c r="AC43" s="28"/>
-      <c r="AD43" s="36"/>
+      <c r="AD43" s="28"/>
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="5">
@@ -4710,7 +4720,7 @@
       <c r="AA44" s="28"/>
       <c r="AB44" s="28"/>
       <c r="AC44" s="28"/>
-      <c r="AD44" s="36"/>
+      <c r="AD44" s="28"/>
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="5">
@@ -4744,7 +4754,7 @@
       <c r="AA45" s="28"/>
       <c r="AB45" s="28"/>
       <c r="AC45" s="28"/>
-      <c r="AD45" s="36"/>
+      <c r="AD45" s="28"/>
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="5">
@@ -4778,7 +4788,7 @@
       <c r="AA46" s="28"/>
       <c r="AB46" s="28"/>
       <c r="AC46" s="28"/>
-      <c r="AD46" s="36"/>
+      <c r="AD46" s="28"/>
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="5">
@@ -4812,7 +4822,7 @@
       <c r="AA47" s="28"/>
       <c r="AB47" s="28"/>
       <c r="AC47" s="28"/>
-      <c r="AD47" s="36"/>
+      <c r="AD47" s="28"/>
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="5">
@@ -4846,7 +4856,7 @@
       <c r="AA48" s="28"/>
       <c r="AB48" s="28"/>
       <c r="AC48" s="28"/>
-      <c r="AD48" s="36"/>
+      <c r="AD48" s="28"/>
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="5">
@@ -4880,7 +4890,7 @@
       <c r="AA49" s="28"/>
       <c r="AB49" s="28"/>
       <c r="AC49" s="28"/>
-      <c r="AD49" s="36"/>
+      <c r="AD49" s="28"/>
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="5">
@@ -4914,7 +4924,7 @@
       <c r="AA50" s="28"/>
       <c r="AB50" s="28"/>
       <c r="AC50" s="28"/>
-      <c r="AD50" s="36"/>
+      <c r="AD50" s="28"/>
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="5">
@@ -4948,7 +4958,7 @@
       <c r="AA51" s="28"/>
       <c r="AB51" s="28"/>
       <c r="AC51" s="28"/>
-      <c r="AD51" s="36"/>
+      <c r="AD51" s="28"/>
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="5">
@@ -4982,7 +4992,7 @@
       <c r="AA52" s="28"/>
       <c r="AB52" s="28"/>
       <c r="AC52" s="28"/>
-      <c r="AD52" s="36"/>
+      <c r="AD52" s="28"/>
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="5">
@@ -5016,7 +5026,7 @@
       <c r="AA53" s="28"/>
       <c r="AB53" s="28"/>
       <c r="AC53" s="28"/>
-      <c r="AD53" s="36"/>
+      <c r="AD53" s="28"/>
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="5">
@@ -5050,7 +5060,7 @@
       <c r="AA54" s="28"/>
       <c r="AB54" s="28"/>
       <c r="AC54" s="28"/>
-      <c r="AD54" s="36"/>
+      <c r="AD54" s="28"/>
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="5">
@@ -5084,7 +5094,7 @@
       <c r="AA55" s="28"/>
       <c r="AB55" s="28"/>
       <c r="AC55" s="28"/>
-      <c r="AD55" s="36"/>
+      <c r="AD55" s="28"/>
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="5">
@@ -5118,7 +5128,7 @@
       <c r="AA56" s="28"/>
       <c r="AB56" s="28"/>
       <c r="AC56" s="28"/>
-      <c r="AD56" s="36"/>
+      <c r="AD56" s="28"/>
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="5">
@@ -5152,7 +5162,7 @@
       <c r="AA57" s="28"/>
       <c r="AB57" s="28"/>
       <c r="AC57" s="28"/>
-      <c r="AD57" s="36"/>
+      <c r="AD57" s="28"/>
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="5">
@@ -5186,7 +5196,7 @@
       <c r="AA58" s="28"/>
       <c r="AB58" s="28"/>
       <c r="AC58" s="28"/>
-      <c r="AD58" s="36"/>
+      <c r="AD58" s="28"/>
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="5">
@@ -5220,7 +5230,7 @@
       <c r="AA59" s="28"/>
       <c r="AB59" s="28"/>
       <c r="AC59" s="28"/>
-      <c r="AD59" s="36"/>
+      <c r="AD59" s="28"/>
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="5">
@@ -5254,7 +5264,7 @@
       <c r="AA60" s="28"/>
       <c r="AB60" s="28"/>
       <c r="AC60" s="28"/>
-      <c r="AD60" s="36"/>
+      <c r="AD60" s="28"/>
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="5">
@@ -5288,7 +5298,7 @@
       <c r="AA61" s="28"/>
       <c r="AB61" s="28"/>
       <c r="AC61" s="28"/>
-      <c r="AD61" s="36"/>
+      <c r="AD61" s="28"/>
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="5">
@@ -5322,7 +5332,7 @@
       <c r="AA62" s="28"/>
       <c r="AB62" s="28"/>
       <c r="AC62" s="28"/>
-      <c r="AD62" s="36"/>
+      <c r="AD62" s="28"/>
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="5">
@@ -5356,7 +5366,7 @@
       <c r="AA63" s="28"/>
       <c r="AB63" s="28"/>
       <c r="AC63" s="28"/>
-      <c r="AD63" s="36"/>
+      <c r="AD63" s="28"/>
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="5">
@@ -5390,7 +5400,7 @@
       <c r="AA64" s="28"/>
       <c r="AB64" s="28"/>
       <c r="AC64" s="28"/>
-      <c r="AD64" s="36"/>
+      <c r="AD64" s="28"/>
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="5">
@@ -5424,7 +5434,7 @@
       <c r="AA65" s="28"/>
       <c r="AB65" s="28"/>
       <c r="AC65" s="28"/>
-      <c r="AD65" s="36"/>
+      <c r="AD65" s="28"/>
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="5">
@@ -5458,7 +5468,7 @@
       <c r="AA66" s="28"/>
       <c r="AB66" s="28"/>
       <c r="AC66" s="28"/>
-      <c r="AD66" s="36"/>
+      <c r="AD66" s="28"/>
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="5">
@@ -5492,7 +5502,7 @@
       <c r="AA67" s="28"/>
       <c r="AB67" s="28"/>
       <c r="AC67" s="28"/>
-      <c r="AD67" s="36"/>
+      <c r="AD67" s="28"/>
     </row>
     <row r="68" spans="1:30">
       <c r="A68" s="5">
@@ -5526,7 +5536,7 @@
       <c r="AA68" s="28"/>
       <c r="AB68" s="28"/>
       <c r="AC68" s="28"/>
-      <c r="AD68" s="36"/>
+      <c r="AD68" s="28"/>
     </row>
     <row r="69" spans="1:30">
       <c r="A69" s="5">
@@ -5560,7 +5570,7 @@
       <c r="AA69" s="28"/>
       <c r="AB69" s="28"/>
       <c r="AC69" s="28"/>
-      <c r="AD69" s="36"/>
+      <c r="AD69" s="28"/>
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="5">
@@ -5594,7 +5604,7 @@
       <c r="AA70" s="28"/>
       <c r="AB70" s="28"/>
       <c r="AC70" s="28"/>
-      <c r="AD70" s="36"/>
+      <c r="AD70" s="28"/>
     </row>
     <row r="71" spans="1:30">
       <c r="A71" s="5">
@@ -5628,7 +5638,7 @@
       <c r="AA71" s="28"/>
       <c r="AB71" s="28"/>
       <c r="AC71" s="28"/>
-      <c r="AD71" s="36"/>
+      <c r="AD71" s="28"/>
     </row>
     <row r="72" spans="1:30">
       <c r="A72" s="5">
@@ -5662,7 +5672,7 @@
       <c r="AA72" s="28"/>
       <c r="AB72" s="28"/>
       <c r="AC72" s="28"/>
-      <c r="AD72" s="36"/>
+      <c r="AD72" s="28"/>
     </row>
     <row r="73" spans="1:30">
       <c r="A73" s="5">
@@ -5696,7 +5706,7 @@
       <c r="AA73" s="28"/>
       <c r="AB73" s="28"/>
       <c r="AC73" s="28"/>
-      <c r="AD73" s="36"/>
+      <c r="AD73" s="28"/>
     </row>
     <row r="74" spans="1:30">
       <c r="A74" s="5">
@@ -5730,7 +5740,7 @@
       <c r="AA74" s="28"/>
       <c r="AB74" s="28"/>
       <c r="AC74" s="28"/>
-      <c r="AD74" s="36"/>
+      <c r="AD74" s="28"/>
     </row>
     <row r="75" spans="1:30">
       <c r="A75" s="5">
@@ -5764,7 +5774,7 @@
       <c r="AA75" s="28"/>
       <c r="AB75" s="28"/>
       <c r="AC75" s="28"/>
-      <c r="AD75" s="36"/>
+      <c r="AD75" s="28"/>
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="5">
@@ -5798,7 +5808,7 @@
       <c r="AA76" s="28"/>
       <c r="AB76" s="28"/>
       <c r="AC76" s="28"/>
-      <c r="AD76" s="36"/>
+      <c r="AD76" s="28"/>
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="5">
@@ -5832,7 +5842,7 @@
       <c r="AA77" s="28"/>
       <c r="AB77" s="28"/>
       <c r="AC77" s="28"/>
-      <c r="AD77" s="36"/>
+      <c r="AD77" s="28"/>
     </row>
     <row r="78" spans="1:30">
       <c r="A78" s="5">
@@ -5866,7 +5876,7 @@
       <c r="AA78" s="28"/>
       <c r="AB78" s="28"/>
       <c r="AC78" s="28"/>
-      <c r="AD78" s="36"/>
+      <c r="AD78" s="28"/>
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="5">
@@ -5900,7 +5910,7 @@
       <c r="AA79" s="28"/>
       <c r="AB79" s="28"/>
       <c r="AC79" s="28"/>
-      <c r="AD79" s="36"/>
+      <c r="AD79" s="28"/>
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="5">
@@ -5934,7 +5944,7 @@
       <c r="AA80" s="28"/>
       <c r="AB80" s="28"/>
       <c r="AC80" s="28"/>
-      <c r="AD80" s="36"/>
+      <c r="AD80" s="28"/>
     </row>
     <row r="81" spans="1:30">
       <c r="A81" s="5">
@@ -5968,7 +5978,7 @@
       <c r="AA81" s="28"/>
       <c r="AB81" s="28"/>
       <c r="AC81" s="28"/>
-      <c r="AD81" s="36"/>
+      <c r="AD81" s="28"/>
     </row>
     <row r="82" spans="1:30">
       <c r="A82" s="5">
@@ -6002,7 +6012,7 @@
       <c r="AA82" s="28"/>
       <c r="AB82" s="28"/>
       <c r="AC82" s="28"/>
-      <c r="AD82" s="36"/>
+      <c r="AD82" s="28"/>
     </row>
     <row r="83" spans="1:30">
       <c r="A83" s="5">
@@ -6036,7 +6046,7 @@
       <c r="AA83" s="28"/>
       <c r="AB83" s="28"/>
       <c r="AC83" s="28"/>
-      <c r="AD83" s="36"/>
+      <c r="AD83" s="28"/>
     </row>
     <row r="84" spans="1:30">
       <c r="A84" s="5">
@@ -6070,7 +6080,7 @@
       <c r="AA84" s="28"/>
       <c r="AB84" s="28"/>
       <c r="AC84" s="28"/>
-      <c r="AD84" s="36"/>
+      <c r="AD84" s="28"/>
     </row>
     <row r="85" spans="1:30">
       <c r="A85" s="5">
@@ -6104,7 +6114,7 @@
       <c r="AA85" s="28"/>
       <c r="AB85" s="28"/>
       <c r="AC85" s="28"/>
-      <c r="AD85" s="36"/>
+      <c r="AD85" s="28"/>
     </row>
     <row r="86" spans="1:30">
       <c r="A86" s="5">
@@ -6138,7 +6148,7 @@
       <c r="AA86" s="28"/>
       <c r="AB86" s="28"/>
       <c r="AC86" s="28"/>
-      <c r="AD86" s="36"/>
+      <c r="AD86" s="28"/>
     </row>
     <row r="87" spans="1:30">
       <c r="A87" s="5">
@@ -6172,7 +6182,7 @@
       <c r="AA87" s="28"/>
       <c r="AB87" s="28"/>
       <c r="AC87" s="28"/>
-      <c r="AD87" s="36"/>
+      <c r="AD87" s="28"/>
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="5">
@@ -6206,7 +6216,7 @@
       <c r="AA88" s="28"/>
       <c r="AB88" s="28"/>
       <c r="AC88" s="28"/>
-      <c r="AD88" s="36"/>
+      <c r="AD88" s="28"/>
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="5">
@@ -6240,7 +6250,7 @@
       <c r="AA89" s="28"/>
       <c r="AB89" s="28"/>
       <c r="AC89" s="28"/>
-      <c r="AD89" s="36"/>
+      <c r="AD89" s="28"/>
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="5">
@@ -6274,7 +6284,7 @@
       <c r="AA90" s="28"/>
       <c r="AB90" s="28"/>
       <c r="AC90" s="28"/>
-      <c r="AD90" s="36"/>
+      <c r="AD90" s="28"/>
     </row>
     <row r="91" spans="1:30">
       <c r="A91" s="5">
@@ -6308,7 +6318,7 @@
       <c r="AA91" s="28"/>
       <c r="AB91" s="28"/>
       <c r="AC91" s="28"/>
-      <c r="AD91" s="36"/>
+      <c r="AD91" s="28"/>
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="5">
@@ -6342,7 +6352,7 @@
       <c r="AA92" s="28"/>
       <c r="AB92" s="28"/>
       <c r="AC92" s="28"/>
-      <c r="AD92" s="36"/>
+      <c r="AD92" s="28"/>
     </row>
     <row r="93" spans="1:30">
       <c r="A93" s="5">
@@ -6376,7 +6386,7 @@
       <c r="AA93" s="28"/>
       <c r="AB93" s="28"/>
       <c r="AC93" s="28"/>
-      <c r="AD93" s="36"/>
+      <c r="AD93" s="28"/>
     </row>
     <row r="94" spans="1:30">
       <c r="A94" s="5">
@@ -6410,7 +6420,7 @@
       <c r="AA94" s="28"/>
       <c r="AB94" s="28"/>
       <c r="AC94" s="28"/>
-      <c r="AD94" s="36"/>
+      <c r="AD94" s="28"/>
     </row>
     <row r="95" spans="1:30">
       <c r="A95" s="5">
@@ -6444,7 +6454,7 @@
       <c r="AA95" s="28"/>
       <c r="AB95" s="28"/>
       <c r="AC95" s="28"/>
-      <c r="AD95" s="36"/>
+      <c r="AD95" s="28"/>
     </row>
     <row r="96" spans="1:30">
       <c r="A96" s="5">
@@ -6478,7 +6488,7 @@
       <c r="AA96" s="28"/>
       <c r="AB96" s="28"/>
       <c r="AC96" s="28"/>
-      <c r="AD96" s="36"/>
+      <c r="AD96" s="28"/>
     </row>
     <row r="97" spans="1:30">
       <c r="A97" s="5">
@@ -6512,7 +6522,7 @@
       <c r="AA97" s="28"/>
       <c r="AB97" s="28"/>
       <c r="AC97" s="28"/>
-      <c r="AD97" s="36"/>
+      <c r="AD97" s="28"/>
     </row>
     <row r="98" spans="1:30">
       <c r="A98" s="5">
@@ -6546,7 +6556,7 @@
       <c r="AA98" s="28"/>
       <c r="AB98" s="28"/>
       <c r="AC98" s="28"/>
-      <c r="AD98" s="36"/>
+      <c r="AD98" s="28"/>
     </row>
     <row r="99" spans="1:30">
       <c r="A99" s="5">
@@ -6580,7 +6590,7 @@
       <c r="AA99" s="28"/>
       <c r="AB99" s="28"/>
       <c r="AC99" s="28"/>
-      <c r="AD99" s="36"/>
+      <c r="AD99" s="28"/>
     </row>
     <row r="100" spans="1:30">
       <c r="A100" s="5">
@@ -6614,7 +6624,7 @@
       <c r="AA100" s="28"/>
       <c r="AB100" s="28"/>
       <c r="AC100" s="28"/>
-      <c r="AD100" s="36"/>
+      <c r="AD100" s="28"/>
     </row>
     <row r="101" spans="1:30">
       <c r="A101" s="5">
@@ -6648,7 +6658,7 @@
       <c r="AA101" s="28"/>
       <c r="AB101" s="28"/>
       <c r="AC101" s="28"/>
-      <c r="AD101" s="36"/>
+      <c r="AD101" s="28"/>
     </row>
     <row r="102" spans="1:30">
       <c r="A102" s="5">
@@ -6682,7 +6692,7 @@
       <c r="AA102" s="28"/>
       <c r="AB102" s="28"/>
       <c r="AC102" s="28"/>
-      <c r="AD102" s="36"/>
+      <c r="AD102" s="28"/>
     </row>
     <row r="103" spans="1:30">
       <c r="A103" s="5">
@@ -6716,7 +6726,7 @@
       <c r="AA103" s="28"/>
       <c r="AB103" s="28"/>
       <c r="AC103" s="28"/>
-      <c r="AD103" s="36"/>
+      <c r="AD103" s="28"/>
     </row>
     <row r="104" spans="1:30">
       <c r="A104" s="5">
@@ -6750,7 +6760,7 @@
       <c r="AA104" s="28"/>
       <c r="AB104" s="28"/>
       <c r="AC104" s="28"/>
-      <c r="AD104" s="36"/>
+      <c r="AD104" s="28"/>
     </row>
     <row r="105" spans="1:30">
       <c r="A105" s="5">
@@ -6784,7 +6794,7 @@
       <c r="AA105" s="28"/>
       <c r="AB105" s="28"/>
       <c r="AC105" s="28"/>
-      <c r="AD105" s="36"/>
+      <c r="AD105" s="28"/>
     </row>
     <row r="106" spans="1:30">
       <c r="A106" s="5">
@@ -6818,7 +6828,7 @@
       <c r="AA106" s="28"/>
       <c r="AB106" s="28"/>
       <c r="AC106" s="28"/>
-      <c r="AD106" s="36"/>
+      <c r="AD106" s="28"/>
     </row>
     <row r="107" spans="1:30">
       <c r="A107" s="5">
@@ -6852,7 +6862,7 @@
       <c r="AA107" s="28"/>
       <c r="AB107" s="28"/>
       <c r="AC107" s="28"/>
-      <c r="AD107" s="36"/>
+      <c r="AD107" s="28"/>
     </row>
     <row r="108" spans="1:30">
       <c r="A108" s="5">
@@ -6886,7 +6896,7 @@
       <c r="AA108" s="28"/>
       <c r="AB108" s="28"/>
       <c r="AC108" s="28"/>
-      <c r="AD108" s="36"/>
+      <c r="AD108" s="28"/>
     </row>
     <row r="109" spans="1:30">
       <c r="A109" s="5">
@@ -6920,7 +6930,7 @@
       <c r="AA109" s="28"/>
       <c r="AB109" s="28"/>
       <c r="AC109" s="28"/>
-      <c r="AD109" s="36"/>
+      <c r="AD109" s="28"/>
     </row>
     <row r="110" spans="1:30">
       <c r="A110" s="5">
@@ -6954,7 +6964,7 @@
       <c r="AA110" s="28"/>
       <c r="AB110" s="28"/>
       <c r="AC110" s="28"/>
-      <c r="AD110" s="36"/>
+      <c r="AD110" s="28"/>
     </row>
     <row r="111" spans="1:30">
       <c r="A111" s="5">
@@ -6988,7 +6998,7 @@
       <c r="AA111" s="28"/>
       <c r="AB111" s="28"/>
       <c r="AC111" s="28"/>
-      <c r="AD111" s="36"/>
+      <c r="AD111" s="28"/>
     </row>
     <row r="112" spans="1:30">
       <c r="A112" s="5">
@@ -7022,7 +7032,7 @@
       <c r="AA112" s="28"/>
       <c r="AB112" s="28"/>
       <c r="AC112" s="28"/>
-      <c r="AD112" s="36"/>
+      <c r="AD112" s="28"/>
     </row>
     <row r="113" spans="1:30">
       <c r="A113" s="5">
@@ -7056,7 +7066,7 @@
       <c r="AA113" s="28"/>
       <c r="AB113" s="28"/>
       <c r="AC113" s="28"/>
-      <c r="AD113" s="36"/>
+      <c r="AD113" s="28"/>
     </row>
     <row r="114" spans="1:30">
       <c r="A114" s="5">
@@ -7090,7 +7100,7 @@
       <c r="AA114" s="28"/>
       <c r="AB114" s="28"/>
       <c r="AC114" s="28"/>
-      <c r="AD114" s="36"/>
+      <c r="AD114" s="28"/>
     </row>
     <row r="115" spans="1:30">
       <c r="A115" s="5">
@@ -7124,7 +7134,7 @@
       <c r="AA115" s="28"/>
       <c r="AB115" s="28"/>
       <c r="AC115" s="28"/>
-      <c r="AD115" s="36"/>
+      <c r="AD115" s="28"/>
     </row>
     <row r="116" spans="1:30">
       <c r="A116" s="5">
@@ -7158,7 +7168,7 @@
       <c r="AA116" s="28"/>
       <c r="AB116" s="28"/>
       <c r="AC116" s="28"/>
-      <c r="AD116" s="36"/>
+      <c r="AD116" s="28"/>
     </row>
     <row r="117" spans="1:30">
       <c r="A117" s="5">
@@ -7192,7 +7202,7 @@
       <c r="AA117" s="28"/>
       <c r="AB117" s="28"/>
       <c r="AC117" s="28"/>
-      <c r="AD117" s="36"/>
+      <c r="AD117" s="28"/>
     </row>
     <row r="118" spans="1:30">
       <c r="A118" s="5">
@@ -7226,7 +7236,7 @@
       <c r="AA118" s="28"/>
       <c r="AB118" s="28"/>
       <c r="AC118" s="28"/>
-      <c r="AD118" s="36"/>
+      <c r="AD118" s="28"/>
     </row>
     <row r="119" spans="1:30">
       <c r="A119" s="5">
@@ -7260,7 +7270,7 @@
       <c r="AA119" s="28"/>
       <c r="AB119" s="28"/>
       <c r="AC119" s="28"/>
-      <c r="AD119" s="36"/>
+      <c r="AD119" s="28"/>
     </row>
     <row r="120" spans="1:30">
       <c r="A120" s="5">
@@ -7294,7 +7304,7 @@
       <c r="AA120" s="28"/>
       <c r="AB120" s="28"/>
       <c r="AC120" s="28"/>
-      <c r="AD120" s="36"/>
+      <c r="AD120" s="28"/>
     </row>
     <row r="121" spans="1:30">
       <c r="A121" s="5">
@@ -7328,7 +7338,7 @@
       <c r="AA121" s="28"/>
       <c r="AB121" s="28"/>
       <c r="AC121" s="28"/>
-      <c r="AD121" s="36"/>
+      <c r="AD121" s="28"/>
     </row>
     <row r="122" spans="1:30">
       <c r="A122" s="5">
@@ -7362,7 +7372,7 @@
       <c r="AA122" s="28"/>
       <c r="AB122" s="28"/>
       <c r="AC122" s="28"/>
-      <c r="AD122" s="36"/>
+      <c r="AD122" s="28"/>
     </row>
     <row r="123" spans="1:30">
       <c r="A123" s="5">
@@ -7396,7 +7406,7 @@
       <c r="AA123" s="28"/>
       <c r="AB123" s="28"/>
       <c r="AC123" s="28"/>
-      <c r="AD123" s="36"/>
+      <c r="AD123" s="28"/>
     </row>
     <row r="124" spans="1:30">
       <c r="A124" s="5">
@@ -7430,7 +7440,7 @@
       <c r="AA124" s="28"/>
       <c r="AB124" s="28"/>
       <c r="AC124" s="28"/>
-      <c r="AD124" s="36"/>
+      <c r="AD124" s="28"/>
     </row>
     <row r="125" spans="1:30">
       <c r="A125" s="5">
@@ -7464,7 +7474,7 @@
       <c r="AA125" s="28"/>
       <c r="AB125" s="28"/>
       <c r="AC125" s="28"/>
-      <c r="AD125" s="36"/>
+      <c r="AD125" s="28"/>
     </row>
     <row r="126" spans="1:30">
       <c r="A126" s="5">
@@ -7498,7 +7508,7 @@
       <c r="AA126" s="28"/>
       <c r="AB126" s="28"/>
       <c r="AC126" s="28"/>
-      <c r="AD126" s="36"/>
+      <c r="AD126" s="28"/>
     </row>
     <row r="127" spans="1:30">
       <c r="A127" s="5">
@@ -7532,7 +7542,7 @@
       <c r="AA127" s="28"/>
       <c r="AB127" s="28"/>
       <c r="AC127" s="28"/>
-      <c r="AD127" s="36"/>
+      <c r="AD127" s="28"/>
     </row>
     <row r="128" spans="1:30">
       <c r="A128" s="5">
@@ -7566,7 +7576,7 @@
       <c r="AA128" s="28"/>
       <c r="AB128" s="28"/>
       <c r="AC128" s="28"/>
-      <c r="AD128" s="36"/>
+      <c r="AD128" s="28"/>
     </row>
     <row r="129" spans="1:30">
       <c r="A129" s="5">
@@ -7600,7 +7610,7 @@
       <c r="AA129" s="28"/>
       <c r="AB129" s="28"/>
       <c r="AC129" s="28"/>
-      <c r="AD129" s="36"/>
+      <c r="AD129" s="28"/>
     </row>
     <row r="130" spans="1:30">
       <c r="A130" s="5">
@@ -7634,7 +7644,7 @@
       <c r="AA130" s="28"/>
       <c r="AB130" s="28"/>
       <c r="AC130" s="28"/>
-      <c r="AD130" s="36"/>
+      <c r="AD130" s="28"/>
     </row>
     <row r="131" spans="1:30">
       <c r="A131" s="5">
@@ -7668,7 +7678,7 @@
       <c r="AA131" s="28"/>
       <c r="AB131" s="28"/>
       <c r="AC131" s="28"/>
-      <c r="AD131" s="36"/>
+      <c r="AD131" s="28"/>
     </row>
     <row r="132" spans="1:21">
       <c r="A132" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="29140" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,11 +225,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -269,23 +269,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,24 +285,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,16 +307,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,15 +323,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,7 +368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -393,21 +377,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,13 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,19 +526,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,37 +598,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,79 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +640,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,6 +743,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -757,15 +807,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,36 +827,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -829,164 +840,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3048,7 +3048,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="5">
-        <v>44527</v>
+        <v>44529</v>
       </c>
       <c r="B6" s="6">
         <v>75.44</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="5">
-        <v>44528</v>
+        <v>44530</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="5">
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="5">
-        <v>44530</v>
+        <v>44532</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="5">
-        <v>44531</v>
+        <v>44533</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3568,7 +3568,7 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="5">
-        <v>44532</v>
+        <v>44534</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="5">
-        <v>44533</v>
+        <v>44535</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="5">
-        <v>44534</v>
+        <v>44536</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="5">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="5">
-        <v>44536</v>
+        <v>44538</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="5">
-        <v>44537</v>
+        <v>44539</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="5">
-        <v>44538</v>
+        <v>44540</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="5">
-        <v>44539</v>
+        <v>44541</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="5">
-        <v>44540</v>
+        <v>44542</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="5">
-        <v>44541</v>
+        <v>44543</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="5">
-        <v>44542</v>
+        <v>44544</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="5">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="5">
-        <v>44544</v>
+        <v>44546</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="5">
-        <v>44545</v>
+        <v>44547</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="5">
-        <v>44546</v>
+        <v>44548</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="5">
-        <v>44547</v>
+        <v>44549</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="5">
-        <v>44548</v>
+        <v>44550</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="5">
-        <v>44549</v>
+        <v>44551</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="5">
-        <v>44550</v>
+        <v>44552</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="5">
-        <v>44551</v>
+        <v>44553</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="5">
-        <v>44552</v>
+        <v>44554</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="5">
-        <v>44553</v>
+        <v>44555</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="5">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="5">
-        <v>44555</v>
+        <v>44557</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="5">
-        <v>44556</v>
+        <v>44558</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="5">
-        <v>44557</v>
+        <v>44559</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="5">
-        <v>44558</v>
+        <v>44560</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="5">
-        <v>44559</v>
+        <v>44561</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="5">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="5">
-        <v>44561</v>
+        <v>44563</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="5">
-        <v>44562</v>
+        <v>44564</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="5">
-        <v>44563</v>
+        <v>44565</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="5">
-        <v>44564</v>
+        <v>44566</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="5">
-        <v>44565</v>
+        <v>44567</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="5">
-        <v>44566</v>
+        <v>44568</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="5">
-        <v>44567</v>
+        <v>44569</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="5">
-        <v>44568</v>
+        <v>44570</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="5">
-        <v>44569</v>
+        <v>44571</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="5">
-        <v>44570</v>
+        <v>44572</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="5">
-        <v>44571</v>
+        <v>44573</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="5">
-        <v>44572</v>
+        <v>44574</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="5">
-        <v>44573</v>
+        <v>44575</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="5">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="5">
-        <v>44575</v>
+        <v>44577</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -5064,7 +5064,7 @@
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="5">
-        <v>44576</v>
+        <v>44578</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="5">
-        <v>44577</v>
+        <v>44579</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="5">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="5">
-        <v>44579</v>
+        <v>44581</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="5">
-        <v>44580</v>
+        <v>44582</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="5">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -5268,7 +5268,7 @@
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="5">
-        <v>44582</v>
+        <v>44584</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="5">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="5">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="5">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="5">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -5438,7 +5438,7 @@
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="5">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="5">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="68" spans="1:30">
       <c r="A68" s="5">
-        <v>44589</v>
+        <v>44591</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="69" spans="1:30">
       <c r="A69" s="5">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -5574,7 +5574,7 @@
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="5">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -5608,7 +5608,7 @@
     </row>
     <row r="71" spans="1:30">
       <c r="A71" s="5">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="72" spans="1:30">
       <c r="A72" s="5">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="73" spans="1:30">
       <c r="A73" s="5">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -5710,7 +5710,7 @@
     </row>
     <row r="74" spans="1:30">
       <c r="A74" s="5">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="75" spans="1:30">
       <c r="A75" s="5">
-        <v>44596</v>
+        <v>44598</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="5">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -5812,7 +5812,7 @@
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="5">
-        <v>44598</v>
+        <v>44600</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="78" spans="1:30">
       <c r="A78" s="5">
-        <v>44599</v>
+        <v>44601</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="5">
-        <v>44600</v>
+        <v>44602</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="5">
-        <v>44601</v>
+        <v>44603</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="81" spans="1:30">
       <c r="A81" s="5">
-        <v>44602</v>
+        <v>44604</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -5982,7 +5982,7 @@
     </row>
     <row r="82" spans="1:30">
       <c r="A82" s="5">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="83" spans="1:30">
       <c r="A83" s="5">
-        <v>44604</v>
+        <v>44606</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -6050,7 +6050,7 @@
     </row>
     <row r="84" spans="1:30">
       <c r="A84" s="5">
-        <v>44605</v>
+        <v>44607</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="85" spans="1:30">
       <c r="A85" s="5">
-        <v>44606</v>
+        <v>44608</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="86" spans="1:30">
       <c r="A86" s="5">
-        <v>44607</v>
+        <v>44609</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="87" spans="1:30">
       <c r="A87" s="5">
-        <v>44608</v>
+        <v>44610</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -6186,7 +6186,7 @@
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="5">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -6220,7 +6220,7 @@
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="5">
-        <v>44610</v>
+        <v>44612</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -6254,7 +6254,7 @@
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="5">
-        <v>44611</v>
+        <v>44613</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="91" spans="1:30">
       <c r="A91" s="5">
-        <v>44612</v>
+        <v>44614</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -6322,7 +6322,7 @@
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="5">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="93" spans="1:30">
       <c r="A93" s="5">
-        <v>44614</v>
+        <v>44616</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -6390,7 +6390,7 @@
     </row>
     <row r="94" spans="1:30">
       <c r="A94" s="5">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="95" spans="1:30">
       <c r="A95" s="5">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -6458,7 +6458,7 @@
     </row>
     <row r="96" spans="1:30">
       <c r="A96" s="5">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -6492,7 +6492,7 @@
     </row>
     <row r="97" spans="1:30">
       <c r="A97" s="5">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="98" spans="1:30">
       <c r="A98" s="5">
-        <v>44619</v>
+        <v>44621</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -6560,7 +6560,7 @@
     </row>
     <row r="99" spans="1:30">
       <c r="A99" s="5">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="100" spans="1:30">
       <c r="A100" s="5">
-        <v>44621</v>
+        <v>44623</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="101" spans="1:30">
       <c r="A101" s="5">
-        <v>44622</v>
+        <v>44624</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="102" spans="1:30">
       <c r="A102" s="5">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -6696,7 +6696,7 @@
     </row>
     <row r="103" spans="1:30">
       <c r="A103" s="5">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -6730,7 +6730,7 @@
     </row>
     <row r="104" spans="1:30">
       <c r="A104" s="5">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -6764,7 +6764,7 @@
     </row>
     <row r="105" spans="1:30">
       <c r="A105" s="5">
-        <v>44626</v>
+        <v>44628</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -6798,7 +6798,7 @@
     </row>
     <row r="106" spans="1:30">
       <c r="A106" s="5">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="107" spans="1:30">
       <c r="A107" s="5">
-        <v>44628</v>
+        <v>44630</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -6866,7 +6866,7 @@
     </row>
     <row r="108" spans="1:30">
       <c r="A108" s="5">
-        <v>44629</v>
+        <v>44631</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="109" spans="1:30">
       <c r="A109" s="5">
-        <v>44630</v>
+        <v>44632</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -6934,7 +6934,7 @@
     </row>
     <row r="110" spans="1:30">
       <c r="A110" s="5">
-        <v>44631</v>
+        <v>44633</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="111" spans="1:30">
       <c r="A111" s="5">
-        <v>44632</v>
+        <v>44634</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="112" spans="1:30">
       <c r="A112" s="5">
-        <v>44633</v>
+        <v>44635</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="113" spans="1:30">
       <c r="A113" s="5">
-        <v>44634</v>
+        <v>44636</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="114" spans="1:30">
       <c r="A114" s="5">
-        <v>44635</v>
+        <v>44637</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -7104,7 +7104,7 @@
     </row>
     <row r="115" spans="1:30">
       <c r="A115" s="5">
-        <v>44636</v>
+        <v>44638</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -7138,7 +7138,7 @@
     </row>
     <row r="116" spans="1:30">
       <c r="A116" s="5">
-        <v>44637</v>
+        <v>44639</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="117" spans="1:30">
       <c r="A117" s="5">
-        <v>44638</v>
+        <v>44640</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -7206,7 +7206,7 @@
     </row>
     <row r="118" spans="1:30">
       <c r="A118" s="5">
-        <v>44639</v>
+        <v>44641</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -7240,7 +7240,7 @@
     </row>
     <row r="119" spans="1:30">
       <c r="A119" s="5">
-        <v>44640</v>
+        <v>44642</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="120" spans="1:30">
       <c r="A120" s="5">
-        <v>44641</v>
+        <v>44643</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="121" spans="1:30">
       <c r="A121" s="5">
-        <v>44642</v>
+        <v>44644</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="122" spans="1:30">
       <c r="A122" s="5">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -7376,7 +7376,7 @@
     </row>
     <row r="123" spans="1:30">
       <c r="A123" s="5">
-        <v>44644</v>
+        <v>44646</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="124" spans="1:30">
       <c r="A124" s="5">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -7444,7 +7444,7 @@
     </row>
     <row r="125" spans="1:30">
       <c r="A125" s="5">
-        <v>44646</v>
+        <v>44648</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -7478,7 +7478,7 @@
     </row>
     <row r="126" spans="1:30">
       <c r="A126" s="5">
-        <v>44647</v>
+        <v>44649</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="127" spans="1:30">
       <c r="A127" s="5">
-        <v>44648</v>
+        <v>44650</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="128" spans="1:30">
       <c r="A128" s="5">
-        <v>44649</v>
+        <v>44651</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -7580,7 +7580,7 @@
     </row>
     <row r="129" spans="1:30">
       <c r="A129" s="5">
-        <v>44650</v>
+        <v>44652</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="130" spans="1:30">
       <c r="A130" s="5">
-        <v>44651</v>
+        <v>44653</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="131" spans="1:30">
       <c r="A131" s="5">
-        <v>44652</v>
+        <v>44654</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -7681,7 +7681,9 @@
       <c r="AD131" s="28"/>
     </row>
     <row r="132" spans="1:21">
-      <c r="A132" s="1"/>
+      <c r="A132" s="5">
+        <v>44655</v>
+      </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -7701,7 +7703,9 @@
       <c r="U132" s="1"/>
     </row>
     <row r="133" spans="1:21">
-      <c r="A133" s="1"/>
+      <c r="A133" s="5">
+        <v>44656</v>
+      </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -7721,7 +7725,9 @@
       <c r="U133" s="1"/>
     </row>
     <row r="134" spans="1:21">
-      <c r="A134" s="1"/>
+      <c r="A134" s="5">
+        <v>44657</v>
+      </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -7741,7 +7747,9 @@
       <c r="U134" s="1"/>
     </row>
     <row r="135" spans="1:21">
-      <c r="A135" s="1"/>
+      <c r="A135" s="5">
+        <v>44658</v>
+      </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -7761,7 +7769,9 @@
       <c r="U135" s="1"/>
     </row>
     <row r="136" spans="1:21">
-      <c r="A136" s="1"/>
+      <c r="A136" s="5">
+        <v>44659</v>
+      </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -7781,7 +7791,9 @@
       <c r="U136" s="1"/>
     </row>
     <row r="137" spans="1:21">
-      <c r="A137" s="1"/>
+      <c r="A137" s="5">
+        <v>44660</v>
+      </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -7801,7 +7813,9 @@
       <c r="U137" s="1"/>
     </row>
     <row r="138" spans="1:21">
-      <c r="A138" s="1"/>
+      <c r="A138" s="5">
+        <v>44661</v>
+      </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -3044,11 +3044,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:A138"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -225,11 +225,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -276,16 +276,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,9 +321,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,46 +399,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,51 +408,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,7 +514,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +550,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,19 +604,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,37 +670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,79 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,6 +743,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -758,46 +767,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,17 +806,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,22 +845,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,121 +872,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3044,11 +3044,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3427,6 +3427,7 @@
       <c r="AB6" s="28"/>
       <c r="AC6" s="28"/>
       <c r="AD6" s="28">
+        <f>IF(G6-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G6,AD5)</f>
         <v>67.53</v>
       </c>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29140" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,12 +224,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -270,7 +270,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,24 +328,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,8 +352,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,46 +362,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,24 +399,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,6 +520,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -532,49 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,37 +604,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,43 +634,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,13 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,8 +746,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,51 +797,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -840,90 +829,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,61 +932,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,10 +1006,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1066,7 +1066,7 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,10 +1084,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3044,11 +3044,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD7" sqref="AD7"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3334,8 +3334,9 @@
       <c r="P5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>38</v>
+      <c r="Q5" s="7" t="str">
+        <f>IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="R5" s="18" t="str">
         <f>IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
@@ -3408,8 +3409,9 @@
       <c r="P6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
+      <c r="Q6" s="7" t="str">
+        <f>IF(I6/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="R6" s="18" t="str">
         <f>IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -224,11 +224,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -284,21 +284,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -307,7 +292,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,31 +314,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -360,23 +344,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,7 +353,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,7 +376,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,6 +395,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,61 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,7 +550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +568,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,25 +628,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,25 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,32 +752,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,11 +785,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,147 +825,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -990,7 +990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,10 +1006,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1066,13 +1066,16 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1084,10 +1087,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,13 +1320,13 @@
             <v>5</v>
           </cell>
           <cell r="AY4">
-            <v>0.1048</v>
+            <v>0</v>
           </cell>
           <cell r="AZ4">
-            <v>5245.1048</v>
+            <v>5245</v>
           </cell>
           <cell r="BA4">
-            <v>309.1048</v>
+            <v>309</v>
           </cell>
           <cell r="BB4">
             <v>26.5</v>
@@ -1806,13 +1809,13 @@
             <v>5</v>
           </cell>
           <cell r="AY8">
-            <v>0.14414</v>
+            <v>0</v>
           </cell>
           <cell r="AZ8">
-            <v>7212.14414</v>
+            <v>7212</v>
           </cell>
           <cell r="BA8">
-            <v>524.14414</v>
+            <v>524</v>
           </cell>
           <cell r="BB8">
             <v>74.5</v>
@@ -2001,778 +2004,405 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>000010</v>
+            <v>000006</v>
           </cell>
           <cell r="B10">
-            <v>44524</v>
+            <v>44529</v>
           </cell>
           <cell r="C10" t="str">
-            <v>603663(三祥新材)</v>
+            <v>603010(万盛股份)</v>
           </cell>
           <cell r="D10">
-            <v>18.26</v>
+            <v>22.26</v>
           </cell>
           <cell r="E10">
-            <v>19.01</v>
+            <v>22.69</v>
           </cell>
           <cell r="F10">
-            <v>21.05</v>
+            <v>24.83</v>
           </cell>
         </row>
         <row r="10">
           <cell r="H10">
-            <v>23.2</v>
+            <v>28.99</v>
           </cell>
           <cell r="I10">
-            <v>13.04</v>
+            <v>14.46</v>
           </cell>
           <cell r="J10">
-            <v>26.64</v>
+            <v>31.94</v>
           </cell>
           <cell r="K10">
-            <v>0.779141104294479</v>
+            <v>1.00484094052559</v>
           </cell>
           <cell r="L10">
-            <v>0.129129129129129</v>
+            <v>0.0923606762680026</v>
           </cell>
         </row>
         <row r="10">
           <cell r="N10">
-            <v>18.5</v>
+            <v>20.63</v>
           </cell>
           <cell r="O10">
-            <v>22.39</v>
+            <v>25.66</v>
           </cell>
           <cell r="P10">
-            <v>18.85</v>
+            <v>21.46</v>
           </cell>
           <cell r="Q10">
-            <v>23.56</v>
+            <v>28.89</v>
           </cell>
           <cell r="R10">
-            <v>20.89</v>
+            <v>24.22</v>
+          </cell>
+          <cell r="S10">
+            <v>29.7</v>
+          </cell>
+          <cell r="T10">
+            <v>27.72</v>
           </cell>
         </row>
         <row r="10">
           <cell r="Y10" t="str">
-            <v>12w</v>
+            <v>8w</v>
           </cell>
           <cell r="Z10">
-            <v>0.305555555555556</v>
+            <v>0.354101440200376</v>
           </cell>
           <cell r="AA10">
-            <v>0.158106297454221</v>
+            <v>0.163678877630553</v>
           </cell>
           <cell r="AB10">
-            <v>0.113327674023769</v>
-          </cell>
-          <cell r="AC10" t="e">
-            <v>#DIV/0!</v>
+            <v>0.161647628937349</v>
+          </cell>
+          <cell r="AC10">
+            <v>0.0666666666666667</v>
           </cell>
         </row>
         <row r="10">
           <cell r="AF10" t="str">
-            <v>3T</v>
+            <v>4T</v>
           </cell>
           <cell r="AG10" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+            <v>减少明显，空头几乎被榨干</v>
           </cell>
           <cell r="AH10">
-            <v>25.19</v>
+            <v>31.18</v>
           </cell>
           <cell r="AI10">
-            <v>17.73</v>
+            <v>21.1</v>
           </cell>
           <cell r="AJ10">
-            <v>7.46</v>
+            <v>10.08</v>
           </cell>
           <cell r="AK10">
-            <v>23.56</v>
+            <v>29.77</v>
           </cell>
           <cell r="AL10">
-            <v>22.12</v>
+            <v>27.72</v>
           </cell>
           <cell r="AM10">
-            <v>26.91</v>
+            <v>34.93</v>
           </cell>
           <cell r="AN10">
-            <v>144</v>
+            <v>205</v>
           </cell>
           <cell r="AO10">
-            <v>200</v>
+            <v>100</v>
           </cell>
           <cell r="AP10">
-            <v>2.32638888888889</v>
+            <v>2.51707317073171</v>
           </cell>
           <cell r="AQ10">
-            <v>0.0611205432937181</v>
+            <v>0.0688612697346322</v>
           </cell>
           <cell r="AR10">
-            <v>0.142190152801358</v>
+            <v>0.173328854551562</v>
           </cell>
           <cell r="AS10">
-            <v>53.49</v>
+            <v>17.95</v>
           </cell>
           <cell r="AT10" t="str">
-            <v>不宜入场</v>
+            <v>可以</v>
+          </cell>
+          <cell r="AU10">
+            <v>44530</v>
+          </cell>
+          <cell r="AV10">
+            <v>29.81</v>
+          </cell>
+          <cell r="AW10">
+            <v>100</v>
+          </cell>
+          <cell r="AX10">
+            <v>5</v>
+          </cell>
+          <cell r="AY10">
+            <v>0.05962</v>
+          </cell>
+          <cell r="AZ10">
+            <v>2986.05962</v>
+          </cell>
+          <cell r="BA10">
+            <v>214.05962</v>
+          </cell>
+          <cell r="BB10">
+            <v>30.32</v>
+          </cell>
+          <cell r="BC10">
+            <v>28.81</v>
+          </cell>
+          <cell r="BD10">
+            <v>0.337748344370862</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>000014</v>
-          </cell>
-          <cell r="B11">
-            <v>44524</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>600392(盛和资源)</v>
-          </cell>
-          <cell r="D11">
-            <v>20.14</v>
-          </cell>
-          <cell r="E11">
-            <v>20.65</v>
-          </cell>
-          <cell r="F11">
-            <v>20.97</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="H11">
-            <v>21.52</v>
-          </cell>
-          <cell r="I11">
-            <v>7.07</v>
-          </cell>
-          <cell r="J11">
-            <v>29.28</v>
-          </cell>
-          <cell r="K11">
-            <v>2.04384724186704</v>
-          </cell>
-          <cell r="L11">
-            <v>0.265027322404372</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>18.34</v>
-          </cell>
-          <cell r="O11">
-            <v>21.65</v>
-          </cell>
-          <cell r="P11">
-            <v>18.61</v>
-          </cell>
-          <cell r="Q11">
-            <v>21.14</v>
-          </cell>
-          <cell r="R11">
-            <v>18.86</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="Y11" t="str">
-            <v>8w</v>
-          </cell>
-          <cell r="Z11">
-            <v>0.373633879781421</v>
-          </cell>
-          <cell r="AA11">
-            <v>0.140415704387991</v>
-          </cell>
-          <cell r="AB11">
-            <v>0.107852412488174</v>
-          </cell>
-          <cell r="AC11" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AF11" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG11" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AN11">
-            <v>0</v>
-          </cell>
-          <cell r="AO11" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="AP11" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AT11" t="str">
-            <v>不宜入场</v>
+            <v>000020</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>000015</v>
-          </cell>
-          <cell r="B12">
-            <v>44524</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>600399(抚顺特钢)</v>
-          </cell>
-          <cell r="D12">
-            <v>19.9</v>
-          </cell>
-          <cell r="E12">
-            <v>20.73</v>
-          </cell>
-          <cell r="F12">
-            <v>22.88</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12">
-            <v>23.53</v>
-          </cell>
-          <cell r="I12">
-            <v>7.25</v>
-          </cell>
-          <cell r="J12">
-            <v>29.3</v>
-          </cell>
-          <cell r="K12">
-            <v>2.24551724137931</v>
-          </cell>
-          <cell r="L12">
-            <v>0.196928327645051</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>19.05</v>
-          </cell>
-          <cell r="O12">
-            <v>22.91</v>
-          </cell>
-          <cell r="P12">
-            <v>19.73</v>
-          </cell>
-          <cell r="Q12">
-            <v>25.5</v>
-          </cell>
-          <cell r="R12">
-            <v>23.12</v>
-          </cell>
-          <cell r="S12">
-            <v>26.45</v>
-          </cell>
-          <cell r="T12">
-            <v>23.48</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="Y12" t="str">
-            <v>12w</v>
-          </cell>
-          <cell r="Z12">
-            <v>0.349829351535836</v>
-          </cell>
-          <cell r="AA12">
-            <v>0.138804015713662</v>
-          </cell>
-          <cell r="AB12">
-            <v>0.0933333333333333</v>
-          </cell>
-          <cell r="AC12">
-            <v>0.112287334593573</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AF12" t="str">
-            <v>3T</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AK12">
-            <v>25.15</v>
-          </cell>
-          <cell r="AL12">
-            <v>23.48</v>
-          </cell>
-          <cell r="AM12">
-            <v>27.83</v>
-          </cell>
-          <cell r="AN12">
-            <v>167</v>
-          </cell>
-          <cell r="AO12">
-            <v>100</v>
-          </cell>
-          <cell r="AP12">
-            <v>1.60479041916168</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AT12" t="str">
-            <v>不宜入场</v>
+            <v>000021</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>000017</v>
-          </cell>
-          <cell r="B13">
-            <v>44524</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>601677(明泰铝业)</v>
-          </cell>
-          <cell r="D13">
-            <v>26.7</v>
-          </cell>
-          <cell r="E13">
-            <v>28.65</v>
-          </cell>
-          <cell r="F13">
-            <v>33.16</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="H13">
-            <v>36.11</v>
-          </cell>
-          <cell r="I13">
-            <v>11.38</v>
-          </cell>
-          <cell r="J13">
-            <v>41.75</v>
-          </cell>
-          <cell r="K13">
-            <v>2.17311072056239</v>
-          </cell>
-          <cell r="L13">
-            <v>0.135089820359281</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>28.85</v>
-          </cell>
-          <cell r="O13">
-            <v>35.46</v>
-          </cell>
-          <cell r="P13">
-            <v>29.05</v>
-          </cell>
-          <cell r="Q13">
-            <v>34.35</v>
-          </cell>
-          <cell r="R13">
-            <v>31.5</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="Y13" t="str">
-            <v>8w</v>
-          </cell>
-          <cell r="Z13">
-            <v>0.308982035928144</v>
-          </cell>
-          <cell r="AA13">
-            <v>0.180767061477721</v>
-          </cell>
-          <cell r="AB13">
-            <v>0.0829694323144105</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AF13" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG13" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AK13">
-            <v>37.13</v>
-          </cell>
-          <cell r="AL13">
-            <v>35.6</v>
-          </cell>
-          <cell r="AM13">
-            <v>38.61</v>
-          </cell>
-          <cell r="AN13">
-            <v>153</v>
-          </cell>
-          <cell r="AO13">
-            <v>100</v>
-          </cell>
-          <cell r="AP13">
-            <v>0.967320261437906</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AT13" t="str">
-            <v>不宜入场</v>
+            <v>000022</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>000018</v>
-          </cell>
-          <cell r="B14">
-            <v>44524</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>002223(鱼跃医疗)</v>
-          </cell>
-          <cell r="D14">
-            <v>32.91</v>
-          </cell>
-          <cell r="E14">
-            <v>33.52</v>
-          </cell>
-          <cell r="F14">
-            <v>34.71</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14">
-            <v>36.09</v>
-          </cell>
-          <cell r="I14">
-            <v>25.12</v>
-          </cell>
-          <cell r="J14">
-            <v>41.77</v>
-          </cell>
-          <cell r="K14">
-            <v>0.436703821656051</v>
-          </cell>
-          <cell r="L14">
-            <v>0.135982762748384</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14">
-            <v>30.46</v>
-          </cell>
-          <cell r="O14">
-            <v>36.94</v>
-          </cell>
-          <cell r="P14">
-            <v>33.59</v>
-          </cell>
-          <cell r="Q14">
-            <v>37.1</v>
-          </cell>
-          <cell r="R14">
-            <v>34.44</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="Y14" t="str">
-            <v>16w</v>
-          </cell>
-          <cell r="Z14">
-            <v>0.270768494134546</v>
-          </cell>
-          <cell r="AA14">
-            <v>0.0906876015159717</v>
-          </cell>
-          <cell r="AB14">
-            <v>0.0716981132075473</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AF14" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG14" t="str">
-            <v>不是很明显</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AK14">
-            <v>37.09</v>
-          </cell>
-          <cell r="AL14">
-            <v>35.25</v>
-          </cell>
-          <cell r="AM14">
-            <v>38.8</v>
-          </cell>
-          <cell r="AN14">
-            <v>184</v>
-          </cell>
-          <cell r="AO14">
-            <v>100</v>
-          </cell>
-          <cell r="AP14">
-            <v>0.929347826086951</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AT14" t="str">
-            <v>不宜入场</v>
+            <v>000023</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>000019</v>
+            <v>000024</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>000020</v>
+            <v>000025</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>000021</v>
+            <v>000026</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>000022</v>
+            <v>000027</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>000023</v>
+            <v>000028</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>000024</v>
+            <v>000029</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>000025</v>
+            <v>000030</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>000026</v>
+            <v>000031</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>000027</v>
+            <v>000032</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>000028</v>
+            <v>000033</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>000029</v>
+            <v>000034</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>000030</v>
+            <v>000035</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>000031</v>
+            <v>000036</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>000032</v>
+            <v>000037</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>000033</v>
+            <v>000038</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>000034</v>
+            <v>000039</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>000035</v>
+            <v>000040</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>000036</v>
+            <v>000041</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>000037</v>
+            <v>000042</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>000038</v>
+            <v>000043</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>000039</v>
+            <v>000044</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>000040</v>
+            <v>000045</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>000041</v>
+            <v>000046</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>000042</v>
+            <v>000047</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>000043</v>
+            <v>000048</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>000044</v>
+            <v>000049</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>000045</v>
+            <v>000050</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>000046</v>
+            <v>000051</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>000047</v>
+            <v>000052</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>000048</v>
+            <v>000053</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>000049</v>
+            <v>000054</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>000050</v>
+            <v>000055</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>000051</v>
+            <v>000056</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>000052</v>
+            <v>000057</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>000053</v>
+            <v>000058</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>000054</v>
+            <v>000059</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>000055</v>
+            <v>000060</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>000056</v>
+            <v>000061</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>000057</v>
+            <v>000062</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>000058</v>
+            <v>000063</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>000059</v>
+            <v>000064</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>000060</v>
+            <v>000065</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>000061</v>
+            <v>000066</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>000062</v>
+            <v>000067</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>000063</v>
+            <v>000068</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>000064</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>000065</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>000066</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>000067</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>000068</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
             <v>000069</v>
           </cell>
         </row>
@@ -3044,11 +2674,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="AD6" sqref="AD6:AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3121,7 +2751,7 @@
       <c r="AA1" s="20"/>
       <c r="AB1" s="20"/>
       <c r="AC1" s="20"/>
-      <c r="AD1" s="34" t="s">
+      <c r="AD1" s="35" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3155,11 +2785,11 @@
       <c r="Y2" s="22"/>
       <c r="Z2" s="22"/>
       <c r="AA2" s="22"/>
-      <c r="AB2" s="33" t="s">
+      <c r="AB2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="35"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="2"/>
@@ -3227,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="W3" s="22"/>
-      <c r="X3" s="29" t="s">
+      <c r="X3" s="30" t="s">
         <v>29</v>
       </c>
       <c r="Y3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="29" t="s">
+      <c r="Z3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="29" t="s">
+      <c r="AA3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="33" t="s">
+      <c r="AB3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" s="35" t="s">
+      <c r="AC3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="34"/>
+      <c r="AD3" s="35"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:30">
       <c r="A4" s="2"/>
@@ -3269,19 +2899,19 @@
       <c r="S4" s="23"/>
       <c r="T4" s="24"/>
       <c r="U4" s="24"/>
-      <c r="V4" s="30" t="s">
+      <c r="V4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="W4" s="31" t="s">
         <v>36</v>
       </c>
       <c r="X4" s="22"/>
       <c r="Y4" s="22"/>
       <c r="Z4" s="22"/>
       <c r="AA4" s="22"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="35"/>
     </row>
     <row r="5" ht="18" spans="1:30">
       <c r="A5" s="5">
@@ -3328,8 +2958,9 @@
       <c r="N5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>38</v>
+      <c r="O5" s="7" t="str">
+        <f>IF(B5&lt;F5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="P5" s="18" t="s">
         <v>39</v>
@@ -3344,16 +2975,16 @@
       </c>
       <c r="S5" s="25"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28">
+      <c r="U5" s="32"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29">
         <v>67.53</v>
       </c>
     </row>
@@ -3403,8 +3034,9 @@
       <c r="N6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>38</v>
+      <c r="O6" s="7" t="str">
+        <f>IF(B6&lt;F6,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>38</v>
@@ -3419,16 +3051,16 @@
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28">
+      <c r="U6" s="33"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29">
         <f>IF(G6-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G6,AD5)</f>
         <v>67.53</v>
       </c>
@@ -3437,35 +3069,78 @@
       <c r="A7" s="5">
         <v>44530</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="B7" s="6">
+        <v>76.71</v>
+      </c>
+      <c r="C7" s="6">
+        <v>75</v>
+      </c>
+      <c r="D7" s="6">
+        <v>77.77</v>
+      </c>
+      <c r="E7" s="6">
+        <v>72.83</v>
+      </c>
+      <c r="F7" s="6">
+        <v>70.25</v>
+      </c>
+      <c r="G7" s="6">
+        <v>69.06</v>
+      </c>
+      <c r="H7" s="6">
+        <v>7.08</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="15">
+        <f>(B7-B6)/B6</f>
+        <v>0.0168345705196182</v>
+      </c>
+      <c r="K7" s="13">
+        <f>(D7-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
+        <v>0.0790897738309977</v>
+      </c>
+      <c r="L7" s="14">
+        <f>I7/(ROW()-4)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="7" t="str">
+        <f>IF(B7&lt;F7,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="7" t="str">
+        <f>IF(I7/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="R7" s="28" t="str">
+        <f>IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
+        <v>上部</v>
+      </c>
       <c r="S7" s="6"/>
       <c r="T7" s="27"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29">
+        <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G7,AD6)</f>
+        <v>67.53</v>
+      </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="5">
@@ -3490,16 +3165,16 @@
       <c r="R8" s="7"/>
       <c r="S8" s="6"/>
       <c r="T8" s="27"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="5">
@@ -3525,15 +3200,15 @@
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="5">
@@ -3559,15 +3234,15 @@
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="5">
@@ -3593,15 +3268,15 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="5">
@@ -3627,15 +3302,15 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="5">
@@ -3661,15 +3336,15 @@
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="5">
@@ -3695,15 +3370,15 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="5">
@@ -3729,15 +3404,15 @@
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="5">
@@ -3763,15 +3438,15 @@
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="5">
@@ -3797,15 +3472,15 @@
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="5">
@@ -3831,15 +3506,15 @@
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="5">
@@ -3865,15 +3540,15 @@
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="5">
@@ -3899,15 +3574,15 @@
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="5">
@@ -3933,15 +3608,15 @@
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="5">
@@ -3967,15 +3642,15 @@
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="5">
@@ -4001,15 +3676,15 @@
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="5">
@@ -4035,15 +3710,15 @@
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="5">
@@ -4069,15 +3744,15 @@
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="5">
@@ -4103,15 +3778,15 @@
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="5">
@@ -4134,18 +3809,18 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="28"/>
+      <c r="S27" s="29"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="5">
@@ -4168,18 +3843,18 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="28"/>
+      <c r="S28" s="29"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="5">
@@ -4202,18 +3877,18 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="28"/>
+      <c r="S29" s="29"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="5">
@@ -4236,18 +3911,18 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="28"/>
+      <c r="S30" s="29"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="5">
@@ -4270,18 +3945,18 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="28"/>
+      <c r="S31" s="29"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="5">
@@ -4304,18 +3979,18 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="28"/>
+      <c r="S32" s="29"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="5">
@@ -4338,18 +4013,18 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="28"/>
+      <c r="S33" s="29"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="5">
@@ -4372,18 +4047,18 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="28"/>
+      <c r="S34" s="29"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="5">
@@ -4406,18 +4081,18 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="28"/>
+      <c r="S35" s="29"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="5">
@@ -4440,18 +4115,18 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="28"/>
+      <c r="S36" s="29"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="5">
@@ -4474,18 +4149,18 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="28"/>
+      <c r="S37" s="29"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="5">
@@ -4508,18 +4183,18 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="28"/>
+      <c r="S38" s="29"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="5">
@@ -4542,18 +4217,18 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="28"/>
+      <c r="S39" s="29"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="28"/>
-      <c r="AD39" s="28"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="5">
@@ -4576,18 +4251,18 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="28"/>
+      <c r="S40" s="29"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="28"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="5">
@@ -4610,18 +4285,18 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="28"/>
+      <c r="S41" s="29"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="5">
@@ -4644,18 +4319,18 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="28"/>
+      <c r="S42" s="29"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="5">
@@ -4678,18 +4353,18 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="28"/>
+      <c r="S43" s="29"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="5">
@@ -4712,18 +4387,18 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="28"/>
+      <c r="S44" s="29"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="5">
@@ -4746,18 +4421,18 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="28"/>
+      <c r="S45" s="29"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="28"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="5">
@@ -4780,18 +4455,18 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="28"/>
+      <c r="S46" s="29"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="5">
@@ -4814,18 +4489,18 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="28"/>
+      <c r="S47" s="29"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="5">
@@ -4848,18 +4523,18 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="28"/>
+      <c r="S48" s="29"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="29"/>
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="5">
@@ -4882,18 +4557,18 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="28"/>
+      <c r="S49" s="29"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="5">
@@ -4916,18 +4591,18 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
-      <c r="S50" s="28"/>
+      <c r="S50" s="29"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="28"/>
-      <c r="AD50" s="28"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="5">
@@ -4950,18 +4625,18 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="28"/>
+      <c r="S51" s="29"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="28"/>
-      <c r="AC51" s="28"/>
-      <c r="AD51" s="28"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29"/>
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="5">
@@ -4984,18 +4659,18 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="28"/>
+      <c r="S52" s="29"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-      <c r="AC52" s="28"/>
-      <c r="AD52" s="28"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="29"/>
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="5">
@@ -5018,18 +4693,18 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="28"/>
+      <c r="S53" s="29"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="28"/>
-      <c r="AC53" s="28"/>
-      <c r="AD53" s="28"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="29"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="29"/>
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="5">
@@ -5052,18 +4727,18 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="28"/>
+      <c r="S54" s="29"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="28"/>
-      <c r="AA54" s="28"/>
-      <c r="AB54" s="28"/>
-      <c r="AC54" s="28"/>
-      <c r="AD54" s="28"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="29"/>
+      <c r="AA54" s="29"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="29"/>
+      <c r="AD54" s="29"/>
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="5">
@@ -5086,18 +4761,18 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="28"/>
+      <c r="S55" s="29"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="28"/>
-      <c r="AC55" s="28"/>
-      <c r="AD55" s="28"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="29"/>
+      <c r="AA55" s="29"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
+      <c r="AD55" s="29"/>
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="5">
@@ -5120,18 +4795,18 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="28"/>
+      <c r="S56" s="29"/>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
-      <c r="AC56" s="28"/>
-      <c r="AD56" s="28"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="29"/>
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="5">
@@ -5154,18 +4829,18 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="28"/>
+      <c r="S57" s="29"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="28"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="28"/>
-      <c r="AC57" s="28"/>
-      <c r="AD57" s="28"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="29"/>
+      <c r="AA57" s="29"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="29"/>
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="5">
@@ -5188,18 +4863,18 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="28"/>
+      <c r="S58" s="29"/>
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="28"/>
-      <c r="AA58" s="28"/>
-      <c r="AB58" s="28"/>
-      <c r="AC58" s="28"/>
-      <c r="AD58" s="28"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29"/>
+      <c r="AC58" s="29"/>
+      <c r="AD58" s="29"/>
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="5">
@@ -5222,18 +4897,18 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="28"/>
+      <c r="S59" s="29"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="28"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="29"/>
+      <c r="AA59" s="29"/>
+      <c r="AB59" s="29"/>
+      <c r="AC59" s="29"/>
+      <c r="AD59" s="29"/>
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="5">
@@ -5256,18 +4931,18 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="28"/>
+      <c r="S60" s="29"/>
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="28"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="28"/>
-      <c r="AC60" s="28"/>
-      <c r="AD60" s="28"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="29"/>
+      <c r="AA60" s="29"/>
+      <c r="AB60" s="29"/>
+      <c r="AC60" s="29"/>
+      <c r="AD60" s="29"/>
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="5">
@@ -5290,18 +4965,18 @@
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="28"/>
+      <c r="S61" s="29"/>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
-      <c r="V61" s="28"/>
-      <c r="W61" s="28"/>
-      <c r="X61" s="28"/>
-      <c r="Y61" s="28"/>
-      <c r="Z61" s="28"/>
-      <c r="AA61" s="28"/>
-      <c r="AB61" s="28"/>
-      <c r="AC61" s="28"/>
-      <c r="AD61" s="28"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="29"/>
+      <c r="X61" s="29"/>
+      <c r="Y61" s="29"/>
+      <c r="Z61" s="29"/>
+      <c r="AA61" s="29"/>
+      <c r="AB61" s="29"/>
+      <c r="AC61" s="29"/>
+      <c r="AD61" s="29"/>
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="5">
@@ -5324,18 +4999,18 @@
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="28"/>
+      <c r="S62" s="29"/>
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
-      <c r="V62" s="28"/>
-      <c r="W62" s="28"/>
-      <c r="X62" s="28"/>
-      <c r="Y62" s="28"/>
-      <c r="Z62" s="28"/>
-      <c r="AA62" s="28"/>
-      <c r="AB62" s="28"/>
-      <c r="AC62" s="28"/>
-      <c r="AD62" s="28"/>
+      <c r="V62" s="29"/>
+      <c r="W62" s="29"/>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="29"/>
+      <c r="Z62" s="29"/>
+      <c r="AA62" s="29"/>
+      <c r="AB62" s="29"/>
+      <c r="AC62" s="29"/>
+      <c r="AD62" s="29"/>
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="5">
@@ -5358,18 +5033,18 @@
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="28"/>
+      <c r="S63" s="29"/>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
-      <c r="V63" s="28"/>
-      <c r="W63" s="28"/>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="28"/>
-      <c r="AA63" s="28"/>
-      <c r="AB63" s="28"/>
-      <c r="AC63" s="28"/>
-      <c r="AD63" s="28"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="29"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="29"/>
+      <c r="AA63" s="29"/>
+      <c r="AB63" s="29"/>
+      <c r="AC63" s="29"/>
+      <c r="AD63" s="29"/>
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="5">
@@ -5392,18 +5067,18 @@
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="28"/>
+      <c r="S64" s="29"/>
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
-      <c r="V64" s="28"/>
-      <c r="W64" s="28"/>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="28"/>
-      <c r="AB64" s="28"/>
-      <c r="AC64" s="28"/>
-      <c r="AD64" s="28"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="29"/>
+      <c r="X64" s="29"/>
+      <c r="Y64" s="29"/>
+      <c r="Z64" s="29"/>
+      <c r="AA64" s="29"/>
+      <c r="AB64" s="29"/>
+      <c r="AC64" s="29"/>
+      <c r="AD64" s="29"/>
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="5">
@@ -5426,18 +5101,18 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="28"/>
+      <c r="S65" s="29"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
-      <c r="V65" s="28"/>
-      <c r="W65" s="28"/>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="28"/>
-      <c r="AA65" s="28"/>
-      <c r="AB65" s="28"/>
-      <c r="AC65" s="28"/>
-      <c r="AD65" s="28"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="X65" s="29"/>
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="29"/>
+      <c r="AA65" s="29"/>
+      <c r="AB65" s="29"/>
+      <c r="AC65" s="29"/>
+      <c r="AD65" s="29"/>
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="5">
@@ -5460,18 +5135,18 @@
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="28"/>
+      <c r="S66" s="29"/>
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
-      <c r="V66" s="28"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="28"/>
-      <c r="Z66" s="28"/>
-      <c r="AA66" s="28"/>
-      <c r="AB66" s="28"/>
-      <c r="AC66" s="28"/>
-      <c r="AD66" s="28"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="29"/>
+      <c r="AA66" s="29"/>
+      <c r="AB66" s="29"/>
+      <c r="AC66" s="29"/>
+      <c r="AD66" s="29"/>
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="5">
@@ -5494,18 +5169,18 @@
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="28"/>
+      <c r="S67" s="29"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
-      <c r="V67" s="28"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="28"/>
-      <c r="Y67" s="28"/>
-      <c r="Z67" s="28"/>
-      <c r="AA67" s="28"/>
-      <c r="AB67" s="28"/>
-      <c r="AC67" s="28"/>
-      <c r="AD67" s="28"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
+      <c r="X67" s="29"/>
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="29"/>
+      <c r="AA67" s="29"/>
+      <c r="AB67" s="29"/>
+      <c r="AC67" s="29"/>
+      <c r="AD67" s="29"/>
     </row>
     <row r="68" spans="1:30">
       <c r="A68" s="5">
@@ -5528,18 +5203,18 @@
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="28"/>
+      <c r="S68" s="29"/>
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
-      <c r="V68" s="28"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="28"/>
-      <c r="Z68" s="28"/>
-      <c r="AA68" s="28"/>
-      <c r="AB68" s="28"/>
-      <c r="AC68" s="28"/>
-      <c r="AD68" s="28"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="29"/>
+      <c r="Z68" s="29"/>
+      <c r="AA68" s="29"/>
+      <c r="AB68" s="29"/>
+      <c r="AC68" s="29"/>
+      <c r="AD68" s="29"/>
     </row>
     <row r="69" spans="1:30">
       <c r="A69" s="5">
@@ -5562,18 +5237,18 @@
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="28"/>
+      <c r="S69" s="29"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
-      <c r="V69" s="28"/>
-      <c r="W69" s="28"/>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="28"/>
-      <c r="Z69" s="28"/>
-      <c r="AA69" s="28"/>
-      <c r="AB69" s="28"/>
-      <c r="AC69" s="28"/>
-      <c r="AD69" s="28"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
+      <c r="X69" s="29"/>
+      <c r="Y69" s="29"/>
+      <c r="Z69" s="29"/>
+      <c r="AA69" s="29"/>
+      <c r="AB69" s="29"/>
+      <c r="AC69" s="29"/>
+      <c r="AD69" s="29"/>
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="5">
@@ -5596,18 +5271,18 @@
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="28"/>
+      <c r="S70" s="29"/>
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
-      <c r="V70" s="28"/>
-      <c r="W70" s="28"/>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="28"/>
-      <c r="Z70" s="28"/>
-      <c r="AA70" s="28"/>
-      <c r="AB70" s="28"/>
-      <c r="AC70" s="28"/>
-      <c r="AD70" s="28"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
+      <c r="AA70" s="29"/>
+      <c r="AB70" s="29"/>
+      <c r="AC70" s="29"/>
+      <c r="AD70" s="29"/>
     </row>
     <row r="71" spans="1:30">
       <c r="A71" s="5">
@@ -5630,18 +5305,18 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="28"/>
+      <c r="S71" s="29"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
-      <c r="V71" s="28"/>
-      <c r="W71" s="28"/>
-      <c r="X71" s="28"/>
-      <c r="Y71" s="28"/>
-      <c r="Z71" s="28"/>
-      <c r="AA71" s="28"/>
-      <c r="AB71" s="28"/>
-      <c r="AC71" s="28"/>
-      <c r="AD71" s="28"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="29"/>
+      <c r="X71" s="29"/>
+      <c r="Y71" s="29"/>
+      <c r="Z71" s="29"/>
+      <c r="AA71" s="29"/>
+      <c r="AB71" s="29"/>
+      <c r="AC71" s="29"/>
+      <c r="AD71" s="29"/>
     </row>
     <row r="72" spans="1:30">
       <c r="A72" s="5">
@@ -5664,18 +5339,18 @@
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
-      <c r="S72" s="28"/>
+      <c r="S72" s="29"/>
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
-      <c r="V72" s="28"/>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="28"/>
-      <c r="AA72" s="28"/>
-      <c r="AB72" s="28"/>
-      <c r="AC72" s="28"/>
-      <c r="AD72" s="28"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="29"/>
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="29"/>
+      <c r="AA72" s="29"/>
+      <c r="AB72" s="29"/>
+      <c r="AC72" s="29"/>
+      <c r="AD72" s="29"/>
     </row>
     <row r="73" spans="1:30">
       <c r="A73" s="5">
@@ -5698,18 +5373,18 @@
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="28"/>
+      <c r="S73" s="29"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="28"/>
-      <c r="AB73" s="28"/>
-      <c r="AC73" s="28"/>
-      <c r="AD73" s="28"/>
+      <c r="V73" s="29"/>
+      <c r="W73" s="29"/>
+      <c r="X73" s="29"/>
+      <c r="Y73" s="29"/>
+      <c r="Z73" s="29"/>
+      <c r="AA73" s="29"/>
+      <c r="AB73" s="29"/>
+      <c r="AC73" s="29"/>
+      <c r="AD73" s="29"/>
     </row>
     <row r="74" spans="1:30">
       <c r="A74" s="5">
@@ -5732,18 +5407,18 @@
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="28"/>
+      <c r="S74" s="29"/>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
-      <c r="V74" s="28"/>
-      <c r="W74" s="28"/>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="28"/>
-      <c r="AA74" s="28"/>
-      <c r="AB74" s="28"/>
-      <c r="AC74" s="28"/>
-      <c r="AD74" s="28"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="29"/>
+      <c r="X74" s="29"/>
+      <c r="Y74" s="29"/>
+      <c r="Z74" s="29"/>
+      <c r="AA74" s="29"/>
+      <c r="AB74" s="29"/>
+      <c r="AC74" s="29"/>
+      <c r="AD74" s="29"/>
     </row>
     <row r="75" spans="1:30">
       <c r="A75" s="5">
@@ -5766,18 +5441,18 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="28"/>
+      <c r="S75" s="29"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="28"/>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="28"/>
-      <c r="Z75" s="28"/>
-      <c r="AA75" s="28"/>
-      <c r="AB75" s="28"/>
-      <c r="AC75" s="28"/>
-      <c r="AD75" s="28"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
+      <c r="X75" s="29"/>
+      <c r="Y75" s="29"/>
+      <c r="Z75" s="29"/>
+      <c r="AA75" s="29"/>
+      <c r="AB75" s="29"/>
+      <c r="AC75" s="29"/>
+      <c r="AD75" s="29"/>
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="5">
@@ -5800,18 +5475,18 @@
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="28"/>
+      <c r="S76" s="29"/>
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="28"/>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="28"/>
-      <c r="AA76" s="28"/>
-      <c r="AB76" s="28"/>
-      <c r="AC76" s="28"/>
-      <c r="AD76" s="28"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="29"/>
+      <c r="X76" s="29"/>
+      <c r="Y76" s="29"/>
+      <c r="Z76" s="29"/>
+      <c r="AA76" s="29"/>
+      <c r="AB76" s="29"/>
+      <c r="AC76" s="29"/>
+      <c r="AD76" s="29"/>
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="5">
@@ -5834,18 +5509,18 @@
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="28"/>
+      <c r="S77" s="29"/>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="28"/>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="28"/>
-      <c r="Z77" s="28"/>
-      <c r="AA77" s="28"/>
-      <c r="AB77" s="28"/>
-      <c r="AC77" s="28"/>
-      <c r="AD77" s="28"/>
+      <c r="V77" s="29"/>
+      <c r="W77" s="29"/>
+      <c r="X77" s="29"/>
+      <c r="Y77" s="29"/>
+      <c r="Z77" s="29"/>
+      <c r="AA77" s="29"/>
+      <c r="AB77" s="29"/>
+      <c r="AC77" s="29"/>
+      <c r="AD77" s="29"/>
     </row>
     <row r="78" spans="1:30">
       <c r="A78" s="5">
@@ -5868,18 +5543,18 @@
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="28"/>
+      <c r="S78" s="29"/>
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
-      <c r="V78" s="28"/>
-      <c r="W78" s="28"/>
-      <c r="X78" s="28"/>
-      <c r="Y78" s="28"/>
-      <c r="Z78" s="28"/>
-      <c r="AA78" s="28"/>
-      <c r="AB78" s="28"/>
-      <c r="AC78" s="28"/>
-      <c r="AD78" s="28"/>
+      <c r="V78" s="29"/>
+      <c r="W78" s="29"/>
+      <c r="X78" s="29"/>
+      <c r="Y78" s="29"/>
+      <c r="Z78" s="29"/>
+      <c r="AA78" s="29"/>
+      <c r="AB78" s="29"/>
+      <c r="AC78" s="29"/>
+      <c r="AD78" s="29"/>
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="5">
@@ -5902,18 +5577,18 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="28"/>
+      <c r="S79" s="29"/>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
-      <c r="V79" s="28"/>
-      <c r="W79" s="28"/>
-      <c r="X79" s="28"/>
-      <c r="Y79" s="28"/>
-      <c r="Z79" s="28"/>
-      <c r="AA79" s="28"/>
-      <c r="AB79" s="28"/>
-      <c r="AC79" s="28"/>
-      <c r="AD79" s="28"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="29"/>
+      <c r="X79" s="29"/>
+      <c r="Y79" s="29"/>
+      <c r="Z79" s="29"/>
+      <c r="AA79" s="29"/>
+      <c r="AB79" s="29"/>
+      <c r="AC79" s="29"/>
+      <c r="AD79" s="29"/>
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="5">
@@ -5936,18 +5611,18 @@
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="28"/>
+      <c r="S80" s="29"/>
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
-      <c r="V80" s="28"/>
-      <c r="W80" s="28"/>
-      <c r="X80" s="28"/>
-      <c r="Y80" s="28"/>
-      <c r="Z80" s="28"/>
-      <c r="AA80" s="28"/>
-      <c r="AB80" s="28"/>
-      <c r="AC80" s="28"/>
-      <c r="AD80" s="28"/>
+      <c r="V80" s="29"/>
+      <c r="W80" s="29"/>
+      <c r="X80" s="29"/>
+      <c r="Y80" s="29"/>
+      <c r="Z80" s="29"/>
+      <c r="AA80" s="29"/>
+      <c r="AB80" s="29"/>
+      <c r="AC80" s="29"/>
+      <c r="AD80" s="29"/>
     </row>
     <row r="81" spans="1:30">
       <c r="A81" s="5">
@@ -5970,18 +5645,18 @@
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="28"/>
+      <c r="S81" s="29"/>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
-      <c r="V81" s="28"/>
-      <c r="W81" s="28"/>
-      <c r="X81" s="28"/>
-      <c r="Y81" s="28"/>
-      <c r="Z81" s="28"/>
-      <c r="AA81" s="28"/>
-      <c r="AB81" s="28"/>
-      <c r="AC81" s="28"/>
-      <c r="AD81" s="28"/>
+      <c r="V81" s="29"/>
+      <c r="W81" s="29"/>
+      <c r="X81" s="29"/>
+      <c r="Y81" s="29"/>
+      <c r="Z81" s="29"/>
+      <c r="AA81" s="29"/>
+      <c r="AB81" s="29"/>
+      <c r="AC81" s="29"/>
+      <c r="AD81" s="29"/>
     </row>
     <row r="82" spans="1:30">
       <c r="A82" s="5">
@@ -6004,18 +5679,18 @@
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="28"/>
+      <c r="S82" s="29"/>
       <c r="T82" s="7"/>
       <c r="U82" s="7"/>
-      <c r="V82" s="28"/>
-      <c r="W82" s="28"/>
-      <c r="X82" s="28"/>
-      <c r="Y82" s="28"/>
-      <c r="Z82" s="28"/>
-      <c r="AA82" s="28"/>
-      <c r="AB82" s="28"/>
-      <c r="AC82" s="28"/>
-      <c r="AD82" s="28"/>
+      <c r="V82" s="29"/>
+      <c r="W82" s="29"/>
+      <c r="X82" s="29"/>
+      <c r="Y82" s="29"/>
+      <c r="Z82" s="29"/>
+      <c r="AA82" s="29"/>
+      <c r="AB82" s="29"/>
+      <c r="AC82" s="29"/>
+      <c r="AD82" s="29"/>
     </row>
     <row r="83" spans="1:30">
       <c r="A83" s="5">
@@ -6038,18 +5713,18 @@
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="28"/>
+      <c r="S83" s="29"/>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
-      <c r="V83" s="28"/>
-      <c r="W83" s="28"/>
-      <c r="X83" s="28"/>
-      <c r="Y83" s="28"/>
-      <c r="Z83" s="28"/>
-      <c r="AA83" s="28"/>
-      <c r="AB83" s="28"/>
-      <c r="AC83" s="28"/>
-      <c r="AD83" s="28"/>
+      <c r="V83" s="29"/>
+      <c r="W83" s="29"/>
+      <c r="X83" s="29"/>
+      <c r="Y83" s="29"/>
+      <c r="Z83" s="29"/>
+      <c r="AA83" s="29"/>
+      <c r="AB83" s="29"/>
+      <c r="AC83" s="29"/>
+      <c r="AD83" s="29"/>
     </row>
     <row r="84" spans="1:30">
       <c r="A84" s="5">
@@ -6072,18 +5747,18 @@
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="28"/>
+      <c r="S84" s="29"/>
       <c r="T84" s="7"/>
       <c r="U84" s="7"/>
-      <c r="V84" s="28"/>
-      <c r="W84" s="28"/>
-      <c r="X84" s="28"/>
-      <c r="Y84" s="28"/>
-      <c r="Z84" s="28"/>
-      <c r="AA84" s="28"/>
-      <c r="AB84" s="28"/>
-      <c r="AC84" s="28"/>
-      <c r="AD84" s="28"/>
+      <c r="V84" s="29"/>
+      <c r="W84" s="29"/>
+      <c r="X84" s="29"/>
+      <c r="Y84" s="29"/>
+      <c r="Z84" s="29"/>
+      <c r="AA84" s="29"/>
+      <c r="AB84" s="29"/>
+      <c r="AC84" s="29"/>
+      <c r="AD84" s="29"/>
     </row>
     <row r="85" spans="1:30">
       <c r="A85" s="5">
@@ -6106,18 +5781,18 @@
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="28"/>
+      <c r="S85" s="29"/>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
-      <c r="V85" s="28"/>
-      <c r="W85" s="28"/>
-      <c r="X85" s="28"/>
-      <c r="Y85" s="28"/>
-      <c r="Z85" s="28"/>
-      <c r="AA85" s="28"/>
-      <c r="AB85" s="28"/>
-      <c r="AC85" s="28"/>
-      <c r="AD85" s="28"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="29"/>
+      <c r="X85" s="29"/>
+      <c r="Y85" s="29"/>
+      <c r="Z85" s="29"/>
+      <c r="AA85" s="29"/>
+      <c r="AB85" s="29"/>
+      <c r="AC85" s="29"/>
+      <c r="AD85" s="29"/>
     </row>
     <row r="86" spans="1:30">
       <c r="A86" s="5">
@@ -6140,18 +5815,18 @@
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="28"/>
+      <c r="S86" s="29"/>
       <c r="T86" s="7"/>
       <c r="U86" s="7"/>
-      <c r="V86" s="28"/>
-      <c r="W86" s="28"/>
-      <c r="X86" s="28"/>
-      <c r="Y86" s="28"/>
-      <c r="Z86" s="28"/>
-      <c r="AA86" s="28"/>
-      <c r="AB86" s="28"/>
-      <c r="AC86" s="28"/>
-      <c r="AD86" s="28"/>
+      <c r="V86" s="29"/>
+      <c r="W86" s="29"/>
+      <c r="X86" s="29"/>
+      <c r="Y86" s="29"/>
+      <c r="Z86" s="29"/>
+      <c r="AA86" s="29"/>
+      <c r="AB86" s="29"/>
+      <c r="AC86" s="29"/>
+      <c r="AD86" s="29"/>
     </row>
     <row r="87" spans="1:30">
       <c r="A87" s="5">
@@ -6174,18 +5849,18 @@
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="28"/>
+      <c r="S87" s="29"/>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
-      <c r="V87" s="28"/>
-      <c r="W87" s="28"/>
-      <c r="X87" s="28"/>
-      <c r="Y87" s="28"/>
-      <c r="Z87" s="28"/>
-      <c r="AA87" s="28"/>
-      <c r="AB87" s="28"/>
-      <c r="AC87" s="28"/>
-      <c r="AD87" s="28"/>
+      <c r="V87" s="29"/>
+      <c r="W87" s="29"/>
+      <c r="X87" s="29"/>
+      <c r="Y87" s="29"/>
+      <c r="Z87" s="29"/>
+      <c r="AA87" s="29"/>
+      <c r="AB87" s="29"/>
+      <c r="AC87" s="29"/>
+      <c r="AD87" s="29"/>
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="5">
@@ -6208,18 +5883,18 @@
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="28"/>
+      <c r="S88" s="29"/>
       <c r="T88" s="7"/>
       <c r="U88" s="7"/>
-      <c r="V88" s="28"/>
-      <c r="W88" s="28"/>
-      <c r="X88" s="28"/>
-      <c r="Y88" s="28"/>
-      <c r="Z88" s="28"/>
-      <c r="AA88" s="28"/>
-      <c r="AB88" s="28"/>
-      <c r="AC88" s="28"/>
-      <c r="AD88" s="28"/>
+      <c r="V88" s="29"/>
+      <c r="W88" s="29"/>
+      <c r="X88" s="29"/>
+      <c r="Y88" s="29"/>
+      <c r="Z88" s="29"/>
+      <c r="AA88" s="29"/>
+      <c r="AB88" s="29"/>
+      <c r="AC88" s="29"/>
+      <c r="AD88" s="29"/>
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="5">
@@ -6242,18 +5917,18 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="28"/>
+      <c r="S89" s="29"/>
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
-      <c r="V89" s="28"/>
-      <c r="W89" s="28"/>
-      <c r="X89" s="28"/>
-      <c r="Y89" s="28"/>
-      <c r="Z89" s="28"/>
-      <c r="AA89" s="28"/>
-      <c r="AB89" s="28"/>
-      <c r="AC89" s="28"/>
-      <c r="AD89" s="28"/>
+      <c r="V89" s="29"/>
+      <c r="W89" s="29"/>
+      <c r="X89" s="29"/>
+      <c r="Y89" s="29"/>
+      <c r="Z89" s="29"/>
+      <c r="AA89" s="29"/>
+      <c r="AB89" s="29"/>
+      <c r="AC89" s="29"/>
+      <c r="AD89" s="29"/>
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="5">
@@ -6276,18 +5951,18 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="28"/>
+      <c r="S90" s="29"/>
       <c r="T90" s="7"/>
       <c r="U90" s="7"/>
-      <c r="V90" s="28"/>
-      <c r="W90" s="28"/>
-      <c r="X90" s="28"/>
-      <c r="Y90" s="28"/>
-      <c r="Z90" s="28"/>
-      <c r="AA90" s="28"/>
-      <c r="AB90" s="28"/>
-      <c r="AC90" s="28"/>
-      <c r="AD90" s="28"/>
+      <c r="V90" s="29"/>
+      <c r="W90" s="29"/>
+      <c r="X90" s="29"/>
+      <c r="Y90" s="29"/>
+      <c r="Z90" s="29"/>
+      <c r="AA90" s="29"/>
+      <c r="AB90" s="29"/>
+      <c r="AC90" s="29"/>
+      <c r="AD90" s="29"/>
     </row>
     <row r="91" spans="1:30">
       <c r="A91" s="5">
@@ -6310,18 +5985,18 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="28"/>
+      <c r="S91" s="29"/>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
-      <c r="V91" s="28"/>
-      <c r="W91" s="28"/>
-      <c r="X91" s="28"/>
-      <c r="Y91" s="28"/>
-      <c r="Z91" s="28"/>
-      <c r="AA91" s="28"/>
-      <c r="AB91" s="28"/>
-      <c r="AC91" s="28"/>
-      <c r="AD91" s="28"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="29"/>
+      <c r="X91" s="29"/>
+      <c r="Y91" s="29"/>
+      <c r="Z91" s="29"/>
+      <c r="AA91" s="29"/>
+      <c r="AB91" s="29"/>
+      <c r="AC91" s="29"/>
+      <c r="AD91" s="29"/>
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="5">
@@ -6344,18 +6019,18 @@
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="28"/>
+      <c r="S92" s="29"/>
       <c r="T92" s="7"/>
       <c r="U92" s="7"/>
-      <c r="V92" s="28"/>
-      <c r="W92" s="28"/>
-      <c r="X92" s="28"/>
-      <c r="Y92" s="28"/>
-      <c r="Z92" s="28"/>
-      <c r="AA92" s="28"/>
-      <c r="AB92" s="28"/>
-      <c r="AC92" s="28"/>
-      <c r="AD92" s="28"/>
+      <c r="V92" s="29"/>
+      <c r="W92" s="29"/>
+      <c r="X92" s="29"/>
+      <c r="Y92" s="29"/>
+      <c r="Z92" s="29"/>
+      <c r="AA92" s="29"/>
+      <c r="AB92" s="29"/>
+      <c r="AC92" s="29"/>
+      <c r="AD92" s="29"/>
     </row>
     <row r="93" spans="1:30">
       <c r="A93" s="5">
@@ -6378,18 +6053,18 @@
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="28"/>
+      <c r="S93" s="29"/>
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
-      <c r="V93" s="28"/>
-      <c r="W93" s="28"/>
-      <c r="X93" s="28"/>
-      <c r="Y93" s="28"/>
-      <c r="Z93" s="28"/>
-      <c r="AA93" s="28"/>
-      <c r="AB93" s="28"/>
-      <c r="AC93" s="28"/>
-      <c r="AD93" s="28"/>
+      <c r="V93" s="29"/>
+      <c r="W93" s="29"/>
+      <c r="X93" s="29"/>
+      <c r="Y93" s="29"/>
+      <c r="Z93" s="29"/>
+      <c r="AA93" s="29"/>
+      <c r="AB93" s="29"/>
+      <c r="AC93" s="29"/>
+      <c r="AD93" s="29"/>
     </row>
     <row r="94" spans="1:30">
       <c r="A94" s="5">
@@ -6412,18 +6087,18 @@
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="28"/>
+      <c r="S94" s="29"/>
       <c r="T94" s="7"/>
       <c r="U94" s="7"/>
-      <c r="V94" s="28"/>
-      <c r="W94" s="28"/>
-      <c r="X94" s="28"/>
-      <c r="Y94" s="28"/>
-      <c r="Z94" s="28"/>
-      <c r="AA94" s="28"/>
-      <c r="AB94" s="28"/>
-      <c r="AC94" s="28"/>
-      <c r="AD94" s="28"/>
+      <c r="V94" s="29"/>
+      <c r="W94" s="29"/>
+      <c r="X94" s="29"/>
+      <c r="Y94" s="29"/>
+      <c r="Z94" s="29"/>
+      <c r="AA94" s="29"/>
+      <c r="AB94" s="29"/>
+      <c r="AC94" s="29"/>
+      <c r="AD94" s="29"/>
     </row>
     <row r="95" spans="1:30">
       <c r="A95" s="5">
@@ -6446,18 +6121,18 @@
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="28"/>
+      <c r="S95" s="29"/>
       <c r="T95" s="7"/>
       <c r="U95" s="7"/>
-      <c r="V95" s="28"/>
-      <c r="W95" s="28"/>
-      <c r="X95" s="28"/>
-      <c r="Y95" s="28"/>
-      <c r="Z95" s="28"/>
-      <c r="AA95" s="28"/>
-      <c r="AB95" s="28"/>
-      <c r="AC95" s="28"/>
-      <c r="AD95" s="28"/>
+      <c r="V95" s="29"/>
+      <c r="W95" s="29"/>
+      <c r="X95" s="29"/>
+      <c r="Y95" s="29"/>
+      <c r="Z95" s="29"/>
+      <c r="AA95" s="29"/>
+      <c r="AB95" s="29"/>
+      <c r="AC95" s="29"/>
+      <c r="AD95" s="29"/>
     </row>
     <row r="96" spans="1:30">
       <c r="A96" s="5">
@@ -6480,18 +6155,18 @@
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="28"/>
+      <c r="S96" s="29"/>
       <c r="T96" s="7"/>
       <c r="U96" s="7"/>
-      <c r="V96" s="28"/>
-      <c r="W96" s="28"/>
-      <c r="X96" s="28"/>
-      <c r="Y96" s="28"/>
-      <c r="Z96" s="28"/>
-      <c r="AA96" s="28"/>
-      <c r="AB96" s="28"/>
-      <c r="AC96" s="28"/>
-      <c r="AD96" s="28"/>
+      <c r="V96" s="29"/>
+      <c r="W96" s="29"/>
+      <c r="X96" s="29"/>
+      <c r="Y96" s="29"/>
+      <c r="Z96" s="29"/>
+      <c r="AA96" s="29"/>
+      <c r="AB96" s="29"/>
+      <c r="AC96" s="29"/>
+      <c r="AD96" s="29"/>
     </row>
     <row r="97" spans="1:30">
       <c r="A97" s="5">
@@ -6514,18 +6189,18 @@
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="28"/>
+      <c r="S97" s="29"/>
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
-      <c r="V97" s="28"/>
-      <c r="W97" s="28"/>
-      <c r="X97" s="28"/>
-      <c r="Y97" s="28"/>
-      <c r="Z97" s="28"/>
-      <c r="AA97" s="28"/>
-      <c r="AB97" s="28"/>
-      <c r="AC97" s="28"/>
-      <c r="AD97" s="28"/>
+      <c r="V97" s="29"/>
+      <c r="W97" s="29"/>
+      <c r="X97" s="29"/>
+      <c r="Y97" s="29"/>
+      <c r="Z97" s="29"/>
+      <c r="AA97" s="29"/>
+      <c r="AB97" s="29"/>
+      <c r="AC97" s="29"/>
+      <c r="AD97" s="29"/>
     </row>
     <row r="98" spans="1:30">
       <c r="A98" s="5">
@@ -6548,18 +6223,18 @@
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="28"/>
+      <c r="S98" s="29"/>
       <c r="T98" s="7"/>
       <c r="U98" s="7"/>
-      <c r="V98" s="28"/>
-      <c r="W98" s="28"/>
-      <c r="X98" s="28"/>
-      <c r="Y98" s="28"/>
-      <c r="Z98" s="28"/>
-      <c r="AA98" s="28"/>
-      <c r="AB98" s="28"/>
-      <c r="AC98" s="28"/>
-      <c r="AD98" s="28"/>
+      <c r="V98" s="29"/>
+      <c r="W98" s="29"/>
+      <c r="X98" s="29"/>
+      <c r="Y98" s="29"/>
+      <c r="Z98" s="29"/>
+      <c r="AA98" s="29"/>
+      <c r="AB98" s="29"/>
+      <c r="AC98" s="29"/>
+      <c r="AD98" s="29"/>
     </row>
     <row r="99" spans="1:30">
       <c r="A99" s="5">
@@ -6582,18 +6257,18 @@
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="28"/>
+      <c r="S99" s="29"/>
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
-      <c r="V99" s="28"/>
-      <c r="W99" s="28"/>
-      <c r="X99" s="28"/>
-      <c r="Y99" s="28"/>
-      <c r="Z99" s="28"/>
-      <c r="AA99" s="28"/>
-      <c r="AB99" s="28"/>
-      <c r="AC99" s="28"/>
-      <c r="AD99" s="28"/>
+      <c r="V99" s="29"/>
+      <c r="W99" s="29"/>
+      <c r="X99" s="29"/>
+      <c r="Y99" s="29"/>
+      <c r="Z99" s="29"/>
+      <c r="AA99" s="29"/>
+      <c r="AB99" s="29"/>
+      <c r="AC99" s="29"/>
+      <c r="AD99" s="29"/>
     </row>
     <row r="100" spans="1:30">
       <c r="A100" s="5">
@@ -6616,18 +6291,18 @@
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="28"/>
+      <c r="S100" s="29"/>
       <c r="T100" s="7"/>
       <c r="U100" s="7"/>
-      <c r="V100" s="28"/>
-      <c r="W100" s="28"/>
-      <c r="X100" s="28"/>
-      <c r="Y100" s="28"/>
-      <c r="Z100" s="28"/>
-      <c r="AA100" s="28"/>
-      <c r="AB100" s="28"/>
-      <c r="AC100" s="28"/>
-      <c r="AD100" s="28"/>
+      <c r="V100" s="29"/>
+      <c r="W100" s="29"/>
+      <c r="X100" s="29"/>
+      <c r="Y100" s="29"/>
+      <c r="Z100" s="29"/>
+      <c r="AA100" s="29"/>
+      <c r="AB100" s="29"/>
+      <c r="AC100" s="29"/>
+      <c r="AD100" s="29"/>
     </row>
     <row r="101" spans="1:30">
       <c r="A101" s="5">
@@ -6650,18 +6325,18 @@
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="28"/>
+      <c r="S101" s="29"/>
       <c r="T101" s="7"/>
       <c r="U101" s="7"/>
-      <c r="V101" s="28"/>
-      <c r="W101" s="28"/>
-      <c r="X101" s="28"/>
-      <c r="Y101" s="28"/>
-      <c r="Z101" s="28"/>
-      <c r="AA101" s="28"/>
-      <c r="AB101" s="28"/>
-      <c r="AC101" s="28"/>
-      <c r="AD101" s="28"/>
+      <c r="V101" s="29"/>
+      <c r="W101" s="29"/>
+      <c r="X101" s="29"/>
+      <c r="Y101" s="29"/>
+      <c r="Z101" s="29"/>
+      <c r="AA101" s="29"/>
+      <c r="AB101" s="29"/>
+      <c r="AC101" s="29"/>
+      <c r="AD101" s="29"/>
     </row>
     <row r="102" spans="1:30">
       <c r="A102" s="5">
@@ -6684,18 +6359,18 @@
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="28"/>
+      <c r="S102" s="29"/>
       <c r="T102" s="7"/>
       <c r="U102" s="7"/>
-      <c r="V102" s="28"/>
-      <c r="W102" s="28"/>
-      <c r="X102" s="28"/>
-      <c r="Y102" s="28"/>
-      <c r="Z102" s="28"/>
-      <c r="AA102" s="28"/>
-      <c r="AB102" s="28"/>
-      <c r="AC102" s="28"/>
-      <c r="AD102" s="28"/>
+      <c r="V102" s="29"/>
+      <c r="W102" s="29"/>
+      <c r="X102" s="29"/>
+      <c r="Y102" s="29"/>
+      <c r="Z102" s="29"/>
+      <c r="AA102" s="29"/>
+      <c r="AB102" s="29"/>
+      <c r="AC102" s="29"/>
+      <c r="AD102" s="29"/>
     </row>
     <row r="103" spans="1:30">
       <c r="A103" s="5">
@@ -6718,18 +6393,18 @@
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="28"/>
+      <c r="S103" s="29"/>
       <c r="T103" s="7"/>
       <c r="U103" s="7"/>
-      <c r="V103" s="28"/>
-      <c r="W103" s="28"/>
-      <c r="X103" s="28"/>
-      <c r="Y103" s="28"/>
-      <c r="Z103" s="28"/>
-      <c r="AA103" s="28"/>
-      <c r="AB103" s="28"/>
-      <c r="AC103" s="28"/>
-      <c r="AD103" s="28"/>
+      <c r="V103" s="29"/>
+      <c r="W103" s="29"/>
+      <c r="X103" s="29"/>
+      <c r="Y103" s="29"/>
+      <c r="Z103" s="29"/>
+      <c r="AA103" s="29"/>
+      <c r="AB103" s="29"/>
+      <c r="AC103" s="29"/>
+      <c r="AD103" s="29"/>
     </row>
     <row r="104" spans="1:30">
       <c r="A104" s="5">
@@ -6752,18 +6427,18 @@
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="28"/>
+      <c r="S104" s="29"/>
       <c r="T104" s="7"/>
       <c r="U104" s="7"/>
-      <c r="V104" s="28"/>
-      <c r="W104" s="28"/>
-      <c r="X104" s="28"/>
-      <c r="Y104" s="28"/>
-      <c r="Z104" s="28"/>
-      <c r="AA104" s="28"/>
-      <c r="AB104" s="28"/>
-      <c r="AC104" s="28"/>
-      <c r="AD104" s="28"/>
+      <c r="V104" s="29"/>
+      <c r="W104" s="29"/>
+      <c r="X104" s="29"/>
+      <c r="Y104" s="29"/>
+      <c r="Z104" s="29"/>
+      <c r="AA104" s="29"/>
+      <c r="AB104" s="29"/>
+      <c r="AC104" s="29"/>
+      <c r="AD104" s="29"/>
     </row>
     <row r="105" spans="1:30">
       <c r="A105" s="5">
@@ -6786,18 +6461,18 @@
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="28"/>
+      <c r="S105" s="29"/>
       <c r="T105" s="7"/>
       <c r="U105" s="7"/>
-      <c r="V105" s="28"/>
-      <c r="W105" s="28"/>
-      <c r="X105" s="28"/>
-      <c r="Y105" s="28"/>
-      <c r="Z105" s="28"/>
-      <c r="AA105" s="28"/>
-      <c r="AB105" s="28"/>
-      <c r="AC105" s="28"/>
-      <c r="AD105" s="28"/>
+      <c r="V105" s="29"/>
+      <c r="W105" s="29"/>
+      <c r="X105" s="29"/>
+      <c r="Y105" s="29"/>
+      <c r="Z105" s="29"/>
+      <c r="AA105" s="29"/>
+      <c r="AB105" s="29"/>
+      <c r="AC105" s="29"/>
+      <c r="AD105" s="29"/>
     </row>
     <row r="106" spans="1:30">
       <c r="A106" s="5">
@@ -6820,18 +6495,18 @@
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="28"/>
+      <c r="S106" s="29"/>
       <c r="T106" s="7"/>
       <c r="U106" s="7"/>
-      <c r="V106" s="28"/>
-      <c r="W106" s="28"/>
-      <c r="X106" s="28"/>
-      <c r="Y106" s="28"/>
-      <c r="Z106" s="28"/>
-      <c r="AA106" s="28"/>
-      <c r="AB106" s="28"/>
-      <c r="AC106" s="28"/>
-      <c r="AD106" s="28"/>
+      <c r="V106" s="29"/>
+      <c r="W106" s="29"/>
+      <c r="X106" s="29"/>
+      <c r="Y106" s="29"/>
+      <c r="Z106" s="29"/>
+      <c r="AA106" s="29"/>
+      <c r="AB106" s="29"/>
+      <c r="AC106" s="29"/>
+      <c r="AD106" s="29"/>
     </row>
     <row r="107" spans="1:30">
       <c r="A107" s="5">
@@ -6854,18 +6529,18 @@
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="28"/>
+      <c r="S107" s="29"/>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
-      <c r="V107" s="28"/>
-      <c r="W107" s="28"/>
-      <c r="X107" s="28"/>
-      <c r="Y107" s="28"/>
-      <c r="Z107" s="28"/>
-      <c r="AA107" s="28"/>
-      <c r="AB107" s="28"/>
-      <c r="AC107" s="28"/>
-      <c r="AD107" s="28"/>
+      <c r="V107" s="29"/>
+      <c r="W107" s="29"/>
+      <c r="X107" s="29"/>
+      <c r="Y107" s="29"/>
+      <c r="Z107" s="29"/>
+      <c r="AA107" s="29"/>
+      <c r="AB107" s="29"/>
+      <c r="AC107" s="29"/>
+      <c r="AD107" s="29"/>
     </row>
     <row r="108" spans="1:30">
       <c r="A108" s="5">
@@ -6888,18 +6563,18 @@
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="28"/>
+      <c r="S108" s="29"/>
       <c r="T108" s="7"/>
       <c r="U108" s="7"/>
-      <c r="V108" s="28"/>
-      <c r="W108" s="28"/>
-      <c r="X108" s="28"/>
-      <c r="Y108" s="28"/>
-      <c r="Z108" s="28"/>
-      <c r="AA108" s="28"/>
-      <c r="AB108" s="28"/>
-      <c r="AC108" s="28"/>
-      <c r="AD108" s="28"/>
+      <c r="V108" s="29"/>
+      <c r="W108" s="29"/>
+      <c r="X108" s="29"/>
+      <c r="Y108" s="29"/>
+      <c r="Z108" s="29"/>
+      <c r="AA108" s="29"/>
+      <c r="AB108" s="29"/>
+      <c r="AC108" s="29"/>
+      <c r="AD108" s="29"/>
     </row>
     <row r="109" spans="1:30">
       <c r="A109" s="5">
@@ -6922,18 +6597,18 @@
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
-      <c r="S109" s="28"/>
+      <c r="S109" s="29"/>
       <c r="T109" s="7"/>
       <c r="U109" s="7"/>
-      <c r="V109" s="28"/>
-      <c r="W109" s="28"/>
-      <c r="X109" s="28"/>
-      <c r="Y109" s="28"/>
-      <c r="Z109" s="28"/>
-      <c r="AA109" s="28"/>
-      <c r="AB109" s="28"/>
-      <c r="AC109" s="28"/>
-      <c r="AD109" s="28"/>
+      <c r="V109" s="29"/>
+      <c r="W109" s="29"/>
+      <c r="X109" s="29"/>
+      <c r="Y109" s="29"/>
+      <c r="Z109" s="29"/>
+      <c r="AA109" s="29"/>
+      <c r="AB109" s="29"/>
+      <c r="AC109" s="29"/>
+      <c r="AD109" s="29"/>
     </row>
     <row r="110" spans="1:30">
       <c r="A110" s="5">
@@ -6956,18 +6631,18 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="28"/>
+      <c r="S110" s="29"/>
       <c r="T110" s="7"/>
       <c r="U110" s="7"/>
-      <c r="V110" s="28"/>
-      <c r="W110" s="28"/>
-      <c r="X110" s="28"/>
-      <c r="Y110" s="28"/>
-      <c r="Z110" s="28"/>
-      <c r="AA110" s="28"/>
-      <c r="AB110" s="28"/>
-      <c r="AC110" s="28"/>
-      <c r="AD110" s="28"/>
+      <c r="V110" s="29"/>
+      <c r="W110" s="29"/>
+      <c r="X110" s="29"/>
+      <c r="Y110" s="29"/>
+      <c r="Z110" s="29"/>
+      <c r="AA110" s="29"/>
+      <c r="AB110" s="29"/>
+      <c r="AC110" s="29"/>
+      <c r="AD110" s="29"/>
     </row>
     <row r="111" spans="1:30">
       <c r="A111" s="5">
@@ -6990,18 +6665,18 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="28"/>
+      <c r="S111" s="29"/>
       <c r="T111" s="7"/>
       <c r="U111" s="7"/>
-      <c r="V111" s="28"/>
-      <c r="W111" s="28"/>
-      <c r="X111" s="28"/>
-      <c r="Y111" s="28"/>
-      <c r="Z111" s="28"/>
-      <c r="AA111" s="28"/>
-      <c r="AB111" s="28"/>
-      <c r="AC111" s="28"/>
-      <c r="AD111" s="28"/>
+      <c r="V111" s="29"/>
+      <c r="W111" s="29"/>
+      <c r="X111" s="29"/>
+      <c r="Y111" s="29"/>
+      <c r="Z111" s="29"/>
+      <c r="AA111" s="29"/>
+      <c r="AB111" s="29"/>
+      <c r="AC111" s="29"/>
+      <c r="AD111" s="29"/>
     </row>
     <row r="112" spans="1:30">
       <c r="A112" s="5">
@@ -7024,18 +6699,18 @@
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="28"/>
+      <c r="S112" s="29"/>
       <c r="T112" s="7"/>
       <c r="U112" s="7"/>
-      <c r="V112" s="28"/>
-      <c r="W112" s="28"/>
-      <c r="X112" s="28"/>
-      <c r="Y112" s="28"/>
-      <c r="Z112" s="28"/>
-      <c r="AA112" s="28"/>
-      <c r="AB112" s="28"/>
-      <c r="AC112" s="28"/>
-      <c r="AD112" s="28"/>
+      <c r="V112" s="29"/>
+      <c r="W112" s="29"/>
+      <c r="X112" s="29"/>
+      <c r="Y112" s="29"/>
+      <c r="Z112" s="29"/>
+      <c r="AA112" s="29"/>
+      <c r="AB112" s="29"/>
+      <c r="AC112" s="29"/>
+      <c r="AD112" s="29"/>
     </row>
     <row r="113" spans="1:30">
       <c r="A113" s="5">
@@ -7058,18 +6733,18 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="28"/>
+      <c r="S113" s="29"/>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
-      <c r="V113" s="28"/>
-      <c r="W113" s="28"/>
-      <c r="X113" s="28"/>
-      <c r="Y113" s="28"/>
-      <c r="Z113" s="28"/>
-      <c r="AA113" s="28"/>
-      <c r="AB113" s="28"/>
-      <c r="AC113" s="28"/>
-      <c r="AD113" s="28"/>
+      <c r="V113" s="29"/>
+      <c r="W113" s="29"/>
+      <c r="X113" s="29"/>
+      <c r="Y113" s="29"/>
+      <c r="Z113" s="29"/>
+      <c r="AA113" s="29"/>
+      <c r="AB113" s="29"/>
+      <c r="AC113" s="29"/>
+      <c r="AD113" s="29"/>
     </row>
     <row r="114" spans="1:30">
       <c r="A114" s="5">
@@ -7092,18 +6767,18 @@
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="28"/>
+      <c r="S114" s="29"/>
       <c r="T114" s="7"/>
       <c r="U114" s="7"/>
-      <c r="V114" s="28"/>
-      <c r="W114" s="28"/>
-      <c r="X114" s="28"/>
-      <c r="Y114" s="28"/>
-      <c r="Z114" s="28"/>
-      <c r="AA114" s="28"/>
-      <c r="AB114" s="28"/>
-      <c r="AC114" s="28"/>
-      <c r="AD114" s="28"/>
+      <c r="V114" s="29"/>
+      <c r="W114" s="29"/>
+      <c r="X114" s="29"/>
+      <c r="Y114" s="29"/>
+      <c r="Z114" s="29"/>
+      <c r="AA114" s="29"/>
+      <c r="AB114" s="29"/>
+      <c r="AC114" s="29"/>
+      <c r="AD114" s="29"/>
     </row>
     <row r="115" spans="1:30">
       <c r="A115" s="5">
@@ -7126,18 +6801,18 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="28"/>
+      <c r="S115" s="29"/>
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
-      <c r="V115" s="28"/>
-      <c r="W115" s="28"/>
-      <c r="X115" s="28"/>
-      <c r="Y115" s="28"/>
-      <c r="Z115" s="28"/>
-      <c r="AA115" s="28"/>
-      <c r="AB115" s="28"/>
-      <c r="AC115" s="28"/>
-      <c r="AD115" s="28"/>
+      <c r="V115" s="29"/>
+      <c r="W115" s="29"/>
+      <c r="X115" s="29"/>
+      <c r="Y115" s="29"/>
+      <c r="Z115" s="29"/>
+      <c r="AA115" s="29"/>
+      <c r="AB115" s="29"/>
+      <c r="AC115" s="29"/>
+      <c r="AD115" s="29"/>
     </row>
     <row r="116" spans="1:30">
       <c r="A116" s="5">
@@ -7160,18 +6835,18 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="28"/>
+      <c r="S116" s="29"/>
       <c r="T116" s="7"/>
       <c r="U116" s="7"/>
-      <c r="V116" s="28"/>
-      <c r="W116" s="28"/>
-      <c r="X116" s="28"/>
-      <c r="Y116" s="28"/>
-      <c r="Z116" s="28"/>
-      <c r="AA116" s="28"/>
-      <c r="AB116" s="28"/>
-      <c r="AC116" s="28"/>
-      <c r="AD116" s="28"/>
+      <c r="V116" s="29"/>
+      <c r="W116" s="29"/>
+      <c r="X116" s="29"/>
+      <c r="Y116" s="29"/>
+      <c r="Z116" s="29"/>
+      <c r="AA116" s="29"/>
+      <c r="AB116" s="29"/>
+      <c r="AC116" s="29"/>
+      <c r="AD116" s="29"/>
     </row>
     <row r="117" spans="1:30">
       <c r="A117" s="5">
@@ -7194,18 +6869,18 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="28"/>
+      <c r="S117" s="29"/>
       <c r="T117" s="7"/>
       <c r="U117" s="7"/>
-      <c r="V117" s="28"/>
-      <c r="W117" s="28"/>
-      <c r="X117" s="28"/>
-      <c r="Y117" s="28"/>
-      <c r="Z117" s="28"/>
-      <c r="AA117" s="28"/>
-      <c r="AB117" s="28"/>
-      <c r="AC117" s="28"/>
-      <c r="AD117" s="28"/>
+      <c r="V117" s="29"/>
+      <c r="W117" s="29"/>
+      <c r="X117" s="29"/>
+      <c r="Y117" s="29"/>
+      <c r="Z117" s="29"/>
+      <c r="AA117" s="29"/>
+      <c r="AB117" s="29"/>
+      <c r="AC117" s="29"/>
+      <c r="AD117" s="29"/>
     </row>
     <row r="118" spans="1:30">
       <c r="A118" s="5">
@@ -7228,18 +6903,18 @@
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="28"/>
+      <c r="S118" s="29"/>
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
-      <c r="V118" s="28"/>
-      <c r="W118" s="28"/>
-      <c r="X118" s="28"/>
-      <c r="Y118" s="28"/>
-      <c r="Z118" s="28"/>
-      <c r="AA118" s="28"/>
-      <c r="AB118" s="28"/>
-      <c r="AC118" s="28"/>
-      <c r="AD118" s="28"/>
+      <c r="V118" s="29"/>
+      <c r="W118" s="29"/>
+      <c r="X118" s="29"/>
+      <c r="Y118" s="29"/>
+      <c r="Z118" s="29"/>
+      <c r="AA118" s="29"/>
+      <c r="AB118" s="29"/>
+      <c r="AC118" s="29"/>
+      <c r="AD118" s="29"/>
     </row>
     <row r="119" spans="1:30">
       <c r="A119" s="5">
@@ -7262,18 +6937,18 @@
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="28"/>
+      <c r="S119" s="29"/>
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
-      <c r="V119" s="28"/>
-      <c r="W119" s="28"/>
-      <c r="X119" s="28"/>
-      <c r="Y119" s="28"/>
-      <c r="Z119" s="28"/>
-      <c r="AA119" s="28"/>
-      <c r="AB119" s="28"/>
-      <c r="AC119" s="28"/>
-      <c r="AD119" s="28"/>
+      <c r="V119" s="29"/>
+      <c r="W119" s="29"/>
+      <c r="X119" s="29"/>
+      <c r="Y119" s="29"/>
+      <c r="Z119" s="29"/>
+      <c r="AA119" s="29"/>
+      <c r="AB119" s="29"/>
+      <c r="AC119" s="29"/>
+      <c r="AD119" s="29"/>
     </row>
     <row r="120" spans="1:30">
       <c r="A120" s="5">
@@ -7296,18 +6971,18 @@
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="28"/>
+      <c r="S120" s="29"/>
       <c r="T120" s="7"/>
       <c r="U120" s="7"/>
-      <c r="V120" s="28"/>
-      <c r="W120" s="28"/>
-      <c r="X120" s="28"/>
-      <c r="Y120" s="28"/>
-      <c r="Z120" s="28"/>
-      <c r="AA120" s="28"/>
-      <c r="AB120" s="28"/>
-      <c r="AC120" s="28"/>
-      <c r="AD120" s="28"/>
+      <c r="V120" s="29"/>
+      <c r="W120" s="29"/>
+      <c r="X120" s="29"/>
+      <c r="Y120" s="29"/>
+      <c r="Z120" s="29"/>
+      <c r="AA120" s="29"/>
+      <c r="AB120" s="29"/>
+      <c r="AC120" s="29"/>
+      <c r="AD120" s="29"/>
     </row>
     <row r="121" spans="1:30">
       <c r="A121" s="5">
@@ -7330,18 +7005,18 @@
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="28"/>
+      <c r="S121" s="29"/>
       <c r="T121" s="7"/>
       <c r="U121" s="7"/>
-      <c r="V121" s="28"/>
-      <c r="W121" s="28"/>
-      <c r="X121" s="28"/>
-      <c r="Y121" s="28"/>
-      <c r="Z121" s="28"/>
-      <c r="AA121" s="28"/>
-      <c r="AB121" s="28"/>
-      <c r="AC121" s="28"/>
-      <c r="AD121" s="28"/>
+      <c r="V121" s="29"/>
+      <c r="W121" s="29"/>
+      <c r="X121" s="29"/>
+      <c r="Y121" s="29"/>
+      <c r="Z121" s="29"/>
+      <c r="AA121" s="29"/>
+      <c r="AB121" s="29"/>
+      <c r="AC121" s="29"/>
+      <c r="AD121" s="29"/>
     </row>
     <row r="122" spans="1:30">
       <c r="A122" s="5">
@@ -7364,18 +7039,18 @@
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="28"/>
+      <c r="S122" s="29"/>
       <c r="T122" s="7"/>
       <c r="U122" s="7"/>
-      <c r="V122" s="28"/>
-      <c r="W122" s="28"/>
-      <c r="X122" s="28"/>
-      <c r="Y122" s="28"/>
-      <c r="Z122" s="28"/>
-      <c r="AA122" s="28"/>
-      <c r="AB122" s="28"/>
-      <c r="AC122" s="28"/>
-      <c r="AD122" s="28"/>
+      <c r="V122" s="29"/>
+      <c r="W122" s="29"/>
+      <c r="X122" s="29"/>
+      <c r="Y122" s="29"/>
+      <c r="Z122" s="29"/>
+      <c r="AA122" s="29"/>
+      <c r="AB122" s="29"/>
+      <c r="AC122" s="29"/>
+      <c r="AD122" s="29"/>
     </row>
     <row r="123" spans="1:30">
       <c r="A123" s="5">
@@ -7398,18 +7073,18 @@
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="28"/>
+      <c r="S123" s="29"/>
       <c r="T123" s="7"/>
       <c r="U123" s="7"/>
-      <c r="V123" s="28"/>
-      <c r="W123" s="28"/>
-      <c r="X123" s="28"/>
-      <c r="Y123" s="28"/>
-      <c r="Z123" s="28"/>
-      <c r="AA123" s="28"/>
-      <c r="AB123" s="28"/>
-      <c r="AC123" s="28"/>
-      <c r="AD123" s="28"/>
+      <c r="V123" s="29"/>
+      <c r="W123" s="29"/>
+      <c r="X123" s="29"/>
+      <c r="Y123" s="29"/>
+      <c r="Z123" s="29"/>
+      <c r="AA123" s="29"/>
+      <c r="AB123" s="29"/>
+      <c r="AC123" s="29"/>
+      <c r="AD123" s="29"/>
     </row>
     <row r="124" spans="1:30">
       <c r="A124" s="5">
@@ -7432,18 +7107,18 @@
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="28"/>
+      <c r="S124" s="29"/>
       <c r="T124" s="7"/>
       <c r="U124" s="7"/>
-      <c r="V124" s="28"/>
-      <c r="W124" s="28"/>
-      <c r="X124" s="28"/>
-      <c r="Y124" s="28"/>
-      <c r="Z124" s="28"/>
-      <c r="AA124" s="28"/>
-      <c r="AB124" s="28"/>
-      <c r="AC124" s="28"/>
-      <c r="AD124" s="28"/>
+      <c r="V124" s="29"/>
+      <c r="W124" s="29"/>
+      <c r="X124" s="29"/>
+      <c r="Y124" s="29"/>
+      <c r="Z124" s="29"/>
+      <c r="AA124" s="29"/>
+      <c r="AB124" s="29"/>
+      <c r="AC124" s="29"/>
+      <c r="AD124" s="29"/>
     </row>
     <row r="125" spans="1:30">
       <c r="A125" s="5">
@@ -7466,18 +7141,18 @@
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="28"/>
+      <c r="S125" s="29"/>
       <c r="T125" s="7"/>
       <c r="U125" s="7"/>
-      <c r="V125" s="28"/>
-      <c r="W125" s="28"/>
-      <c r="X125" s="28"/>
-      <c r="Y125" s="28"/>
-      <c r="Z125" s="28"/>
-      <c r="AA125" s="28"/>
-      <c r="AB125" s="28"/>
-      <c r="AC125" s="28"/>
-      <c r="AD125" s="28"/>
+      <c r="V125" s="29"/>
+      <c r="W125" s="29"/>
+      <c r="X125" s="29"/>
+      <c r="Y125" s="29"/>
+      <c r="Z125" s="29"/>
+      <c r="AA125" s="29"/>
+      <c r="AB125" s="29"/>
+      <c r="AC125" s="29"/>
+      <c r="AD125" s="29"/>
     </row>
     <row r="126" spans="1:30">
       <c r="A126" s="5">
@@ -7500,18 +7175,18 @@
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="28"/>
+      <c r="S126" s="29"/>
       <c r="T126" s="7"/>
       <c r="U126" s="7"/>
-      <c r="V126" s="28"/>
-      <c r="W126" s="28"/>
-      <c r="X126" s="28"/>
-      <c r="Y126" s="28"/>
-      <c r="Z126" s="28"/>
-      <c r="AA126" s="28"/>
-      <c r="AB126" s="28"/>
-      <c r="AC126" s="28"/>
-      <c r="AD126" s="28"/>
+      <c r="V126" s="29"/>
+      <c r="W126" s="29"/>
+      <c r="X126" s="29"/>
+      <c r="Y126" s="29"/>
+      <c r="Z126" s="29"/>
+      <c r="AA126" s="29"/>
+      <c r="AB126" s="29"/>
+      <c r="AC126" s="29"/>
+      <c r="AD126" s="29"/>
     </row>
     <row r="127" spans="1:30">
       <c r="A127" s="5">
@@ -7534,18 +7209,18 @@
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="28"/>
+      <c r="S127" s="29"/>
       <c r="T127" s="7"/>
       <c r="U127" s="7"/>
-      <c r="V127" s="28"/>
-      <c r="W127" s="28"/>
-      <c r="X127" s="28"/>
-      <c r="Y127" s="28"/>
-      <c r="Z127" s="28"/>
-      <c r="AA127" s="28"/>
-      <c r="AB127" s="28"/>
-      <c r="AC127" s="28"/>
-      <c r="AD127" s="28"/>
+      <c r="V127" s="29"/>
+      <c r="W127" s="29"/>
+      <c r="X127" s="29"/>
+      <c r="Y127" s="29"/>
+      <c r="Z127" s="29"/>
+      <c r="AA127" s="29"/>
+      <c r="AB127" s="29"/>
+      <c r="AC127" s="29"/>
+      <c r="AD127" s="29"/>
     </row>
     <row r="128" spans="1:30">
       <c r="A128" s="5">
@@ -7568,18 +7243,18 @@
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="28"/>
+      <c r="S128" s="29"/>
       <c r="T128" s="7"/>
       <c r="U128" s="7"/>
-      <c r="V128" s="28"/>
-      <c r="W128" s="28"/>
-      <c r="X128" s="28"/>
-      <c r="Y128" s="28"/>
-      <c r="Z128" s="28"/>
-      <c r="AA128" s="28"/>
-      <c r="AB128" s="28"/>
-      <c r="AC128" s="28"/>
-      <c r="AD128" s="28"/>
+      <c r="V128" s="29"/>
+      <c r="W128" s="29"/>
+      <c r="X128" s="29"/>
+      <c r="Y128" s="29"/>
+      <c r="Z128" s="29"/>
+      <c r="AA128" s="29"/>
+      <c r="AB128" s="29"/>
+      <c r="AC128" s="29"/>
+      <c r="AD128" s="29"/>
     </row>
     <row r="129" spans="1:30">
       <c r="A129" s="5">
@@ -7602,18 +7277,18 @@
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="28"/>
+      <c r="S129" s="29"/>
       <c r="T129" s="7"/>
       <c r="U129" s="7"/>
-      <c r="V129" s="28"/>
-      <c r="W129" s="28"/>
-      <c r="X129" s="28"/>
-      <c r="Y129" s="28"/>
-      <c r="Z129" s="28"/>
-      <c r="AA129" s="28"/>
-      <c r="AB129" s="28"/>
-      <c r="AC129" s="28"/>
-      <c r="AD129" s="28"/>
+      <c r="V129" s="29"/>
+      <c r="W129" s="29"/>
+      <c r="X129" s="29"/>
+      <c r="Y129" s="29"/>
+      <c r="Z129" s="29"/>
+      <c r="AA129" s="29"/>
+      <c r="AB129" s="29"/>
+      <c r="AC129" s="29"/>
+      <c r="AD129" s="29"/>
     </row>
     <row r="130" spans="1:30">
       <c r="A130" s="5">
@@ -7636,18 +7311,18 @@
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="28"/>
+      <c r="S130" s="29"/>
       <c r="T130" s="7"/>
       <c r="U130" s="7"/>
-      <c r="V130" s="28"/>
-      <c r="W130" s="28"/>
-      <c r="X130" s="28"/>
-      <c r="Y130" s="28"/>
-      <c r="Z130" s="28"/>
-      <c r="AA130" s="28"/>
-      <c r="AB130" s="28"/>
-      <c r="AC130" s="28"/>
-      <c r="AD130" s="28"/>
+      <c r="V130" s="29"/>
+      <c r="W130" s="29"/>
+      <c r="X130" s="29"/>
+      <c r="Y130" s="29"/>
+      <c r="Z130" s="29"/>
+      <c r="AA130" s="29"/>
+      <c r="AB130" s="29"/>
+      <c r="AC130" s="29"/>
+      <c r="AD130" s="29"/>
     </row>
     <row r="131" spans="1:30">
       <c r="A131" s="5">
@@ -7670,18 +7345,18 @@
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="28"/>
+      <c r="S131" s="29"/>
       <c r="T131" s="7"/>
       <c r="U131" s="7"/>
-      <c r="V131" s="28"/>
-      <c r="W131" s="28"/>
-      <c r="X131" s="28"/>
-      <c r="Y131" s="28"/>
-      <c r="Z131" s="28"/>
-      <c r="AA131" s="28"/>
-      <c r="AB131" s="28"/>
-      <c r="AC131" s="28"/>
-      <c r="AD131" s="28"/>
+      <c r="V131" s="29"/>
+      <c r="W131" s="29"/>
+      <c r="X131" s="29"/>
+      <c r="Y131" s="29"/>
+      <c r="Z131" s="29"/>
+      <c r="AA131" s="29"/>
+      <c r="AB131" s="29"/>
+      <c r="AC131" s="29"/>
+      <c r="AD131" s="29"/>
     </row>
     <row r="132" spans="1:21">
       <c r="A132" s="5">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -224,12 +224,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -283,21 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -307,7 +292,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,13 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -336,18 +329,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,15 +362,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,6 +392,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,13 +520,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,31 +556,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,67 +610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +634,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,19 +658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +670,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,22 +756,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,7 +765,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,6 +812,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -845,142 +845,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1240,8 +1240,12 @@
           <cell r="V4">
             <v>24.52</v>
           </cell>
-        </row>
-        <row r="4">
+          <cell r="W4" t="str">
+            <v>26.96</v>
+          </cell>
+          <cell r="X4" t="str">
+            <v>24.74</v>
+          </cell>
           <cell r="Y4" t="str">
             <v>24w</v>
           </cell>
@@ -1260,8 +1264,9 @@
           <cell r="AD4">
             <v>0.0641221374045801</v>
           </cell>
-        </row>
-        <row r="4">
+          <cell r="AE4">
+            <v>0.0823442136498517</v>
+          </cell>
           <cell r="AF4" t="str">
             <v>5T</v>
           </cell>
@@ -1578,6 +1583,12 @@
           <cell r="R7">
             <v>30.89</v>
           </cell>
+          <cell r="S7">
+            <v>34.66</v>
+          </cell>
+          <cell r="T7">
+            <v>32.59</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="Y7" t="str">
@@ -1592,8 +1603,8 @@
           <cell r="AB7">
             <v>0.124184859654097</v>
           </cell>
-          <cell r="AC7" t="e">
-            <v>#DIV/0!</v>
+          <cell r="AC7">
+            <v>0.0597230236583957</v>
           </cell>
           <cell r="AD7" t="e">
             <v>#DIV/0!</v>
@@ -2674,7 +2685,7 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -224,12 +224,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -276,6 +276,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -292,14 +331,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,26 +362,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,9 +384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,52 +400,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,6 +514,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -526,7 +556,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,31 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,13 +598,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,97 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,6 +752,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -761,11 +800,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,21 +830,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -810,180 +840,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1006,10 +1006,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1066,7 +1066,7 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,10 +1087,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2685,11 +2685,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD6" sqref="AD6:AD7"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2956,8 +2956,8 @@
         <v>37</v>
       </c>
       <c r="K5" s="13">
-        <f>(D5-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE)</f>
-        <v>0.033717219370057</v>
+        <f>(B5-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE)</f>
+        <v>-0.0113778271125294</v>
       </c>
       <c r="L5" s="14">
         <f>I5/(ROW()-4)</f>
@@ -3032,8 +3032,8 @@
         <v>0.0588070175438596</v>
       </c>
       <c r="K6" s="13">
-        <f>(D6-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
-        <v>0.0820036076037188</v>
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
+        <v>0.0467600943527127</v>
       </c>
       <c r="L6" s="14">
         <f>I6/(ROW()-4)</f>
@@ -3109,8 +3109,8 @@
         <v>0.0168345705196182</v>
       </c>
       <c r="K7" s="13">
-        <f>(D7-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
-        <v>0.0790897738309977</v>
+        <f>(B7-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
+        <v>0.0643818509782156</v>
       </c>
       <c r="L7" s="14">
         <f>I7/(ROW()-4)</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -224,12 +224,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -276,9 +276,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,14 +298,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -307,16 +305,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,11 +343,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,23 +359,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,14 +376,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,7 +514,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +532,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,49 +616,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,103 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,17 +752,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,6 +776,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -793,8 +802,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -829,161 +840,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1006,10 +1006,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1066,7 +1066,7 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,10 +1087,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1365,6 +1365,32 @@
           </cell>
           <cell r="BL4">
             <v>24.74</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="BE5">
+            <v>44531</v>
+          </cell>
+          <cell r="BF5">
+            <v>27.7</v>
+          </cell>
+          <cell r="BG5">
+            <v>100</v>
+          </cell>
+          <cell r="BH5">
+            <v>5</v>
+          </cell>
+          <cell r="BI5">
+            <v>2.77</v>
+          </cell>
+          <cell r="BJ5">
+            <v>2762.23</v>
+          </cell>
+          <cell r="BK5">
+            <v>28.7</v>
+          </cell>
+          <cell r="BL5">
+            <v>27.5</v>
           </cell>
         </row>
         <row r="6">
@@ -2689,7 +2715,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="AD7" sqref="AD7:AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3157,23 +3183,63 @@
       <c r="A8" s="5">
         <v>44531</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="B8" s="6">
+        <v>73.5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>76.61</v>
+      </c>
+      <c r="D8" s="6">
+        <v>76.61</v>
+      </c>
+      <c r="E8" s="6">
+        <v>73.41</v>
+      </c>
+      <c r="F8" s="6">
+        <v>70.56</v>
+      </c>
+      <c r="G8" s="6">
+        <v>69.24</v>
+      </c>
+      <c r="H8" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3</v>
+      </c>
+      <c r="J8" s="15">
+        <f>(B8-B7)/B7</f>
+        <v>-0.0418459131795072</v>
+      </c>
+      <c r="K8" s="13">
+        <f>(B8-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)</f>
+        <v>0.0198418204523381</v>
+      </c>
+      <c r="L8" s="14">
+        <f>I8/(ROW()-4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="7" t="str">
+        <f>IF(B8&lt;F8,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="7" t="str">
+        <f>IF(I8/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="R8" s="28" t="str">
+        <f>IF(B8&gt;=(D8-(D8-E8)/2),"上部","下部")</f>
+        <v>下部</v>
+      </c>
       <c r="S8" s="6"/>
       <c r="T8" s="27"/>
       <c r="U8" s="33"/>
@@ -3185,7 +3251,10 @@
       <c r="AA8" s="29"/>
       <c r="AB8" s="29"/>
       <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
+      <c r="AD8" s="29">
+        <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G8,AD7)</f>
+        <v>67.53</v>
+      </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="5">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -2711,11 +2711,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD7" sqref="AD7:AD8"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3236,7 +3236,7 @@
         <f>IF(I8/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="R8" s="28" t="str">
+      <c r="R8" s="18" t="str">
         <f>IF(B8&gt;=(D8-(D8-E8)/2),"上部","下部")</f>
         <v>下部</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -225,10 +225,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -270,21 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,31 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,17 +315,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,7 +348,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,17 +362,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,6 +371,43 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,7 +520,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,49 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,109 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,24 +743,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -791,11 +773,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,17 +814,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,152 +845,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1037,6 +1037,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2711,11 +2714,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2765,30 +2768,30 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="19" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="35" t="s">
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="36" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2805,28 +2808,28 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="22" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="34" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="2"/>
@@ -2863,56 +2866,56 @@
       <c r="L3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="22"/>
-      <c r="X3" s="30" t="s">
+      <c r="W3" s="23"/>
+      <c r="X3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Y3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="30" t="s">
+      <c r="Z3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="30" t="s">
+      <c r="AA3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" s="36" t="s">
+      <c r="AC3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="35"/>
+      <c r="AD3" s="36"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:30">
       <c r="A4" s="2"/>
@@ -2927,28 +2930,28 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="31" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="W4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="35"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="36"/>
     </row>
     <row r="5" ht="18" spans="1:30">
       <c r="A5" s="5">
@@ -2999,29 +3002,29 @@
         <f>IF(B5&lt;F5,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="19" t="s">
         <v>39</v>
       </c>
       <c r="Q5" s="7" t="str">
         <f>IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="R5" s="18" t="str">
+      <c r="R5" s="19" t="str">
         <f>IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
-      <c r="S5" s="25"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29">
+      <c r="S5" s="26"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30">
         <v>67.53</v>
       </c>
     </row>
@@ -3082,22 +3085,22 @@
         <f>IF(I6/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="R6" s="18" t="str">
+      <c r="R6" s="19" t="str">
         <f>IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
       <c r="S6" s="6"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29">
+      <c r="T6" s="28"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30">
         <f>IF(G6-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G6,AD5)</f>
         <v>67.53</v>
       </c>
@@ -3152,29 +3155,29 @@
         <f>IF(B7&lt;F7,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="19" t="s">
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="str">
         <f>IF(I7/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="R7" s="28" t="str">
+      <c r="R7" s="29" t="str">
         <f>IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
       <c r="S7" s="6"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29">
+      <c r="T7" s="28"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30">
         <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G7,AD6)</f>
         <v>67.53</v>
       </c>
@@ -3207,7 +3210,7 @@
       <c r="I8" s="7">
         <v>3</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="16">
         <f>(B8-B7)/B7</f>
         <v>-0.0418459131795072</v>
       </c>
@@ -3236,22 +3239,22 @@
         <f>IF(I8/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="R8" s="18" t="str">
+      <c r="R8" s="19" t="str">
         <f>IF(B8&gt;=(D8-(D8-E8)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
       <c r="S8" s="6"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29">
+      <c r="T8" s="28"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30">
         <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G8,AD7)</f>
         <v>67.53</v>
       </c>
@@ -3280,15 +3283,15 @@
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="5">
@@ -3314,15 +3317,15 @@
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="5">
@@ -3348,15 +3351,15 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="5">
@@ -3382,15 +3385,15 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="5">
@@ -3416,15 +3419,15 @@
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="5">
@@ -3450,15 +3453,15 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="5">
@@ -3484,15 +3487,15 @@
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="5">
@@ -3518,15 +3521,15 @@
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="5">
@@ -3552,15 +3555,15 @@
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="5">
@@ -3586,15 +3589,15 @@
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="5">
@@ -3620,15 +3623,15 @@
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="5">
@@ -3654,15 +3657,15 @@
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="5">
@@ -3688,15 +3691,15 @@
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="5">
@@ -3722,15 +3725,15 @@
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="5">
@@ -3756,15 +3759,15 @@
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="5">
@@ -3790,15 +3793,15 @@
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="5">
@@ -3824,15 +3827,15 @@
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="5">
@@ -3858,15 +3861,15 @@
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="5">
@@ -3889,18 +3892,18 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="29"/>
+      <c r="S27" s="30"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="5">
@@ -3923,18 +3926,18 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="29"/>
+      <c r="S28" s="30"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="5">
@@ -3957,18 +3960,18 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="29"/>
+      <c r="S29" s="30"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="5">
@@ -3991,18 +3994,18 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="29"/>
+      <c r="S30" s="30"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="5">
@@ -4025,18 +4028,18 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="29"/>
+      <c r="S31" s="30"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="5">
@@ -4059,18 +4062,18 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="29"/>
+      <c r="S32" s="30"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="5">
@@ -4093,18 +4096,18 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="29"/>
+      <c r="S33" s="30"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="5">
@@ -4127,18 +4130,18 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="29"/>
+      <c r="S34" s="30"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="5">
@@ -4161,18 +4164,18 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="29"/>
+      <c r="S35" s="30"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="5">
@@ -4195,18 +4198,18 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="29"/>
+      <c r="S36" s="30"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="5">
@@ -4229,18 +4232,18 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="29"/>
+      <c r="S37" s="30"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="5">
@@ -4263,18 +4266,18 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="29"/>
+      <c r="S38" s="30"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="5">
@@ -4297,18 +4300,18 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="29"/>
+      <c r="S39" s="30"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="30"/>
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="5">
@@ -4331,18 +4334,18 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="29"/>
+      <c r="S40" s="30"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="29"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="5">
@@ -4365,18 +4368,18 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="29"/>
+      <c r="S41" s="30"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="5">
@@ -4399,18 +4402,18 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="29"/>
+      <c r="S42" s="30"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="5">
@@ -4433,18 +4436,18 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="29"/>
+      <c r="S43" s="30"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="30"/>
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="5">
@@ -4467,18 +4470,18 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="29"/>
+      <c r="S44" s="30"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="5">
@@ -4501,18 +4504,18 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="29"/>
+      <c r="S45" s="30"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="5">
@@ -4535,18 +4538,18 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="29"/>
+      <c r="S46" s="30"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="30"/>
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="5">
@@ -4569,18 +4572,18 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="29"/>
+      <c r="S47" s="30"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30"/>
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="5">
@@ -4603,18 +4606,18 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="29"/>
+      <c r="S48" s="30"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="29"/>
-      <c r="AB48" s="29"/>
-      <c r="AC48" s="29"/>
-      <c r="AD48" s="29"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
+      <c r="AD48" s="30"/>
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="5">
@@ -4637,18 +4640,18 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="29"/>
+      <c r="S49" s="30"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="29"/>
-      <c r="Z49" s="29"/>
-      <c r="AA49" s="29"/>
-      <c r="AB49" s="29"/>
-      <c r="AC49" s="29"/>
-      <c r="AD49" s="29"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="30"/>
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30"/>
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="5">
@@ -4671,18 +4674,18 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
-      <c r="S50" s="29"/>
+      <c r="S50" s="30"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="30"/>
+      <c r="AA50" s="30"/>
+      <c r="AB50" s="30"/>
+      <c r="AC50" s="30"/>
+      <c r="AD50" s="30"/>
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="5">
@@ -4705,18 +4708,18 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="29"/>
+      <c r="S51" s="30"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="30"/>
+      <c r="AD51" s="30"/>
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="5">
@@ -4739,18 +4742,18 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="29"/>
+      <c r="S52" s="30"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="29"/>
-      <c r="AB52" s="29"/>
-      <c r="AC52" s="29"/>
-      <c r="AD52" s="29"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="30"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="30"/>
+      <c r="AD52" s="30"/>
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="5">
@@ -4773,18 +4776,18 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="29"/>
+      <c r="S53" s="30"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="29"/>
-      <c r="AB53" s="29"/>
-      <c r="AC53" s="29"/>
-      <c r="AD53" s="29"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="30"/>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="30"/>
+      <c r="AD53" s="30"/>
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="5">
@@ -4807,18 +4810,18 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="29"/>
+      <c r="S54" s="30"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="29"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="29"/>
-      <c r="Z54" s="29"/>
-      <c r="AA54" s="29"/>
-      <c r="AB54" s="29"/>
-      <c r="AC54" s="29"/>
-      <c r="AD54" s="29"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30"/>
+      <c r="AB54" s="30"/>
+      <c r="AC54" s="30"/>
+      <c r="AD54" s="30"/>
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="5">
@@ -4841,18 +4844,18 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="29"/>
+      <c r="S55" s="30"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="29"/>
-      <c r="Z55" s="29"/>
-      <c r="AA55" s="29"/>
-      <c r="AB55" s="29"/>
-      <c r="AC55" s="29"/>
-      <c r="AD55" s="29"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="30"/>
+      <c r="AA55" s="30"/>
+      <c r="AB55" s="30"/>
+      <c r="AC55" s="30"/>
+      <c r="AD55" s="30"/>
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="5">
@@ -4875,18 +4878,18 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="29"/>
+      <c r="S56" s="30"/>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="29"/>
-      <c r="Z56" s="29"/>
-      <c r="AA56" s="29"/>
-      <c r="AB56" s="29"/>
-      <c r="AC56" s="29"/>
-      <c r="AD56" s="29"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="30"/>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="30"/>
+      <c r="AD56" s="30"/>
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="5">
@@ -4909,18 +4912,18 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="29"/>
+      <c r="S57" s="30"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="29"/>
-      <c r="AA57" s="29"/>
-      <c r="AB57" s="29"/>
-      <c r="AC57" s="29"/>
-      <c r="AD57" s="29"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="30"/>
+      <c r="AD57" s="30"/>
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="5">
@@ -4943,18 +4946,18 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="29"/>
+      <c r="S58" s="30"/>
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="29"/>
-      <c r="AA58" s="29"/>
-      <c r="AB58" s="29"/>
-      <c r="AC58" s="29"/>
-      <c r="AD58" s="29"/>
+      <c r="V58" s="30"/>
+      <c r="W58" s="30"/>
+      <c r="X58" s="30"/>
+      <c r="Y58" s="30"/>
+      <c r="Z58" s="30"/>
+      <c r="AA58" s="30"/>
+      <c r="AB58" s="30"/>
+      <c r="AC58" s="30"/>
+      <c r="AD58" s="30"/>
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="5">
@@ -4977,18 +4980,18 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="29"/>
+      <c r="S59" s="30"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="29"/>
-      <c r="AA59" s="29"/>
-      <c r="AB59" s="29"/>
-      <c r="AC59" s="29"/>
-      <c r="AD59" s="29"/>
+      <c r="V59" s="30"/>
+      <c r="W59" s="30"/>
+      <c r="X59" s="30"/>
+      <c r="Y59" s="30"/>
+      <c r="Z59" s="30"/>
+      <c r="AA59" s="30"/>
+      <c r="AB59" s="30"/>
+      <c r="AC59" s="30"/>
+      <c r="AD59" s="30"/>
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="5">
@@ -5011,18 +5014,18 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="29"/>
+      <c r="S60" s="30"/>
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="29"/>
-      <c r="X60" s="29"/>
-      <c r="Y60" s="29"/>
-      <c r="Z60" s="29"/>
-      <c r="AA60" s="29"/>
-      <c r="AB60" s="29"/>
-      <c r="AC60" s="29"/>
-      <c r="AD60" s="29"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
+      <c r="X60" s="30"/>
+      <c r="Y60" s="30"/>
+      <c r="Z60" s="30"/>
+      <c r="AA60" s="30"/>
+      <c r="AB60" s="30"/>
+      <c r="AC60" s="30"/>
+      <c r="AD60" s="30"/>
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="5">
@@ -5045,18 +5048,18 @@
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="29"/>
+      <c r="S61" s="30"/>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="29"/>
-      <c r="X61" s="29"/>
-      <c r="Y61" s="29"/>
-      <c r="Z61" s="29"/>
-      <c r="AA61" s="29"/>
-      <c r="AB61" s="29"/>
-      <c r="AC61" s="29"/>
-      <c r="AD61" s="29"/>
+      <c r="V61" s="30"/>
+      <c r="W61" s="30"/>
+      <c r="X61" s="30"/>
+      <c r="Y61" s="30"/>
+      <c r="Z61" s="30"/>
+      <c r="AA61" s="30"/>
+      <c r="AB61" s="30"/>
+      <c r="AC61" s="30"/>
+      <c r="AD61" s="30"/>
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="5">
@@ -5079,18 +5082,18 @@
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="29"/>
+      <c r="S62" s="30"/>
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
-      <c r="V62" s="29"/>
-      <c r="W62" s="29"/>
-      <c r="X62" s="29"/>
-      <c r="Y62" s="29"/>
-      <c r="Z62" s="29"/>
-      <c r="AA62" s="29"/>
-      <c r="AB62" s="29"/>
-      <c r="AC62" s="29"/>
-      <c r="AD62" s="29"/>
+      <c r="V62" s="30"/>
+      <c r="W62" s="30"/>
+      <c r="X62" s="30"/>
+      <c r="Y62" s="30"/>
+      <c r="Z62" s="30"/>
+      <c r="AA62" s="30"/>
+      <c r="AB62" s="30"/>
+      <c r="AC62" s="30"/>
+      <c r="AD62" s="30"/>
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="5">
@@ -5113,18 +5116,18 @@
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="29"/>
+      <c r="S63" s="30"/>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="29"/>
-      <c r="X63" s="29"/>
-      <c r="Y63" s="29"/>
-      <c r="Z63" s="29"/>
-      <c r="AA63" s="29"/>
-      <c r="AB63" s="29"/>
-      <c r="AC63" s="29"/>
-      <c r="AD63" s="29"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30"/>
+      <c r="AA63" s="30"/>
+      <c r="AB63" s="30"/>
+      <c r="AC63" s="30"/>
+      <c r="AD63" s="30"/>
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="5">
@@ -5147,18 +5150,18 @@
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="29"/>
+      <c r="S64" s="30"/>
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
-      <c r="V64" s="29"/>
-      <c r="W64" s="29"/>
-      <c r="X64" s="29"/>
-      <c r="Y64" s="29"/>
-      <c r="Z64" s="29"/>
-      <c r="AA64" s="29"/>
-      <c r="AB64" s="29"/>
-      <c r="AC64" s="29"/>
-      <c r="AD64" s="29"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30"/>
+      <c r="Y64" s="30"/>
+      <c r="Z64" s="30"/>
+      <c r="AA64" s="30"/>
+      <c r="AB64" s="30"/>
+      <c r="AC64" s="30"/>
+      <c r="AD64" s="30"/>
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="5">
@@ -5181,18 +5184,18 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="29"/>
+      <c r="S65" s="30"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
-      <c r="V65" s="29"/>
-      <c r="W65" s="29"/>
-      <c r="X65" s="29"/>
-      <c r="Y65" s="29"/>
-      <c r="Z65" s="29"/>
-      <c r="AA65" s="29"/>
-      <c r="AB65" s="29"/>
-      <c r="AC65" s="29"/>
-      <c r="AD65" s="29"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="30"/>
+      <c r="AA65" s="30"/>
+      <c r="AB65" s="30"/>
+      <c r="AC65" s="30"/>
+      <c r="AD65" s="30"/>
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="5">
@@ -5215,18 +5218,18 @@
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="29"/>
+      <c r="S66" s="30"/>
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="29"/>
-      <c r="X66" s="29"/>
-      <c r="Y66" s="29"/>
-      <c r="Z66" s="29"/>
-      <c r="AA66" s="29"/>
-      <c r="AB66" s="29"/>
-      <c r="AC66" s="29"/>
-      <c r="AD66" s="29"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="30"/>
+      <c r="AA66" s="30"/>
+      <c r="AB66" s="30"/>
+      <c r="AC66" s="30"/>
+      <c r="AD66" s="30"/>
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="5">
@@ -5249,18 +5252,18 @@
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="29"/>
+      <c r="S67" s="30"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="29"/>
-      <c r="X67" s="29"/>
-      <c r="Y67" s="29"/>
-      <c r="Z67" s="29"/>
-      <c r="AA67" s="29"/>
-      <c r="AB67" s="29"/>
-      <c r="AC67" s="29"/>
-      <c r="AD67" s="29"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="30"/>
+      <c r="X67" s="30"/>
+      <c r="Y67" s="30"/>
+      <c r="Z67" s="30"/>
+      <c r="AA67" s="30"/>
+      <c r="AB67" s="30"/>
+      <c r="AC67" s="30"/>
+      <c r="AD67" s="30"/>
     </row>
     <row r="68" spans="1:30">
       <c r="A68" s="5">
@@ -5283,18 +5286,18 @@
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="29"/>
+      <c r="S68" s="30"/>
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="29"/>
-      <c r="X68" s="29"/>
-      <c r="Y68" s="29"/>
-      <c r="Z68" s="29"/>
-      <c r="AA68" s="29"/>
-      <c r="AB68" s="29"/>
-      <c r="AC68" s="29"/>
-      <c r="AD68" s="29"/>
+      <c r="V68" s="30"/>
+      <c r="W68" s="30"/>
+      <c r="X68" s="30"/>
+      <c r="Y68" s="30"/>
+      <c r="Z68" s="30"/>
+      <c r="AA68" s="30"/>
+      <c r="AB68" s="30"/>
+      <c r="AC68" s="30"/>
+      <c r="AD68" s="30"/>
     </row>
     <row r="69" spans="1:30">
       <c r="A69" s="5">
@@ -5317,18 +5320,18 @@
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="29"/>
+      <c r="S69" s="30"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="29"/>
-      <c r="X69" s="29"/>
-      <c r="Y69" s="29"/>
-      <c r="Z69" s="29"/>
-      <c r="AA69" s="29"/>
-      <c r="AB69" s="29"/>
-      <c r="AC69" s="29"/>
-      <c r="AD69" s="29"/>
+      <c r="V69" s="30"/>
+      <c r="W69" s="30"/>
+      <c r="X69" s="30"/>
+      <c r="Y69" s="30"/>
+      <c r="Z69" s="30"/>
+      <c r="AA69" s="30"/>
+      <c r="AB69" s="30"/>
+      <c r="AC69" s="30"/>
+      <c r="AD69" s="30"/>
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="5">
@@ -5351,18 +5354,18 @@
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="29"/>
+      <c r="S70" s="30"/>
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
-      <c r="V70" s="29"/>
-      <c r="W70" s="29"/>
-      <c r="X70" s="29"/>
-      <c r="Y70" s="29"/>
-      <c r="Z70" s="29"/>
-      <c r="AA70" s="29"/>
-      <c r="AB70" s="29"/>
-      <c r="AC70" s="29"/>
-      <c r="AD70" s="29"/>
+      <c r="V70" s="30"/>
+      <c r="W70" s="30"/>
+      <c r="X70" s="30"/>
+      <c r="Y70" s="30"/>
+      <c r="Z70" s="30"/>
+      <c r="AA70" s="30"/>
+      <c r="AB70" s="30"/>
+      <c r="AC70" s="30"/>
+      <c r="AD70" s="30"/>
     </row>
     <row r="71" spans="1:30">
       <c r="A71" s="5">
@@ -5385,18 +5388,18 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="29"/>
+      <c r="S71" s="30"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="29"/>
-      <c r="X71" s="29"/>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="29"/>
-      <c r="AA71" s="29"/>
-      <c r="AB71" s="29"/>
-      <c r="AC71" s="29"/>
-      <c r="AD71" s="29"/>
+      <c r="V71" s="30"/>
+      <c r="W71" s="30"/>
+      <c r="X71" s="30"/>
+      <c r="Y71" s="30"/>
+      <c r="Z71" s="30"/>
+      <c r="AA71" s="30"/>
+      <c r="AB71" s="30"/>
+      <c r="AC71" s="30"/>
+      <c r="AD71" s="30"/>
     </row>
     <row r="72" spans="1:30">
       <c r="A72" s="5">
@@ -5419,18 +5422,18 @@
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
-      <c r="S72" s="29"/>
+      <c r="S72" s="30"/>
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
-      <c r="V72" s="29"/>
-      <c r="W72" s="29"/>
-      <c r="X72" s="29"/>
-      <c r="Y72" s="29"/>
-      <c r="Z72" s="29"/>
-      <c r="AA72" s="29"/>
-      <c r="AB72" s="29"/>
-      <c r="AC72" s="29"/>
-      <c r="AD72" s="29"/>
+      <c r="V72" s="30"/>
+      <c r="W72" s="30"/>
+      <c r="X72" s="30"/>
+      <c r="Y72" s="30"/>
+      <c r="Z72" s="30"/>
+      <c r="AA72" s="30"/>
+      <c r="AB72" s="30"/>
+      <c r="AC72" s="30"/>
+      <c r="AD72" s="30"/>
     </row>
     <row r="73" spans="1:30">
       <c r="A73" s="5">
@@ -5453,18 +5456,18 @@
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="29"/>
+      <c r="S73" s="30"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
-      <c r="V73" s="29"/>
-      <c r="W73" s="29"/>
-      <c r="X73" s="29"/>
-      <c r="Y73" s="29"/>
-      <c r="Z73" s="29"/>
-      <c r="AA73" s="29"/>
-      <c r="AB73" s="29"/>
-      <c r="AC73" s="29"/>
-      <c r="AD73" s="29"/>
+      <c r="V73" s="30"/>
+      <c r="W73" s="30"/>
+      <c r="X73" s="30"/>
+      <c r="Y73" s="30"/>
+      <c r="Z73" s="30"/>
+      <c r="AA73" s="30"/>
+      <c r="AB73" s="30"/>
+      <c r="AC73" s="30"/>
+      <c r="AD73" s="30"/>
     </row>
     <row r="74" spans="1:30">
       <c r="A74" s="5">
@@ -5487,18 +5490,18 @@
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="29"/>
+      <c r="S74" s="30"/>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
-      <c r="V74" s="29"/>
-      <c r="W74" s="29"/>
-      <c r="X74" s="29"/>
-      <c r="Y74" s="29"/>
-      <c r="Z74" s="29"/>
-      <c r="AA74" s="29"/>
-      <c r="AB74" s="29"/>
-      <c r="AC74" s="29"/>
-      <c r="AD74" s="29"/>
+      <c r="V74" s="30"/>
+      <c r="W74" s="30"/>
+      <c r="X74" s="30"/>
+      <c r="Y74" s="30"/>
+      <c r="Z74" s="30"/>
+      <c r="AA74" s="30"/>
+      <c r="AB74" s="30"/>
+      <c r="AC74" s="30"/>
+      <c r="AD74" s="30"/>
     </row>
     <row r="75" spans="1:30">
       <c r="A75" s="5">
@@ -5521,18 +5524,18 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="29"/>
+      <c r="S75" s="30"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
-      <c r="V75" s="29"/>
-      <c r="W75" s="29"/>
-      <c r="X75" s="29"/>
-      <c r="Y75" s="29"/>
-      <c r="Z75" s="29"/>
-      <c r="AA75" s="29"/>
-      <c r="AB75" s="29"/>
-      <c r="AC75" s="29"/>
-      <c r="AD75" s="29"/>
+      <c r="V75" s="30"/>
+      <c r="W75" s="30"/>
+      <c r="X75" s="30"/>
+      <c r="Y75" s="30"/>
+      <c r="Z75" s="30"/>
+      <c r="AA75" s="30"/>
+      <c r="AB75" s="30"/>
+      <c r="AC75" s="30"/>
+      <c r="AD75" s="30"/>
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="5">
@@ -5555,18 +5558,18 @@
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="29"/>
+      <c r="S76" s="30"/>
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
-      <c r="V76" s="29"/>
-      <c r="W76" s="29"/>
-      <c r="X76" s="29"/>
-      <c r="Y76" s="29"/>
-      <c r="Z76" s="29"/>
-      <c r="AA76" s="29"/>
-      <c r="AB76" s="29"/>
-      <c r="AC76" s="29"/>
-      <c r="AD76" s="29"/>
+      <c r="V76" s="30"/>
+      <c r="W76" s="30"/>
+      <c r="X76" s="30"/>
+      <c r="Y76" s="30"/>
+      <c r="Z76" s="30"/>
+      <c r="AA76" s="30"/>
+      <c r="AB76" s="30"/>
+      <c r="AC76" s="30"/>
+      <c r="AD76" s="30"/>
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="5">
@@ -5589,18 +5592,18 @@
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="29"/>
+      <c r="S77" s="30"/>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
-      <c r="V77" s="29"/>
-      <c r="W77" s="29"/>
-      <c r="X77" s="29"/>
-      <c r="Y77" s="29"/>
-      <c r="Z77" s="29"/>
-      <c r="AA77" s="29"/>
-      <c r="AB77" s="29"/>
-      <c r="AC77" s="29"/>
-      <c r="AD77" s="29"/>
+      <c r="V77" s="30"/>
+      <c r="W77" s="30"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="30"/>
+      <c r="Z77" s="30"/>
+      <c r="AA77" s="30"/>
+      <c r="AB77" s="30"/>
+      <c r="AC77" s="30"/>
+      <c r="AD77" s="30"/>
     </row>
     <row r="78" spans="1:30">
       <c r="A78" s="5">
@@ -5623,18 +5626,18 @@
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="29"/>
+      <c r="S78" s="30"/>
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
-      <c r="V78" s="29"/>
-      <c r="W78" s="29"/>
-      <c r="X78" s="29"/>
-      <c r="Y78" s="29"/>
-      <c r="Z78" s="29"/>
-      <c r="AA78" s="29"/>
-      <c r="AB78" s="29"/>
-      <c r="AC78" s="29"/>
-      <c r="AD78" s="29"/>
+      <c r="V78" s="30"/>
+      <c r="W78" s="30"/>
+      <c r="X78" s="30"/>
+      <c r="Y78" s="30"/>
+      <c r="Z78" s="30"/>
+      <c r="AA78" s="30"/>
+      <c r="AB78" s="30"/>
+      <c r="AC78" s="30"/>
+      <c r="AD78" s="30"/>
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="5">
@@ -5657,18 +5660,18 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="29"/>
+      <c r="S79" s="30"/>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
-      <c r="V79" s="29"/>
-      <c r="W79" s="29"/>
-      <c r="X79" s="29"/>
-      <c r="Y79" s="29"/>
-      <c r="Z79" s="29"/>
-      <c r="AA79" s="29"/>
-      <c r="AB79" s="29"/>
-      <c r="AC79" s="29"/>
-      <c r="AD79" s="29"/>
+      <c r="V79" s="30"/>
+      <c r="W79" s="30"/>
+      <c r="X79" s="30"/>
+      <c r="Y79" s="30"/>
+      <c r="Z79" s="30"/>
+      <c r="AA79" s="30"/>
+      <c r="AB79" s="30"/>
+      <c r="AC79" s="30"/>
+      <c r="AD79" s="30"/>
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="5">
@@ -5691,18 +5694,18 @@
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="29"/>
+      <c r="S80" s="30"/>
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
-      <c r="V80" s="29"/>
-      <c r="W80" s="29"/>
-      <c r="X80" s="29"/>
-      <c r="Y80" s="29"/>
-      <c r="Z80" s="29"/>
-      <c r="AA80" s="29"/>
-      <c r="AB80" s="29"/>
-      <c r="AC80" s="29"/>
-      <c r="AD80" s="29"/>
+      <c r="V80" s="30"/>
+      <c r="W80" s="30"/>
+      <c r="X80" s="30"/>
+      <c r="Y80" s="30"/>
+      <c r="Z80" s="30"/>
+      <c r="AA80" s="30"/>
+      <c r="AB80" s="30"/>
+      <c r="AC80" s="30"/>
+      <c r="AD80" s="30"/>
     </row>
     <row r="81" spans="1:30">
       <c r="A81" s="5">
@@ -5725,18 +5728,18 @@
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="29"/>
+      <c r="S81" s="30"/>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
-      <c r="V81" s="29"/>
-      <c r="W81" s="29"/>
-      <c r="X81" s="29"/>
-      <c r="Y81" s="29"/>
-      <c r="Z81" s="29"/>
-      <c r="AA81" s="29"/>
-      <c r="AB81" s="29"/>
-      <c r="AC81" s="29"/>
-      <c r="AD81" s="29"/>
+      <c r="V81" s="30"/>
+      <c r="W81" s="30"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="30"/>
+      <c r="Z81" s="30"/>
+      <c r="AA81" s="30"/>
+      <c r="AB81" s="30"/>
+      <c r="AC81" s="30"/>
+      <c r="AD81" s="30"/>
     </row>
     <row r="82" spans="1:30">
       <c r="A82" s="5">
@@ -5759,18 +5762,18 @@
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="29"/>
+      <c r="S82" s="30"/>
       <c r="T82" s="7"/>
       <c r="U82" s="7"/>
-      <c r="V82" s="29"/>
-      <c r="W82" s="29"/>
-      <c r="X82" s="29"/>
-      <c r="Y82" s="29"/>
-      <c r="Z82" s="29"/>
-      <c r="AA82" s="29"/>
-      <c r="AB82" s="29"/>
-      <c r="AC82" s="29"/>
-      <c r="AD82" s="29"/>
+      <c r="V82" s="30"/>
+      <c r="W82" s="30"/>
+      <c r="X82" s="30"/>
+      <c r="Y82" s="30"/>
+      <c r="Z82" s="30"/>
+      <c r="AA82" s="30"/>
+      <c r="AB82" s="30"/>
+      <c r="AC82" s="30"/>
+      <c r="AD82" s="30"/>
     </row>
     <row r="83" spans="1:30">
       <c r="A83" s="5">
@@ -5793,18 +5796,18 @@
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="29"/>
+      <c r="S83" s="30"/>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
-      <c r="V83" s="29"/>
-      <c r="W83" s="29"/>
-      <c r="X83" s="29"/>
-      <c r="Y83" s="29"/>
-      <c r="Z83" s="29"/>
-      <c r="AA83" s="29"/>
-      <c r="AB83" s="29"/>
-      <c r="AC83" s="29"/>
-      <c r="AD83" s="29"/>
+      <c r="V83" s="30"/>
+      <c r="W83" s="30"/>
+      <c r="X83" s="30"/>
+      <c r="Y83" s="30"/>
+      <c r="Z83" s="30"/>
+      <c r="AA83" s="30"/>
+      <c r="AB83" s="30"/>
+      <c r="AC83" s="30"/>
+      <c r="AD83" s="30"/>
     </row>
     <row r="84" spans="1:30">
       <c r="A84" s="5">
@@ -5827,18 +5830,18 @@
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="29"/>
+      <c r="S84" s="30"/>
       <c r="T84" s="7"/>
       <c r="U84" s="7"/>
-      <c r="V84" s="29"/>
-      <c r="W84" s="29"/>
-      <c r="X84" s="29"/>
-      <c r="Y84" s="29"/>
-      <c r="Z84" s="29"/>
-      <c r="AA84" s="29"/>
-      <c r="AB84" s="29"/>
-      <c r="AC84" s="29"/>
-      <c r="AD84" s="29"/>
+      <c r="V84" s="30"/>
+      <c r="W84" s="30"/>
+      <c r="X84" s="30"/>
+      <c r="Y84" s="30"/>
+      <c r="Z84" s="30"/>
+      <c r="AA84" s="30"/>
+      <c r="AB84" s="30"/>
+      <c r="AC84" s="30"/>
+      <c r="AD84" s="30"/>
     </row>
     <row r="85" spans="1:30">
       <c r="A85" s="5">
@@ -5861,18 +5864,18 @@
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="29"/>
+      <c r="S85" s="30"/>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
-      <c r="V85" s="29"/>
-      <c r="W85" s="29"/>
-      <c r="X85" s="29"/>
-      <c r="Y85" s="29"/>
-      <c r="Z85" s="29"/>
-      <c r="AA85" s="29"/>
-      <c r="AB85" s="29"/>
-      <c r="AC85" s="29"/>
-      <c r="AD85" s="29"/>
+      <c r="V85" s="30"/>
+      <c r="W85" s="30"/>
+      <c r="X85" s="30"/>
+      <c r="Y85" s="30"/>
+      <c r="Z85" s="30"/>
+      <c r="AA85" s="30"/>
+      <c r="AB85" s="30"/>
+      <c r="AC85" s="30"/>
+      <c r="AD85" s="30"/>
     </row>
     <row r="86" spans="1:30">
       <c r="A86" s="5">
@@ -5895,18 +5898,18 @@
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="29"/>
+      <c r="S86" s="30"/>
       <c r="T86" s="7"/>
       <c r="U86" s="7"/>
-      <c r="V86" s="29"/>
-      <c r="W86" s="29"/>
-      <c r="X86" s="29"/>
-      <c r="Y86" s="29"/>
-      <c r="Z86" s="29"/>
-      <c r="AA86" s="29"/>
-      <c r="AB86" s="29"/>
-      <c r="AC86" s="29"/>
-      <c r="AD86" s="29"/>
+      <c r="V86" s="30"/>
+      <c r="W86" s="30"/>
+      <c r="X86" s="30"/>
+      <c r="Y86" s="30"/>
+      <c r="Z86" s="30"/>
+      <c r="AA86" s="30"/>
+      <c r="AB86" s="30"/>
+      <c r="AC86" s="30"/>
+      <c r="AD86" s="30"/>
     </row>
     <row r="87" spans="1:30">
       <c r="A87" s="5">
@@ -5929,18 +5932,18 @@
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="29"/>
+      <c r="S87" s="30"/>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
-      <c r="V87" s="29"/>
-      <c r="W87" s="29"/>
-      <c r="X87" s="29"/>
-      <c r="Y87" s="29"/>
-      <c r="Z87" s="29"/>
-      <c r="AA87" s="29"/>
-      <c r="AB87" s="29"/>
-      <c r="AC87" s="29"/>
-      <c r="AD87" s="29"/>
+      <c r="V87" s="30"/>
+      <c r="W87" s="30"/>
+      <c r="X87" s="30"/>
+      <c r="Y87" s="30"/>
+      <c r="Z87" s="30"/>
+      <c r="AA87" s="30"/>
+      <c r="AB87" s="30"/>
+      <c r="AC87" s="30"/>
+      <c r="AD87" s="30"/>
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="5">
@@ -5963,18 +5966,18 @@
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="29"/>
+      <c r="S88" s="30"/>
       <c r="T88" s="7"/>
       <c r="U88" s="7"/>
-      <c r="V88" s="29"/>
-      <c r="W88" s="29"/>
-      <c r="X88" s="29"/>
-      <c r="Y88" s="29"/>
-      <c r="Z88" s="29"/>
-      <c r="AA88" s="29"/>
-      <c r="AB88" s="29"/>
-      <c r="AC88" s="29"/>
-      <c r="AD88" s="29"/>
+      <c r="V88" s="30"/>
+      <c r="W88" s="30"/>
+      <c r="X88" s="30"/>
+      <c r="Y88" s="30"/>
+      <c r="Z88" s="30"/>
+      <c r="AA88" s="30"/>
+      <c r="AB88" s="30"/>
+      <c r="AC88" s="30"/>
+      <c r="AD88" s="30"/>
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="5">
@@ -5997,18 +6000,18 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="29"/>
+      <c r="S89" s="30"/>
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
-      <c r="V89" s="29"/>
-      <c r="W89" s="29"/>
-      <c r="X89" s="29"/>
-      <c r="Y89" s="29"/>
-      <c r="Z89" s="29"/>
-      <c r="AA89" s="29"/>
-      <c r="AB89" s="29"/>
-      <c r="AC89" s="29"/>
-      <c r="AD89" s="29"/>
+      <c r="V89" s="30"/>
+      <c r="W89" s="30"/>
+      <c r="X89" s="30"/>
+      <c r="Y89" s="30"/>
+      <c r="Z89" s="30"/>
+      <c r="AA89" s="30"/>
+      <c r="AB89" s="30"/>
+      <c r="AC89" s="30"/>
+      <c r="AD89" s="30"/>
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="5">
@@ -6031,18 +6034,18 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="29"/>
+      <c r="S90" s="30"/>
       <c r="T90" s="7"/>
       <c r="U90" s="7"/>
-      <c r="V90" s="29"/>
-      <c r="W90" s="29"/>
-      <c r="X90" s="29"/>
-      <c r="Y90" s="29"/>
-      <c r="Z90" s="29"/>
-      <c r="AA90" s="29"/>
-      <c r="AB90" s="29"/>
-      <c r="AC90" s="29"/>
-      <c r="AD90" s="29"/>
+      <c r="V90" s="30"/>
+      <c r="W90" s="30"/>
+      <c r="X90" s="30"/>
+      <c r="Y90" s="30"/>
+      <c r="Z90" s="30"/>
+      <c r="AA90" s="30"/>
+      <c r="AB90" s="30"/>
+      <c r="AC90" s="30"/>
+      <c r="AD90" s="30"/>
     </row>
     <row r="91" spans="1:30">
       <c r="A91" s="5">
@@ -6065,18 +6068,18 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="29"/>
+      <c r="S91" s="30"/>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
-      <c r="V91" s="29"/>
-      <c r="W91" s="29"/>
-      <c r="X91" s="29"/>
-      <c r="Y91" s="29"/>
-      <c r="Z91" s="29"/>
-      <c r="AA91" s="29"/>
-      <c r="AB91" s="29"/>
-      <c r="AC91" s="29"/>
-      <c r="AD91" s="29"/>
+      <c r="V91" s="30"/>
+      <c r="W91" s="30"/>
+      <c r="X91" s="30"/>
+      <c r="Y91" s="30"/>
+      <c r="Z91" s="30"/>
+      <c r="AA91" s="30"/>
+      <c r="AB91" s="30"/>
+      <c r="AC91" s="30"/>
+      <c r="AD91" s="30"/>
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="5">
@@ -6099,18 +6102,18 @@
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="29"/>
+      <c r="S92" s="30"/>
       <c r="T92" s="7"/>
       <c r="U92" s="7"/>
-      <c r="V92" s="29"/>
-      <c r="W92" s="29"/>
-      <c r="X92" s="29"/>
-      <c r="Y92" s="29"/>
-      <c r="Z92" s="29"/>
-      <c r="AA92" s="29"/>
-      <c r="AB92" s="29"/>
-      <c r="AC92" s="29"/>
-      <c r="AD92" s="29"/>
+      <c r="V92" s="30"/>
+      <c r="W92" s="30"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="30"/>
+      <c r="AA92" s="30"/>
+      <c r="AB92" s="30"/>
+      <c r="AC92" s="30"/>
+      <c r="AD92" s="30"/>
     </row>
     <row r="93" spans="1:30">
       <c r="A93" s="5">
@@ -6133,18 +6136,18 @@
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="29"/>
+      <c r="S93" s="30"/>
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
-      <c r="V93" s="29"/>
-      <c r="W93" s="29"/>
-      <c r="X93" s="29"/>
-      <c r="Y93" s="29"/>
-      <c r="Z93" s="29"/>
-      <c r="AA93" s="29"/>
-      <c r="AB93" s="29"/>
-      <c r="AC93" s="29"/>
-      <c r="AD93" s="29"/>
+      <c r="V93" s="30"/>
+      <c r="W93" s="30"/>
+      <c r="X93" s="30"/>
+      <c r="Y93" s="30"/>
+      <c r="Z93" s="30"/>
+      <c r="AA93" s="30"/>
+      <c r="AB93" s="30"/>
+      <c r="AC93" s="30"/>
+      <c r="AD93" s="30"/>
     </row>
     <row r="94" spans="1:30">
       <c r="A94" s="5">
@@ -6167,18 +6170,18 @@
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="29"/>
+      <c r="S94" s="30"/>
       <c r="T94" s="7"/>
       <c r="U94" s="7"/>
-      <c r="V94" s="29"/>
-      <c r="W94" s="29"/>
-      <c r="X94" s="29"/>
-      <c r="Y94" s="29"/>
-      <c r="Z94" s="29"/>
-      <c r="AA94" s="29"/>
-      <c r="AB94" s="29"/>
-      <c r="AC94" s="29"/>
-      <c r="AD94" s="29"/>
+      <c r="V94" s="30"/>
+      <c r="W94" s="30"/>
+      <c r="X94" s="30"/>
+      <c r="Y94" s="30"/>
+      <c r="Z94" s="30"/>
+      <c r="AA94" s="30"/>
+      <c r="AB94" s="30"/>
+      <c r="AC94" s="30"/>
+      <c r="AD94" s="30"/>
     </row>
     <row r="95" spans="1:30">
       <c r="A95" s="5">
@@ -6201,18 +6204,18 @@
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="29"/>
+      <c r="S95" s="30"/>
       <c r="T95" s="7"/>
       <c r="U95" s="7"/>
-      <c r="V95" s="29"/>
-      <c r="W95" s="29"/>
-      <c r="X95" s="29"/>
-      <c r="Y95" s="29"/>
-      <c r="Z95" s="29"/>
-      <c r="AA95" s="29"/>
-      <c r="AB95" s="29"/>
-      <c r="AC95" s="29"/>
-      <c r="AD95" s="29"/>
+      <c r="V95" s="30"/>
+      <c r="W95" s="30"/>
+      <c r="X95" s="30"/>
+      <c r="Y95" s="30"/>
+      <c r="Z95" s="30"/>
+      <c r="AA95" s="30"/>
+      <c r="AB95" s="30"/>
+      <c r="AC95" s="30"/>
+      <c r="AD95" s="30"/>
     </row>
     <row r="96" spans="1:30">
       <c r="A96" s="5">
@@ -6235,18 +6238,18 @@
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="29"/>
+      <c r="S96" s="30"/>
       <c r="T96" s="7"/>
       <c r="U96" s="7"/>
-      <c r="V96" s="29"/>
-      <c r="W96" s="29"/>
-      <c r="X96" s="29"/>
-      <c r="Y96" s="29"/>
-      <c r="Z96" s="29"/>
-      <c r="AA96" s="29"/>
-      <c r="AB96" s="29"/>
-      <c r="AC96" s="29"/>
-      <c r="AD96" s="29"/>
+      <c r="V96" s="30"/>
+      <c r="W96" s="30"/>
+      <c r="X96" s="30"/>
+      <c r="Y96" s="30"/>
+      <c r="Z96" s="30"/>
+      <c r="AA96" s="30"/>
+      <c r="AB96" s="30"/>
+      <c r="AC96" s="30"/>
+      <c r="AD96" s="30"/>
     </row>
     <row r="97" spans="1:30">
       <c r="A97" s="5">
@@ -6269,18 +6272,18 @@
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="29"/>
+      <c r="S97" s="30"/>
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
-      <c r="V97" s="29"/>
-      <c r="W97" s="29"/>
-      <c r="X97" s="29"/>
-      <c r="Y97" s="29"/>
-      <c r="Z97" s="29"/>
-      <c r="AA97" s="29"/>
-      <c r="AB97" s="29"/>
-      <c r="AC97" s="29"/>
-      <c r="AD97" s="29"/>
+      <c r="V97" s="30"/>
+      <c r="W97" s="30"/>
+      <c r="X97" s="30"/>
+      <c r="Y97" s="30"/>
+      <c r="Z97" s="30"/>
+      <c r="AA97" s="30"/>
+      <c r="AB97" s="30"/>
+      <c r="AC97" s="30"/>
+      <c r="AD97" s="30"/>
     </row>
     <row r="98" spans="1:30">
       <c r="A98" s="5">
@@ -6303,18 +6306,18 @@
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="29"/>
+      <c r="S98" s="30"/>
       <c r="T98" s="7"/>
       <c r="U98" s="7"/>
-      <c r="V98" s="29"/>
-      <c r="W98" s="29"/>
-      <c r="X98" s="29"/>
-      <c r="Y98" s="29"/>
-      <c r="Z98" s="29"/>
-      <c r="AA98" s="29"/>
-      <c r="AB98" s="29"/>
-      <c r="AC98" s="29"/>
-      <c r="AD98" s="29"/>
+      <c r="V98" s="30"/>
+      <c r="W98" s="30"/>
+      <c r="X98" s="30"/>
+      <c r="Y98" s="30"/>
+      <c r="Z98" s="30"/>
+      <c r="AA98" s="30"/>
+      <c r="AB98" s="30"/>
+      <c r="AC98" s="30"/>
+      <c r="AD98" s="30"/>
     </row>
     <row r="99" spans="1:30">
       <c r="A99" s="5">
@@ -6337,18 +6340,18 @@
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="29"/>
+      <c r="S99" s="30"/>
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
-      <c r="V99" s="29"/>
-      <c r="W99" s="29"/>
-      <c r="X99" s="29"/>
-      <c r="Y99" s="29"/>
-      <c r="Z99" s="29"/>
-      <c r="AA99" s="29"/>
-      <c r="AB99" s="29"/>
-      <c r="AC99" s="29"/>
-      <c r="AD99" s="29"/>
+      <c r="V99" s="30"/>
+      <c r="W99" s="30"/>
+      <c r="X99" s="30"/>
+      <c r="Y99" s="30"/>
+      <c r="Z99" s="30"/>
+      <c r="AA99" s="30"/>
+      <c r="AB99" s="30"/>
+      <c r="AC99" s="30"/>
+      <c r="AD99" s="30"/>
     </row>
     <row r="100" spans="1:30">
       <c r="A100" s="5">
@@ -6371,18 +6374,18 @@
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="29"/>
+      <c r="S100" s="30"/>
       <c r="T100" s="7"/>
       <c r="U100" s="7"/>
-      <c r="V100" s="29"/>
-      <c r="W100" s="29"/>
-      <c r="X100" s="29"/>
-      <c r="Y100" s="29"/>
-      <c r="Z100" s="29"/>
-      <c r="AA100" s="29"/>
-      <c r="AB100" s="29"/>
-      <c r="AC100" s="29"/>
-      <c r="AD100" s="29"/>
+      <c r="V100" s="30"/>
+      <c r="W100" s="30"/>
+      <c r="X100" s="30"/>
+      <c r="Y100" s="30"/>
+      <c r="Z100" s="30"/>
+      <c r="AA100" s="30"/>
+      <c r="AB100" s="30"/>
+      <c r="AC100" s="30"/>
+      <c r="AD100" s="30"/>
     </row>
     <row r="101" spans="1:30">
       <c r="A101" s="5">
@@ -6405,18 +6408,18 @@
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="29"/>
+      <c r="S101" s="30"/>
       <c r="T101" s="7"/>
       <c r="U101" s="7"/>
-      <c r="V101" s="29"/>
-      <c r="W101" s="29"/>
-      <c r="X101" s="29"/>
-      <c r="Y101" s="29"/>
-      <c r="Z101" s="29"/>
-      <c r="AA101" s="29"/>
-      <c r="AB101" s="29"/>
-      <c r="AC101" s="29"/>
-      <c r="AD101" s="29"/>
+      <c r="V101" s="30"/>
+      <c r="W101" s="30"/>
+      <c r="X101" s="30"/>
+      <c r="Y101" s="30"/>
+      <c r="Z101" s="30"/>
+      <c r="AA101" s="30"/>
+      <c r="AB101" s="30"/>
+      <c r="AC101" s="30"/>
+      <c r="AD101" s="30"/>
     </row>
     <row r="102" spans="1:30">
       <c r="A102" s="5">
@@ -6439,18 +6442,18 @@
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="29"/>
+      <c r="S102" s="30"/>
       <c r="T102" s="7"/>
       <c r="U102" s="7"/>
-      <c r="V102" s="29"/>
-      <c r="W102" s="29"/>
-      <c r="X102" s="29"/>
-      <c r="Y102" s="29"/>
-      <c r="Z102" s="29"/>
-      <c r="AA102" s="29"/>
-      <c r="AB102" s="29"/>
-      <c r="AC102" s="29"/>
-      <c r="AD102" s="29"/>
+      <c r="V102" s="30"/>
+      <c r="W102" s="30"/>
+      <c r="X102" s="30"/>
+      <c r="Y102" s="30"/>
+      <c r="Z102" s="30"/>
+      <c r="AA102" s="30"/>
+      <c r="AB102" s="30"/>
+      <c r="AC102" s="30"/>
+      <c r="AD102" s="30"/>
     </row>
     <row r="103" spans="1:30">
       <c r="A103" s="5">
@@ -6473,18 +6476,18 @@
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="29"/>
+      <c r="S103" s="30"/>
       <c r="T103" s="7"/>
       <c r="U103" s="7"/>
-      <c r="V103" s="29"/>
-      <c r="W103" s="29"/>
-      <c r="X103" s="29"/>
-      <c r="Y103" s="29"/>
-      <c r="Z103" s="29"/>
-      <c r="AA103" s="29"/>
-      <c r="AB103" s="29"/>
-      <c r="AC103" s="29"/>
-      <c r="AD103" s="29"/>
+      <c r="V103" s="30"/>
+      <c r="W103" s="30"/>
+      <c r="X103" s="30"/>
+      <c r="Y103" s="30"/>
+      <c r="Z103" s="30"/>
+      <c r="AA103" s="30"/>
+      <c r="AB103" s="30"/>
+      <c r="AC103" s="30"/>
+      <c r="AD103" s="30"/>
     </row>
     <row r="104" spans="1:30">
       <c r="A104" s="5">
@@ -6507,18 +6510,18 @@
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="29"/>
+      <c r="S104" s="30"/>
       <c r="T104" s="7"/>
       <c r="U104" s="7"/>
-      <c r="V104" s="29"/>
-      <c r="W104" s="29"/>
-      <c r="X104" s="29"/>
-      <c r="Y104" s="29"/>
-      <c r="Z104" s="29"/>
-      <c r="AA104" s="29"/>
-      <c r="AB104" s="29"/>
-      <c r="AC104" s="29"/>
-      <c r="AD104" s="29"/>
+      <c r="V104" s="30"/>
+      <c r="W104" s="30"/>
+      <c r="X104" s="30"/>
+      <c r="Y104" s="30"/>
+      <c r="Z104" s="30"/>
+      <c r="AA104" s="30"/>
+      <c r="AB104" s="30"/>
+      <c r="AC104" s="30"/>
+      <c r="AD104" s="30"/>
     </row>
     <row r="105" spans="1:30">
       <c r="A105" s="5">
@@ -6541,18 +6544,18 @@
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="29"/>
+      <c r="S105" s="30"/>
       <c r="T105" s="7"/>
       <c r="U105" s="7"/>
-      <c r="V105" s="29"/>
-      <c r="W105" s="29"/>
-      <c r="X105" s="29"/>
-      <c r="Y105" s="29"/>
-      <c r="Z105" s="29"/>
-      <c r="AA105" s="29"/>
-      <c r="AB105" s="29"/>
-      <c r="AC105" s="29"/>
-      <c r="AD105" s="29"/>
+      <c r="V105" s="30"/>
+      <c r="W105" s="30"/>
+      <c r="X105" s="30"/>
+      <c r="Y105" s="30"/>
+      <c r="Z105" s="30"/>
+      <c r="AA105" s="30"/>
+      <c r="AB105" s="30"/>
+      <c r="AC105" s="30"/>
+      <c r="AD105" s="30"/>
     </row>
     <row r="106" spans="1:30">
       <c r="A106" s="5">
@@ -6575,18 +6578,18 @@
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="29"/>
+      <c r="S106" s="30"/>
       <c r="T106" s="7"/>
       <c r="U106" s="7"/>
-      <c r="V106" s="29"/>
-      <c r="W106" s="29"/>
-      <c r="X106" s="29"/>
-      <c r="Y106" s="29"/>
-      <c r="Z106" s="29"/>
-      <c r="AA106" s="29"/>
-      <c r="AB106" s="29"/>
-      <c r="AC106" s="29"/>
-      <c r="AD106" s="29"/>
+      <c r="V106" s="30"/>
+      <c r="W106" s="30"/>
+      <c r="X106" s="30"/>
+      <c r="Y106" s="30"/>
+      <c r="Z106" s="30"/>
+      <c r="AA106" s="30"/>
+      <c r="AB106" s="30"/>
+      <c r="AC106" s="30"/>
+      <c r="AD106" s="30"/>
     </row>
     <row r="107" spans="1:30">
       <c r="A107" s="5">
@@ -6609,18 +6612,18 @@
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="29"/>
+      <c r="S107" s="30"/>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
-      <c r="V107" s="29"/>
-      <c r="W107" s="29"/>
-      <c r="X107" s="29"/>
-      <c r="Y107" s="29"/>
-      <c r="Z107" s="29"/>
-      <c r="AA107" s="29"/>
-      <c r="AB107" s="29"/>
-      <c r="AC107" s="29"/>
-      <c r="AD107" s="29"/>
+      <c r="V107" s="30"/>
+      <c r="W107" s="30"/>
+      <c r="X107" s="30"/>
+      <c r="Y107" s="30"/>
+      <c r="Z107" s="30"/>
+      <c r="AA107" s="30"/>
+      <c r="AB107" s="30"/>
+      <c r="AC107" s="30"/>
+      <c r="AD107" s="30"/>
     </row>
     <row r="108" spans="1:30">
       <c r="A108" s="5">
@@ -6643,18 +6646,18 @@
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="29"/>
+      <c r="S108" s="30"/>
       <c r="T108" s="7"/>
       <c r="U108" s="7"/>
-      <c r="V108" s="29"/>
-      <c r="W108" s="29"/>
-      <c r="X108" s="29"/>
-      <c r="Y108" s="29"/>
-      <c r="Z108" s="29"/>
-      <c r="AA108" s="29"/>
-      <c r="AB108" s="29"/>
-      <c r="AC108" s="29"/>
-      <c r="AD108" s="29"/>
+      <c r="V108" s="30"/>
+      <c r="W108" s="30"/>
+      <c r="X108" s="30"/>
+      <c r="Y108" s="30"/>
+      <c r="Z108" s="30"/>
+      <c r="AA108" s="30"/>
+      <c r="AB108" s="30"/>
+      <c r="AC108" s="30"/>
+      <c r="AD108" s="30"/>
     </row>
     <row r="109" spans="1:30">
       <c r="A109" s="5">
@@ -6677,18 +6680,18 @@
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
-      <c r="S109" s="29"/>
+      <c r="S109" s="30"/>
       <c r="T109" s="7"/>
       <c r="U109" s="7"/>
-      <c r="V109" s="29"/>
-      <c r="W109" s="29"/>
-      <c r="X109" s="29"/>
-      <c r="Y109" s="29"/>
-      <c r="Z109" s="29"/>
-      <c r="AA109" s="29"/>
-      <c r="AB109" s="29"/>
-      <c r="AC109" s="29"/>
-      <c r="AD109" s="29"/>
+      <c r="V109" s="30"/>
+      <c r="W109" s="30"/>
+      <c r="X109" s="30"/>
+      <c r="Y109" s="30"/>
+      <c r="Z109" s="30"/>
+      <c r="AA109" s="30"/>
+      <c r="AB109" s="30"/>
+      <c r="AC109" s="30"/>
+      <c r="AD109" s="30"/>
     </row>
     <row r="110" spans="1:30">
       <c r="A110" s="5">
@@ -6711,18 +6714,18 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="29"/>
+      <c r="S110" s="30"/>
       <c r="T110" s="7"/>
       <c r="U110" s="7"/>
-      <c r="V110" s="29"/>
-      <c r="W110" s="29"/>
-      <c r="X110" s="29"/>
-      <c r="Y110" s="29"/>
-      <c r="Z110" s="29"/>
-      <c r="AA110" s="29"/>
-      <c r="AB110" s="29"/>
-      <c r="AC110" s="29"/>
-      <c r="AD110" s="29"/>
+      <c r="V110" s="30"/>
+      <c r="W110" s="30"/>
+      <c r="X110" s="30"/>
+      <c r="Y110" s="30"/>
+      <c r="Z110" s="30"/>
+      <c r="AA110" s="30"/>
+      <c r="AB110" s="30"/>
+      <c r="AC110" s="30"/>
+      <c r="AD110" s="30"/>
     </row>
     <row r="111" spans="1:30">
       <c r="A111" s="5">
@@ -6745,18 +6748,18 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="29"/>
+      <c r="S111" s="30"/>
       <c r="T111" s="7"/>
       <c r="U111" s="7"/>
-      <c r="V111" s="29"/>
-      <c r="W111" s="29"/>
-      <c r="X111" s="29"/>
-      <c r="Y111" s="29"/>
-      <c r="Z111" s="29"/>
-      <c r="AA111" s="29"/>
-      <c r="AB111" s="29"/>
-      <c r="AC111" s="29"/>
-      <c r="AD111" s="29"/>
+      <c r="V111" s="30"/>
+      <c r="W111" s="30"/>
+      <c r="X111" s="30"/>
+      <c r="Y111" s="30"/>
+      <c r="Z111" s="30"/>
+      <c r="AA111" s="30"/>
+      <c r="AB111" s="30"/>
+      <c r="AC111" s="30"/>
+      <c r="AD111" s="30"/>
     </row>
     <row r="112" spans="1:30">
       <c r="A112" s="5">
@@ -6779,18 +6782,18 @@
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="29"/>
+      <c r="S112" s="30"/>
       <c r="T112" s="7"/>
       <c r="U112" s="7"/>
-      <c r="V112" s="29"/>
-      <c r="W112" s="29"/>
-      <c r="X112" s="29"/>
-      <c r="Y112" s="29"/>
-      <c r="Z112" s="29"/>
-      <c r="AA112" s="29"/>
-      <c r="AB112" s="29"/>
-      <c r="AC112" s="29"/>
-      <c r="AD112" s="29"/>
+      <c r="V112" s="30"/>
+      <c r="W112" s="30"/>
+      <c r="X112" s="30"/>
+      <c r="Y112" s="30"/>
+      <c r="Z112" s="30"/>
+      <c r="AA112" s="30"/>
+      <c r="AB112" s="30"/>
+      <c r="AC112" s="30"/>
+      <c r="AD112" s="30"/>
     </row>
     <row r="113" spans="1:30">
       <c r="A113" s="5">
@@ -6813,18 +6816,18 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="29"/>
+      <c r="S113" s="30"/>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
-      <c r="V113" s="29"/>
-      <c r="W113" s="29"/>
-      <c r="X113" s="29"/>
-      <c r="Y113" s="29"/>
-      <c r="Z113" s="29"/>
-      <c r="AA113" s="29"/>
-      <c r="AB113" s="29"/>
-      <c r="AC113" s="29"/>
-      <c r="AD113" s="29"/>
+      <c r="V113" s="30"/>
+      <c r="W113" s="30"/>
+      <c r="X113" s="30"/>
+      <c r="Y113" s="30"/>
+      <c r="Z113" s="30"/>
+      <c r="AA113" s="30"/>
+      <c r="AB113" s="30"/>
+      <c r="AC113" s="30"/>
+      <c r="AD113" s="30"/>
     </row>
     <row r="114" spans="1:30">
       <c r="A114" s="5">
@@ -6847,18 +6850,18 @@
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="29"/>
+      <c r="S114" s="30"/>
       <c r="T114" s="7"/>
       <c r="U114" s="7"/>
-      <c r="V114" s="29"/>
-      <c r="W114" s="29"/>
-      <c r="X114" s="29"/>
-      <c r="Y114" s="29"/>
-      <c r="Z114" s="29"/>
-      <c r="AA114" s="29"/>
-      <c r="AB114" s="29"/>
-      <c r="AC114" s="29"/>
-      <c r="AD114" s="29"/>
+      <c r="V114" s="30"/>
+      <c r="W114" s="30"/>
+      <c r="X114" s="30"/>
+      <c r="Y114" s="30"/>
+      <c r="Z114" s="30"/>
+      <c r="AA114" s="30"/>
+      <c r="AB114" s="30"/>
+      <c r="AC114" s="30"/>
+      <c r="AD114" s="30"/>
     </row>
     <row r="115" spans="1:30">
       <c r="A115" s="5">
@@ -6881,18 +6884,18 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="29"/>
+      <c r="S115" s="30"/>
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
-      <c r="V115" s="29"/>
-      <c r="W115" s="29"/>
-      <c r="X115" s="29"/>
-      <c r="Y115" s="29"/>
-      <c r="Z115" s="29"/>
-      <c r="AA115" s="29"/>
-      <c r="AB115" s="29"/>
-      <c r="AC115" s="29"/>
-      <c r="AD115" s="29"/>
+      <c r="V115" s="30"/>
+      <c r="W115" s="30"/>
+      <c r="X115" s="30"/>
+      <c r="Y115" s="30"/>
+      <c r="Z115" s="30"/>
+      <c r="AA115" s="30"/>
+      <c r="AB115" s="30"/>
+      <c r="AC115" s="30"/>
+      <c r="AD115" s="30"/>
     </row>
     <row r="116" spans="1:30">
       <c r="A116" s="5">
@@ -6915,18 +6918,18 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="29"/>
+      <c r="S116" s="30"/>
       <c r="T116" s="7"/>
       <c r="U116" s="7"/>
-      <c r="V116" s="29"/>
-      <c r="W116" s="29"/>
-      <c r="X116" s="29"/>
-      <c r="Y116" s="29"/>
-      <c r="Z116" s="29"/>
-      <c r="AA116" s="29"/>
-      <c r="AB116" s="29"/>
-      <c r="AC116" s="29"/>
-      <c r="AD116" s="29"/>
+      <c r="V116" s="30"/>
+      <c r="W116" s="30"/>
+      <c r="X116" s="30"/>
+      <c r="Y116" s="30"/>
+      <c r="Z116" s="30"/>
+      <c r="AA116" s="30"/>
+      <c r="AB116" s="30"/>
+      <c r="AC116" s="30"/>
+      <c r="AD116" s="30"/>
     </row>
     <row r="117" spans="1:30">
       <c r="A117" s="5">
@@ -6949,18 +6952,18 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="29"/>
+      <c r="S117" s="30"/>
       <c r="T117" s="7"/>
       <c r="U117" s="7"/>
-      <c r="V117" s="29"/>
-      <c r="W117" s="29"/>
-      <c r="X117" s="29"/>
-      <c r="Y117" s="29"/>
-      <c r="Z117" s="29"/>
-      <c r="AA117" s="29"/>
-      <c r="AB117" s="29"/>
-      <c r="AC117" s="29"/>
-      <c r="AD117" s="29"/>
+      <c r="V117" s="30"/>
+      <c r="W117" s="30"/>
+      <c r="X117" s="30"/>
+      <c r="Y117" s="30"/>
+      <c r="Z117" s="30"/>
+      <c r="AA117" s="30"/>
+      <c r="AB117" s="30"/>
+      <c r="AC117" s="30"/>
+      <c r="AD117" s="30"/>
     </row>
     <row r="118" spans="1:30">
       <c r="A118" s="5">
@@ -6983,18 +6986,18 @@
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="29"/>
+      <c r="S118" s="30"/>
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
-      <c r="V118" s="29"/>
-      <c r="W118" s="29"/>
-      <c r="X118" s="29"/>
-      <c r="Y118" s="29"/>
-      <c r="Z118" s="29"/>
-      <c r="AA118" s="29"/>
-      <c r="AB118" s="29"/>
-      <c r="AC118" s="29"/>
-      <c r="AD118" s="29"/>
+      <c r="V118" s="30"/>
+      <c r="W118" s="30"/>
+      <c r="X118" s="30"/>
+      <c r="Y118" s="30"/>
+      <c r="Z118" s="30"/>
+      <c r="AA118" s="30"/>
+      <c r="AB118" s="30"/>
+      <c r="AC118" s="30"/>
+      <c r="AD118" s="30"/>
     </row>
     <row r="119" spans="1:30">
       <c r="A119" s="5">
@@ -7017,18 +7020,18 @@
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="29"/>
+      <c r="S119" s="30"/>
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
-      <c r="V119" s="29"/>
-      <c r="W119" s="29"/>
-      <c r="X119" s="29"/>
-      <c r="Y119" s="29"/>
-      <c r="Z119" s="29"/>
-      <c r="AA119" s="29"/>
-      <c r="AB119" s="29"/>
-      <c r="AC119" s="29"/>
-      <c r="AD119" s="29"/>
+      <c r="V119" s="30"/>
+      <c r="W119" s="30"/>
+      <c r="X119" s="30"/>
+      <c r="Y119" s="30"/>
+      <c r="Z119" s="30"/>
+      <c r="AA119" s="30"/>
+      <c r="AB119" s="30"/>
+      <c r="AC119" s="30"/>
+      <c r="AD119" s="30"/>
     </row>
     <row r="120" spans="1:30">
       <c r="A120" s="5">
@@ -7051,18 +7054,18 @@
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="29"/>
+      <c r="S120" s="30"/>
       <c r="T120" s="7"/>
       <c r="U120" s="7"/>
-      <c r="V120" s="29"/>
-      <c r="W120" s="29"/>
-      <c r="X120" s="29"/>
-      <c r="Y120" s="29"/>
-      <c r="Z120" s="29"/>
-      <c r="AA120" s="29"/>
-      <c r="AB120" s="29"/>
-      <c r="AC120" s="29"/>
-      <c r="AD120" s="29"/>
+      <c r="V120" s="30"/>
+      <c r="W120" s="30"/>
+      <c r="X120" s="30"/>
+      <c r="Y120" s="30"/>
+      <c r="Z120" s="30"/>
+      <c r="AA120" s="30"/>
+      <c r="AB120" s="30"/>
+      <c r="AC120" s="30"/>
+      <c r="AD120" s="30"/>
     </row>
     <row r="121" spans="1:30">
       <c r="A121" s="5">
@@ -7085,18 +7088,18 @@
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="29"/>
+      <c r="S121" s="30"/>
       <c r="T121" s="7"/>
       <c r="U121" s="7"/>
-      <c r="V121" s="29"/>
-      <c r="W121" s="29"/>
-      <c r="X121" s="29"/>
-      <c r="Y121" s="29"/>
-      <c r="Z121" s="29"/>
-      <c r="AA121" s="29"/>
-      <c r="AB121" s="29"/>
-      <c r="AC121" s="29"/>
-      <c r="AD121" s="29"/>
+      <c r="V121" s="30"/>
+      <c r="W121" s="30"/>
+      <c r="X121" s="30"/>
+      <c r="Y121" s="30"/>
+      <c r="Z121" s="30"/>
+      <c r="AA121" s="30"/>
+      <c r="AB121" s="30"/>
+      <c r="AC121" s="30"/>
+      <c r="AD121" s="30"/>
     </row>
     <row r="122" spans="1:30">
       <c r="A122" s="5">
@@ -7119,18 +7122,18 @@
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="29"/>
+      <c r="S122" s="30"/>
       <c r="T122" s="7"/>
       <c r="U122" s="7"/>
-      <c r="V122" s="29"/>
-      <c r="W122" s="29"/>
-      <c r="X122" s="29"/>
-      <c r="Y122" s="29"/>
-      <c r="Z122" s="29"/>
-      <c r="AA122" s="29"/>
-      <c r="AB122" s="29"/>
-      <c r="AC122" s="29"/>
-      <c r="AD122" s="29"/>
+      <c r="V122" s="30"/>
+      <c r="W122" s="30"/>
+      <c r="X122" s="30"/>
+      <c r="Y122" s="30"/>
+      <c r="Z122" s="30"/>
+      <c r="AA122" s="30"/>
+      <c r="AB122" s="30"/>
+      <c r="AC122" s="30"/>
+      <c r="AD122" s="30"/>
     </row>
     <row r="123" spans="1:30">
       <c r="A123" s="5">
@@ -7153,18 +7156,18 @@
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="29"/>
+      <c r="S123" s="30"/>
       <c r="T123" s="7"/>
       <c r="U123" s="7"/>
-      <c r="V123" s="29"/>
-      <c r="W123" s="29"/>
-      <c r="X123" s="29"/>
-      <c r="Y123" s="29"/>
-      <c r="Z123" s="29"/>
-      <c r="AA123" s="29"/>
-      <c r="AB123" s="29"/>
-      <c r="AC123" s="29"/>
-      <c r="AD123" s="29"/>
+      <c r="V123" s="30"/>
+      <c r="W123" s="30"/>
+      <c r="X123" s="30"/>
+      <c r="Y123" s="30"/>
+      <c r="Z123" s="30"/>
+      <c r="AA123" s="30"/>
+      <c r="AB123" s="30"/>
+      <c r="AC123" s="30"/>
+      <c r="AD123" s="30"/>
     </row>
     <row r="124" spans="1:30">
       <c r="A124" s="5">
@@ -7187,18 +7190,18 @@
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="29"/>
+      <c r="S124" s="30"/>
       <c r="T124" s="7"/>
       <c r="U124" s="7"/>
-      <c r="V124" s="29"/>
-      <c r="W124" s="29"/>
-      <c r="X124" s="29"/>
-      <c r="Y124" s="29"/>
-      <c r="Z124" s="29"/>
-      <c r="AA124" s="29"/>
-      <c r="AB124" s="29"/>
-      <c r="AC124" s="29"/>
-      <c r="AD124" s="29"/>
+      <c r="V124" s="30"/>
+      <c r="W124" s="30"/>
+      <c r="X124" s="30"/>
+      <c r="Y124" s="30"/>
+      <c r="Z124" s="30"/>
+      <c r="AA124" s="30"/>
+      <c r="AB124" s="30"/>
+      <c r="AC124" s="30"/>
+      <c r="AD124" s="30"/>
     </row>
     <row r="125" spans="1:30">
       <c r="A125" s="5">
@@ -7221,18 +7224,18 @@
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="29"/>
+      <c r="S125" s="30"/>
       <c r="T125" s="7"/>
       <c r="U125" s="7"/>
-      <c r="V125" s="29"/>
-      <c r="W125" s="29"/>
-      <c r="X125" s="29"/>
-      <c r="Y125" s="29"/>
-      <c r="Z125" s="29"/>
-      <c r="AA125" s="29"/>
-      <c r="AB125" s="29"/>
-      <c r="AC125" s="29"/>
-      <c r="AD125" s="29"/>
+      <c r="V125" s="30"/>
+      <c r="W125" s="30"/>
+      <c r="X125" s="30"/>
+      <c r="Y125" s="30"/>
+      <c r="Z125" s="30"/>
+      <c r="AA125" s="30"/>
+      <c r="AB125" s="30"/>
+      <c r="AC125" s="30"/>
+      <c r="AD125" s="30"/>
     </row>
     <row r="126" spans="1:30">
       <c r="A126" s="5">
@@ -7255,18 +7258,18 @@
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="29"/>
+      <c r="S126" s="30"/>
       <c r="T126" s="7"/>
       <c r="U126" s="7"/>
-      <c r="V126" s="29"/>
-      <c r="W126" s="29"/>
-      <c r="X126" s="29"/>
-      <c r="Y126" s="29"/>
-      <c r="Z126" s="29"/>
-      <c r="AA126" s="29"/>
-      <c r="AB126" s="29"/>
-      <c r="AC126" s="29"/>
-      <c r="AD126" s="29"/>
+      <c r="V126" s="30"/>
+      <c r="W126" s="30"/>
+      <c r="X126" s="30"/>
+      <c r="Y126" s="30"/>
+      <c r="Z126" s="30"/>
+      <c r="AA126" s="30"/>
+      <c r="AB126" s="30"/>
+      <c r="AC126" s="30"/>
+      <c r="AD126" s="30"/>
     </row>
     <row r="127" spans="1:30">
       <c r="A127" s="5">
@@ -7289,18 +7292,18 @@
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="29"/>
+      <c r="S127" s="30"/>
       <c r="T127" s="7"/>
       <c r="U127" s="7"/>
-      <c r="V127" s="29"/>
-      <c r="W127" s="29"/>
-      <c r="X127" s="29"/>
-      <c r="Y127" s="29"/>
-      <c r="Z127" s="29"/>
-      <c r="AA127" s="29"/>
-      <c r="AB127" s="29"/>
-      <c r="AC127" s="29"/>
-      <c r="AD127" s="29"/>
+      <c r="V127" s="30"/>
+      <c r="W127" s="30"/>
+      <c r="X127" s="30"/>
+      <c r="Y127" s="30"/>
+      <c r="Z127" s="30"/>
+      <c r="AA127" s="30"/>
+      <c r="AB127" s="30"/>
+      <c r="AC127" s="30"/>
+      <c r="AD127" s="30"/>
     </row>
     <row r="128" spans="1:30">
       <c r="A128" s="5">
@@ -7323,18 +7326,18 @@
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="29"/>
+      <c r="S128" s="30"/>
       <c r="T128" s="7"/>
       <c r="U128" s="7"/>
-      <c r="V128" s="29"/>
-      <c r="W128" s="29"/>
-      <c r="X128" s="29"/>
-      <c r="Y128" s="29"/>
-      <c r="Z128" s="29"/>
-      <c r="AA128" s="29"/>
-      <c r="AB128" s="29"/>
-      <c r="AC128" s="29"/>
-      <c r="AD128" s="29"/>
+      <c r="V128" s="30"/>
+      <c r="W128" s="30"/>
+      <c r="X128" s="30"/>
+      <c r="Y128" s="30"/>
+      <c r="Z128" s="30"/>
+      <c r="AA128" s="30"/>
+      <c r="AB128" s="30"/>
+      <c r="AC128" s="30"/>
+      <c r="AD128" s="30"/>
     </row>
     <row r="129" spans="1:30">
       <c r="A129" s="5">
@@ -7357,18 +7360,18 @@
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="29"/>
+      <c r="S129" s="30"/>
       <c r="T129" s="7"/>
       <c r="U129" s="7"/>
-      <c r="V129" s="29"/>
-      <c r="W129" s="29"/>
-      <c r="X129" s="29"/>
-      <c r="Y129" s="29"/>
-      <c r="Z129" s="29"/>
-      <c r="AA129" s="29"/>
-      <c r="AB129" s="29"/>
-      <c r="AC129" s="29"/>
-      <c r="AD129" s="29"/>
+      <c r="V129" s="30"/>
+      <c r="W129" s="30"/>
+      <c r="X129" s="30"/>
+      <c r="Y129" s="30"/>
+      <c r="Z129" s="30"/>
+      <c r="AA129" s="30"/>
+      <c r="AB129" s="30"/>
+      <c r="AC129" s="30"/>
+      <c r="AD129" s="30"/>
     </row>
     <row r="130" spans="1:30">
       <c r="A130" s="5">
@@ -7391,18 +7394,18 @@
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="29"/>
+      <c r="S130" s="30"/>
       <c r="T130" s="7"/>
       <c r="U130" s="7"/>
-      <c r="V130" s="29"/>
-      <c r="W130" s="29"/>
-      <c r="X130" s="29"/>
-      <c r="Y130" s="29"/>
-      <c r="Z130" s="29"/>
-      <c r="AA130" s="29"/>
-      <c r="AB130" s="29"/>
-      <c r="AC130" s="29"/>
-      <c r="AD130" s="29"/>
+      <c r="V130" s="30"/>
+      <c r="W130" s="30"/>
+      <c r="X130" s="30"/>
+      <c r="Y130" s="30"/>
+      <c r="Z130" s="30"/>
+      <c r="AA130" s="30"/>
+      <c r="AB130" s="30"/>
+      <c r="AC130" s="30"/>
+      <c r="AD130" s="30"/>
     </row>
     <row r="131" spans="1:30">
       <c r="A131" s="5">
@@ -7425,18 +7428,18 @@
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="29"/>
+      <c r="S131" s="30"/>
       <c r="T131" s="7"/>
       <c r="U131" s="7"/>
-      <c r="V131" s="29"/>
-      <c r="W131" s="29"/>
-      <c r="X131" s="29"/>
-      <c r="Y131" s="29"/>
-      <c r="Z131" s="29"/>
-      <c r="AA131" s="29"/>
-      <c r="AB131" s="29"/>
-      <c r="AC131" s="29"/>
-      <c r="AD131" s="29"/>
+      <c r="V131" s="30"/>
+      <c r="W131" s="30"/>
+      <c r="X131" s="30"/>
+      <c r="Y131" s="30"/>
+      <c r="Z131" s="30"/>
+      <c r="AA131" s="30"/>
+      <c r="AB131" s="30"/>
+      <c r="AC131" s="30"/>
+      <c r="AD131" s="30"/>
     </row>
     <row r="132" spans="1:21">
       <c r="A132" s="5">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -2944,11 +2944,11 @@
   <dimension ref="A1:AF500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF7" sqref="AF7:AF10"/>
+      <selection pane="bottomRight" activeCell="U6" sqref="U6:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3296,7 +3296,9 @@
       <c r="T6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="U6" s="30"/>
+      <c r="U6" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="V6" s="30"/>
       <c r="W6" s="31"/>
       <c r="X6" s="32"/>
@@ -3378,7 +3380,9 @@
       <c r="T7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="U7" s="7"/>
+      <c r="U7" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="V7" s="7"/>
       <c r="W7" s="6"/>
       <c r="X7" s="32"/>
@@ -3461,7 +3465,9 @@
       <c r="T8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="U8" s="7"/>
+      <c r="U8" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="V8" s="7"/>
       <c r="W8" s="6"/>
       <c r="X8" s="32"/>
@@ -3544,7 +3550,9 @@
       <c r="T9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="7"/>
+      <c r="U9" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="V9" s="7"/>
       <c r="W9" s="6"/>
       <c r="X9" s="32"/>
@@ -3627,7 +3635,9 @@
       <c r="T10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="7"/>
+      <c r="U10" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="V10" s="7"/>
       <c r="W10" s="6"/>
       <c r="X10" s="32"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -2948,7 +2948,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U6" sqref="U6:U10"/>
+      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -2944,11 +2944,11 @@
   <dimension ref="A1:AF500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>日期</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>止损线</t>
+  </si>
+  <si>
+    <t>盈利金额</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -233,10 +236,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -277,23 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,8 +293,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,16 +332,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,40 +393,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,22 +415,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,7 +455,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,7 +542,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,13 +608,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,7 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,7 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,19 +662,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +686,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,19 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,68 +720,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -750,36 +759,14 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,6 +791,50 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,171 +868,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1099,7 +1124,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1107,6 +1132,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2941,14 +2972,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AF500"/>
+  <dimension ref="A1:AG500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2978,4758 +3009,4766 @@
     <col min="29" max="29" width="22.0267857142857" customWidth="1"/>
     <col min="30" max="30" width="24.5446428571429" customWidth="1"/>
     <col min="31" max="31" width="18.75" customWidth="1"/>
+    <col min="33" max="33" width="9.07142857142857" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:33">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="18" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="24" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="34" t="s">
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27" t="s">
+      <c r="AG1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="35" t="s">
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="34"/>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="19" t="s">
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="22" t="s">
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="39"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="34"/>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="39"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="M4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="N4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="O4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="Q4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="S4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="26"/>
-      <c r="V4" s="28" t="s">
+      <c r="T4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="28" t="s">
+      <c r="U4" s="27"/>
+      <c r="V4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="27" t="s">
+      <c r="W4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="33" t="s">
+      <c r="X4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="27" t="s">
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="33" t="s">
+      <c r="AA4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AB4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="35" t="s">
+      <c r="AC4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AE4" s="36" t="s">
+      <c r="AD4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="34"/>
-    </row>
-    <row r="5" ht="56" customHeight="1" spans="1:32">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="29" t="s">
+      <c r="AE4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="29" t="s">
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="39"/>
+    </row>
+    <row r="5" ht="56" customHeight="1" spans="1:33">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="34"/>
+      <c r="Y5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="39"/>
     </row>
     <row r="6" ht="18" spans="1:32">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>44526</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>71.25</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>72</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>74.5</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>70.4</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>68.96</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>68.48</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>6.49</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <v>1</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="J6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="14">
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
         <v>-0.0113778271125294</v>
       </c>
-      <c r="L6" s="14">
-        <f t="shared" ref="L6:L9" si="0">I6/(ROW()-4)</f>
+      <c r="L6" s="15">
+        <f t="shared" ref="L6:L10" si="0">I6/(ROW()-4)</f>
         <v>0.5</v>
       </c>
-      <c r="M6" s="21" t="str">
+      <c r="M6" s="22" t="str">
         <f>IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
-      <c r="N6" s="7" t="str">
+      <c r="N6" s="8" t="str">
         <f>IF(B6&lt;F6,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="21" t="s">
+      <c r="O6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="R6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="S6" s="21" t="str">
+      <c r="P6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="22" t="str">
         <f>IF(I6/(ROW()-5)&gt;=0.5,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="T6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="30" t="s">
+      <c r="T6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="30"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32">
+      <c r="U6" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="31"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="38">
         <v>67.53</v>
       </c>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>44529</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>75.44</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>74.7</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>77.98</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>74.5</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>69.57</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>68.75</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="7">
         <v>6.68</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <v>2</v>
       </c>
-      <c r="J7" s="15">
-        <f t="shared" ref="J7:J9" si="1">(B7-B6)/B6</f>
+      <c r="J7" s="16">
+        <f t="shared" ref="J7:J10" si="1">(B7-B6)/B6</f>
         <v>0.0588070175438596</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="14">
         <f>(B7-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
         <v>0.0467600943527127</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="15">
         <f t="shared" si="0"/>
         <v>0.666666666666667</v>
       </c>
-      <c r="M7" s="21" t="str">
+      <c r="M7" s="22" t="str">
         <f>IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
-      <c r="N7" s="7" t="str">
+      <c r="N7" s="8" t="str">
         <f>IF(B7&lt;F7,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="21" t="s">
+      <c r="O7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="S7" s="21" t="str">
+      <c r="P7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="22" t="str">
         <f>IF(I7/(ROW()-5)&gt;=0.5,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="T7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" s="30" t="s">
+      <c r="T7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32">
+      <c r="U7" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="38">
         <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G7,AF6)</f>
         <v>67.53</v>
       </c>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>44530</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>76.71</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>75</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>77.77</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>72.83</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>70.25</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>69.06</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>7.08</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <v>3</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="16">
         <f t="shared" si="1"/>
         <v>0.0168345705196182</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="14">
         <f>(B8-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)</f>
         <v>0.0643818509782156</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="15">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="M8" s="7" t="str">
+      <c r="M8" s="8" t="str">
         <f>IF(B8&gt;=(D8-(D8-E8)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
-      <c r="N8" s="7" t="str">
+      <c r="N8" s="8" t="str">
         <f>IF(B8&lt;F8,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="21" t="s">
+      <c r="O8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="R8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="S8" s="21" t="str">
+      <c r="P8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="22" t="str">
         <f>IF(I8/(ROW()-5)&gt;=0.5,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="T8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" s="30" t="s">
+      <c r="T8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V8" s="7"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32">
+      <c r="U8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="38">
         <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G8,AF7)</f>
         <v>67.53</v>
       </c>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>44531</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>73.5</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>76.61</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>76.61</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>73.41</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>70.56</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>69.24</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>7.2</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <v>3</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="17">
         <f t="shared" si="1"/>
         <v>-0.0418459131795072</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="14">
         <f>(B9-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)</f>
         <v>0.0198418204523381</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="15">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="M9" s="21" t="str">
+      <c r="M9" s="22" t="str">
         <f>IF(B9&gt;=(D9-(D9-E9)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
-      <c r="N9" s="7" t="str">
+      <c r="N9" s="8" t="str">
         <f>IF(B9&lt;F9,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="S9" s="21" t="str">
+      <c r="O9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="22" t="str">
         <f>IF(I9/(ROW()-5)&gt;=0.5,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="T9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" s="30" t="s">
+      <c r="T9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V9" s="7"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32">
+      <c r="U9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="38">
         <f>IF(G9-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G9,AF8)</f>
         <v>67.53</v>
       </c>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>44532</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>72.09</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>72.74</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>74.17</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>72</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>70.71</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>69.35</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="7">
         <v>6.89</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="8">
         <v>3</v>
       </c>
-      <c r="J10" s="17">
-        <f>(B10-B9)/B9</f>
+      <c r="J10" s="18">
+        <f t="shared" si="1"/>
         <v>-0.0191836734693877</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="14">
         <f>(B10-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)</f>
         <v>0.00027750797835452</v>
       </c>
-      <c r="L10" s="14">
-        <f>I10/(ROW()-4)</f>
+      <c r="L10" s="15">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="M10" s="21" t="str">
+      <c r="M10" s="22" t="str">
         <f>IF(B10&gt;=(D10-(D10-E10)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
-      <c r="N10" s="7" t="str">
+      <c r="N10" s="8" t="str">
         <f>IF(B10&lt;F10,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="S10" s="21" t="str">
+      <c r="O10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="22" t="str">
         <f>IF(I10/(ROW()-5)&gt;=0.5,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="T10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="U10" s="30" t="s">
+      <c r="T10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="32">
+      <c r="U10" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="8"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="38">
         <f>IF(G10-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)&gt;0,G10,AF9)</f>
         <v>67.53</v>
       </c>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>44533</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="38"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>44534</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="38"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>44535</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="38"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>44536</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="38"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>44537</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="38"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>44538</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="38"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>44539</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="38"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>44540</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="38"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>44541</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="38"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>44542</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="38"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>44543</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="38"/>
     </row>
     <row r="22" spans="1:32">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>44544</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="38"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>44545</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="38"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <v>44546</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="38"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>44547</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="38"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="5">
+      <c r="A26" s="6">
         <v>44548</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="38"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="38"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="33"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="38"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="38"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="33"/>
+      <c r="AD30" s="33"/>
+      <c r="AE30" s="33"/>
+      <c r="AF30" s="38"/>
     </row>
     <row r="31" spans="1:32">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="38"/>
     </row>
     <row r="32" spans="1:32">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="33"/>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="38"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="38"/>
     </row>
     <row r="34" spans="1:32">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="33"/>
+      <c r="AF34" s="38"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="38"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="38"/>
     </row>
     <row r="37" spans="1:32">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="38"/>
     </row>
     <row r="38" spans="1:32">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="32"/>
-      <c r="AF38" s="32"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="33"/>
+      <c r="AE38" s="33"/>
+      <c r="AF38" s="38"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="5"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="32"/>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="32"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="38"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" s="5"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="32"/>
-      <c r="AB40" s="32"/>
-      <c r="AC40" s="32"/>
-      <c r="AD40" s="32"/>
-      <c r="AE40" s="32"/>
-      <c r="AF40" s="32"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="33"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="38"/>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="5"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="32"/>
-      <c r="AF41" s="32"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="33"/>
+      <c r="AD41" s="33"/>
+      <c r="AE41" s="33"/>
+      <c r="AF41" s="38"/>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="5"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="32"/>
-      <c r="AE42" s="32"/>
-      <c r="AF42" s="32"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="33"/>
+      <c r="AA42" s="33"/>
+      <c r="AB42" s="33"/>
+      <c r="AC42" s="33"/>
+      <c r="AD42" s="33"/>
+      <c r="AE42" s="33"/>
+      <c r="AF42" s="38"/>
     </row>
     <row r="43" spans="1:32">
-      <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="32"/>
-      <c r="AA43" s="32"/>
-      <c r="AB43" s="32"/>
-      <c r="AC43" s="32"/>
-      <c r="AD43" s="32"/>
-      <c r="AE43" s="32"/>
-      <c r="AF43" s="32"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="33"/>
+      <c r="AC43" s="33"/>
+      <c r="AD43" s="33"/>
+      <c r="AE43" s="33"/>
+      <c r="AF43" s="38"/>
     </row>
     <row r="44" spans="1:32">
-      <c r="A44" s="5"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="32"/>
-      <c r="Z44" s="32"/>
-      <c r="AA44" s="32"/>
-      <c r="AB44" s="32"/>
-      <c r="AC44" s="32"/>
-      <c r="AD44" s="32"/>
-      <c r="AE44" s="32"/>
-      <c r="AF44" s="32"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="33"/>
+      <c r="Z44" s="33"/>
+      <c r="AA44" s="33"/>
+      <c r="AB44" s="33"/>
+      <c r="AC44" s="33"/>
+      <c r="AD44" s="33"/>
+      <c r="AE44" s="33"/>
+      <c r="AF44" s="38"/>
     </row>
     <row r="45" spans="1:32">
-      <c r="A45" s="5"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="32"/>
-      <c r="Z45" s="32"/>
-      <c r="AA45" s="32"/>
-      <c r="AB45" s="32"/>
-      <c r="AC45" s="32"/>
-      <c r="AD45" s="32"/>
-      <c r="AE45" s="32"/>
-      <c r="AF45" s="32"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="33"/>
+      <c r="AA45" s="33"/>
+      <c r="AB45" s="33"/>
+      <c r="AC45" s="33"/>
+      <c r="AD45" s="33"/>
+      <c r="AE45" s="33"/>
+      <c r="AF45" s="38"/>
     </row>
     <row r="46" spans="1:32">
-      <c r="A46" s="5"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="32"/>
-      <c r="Z46" s="32"/>
-      <c r="AA46" s="32"/>
-      <c r="AB46" s="32"/>
-      <c r="AC46" s="32"/>
-      <c r="AD46" s="32"/>
-      <c r="AE46" s="32"/>
-      <c r="AF46" s="32"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="33"/>
+      <c r="AB46" s="33"/>
+      <c r="AC46" s="33"/>
+      <c r="AD46" s="33"/>
+      <c r="AE46" s="33"/>
+      <c r="AF46" s="38"/>
     </row>
     <row r="47" spans="1:32">
-      <c r="A47" s="5"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="32"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="32"/>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33"/>
+      <c r="AA47" s="33"/>
+      <c r="AB47" s="33"/>
+      <c r="AC47" s="33"/>
+      <c r="AD47" s="33"/>
+      <c r="AE47" s="33"/>
+      <c r="AF47" s="38"/>
     </row>
     <row r="48" spans="1:32">
-      <c r="A48" s="5"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="32"/>
-      <c r="Y48" s="32"/>
-      <c r="Z48" s="32"/>
-      <c r="AA48" s="32"/>
-      <c r="AB48" s="32"/>
-      <c r="AC48" s="32"/>
-      <c r="AD48" s="32"/>
-      <c r="AE48" s="32"/>
-      <c r="AF48" s="32"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="33"/>
+      <c r="Y48" s="33"/>
+      <c r="Z48" s="33"/>
+      <c r="AA48" s="33"/>
+      <c r="AB48" s="33"/>
+      <c r="AC48" s="33"/>
+      <c r="AD48" s="33"/>
+      <c r="AE48" s="33"/>
+      <c r="AF48" s="38"/>
     </row>
     <row r="49" spans="1:32">
-      <c r="A49" s="5"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="32"/>
-      <c r="Z49" s="32"/>
-      <c r="AA49" s="32"/>
-      <c r="AB49" s="32"/>
-      <c r="AC49" s="32"/>
-      <c r="AD49" s="32"/>
-      <c r="AE49" s="32"/>
-      <c r="AF49" s="32"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="33"/>
+      <c r="AE49" s="33"/>
+      <c r="AF49" s="38"/>
     </row>
     <row r="50" spans="1:32">
-      <c r="A50" s="5"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="32"/>
-      <c r="AA50" s="32"/>
-      <c r="AB50" s="32"/>
-      <c r="AC50" s="32"/>
-      <c r="AD50" s="32"/>
-      <c r="AE50" s="32"/>
-      <c r="AF50" s="32"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="33"/>
+      <c r="AB50" s="33"/>
+      <c r="AC50" s="33"/>
+      <c r="AD50" s="33"/>
+      <c r="AE50" s="33"/>
+      <c r="AF50" s="38"/>
     </row>
     <row r="51" spans="1:32">
-      <c r="A51" s="5"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="32"/>
-      <c r="AA51" s="32"/>
-      <c r="AB51" s="32"/>
-      <c r="AC51" s="32"/>
-      <c r="AD51" s="32"/>
-      <c r="AE51" s="32"/>
-      <c r="AF51" s="32"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="33"/>
+      <c r="AB51" s="33"/>
+      <c r="AC51" s="33"/>
+      <c r="AD51" s="33"/>
+      <c r="AE51" s="33"/>
+      <c r="AF51" s="38"/>
     </row>
     <row r="52" spans="1:32">
-      <c r="A52" s="5"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="32"/>
-      <c r="Y52" s="32"/>
-      <c r="Z52" s="32"/>
-      <c r="AA52" s="32"/>
-      <c r="AB52" s="32"/>
-      <c r="AC52" s="32"/>
-      <c r="AD52" s="32"/>
-      <c r="AE52" s="32"/>
-      <c r="AF52" s="32"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="33"/>
+      <c r="AC52" s="33"/>
+      <c r="AD52" s="33"/>
+      <c r="AE52" s="33"/>
+      <c r="AF52" s="38"/>
     </row>
     <row r="53" spans="1:32">
-      <c r="A53" s="5"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="32"/>
-      <c r="Z53" s="32"/>
-      <c r="AA53" s="32"/>
-      <c r="AB53" s="32"/>
-      <c r="AC53" s="32"/>
-      <c r="AD53" s="32"/>
-      <c r="AE53" s="32"/>
-      <c r="AF53" s="32"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="33"/>
+      <c r="AC53" s="33"/>
+      <c r="AD53" s="33"/>
+      <c r="AE53" s="33"/>
+      <c r="AF53" s="38"/>
     </row>
     <row r="54" spans="1:32">
-      <c r="A54" s="5"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="32"/>
-      <c r="Y54" s="32"/>
-      <c r="Z54" s="32"/>
-      <c r="AA54" s="32"/>
-      <c r="AB54" s="32"/>
-      <c r="AC54" s="32"/>
-      <c r="AD54" s="32"/>
-      <c r="AE54" s="32"/>
-      <c r="AF54" s="32"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="33"/>
+      <c r="AB54" s="33"/>
+      <c r="AC54" s="33"/>
+      <c r="AD54" s="33"/>
+      <c r="AE54" s="33"/>
+      <c r="AF54" s="38"/>
     </row>
     <row r="55" spans="1:32">
-      <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="32"/>
-      <c r="Y55" s="32"/>
-      <c r="Z55" s="32"/>
-      <c r="AA55" s="32"/>
-      <c r="AB55" s="32"/>
-      <c r="AC55" s="32"/>
-      <c r="AD55" s="32"/>
-      <c r="AE55" s="32"/>
-      <c r="AF55" s="32"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="33"/>
+      <c r="AC55" s="33"/>
+      <c r="AD55" s="33"/>
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="38"/>
     </row>
     <row r="56" spans="1:32">
-      <c r="A56" s="5"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="32"/>
-      <c r="Y56" s="32"/>
-      <c r="Z56" s="32"/>
-      <c r="AA56" s="32"/>
-      <c r="AB56" s="32"/>
-      <c r="AC56" s="32"/>
-      <c r="AD56" s="32"/>
-      <c r="AE56" s="32"/>
-      <c r="AF56" s="32"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="33"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="33"/>
+      <c r="AB56" s="33"/>
+      <c r="AC56" s="33"/>
+      <c r="AD56" s="33"/>
+      <c r="AE56" s="33"/>
+      <c r="AF56" s="38"/>
     </row>
     <row r="57" spans="1:32">
-      <c r="A57" s="5"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="32"/>
-      <c r="Y57" s="32"/>
-      <c r="Z57" s="32"/>
-      <c r="AA57" s="32"/>
-      <c r="AB57" s="32"/>
-      <c r="AC57" s="32"/>
-      <c r="AD57" s="32"/>
-      <c r="AE57" s="32"/>
-      <c r="AF57" s="32"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="33"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="33"/>
+      <c r="AB57" s="33"/>
+      <c r="AC57" s="33"/>
+      <c r="AD57" s="33"/>
+      <c r="AE57" s="33"/>
+      <c r="AF57" s="38"/>
     </row>
     <row r="58" spans="1:32">
-      <c r="A58" s="5"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="32"/>
-      <c r="Y58" s="32"/>
-      <c r="Z58" s="32"/>
-      <c r="AA58" s="32"/>
-      <c r="AB58" s="32"/>
-      <c r="AC58" s="32"/>
-      <c r="AD58" s="32"/>
-      <c r="AE58" s="32"/>
-      <c r="AF58" s="32"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
+      <c r="AC58" s="33"/>
+      <c r="AD58" s="33"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="38"/>
     </row>
     <row r="59" spans="1:32">
-      <c r="A59" s="5"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="32"/>
-      <c r="Y59" s="32"/>
-      <c r="Z59" s="32"/>
-      <c r="AA59" s="32"/>
-      <c r="AB59" s="32"/>
-      <c r="AC59" s="32"/>
-      <c r="AD59" s="32"/>
-      <c r="AE59" s="32"/>
-      <c r="AF59" s="32"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="33"/>
+      <c r="AC59" s="33"/>
+      <c r="AD59" s="33"/>
+      <c r="AE59" s="33"/>
+      <c r="AF59" s="38"/>
     </row>
     <row r="60" spans="1:32">
-      <c r="A60" s="5"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="32"/>
-      <c r="Y60" s="32"/>
-      <c r="Z60" s="32"/>
-      <c r="AA60" s="32"/>
-      <c r="AB60" s="32"/>
-      <c r="AC60" s="32"/>
-      <c r="AD60" s="32"/>
-      <c r="AE60" s="32"/>
-      <c r="AF60" s="32"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="33"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="33"/>
+      <c r="AB60" s="33"/>
+      <c r="AC60" s="33"/>
+      <c r="AD60" s="33"/>
+      <c r="AE60" s="33"/>
+      <c r="AF60" s="38"/>
     </row>
     <row r="61" spans="1:32">
-      <c r="A61" s="5"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="32"/>
-      <c r="Y61" s="32"/>
-      <c r="Z61" s="32"/>
-      <c r="AA61" s="32"/>
-      <c r="AB61" s="32"/>
-      <c r="AC61" s="32"/>
-      <c r="AD61" s="32"/>
-      <c r="AE61" s="32"/>
-      <c r="AF61" s="32"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="33"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="33"/>
+      <c r="AC61" s="33"/>
+      <c r="AD61" s="33"/>
+      <c r="AE61" s="33"/>
+      <c r="AF61" s="38"/>
     </row>
     <row r="62" spans="1:32">
-      <c r="A62" s="5"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="7"/>
-      <c r="X62" s="32"/>
-      <c r="Y62" s="32"/>
-      <c r="Z62" s="32"/>
-      <c r="AA62" s="32"/>
-      <c r="AB62" s="32"/>
-      <c r="AC62" s="32"/>
-      <c r="AD62" s="32"/>
-      <c r="AE62" s="32"/>
-      <c r="AF62" s="32"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="33"/>
+      <c r="Y62" s="33"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="33"/>
+      <c r="AC62" s="33"/>
+      <c r="AD62" s="33"/>
+      <c r="AE62" s="33"/>
+      <c r="AF62" s="38"/>
     </row>
     <row r="63" spans="1:32">
-      <c r="A63" s="5"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="7"/>
-      <c r="X63" s="32"/>
-      <c r="Y63" s="32"/>
-      <c r="Z63" s="32"/>
-      <c r="AA63" s="32"/>
-      <c r="AB63" s="32"/>
-      <c r="AC63" s="32"/>
-      <c r="AD63" s="32"/>
-      <c r="AE63" s="32"/>
-      <c r="AF63" s="32"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="33"/>
+      <c r="Y63" s="33"/>
+      <c r="Z63" s="33"/>
+      <c r="AA63" s="33"/>
+      <c r="AB63" s="33"/>
+      <c r="AC63" s="33"/>
+      <c r="AD63" s="33"/>
+      <c r="AE63" s="33"/>
+      <c r="AF63" s="38"/>
     </row>
     <row r="64" spans="1:32">
-      <c r="A64" s="5"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="7"/>
-      <c r="X64" s="32"/>
-      <c r="Y64" s="32"/>
-      <c r="Z64" s="32"/>
-      <c r="AA64" s="32"/>
-      <c r="AB64" s="32"/>
-      <c r="AC64" s="32"/>
-      <c r="AD64" s="32"/>
-      <c r="AE64" s="32"/>
-      <c r="AF64" s="32"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="33"/>
+      <c r="Y64" s="33"/>
+      <c r="Z64" s="33"/>
+      <c r="AA64" s="33"/>
+      <c r="AB64" s="33"/>
+      <c r="AC64" s="33"/>
+      <c r="AD64" s="33"/>
+      <c r="AE64" s="33"/>
+      <c r="AF64" s="38"/>
     </row>
     <row r="65" spans="1:32">
-      <c r="A65" s="5"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
-      <c r="X65" s="32"/>
-      <c r="Y65" s="32"/>
-      <c r="Z65" s="32"/>
-      <c r="AA65" s="32"/>
-      <c r="AB65" s="32"/>
-      <c r="AC65" s="32"/>
-      <c r="AD65" s="32"/>
-      <c r="AE65" s="32"/>
-      <c r="AF65" s="32"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="33"/>
+      <c r="AC65" s="33"/>
+      <c r="AD65" s="33"/>
+      <c r="AE65" s="33"/>
+      <c r="AF65" s="38"/>
     </row>
     <row r="66" spans="1:32">
-      <c r="A66" s="5"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="32"/>
-      <c r="Y66" s="32"/>
-      <c r="Z66" s="32"/>
-      <c r="AA66" s="32"/>
-      <c r="AB66" s="32"/>
-      <c r="AC66" s="32"/>
-      <c r="AD66" s="32"/>
-      <c r="AE66" s="32"/>
-      <c r="AF66" s="32"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="33"/>
+      <c r="AA66" s="33"/>
+      <c r="AB66" s="33"/>
+      <c r="AC66" s="33"/>
+      <c r="AD66" s="33"/>
+      <c r="AE66" s="33"/>
+      <c r="AF66" s="38"/>
     </row>
     <row r="67" spans="1:32">
-      <c r="A67" s="5"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="32"/>
-      <c r="Y67" s="32"/>
-      <c r="Z67" s="32"/>
-      <c r="AA67" s="32"/>
-      <c r="AB67" s="32"/>
-      <c r="AC67" s="32"/>
-      <c r="AD67" s="32"/>
-      <c r="AE67" s="32"/>
-      <c r="AF67" s="32"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="33"/>
+      <c r="Y67" s="33"/>
+      <c r="Z67" s="33"/>
+      <c r="AA67" s="33"/>
+      <c r="AB67" s="33"/>
+      <c r="AC67" s="33"/>
+      <c r="AD67" s="33"/>
+      <c r="AE67" s="33"/>
+      <c r="AF67" s="38"/>
     </row>
     <row r="68" spans="1:32">
-      <c r="A68" s="5"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="32"/>
-      <c r="Y68" s="32"/>
-      <c r="Z68" s="32"/>
-      <c r="AA68" s="32"/>
-      <c r="AB68" s="32"/>
-      <c r="AC68" s="32"/>
-      <c r="AD68" s="32"/>
-      <c r="AE68" s="32"/>
-      <c r="AF68" s="32"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="33"/>
+      <c r="Y68" s="33"/>
+      <c r="Z68" s="33"/>
+      <c r="AA68" s="33"/>
+      <c r="AB68" s="33"/>
+      <c r="AC68" s="33"/>
+      <c r="AD68" s="33"/>
+      <c r="AE68" s="33"/>
+      <c r="AF68" s="38"/>
     </row>
     <row r="69" spans="1:32">
-      <c r="A69" s="5"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
-      <c r="X69" s="32"/>
-      <c r="Y69" s="32"/>
-      <c r="Z69" s="32"/>
-      <c r="AA69" s="32"/>
-      <c r="AB69" s="32"/>
-      <c r="AC69" s="32"/>
-      <c r="AD69" s="32"/>
-      <c r="AE69" s="32"/>
-      <c r="AF69" s="32"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="33"/>
+      <c r="AA69" s="33"/>
+      <c r="AB69" s="33"/>
+      <c r="AC69" s="33"/>
+      <c r="AD69" s="33"/>
+      <c r="AE69" s="33"/>
+      <c r="AF69" s="38"/>
     </row>
     <row r="70" spans="1:32">
-      <c r="A70" s="5"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7"/>
-      <c r="T70" s="7"/>
-      <c r="U70" s="7"/>
-      <c r="V70" s="7"/>
-      <c r="W70" s="7"/>
-      <c r="X70" s="32"/>
-      <c r="Y70" s="32"/>
-      <c r="Z70" s="32"/>
-      <c r="AA70" s="32"/>
-      <c r="AB70" s="32"/>
-      <c r="AC70" s="32"/>
-      <c r="AD70" s="32"/>
-      <c r="AE70" s="32"/>
-      <c r="AF70" s="32"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="33"/>
+      <c r="Y70" s="33"/>
+      <c r="Z70" s="33"/>
+      <c r="AA70" s="33"/>
+      <c r="AB70" s="33"/>
+      <c r="AC70" s="33"/>
+      <c r="AD70" s="33"/>
+      <c r="AE70" s="33"/>
+      <c r="AF70" s="38"/>
     </row>
     <row r="71" spans="1:32">
-      <c r="A71" s="5"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="7"/>
-      <c r="U71" s="7"/>
-      <c r="V71" s="7"/>
-      <c r="W71" s="7"/>
-      <c r="X71" s="32"/>
-      <c r="Y71" s="32"/>
-      <c r="Z71" s="32"/>
-      <c r="AA71" s="32"/>
-      <c r="AB71" s="32"/>
-      <c r="AC71" s="32"/>
-      <c r="AD71" s="32"/>
-      <c r="AE71" s="32"/>
-      <c r="AF71" s="32"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="33"/>
+      <c r="Y71" s="33"/>
+      <c r="Z71" s="33"/>
+      <c r="AA71" s="33"/>
+      <c r="AB71" s="33"/>
+      <c r="AC71" s="33"/>
+      <c r="AD71" s="33"/>
+      <c r="AE71" s="33"/>
+      <c r="AF71" s="38"/>
     </row>
     <row r="72" spans="1:32">
-      <c r="A72" s="5"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="7"/>
-      <c r="W72" s="7"/>
-      <c r="X72" s="32"/>
-      <c r="Y72" s="32"/>
-      <c r="Z72" s="32"/>
-      <c r="AA72" s="32"/>
-      <c r="AB72" s="32"/>
-      <c r="AC72" s="32"/>
-      <c r="AD72" s="32"/>
-      <c r="AE72" s="32"/>
-      <c r="AF72" s="32"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="33"/>
+      <c r="Y72" s="33"/>
+      <c r="Z72" s="33"/>
+      <c r="AA72" s="33"/>
+      <c r="AB72" s="33"/>
+      <c r="AC72" s="33"/>
+      <c r="AD72" s="33"/>
+      <c r="AE72" s="33"/>
+      <c r="AF72" s="38"/>
     </row>
     <row r="73" spans="1:32">
-      <c r="A73" s="5"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="7"/>
-      <c r="X73" s="32"/>
-      <c r="Y73" s="32"/>
-      <c r="Z73" s="32"/>
-      <c r="AA73" s="32"/>
-      <c r="AB73" s="32"/>
-      <c r="AC73" s="32"/>
-      <c r="AD73" s="32"/>
-      <c r="AE73" s="32"/>
-      <c r="AF73" s="32"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="33"/>
+      <c r="Y73" s="33"/>
+      <c r="Z73" s="33"/>
+      <c r="AA73" s="33"/>
+      <c r="AB73" s="33"/>
+      <c r="AC73" s="33"/>
+      <c r="AD73" s="33"/>
+      <c r="AE73" s="33"/>
+      <c r="AF73" s="38"/>
     </row>
     <row r="74" spans="1:32">
-      <c r="A74" s="5"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
-      <c r="W74" s="7"/>
-      <c r="X74" s="32"/>
-      <c r="Y74" s="32"/>
-      <c r="Z74" s="32"/>
-      <c r="AA74" s="32"/>
-      <c r="AB74" s="32"/>
-      <c r="AC74" s="32"/>
-      <c r="AD74" s="32"/>
-      <c r="AE74" s="32"/>
-      <c r="AF74" s="32"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="33"/>
+      <c r="Y74" s="33"/>
+      <c r="Z74" s="33"/>
+      <c r="AA74" s="33"/>
+      <c r="AB74" s="33"/>
+      <c r="AC74" s="33"/>
+      <c r="AD74" s="33"/>
+      <c r="AE74" s="33"/>
+      <c r="AF74" s="38"/>
     </row>
     <row r="75" spans="1:32">
-      <c r="A75" s="5"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="7"/>
-      <c r="W75" s="7"/>
-      <c r="X75" s="32"/>
-      <c r="Y75" s="32"/>
-      <c r="Z75" s="32"/>
-      <c r="AA75" s="32"/>
-      <c r="AB75" s="32"/>
-      <c r="AC75" s="32"/>
-      <c r="AD75" s="32"/>
-      <c r="AE75" s="32"/>
-      <c r="AF75" s="32"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="33"/>
+      <c r="Y75" s="33"/>
+      <c r="Z75" s="33"/>
+      <c r="AA75" s="33"/>
+      <c r="AB75" s="33"/>
+      <c r="AC75" s="33"/>
+      <c r="AD75" s="33"/>
+      <c r="AE75" s="33"/>
+      <c r="AF75" s="38"/>
     </row>
     <row r="76" spans="1:32">
-      <c r="A76" s="5"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="7"/>
-      <c r="U76" s="7"/>
-      <c r="V76" s="7"/>
-      <c r="W76" s="7"/>
-      <c r="X76" s="32"/>
-      <c r="Y76" s="32"/>
-      <c r="Z76" s="32"/>
-      <c r="AA76" s="32"/>
-      <c r="AB76" s="32"/>
-      <c r="AC76" s="32"/>
-      <c r="AD76" s="32"/>
-      <c r="AE76" s="32"/>
-      <c r="AF76" s="32"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="33"/>
+      <c r="Y76" s="33"/>
+      <c r="Z76" s="33"/>
+      <c r="AA76" s="33"/>
+      <c r="AB76" s="33"/>
+      <c r="AC76" s="33"/>
+      <c r="AD76" s="33"/>
+      <c r="AE76" s="33"/>
+      <c r="AF76" s="38"/>
     </row>
     <row r="77" spans="1:32">
-      <c r="A77" s="5"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
-      <c r="V77" s="7"/>
-      <c r="W77" s="7"/>
-      <c r="X77" s="32"/>
-      <c r="Y77" s="32"/>
-      <c r="Z77" s="32"/>
-      <c r="AA77" s="32"/>
-      <c r="AB77" s="32"/>
-      <c r="AC77" s="32"/>
-      <c r="AD77" s="32"/>
-      <c r="AE77" s="32"/>
-      <c r="AF77" s="32"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="33"/>
+      <c r="Y77" s="33"/>
+      <c r="Z77" s="33"/>
+      <c r="AA77" s="33"/>
+      <c r="AB77" s="33"/>
+      <c r="AC77" s="33"/>
+      <c r="AD77" s="33"/>
+      <c r="AE77" s="33"/>
+      <c r="AF77" s="38"/>
     </row>
     <row r="78" spans="1:32">
-      <c r="A78" s="5"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="7"/>
-      <c r="U78" s="7"/>
-      <c r="V78" s="7"/>
-      <c r="W78" s="7"/>
-      <c r="X78" s="32"/>
-      <c r="Y78" s="32"/>
-      <c r="Z78" s="32"/>
-      <c r="AA78" s="32"/>
-      <c r="AB78" s="32"/>
-      <c r="AC78" s="32"/>
-      <c r="AD78" s="32"/>
-      <c r="AE78" s="32"/>
-      <c r="AF78" s="32"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="33"/>
+      <c r="Y78" s="33"/>
+      <c r="Z78" s="33"/>
+      <c r="AA78" s="33"/>
+      <c r="AB78" s="33"/>
+      <c r="AC78" s="33"/>
+      <c r="AD78" s="33"/>
+      <c r="AE78" s="33"/>
+      <c r="AF78" s="38"/>
     </row>
     <row r="79" spans="1:32">
-      <c r="A79" s="5"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7"/>
-      <c r="U79" s="7"/>
-      <c r="V79" s="7"/>
-      <c r="W79" s="7"/>
-      <c r="X79" s="32"/>
-      <c r="Y79" s="32"/>
-      <c r="Z79" s="32"/>
-      <c r="AA79" s="32"/>
-      <c r="AB79" s="32"/>
-      <c r="AC79" s="32"/>
-      <c r="AD79" s="32"/>
-      <c r="AE79" s="32"/>
-      <c r="AF79" s="32"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="33"/>
+      <c r="Y79" s="33"/>
+      <c r="Z79" s="33"/>
+      <c r="AA79" s="33"/>
+      <c r="AB79" s="33"/>
+      <c r="AC79" s="33"/>
+      <c r="AD79" s="33"/>
+      <c r="AE79" s="33"/>
+      <c r="AF79" s="38"/>
     </row>
     <row r="80" spans="1:32">
-      <c r="A80" s="5"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="7"/>
-      <c r="W80" s="7"/>
-      <c r="X80" s="32"/>
-      <c r="Y80" s="32"/>
-      <c r="Z80" s="32"/>
-      <c r="AA80" s="32"/>
-      <c r="AB80" s="32"/>
-      <c r="AC80" s="32"/>
-      <c r="AD80" s="32"/>
-      <c r="AE80" s="32"/>
-      <c r="AF80" s="32"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="33"/>
+      <c r="Y80" s="33"/>
+      <c r="Z80" s="33"/>
+      <c r="AA80" s="33"/>
+      <c r="AB80" s="33"/>
+      <c r="AC80" s="33"/>
+      <c r="AD80" s="33"/>
+      <c r="AE80" s="33"/>
+      <c r="AF80" s="38"/>
     </row>
     <row r="81" spans="1:32">
-      <c r="A81" s="5"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7"/>
-      <c r="U81" s="7"/>
-      <c r="V81" s="7"/>
-      <c r="W81" s="7"/>
-      <c r="X81" s="32"/>
-      <c r="Y81" s="32"/>
-      <c r="Z81" s="32"/>
-      <c r="AA81" s="32"/>
-      <c r="AB81" s="32"/>
-      <c r="AC81" s="32"/>
-      <c r="AD81" s="32"/>
-      <c r="AE81" s="32"/>
-      <c r="AF81" s="32"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="33"/>
+      <c r="Y81" s="33"/>
+      <c r="Z81" s="33"/>
+      <c r="AA81" s="33"/>
+      <c r="AB81" s="33"/>
+      <c r="AC81" s="33"/>
+      <c r="AD81" s="33"/>
+      <c r="AE81" s="33"/>
+      <c r="AF81" s="38"/>
     </row>
     <row r="82" spans="1:32">
-      <c r="A82" s="5"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="7"/>
-      <c r="V82" s="7"/>
-      <c r="W82" s="7"/>
-      <c r="X82" s="32"/>
-      <c r="Y82" s="32"/>
-      <c r="Z82" s="32"/>
-      <c r="AA82" s="32"/>
-      <c r="AB82" s="32"/>
-      <c r="AC82" s="32"/>
-      <c r="AD82" s="32"/>
-      <c r="AE82" s="32"/>
-      <c r="AF82" s="32"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="8"/>
+      <c r="X82" s="33"/>
+      <c r="Y82" s="33"/>
+      <c r="Z82" s="33"/>
+      <c r="AA82" s="33"/>
+      <c r="AB82" s="33"/>
+      <c r="AC82" s="33"/>
+      <c r="AD82" s="33"/>
+      <c r="AE82" s="33"/>
+      <c r="AF82" s="38"/>
     </row>
     <row r="83" spans="1:32">
-      <c r="A83" s="5"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7"/>
-      <c r="U83" s="7"/>
-      <c r="V83" s="7"/>
-      <c r="W83" s="7"/>
-      <c r="X83" s="32"/>
-      <c r="Y83" s="32"/>
-      <c r="Z83" s="32"/>
-      <c r="AA83" s="32"/>
-      <c r="AB83" s="32"/>
-      <c r="AC83" s="32"/>
-      <c r="AD83" s="32"/>
-      <c r="AE83" s="32"/>
-      <c r="AF83" s="32"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="8"/>
+      <c r="W83" s="8"/>
+      <c r="X83" s="33"/>
+      <c r="Y83" s="33"/>
+      <c r="Z83" s="33"/>
+      <c r="AA83" s="33"/>
+      <c r="AB83" s="33"/>
+      <c r="AC83" s="33"/>
+      <c r="AD83" s="33"/>
+      <c r="AE83" s="33"/>
+      <c r="AF83" s="38"/>
     </row>
     <row r="84" spans="1:32">
-      <c r="A84" s="5"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
-      <c r="W84" s="7"/>
-      <c r="X84" s="32"/>
-      <c r="Y84" s="32"/>
-      <c r="Z84" s="32"/>
-      <c r="AA84" s="32"/>
-      <c r="AB84" s="32"/>
-      <c r="AC84" s="32"/>
-      <c r="AD84" s="32"/>
-      <c r="AE84" s="32"/>
-      <c r="AF84" s="32"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="8"/>
+      <c r="W84" s="8"/>
+      <c r="X84" s="33"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="33"/>
+      <c r="AA84" s="33"/>
+      <c r="AB84" s="33"/>
+      <c r="AC84" s="33"/>
+      <c r="AD84" s="33"/>
+      <c r="AE84" s="33"/>
+      <c r="AF84" s="38"/>
     </row>
     <row r="85" spans="1:32">
-      <c r="A85" s="5"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="7"/>
-      <c r="V85" s="7"/>
-      <c r="W85" s="7"/>
-      <c r="X85" s="32"/>
-      <c r="Y85" s="32"/>
-      <c r="Z85" s="32"/>
-      <c r="AA85" s="32"/>
-      <c r="AB85" s="32"/>
-      <c r="AC85" s="32"/>
-      <c r="AD85" s="32"/>
-      <c r="AE85" s="32"/>
-      <c r="AF85" s="32"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="8"/>
+      <c r="X85" s="33"/>
+      <c r="Y85" s="33"/>
+      <c r="Z85" s="33"/>
+      <c r="AA85" s="33"/>
+      <c r="AB85" s="33"/>
+      <c r="AC85" s="33"/>
+      <c r="AD85" s="33"/>
+      <c r="AE85" s="33"/>
+      <c r="AF85" s="38"/>
     </row>
     <row r="86" spans="1:32">
-      <c r="A86" s="5"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
-      <c r="W86" s="7"/>
-      <c r="X86" s="32"/>
-      <c r="Y86" s="32"/>
-      <c r="Z86" s="32"/>
-      <c r="AA86" s="32"/>
-      <c r="AB86" s="32"/>
-      <c r="AC86" s="32"/>
-      <c r="AD86" s="32"/>
-      <c r="AE86" s="32"/>
-      <c r="AF86" s="32"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
+      <c r="W86" s="8"/>
+      <c r="X86" s="33"/>
+      <c r="Y86" s="33"/>
+      <c r="Z86" s="33"/>
+      <c r="AA86" s="33"/>
+      <c r="AB86" s="33"/>
+      <c r="AC86" s="33"/>
+      <c r="AD86" s="33"/>
+      <c r="AE86" s="33"/>
+      <c r="AF86" s="38"/>
     </row>
     <row r="87" spans="1:32">
-      <c r="A87" s="5"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="7"/>
-      <c r="U87" s="7"/>
-      <c r="V87" s="7"/>
-      <c r="W87" s="7"/>
-      <c r="X87" s="32"/>
-      <c r="Y87" s="32"/>
-      <c r="Z87" s="32"/>
-      <c r="AA87" s="32"/>
-      <c r="AB87" s="32"/>
-      <c r="AC87" s="32"/>
-      <c r="AD87" s="32"/>
-      <c r="AE87" s="32"/>
-      <c r="AF87" s="32"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="8"/>
+      <c r="X87" s="33"/>
+      <c r="Y87" s="33"/>
+      <c r="Z87" s="33"/>
+      <c r="AA87" s="33"/>
+      <c r="AB87" s="33"/>
+      <c r="AC87" s="33"/>
+      <c r="AD87" s="33"/>
+      <c r="AE87" s="33"/>
+      <c r="AF87" s="38"/>
     </row>
     <row r="88" spans="1:32">
-      <c r="A88" s="5"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="7"/>
-      <c r="V88" s="7"/>
-      <c r="W88" s="7"/>
-      <c r="X88" s="32"/>
-      <c r="Y88" s="32"/>
-      <c r="Z88" s="32"/>
-      <c r="AA88" s="32"/>
-      <c r="AB88" s="32"/>
-      <c r="AC88" s="32"/>
-      <c r="AD88" s="32"/>
-      <c r="AE88" s="32"/>
-      <c r="AF88" s="32"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="8"/>
+      <c r="X88" s="33"/>
+      <c r="Y88" s="33"/>
+      <c r="Z88" s="33"/>
+      <c r="AA88" s="33"/>
+      <c r="AB88" s="33"/>
+      <c r="AC88" s="33"/>
+      <c r="AD88" s="33"/>
+      <c r="AE88" s="33"/>
+      <c r="AF88" s="38"/>
     </row>
     <row r="89" spans="1:32">
-      <c r="A89" s="5"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="7"/>
-      <c r="V89" s="7"/>
-      <c r="W89" s="7"/>
-      <c r="X89" s="32"/>
-      <c r="Y89" s="32"/>
-      <c r="Z89" s="32"/>
-      <c r="AA89" s="32"/>
-      <c r="AB89" s="32"/>
-      <c r="AC89" s="32"/>
-      <c r="AD89" s="32"/>
-      <c r="AE89" s="32"/>
-      <c r="AF89" s="32"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="33"/>
+      <c r="Y89" s="33"/>
+      <c r="Z89" s="33"/>
+      <c r="AA89" s="33"/>
+      <c r="AB89" s="33"/>
+      <c r="AC89" s="33"/>
+      <c r="AD89" s="33"/>
+      <c r="AE89" s="33"/>
+      <c r="AF89" s="38"/>
     </row>
     <row r="90" spans="1:32">
-      <c r="A90" s="5"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="7"/>
-      <c r="T90" s="7"/>
-      <c r="U90" s="7"/>
-      <c r="V90" s="7"/>
-      <c r="W90" s="7"/>
-      <c r="X90" s="32"/>
-      <c r="Y90" s="32"/>
-      <c r="Z90" s="32"/>
-      <c r="AA90" s="32"/>
-      <c r="AB90" s="32"/>
-      <c r="AC90" s="32"/>
-      <c r="AD90" s="32"/>
-      <c r="AE90" s="32"/>
-      <c r="AF90" s="32"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="33"/>
+      <c r="Y90" s="33"/>
+      <c r="Z90" s="33"/>
+      <c r="AA90" s="33"/>
+      <c r="AB90" s="33"/>
+      <c r="AC90" s="33"/>
+      <c r="AD90" s="33"/>
+      <c r="AE90" s="33"/>
+      <c r="AF90" s="38"/>
     </row>
     <row r="91" spans="1:32">
-      <c r="A91" s="5"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="7"/>
-      <c r="U91" s="7"/>
-      <c r="V91" s="7"/>
-      <c r="W91" s="7"/>
-      <c r="X91" s="32"/>
-      <c r="Y91" s="32"/>
-      <c r="Z91" s="32"/>
-      <c r="AA91" s="32"/>
-      <c r="AB91" s="32"/>
-      <c r="AC91" s="32"/>
-      <c r="AD91" s="32"/>
-      <c r="AE91" s="32"/>
-      <c r="AF91" s="32"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="8"/>
+      <c r="W91" s="8"/>
+      <c r="X91" s="33"/>
+      <c r="Y91" s="33"/>
+      <c r="Z91" s="33"/>
+      <c r="AA91" s="33"/>
+      <c r="AB91" s="33"/>
+      <c r="AC91" s="33"/>
+      <c r="AD91" s="33"/>
+      <c r="AE91" s="33"/>
+      <c r="AF91" s="38"/>
     </row>
     <row r="92" spans="1:32">
-      <c r="A92" s="5"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="32"/>
-      <c r="Y92" s="32"/>
-      <c r="Z92" s="32"/>
-      <c r="AA92" s="32"/>
-      <c r="AB92" s="32"/>
-      <c r="AC92" s="32"/>
-      <c r="AD92" s="32"/>
-      <c r="AE92" s="32"/>
-      <c r="AF92" s="32"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="8"/>
+      <c r="X92" s="33"/>
+      <c r="Y92" s="33"/>
+      <c r="Z92" s="33"/>
+      <c r="AA92" s="33"/>
+      <c r="AB92" s="33"/>
+      <c r="AC92" s="33"/>
+      <c r="AD92" s="33"/>
+      <c r="AE92" s="33"/>
+      <c r="AF92" s="38"/>
     </row>
     <row r="93" spans="1:32">
-      <c r="A93" s="5"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="32"/>
-      <c r="Y93" s="32"/>
-      <c r="Z93" s="32"/>
-      <c r="AA93" s="32"/>
-      <c r="AB93" s="32"/>
-      <c r="AC93" s="32"/>
-      <c r="AD93" s="32"/>
-      <c r="AE93" s="32"/>
-      <c r="AF93" s="32"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
+      <c r="W93" s="8"/>
+      <c r="X93" s="33"/>
+      <c r="Y93" s="33"/>
+      <c r="Z93" s="33"/>
+      <c r="AA93" s="33"/>
+      <c r="AB93" s="33"/>
+      <c r="AC93" s="33"/>
+      <c r="AD93" s="33"/>
+      <c r="AE93" s="33"/>
+      <c r="AF93" s="38"/>
     </row>
     <row r="94" spans="1:32">
-      <c r="A94" s="5"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="32"/>
-      <c r="Y94" s="32"/>
-      <c r="Z94" s="32"/>
-      <c r="AA94" s="32"/>
-      <c r="AB94" s="32"/>
-      <c r="AC94" s="32"/>
-      <c r="AD94" s="32"/>
-      <c r="AE94" s="32"/>
-      <c r="AF94" s="32"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="8"/>
+      <c r="V94" s="8"/>
+      <c r="W94" s="8"/>
+      <c r="X94" s="33"/>
+      <c r="Y94" s="33"/>
+      <c r="Z94" s="33"/>
+      <c r="AA94" s="33"/>
+      <c r="AB94" s="33"/>
+      <c r="AC94" s="33"/>
+      <c r="AD94" s="33"/>
+      <c r="AE94" s="33"/>
+      <c r="AF94" s="38"/>
     </row>
     <row r="95" spans="1:32">
-      <c r="A95" s="5"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="32"/>
-      <c r="Y95" s="32"/>
-      <c r="Z95" s="32"/>
-      <c r="AA95" s="32"/>
-      <c r="AB95" s="32"/>
-      <c r="AC95" s="32"/>
-      <c r="AD95" s="32"/>
-      <c r="AE95" s="32"/>
-      <c r="AF95" s="32"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="8"/>
+      <c r="W95" s="8"/>
+      <c r="X95" s="33"/>
+      <c r="Y95" s="33"/>
+      <c r="Z95" s="33"/>
+      <c r="AA95" s="33"/>
+      <c r="AB95" s="33"/>
+      <c r="AC95" s="33"/>
+      <c r="AD95" s="33"/>
+      <c r="AE95" s="33"/>
+      <c r="AF95" s="38"/>
     </row>
     <row r="96" spans="1:32">
-      <c r="A96" s="5"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
-      <c r="W96" s="7"/>
-      <c r="X96" s="32"/>
-      <c r="Y96" s="32"/>
-      <c r="Z96" s="32"/>
-      <c r="AA96" s="32"/>
-      <c r="AB96" s="32"/>
-      <c r="AC96" s="32"/>
-      <c r="AD96" s="32"/>
-      <c r="AE96" s="32"/>
-      <c r="AF96" s="32"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="8"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="8"/>
+      <c r="X96" s="33"/>
+      <c r="Y96" s="33"/>
+      <c r="Z96" s="33"/>
+      <c r="AA96" s="33"/>
+      <c r="AB96" s="33"/>
+      <c r="AC96" s="33"/>
+      <c r="AD96" s="33"/>
+      <c r="AE96" s="33"/>
+      <c r="AF96" s="38"/>
     </row>
     <row r="97" spans="1:32">
-      <c r="A97" s="5"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
-      <c r="U97" s="7"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="7"/>
-      <c r="X97" s="32"/>
-      <c r="Y97" s="32"/>
-      <c r="Z97" s="32"/>
-      <c r="AA97" s="32"/>
-      <c r="AB97" s="32"/>
-      <c r="AC97" s="32"/>
-      <c r="AD97" s="32"/>
-      <c r="AE97" s="32"/>
-      <c r="AF97" s="32"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="W97" s="8"/>
+      <c r="X97" s="33"/>
+      <c r="Y97" s="33"/>
+      <c r="Z97" s="33"/>
+      <c r="AA97" s="33"/>
+      <c r="AB97" s="33"/>
+      <c r="AC97" s="33"/>
+      <c r="AD97" s="33"/>
+      <c r="AE97" s="33"/>
+      <c r="AF97" s="38"/>
     </row>
     <row r="98" spans="1:32">
-      <c r="A98" s="5"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="7"/>
-      <c r="T98" s="7"/>
-      <c r="U98" s="7"/>
-      <c r="V98" s="7"/>
-      <c r="W98" s="7"/>
-      <c r="X98" s="32"/>
-      <c r="Y98" s="32"/>
-      <c r="Z98" s="32"/>
-      <c r="AA98" s="32"/>
-      <c r="AB98" s="32"/>
-      <c r="AC98" s="32"/>
-      <c r="AD98" s="32"/>
-      <c r="AE98" s="32"/>
-      <c r="AF98" s="32"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="8"/>
+      <c r="W98" s="8"/>
+      <c r="X98" s="33"/>
+      <c r="Y98" s="33"/>
+      <c r="Z98" s="33"/>
+      <c r="AA98" s="33"/>
+      <c r="AB98" s="33"/>
+      <c r="AC98" s="33"/>
+      <c r="AD98" s="33"/>
+      <c r="AE98" s="33"/>
+      <c r="AF98" s="38"/>
     </row>
     <row r="99" spans="1:32">
-      <c r="A99" s="5"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
-      <c r="S99" s="7"/>
-      <c r="T99" s="7"/>
-      <c r="U99" s="7"/>
-      <c r="V99" s="7"/>
-      <c r="W99" s="7"/>
-      <c r="X99" s="32"/>
-      <c r="Y99" s="32"/>
-      <c r="Z99" s="32"/>
-      <c r="AA99" s="32"/>
-      <c r="AB99" s="32"/>
-      <c r="AC99" s="32"/>
-      <c r="AD99" s="32"/>
-      <c r="AE99" s="32"/>
-      <c r="AF99" s="32"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="8"/>
+      <c r="W99" s="8"/>
+      <c r="X99" s="33"/>
+      <c r="Y99" s="33"/>
+      <c r="Z99" s="33"/>
+      <c r="AA99" s="33"/>
+      <c r="AB99" s="33"/>
+      <c r="AC99" s="33"/>
+      <c r="AD99" s="33"/>
+      <c r="AE99" s="33"/>
+      <c r="AF99" s="38"/>
     </row>
     <row r="100" spans="1:32">
-      <c r="A100" s="5"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="7"/>
-      <c r="R100" s="7"/>
-      <c r="S100" s="7"/>
-      <c r="T100" s="7"/>
-      <c r="U100" s="7"/>
-      <c r="V100" s="7"/>
-      <c r="W100" s="7"/>
-      <c r="X100" s="32"/>
-      <c r="Y100" s="32"/>
-      <c r="Z100" s="32"/>
-      <c r="AA100" s="32"/>
-      <c r="AB100" s="32"/>
-      <c r="AC100" s="32"/>
-      <c r="AD100" s="32"/>
-      <c r="AE100" s="32"/>
-      <c r="AF100" s="32"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="8"/>
+      <c r="R100" s="8"/>
+      <c r="S100" s="8"/>
+      <c r="T100" s="8"/>
+      <c r="U100" s="8"/>
+      <c r="V100" s="8"/>
+      <c r="W100" s="8"/>
+      <c r="X100" s="33"/>
+      <c r="Y100" s="33"/>
+      <c r="Z100" s="33"/>
+      <c r="AA100" s="33"/>
+      <c r="AB100" s="33"/>
+      <c r="AC100" s="33"/>
+      <c r="AD100" s="33"/>
+      <c r="AE100" s="33"/>
+      <c r="AF100" s="38"/>
     </row>
     <row r="101" spans="1:32">
-      <c r="A101" s="5"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="7"/>
-      <c r="T101" s="7"/>
-      <c r="U101" s="7"/>
-      <c r="V101" s="7"/>
-      <c r="W101" s="7"/>
-      <c r="X101" s="32"/>
-      <c r="Y101" s="32"/>
-      <c r="Z101" s="32"/>
-      <c r="AA101" s="32"/>
-      <c r="AB101" s="32"/>
-      <c r="AC101" s="32"/>
-      <c r="AD101" s="32"/>
-      <c r="AE101" s="32"/>
-      <c r="AF101" s="32"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="8"/>
+      <c r="R101" s="8"/>
+      <c r="S101" s="8"/>
+      <c r="T101" s="8"/>
+      <c r="U101" s="8"/>
+      <c r="V101" s="8"/>
+      <c r="W101" s="8"/>
+      <c r="X101" s="33"/>
+      <c r="Y101" s="33"/>
+      <c r="Z101" s="33"/>
+      <c r="AA101" s="33"/>
+      <c r="AB101" s="33"/>
+      <c r="AC101" s="33"/>
+      <c r="AD101" s="33"/>
+      <c r="AE101" s="33"/>
+      <c r="AF101" s="38"/>
     </row>
     <row r="102" spans="1:32">
-      <c r="A102" s="5"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="7"/>
-      <c r="R102" s="7"/>
-      <c r="S102" s="7"/>
-      <c r="T102" s="7"/>
-      <c r="U102" s="7"/>
-      <c r="V102" s="7"/>
-      <c r="W102" s="7"/>
-      <c r="X102" s="32"/>
-      <c r="Y102" s="32"/>
-      <c r="Z102" s="32"/>
-      <c r="AA102" s="32"/>
-      <c r="AB102" s="32"/>
-      <c r="AC102" s="32"/>
-      <c r="AD102" s="32"/>
-      <c r="AE102" s="32"/>
-      <c r="AF102" s="32"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="8"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="8"/>
+      <c r="W102" s="8"/>
+      <c r="X102" s="33"/>
+      <c r="Y102" s="33"/>
+      <c r="Z102" s="33"/>
+      <c r="AA102" s="33"/>
+      <c r="AB102" s="33"/>
+      <c r="AC102" s="33"/>
+      <c r="AD102" s="33"/>
+      <c r="AE102" s="33"/>
+      <c r="AF102" s="38"/>
     </row>
     <row r="103" spans="1:32">
-      <c r="A103" s="5"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7"/>
-      <c r="T103" s="7"/>
-      <c r="U103" s="7"/>
-      <c r="V103" s="7"/>
-      <c r="W103" s="7"/>
-      <c r="X103" s="32"/>
-      <c r="Y103" s="32"/>
-      <c r="Z103" s="32"/>
-      <c r="AA103" s="32"/>
-      <c r="AB103" s="32"/>
-      <c r="AC103" s="32"/>
-      <c r="AD103" s="32"/>
-      <c r="AE103" s="32"/>
-      <c r="AF103" s="32"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="8"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="8"/>
+      <c r="T103" s="8"/>
+      <c r="U103" s="8"/>
+      <c r="V103" s="8"/>
+      <c r="W103" s="8"/>
+      <c r="X103" s="33"/>
+      <c r="Y103" s="33"/>
+      <c r="Z103" s="33"/>
+      <c r="AA103" s="33"/>
+      <c r="AB103" s="33"/>
+      <c r="AC103" s="33"/>
+      <c r="AD103" s="33"/>
+      <c r="AE103" s="33"/>
+      <c r="AF103" s="38"/>
     </row>
     <row r="104" spans="1:32">
-      <c r="A104" s="5"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
-      <c r="Q104" s="7"/>
-      <c r="R104" s="7"/>
-      <c r="S104" s="7"/>
-      <c r="T104" s="7"/>
-      <c r="U104" s="7"/>
-      <c r="V104" s="7"/>
-      <c r="W104" s="7"/>
-      <c r="X104" s="32"/>
-      <c r="Y104" s="32"/>
-      <c r="Z104" s="32"/>
-      <c r="AA104" s="32"/>
-      <c r="AB104" s="32"/>
-      <c r="AC104" s="32"/>
-      <c r="AD104" s="32"/>
-      <c r="AE104" s="32"/>
-      <c r="AF104" s="32"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="8"/>
+      <c r="R104" s="8"/>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="8"/>
+      <c r="V104" s="8"/>
+      <c r="W104" s="8"/>
+      <c r="X104" s="33"/>
+      <c r="Y104" s="33"/>
+      <c r="Z104" s="33"/>
+      <c r="AA104" s="33"/>
+      <c r="AB104" s="33"/>
+      <c r="AC104" s="33"/>
+      <c r="AD104" s="33"/>
+      <c r="AE104" s="33"/>
+      <c r="AF104" s="38"/>
     </row>
     <row r="105" spans="1:32">
-      <c r="A105" s="5"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
-      <c r="P105" s="7"/>
-      <c r="Q105" s="7"/>
-      <c r="R105" s="7"/>
-      <c r="S105" s="7"/>
-      <c r="T105" s="7"/>
-      <c r="U105" s="7"/>
-      <c r="V105" s="7"/>
-      <c r="W105" s="7"/>
-      <c r="X105" s="32"/>
-      <c r="Y105" s="32"/>
-      <c r="Z105" s="32"/>
-      <c r="AA105" s="32"/>
-      <c r="AB105" s="32"/>
-      <c r="AC105" s="32"/>
-      <c r="AD105" s="32"/>
-      <c r="AE105" s="32"/>
-      <c r="AF105" s="32"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="8"/>
+      <c r="R105" s="8"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
+      <c r="U105" s="8"/>
+      <c r="V105" s="8"/>
+      <c r="W105" s="8"/>
+      <c r="X105" s="33"/>
+      <c r="Y105" s="33"/>
+      <c r="Z105" s="33"/>
+      <c r="AA105" s="33"/>
+      <c r="AB105" s="33"/>
+      <c r="AC105" s="33"/>
+      <c r="AD105" s="33"/>
+      <c r="AE105" s="33"/>
+      <c r="AF105" s="38"/>
     </row>
     <row r="106" spans="1:32">
-      <c r="A106" s="5"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
-      <c r="P106" s="7"/>
-      <c r="Q106" s="7"/>
-      <c r="R106" s="7"/>
-      <c r="S106" s="7"/>
-      <c r="T106" s="7"/>
-      <c r="U106" s="7"/>
-      <c r="V106" s="7"/>
-      <c r="W106" s="7"/>
-      <c r="X106" s="32"/>
-      <c r="Y106" s="32"/>
-      <c r="Z106" s="32"/>
-      <c r="AA106" s="32"/>
-      <c r="AB106" s="32"/>
-      <c r="AC106" s="32"/>
-      <c r="AD106" s="32"/>
-      <c r="AE106" s="32"/>
-      <c r="AF106" s="32"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="8"/>
+      <c r="R106" s="8"/>
+      <c r="S106" s="8"/>
+      <c r="T106" s="8"/>
+      <c r="U106" s="8"/>
+      <c r="V106" s="8"/>
+      <c r="W106" s="8"/>
+      <c r="X106" s="33"/>
+      <c r="Y106" s="33"/>
+      <c r="Z106" s="33"/>
+      <c r="AA106" s="33"/>
+      <c r="AB106" s="33"/>
+      <c r="AC106" s="33"/>
+      <c r="AD106" s="33"/>
+      <c r="AE106" s="33"/>
+      <c r="AF106" s="38"/>
     </row>
     <row r="107" spans="1:32">
-      <c r="A107" s="5"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
-      <c r="P107" s="7"/>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="7"/>
-      <c r="S107" s="7"/>
-      <c r="T107" s="7"/>
-      <c r="U107" s="7"/>
-      <c r="V107" s="7"/>
-      <c r="W107" s="7"/>
-      <c r="X107" s="32"/>
-      <c r="Y107" s="32"/>
-      <c r="Z107" s="32"/>
-      <c r="AA107" s="32"/>
-      <c r="AB107" s="32"/>
-      <c r="AC107" s="32"/>
-      <c r="AD107" s="32"/>
-      <c r="AE107" s="32"/>
-      <c r="AF107" s="32"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="8"/>
+      <c r="R107" s="8"/>
+      <c r="S107" s="8"/>
+      <c r="T107" s="8"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="8"/>
+      <c r="W107" s="8"/>
+      <c r="X107" s="33"/>
+      <c r="Y107" s="33"/>
+      <c r="Z107" s="33"/>
+      <c r="AA107" s="33"/>
+      <c r="AB107" s="33"/>
+      <c r="AC107" s="33"/>
+      <c r="AD107" s="33"/>
+      <c r="AE107" s="33"/>
+      <c r="AF107" s="38"/>
     </row>
     <row r="108" spans="1:32">
-      <c r="A108" s="5"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="7"/>
-      <c r="T108" s="7"/>
-      <c r="U108" s="7"/>
-      <c r="V108" s="7"/>
-      <c r="W108" s="7"/>
-      <c r="X108" s="32"/>
-      <c r="Y108" s="32"/>
-      <c r="Z108" s="32"/>
-      <c r="AA108" s="32"/>
-      <c r="AB108" s="32"/>
-      <c r="AC108" s="32"/>
-      <c r="AD108" s="32"/>
-      <c r="AE108" s="32"/>
-      <c r="AF108" s="32"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="8"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="8"/>
+      <c r="W108" s="8"/>
+      <c r="X108" s="33"/>
+      <c r="Y108" s="33"/>
+      <c r="Z108" s="33"/>
+      <c r="AA108" s="33"/>
+      <c r="AB108" s="33"/>
+      <c r="AC108" s="33"/>
+      <c r="AD108" s="33"/>
+      <c r="AE108" s="33"/>
+      <c r="AF108" s="38"/>
     </row>
     <row r="109" spans="1:32">
-      <c r="A109" s="5"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="7"/>
-      <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="7"/>
-      <c r="R109" s="7"/>
-      <c r="S109" s="7"/>
-      <c r="T109" s="7"/>
-      <c r="U109" s="7"/>
-      <c r="V109" s="7"/>
-      <c r="W109" s="7"/>
-      <c r="X109" s="32"/>
-      <c r="Y109" s="32"/>
-      <c r="Z109" s="32"/>
-      <c r="AA109" s="32"/>
-      <c r="AB109" s="32"/>
-      <c r="AC109" s="32"/>
-      <c r="AD109" s="32"/>
-      <c r="AE109" s="32"/>
-      <c r="AF109" s="32"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="8"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="8"/>
+      <c r="W109" s="8"/>
+      <c r="X109" s="33"/>
+      <c r="Y109" s="33"/>
+      <c r="Z109" s="33"/>
+      <c r="AA109" s="33"/>
+      <c r="AB109" s="33"/>
+      <c r="AC109" s="33"/>
+      <c r="AD109" s="33"/>
+      <c r="AE109" s="33"/>
+      <c r="AF109" s="38"/>
     </row>
     <row r="110" spans="1:32">
-      <c r="A110" s="5"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="7"/>
-      <c r="U110" s="7"/>
-      <c r="V110" s="7"/>
-      <c r="W110" s="7"/>
-      <c r="X110" s="32"/>
-      <c r="Y110" s="32"/>
-      <c r="Z110" s="32"/>
-      <c r="AA110" s="32"/>
-      <c r="AB110" s="32"/>
-      <c r="AC110" s="32"/>
-      <c r="AD110" s="32"/>
-      <c r="AE110" s="32"/>
-      <c r="AF110" s="32"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="8"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="8"/>
+      <c r="W110" s="8"/>
+      <c r="X110" s="33"/>
+      <c r="Y110" s="33"/>
+      <c r="Z110" s="33"/>
+      <c r="AA110" s="33"/>
+      <c r="AB110" s="33"/>
+      <c r="AC110" s="33"/>
+      <c r="AD110" s="33"/>
+      <c r="AE110" s="33"/>
+      <c r="AF110" s="38"/>
     </row>
     <row r="111" spans="1:32">
-      <c r="A111" s="5"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
-      <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-      <c r="T111" s="7"/>
-      <c r="U111" s="7"/>
-      <c r="V111" s="7"/>
-      <c r="W111" s="7"/>
-      <c r="X111" s="32"/>
-      <c r="Y111" s="32"/>
-      <c r="Z111" s="32"/>
-      <c r="AA111" s="32"/>
-      <c r="AB111" s="32"/>
-      <c r="AC111" s="32"/>
-      <c r="AD111" s="32"/>
-      <c r="AE111" s="32"/>
-      <c r="AF111" s="32"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="8"/>
+      <c r="R111" s="8"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="8"/>
+      <c r="U111" s="8"/>
+      <c r="V111" s="8"/>
+      <c r="W111" s="8"/>
+      <c r="X111" s="33"/>
+      <c r="Y111" s="33"/>
+      <c r="Z111" s="33"/>
+      <c r="AA111" s="33"/>
+      <c r="AB111" s="33"/>
+      <c r="AC111" s="33"/>
+      <c r="AD111" s="33"/>
+      <c r="AE111" s="33"/>
+      <c r="AF111" s="38"/>
     </row>
     <row r="112" spans="1:32">
-      <c r="A112" s="5"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="7"/>
-      <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-      <c r="T112" s="7"/>
-      <c r="U112" s="7"/>
-      <c r="V112" s="7"/>
-      <c r="W112" s="7"/>
-      <c r="X112" s="32"/>
-      <c r="Y112" s="32"/>
-      <c r="Z112" s="32"/>
-      <c r="AA112" s="32"/>
-      <c r="AB112" s="32"/>
-      <c r="AC112" s="32"/>
-      <c r="AD112" s="32"/>
-      <c r="AE112" s="32"/>
-      <c r="AF112" s="32"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+      <c r="Q112" s="8"/>
+      <c r="R112" s="8"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="8"/>
+      <c r="U112" s="8"/>
+      <c r="V112" s="8"/>
+      <c r="W112" s="8"/>
+      <c r="X112" s="33"/>
+      <c r="Y112" s="33"/>
+      <c r="Z112" s="33"/>
+      <c r="AA112" s="33"/>
+      <c r="AB112" s="33"/>
+      <c r="AC112" s="33"/>
+      <c r="AD112" s="33"/>
+      <c r="AE112" s="33"/>
+      <c r="AF112" s="38"/>
     </row>
     <row r="113" spans="1:32">
-      <c r="A113" s="5"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-      <c r="T113" s="7"/>
-      <c r="U113" s="7"/>
-      <c r="V113" s="7"/>
-      <c r="W113" s="7"/>
-      <c r="X113" s="32"/>
-      <c r="Y113" s="32"/>
-      <c r="Z113" s="32"/>
-      <c r="AA113" s="32"/>
-      <c r="AB113" s="32"/>
-      <c r="AC113" s="32"/>
-      <c r="AD113" s="32"/>
-      <c r="AE113" s="32"/>
-      <c r="AF113" s="32"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="8"/>
+      <c r="R113" s="8"/>
+      <c r="S113" s="8"/>
+      <c r="T113" s="8"/>
+      <c r="U113" s="8"/>
+      <c r="V113" s="8"/>
+      <c r="W113" s="8"/>
+      <c r="X113" s="33"/>
+      <c r="Y113" s="33"/>
+      <c r="Z113" s="33"/>
+      <c r="AA113" s="33"/>
+      <c r="AB113" s="33"/>
+      <c r="AC113" s="33"/>
+      <c r="AD113" s="33"/>
+      <c r="AE113" s="33"/>
+      <c r="AF113" s="38"/>
     </row>
     <row r="114" spans="1:32">
-      <c r="A114" s="5"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="7"/>
-      <c r="M114" s="7"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-      <c r="T114" s="7"/>
-      <c r="U114" s="7"/>
-      <c r="V114" s="7"/>
-      <c r="W114" s="7"/>
-      <c r="X114" s="32"/>
-      <c r="Y114" s="32"/>
-      <c r="Z114" s="32"/>
-      <c r="AA114" s="32"/>
-      <c r="AB114" s="32"/>
-      <c r="AC114" s="32"/>
-      <c r="AD114" s="32"/>
-      <c r="AE114" s="32"/>
-      <c r="AF114" s="32"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="8"/>
+      <c r="U114" s="8"/>
+      <c r="V114" s="8"/>
+      <c r="W114" s="8"/>
+      <c r="X114" s="33"/>
+      <c r="Y114" s="33"/>
+      <c r="Z114" s="33"/>
+      <c r="AA114" s="33"/>
+      <c r="AB114" s="33"/>
+      <c r="AC114" s="33"/>
+      <c r="AD114" s="33"/>
+      <c r="AE114" s="33"/>
+      <c r="AF114" s="38"/>
     </row>
     <row r="115" spans="1:32">
-      <c r="A115" s="5"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7"/>
-      <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-      <c r="T115" s="7"/>
-      <c r="U115" s="7"/>
-      <c r="V115" s="7"/>
-      <c r="W115" s="7"/>
-      <c r="X115" s="32"/>
-      <c r="Y115" s="32"/>
-      <c r="Z115" s="32"/>
-      <c r="AA115" s="32"/>
-      <c r="AB115" s="32"/>
-      <c r="AC115" s="32"/>
-      <c r="AD115" s="32"/>
-      <c r="AE115" s="32"/>
-      <c r="AF115" s="32"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+      <c r="Q115" s="8"/>
+      <c r="R115" s="8"/>
+      <c r="S115" s="8"/>
+      <c r="T115" s="8"/>
+      <c r="U115" s="8"/>
+      <c r="V115" s="8"/>
+      <c r="W115" s="8"/>
+      <c r="X115" s="33"/>
+      <c r="Y115" s="33"/>
+      <c r="Z115" s="33"/>
+      <c r="AA115" s="33"/>
+      <c r="AB115" s="33"/>
+      <c r="AC115" s="33"/>
+      <c r="AD115" s="33"/>
+      <c r="AE115" s="33"/>
+      <c r="AF115" s="38"/>
     </row>
     <row r="116" spans="1:32">
-      <c r="A116" s="5"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-      <c r="T116" s="7"/>
-      <c r="U116" s="7"/>
-      <c r="V116" s="7"/>
-      <c r="W116" s="7"/>
-      <c r="X116" s="32"/>
-      <c r="Y116" s="32"/>
-      <c r="Z116" s="32"/>
-      <c r="AA116" s="32"/>
-      <c r="AB116" s="32"/>
-      <c r="AC116" s="32"/>
-      <c r="AD116" s="32"/>
-      <c r="AE116" s="32"/>
-      <c r="AF116" s="32"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8"/>
+      <c r="S116" s="8"/>
+      <c r="T116" s="8"/>
+      <c r="U116" s="8"/>
+      <c r="V116" s="8"/>
+      <c r="W116" s="8"/>
+      <c r="X116" s="33"/>
+      <c r="Y116" s="33"/>
+      <c r="Z116" s="33"/>
+      <c r="AA116" s="33"/>
+      <c r="AB116" s="33"/>
+      <c r="AC116" s="33"/>
+      <c r="AD116" s="33"/>
+      <c r="AE116" s="33"/>
+      <c r="AF116" s="38"/>
     </row>
     <row r="117" spans="1:32">
-      <c r="A117" s="5"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-      <c r="T117" s="7"/>
-      <c r="U117" s="7"/>
-      <c r="V117" s="7"/>
-      <c r="W117" s="7"/>
-      <c r="X117" s="32"/>
-      <c r="Y117" s="32"/>
-      <c r="Z117" s="32"/>
-      <c r="AA117" s="32"/>
-      <c r="AB117" s="32"/>
-      <c r="AC117" s="32"/>
-      <c r="AD117" s="32"/>
-      <c r="AE117" s="32"/>
-      <c r="AF117" s="32"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="8"/>
+      <c r="S117" s="8"/>
+      <c r="T117" s="8"/>
+      <c r="U117" s="8"/>
+      <c r="V117" s="8"/>
+      <c r="W117" s="8"/>
+      <c r="X117" s="33"/>
+      <c r="Y117" s="33"/>
+      <c r="Z117" s="33"/>
+      <c r="AA117" s="33"/>
+      <c r="AB117" s="33"/>
+      <c r="AC117" s="33"/>
+      <c r="AD117" s="33"/>
+      <c r="AE117" s="33"/>
+      <c r="AF117" s="38"/>
     </row>
     <row r="118" spans="1:32">
-      <c r="A118" s="5"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-      <c r="T118" s="7"/>
-      <c r="U118" s="7"/>
-      <c r="V118" s="7"/>
-      <c r="W118" s="7"/>
-      <c r="X118" s="32"/>
-      <c r="Y118" s="32"/>
-      <c r="Z118" s="32"/>
-      <c r="AA118" s="32"/>
-      <c r="AB118" s="32"/>
-      <c r="AC118" s="32"/>
-      <c r="AD118" s="32"/>
-      <c r="AE118" s="32"/>
-      <c r="AF118" s="32"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+      <c r="Q118" s="8"/>
+      <c r="R118" s="8"/>
+      <c r="S118" s="8"/>
+      <c r="T118" s="8"/>
+      <c r="U118" s="8"/>
+      <c r="V118" s="8"/>
+      <c r="W118" s="8"/>
+      <c r="X118" s="33"/>
+      <c r="Y118" s="33"/>
+      <c r="Z118" s="33"/>
+      <c r="AA118" s="33"/>
+      <c r="AB118" s="33"/>
+      <c r="AC118" s="33"/>
+      <c r="AD118" s="33"/>
+      <c r="AE118" s="33"/>
+      <c r="AF118" s="38"/>
     </row>
     <row r="119" spans="1:32">
-      <c r="A119" s="5"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="7"/>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="7"/>
-      <c r="R119" s="7"/>
-      <c r="S119" s="7"/>
-      <c r="T119" s="7"/>
-      <c r="U119" s="7"/>
-      <c r="V119" s="7"/>
-      <c r="W119" s="7"/>
-      <c r="X119" s="32"/>
-      <c r="Y119" s="32"/>
-      <c r="Z119" s="32"/>
-      <c r="AA119" s="32"/>
-      <c r="AB119" s="32"/>
-      <c r="AC119" s="32"/>
-      <c r="AD119" s="32"/>
-      <c r="AE119" s="32"/>
-      <c r="AF119" s="32"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+      <c r="Q119" s="8"/>
+      <c r="R119" s="8"/>
+      <c r="S119" s="8"/>
+      <c r="T119" s="8"/>
+      <c r="U119" s="8"/>
+      <c r="V119" s="8"/>
+      <c r="W119" s="8"/>
+      <c r="X119" s="33"/>
+      <c r="Y119" s="33"/>
+      <c r="Z119" s="33"/>
+      <c r="AA119" s="33"/>
+      <c r="AB119" s="33"/>
+      <c r="AC119" s="33"/>
+      <c r="AD119" s="33"/>
+      <c r="AE119" s="33"/>
+      <c r="AF119" s="38"/>
     </row>
     <row r="120" spans="1:32">
-      <c r="A120" s="5"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
-      <c r="L120" s="7"/>
-      <c r="M120" s="7"/>
-      <c r="N120" s="7"/>
-      <c r="O120" s="7"/>
-      <c r="P120" s="7"/>
-      <c r="Q120" s="7"/>
-      <c r="R120" s="7"/>
-      <c r="S120" s="7"/>
-      <c r="T120" s="7"/>
-      <c r="U120" s="7"/>
-      <c r="V120" s="7"/>
-      <c r="W120" s="7"/>
-      <c r="X120" s="32"/>
-      <c r="Y120" s="32"/>
-      <c r="Z120" s="32"/>
-      <c r="AA120" s="32"/>
-      <c r="AB120" s="32"/>
-      <c r="AC120" s="32"/>
-      <c r="AD120" s="32"/>
-      <c r="AE120" s="32"/>
-      <c r="AF120" s="32"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="8"/>
+      <c r="P120" s="8"/>
+      <c r="Q120" s="8"/>
+      <c r="R120" s="8"/>
+      <c r="S120" s="8"/>
+      <c r="T120" s="8"/>
+      <c r="U120" s="8"/>
+      <c r="V120" s="8"/>
+      <c r="W120" s="8"/>
+      <c r="X120" s="33"/>
+      <c r="Y120" s="33"/>
+      <c r="Z120" s="33"/>
+      <c r="AA120" s="33"/>
+      <c r="AB120" s="33"/>
+      <c r="AC120" s="33"/>
+      <c r="AD120" s="33"/>
+      <c r="AE120" s="33"/>
+      <c r="AF120" s="38"/>
     </row>
     <row r="121" spans="1:32">
-      <c r="A121" s="5"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7"/>
-      <c r="T121" s="7"/>
-      <c r="U121" s="7"/>
-      <c r="V121" s="7"/>
-      <c r="W121" s="7"/>
-      <c r="X121" s="32"/>
-      <c r="Y121" s="32"/>
-      <c r="Z121" s="32"/>
-      <c r="AA121" s="32"/>
-      <c r="AB121" s="32"/>
-      <c r="AC121" s="32"/>
-      <c r="AD121" s="32"/>
-      <c r="AE121" s="32"/>
-      <c r="AF121" s="32"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+      <c r="Q121" s="8"/>
+      <c r="R121" s="8"/>
+      <c r="S121" s="8"/>
+      <c r="T121" s="8"/>
+      <c r="U121" s="8"/>
+      <c r="V121" s="8"/>
+      <c r="W121" s="8"/>
+      <c r="X121" s="33"/>
+      <c r="Y121" s="33"/>
+      <c r="Z121" s="33"/>
+      <c r="AA121" s="33"/>
+      <c r="AB121" s="33"/>
+      <c r="AC121" s="33"/>
+      <c r="AD121" s="33"/>
+      <c r="AE121" s="33"/>
+      <c r="AF121" s="38"/>
     </row>
     <row r="122" spans="1:32">
-      <c r="A122" s="5"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
-      <c r="L122" s="7"/>
-      <c r="M122" s="7"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
-      <c r="P122" s="7"/>
-      <c r="Q122" s="7"/>
-      <c r="R122" s="7"/>
-      <c r="S122" s="7"/>
-      <c r="T122" s="7"/>
-      <c r="U122" s="7"/>
-      <c r="V122" s="7"/>
-      <c r="W122" s="7"/>
-      <c r="X122" s="32"/>
-      <c r="Y122" s="32"/>
-      <c r="Z122" s="32"/>
-      <c r="AA122" s="32"/>
-      <c r="AB122" s="32"/>
-      <c r="AC122" s="32"/>
-      <c r="AD122" s="32"/>
-      <c r="AE122" s="32"/>
-      <c r="AF122" s="32"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+      <c r="Q122" s="8"/>
+      <c r="R122" s="8"/>
+      <c r="S122" s="8"/>
+      <c r="T122" s="8"/>
+      <c r="U122" s="8"/>
+      <c r="V122" s="8"/>
+      <c r="W122" s="8"/>
+      <c r="X122" s="33"/>
+      <c r="Y122" s="33"/>
+      <c r="Z122" s="33"/>
+      <c r="AA122" s="33"/>
+      <c r="AB122" s="33"/>
+      <c r="AC122" s="33"/>
+      <c r="AD122" s="33"/>
+      <c r="AE122" s="33"/>
+      <c r="AF122" s="38"/>
     </row>
     <row r="123" spans="1:32">
-      <c r="A123" s="5"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="7"/>
-      <c r="M123" s="7"/>
-      <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
-      <c r="P123" s="7"/>
-      <c r="Q123" s="7"/>
-      <c r="R123" s="7"/>
-      <c r="S123" s="7"/>
-      <c r="T123" s="7"/>
-      <c r="U123" s="7"/>
-      <c r="V123" s="7"/>
-      <c r="W123" s="7"/>
-      <c r="X123" s="32"/>
-      <c r="Y123" s="32"/>
-      <c r="Z123" s="32"/>
-      <c r="AA123" s="32"/>
-      <c r="AB123" s="32"/>
-      <c r="AC123" s="32"/>
-      <c r="AD123" s="32"/>
-      <c r="AE123" s="32"/>
-      <c r="AF123" s="32"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+      <c r="Q123" s="8"/>
+      <c r="R123" s="8"/>
+      <c r="S123" s="8"/>
+      <c r="T123" s="8"/>
+      <c r="U123" s="8"/>
+      <c r="V123" s="8"/>
+      <c r="W123" s="8"/>
+      <c r="X123" s="33"/>
+      <c r="Y123" s="33"/>
+      <c r="Z123" s="33"/>
+      <c r="AA123" s="33"/>
+      <c r="AB123" s="33"/>
+      <c r="AC123" s="33"/>
+      <c r="AD123" s="33"/>
+      <c r="AE123" s="33"/>
+      <c r="AF123" s="38"/>
     </row>
     <row r="124" spans="1:32">
-      <c r="A124" s="5"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="7"/>
-      <c r="M124" s="7"/>
-      <c r="N124" s="7"/>
-      <c r="O124" s="7"/>
-      <c r="P124" s="7"/>
-      <c r="Q124" s="7"/>
-      <c r="R124" s="7"/>
-      <c r="S124" s="7"/>
-      <c r="T124" s="7"/>
-      <c r="U124" s="7"/>
-      <c r="V124" s="7"/>
-      <c r="W124" s="7"/>
-      <c r="X124" s="32"/>
-      <c r="Y124" s="32"/>
-      <c r="Z124" s="32"/>
-      <c r="AA124" s="32"/>
-      <c r="AB124" s="32"/>
-      <c r="AC124" s="32"/>
-      <c r="AD124" s="32"/>
-      <c r="AE124" s="32"/>
-      <c r="AF124" s="32"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+      <c r="Q124" s="8"/>
+      <c r="R124" s="8"/>
+      <c r="S124" s="8"/>
+      <c r="T124" s="8"/>
+      <c r="U124" s="8"/>
+      <c r="V124" s="8"/>
+      <c r="W124" s="8"/>
+      <c r="X124" s="33"/>
+      <c r="Y124" s="33"/>
+      <c r="Z124" s="33"/>
+      <c r="AA124" s="33"/>
+      <c r="AB124" s="33"/>
+      <c r="AC124" s="33"/>
+      <c r="AD124" s="33"/>
+      <c r="AE124" s="33"/>
+      <c r="AF124" s="38"/>
     </row>
     <row r="125" spans="1:32">
-      <c r="A125" s="5"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
-      <c r="L125" s="7"/>
-      <c r="M125" s="7"/>
-      <c r="N125" s="7"/>
-      <c r="O125" s="7"/>
-      <c r="P125" s="7"/>
-      <c r="Q125" s="7"/>
-      <c r="R125" s="7"/>
-      <c r="S125" s="7"/>
-      <c r="T125" s="7"/>
-      <c r="U125" s="7"/>
-      <c r="V125" s="7"/>
-      <c r="W125" s="7"/>
-      <c r="X125" s="32"/>
-      <c r="Y125" s="32"/>
-      <c r="Z125" s="32"/>
-      <c r="AA125" s="32"/>
-      <c r="AB125" s="32"/>
-      <c r="AC125" s="32"/>
-      <c r="AD125" s="32"/>
-      <c r="AE125" s="32"/>
-      <c r="AF125" s="32"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="8"/>
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+      <c r="Q125" s="8"/>
+      <c r="R125" s="8"/>
+      <c r="S125" s="8"/>
+      <c r="T125" s="8"/>
+      <c r="U125" s="8"/>
+      <c r="V125" s="8"/>
+      <c r="W125" s="8"/>
+      <c r="X125" s="33"/>
+      <c r="Y125" s="33"/>
+      <c r="Z125" s="33"/>
+      <c r="AA125" s="33"/>
+      <c r="AB125" s="33"/>
+      <c r="AC125" s="33"/>
+      <c r="AD125" s="33"/>
+      <c r="AE125" s="33"/>
+      <c r="AF125" s="38"/>
     </row>
     <row r="126" spans="1:32">
-      <c r="A126" s="5"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
-      <c r="L126" s="7"/>
-      <c r="M126" s="7"/>
-      <c r="N126" s="7"/>
-      <c r="O126" s="7"/>
-      <c r="P126" s="7"/>
-      <c r="Q126" s="7"/>
-      <c r="R126" s="7"/>
-      <c r="S126" s="7"/>
-      <c r="T126" s="7"/>
-      <c r="U126" s="7"/>
-      <c r="V126" s="7"/>
-      <c r="W126" s="7"/>
-      <c r="X126" s="32"/>
-      <c r="Y126" s="32"/>
-      <c r="Z126" s="32"/>
-      <c r="AA126" s="32"/>
-      <c r="AB126" s="32"/>
-      <c r="AC126" s="32"/>
-      <c r="AD126" s="32"/>
-      <c r="AE126" s="32"/>
-      <c r="AF126" s="32"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+      <c r="Q126" s="8"/>
+      <c r="R126" s="8"/>
+      <c r="S126" s="8"/>
+      <c r="T126" s="8"/>
+      <c r="U126" s="8"/>
+      <c r="V126" s="8"/>
+      <c r="W126" s="8"/>
+      <c r="X126" s="33"/>
+      <c r="Y126" s="33"/>
+      <c r="Z126" s="33"/>
+      <c r="AA126" s="33"/>
+      <c r="AB126" s="33"/>
+      <c r="AC126" s="33"/>
+      <c r="AD126" s="33"/>
+      <c r="AE126" s="33"/>
+      <c r="AF126" s="38"/>
     </row>
     <row r="127" spans="1:32">
-      <c r="A127" s="5"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="7"/>
-      <c r="L127" s="7"/>
-      <c r="M127" s="7"/>
-      <c r="N127" s="7"/>
-      <c r="O127" s="7"/>
-      <c r="P127" s="7"/>
-      <c r="Q127" s="7"/>
-      <c r="R127" s="7"/>
-      <c r="S127" s="7"/>
-      <c r="T127" s="7"/>
-      <c r="U127" s="7"/>
-      <c r="V127" s="7"/>
-      <c r="W127" s="7"/>
-      <c r="X127" s="32"/>
-      <c r="Y127" s="32"/>
-      <c r="Z127" s="32"/>
-      <c r="AA127" s="32"/>
-      <c r="AB127" s="32"/>
-      <c r="AC127" s="32"/>
-      <c r="AD127" s="32"/>
-      <c r="AE127" s="32"/>
-      <c r="AF127" s="32"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="8"/>
+      <c r="S127" s="8"/>
+      <c r="T127" s="8"/>
+      <c r="U127" s="8"/>
+      <c r="V127" s="8"/>
+      <c r="W127" s="8"/>
+      <c r="X127" s="33"/>
+      <c r="Y127" s="33"/>
+      <c r="Z127" s="33"/>
+      <c r="AA127" s="33"/>
+      <c r="AB127" s="33"/>
+      <c r="AC127" s="33"/>
+      <c r="AD127" s="33"/>
+      <c r="AE127" s="33"/>
+      <c r="AF127" s="38"/>
     </row>
     <row r="128" spans="1:32">
-      <c r="A128" s="5"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="7"/>
-      <c r="L128" s="7"/>
-      <c r="M128" s="7"/>
-      <c r="N128" s="7"/>
-      <c r="O128" s="7"/>
-      <c r="P128" s="7"/>
-      <c r="Q128" s="7"/>
-      <c r="R128" s="7"/>
-      <c r="S128" s="7"/>
-      <c r="T128" s="7"/>
-      <c r="U128" s="7"/>
-      <c r="V128" s="7"/>
-      <c r="W128" s="7"/>
-      <c r="X128" s="32"/>
-      <c r="Y128" s="32"/>
-      <c r="Z128" s="32"/>
-      <c r="AA128" s="32"/>
-      <c r="AB128" s="32"/>
-      <c r="AC128" s="32"/>
-      <c r="AD128" s="32"/>
-      <c r="AE128" s="32"/>
-      <c r="AF128" s="32"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+      <c r="Q128" s="8"/>
+      <c r="R128" s="8"/>
+      <c r="S128" s="8"/>
+      <c r="T128" s="8"/>
+      <c r="U128" s="8"/>
+      <c r="V128" s="8"/>
+      <c r="W128" s="8"/>
+      <c r="X128" s="33"/>
+      <c r="Y128" s="33"/>
+      <c r="Z128" s="33"/>
+      <c r="AA128" s="33"/>
+      <c r="AB128" s="33"/>
+      <c r="AC128" s="33"/>
+      <c r="AD128" s="33"/>
+      <c r="AE128" s="33"/>
+      <c r="AF128" s="38"/>
     </row>
     <row r="129" spans="1:32">
-      <c r="A129" s="5"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
-      <c r="L129" s="7"/>
-      <c r="M129" s="7"/>
-      <c r="N129" s="7"/>
-      <c r="O129" s="7"/>
-      <c r="P129" s="7"/>
-      <c r="Q129" s="7"/>
-      <c r="R129" s="7"/>
-      <c r="S129" s="7"/>
-      <c r="T129" s="7"/>
-      <c r="U129" s="7"/>
-      <c r="V129" s="7"/>
-      <c r="W129" s="7"/>
-      <c r="X129" s="32"/>
-      <c r="Y129" s="32"/>
-      <c r="Z129" s="32"/>
-      <c r="AA129" s="32"/>
-      <c r="AB129" s="32"/>
-      <c r="AC129" s="32"/>
-      <c r="AD129" s="32"/>
-      <c r="AE129" s="32"/>
-      <c r="AF129" s="32"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="8"/>
+      <c r="P129" s="8"/>
+      <c r="Q129" s="8"/>
+      <c r="R129" s="8"/>
+      <c r="S129" s="8"/>
+      <c r="T129" s="8"/>
+      <c r="U129" s="8"/>
+      <c r="V129" s="8"/>
+      <c r="W129" s="8"/>
+      <c r="X129" s="33"/>
+      <c r="Y129" s="33"/>
+      <c r="Z129" s="33"/>
+      <c r="AA129" s="33"/>
+      <c r="AB129" s="33"/>
+      <c r="AC129" s="33"/>
+      <c r="AD129" s="33"/>
+      <c r="AE129" s="33"/>
+      <c r="AF129" s="38"/>
     </row>
     <row r="130" spans="1:23">
       <c r="A130" s="1"/>
@@ -15894,7 +15933,7 @@
       <c r="W500" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
     <mergeCell ref="V1:AE1"/>
     <mergeCell ref="V2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
@@ -15931,6 +15970,7 @@
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="AF1:AF5"/>
+    <mergeCell ref="AG1:AG5"/>
     <mergeCell ref="B1:M3"/>
     <mergeCell ref="N1:T2"/>
   </mergeCells>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -159,7 +159,7 @@
 (是的时候应该警惕)</t>
   </si>
   <si>
-    <t>是否出现连续三日新低
+    <t>是否出现连续三日新低，且第三日交易量放量
 (是的时候应该警惕)</t>
   </si>
   <si>
@@ -236,9 +236,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -287,6 +287,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -294,8 +309,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,38 +333,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,53 +363,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,7 +381,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,7 +548,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,13 +626,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,67 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,12 +692,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -674,49 +704,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,17 +780,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,15 +809,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,32 +828,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -868,157 +842,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1117,9 +1117,6 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2975,11 +2972,11 @@
   <dimension ref="A1:AG500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3054,10 +3051,10 @@
       <c r="AC1" s="26"/>
       <c r="AD1" s="26"/>
       <c r="AE1" s="26"/>
-      <c r="AF1" s="35" t="s">
+      <c r="AF1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="39" t="s">
+      <c r="AG1" s="38" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3093,12 +3090,12 @@
       <c r="AA2" s="28"/>
       <c r="AB2" s="28"/>
       <c r="AC2" s="28"/>
-      <c r="AD2" s="36" t="s">
+      <c r="AD2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="39"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="38"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="3"/>
@@ -3134,10 +3131,10 @@
       <c r="AA3" s="28"/>
       <c r="AB3" s="28"/>
       <c r="AC3" s="28"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="39"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="38"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="3"/>
@@ -3209,26 +3206,26 @@
         <v>32</v>
       </c>
       <c r="Y4" s="28"/>
-      <c r="Z4" s="34" t="s">
+      <c r="Z4" s="33" t="s">
         <v>33</v>
       </c>
       <c r="AA4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="34" t="s">
+      <c r="AB4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="34" t="s">
+      <c r="AC4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="36" t="s">
+      <c r="AD4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="37" t="s">
+      <c r="AE4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="39"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="38"/>
     </row>
     <row r="5" ht="56" customHeight="1" spans="1:33">
       <c r="A5" s="3"/>
@@ -3264,10 +3261,10 @@
       <c r="AA5" s="28"/>
       <c r="AB5" s="28"/>
       <c r="AC5" s="28"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="39"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="38"/>
     </row>
     <row r="6" ht="18" spans="1:32">
       <c r="A6" s="6">
@@ -3340,15 +3337,15 @@
       </c>
       <c r="V6" s="31"/>
       <c r="W6" s="32"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="38">
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="37">
         <v>67.53</v>
       </c>
     </row>
@@ -3424,15 +3421,15 @@
       </c>
       <c r="V7" s="8"/>
       <c r="W7" s="7"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="38">
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="37">
         <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G7,AF6)</f>
         <v>67.53</v>
       </c>
@@ -3509,15 +3506,15 @@
       </c>
       <c r="V8" s="8"/>
       <c r="W8" s="7"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="38">
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="37">
         <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G8,AF7)</f>
         <v>67.53</v>
       </c>
@@ -3594,15 +3591,15 @@
       </c>
       <c r="V9" s="8"/>
       <c r="W9" s="7"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="38">
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="37">
         <f>IF(G9-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G9,AF8)</f>
         <v>67.53</v>
       </c>
@@ -3679,15 +3676,15 @@
       </c>
       <c r="V10" s="8"/>
       <c r="W10" s="7"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="38">
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="37">
         <f>IF(G10-VLOOKUP([1]交易计划及执行表!$A$8,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)&gt;0,G10,AF9)</f>
         <v>67.53</v>
       </c>
@@ -3718,15 +3715,15 @@
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="38"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="37"/>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="6">
@@ -3754,15 +3751,15 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="7"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="38"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="37"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="6">
@@ -3790,15 +3787,15 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="7"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="38"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="37"/>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="6">
@@ -3826,15 +3823,15 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="7"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="38"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="37"/>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="6">
@@ -3862,15 +3859,15 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="38"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="37"/>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="6">
@@ -3898,15 +3895,15 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="38"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="37"/>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="6">
@@ -3934,15 +3931,15 @@
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="38"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="37"/>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="6">
@@ -3970,15 +3967,15 @@
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="38"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="37"/>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="6">
@@ -4006,15 +4003,15 @@
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="38"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="37"/>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="6">
@@ -4042,15 +4039,15 @@
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="7"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="38"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="37"/>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="6">
@@ -4078,15 +4075,15 @@
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="38"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="37"/>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="6">
@@ -4114,15 +4111,15 @@
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="7"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="38"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="37"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="6">
@@ -4150,15 +4147,15 @@
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="38"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="6">
@@ -4186,15 +4183,15 @@
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="7"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="38"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="37"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="6">
@@ -4222,15 +4219,15 @@
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="38"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="37"/>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="6">
@@ -4258,15 +4255,15 @@
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="38"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="37"/>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="6"/>
@@ -4292,15 +4289,15 @@
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="38"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="37"/>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="6"/>
@@ -4326,15 +4323,15 @@
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="38"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="37"/>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="6"/>
@@ -4360,15 +4357,15 @@
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="38"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="37"/>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="6"/>
@@ -4394,15 +4391,15 @@
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="38"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="37"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="6"/>
@@ -4428,15 +4425,15 @@
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="33"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="38"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="37"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="6"/>
@@ -4462,15 +4459,15 @@
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="38"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="37"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="6"/>
@@ -4496,15 +4493,15 @@
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="33"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="38"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="37"/>
     </row>
     <row r="34" spans="1:32">
       <c r="A34" s="6"/>
@@ -4530,15 +4527,15 @@
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="38"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="37"/>
     </row>
     <row r="35" spans="1:32">
       <c r="A35" s="6"/>
@@ -4564,15 +4561,15 @@
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="38"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="37"/>
     </row>
     <row r="36" spans="1:32">
       <c r="A36" s="6"/>
@@ -4598,15 +4595,15 @@
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="38"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="37"/>
     </row>
     <row r="37" spans="1:32">
       <c r="A37" s="6"/>
@@ -4632,15 +4629,15 @@
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="38"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="37"/>
     </row>
     <row r="38" spans="1:32">
       <c r="A38" s="6"/>
@@ -4666,15 +4663,15 @@
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="38"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="37"/>
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="6"/>
@@ -4700,15 +4697,15 @@
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="33"/>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="33"/>
-      <c r="AF39" s="38"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="37"/>
     </row>
     <row r="40" spans="1:32">
       <c r="A40" s="6"/>
@@ -4734,15 +4731,15 @@
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
       <c r="W40" s="8"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="33"/>
-      <c r="AC40" s="33"/>
-      <c r="AD40" s="33"/>
-      <c r="AE40" s="33"/>
-      <c r="AF40" s="38"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="37"/>
     </row>
     <row r="41" spans="1:32">
       <c r="A41" s="6"/>
@@ -4768,15 +4765,15 @@
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="38"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="37"/>
     </row>
     <row r="42" spans="1:32">
       <c r="A42" s="6"/>
@@ -4802,15 +4799,15 @@
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
       <c r="W42" s="8"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="33"/>
-      <c r="AC42" s="33"/>
-      <c r="AD42" s="33"/>
-      <c r="AE42" s="33"/>
-      <c r="AF42" s="38"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="37"/>
     </row>
     <row r="43" spans="1:32">
       <c r="A43" s="6"/>
@@ -4836,15 +4833,15 @@
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
       <c r="W43" s="8"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="33"/>
-      <c r="AC43" s="33"/>
-      <c r="AD43" s="33"/>
-      <c r="AE43" s="33"/>
-      <c r="AF43" s="38"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="37"/>
     </row>
     <row r="44" spans="1:32">
       <c r="A44" s="6"/>
@@ -4870,15 +4867,15 @@
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
       <c r="W44" s="8"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
-      <c r="AC44" s="33"/>
-      <c r="AD44" s="33"/>
-      <c r="AE44" s="33"/>
-      <c r="AF44" s="38"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="37"/>
     </row>
     <row r="45" spans="1:32">
       <c r="A45" s="6"/>
@@ -4904,15 +4901,15 @@
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
       <c r="W45" s="8"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="33"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="33"/>
-      <c r="AD45" s="33"/>
-      <c r="AE45" s="33"/>
-      <c r="AF45" s="38"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="37"/>
     </row>
     <row r="46" spans="1:32">
       <c r="A46" s="6"/>
@@ -4938,15 +4935,15 @@
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="33"/>
-      <c r="AD46" s="33"/>
-      <c r="AE46" s="33"/>
-      <c r="AF46" s="38"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="37"/>
     </row>
     <row r="47" spans="1:32">
       <c r="A47" s="6"/>
@@ -4972,15 +4969,15 @@
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="33"/>
-      <c r="AD47" s="33"/>
-      <c r="AE47" s="33"/>
-      <c r="AF47" s="38"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="37"/>
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="6"/>
@@ -5006,15 +5003,15 @@
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
       <c r="W48" s="8"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="33"/>
-      <c r="AD48" s="33"/>
-      <c r="AE48" s="33"/>
-      <c r="AF48" s="38"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="37"/>
     </row>
     <row r="49" spans="1:32">
       <c r="A49" s="6"/>
@@ -5040,15 +5037,15 @@
       <c r="U49" s="8"/>
       <c r="V49" s="8"/>
       <c r="W49" s="8"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="33"/>
-      <c r="AD49" s="33"/>
-      <c r="AE49" s="33"/>
-      <c r="AF49" s="38"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="37"/>
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="6"/>
@@ -5074,15 +5071,15 @@
       <c r="U50" s="8"/>
       <c r="V50" s="8"/>
       <c r="W50" s="8"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="33"/>
-      <c r="AD50" s="33"/>
-      <c r="AE50" s="33"/>
-      <c r="AF50" s="38"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="37"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="6"/>
@@ -5108,15 +5105,15 @@
       <c r="U51" s="8"/>
       <c r="V51" s="8"/>
       <c r="W51" s="8"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="33"/>
-      <c r="AD51" s="33"/>
-      <c r="AE51" s="33"/>
-      <c r="AF51" s="38"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="37"/>
     </row>
     <row r="52" spans="1:32">
       <c r="A52" s="6"/>
@@ -5142,15 +5139,15 @@
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
       <c r="W52" s="8"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="33"/>
-      <c r="AD52" s="33"/>
-      <c r="AE52" s="33"/>
-      <c r="AF52" s="38"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="37"/>
     </row>
     <row r="53" spans="1:32">
       <c r="A53" s="6"/>
@@ -5176,15 +5173,15 @@
       <c r="U53" s="8"/>
       <c r="V53" s="8"/>
       <c r="W53" s="8"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="33"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="33"/>
-      <c r="AB53" s="33"/>
-      <c r="AC53" s="33"/>
-      <c r="AD53" s="33"/>
-      <c r="AE53" s="33"/>
-      <c r="AF53" s="38"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="37"/>
     </row>
     <row r="54" spans="1:32">
       <c r="A54" s="6"/>
@@ -5210,15 +5207,15 @@
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
       <c r="W54" s="8"/>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="33"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
-      <c r="AB54" s="33"/>
-      <c r="AC54" s="33"/>
-      <c r="AD54" s="33"/>
-      <c r="AE54" s="33"/>
-      <c r="AF54" s="38"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="37"/>
     </row>
     <row r="55" spans="1:32">
       <c r="A55" s="6"/>
@@ -5244,15 +5241,15 @@
       <c r="U55" s="8"/>
       <c r="V55" s="8"/>
       <c r="W55" s="8"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
-      <c r="AC55" s="33"/>
-      <c r="AD55" s="33"/>
-      <c r="AE55" s="33"/>
-      <c r="AF55" s="38"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="37"/>
     </row>
     <row r="56" spans="1:32">
       <c r="A56" s="6"/>
@@ -5278,15 +5275,15 @@
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
       <c r="W56" s="8"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="33"/>
-      <c r="AD56" s="33"/>
-      <c r="AE56" s="33"/>
-      <c r="AF56" s="38"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="37"/>
     </row>
     <row r="57" spans="1:32">
       <c r="A57" s="6"/>
@@ -5312,15 +5309,15 @@
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
       <c r="W57" s="8"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="33"/>
-      <c r="AD57" s="33"/>
-      <c r="AE57" s="33"/>
-      <c r="AF57" s="38"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="37"/>
     </row>
     <row r="58" spans="1:32">
       <c r="A58" s="6"/>
@@ -5346,15 +5343,15 @@
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
       <c r="W58" s="8"/>
-      <c r="X58" s="33"/>
-      <c r="Y58" s="33"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
-      <c r="AB58" s="33"/>
-      <c r="AC58" s="33"/>
-      <c r="AD58" s="33"/>
-      <c r="AE58" s="33"/>
-      <c r="AF58" s="38"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="37"/>
     </row>
     <row r="59" spans="1:32">
       <c r="A59" s="6"/>
@@ -5380,15 +5377,15 @@
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
       <c r="W59" s="8"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="33"/>
-      <c r="AC59" s="33"/>
-      <c r="AD59" s="33"/>
-      <c r="AE59" s="33"/>
-      <c r="AF59" s="38"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="37"/>
     </row>
     <row r="60" spans="1:32">
       <c r="A60" s="6"/>
@@ -5414,15 +5411,15 @@
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
       <c r="W60" s="8"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="33"/>
-      <c r="AD60" s="33"/>
-      <c r="AE60" s="33"/>
-      <c r="AF60" s="38"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="37"/>
     </row>
     <row r="61" spans="1:32">
       <c r="A61" s="6"/>
@@ -5448,15 +5445,15 @@
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
       <c r="W61" s="8"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
-      <c r="AB61" s="33"/>
-      <c r="AC61" s="33"/>
-      <c r="AD61" s="33"/>
-      <c r="AE61" s="33"/>
-      <c r="AF61" s="38"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="37"/>
     </row>
     <row r="62" spans="1:32">
       <c r="A62" s="6"/>
@@ -5482,15 +5479,15 @@
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
       <c r="W62" s="8"/>
-      <c r="X62" s="33"/>
-      <c r="Y62" s="33"/>
-      <c r="Z62" s="33"/>
-      <c r="AA62" s="33"/>
-      <c r="AB62" s="33"/>
-      <c r="AC62" s="33"/>
-      <c r="AD62" s="33"/>
-      <c r="AE62" s="33"/>
-      <c r="AF62" s="38"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="37"/>
     </row>
     <row r="63" spans="1:32">
       <c r="A63" s="6"/>
@@ -5516,15 +5513,15 @@
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
       <c r="W63" s="8"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="33"/>
-      <c r="Z63" s="33"/>
-      <c r="AA63" s="33"/>
-      <c r="AB63" s="33"/>
-      <c r="AC63" s="33"/>
-      <c r="AD63" s="33"/>
-      <c r="AE63" s="33"/>
-      <c r="AF63" s="38"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="37"/>
     </row>
     <row r="64" spans="1:32">
       <c r="A64" s="6"/>
@@ -5550,15 +5547,15 @@
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
       <c r="W64" s="8"/>
-      <c r="X64" s="33"/>
-      <c r="Y64" s="33"/>
-      <c r="Z64" s="33"/>
-      <c r="AA64" s="33"/>
-      <c r="AB64" s="33"/>
-      <c r="AC64" s="33"/>
-      <c r="AD64" s="33"/>
-      <c r="AE64" s="33"/>
-      <c r="AF64" s="38"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="37"/>
     </row>
     <row r="65" spans="1:32">
       <c r="A65" s="6"/>
@@ -5584,15 +5581,15 @@
       <c r="U65" s="8"/>
       <c r="V65" s="8"/>
       <c r="W65" s="8"/>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="33"/>
-      <c r="Z65" s="33"/>
-      <c r="AA65" s="33"/>
-      <c r="AB65" s="33"/>
-      <c r="AC65" s="33"/>
-      <c r="AD65" s="33"/>
-      <c r="AE65" s="33"/>
-      <c r="AF65" s="38"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="37"/>
     </row>
     <row r="66" spans="1:32">
       <c r="A66" s="6"/>
@@ -5618,15 +5615,15 @@
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
       <c r="W66" s="8"/>
-      <c r="X66" s="33"/>
-      <c r="Y66" s="33"/>
-      <c r="Z66" s="33"/>
-      <c r="AA66" s="33"/>
-      <c r="AB66" s="33"/>
-      <c r="AC66" s="33"/>
-      <c r="AD66" s="33"/>
-      <c r="AE66" s="33"/>
-      <c r="AF66" s="38"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="37"/>
     </row>
     <row r="67" spans="1:32">
       <c r="A67" s="6"/>
@@ -5652,15 +5649,15 @@
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
       <c r="W67" s="8"/>
-      <c r="X67" s="33"/>
-      <c r="Y67" s="33"/>
-      <c r="Z67" s="33"/>
-      <c r="AA67" s="33"/>
-      <c r="AB67" s="33"/>
-      <c r="AC67" s="33"/>
-      <c r="AD67" s="33"/>
-      <c r="AE67" s="33"/>
-      <c r="AF67" s="38"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="37"/>
     </row>
     <row r="68" spans="1:32">
       <c r="A68" s="6"/>
@@ -5686,15 +5683,15 @@
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
       <c r="W68" s="8"/>
-      <c r="X68" s="33"/>
-      <c r="Y68" s="33"/>
-      <c r="Z68" s="33"/>
-      <c r="AA68" s="33"/>
-      <c r="AB68" s="33"/>
-      <c r="AC68" s="33"/>
-      <c r="AD68" s="33"/>
-      <c r="AE68" s="33"/>
-      <c r="AF68" s="38"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="37"/>
     </row>
     <row r="69" spans="1:32">
       <c r="A69" s="6"/>
@@ -5720,15 +5717,15 @@
       <c r="U69" s="8"/>
       <c r="V69" s="8"/>
       <c r="W69" s="8"/>
-      <c r="X69" s="33"/>
-      <c r="Y69" s="33"/>
-      <c r="Z69" s="33"/>
-      <c r="AA69" s="33"/>
-      <c r="AB69" s="33"/>
-      <c r="AC69" s="33"/>
-      <c r="AD69" s="33"/>
-      <c r="AE69" s="33"/>
-      <c r="AF69" s="38"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="37"/>
     </row>
     <row r="70" spans="1:32">
       <c r="A70" s="6"/>
@@ -5754,15 +5751,15 @@
       <c r="U70" s="8"/>
       <c r="V70" s="8"/>
       <c r="W70" s="8"/>
-      <c r="X70" s="33"/>
-      <c r="Y70" s="33"/>
-      <c r="Z70" s="33"/>
-      <c r="AA70" s="33"/>
-      <c r="AB70" s="33"/>
-      <c r="AC70" s="33"/>
-      <c r="AD70" s="33"/>
-      <c r="AE70" s="33"/>
-      <c r="AF70" s="38"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="37"/>
     </row>
     <row r="71" spans="1:32">
       <c r="A71" s="6"/>
@@ -5788,15 +5785,15 @@
       <c r="U71" s="8"/>
       <c r="V71" s="8"/>
       <c r="W71" s="8"/>
-      <c r="X71" s="33"/>
-      <c r="Y71" s="33"/>
-      <c r="Z71" s="33"/>
-      <c r="AA71" s="33"/>
-      <c r="AB71" s="33"/>
-      <c r="AC71" s="33"/>
-      <c r="AD71" s="33"/>
-      <c r="AE71" s="33"/>
-      <c r="AF71" s="38"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="37"/>
     </row>
     <row r="72" spans="1:32">
       <c r="A72" s="6"/>
@@ -5822,15 +5819,15 @@
       <c r="U72" s="8"/>
       <c r="V72" s="8"/>
       <c r="W72" s="8"/>
-      <c r="X72" s="33"/>
-      <c r="Y72" s="33"/>
-      <c r="Z72" s="33"/>
-      <c r="AA72" s="33"/>
-      <c r="AB72" s="33"/>
-      <c r="AC72" s="33"/>
-      <c r="AD72" s="33"/>
-      <c r="AE72" s="33"/>
-      <c r="AF72" s="38"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="37"/>
     </row>
     <row r="73" spans="1:32">
       <c r="A73" s="6"/>
@@ -5856,15 +5853,15 @@
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
       <c r="W73" s="8"/>
-      <c r="X73" s="33"/>
-      <c r="Y73" s="33"/>
-      <c r="Z73" s="33"/>
-      <c r="AA73" s="33"/>
-      <c r="AB73" s="33"/>
-      <c r="AC73" s="33"/>
-      <c r="AD73" s="33"/>
-      <c r="AE73" s="33"/>
-      <c r="AF73" s="38"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="2"/>
+      <c r="AF73" s="37"/>
     </row>
     <row r="74" spans="1:32">
       <c r="A74" s="6"/>
@@ -5890,15 +5887,15 @@
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
       <c r="W74" s="8"/>
-      <c r="X74" s="33"/>
-      <c r="Y74" s="33"/>
-      <c r="Z74" s="33"/>
-      <c r="AA74" s="33"/>
-      <c r="AB74" s="33"/>
-      <c r="AC74" s="33"/>
-      <c r="AD74" s="33"/>
-      <c r="AE74" s="33"/>
-      <c r="AF74" s="38"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2"/>
+      <c r="AF74" s="37"/>
     </row>
     <row r="75" spans="1:32">
       <c r="A75" s="6"/>
@@ -5924,15 +5921,15 @@
       <c r="U75" s="8"/>
       <c r="V75" s="8"/>
       <c r="W75" s="8"/>
-      <c r="X75" s="33"/>
-      <c r="Y75" s="33"/>
-      <c r="Z75" s="33"/>
-      <c r="AA75" s="33"/>
-      <c r="AB75" s="33"/>
-      <c r="AC75" s="33"/>
-      <c r="AD75" s="33"/>
-      <c r="AE75" s="33"/>
-      <c r="AF75" s="38"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="37"/>
     </row>
     <row r="76" spans="1:32">
       <c r="A76" s="6"/>
@@ -5958,15 +5955,15 @@
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
       <c r="W76" s="8"/>
-      <c r="X76" s="33"/>
-      <c r="Y76" s="33"/>
-      <c r="Z76" s="33"/>
-      <c r="AA76" s="33"/>
-      <c r="AB76" s="33"/>
-      <c r="AC76" s="33"/>
-      <c r="AD76" s="33"/>
-      <c r="AE76" s="33"/>
-      <c r="AF76" s="38"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
+      <c r="AF76" s="37"/>
     </row>
     <row r="77" spans="1:32">
       <c r="A77" s="6"/>
@@ -5992,15 +5989,15 @@
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
       <c r="W77" s="8"/>
-      <c r="X77" s="33"/>
-      <c r="Y77" s="33"/>
-      <c r="Z77" s="33"/>
-      <c r="AA77" s="33"/>
-      <c r="AB77" s="33"/>
-      <c r="AC77" s="33"/>
-      <c r="AD77" s="33"/>
-      <c r="AE77" s="33"/>
-      <c r="AF77" s="38"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="37"/>
     </row>
     <row r="78" spans="1:32">
       <c r="A78" s="6"/>
@@ -6026,15 +6023,15 @@
       <c r="U78" s="8"/>
       <c r="V78" s="8"/>
       <c r="W78" s="8"/>
-      <c r="X78" s="33"/>
-      <c r="Y78" s="33"/>
-      <c r="Z78" s="33"/>
-      <c r="AA78" s="33"/>
-      <c r="AB78" s="33"/>
-      <c r="AC78" s="33"/>
-      <c r="AD78" s="33"/>
-      <c r="AE78" s="33"/>
-      <c r="AF78" s="38"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="37"/>
     </row>
     <row r="79" spans="1:32">
       <c r="A79" s="6"/>
@@ -6060,15 +6057,15 @@
       <c r="U79" s="8"/>
       <c r="V79" s="8"/>
       <c r="W79" s="8"/>
-      <c r="X79" s="33"/>
-      <c r="Y79" s="33"/>
-      <c r="Z79" s="33"/>
-      <c r="AA79" s="33"/>
-      <c r="AB79" s="33"/>
-      <c r="AC79" s="33"/>
-      <c r="AD79" s="33"/>
-      <c r="AE79" s="33"/>
-      <c r="AF79" s="38"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="37"/>
     </row>
     <row r="80" spans="1:32">
       <c r="A80" s="6"/>
@@ -6094,15 +6091,15 @@
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
       <c r="W80" s="8"/>
-      <c r="X80" s="33"/>
-      <c r="Y80" s="33"/>
-      <c r="Z80" s="33"/>
-      <c r="AA80" s="33"/>
-      <c r="AB80" s="33"/>
-      <c r="AC80" s="33"/>
-      <c r="AD80" s="33"/>
-      <c r="AE80" s="33"/>
-      <c r="AF80" s="38"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
+      <c r="AD80" s="2"/>
+      <c r="AE80" s="2"/>
+      <c r="AF80" s="37"/>
     </row>
     <row r="81" spans="1:32">
       <c r="A81" s="6"/>
@@ -6128,15 +6125,15 @@
       <c r="U81" s="8"/>
       <c r="V81" s="8"/>
       <c r="W81" s="8"/>
-      <c r="X81" s="33"/>
-      <c r="Y81" s="33"/>
-      <c r="Z81" s="33"/>
-      <c r="AA81" s="33"/>
-      <c r="AB81" s="33"/>
-      <c r="AC81" s="33"/>
-      <c r="AD81" s="33"/>
-      <c r="AE81" s="33"/>
-      <c r="AF81" s="38"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="2"/>
+      <c r="AE81" s="2"/>
+      <c r="AF81" s="37"/>
     </row>
     <row r="82" spans="1:32">
       <c r="A82" s="6"/>
@@ -6162,15 +6159,15 @@
       <c r="U82" s="8"/>
       <c r="V82" s="8"/>
       <c r="W82" s="8"/>
-      <c r="X82" s="33"/>
-      <c r="Y82" s="33"/>
-      <c r="Z82" s="33"/>
-      <c r="AA82" s="33"/>
-      <c r="AB82" s="33"/>
-      <c r="AC82" s="33"/>
-      <c r="AD82" s="33"/>
-      <c r="AE82" s="33"/>
-      <c r="AF82" s="38"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="37"/>
     </row>
     <row r="83" spans="1:32">
       <c r="A83" s="6"/>
@@ -6196,15 +6193,15 @@
       <c r="U83" s="8"/>
       <c r="V83" s="8"/>
       <c r="W83" s="8"/>
-      <c r="X83" s="33"/>
-      <c r="Y83" s="33"/>
-      <c r="Z83" s="33"/>
-      <c r="AA83" s="33"/>
-      <c r="AB83" s="33"/>
-      <c r="AC83" s="33"/>
-      <c r="AD83" s="33"/>
-      <c r="AE83" s="33"/>
-      <c r="AF83" s="38"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="37"/>
     </row>
     <row r="84" spans="1:32">
       <c r="A84" s="6"/>
@@ -6230,15 +6227,15 @@
       <c r="U84" s="8"/>
       <c r="V84" s="8"/>
       <c r="W84" s="8"/>
-      <c r="X84" s="33"/>
-      <c r="Y84" s="33"/>
-      <c r="Z84" s="33"/>
-      <c r="AA84" s="33"/>
-      <c r="AB84" s="33"/>
-      <c r="AC84" s="33"/>
-      <c r="AD84" s="33"/>
-      <c r="AE84" s="33"/>
-      <c r="AF84" s="38"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
+      <c r="AF84" s="37"/>
     </row>
     <row r="85" spans="1:32">
       <c r="A85" s="6"/>
@@ -6264,15 +6261,15 @@
       <c r="U85" s="8"/>
       <c r="V85" s="8"/>
       <c r="W85" s="8"/>
-      <c r="X85" s="33"/>
-      <c r="Y85" s="33"/>
-      <c r="Z85" s="33"/>
-      <c r="AA85" s="33"/>
-      <c r="AB85" s="33"/>
-      <c r="AC85" s="33"/>
-      <c r="AD85" s="33"/>
-      <c r="AE85" s="33"/>
-      <c r="AF85" s="38"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="2"/>
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="37"/>
     </row>
     <row r="86" spans="1:32">
       <c r="A86" s="6"/>
@@ -6298,15 +6295,15 @@
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
       <c r="W86" s="8"/>
-      <c r="X86" s="33"/>
-      <c r="Y86" s="33"/>
-      <c r="Z86" s="33"/>
-      <c r="AA86" s="33"/>
-      <c r="AB86" s="33"/>
-      <c r="AC86" s="33"/>
-      <c r="AD86" s="33"/>
-      <c r="AE86" s="33"/>
-      <c r="AF86" s="38"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="2"/>
+      <c r="AE86" s="2"/>
+      <c r="AF86" s="37"/>
     </row>
     <row r="87" spans="1:32">
       <c r="A87" s="6"/>
@@ -6332,15 +6329,15 @@
       <c r="U87" s="8"/>
       <c r="V87" s="8"/>
       <c r="W87" s="8"/>
-      <c r="X87" s="33"/>
-      <c r="Y87" s="33"/>
-      <c r="Z87" s="33"/>
-      <c r="AA87" s="33"/>
-      <c r="AB87" s="33"/>
-      <c r="AC87" s="33"/>
-      <c r="AD87" s="33"/>
-      <c r="AE87" s="33"/>
-      <c r="AF87" s="38"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
+      <c r="AE87" s="2"/>
+      <c r="AF87" s="37"/>
     </row>
     <row r="88" spans="1:32">
       <c r="A88" s="6"/>
@@ -6366,15 +6363,15 @@
       <c r="U88" s="8"/>
       <c r="V88" s="8"/>
       <c r="W88" s="8"/>
-      <c r="X88" s="33"/>
-      <c r="Y88" s="33"/>
-      <c r="Z88" s="33"/>
-      <c r="AA88" s="33"/>
-      <c r="AB88" s="33"/>
-      <c r="AC88" s="33"/>
-      <c r="AD88" s="33"/>
-      <c r="AE88" s="33"/>
-      <c r="AF88" s="38"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
+      <c r="AD88" s="2"/>
+      <c r="AE88" s="2"/>
+      <c r="AF88" s="37"/>
     </row>
     <row r="89" spans="1:32">
       <c r="A89" s="6"/>
@@ -6400,15 +6397,15 @@
       <c r="U89" s="8"/>
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
-      <c r="X89" s="33"/>
-      <c r="Y89" s="33"/>
-      <c r="Z89" s="33"/>
-      <c r="AA89" s="33"/>
-      <c r="AB89" s="33"/>
-      <c r="AC89" s="33"/>
-      <c r="AD89" s="33"/>
-      <c r="AE89" s="33"/>
-      <c r="AF89" s="38"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
+      <c r="AD89" s="2"/>
+      <c r="AE89" s="2"/>
+      <c r="AF89" s="37"/>
     </row>
     <row r="90" spans="1:32">
       <c r="A90" s="6"/>
@@ -6434,15 +6431,15 @@
       <c r="U90" s="8"/>
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
-      <c r="X90" s="33"/>
-      <c r="Y90" s="33"/>
-      <c r="Z90" s="33"/>
-      <c r="AA90" s="33"/>
-      <c r="AB90" s="33"/>
-      <c r="AC90" s="33"/>
-      <c r="AD90" s="33"/>
-      <c r="AE90" s="33"/>
-      <c r="AF90" s="38"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
+      <c r="AE90" s="2"/>
+      <c r="AF90" s="37"/>
     </row>
     <row r="91" spans="1:32">
       <c r="A91" s="6"/>
@@ -6468,15 +6465,15 @@
       <c r="U91" s="8"/>
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
-      <c r="X91" s="33"/>
-      <c r="Y91" s="33"/>
-      <c r="Z91" s="33"/>
-      <c r="AA91" s="33"/>
-      <c r="AB91" s="33"/>
-      <c r="AC91" s="33"/>
-      <c r="AD91" s="33"/>
-      <c r="AE91" s="33"/>
-      <c r="AF91" s="38"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
+      <c r="AD91" s="2"/>
+      <c r="AE91" s="2"/>
+      <c r="AF91" s="37"/>
     </row>
     <row r="92" spans="1:32">
       <c r="A92" s="6"/>
@@ -6502,15 +6499,15 @@
       <c r="U92" s="8"/>
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
-      <c r="X92" s="33"/>
-      <c r="Y92" s="33"/>
-      <c r="Z92" s="33"/>
-      <c r="AA92" s="33"/>
-      <c r="AB92" s="33"/>
-      <c r="AC92" s="33"/>
-      <c r="AD92" s="33"/>
-      <c r="AE92" s="33"/>
-      <c r="AF92" s="38"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
+      <c r="AB92" s="2"/>
+      <c r="AC92" s="2"/>
+      <c r="AD92" s="2"/>
+      <c r="AE92" s="2"/>
+      <c r="AF92" s="37"/>
     </row>
     <row r="93" spans="1:32">
       <c r="A93" s="6"/>
@@ -6536,15 +6533,15 @@
       <c r="U93" s="8"/>
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
-      <c r="X93" s="33"/>
-      <c r="Y93" s="33"/>
-      <c r="Z93" s="33"/>
-      <c r="AA93" s="33"/>
-      <c r="AB93" s="33"/>
-      <c r="AC93" s="33"/>
-      <c r="AD93" s="33"/>
-      <c r="AE93" s="33"/>
-      <c r="AF93" s="38"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
+      <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
+      <c r="AD93" s="2"/>
+      <c r="AE93" s="2"/>
+      <c r="AF93" s="37"/>
     </row>
     <row r="94" spans="1:32">
       <c r="A94" s="6"/>
@@ -6570,15 +6567,15 @@
       <c r="U94" s="8"/>
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
-      <c r="X94" s="33"/>
-      <c r="Y94" s="33"/>
-      <c r="Z94" s="33"/>
-      <c r="AA94" s="33"/>
-      <c r="AB94" s="33"/>
-      <c r="AC94" s="33"/>
-      <c r="AD94" s="33"/>
-      <c r="AE94" s="33"/>
-      <c r="AF94" s="38"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
+      <c r="AB94" s="2"/>
+      <c r="AC94" s="2"/>
+      <c r="AD94" s="2"/>
+      <c r="AE94" s="2"/>
+      <c r="AF94" s="37"/>
     </row>
     <row r="95" spans="1:32">
       <c r="A95" s="6"/>
@@ -6604,15 +6601,15 @@
       <c r="U95" s="8"/>
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
-      <c r="X95" s="33"/>
-      <c r="Y95" s="33"/>
-      <c r="Z95" s="33"/>
-      <c r="AA95" s="33"/>
-      <c r="AB95" s="33"/>
-      <c r="AC95" s="33"/>
-      <c r="AD95" s="33"/>
-      <c r="AE95" s="33"/>
-      <c r="AF95" s="38"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
+      <c r="AA95" s="2"/>
+      <c r="AB95" s="2"/>
+      <c r="AC95" s="2"/>
+      <c r="AD95" s="2"/>
+      <c r="AE95" s="2"/>
+      <c r="AF95" s="37"/>
     </row>
     <row r="96" spans="1:32">
       <c r="A96" s="6"/>
@@ -6638,15 +6635,15 @@
       <c r="U96" s="8"/>
       <c r="V96" s="8"/>
       <c r="W96" s="8"/>
-      <c r="X96" s="33"/>
-      <c r="Y96" s="33"/>
-      <c r="Z96" s="33"/>
-      <c r="AA96" s="33"/>
-      <c r="AB96" s="33"/>
-      <c r="AC96" s="33"/>
-      <c r="AD96" s="33"/>
-      <c r="AE96" s="33"/>
-      <c r="AF96" s="38"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="2"/>
+      <c r="AC96" s="2"/>
+      <c r="AD96" s="2"/>
+      <c r="AE96" s="2"/>
+      <c r="AF96" s="37"/>
     </row>
     <row r="97" spans="1:32">
       <c r="A97" s="6"/>
@@ -6672,15 +6669,15 @@
       <c r="U97" s="8"/>
       <c r="V97" s="8"/>
       <c r="W97" s="8"/>
-      <c r="X97" s="33"/>
-      <c r="Y97" s="33"/>
-      <c r="Z97" s="33"/>
-      <c r="AA97" s="33"/>
-      <c r="AB97" s="33"/>
-      <c r="AC97" s="33"/>
-      <c r="AD97" s="33"/>
-      <c r="AE97" s="33"/>
-      <c r="AF97" s="38"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2"/>
+      <c r="AC97" s="2"/>
+      <c r="AD97" s="2"/>
+      <c r="AE97" s="2"/>
+      <c r="AF97" s="37"/>
     </row>
     <row r="98" spans="1:32">
       <c r="A98" s="6"/>
@@ -6706,15 +6703,15 @@
       <c r="U98" s="8"/>
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
-      <c r="X98" s="33"/>
-      <c r="Y98" s="33"/>
-      <c r="Z98" s="33"/>
-      <c r="AA98" s="33"/>
-      <c r="AB98" s="33"/>
-      <c r="AC98" s="33"/>
-      <c r="AD98" s="33"/>
-      <c r="AE98" s="33"/>
-      <c r="AF98" s="38"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
+      <c r="AA98" s="2"/>
+      <c r="AB98" s="2"/>
+      <c r="AC98" s="2"/>
+      <c r="AD98" s="2"/>
+      <c r="AE98" s="2"/>
+      <c r="AF98" s="37"/>
     </row>
     <row r="99" spans="1:32">
       <c r="A99" s="6"/>
@@ -6740,15 +6737,15 @@
       <c r="U99" s="8"/>
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
-      <c r="X99" s="33"/>
-      <c r="Y99" s="33"/>
-      <c r="Z99" s="33"/>
-      <c r="AA99" s="33"/>
-      <c r="AB99" s="33"/>
-      <c r="AC99" s="33"/>
-      <c r="AD99" s="33"/>
-      <c r="AE99" s="33"/>
-      <c r="AF99" s="38"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
+      <c r="AB99" s="2"/>
+      <c r="AC99" s="2"/>
+      <c r="AD99" s="2"/>
+      <c r="AE99" s="2"/>
+      <c r="AF99" s="37"/>
     </row>
     <row r="100" spans="1:32">
       <c r="A100" s="6"/>
@@ -6774,15 +6771,15 @@
       <c r="U100" s="8"/>
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
-      <c r="X100" s="33"/>
-      <c r="Y100" s="33"/>
-      <c r="Z100" s="33"/>
-      <c r="AA100" s="33"/>
-      <c r="AB100" s="33"/>
-      <c r="AC100" s="33"/>
-      <c r="AD100" s="33"/>
-      <c r="AE100" s="33"/>
-      <c r="AF100" s="38"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
+      <c r="AB100" s="2"/>
+      <c r="AC100" s="2"/>
+      <c r="AD100" s="2"/>
+      <c r="AE100" s="2"/>
+      <c r="AF100" s="37"/>
     </row>
     <row r="101" spans="1:32">
       <c r="A101" s="6"/>
@@ -6808,15 +6805,15 @@
       <c r="U101" s="8"/>
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
-      <c r="X101" s="33"/>
-      <c r="Y101" s="33"/>
-      <c r="Z101" s="33"/>
-      <c r="AA101" s="33"/>
-      <c r="AB101" s="33"/>
-      <c r="AC101" s="33"/>
-      <c r="AD101" s="33"/>
-      <c r="AE101" s="33"/>
-      <c r="AF101" s="38"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
+      <c r="AB101" s="2"/>
+      <c r="AC101" s="2"/>
+      <c r="AD101" s="2"/>
+      <c r="AE101" s="2"/>
+      <c r="AF101" s="37"/>
     </row>
     <row r="102" spans="1:32">
       <c r="A102" s="6"/>
@@ -6842,15 +6839,15 @@
       <c r="U102" s="8"/>
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
-      <c r="X102" s="33"/>
-      <c r="Y102" s="33"/>
-      <c r="Z102" s="33"/>
-      <c r="AA102" s="33"/>
-      <c r="AB102" s="33"/>
-      <c r="AC102" s="33"/>
-      <c r="AD102" s="33"/>
-      <c r="AE102" s="33"/>
-      <c r="AF102" s="38"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
+      <c r="AB102" s="2"/>
+      <c r="AC102" s="2"/>
+      <c r="AD102" s="2"/>
+      <c r="AE102" s="2"/>
+      <c r="AF102" s="37"/>
     </row>
     <row r="103" spans="1:32">
       <c r="A103" s="6"/>
@@ -6876,15 +6873,15 @@
       <c r="U103" s="8"/>
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
-      <c r="X103" s="33"/>
-      <c r="Y103" s="33"/>
-      <c r="Z103" s="33"/>
-      <c r="AA103" s="33"/>
-      <c r="AB103" s="33"/>
-      <c r="AC103" s="33"/>
-      <c r="AD103" s="33"/>
-      <c r="AE103" s="33"/>
-      <c r="AF103" s="38"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
+      <c r="AB103" s="2"/>
+      <c r="AC103" s="2"/>
+      <c r="AD103" s="2"/>
+      <c r="AE103" s="2"/>
+      <c r="AF103" s="37"/>
     </row>
     <row r="104" spans="1:32">
       <c r="A104" s="6"/>
@@ -6910,15 +6907,15 @@
       <c r="U104" s="8"/>
       <c r="V104" s="8"/>
       <c r="W104" s="8"/>
-      <c r="X104" s="33"/>
-      <c r="Y104" s="33"/>
-      <c r="Z104" s="33"/>
-      <c r="AA104" s="33"/>
-      <c r="AB104" s="33"/>
-      <c r="AC104" s="33"/>
-      <c r="AD104" s="33"/>
-      <c r="AE104" s="33"/>
-      <c r="AF104" s="38"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="2"/>
+      <c r="AB104" s="2"/>
+      <c r="AC104" s="2"/>
+      <c r="AD104" s="2"/>
+      <c r="AE104" s="2"/>
+      <c r="AF104" s="37"/>
     </row>
     <row r="105" spans="1:32">
       <c r="A105" s="6"/>
@@ -6944,15 +6941,15 @@
       <c r="U105" s="8"/>
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
-      <c r="X105" s="33"/>
-      <c r="Y105" s="33"/>
-      <c r="Z105" s="33"/>
-      <c r="AA105" s="33"/>
-      <c r="AB105" s="33"/>
-      <c r="AC105" s="33"/>
-      <c r="AD105" s="33"/>
-      <c r="AE105" s="33"/>
-      <c r="AF105" s="38"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
+      <c r="AB105" s="2"/>
+      <c r="AC105" s="2"/>
+      <c r="AD105" s="2"/>
+      <c r="AE105" s="2"/>
+      <c r="AF105" s="37"/>
     </row>
     <row r="106" spans="1:32">
       <c r="A106" s="6"/>
@@ -6978,15 +6975,15 @@
       <c r="U106" s="8"/>
       <c r="V106" s="8"/>
       <c r="W106" s="8"/>
-      <c r="X106" s="33"/>
-      <c r="Y106" s="33"/>
-      <c r="Z106" s="33"/>
-      <c r="AA106" s="33"/>
-      <c r="AB106" s="33"/>
-      <c r="AC106" s="33"/>
-      <c r="AD106" s="33"/>
-      <c r="AE106" s="33"/>
-      <c r="AF106" s="38"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
+      <c r="AB106" s="2"/>
+      <c r="AC106" s="2"/>
+      <c r="AD106" s="2"/>
+      <c r="AE106" s="2"/>
+      <c r="AF106" s="37"/>
     </row>
     <row r="107" spans="1:32">
       <c r="A107" s="6"/>
@@ -7012,15 +7009,15 @@
       <c r="U107" s="8"/>
       <c r="V107" s="8"/>
       <c r="W107" s="8"/>
-      <c r="X107" s="33"/>
-      <c r="Y107" s="33"/>
-      <c r="Z107" s="33"/>
-      <c r="AA107" s="33"/>
-      <c r="AB107" s="33"/>
-      <c r="AC107" s="33"/>
-      <c r="AD107" s="33"/>
-      <c r="AE107" s="33"/>
-      <c r="AF107" s="38"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+      <c r="AB107" s="2"/>
+      <c r="AC107" s="2"/>
+      <c r="AD107" s="2"/>
+      <c r="AE107" s="2"/>
+      <c r="AF107" s="37"/>
     </row>
     <row r="108" spans="1:32">
       <c r="A108" s="6"/>
@@ -7046,15 +7043,15 @@
       <c r="U108" s="8"/>
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
-      <c r="X108" s="33"/>
-      <c r="Y108" s="33"/>
-      <c r="Z108" s="33"/>
-      <c r="AA108" s="33"/>
-      <c r="AB108" s="33"/>
-      <c r="AC108" s="33"/>
-      <c r="AD108" s="33"/>
-      <c r="AE108" s="33"/>
-      <c r="AF108" s="38"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
+      <c r="AC108" s="2"/>
+      <c r="AD108" s="2"/>
+      <c r="AE108" s="2"/>
+      <c r="AF108" s="37"/>
     </row>
     <row r="109" spans="1:32">
       <c r="A109" s="6"/>
@@ -7080,15 +7077,15 @@
       <c r="U109" s="8"/>
       <c r="V109" s="8"/>
       <c r="W109" s="8"/>
-      <c r="X109" s="33"/>
-      <c r="Y109" s="33"/>
-      <c r="Z109" s="33"/>
-      <c r="AA109" s="33"/>
-      <c r="AB109" s="33"/>
-      <c r="AC109" s="33"/>
-      <c r="AD109" s="33"/>
-      <c r="AE109" s="33"/>
-      <c r="AF109" s="38"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="2"/>
+      <c r="AE109" s="2"/>
+      <c r="AF109" s="37"/>
     </row>
     <row r="110" spans="1:32">
       <c r="A110" s="6"/>
@@ -7114,15 +7111,15 @@
       <c r="U110" s="8"/>
       <c r="V110" s="8"/>
       <c r="W110" s="8"/>
-      <c r="X110" s="33"/>
-      <c r="Y110" s="33"/>
-      <c r="Z110" s="33"/>
-      <c r="AA110" s="33"/>
-      <c r="AB110" s="33"/>
-      <c r="AC110" s="33"/>
-      <c r="AD110" s="33"/>
-      <c r="AE110" s="33"/>
-      <c r="AF110" s="38"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
+      <c r="AC110" s="2"/>
+      <c r="AD110" s="2"/>
+      <c r="AE110" s="2"/>
+      <c r="AF110" s="37"/>
     </row>
     <row r="111" spans="1:32">
       <c r="A111" s="6"/>
@@ -7148,15 +7145,15 @@
       <c r="U111" s="8"/>
       <c r="V111" s="8"/>
       <c r="W111" s="8"/>
-      <c r="X111" s="33"/>
-      <c r="Y111" s="33"/>
-      <c r="Z111" s="33"/>
-      <c r="AA111" s="33"/>
-      <c r="AB111" s="33"/>
-      <c r="AC111" s="33"/>
-      <c r="AD111" s="33"/>
-      <c r="AE111" s="33"/>
-      <c r="AF111" s="38"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="2"/>
+      <c r="AB111" s="2"/>
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
+      <c r="AE111" s="2"/>
+      <c r="AF111" s="37"/>
     </row>
     <row r="112" spans="1:32">
       <c r="A112" s="6"/>
@@ -7182,15 +7179,15 @@
       <c r="U112" s="8"/>
       <c r="V112" s="8"/>
       <c r="W112" s="8"/>
-      <c r="X112" s="33"/>
-      <c r="Y112" s="33"/>
-      <c r="Z112" s="33"/>
-      <c r="AA112" s="33"/>
-      <c r="AB112" s="33"/>
-      <c r="AC112" s="33"/>
-      <c r="AD112" s="33"/>
-      <c r="AE112" s="33"/>
-      <c r="AF112" s="38"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="2"/>
+      <c r="Z112" s="2"/>
+      <c r="AA112" s="2"/>
+      <c r="AB112" s="2"/>
+      <c r="AC112" s="2"/>
+      <c r="AD112" s="2"/>
+      <c r="AE112" s="2"/>
+      <c r="AF112" s="37"/>
     </row>
     <row r="113" spans="1:32">
       <c r="A113" s="6"/>
@@ -7216,15 +7213,15 @@
       <c r="U113" s="8"/>
       <c r="V113" s="8"/>
       <c r="W113" s="8"/>
-      <c r="X113" s="33"/>
-      <c r="Y113" s="33"/>
-      <c r="Z113" s="33"/>
-      <c r="AA113" s="33"/>
-      <c r="AB113" s="33"/>
-      <c r="AC113" s="33"/>
-      <c r="AD113" s="33"/>
-      <c r="AE113" s="33"/>
-      <c r="AF113" s="38"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="2"/>
+      <c r="Z113" s="2"/>
+      <c r="AA113" s="2"/>
+      <c r="AB113" s="2"/>
+      <c r="AC113" s="2"/>
+      <c r="AD113" s="2"/>
+      <c r="AE113" s="2"/>
+      <c r="AF113" s="37"/>
     </row>
     <row r="114" spans="1:32">
       <c r="A114" s="6"/>
@@ -7250,15 +7247,15 @@
       <c r="U114" s="8"/>
       <c r="V114" s="8"/>
       <c r="W114" s="8"/>
-      <c r="X114" s="33"/>
-      <c r="Y114" s="33"/>
-      <c r="Z114" s="33"/>
-      <c r="AA114" s="33"/>
-      <c r="AB114" s="33"/>
-      <c r="AC114" s="33"/>
-      <c r="AD114" s="33"/>
-      <c r="AE114" s="33"/>
-      <c r="AF114" s="38"/>
+      <c r="X114" s="2"/>
+      <c r="Y114" s="2"/>
+      <c r="Z114" s="2"/>
+      <c r="AA114" s="2"/>
+      <c r="AB114" s="2"/>
+      <c r="AC114" s="2"/>
+      <c r="AD114" s="2"/>
+      <c r="AE114" s="2"/>
+      <c r="AF114" s="37"/>
     </row>
     <row r="115" spans="1:32">
       <c r="A115" s="6"/>
@@ -7284,15 +7281,15 @@
       <c r="U115" s="8"/>
       <c r="V115" s="8"/>
       <c r="W115" s="8"/>
-      <c r="X115" s="33"/>
-      <c r="Y115" s="33"/>
-      <c r="Z115" s="33"/>
-      <c r="AA115" s="33"/>
-      <c r="AB115" s="33"/>
-      <c r="AC115" s="33"/>
-      <c r="AD115" s="33"/>
-      <c r="AE115" s="33"/>
-      <c r="AF115" s="38"/>
+      <c r="X115" s="2"/>
+      <c r="Y115" s="2"/>
+      <c r="Z115" s="2"/>
+      <c r="AA115" s="2"/>
+      <c r="AB115" s="2"/>
+      <c r="AC115" s="2"/>
+      <c r="AD115" s="2"/>
+      <c r="AE115" s="2"/>
+      <c r="AF115" s="37"/>
     </row>
     <row r="116" spans="1:32">
       <c r="A116" s="6"/>
@@ -7318,15 +7315,15 @@
       <c r="U116" s="8"/>
       <c r="V116" s="8"/>
       <c r="W116" s="8"/>
-      <c r="X116" s="33"/>
-      <c r="Y116" s="33"/>
-      <c r="Z116" s="33"/>
-      <c r="AA116" s="33"/>
-      <c r="AB116" s="33"/>
-      <c r="AC116" s="33"/>
-      <c r="AD116" s="33"/>
-      <c r="AE116" s="33"/>
-      <c r="AF116" s="38"/>
+      <c r="X116" s="2"/>
+      <c r="Y116" s="2"/>
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="2"/>
+      <c r="AB116" s="2"/>
+      <c r="AC116" s="2"/>
+      <c r="AD116" s="2"/>
+      <c r="AE116" s="2"/>
+      <c r="AF116" s="37"/>
     </row>
     <row r="117" spans="1:32">
       <c r="A117" s="6"/>
@@ -7352,15 +7349,15 @@
       <c r="U117" s="8"/>
       <c r="V117" s="8"/>
       <c r="W117" s="8"/>
-      <c r="X117" s="33"/>
-      <c r="Y117" s="33"/>
-      <c r="Z117" s="33"/>
-      <c r="AA117" s="33"/>
-      <c r="AB117" s="33"/>
-      <c r="AC117" s="33"/>
-      <c r="AD117" s="33"/>
-      <c r="AE117" s="33"/>
-      <c r="AF117" s="38"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="2"/>
+      <c r="Z117" s="2"/>
+      <c r="AA117" s="2"/>
+      <c r="AB117" s="2"/>
+      <c r="AC117" s="2"/>
+      <c r="AD117" s="2"/>
+      <c r="AE117" s="2"/>
+      <c r="AF117" s="37"/>
     </row>
     <row r="118" spans="1:32">
       <c r="A118" s="6"/>
@@ -7386,15 +7383,15 @@
       <c r="U118" s="8"/>
       <c r="V118" s="8"/>
       <c r="W118" s="8"/>
-      <c r="X118" s="33"/>
-      <c r="Y118" s="33"/>
-      <c r="Z118" s="33"/>
-      <c r="AA118" s="33"/>
-      <c r="AB118" s="33"/>
-      <c r="AC118" s="33"/>
-      <c r="AD118" s="33"/>
-      <c r="AE118" s="33"/>
-      <c r="AF118" s="38"/>
+      <c r="X118" s="2"/>
+      <c r="Y118" s="2"/>
+      <c r="Z118" s="2"/>
+      <c r="AA118" s="2"/>
+      <c r="AB118" s="2"/>
+      <c r="AC118" s="2"/>
+      <c r="AD118" s="2"/>
+      <c r="AE118" s="2"/>
+      <c r="AF118" s="37"/>
     </row>
     <row r="119" spans="1:32">
       <c r="A119" s="6"/>
@@ -7420,15 +7417,15 @@
       <c r="U119" s="8"/>
       <c r="V119" s="8"/>
       <c r="W119" s="8"/>
-      <c r="X119" s="33"/>
-      <c r="Y119" s="33"/>
-      <c r="Z119" s="33"/>
-      <c r="AA119" s="33"/>
-      <c r="AB119" s="33"/>
-      <c r="AC119" s="33"/>
-      <c r="AD119" s="33"/>
-      <c r="AE119" s="33"/>
-      <c r="AF119" s="38"/>
+      <c r="X119" s="2"/>
+      <c r="Y119" s="2"/>
+      <c r="Z119" s="2"/>
+      <c r="AA119" s="2"/>
+      <c r="AB119" s="2"/>
+      <c r="AC119" s="2"/>
+      <c r="AD119" s="2"/>
+      <c r="AE119" s="2"/>
+      <c r="AF119" s="37"/>
     </row>
     <row r="120" spans="1:32">
       <c r="A120" s="6"/>
@@ -7454,15 +7451,15 @@
       <c r="U120" s="8"/>
       <c r="V120" s="8"/>
       <c r="W120" s="8"/>
-      <c r="X120" s="33"/>
-      <c r="Y120" s="33"/>
-      <c r="Z120" s="33"/>
-      <c r="AA120" s="33"/>
-      <c r="AB120" s="33"/>
-      <c r="AC120" s="33"/>
-      <c r="AD120" s="33"/>
-      <c r="AE120" s="33"/>
-      <c r="AF120" s="38"/>
+      <c r="X120" s="2"/>
+      <c r="Y120" s="2"/>
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
+      <c r="AB120" s="2"/>
+      <c r="AC120" s="2"/>
+      <c r="AD120" s="2"/>
+      <c r="AE120" s="2"/>
+      <c r="AF120" s="37"/>
     </row>
     <row r="121" spans="1:32">
       <c r="A121" s="6"/>
@@ -7488,15 +7485,15 @@
       <c r="U121" s="8"/>
       <c r="V121" s="8"/>
       <c r="W121" s="8"/>
-      <c r="X121" s="33"/>
-      <c r="Y121" s="33"/>
-      <c r="Z121" s="33"/>
-      <c r="AA121" s="33"/>
-      <c r="AB121" s="33"/>
-      <c r="AC121" s="33"/>
-      <c r="AD121" s="33"/>
-      <c r="AE121" s="33"/>
-      <c r="AF121" s="38"/>
+      <c r="X121" s="2"/>
+      <c r="Y121" s="2"/>
+      <c r="Z121" s="2"/>
+      <c r="AA121" s="2"/>
+      <c r="AB121" s="2"/>
+      <c r="AC121" s="2"/>
+      <c r="AD121" s="2"/>
+      <c r="AE121" s="2"/>
+      <c r="AF121" s="37"/>
     </row>
     <row r="122" spans="1:32">
       <c r="A122" s="6"/>
@@ -7522,15 +7519,15 @@
       <c r="U122" s="8"/>
       <c r="V122" s="8"/>
       <c r="W122" s="8"/>
-      <c r="X122" s="33"/>
-      <c r="Y122" s="33"/>
-      <c r="Z122" s="33"/>
-      <c r="AA122" s="33"/>
-      <c r="AB122" s="33"/>
-      <c r="AC122" s="33"/>
-      <c r="AD122" s="33"/>
-      <c r="AE122" s="33"/>
-      <c r="AF122" s="38"/>
+      <c r="X122" s="2"/>
+      <c r="Y122" s="2"/>
+      <c r="Z122" s="2"/>
+      <c r="AA122" s="2"/>
+      <c r="AB122" s="2"/>
+      <c r="AC122" s="2"/>
+      <c r="AD122" s="2"/>
+      <c r="AE122" s="2"/>
+      <c r="AF122" s="37"/>
     </row>
     <row r="123" spans="1:32">
       <c r="A123" s="6"/>
@@ -7556,15 +7553,15 @@
       <c r="U123" s="8"/>
       <c r="V123" s="8"/>
       <c r="W123" s="8"/>
-      <c r="X123" s="33"/>
-      <c r="Y123" s="33"/>
-      <c r="Z123" s="33"/>
-      <c r="AA123" s="33"/>
-      <c r="AB123" s="33"/>
-      <c r="AC123" s="33"/>
-      <c r="AD123" s="33"/>
-      <c r="AE123" s="33"/>
-      <c r="AF123" s="38"/>
+      <c r="X123" s="2"/>
+      <c r="Y123" s="2"/>
+      <c r="Z123" s="2"/>
+      <c r="AA123" s="2"/>
+      <c r="AB123" s="2"/>
+      <c r="AC123" s="2"/>
+      <c r="AD123" s="2"/>
+      <c r="AE123" s="2"/>
+      <c r="AF123" s="37"/>
     </row>
     <row r="124" spans="1:32">
       <c r="A124" s="6"/>
@@ -7590,15 +7587,15 @@
       <c r="U124" s="8"/>
       <c r="V124" s="8"/>
       <c r="W124" s="8"/>
-      <c r="X124" s="33"/>
-      <c r="Y124" s="33"/>
-      <c r="Z124" s="33"/>
-      <c r="AA124" s="33"/>
-      <c r="AB124" s="33"/>
-      <c r="AC124" s="33"/>
-      <c r="AD124" s="33"/>
-      <c r="AE124" s="33"/>
-      <c r="AF124" s="38"/>
+      <c r="X124" s="2"/>
+      <c r="Y124" s="2"/>
+      <c r="Z124" s="2"/>
+      <c r="AA124" s="2"/>
+      <c r="AB124" s="2"/>
+      <c r="AC124" s="2"/>
+      <c r="AD124" s="2"/>
+      <c r="AE124" s="2"/>
+      <c r="AF124" s="37"/>
     </row>
     <row r="125" spans="1:32">
       <c r="A125" s="6"/>
@@ -7624,15 +7621,15 @@
       <c r="U125" s="8"/>
       <c r="V125" s="8"/>
       <c r="W125" s="8"/>
-      <c r="X125" s="33"/>
-      <c r="Y125" s="33"/>
-      <c r="Z125" s="33"/>
-      <c r="AA125" s="33"/>
-      <c r="AB125" s="33"/>
-      <c r="AC125" s="33"/>
-      <c r="AD125" s="33"/>
-      <c r="AE125" s="33"/>
-      <c r="AF125" s="38"/>
+      <c r="X125" s="2"/>
+      <c r="Y125" s="2"/>
+      <c r="Z125" s="2"/>
+      <c r="AA125" s="2"/>
+      <c r="AB125" s="2"/>
+      <c r="AC125" s="2"/>
+      <c r="AD125" s="2"/>
+      <c r="AE125" s="2"/>
+      <c r="AF125" s="37"/>
     </row>
     <row r="126" spans="1:32">
       <c r="A126" s="6"/>
@@ -7658,15 +7655,15 @@
       <c r="U126" s="8"/>
       <c r="V126" s="8"/>
       <c r="W126" s="8"/>
-      <c r="X126" s="33"/>
-      <c r="Y126" s="33"/>
-      <c r="Z126" s="33"/>
-      <c r="AA126" s="33"/>
-      <c r="AB126" s="33"/>
-      <c r="AC126" s="33"/>
-      <c r="AD126" s="33"/>
-      <c r="AE126" s="33"/>
-      <c r="AF126" s="38"/>
+      <c r="X126" s="2"/>
+      <c r="Y126" s="2"/>
+      <c r="Z126" s="2"/>
+      <c r="AA126" s="2"/>
+      <c r="AB126" s="2"/>
+      <c r="AC126" s="2"/>
+      <c r="AD126" s="2"/>
+      <c r="AE126" s="2"/>
+      <c r="AF126" s="37"/>
     </row>
     <row r="127" spans="1:32">
       <c r="A127" s="6"/>
@@ -7692,15 +7689,15 @@
       <c r="U127" s="8"/>
       <c r="V127" s="8"/>
       <c r="W127" s="8"/>
-      <c r="X127" s="33"/>
-      <c r="Y127" s="33"/>
-      <c r="Z127" s="33"/>
-      <c r="AA127" s="33"/>
-      <c r="AB127" s="33"/>
-      <c r="AC127" s="33"/>
-      <c r="AD127" s="33"/>
-      <c r="AE127" s="33"/>
-      <c r="AF127" s="38"/>
+      <c r="X127" s="2"/>
+      <c r="Y127" s="2"/>
+      <c r="Z127" s="2"/>
+      <c r="AA127" s="2"/>
+      <c r="AB127" s="2"/>
+      <c r="AC127" s="2"/>
+      <c r="AD127" s="2"/>
+      <c r="AE127" s="2"/>
+      <c r="AF127" s="37"/>
     </row>
     <row r="128" spans="1:32">
       <c r="A128" s="6"/>
@@ -7726,15 +7723,15 @@
       <c r="U128" s="8"/>
       <c r="V128" s="8"/>
       <c r="W128" s="8"/>
-      <c r="X128" s="33"/>
-      <c r="Y128" s="33"/>
-      <c r="Z128" s="33"/>
-      <c r="AA128" s="33"/>
-      <c r="AB128" s="33"/>
-      <c r="AC128" s="33"/>
-      <c r="AD128" s="33"/>
-      <c r="AE128" s="33"/>
-      <c r="AF128" s="38"/>
+      <c r="X128" s="2"/>
+      <c r="Y128" s="2"/>
+      <c r="Z128" s="2"/>
+      <c r="AA128" s="2"/>
+      <c r="AB128" s="2"/>
+      <c r="AC128" s="2"/>
+      <c r="AD128" s="2"/>
+      <c r="AE128" s="2"/>
+      <c r="AF128" s="37"/>
     </row>
     <row r="129" spans="1:32">
       <c r="A129" s="6"/>
@@ -7760,15 +7757,15 @@
       <c r="U129" s="8"/>
       <c r="V129" s="8"/>
       <c r="W129" s="8"/>
-      <c r="X129" s="33"/>
-      <c r="Y129" s="33"/>
-      <c r="Z129" s="33"/>
-      <c r="AA129" s="33"/>
-      <c r="AB129" s="33"/>
-      <c r="AC129" s="33"/>
-      <c r="AD129" s="33"/>
-      <c r="AE129" s="33"/>
-      <c r="AF129" s="38"/>
+      <c r="X129" s="2"/>
+      <c r="Y129" s="2"/>
+      <c r="Z129" s="2"/>
+      <c r="AA129" s="2"/>
+      <c r="AB129" s="2"/>
+      <c r="AC129" s="2"/>
+      <c r="AD129" s="2"/>
+      <c r="AE129" s="2"/>
+      <c r="AF129" s="37"/>
     </row>
     <row r="130" spans="1:23">
       <c r="A130" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物.xlsx
@@ -236,10 +236,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -280,22 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,7 +294,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -325,22 +310,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -356,16 +334,52 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,36 +395,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,6 +412,14 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -554,18 +554,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -573,6 +561,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,25 +584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,13 +632,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,25 +686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,37 +704,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,8 +774,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,17 +848,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,198 +868,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       